--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29581B48-2B1F-4E91-AADD-2DE5598E0DD6}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0EF0688-A331-4B90-B3C3-B93CECE6BAE1}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="23700" windowHeight="15560" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
-    <sheet name="Balance of Payments" sheetId="3" r:id="rId2"/>
-    <sheet name="Debt " sheetId="2" r:id="rId3"/>
+    <sheet name="Labor force" sheetId="4" r:id="rId2"/>
+    <sheet name="Balance of Payments" sheetId="3" r:id="rId3"/>
+    <sheet name="Debt " sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$I$2:$I$97</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="150">
   <si>
     <t>Date</t>
   </si>
@@ -404,6 +405,93 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Country Name</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>Indicator Name</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
   </si>
 </sst>
 </file>
@@ -414,7 +502,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,7 +572,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,6 +588,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -821,23 +913,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="1" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -869,7 +961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -901,7 +993,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -933,7 +1025,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -965,7 +1057,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -997,7 +1089,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1029,7 +1121,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1061,7 +1153,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1093,7 +1185,7 @@
         <v>78.2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1125,7 +1217,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1157,7 +1249,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1189,7 +1281,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1221,7 +1313,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1253,7 +1345,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1285,7 +1377,7 @@
         <v>82.8</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -1317,7 +1409,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -1349,7 +1441,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -1381,7 +1473,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -1413,7 +1505,7 @@
         <v>85.7</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -1445,7 +1537,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -1477,7 +1569,7 @@
         <v>87.4</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -1509,7 +1601,7 @@
         <v>87.9</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -1541,7 +1633,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -1573,7 +1665,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -1605,7 +1697,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -1637,7 +1729,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -1669,7 +1761,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -1701,7 +1793,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -1733,7 +1825,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -1765,7 +1857,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -1797,7 +1889,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -1829,7 +1921,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -1861,7 +1953,7 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -1893,7 +1985,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -1925,7 +2017,7 @@
         <v>102.8</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -1957,7 +2049,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -1989,7 +2081,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -2021,7 +2113,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -2053,7 +2145,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -2085,7 +2177,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -2117,7 +2209,7 @@
         <v>89.8</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -2149,7 +2241,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -2181,7 +2273,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -2213,7 +2305,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -2245,7 +2337,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -2277,7 +2369,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -2309,7 +2401,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -2341,7 +2433,7 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -2373,7 +2465,7 @@
         <v>103.3</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -2405,7 +2497,7 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -2437,7 +2529,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -2469,7 +2561,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -2501,7 +2593,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -2533,7 +2625,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -2565,7 +2657,7 @@
         <v>97.2</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -2597,7 +2689,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -2629,7 +2721,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -2661,7 +2753,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -2693,7 +2785,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -2725,7 +2817,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -2757,7 +2849,7 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -2789,7 +2881,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -2821,7 +2913,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -2853,7 +2945,7 @@
         <v>100.3</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -2885,7 +2977,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -2917,7 +3009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -2949,7 +3041,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -2981,7 +3073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -3013,7 +3105,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -3045,7 +3137,7 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -3077,7 +3169,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -3109,7 +3201,7 @@
         <v>102.3</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -3141,7 +3233,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -3173,7 +3265,7 @@
         <v>102.3</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -3205,7 +3297,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -3237,7 +3329,7 @@
         <v>102.6</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -3269,7 +3361,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -3301,7 +3393,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -3333,7 +3425,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -3365,7 +3457,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -3397,7 +3489,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -3429,7 +3521,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -3461,7 +3553,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -3493,7 +3585,7 @@
         <v>84.3</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -3525,7 +3617,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -3557,7 +3649,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -3589,7 +3681,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -3621,7 +3713,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -3653,7 +3745,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -3685,7 +3777,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -3717,7 +3809,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -3749,7 +3841,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -3781,7 +3873,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -3813,7 +3905,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -3845,7 +3937,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -3877,7 +3969,7 @@
         <v>97.3</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -3909,7 +4001,7 @@
         <v>95.4</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -3933,591 +4025,591 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D98" s="1"/>
       <c r="J98" s="11"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D99" s="1"/>
       <c r="J99" s="11"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D100" s="1"/>
       <c r="J100" s="11"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D101" s="1"/>
       <c r="J101" s="11"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D102" s="1"/>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D103" s="1"/>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D104" s="1"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D105" s="1"/>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D106" s="1"/>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D107" s="1"/>
       <c r="J107" s="11"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D108" s="1"/>
       <c r="J108" s="11"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J109" s="11"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J110" s="11"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J111" s="11"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J112" s="11"/>
     </row>
-    <row r="113" spans="10:10">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="10:10">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J114" s="11"/>
     </row>
-    <row r="115" spans="10:10">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J115" s="11"/>
     </row>
-    <row r="116" spans="10:10">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J116" s="11"/>
     </row>
-    <row r="117" spans="10:10">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J117" s="11"/>
     </row>
-    <row r="118" spans="10:10">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J118" s="11"/>
     </row>
-    <row r="119" spans="10:10">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J119" s="11"/>
     </row>
-    <row r="120" spans="10:10">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J120" s="11"/>
     </row>
-    <row r="121" spans="10:10">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J121" s="11"/>
     </row>
-    <row r="122" spans="10:10">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J122" s="11"/>
     </row>
-    <row r="123" spans="10:10">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J123" s="11"/>
     </row>
-    <row r="124" spans="10:10">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J124" s="11"/>
     </row>
-    <row r="125" spans="10:10">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J125" s="11"/>
     </row>
-    <row r="126" spans="10:10">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J126" s="11"/>
     </row>
-    <row r="127" spans="10:10">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J127" s="11"/>
     </row>
-    <row r="128" spans="10:10">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J128" s="11"/>
     </row>
-    <row r="129" spans="10:10">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J129" s="11"/>
     </row>
-    <row r="130" spans="10:10">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J130" s="11"/>
     </row>
-    <row r="131" spans="10:10">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J131" s="11"/>
     </row>
-    <row r="132" spans="10:10">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J132" s="11"/>
     </row>
-    <row r="133" spans="10:10">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J133" s="11"/>
     </row>
-    <row r="134" spans="10:10">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J134" s="11"/>
     </row>
-    <row r="135" spans="10:10">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J135" s="11"/>
     </row>
-    <row r="136" spans="10:10">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J136" s="11"/>
     </row>
-    <row r="137" spans="10:10">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J137" s="11"/>
     </row>
-    <row r="138" spans="10:10">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J138" s="11"/>
     </row>
-    <row r="139" spans="10:10">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J139" s="11"/>
     </row>
-    <row r="140" spans="10:10">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J140" s="11"/>
     </row>
-    <row r="141" spans="10:10">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J141" s="11"/>
     </row>
-    <row r="142" spans="10:10">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J142" s="11"/>
     </row>
-    <row r="143" spans="10:10">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J143" s="11"/>
     </row>
-    <row r="144" spans="10:10">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J144" s="11"/>
     </row>
-    <row r="145" spans="10:10">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J145" s="11"/>
     </row>
-    <row r="146" spans="10:10">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J146" s="11"/>
     </row>
-    <row r="147" spans="10:10">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J147" s="11"/>
     </row>
-    <row r="148" spans="10:10">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J148" s="11"/>
     </row>
-    <row r="149" spans="10:10">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J149" s="11"/>
     </row>
-    <row r="150" spans="10:10">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J150" s="11"/>
     </row>
-    <row r="151" spans="10:10">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J151" s="11"/>
     </row>
-    <row r="152" spans="10:10">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J152" s="11"/>
     </row>
-    <row r="153" spans="10:10">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J153" s="11"/>
     </row>
-    <row r="154" spans="10:10">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J154" s="11"/>
     </row>
-    <row r="155" spans="10:10">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J155" s="11"/>
     </row>
-    <row r="156" spans="10:10">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J156" s="11"/>
     </row>
-    <row r="157" spans="10:10">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J157" s="11"/>
     </row>
-    <row r="158" spans="10:10">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J158" s="11"/>
     </row>
-    <row r="159" spans="10:10">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J159" s="11"/>
     </row>
-    <row r="160" spans="10:10">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J160" s="11"/>
     </row>
-    <row r="161" spans="10:10">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J161" s="11"/>
     </row>
-    <row r="162" spans="10:10">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J162" s="11"/>
     </row>
-    <row r="163" spans="10:10">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J163" s="11"/>
     </row>
-    <row r="164" spans="10:10">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J164" s="11"/>
     </row>
-    <row r="165" spans="10:10">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J165" s="11"/>
     </row>
-    <row r="166" spans="10:10">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J166" s="11"/>
     </row>
-    <row r="167" spans="10:10">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J167" s="11"/>
     </row>
-    <row r="168" spans="10:10">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J168" s="11"/>
     </row>
-    <row r="169" spans="10:10">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J169" s="11"/>
     </row>
-    <row r="170" spans="10:10">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J170" s="11"/>
     </row>
-    <row r="171" spans="10:10">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J171" s="11"/>
     </row>
-    <row r="172" spans="10:10">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J172" s="11"/>
     </row>
-    <row r="173" spans="10:10">
+    <row r="173" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J173" s="11"/>
     </row>
-    <row r="174" spans="10:10">
+    <row r="174" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J174" s="11"/>
     </row>
-    <row r="175" spans="10:10">
+    <row r="175" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J175" s="11"/>
     </row>
-    <row r="176" spans="10:10">
+    <row r="176" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J176" s="11"/>
     </row>
-    <row r="177" spans="10:10">
+    <row r="177" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J177" s="11"/>
     </row>
-    <row r="178" spans="10:10">
+    <row r="178" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J178" s="11"/>
     </row>
-    <row r="179" spans="10:10">
+    <row r="179" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J179" s="11"/>
     </row>
-    <row r="180" spans="10:10">
+    <row r="180" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J180" s="11"/>
     </row>
-    <row r="181" spans="10:10">
+    <row r="181" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J181" s="11"/>
     </row>
-    <row r="182" spans="10:10">
+    <row r="182" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J182" s="11"/>
     </row>
-    <row r="183" spans="10:10">
+    <row r="183" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J183" s="11"/>
     </row>
-    <row r="184" spans="10:10">
+    <row r="184" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J184" s="11"/>
     </row>
-    <row r="185" spans="10:10">
+    <row r="185" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J185" s="11"/>
     </row>
-    <row r="186" spans="10:10">
+    <row r="186" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J186" s="11"/>
     </row>
-    <row r="187" spans="10:10">
+    <row r="187" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J187" s="11"/>
     </row>
-    <row r="188" spans="10:10">
+    <row r="188" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J188" s="11"/>
     </row>
-    <row r="189" spans="10:10">
+    <row r="189" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J189" s="11"/>
     </row>
-    <row r="190" spans="10:10">
+    <row r="190" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J190" s="11"/>
     </row>
-    <row r="191" spans="10:10">
+    <row r="191" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J191" s="11"/>
     </row>
-    <row r="192" spans="10:10">
+    <row r="192" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J192" s="11"/>
     </row>
-    <row r="193" spans="10:10">
+    <row r="193" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J193" s="11"/>
     </row>
-    <row r="194" spans="10:10">
+    <row r="194" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J194" s="11"/>
     </row>
-    <row r="195" spans="10:10">
+    <row r="195" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J195" s="11"/>
     </row>
-    <row r="196" spans="10:10">
+    <row r="196" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J196" s="11"/>
     </row>
-    <row r="197" spans="10:10">
+    <row r="197" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J197" s="11"/>
     </row>
-    <row r="198" spans="10:10">
+    <row r="198" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J198" s="11"/>
     </row>
-    <row r="199" spans="10:10">
+    <row r="199" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J199" s="11"/>
     </row>
-    <row r="200" spans="10:10">
+    <row r="200" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J200" s="11"/>
     </row>
-    <row r="201" spans="10:10">
+    <row r="201" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J201" s="11"/>
     </row>
-    <row r="202" spans="10:10">
+    <row r="202" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J202" s="11"/>
     </row>
-    <row r="203" spans="10:10">
+    <row r="203" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J203" s="11"/>
     </row>
-    <row r="204" spans="10:10">
+    <row r="204" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J204" s="11"/>
     </row>
-    <row r="205" spans="10:10">
+    <row r="205" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J205" s="11"/>
     </row>
-    <row r="206" spans="10:10">
+    <row r="206" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J206" s="11"/>
     </row>
-    <row r="207" spans="10:10">
+    <row r="207" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J207" s="11"/>
     </row>
-    <row r="208" spans="10:10">
+    <row r="208" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J208" s="11"/>
     </row>
-    <row r="209" spans="10:10">
+    <row r="209" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J209" s="11"/>
     </row>
-    <row r="210" spans="10:10">
+    <row r="210" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J210" s="11"/>
     </row>
-    <row r="211" spans="10:10">
+    <row r="211" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J211" s="11"/>
     </row>
-    <row r="212" spans="10:10">
+    <row r="212" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J212" s="11"/>
     </row>
-    <row r="213" spans="10:10">
+    <row r="213" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J213" s="11"/>
     </row>
-    <row r="214" spans="10:10">
+    <row r="214" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J214" s="11"/>
     </row>
-    <row r="215" spans="10:10">
+    <row r="215" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J215" s="11"/>
     </row>
-    <row r="216" spans="10:10">
+    <row r="216" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J216" s="11"/>
     </row>
-    <row r="217" spans="10:10">
+    <row r="217" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J217" s="11"/>
     </row>
-    <row r="218" spans="10:10">
+    <row r="218" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J218" s="11"/>
     </row>
-    <row r="219" spans="10:10">
+    <row r="219" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J219" s="11"/>
     </row>
-    <row r="220" spans="10:10">
+    <row r="220" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J220" s="11"/>
     </row>
-    <row r="221" spans="10:10">
+    <row r="221" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J221" s="11"/>
     </row>
-    <row r="222" spans="10:10">
+    <row r="222" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J222" s="11"/>
     </row>
-    <row r="223" spans="10:10">
+    <row r="223" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J223" s="11"/>
     </row>
-    <row r="224" spans="10:10">
+    <row r="224" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J224" s="11"/>
     </row>
-    <row r="225" spans="10:10">
+    <row r="225" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J225" s="11"/>
     </row>
-    <row r="226" spans="10:10">
+    <row r="226" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J226" s="11"/>
     </row>
-    <row r="227" spans="10:10">
+    <row r="227" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J227" s="11"/>
     </row>
-    <row r="228" spans="10:10">
+    <row r="228" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J228" s="11"/>
     </row>
-    <row r="229" spans="10:10">
+    <row r="229" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J229" s="11"/>
     </row>
-    <row r="230" spans="10:10">
+    <row r="230" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J230" s="11"/>
     </row>
-    <row r="231" spans="10:10">
+    <row r="231" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J231" s="11"/>
     </row>
-    <row r="232" spans="10:10">
+    <row r="232" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J232" s="11"/>
     </row>
-    <row r="233" spans="10:10">
+    <row r="233" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J233" s="11"/>
     </row>
-    <row r="234" spans="10:10">
+    <row r="234" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J234" s="11"/>
     </row>
-    <row r="235" spans="10:10">
+    <row r="235" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J235" s="11"/>
     </row>
-    <row r="236" spans="10:10">
+    <row r="236" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J236" s="11"/>
     </row>
-    <row r="237" spans="10:10">
+    <row r="237" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J237" s="11"/>
     </row>
-    <row r="238" spans="10:10">
+    <row r="238" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J238" s="11"/>
     </row>
-    <row r="239" spans="10:10">
+    <row r="239" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J239" s="11"/>
     </row>
-    <row r="240" spans="10:10">
+    <row r="240" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J240" s="11"/>
     </row>
-    <row r="241" spans="10:10">
+    <row r="241" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J241" s="11"/>
     </row>
-    <row r="242" spans="10:10">
+    <row r="242" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J242" s="11"/>
     </row>
-    <row r="243" spans="10:10">
+    <row r="243" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J243" s="11"/>
     </row>
-    <row r="244" spans="10:10">
+    <row r="244" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J244" s="11"/>
     </row>
-    <row r="245" spans="10:10">
+    <row r="245" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J245" s="11"/>
     </row>
-    <row r="246" spans="10:10">
+    <row r="246" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J246" s="11"/>
     </row>
-    <row r="247" spans="10:10">
+    <row r="247" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J247" s="11"/>
     </row>
-    <row r="248" spans="10:10">
+    <row r="248" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J248" s="11"/>
     </row>
-    <row r="249" spans="10:10">
+    <row r="249" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J249" s="11"/>
     </row>
-    <row r="250" spans="10:10">
+    <row r="250" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J250" s="11"/>
     </row>
-    <row r="251" spans="10:10">
+    <row r="251" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J251" s="11"/>
     </row>
-    <row r="252" spans="10:10">
+    <row r="252" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J252" s="11"/>
     </row>
-    <row r="253" spans="10:10">
+    <row r="253" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J253" s="11"/>
     </row>
-    <row r="254" spans="10:10">
+    <row r="254" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J254" s="11"/>
     </row>
-    <row r="255" spans="10:10">
+    <row r="255" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J255" s="11"/>
     </row>
-    <row r="256" spans="10:10">
+    <row r="256" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J256" s="11"/>
     </row>
-    <row r="257" spans="10:10">
+    <row r="257" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J257" s="11"/>
     </row>
-    <row r="258" spans="10:10">
+    <row r="258" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J258" s="11"/>
     </row>
-    <row r="259" spans="10:10">
+    <row r="259" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J259" s="11"/>
     </row>
-    <row r="260" spans="10:10">
+    <row r="260" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J260" s="11"/>
     </row>
-    <row r="261" spans="10:10">
+    <row r="261" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J261" s="11"/>
     </row>
-    <row r="262" spans="10:10">
+    <row r="262" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J262" s="11"/>
     </row>
-    <row r="263" spans="10:10">
+    <row r="263" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J263" s="11"/>
     </row>
-    <row r="264" spans="10:10">
+    <row r="264" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J264" s="11"/>
     </row>
-    <row r="265" spans="10:10">
+    <row r="265" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J265" s="11"/>
     </row>
-    <row r="266" spans="10:10">
+    <row r="266" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J266" s="11"/>
     </row>
-    <row r="267" spans="10:10">
+    <row r="267" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J267" s="11"/>
     </row>
-    <row r="268" spans="10:10">
+    <row r="268" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J268" s="11"/>
     </row>
-    <row r="269" spans="10:10">
+    <row r="269" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J269" s="11"/>
     </row>
-    <row r="270" spans="10:10">
+    <row r="270" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J270" s="11"/>
     </row>
-    <row r="271" spans="10:10">
+    <row r="271" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J271" s="11"/>
     </row>
-    <row r="272" spans="10:10">
+    <row r="272" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J272" s="11"/>
     </row>
-    <row r="273" spans="10:10">
+    <row r="273" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J273" s="11"/>
     </row>
-    <row r="274" spans="10:10">
+    <row r="274" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J274" s="11"/>
     </row>
-    <row r="275" spans="10:10">
+    <row r="275" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J275" s="11"/>
     </row>
-    <row r="276" spans="10:10">
+    <row r="276" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J276" s="11"/>
     </row>
-    <row r="277" spans="10:10">
+    <row r="277" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J277" s="11"/>
     </row>
-    <row r="278" spans="10:10">
+    <row r="278" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J278" s="11"/>
     </row>
-    <row r="279" spans="10:10">
+    <row r="279" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J279" s="11"/>
     </row>
-    <row r="280" spans="10:10">
+    <row r="280" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J280" s="11"/>
     </row>
-    <row r="281" spans="10:10">
+    <row r="281" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J281" s="11"/>
     </row>
-    <row r="282" spans="10:10">
+    <row r="282" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J282" s="11"/>
     </row>
-    <row r="283" spans="10:10">
+    <row r="283" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J283" s="11"/>
     </row>
-    <row r="284" spans="10:10">
+    <row r="284" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J284" s="11"/>
     </row>
-    <row r="285" spans="10:10">
+    <row r="285" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J285" s="11"/>
     </row>
-    <row r="286" spans="10:10">
+    <row r="286" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J286" s="11"/>
     </row>
-    <row r="287" spans="10:10">
+    <row r="287" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J287" s="11"/>
     </row>
-    <row r="288" spans="10:10">
+    <row r="288" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J288" s="11"/>
     </row>
-    <row r="289" spans="10:10">
+    <row r="289" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J289" s="11"/>
     </row>
   </sheetData>
@@ -4526,6 +4618,186 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08EDB66-D816-49B7-B3A7-830E147E6D1C}">
+  <dimension ref="B2:AA3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2" t="s">
+        <v>140</v>
+      </c>
+      <c r="V2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W2" t="s">
+        <v>142</v>
+      </c>
+      <c r="X2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3">
+        <v>40029198</v>
+      </c>
+      <c r="F3">
+        <v>40056637</v>
+      </c>
+      <c r="G3">
+        <v>40236914</v>
+      </c>
+      <c r="H3">
+        <v>40039826</v>
+      </c>
+      <c r="I3">
+        <v>41239999</v>
+      </c>
+      <c r="J3">
+        <v>41693116</v>
+      </c>
+      <c r="K3">
+        <v>41861246</v>
+      </c>
+      <c r="L3">
+        <v>41917490</v>
+      </c>
+      <c r="M3">
+        <v>41978630</v>
+      </c>
+      <c r="N3">
+        <v>41949335</v>
+      </c>
+      <c r="O3">
+        <v>41729225</v>
+      </c>
+      <c r="P3">
+        <v>41853628</v>
+      </c>
+      <c r="Q3">
+        <v>42212988</v>
+      </c>
+      <c r="R3">
+        <v>42458390</v>
+      </c>
+      <c r="S3">
+        <v>42660629</v>
+      </c>
+      <c r="T3">
+        <v>43567225</v>
+      </c>
+      <c r="U3">
+        <v>43819028</v>
+      </c>
+      <c r="V3">
+        <v>43935038</v>
+      </c>
+      <c r="W3">
+        <v>44433744</v>
+      </c>
+      <c r="X3">
+        <v>43501190</v>
+      </c>
+      <c r="Y3">
+        <v>43386527</v>
+      </c>
+      <c r="Z3">
+        <v>44198105</v>
+      </c>
+      <c r="AA3">
+        <v>44368658</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C9746-C599-4AED-B73F-1F9C5CC1BC39}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -4533,14 +4805,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2009</v>
       </c>
@@ -4548,92 +4820,92 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -4643,27 +4915,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729D3E50-96CE-5D4F-8758-34102C76EE6A}">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>114</v>
       </c>
@@ -4701,12 +4973,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C2" s="4">
-        <v>36892</v>
-      </c>
-      <c r="D2" s="6">
-        <v>-3.0249999999999999</v>
+        <v>36526</v>
+      </c>
+      <c r="D2">
+        <v>-1.528</v>
       </c>
       <c r="F2" s="5">
         <v>44927</v>
@@ -4727,12 +4999,12 @@
         <v>65.861000000000004</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C3" s="4">
-        <v>37257</v>
+        <v>36892</v>
       </c>
       <c r="D3" s="6">
-        <v>-3.875</v>
+        <v>-3.0249999999999999</v>
       </c>
       <c r="F3" s="5">
         <v>45292</v>
@@ -4753,12 +5025,12 @@
         <v>64.034999999999997</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C4" s="4">
-        <v>37622</v>
+        <v>37257</v>
       </c>
       <c r="D4" s="6">
-        <v>-3.7040000000000002</v>
+        <v>-3.875</v>
       </c>
       <c r="F4" s="5">
         <v>45658</v>
@@ -4779,12 +5051,12 @@
         <v>61.822000000000003</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C5" s="4">
-        <v>37987</v>
+        <v>37622</v>
       </c>
       <c r="D5" s="6">
-        <v>-3.3340000000000001</v>
+        <v>-3.7040000000000002</v>
       </c>
       <c r="F5" s="5">
         <v>46023</v>
@@ -4805,12 +5077,12 @@
         <v>59.923999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C6" s="4">
-        <v>38353</v>
+        <v>37987</v>
       </c>
       <c r="D6" s="6">
-        <v>-3.319</v>
+        <v>-3.3340000000000001</v>
       </c>
       <c r="F6" s="5">
         <v>46388</v>
@@ -4831,12 +5103,12 @@
         <v>58.597000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C7" s="4">
-        <v>38718</v>
+        <v>38353</v>
       </c>
       <c r="D7" s="6">
-        <v>-1.653</v>
+        <v>-3.319</v>
       </c>
       <c r="F7" s="5">
         <v>46753</v>
@@ -4857,12 +5129,12 @@
         <v>57.502000000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C8" s="4">
-        <v>39083</v>
+        <v>38718</v>
       </c>
       <c r="D8" s="6">
-        <v>0.26100000000000001</v>
+        <v>-1.653</v>
       </c>
       <c r="I8" s="5">
         <v>38718</v>
@@ -4871,12 +5143,12 @@
         <v>66.887</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C9" s="4">
-        <v>39448</v>
+        <v>39083</v>
       </c>
       <c r="D9" s="6">
-        <v>-0.11600000000000001</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="I9" s="5">
         <v>39083</v>
@@ -4885,12 +5157,12 @@
         <v>64.158000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C10" s="4">
-        <v>39814</v>
+        <v>39448</v>
       </c>
       <c r="D10" s="6">
-        <v>-3.1509999999999998</v>
+        <v>-0.11600000000000001</v>
       </c>
       <c r="I10" s="5">
         <v>39448</v>
@@ -4899,12 +5171,12 @@
         <v>65.682000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C11" s="4">
-        <v>40179</v>
+        <v>39814</v>
       </c>
       <c r="D11" s="6">
-        <v>-4.3789999999999996</v>
+        <v>-3.1509999999999998</v>
       </c>
       <c r="I11" s="5">
         <v>39814</v>
@@ -4913,12 +5185,12 @@
         <v>73.156999999999996</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C12" s="4">
-        <v>40544</v>
+        <v>40179</v>
       </c>
       <c r="D12" s="6">
-        <v>-0.88100000000000001</v>
+        <v>-4.3789999999999996</v>
       </c>
       <c r="I12" s="5">
         <v>40179</v>
@@ -4927,12 +5199,12 @@
         <v>81.995000000000005</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C13" s="4">
-        <v>40909</v>
+        <v>40544</v>
       </c>
       <c r="D13" s="6">
-        <v>8.9999999999999993E-3</v>
+        <v>-0.88100000000000001</v>
       </c>
       <c r="I13" s="5">
         <v>40544</v>
@@ -4941,12 +5213,12 @@
         <v>79.417000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C14" s="4">
-        <v>41275</v>
+        <v>40909</v>
       </c>
       <c r="D14" s="6">
-        <v>0.04</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I14" s="5">
         <v>40909</v>
@@ -4955,12 +5227,12 @@
         <v>80.745000000000005</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C15" s="4">
-        <v>41640</v>
+        <v>41275</v>
       </c>
       <c r="D15" s="6">
-        <v>0.57999999999999996</v>
+        <v>0.04</v>
       </c>
       <c r="I15" s="5">
         <v>41275</v>
@@ -4969,12 +5241,12 @@
         <v>78.322000000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C16" s="4">
-        <v>42005</v>
+        <v>41640</v>
       </c>
       <c r="D16" s="6">
-        <v>0.96099999999999997</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I16" s="5">
         <v>41640</v>
@@ -4983,12 +5255,12 @@
         <v>75.278999999999996</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C17" s="4">
-        <v>42370</v>
+        <v>42005</v>
       </c>
       <c r="D17" s="6">
-        <v>1.1599999999999999</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="I17" s="5">
         <v>42005</v>
@@ -4997,12 +5269,12 @@
         <v>71.947000000000003</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C18" s="4">
-        <v>42736</v>
+        <v>42370</v>
       </c>
       <c r="D18" s="6">
-        <v>1.3360000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I18" s="5">
         <v>42370</v>
@@ -5011,12 +5283,12 @@
         <v>68.954999999999998</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C19" s="4">
-        <v>43101</v>
+        <v>42736</v>
       </c>
       <c r="D19" s="6">
-        <v>1.95</v>
+        <v>1.3360000000000001</v>
       </c>
       <c r="I19" s="5">
         <v>42736</v>
@@ -5025,12 +5297,12 @@
         <v>65.209999999999994</v>
       </c>
     </row>
-    <row r="20" spans="3:10">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C20" s="4">
-        <v>43466</v>
+        <v>43101</v>
       </c>
       <c r="D20" s="6">
-        <v>1.526</v>
+        <v>1.95</v>
       </c>
       <c r="I20" s="5">
         <v>43101</v>
@@ -5039,12 +5311,12 @@
         <v>61.905000000000001</v>
       </c>
     </row>
-    <row r="21" spans="3:10">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C21" s="4">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="D21" s="6">
-        <v>-4.3390000000000004</v>
+        <v>1.526</v>
       </c>
       <c r="I21" s="5">
         <v>43466</v>
@@ -5053,12 +5325,12 @@
         <v>59.548999999999999</v>
       </c>
     </row>
-    <row r="22" spans="3:10">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C22" s="4">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="D22" s="6">
-        <v>-3.5870000000000002</v>
+        <v>-4.3390000000000004</v>
       </c>
       <c r="I22" s="5">
         <v>43831</v>
@@ -5067,12 +5339,12 @@
         <v>68.745999999999995</v>
       </c>
     </row>
-    <row r="23" spans="3:10">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C23" s="4">
-        <v>44562</v>
+        <v>44197</v>
       </c>
       <c r="D23" s="6">
-        <v>-2.5</v>
+        <v>-3.5870000000000002</v>
       </c>
       <c r="I23" s="5">
         <v>44197</v>
@@ -5081,7 +5353,13 @@
         <v>68.959999999999994</v>
       </c>
     </row>
-    <row r="24" spans="3:10">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C24" s="4">
+        <v>44562</v>
+      </c>
+      <c r="D24" s="6">
+        <v>-2.5</v>
+      </c>
       <c r="I24" s="5">
         <v>44562</v>
       </c>
@@ -5089,7 +5367,7 @@
         <v>66.113</v>
       </c>
     </row>
-    <row r="28" spans="3:10">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
         <v>120</v>
       </c>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0EF0688-A331-4B90-B3C3-B93CECE6BAE1}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE42180D-50B1-49DE-8FD1-5EDF7DBF9D14}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -41,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="153">
   <si>
     <t>Date</t>
   </si>
@@ -492,6 +514,15 @@
   </si>
   <si>
     <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SL.TLF.TOTL.IN?end=2023&amp;locations=DE&amp;start=2000</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Labor Force size</t>
   </si>
 </sst>
 </file>
@@ -588,10 +619,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4619,10 +4646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08EDB66-D816-49B7-B3A7-830E147E6D1C}">
-  <dimension ref="B2:AA3"/>
+  <dimension ref="C1:AK24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4632,163 +4659,355 @@
     <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="1" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C2" t="str" cm="1">
+        <f t="array" ref="C2:D24">TRANSPOSE(O2:AK3)</f>
+        <v>2001</v>
+      </c>
+      <c r="D2">
+        <v>40029198</v>
+      </c>
+      <c r="L2" t="s">
         <v>121</v>
       </c>
-      <c r="C2" t="s">
+      <c r="M2" t="s">
         <v>122</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
         <v>123</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>124</v>
       </c>
-      <c r="F2" t="s">
+      <c r="P2" t="s">
         <v>125</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
         <v>126</v>
       </c>
-      <c r="H2" t="s">
+      <c r="R2" t="s">
         <v>127</v>
       </c>
-      <c r="I2" t="s">
+      <c r="S2" t="s">
         <v>128</v>
       </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
         <v>129</v>
       </c>
-      <c r="K2" t="s">
+      <c r="U2" t="s">
         <v>130</v>
       </c>
-      <c r="L2" t="s">
+      <c r="V2" t="s">
         <v>131</v>
       </c>
-      <c r="M2" t="s">
+      <c r="W2" t="s">
         <v>132</v>
       </c>
-      <c r="N2" t="s">
+      <c r="X2" t="s">
         <v>133</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Y2" t="s">
         <v>134</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Z2" t="s">
         <v>135</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AA2" t="s">
         <v>136</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AB2" t="s">
         <v>137</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AC2" t="s">
         <v>138</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AD2" t="s">
         <v>139</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AE2" t="s">
         <v>140</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AF2" t="s">
         <v>141</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AG2" t="s">
         <v>142</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AH2" t="s">
         <v>143</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AI2" t="s">
         <v>144</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AJ2" t="s">
         <v>145</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AK2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="3" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C3" t="str">
+        <v>2002</v>
+      </c>
+      <c r="D3">
+        <v>40056637</v>
+      </c>
+      <c r="L3" t="s">
         <v>147</v>
       </c>
-      <c r="C3" t="s">
+      <c r="M3" t="s">
         <v>148</v>
       </c>
-      <c r="D3" t="s">
+      <c r="N3" t="s">
         <v>149</v>
       </c>
-      <c r="E3">
+      <c r="O3">
         <v>40029198</v>
       </c>
-      <c r="F3">
+      <c r="P3">
         <v>40056637</v>
       </c>
-      <c r="G3">
+      <c r="Q3">
         <v>40236914</v>
       </c>
-      <c r="H3">
+      <c r="R3">
         <v>40039826</v>
       </c>
-      <c r="I3">
+      <c r="S3">
         <v>41239999</v>
       </c>
-      <c r="J3">
+      <c r="T3">
         <v>41693116</v>
       </c>
-      <c r="K3">
+      <c r="U3">
         <v>41861246</v>
       </c>
-      <c r="L3">
+      <c r="V3">
         <v>41917490</v>
       </c>
-      <c r="M3">
+      <c r="W3">
         <v>41978630</v>
       </c>
-      <c r="N3">
+      <c r="X3">
         <v>41949335</v>
       </c>
-      <c r="O3">
+      <c r="Y3">
         <v>41729225</v>
       </c>
-      <c r="P3">
+      <c r="Z3">
         <v>41853628</v>
       </c>
-      <c r="Q3">
+      <c r="AA3">
         <v>42212988</v>
       </c>
-      <c r="R3">
+      <c r="AB3">
         <v>42458390</v>
       </c>
-      <c r="S3">
+      <c r="AC3">
         <v>42660629</v>
       </c>
-      <c r="T3">
+      <c r="AD3">
         <v>43567225</v>
       </c>
-      <c r="U3">
+      <c r="AE3">
         <v>43819028</v>
       </c>
-      <c r="V3">
+      <c r="AF3">
         <v>43935038</v>
       </c>
-      <c r="W3">
+      <c r="AG3">
         <v>44433744</v>
       </c>
-      <c r="X3">
+      <c r="AH3">
         <v>43501190</v>
       </c>
-      <c r="Y3">
+      <c r="AI3">
         <v>43386527</v>
       </c>
-      <c r="Z3">
+      <c r="AJ3">
         <v>44198105</v>
       </c>
-      <c r="AA3">
+      <c r="AK3">
+        <v>44368658</v>
+      </c>
+    </row>
+    <row r="4" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C4" t="str">
+        <v>2003</v>
+      </c>
+      <c r="D4">
+        <v>40236914</v>
+      </c>
+      <c r="L4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C5" t="str">
+        <v>2004</v>
+      </c>
+      <c r="D5">
+        <v>40039826</v>
+      </c>
+    </row>
+    <row r="6" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C6" t="str">
+        <v>2005</v>
+      </c>
+      <c r="D6">
+        <v>41239999</v>
+      </c>
+    </row>
+    <row r="7" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C7" t="str">
+        <v>2006</v>
+      </c>
+      <c r="D7">
+        <v>41693116</v>
+      </c>
+    </row>
+    <row r="8" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C8" t="str">
+        <v>2007</v>
+      </c>
+      <c r="D8">
+        <v>41861246</v>
+      </c>
+    </row>
+    <row r="9" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C9" t="str">
+        <v>2008</v>
+      </c>
+      <c r="D9">
+        <v>41917490</v>
+      </c>
+    </row>
+    <row r="10" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C10" t="str">
+        <v>2009</v>
+      </c>
+      <c r="D10">
+        <v>41978630</v>
+      </c>
+    </row>
+    <row r="11" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C11" t="str">
+        <v>2010</v>
+      </c>
+      <c r="D11">
+        <v>41949335</v>
+      </c>
+    </row>
+    <row r="12" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C12" t="str">
+        <v>2011</v>
+      </c>
+      <c r="D12">
+        <v>41729225</v>
+      </c>
+    </row>
+    <row r="13" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C13" t="str">
+        <v>2012</v>
+      </c>
+      <c r="D13">
+        <v>41853628</v>
+      </c>
+    </row>
+    <row r="14" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C14" t="str">
+        <v>2013</v>
+      </c>
+      <c r="D14">
+        <v>42212988</v>
+      </c>
+    </row>
+    <row r="15" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C15" t="str">
+        <v>2014</v>
+      </c>
+      <c r="D15">
+        <v>42458390</v>
+      </c>
+    </row>
+    <row r="16" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C16" t="str">
+        <v>2015</v>
+      </c>
+      <c r="D16">
+        <v>42660629</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C17" t="str">
+        <v>2016</v>
+      </c>
+      <c r="D17">
+        <v>43567225</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C18" t="str">
+        <v>2017</v>
+      </c>
+      <c r="D18">
+        <v>43819028</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C19" t="str">
+        <v>2018</v>
+      </c>
+      <c r="D19">
+        <v>43935038</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C20" t="str">
+        <v>2019</v>
+      </c>
+      <c r="D20">
+        <v>44433744</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C21" t="str">
+        <v>2020</v>
+      </c>
+      <c r="D21">
+        <v>43501190</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C22" t="str">
+        <v>2021</v>
+      </c>
+      <c r="D22">
+        <v>43386527</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C23" t="str">
+        <v>2022</v>
+      </c>
+      <c r="D23">
+        <v>44198105</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C24" t="str">
+        <v>2023</v>
+      </c>
+      <c r="D24">
         <v>44368658</v>
       </c>
     </row>
@@ -4919,7 +5138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729D3E50-96CE-5D4F-8758-34102C76EE6A}">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="272" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE42180D-50B1-49DE-8FD1-5EDF7DBF9D14}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F33ADC4A-573B-9448-9E3D-EE550492C133}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="23700" windowHeight="15560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -556,15 +556,17 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -619,6 +621,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -944,19 +950,19 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" customWidth="1"/>
+    <col min="1" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -988,7 +994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1020,7 +1026,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1052,7 +1058,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1180,7 +1186,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>78.2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1276,7 +1282,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1308,7 +1314,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1372,7 +1378,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1404,7 +1410,7 @@
         <v>82.8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -1436,7 +1442,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -1532,7 +1538,7 @@
         <v>85.7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -1564,7 +1570,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>87.4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -1628,7 +1634,7 @@
         <v>87.9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -1660,7 +1666,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -1692,7 +1698,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -1756,7 +1762,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -1788,7 +1794,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -1852,7 +1858,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -1884,7 +1890,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>102.8</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -2076,7 +2082,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -2108,7 +2114,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -2140,7 +2146,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -2204,7 +2210,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>89.8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -2268,7 +2274,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -2332,7 +2338,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -2364,7 +2370,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -2396,7 +2402,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -2428,7 +2434,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -2492,7 +2498,7 @@
         <v>103.3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -2556,7 +2562,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -2588,7 +2594,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -2652,7 +2658,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -2684,7 +2690,7 @@
         <v>97.2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -2716,7 +2722,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -2748,7 +2754,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -2780,7 +2786,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -2844,7 +2850,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -2876,7 +2882,7 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -2908,7 +2914,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -2940,7 +2946,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -2972,7 +2978,7 @@
         <v>100.3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -3036,7 +3042,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -3068,7 +3074,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -3100,7 +3106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -3132,7 +3138,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -3164,7 +3170,7 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -3196,7 +3202,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -3228,7 +3234,7 @@
         <v>102.3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -3260,7 +3266,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -3292,7 +3298,7 @@
         <v>102.3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -3324,7 +3330,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -3356,7 +3362,7 @@
         <v>102.6</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -3388,7 +3394,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -3420,7 +3426,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -3452,7 +3458,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -3484,7 +3490,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -3516,7 +3522,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -3548,7 +3554,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -3580,7 +3586,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -3612,7 +3618,7 @@
         <v>84.3</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -3644,7 +3650,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -3676,7 +3682,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -3708,7 +3714,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -3740,7 +3746,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -3772,7 +3778,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -3804,7 +3810,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -3836,7 +3842,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -3868,7 +3874,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -3900,7 +3906,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -3932,7 +3938,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -3964,7 +3970,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -3996,7 +4002,7 @@
         <v>97.3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -4028,7 +4034,7 @@
         <v>95.4</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -4052,591 +4058,591 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
       <c r="J98" s="11"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
       <c r="J99" s="11"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
       <c r="J100" s="11"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
       <c r="J101" s="11"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
       <c r="J107" s="11"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
       <c r="J108" s="11"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J109" s="11"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J110" s="11"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J111" s="11"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J112" s="11"/>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J114" s="11"/>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J115" s="11"/>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J116" s="11"/>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J117" s="11"/>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J118" s="11"/>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J119" s="11"/>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J120" s="11"/>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J121" s="11"/>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J122" s="11"/>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J123" s="11"/>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J124" s="11"/>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J125" s="11"/>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J126" s="11"/>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J127" s="11"/>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J128" s="11"/>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J129" s="11"/>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J130" s="11"/>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J131" s="11"/>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J132" s="11"/>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J133" s="11"/>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J134" s="11"/>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J135" s="11"/>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J136" s="11"/>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J137" s="11"/>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J138" s="11"/>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J139" s="11"/>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J140" s="11"/>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J141" s="11"/>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J142" s="11"/>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J143" s="11"/>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J144" s="11"/>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J145" s="11"/>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J146" s="11"/>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J147" s="11"/>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J148" s="11"/>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J149" s="11"/>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J150" s="11"/>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J151" s="11"/>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J152" s="11"/>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J153" s="11"/>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J154" s="11"/>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J155" s="11"/>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J156" s="11"/>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J157" s="11"/>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J158" s="11"/>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J159" s="11"/>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J160" s="11"/>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J161" s="11"/>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J162" s="11"/>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J163" s="11"/>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J164" s="11"/>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J165" s="11"/>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J166" s="11"/>
     </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J167" s="11"/>
     </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J168" s="11"/>
     </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J169" s="11"/>
     </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J170" s="11"/>
     </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J171" s="11"/>
     </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J172" s="11"/>
     </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J173" s="11"/>
     </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J174" s="11"/>
     </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J175" s="11"/>
     </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J176" s="11"/>
     </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J177" s="11"/>
     </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J178" s="11"/>
     </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J179" s="11"/>
     </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J180" s="11"/>
     </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J181" s="11"/>
     </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J182" s="11"/>
     </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J183" s="11"/>
     </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J184" s="11"/>
     </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J185" s="11"/>
     </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J186" s="11"/>
     </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J187" s="11"/>
     </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J188" s="11"/>
     </row>
-    <row r="189" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J189" s="11"/>
     </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J190" s="11"/>
     </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J191" s="11"/>
     </row>
-    <row r="192" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J192" s="11"/>
     </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J193" s="11"/>
     </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J194" s="11"/>
     </row>
-    <row r="195" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J195" s="11"/>
     </row>
-    <row r="196" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J196" s="11"/>
     </row>
-    <row r="197" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J197" s="11"/>
     </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J198" s="11"/>
     </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J199" s="11"/>
     </row>
-    <row r="200" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J200" s="11"/>
     </row>
-    <row r="201" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J201" s="11"/>
     </row>
-    <row r="202" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J202" s="11"/>
     </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J203" s="11"/>
     </row>
-    <row r="204" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J204" s="11"/>
     </row>
-    <row r="205" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J205" s="11"/>
     </row>
-    <row r="206" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J206" s="11"/>
     </row>
-    <row r="207" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J207" s="11"/>
     </row>
-    <row r="208" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J208" s="11"/>
     </row>
-    <row r="209" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J209" s="11"/>
     </row>
-    <row r="210" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J210" s="11"/>
     </row>
-    <row r="211" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J211" s="11"/>
     </row>
-    <row r="212" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J212" s="11"/>
     </row>
-    <row r="213" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J213" s="11"/>
     </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J214" s="11"/>
     </row>
-    <row r="215" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J215" s="11"/>
     </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J216" s="11"/>
     </row>
-    <row r="217" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J217" s="11"/>
     </row>
-    <row r="218" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J218" s="11"/>
     </row>
-    <row r="219" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J219" s="11"/>
     </row>
-    <row r="220" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J220" s="11"/>
     </row>
-    <row r="221" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J221" s="11"/>
     </row>
-    <row r="222" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J222" s="11"/>
     </row>
-    <row r="223" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J223" s="11"/>
     </row>
-    <row r="224" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J224" s="11"/>
     </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J225" s="11"/>
     </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J226" s="11"/>
     </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J227" s="11"/>
     </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J228" s="11"/>
     </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J229" s="11"/>
     </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J230" s="11"/>
     </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J231" s="11"/>
     </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J232" s="11"/>
     </row>
-    <row r="233" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J233" s="11"/>
     </row>
-    <row r="234" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J234" s="11"/>
     </row>
-    <row r="235" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J235" s="11"/>
     </row>
-    <row r="236" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J236" s="11"/>
     </row>
-    <row r="237" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J237" s="11"/>
     </row>
-    <row r="238" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J238" s="11"/>
     </row>
-    <row r="239" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J239" s="11"/>
     </row>
-    <row r="240" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J240" s="11"/>
     </row>
-    <row r="241" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J241" s="11"/>
     </row>
-    <row r="242" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J242" s="11"/>
     </row>
-    <row r="243" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J243" s="11"/>
     </row>
-    <row r="244" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J244" s="11"/>
     </row>
-    <row r="245" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J245" s="11"/>
     </row>
-    <row r="246" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="246" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J246" s="11"/>
     </row>
-    <row r="247" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="247" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J247" s="11"/>
     </row>
-    <row r="248" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J248" s="11"/>
     </row>
-    <row r="249" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J249" s="11"/>
     </row>
-    <row r="250" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="250" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J250" s="11"/>
     </row>
-    <row r="251" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="251" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J251" s="11"/>
     </row>
-    <row r="252" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J252" s="11"/>
     </row>
-    <row r="253" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J253" s="11"/>
     </row>
-    <row r="254" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J254" s="11"/>
     </row>
-    <row r="255" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J255" s="11"/>
     </row>
-    <row r="256" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J256" s="11"/>
     </row>
-    <row r="257" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="257" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J257" s="11"/>
     </row>
-    <row r="258" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="258" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J258" s="11"/>
     </row>
-    <row r="259" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="259" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J259" s="11"/>
     </row>
-    <row r="260" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="260" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J260" s="11"/>
     </row>
-    <row r="261" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J261" s="11"/>
     </row>
-    <row r="262" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="262" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J262" s="11"/>
     </row>
-    <row r="263" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J263" s="11"/>
     </row>
-    <row r="264" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="264" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J264" s="11"/>
     </row>
-    <row r="265" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="265" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J265" s="11"/>
     </row>
-    <row r="266" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J266" s="11"/>
     </row>
-    <row r="267" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J267" s="11"/>
     </row>
-    <row r="268" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="268" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J268" s="11"/>
     </row>
-    <row r="269" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J269" s="11"/>
     </row>
-    <row r="270" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J270" s="11"/>
     </row>
-    <row r="271" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J271" s="11"/>
     </row>
-    <row r="272" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="272" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J272" s="11"/>
     </row>
-    <row r="273" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="273" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J273" s="11"/>
     </row>
-    <row r="274" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="274" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J274" s="11"/>
     </row>
-    <row r="275" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="275" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J275" s="11"/>
     </row>
-    <row r="276" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="276" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J276" s="11"/>
     </row>
-    <row r="277" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="277" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J277" s="11"/>
     </row>
-    <row r="278" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="278" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J278" s="11"/>
     </row>
-    <row r="279" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="279" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J279" s="11"/>
     </row>
-    <row r="280" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="280" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J280" s="11"/>
     </row>
-    <row r="281" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="281" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J281" s="11"/>
     </row>
-    <row r="282" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="282" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J282" s="11"/>
     </row>
-    <row r="283" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="283" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J283" s="11"/>
     </row>
-    <row r="284" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="284" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J284" s="11"/>
     </row>
-    <row r="285" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="285" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J285" s="11"/>
     </row>
-    <row r="286" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="286" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J286" s="11"/>
     </row>
-    <row r="287" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="287" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J287" s="11"/>
     </row>
-    <row r="288" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="288" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J288" s="11"/>
     </row>
-    <row r="289" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="289" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J289" s="11"/>
     </row>
   </sheetData>
@@ -4648,18 +4654,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08EDB66-D816-49B7-B3A7-830E147E6D1C}">
   <dimension ref="C1:AK24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>151</v>
       </c>
@@ -4667,7 +4671,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2:D24">TRANSPOSE(O2:AK3)</f>
         <v>2001</v>
@@ -4754,7 +4758,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C3" t="str">
         <v>2002</v>
       </c>
@@ -4840,7 +4844,7 @@
         <v>44368658</v>
       </c>
     </row>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C4" t="str">
         <v>2003</v>
       </c>
@@ -4851,7 +4855,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C5" t="str">
         <v>2004</v>
       </c>
@@ -4859,7 +4863,7 @@
         <v>40039826</v>
       </c>
     </row>
-    <row r="6" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" t="str">
         <v>2005</v>
       </c>
@@ -4867,7 +4871,7 @@
         <v>41239999</v>
       </c>
     </row>
-    <row r="7" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C7" t="str">
         <v>2006</v>
       </c>
@@ -4875,7 +4879,7 @@
         <v>41693116</v>
       </c>
     </row>
-    <row r="8" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C8" t="str">
         <v>2007</v>
       </c>
@@ -4883,7 +4887,7 @@
         <v>41861246</v>
       </c>
     </row>
-    <row r="9" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C9" t="str">
         <v>2008</v>
       </c>
@@ -4891,7 +4895,7 @@
         <v>41917490</v>
       </c>
     </row>
-    <row r="10" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C10" t="str">
         <v>2009</v>
       </c>
@@ -4899,7 +4903,7 @@
         <v>41978630</v>
       </c>
     </row>
-    <row r="11" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C11" t="str">
         <v>2010</v>
       </c>
@@ -4907,7 +4911,7 @@
         <v>41949335</v>
       </c>
     </row>
-    <row r="12" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C12" t="str">
         <v>2011</v>
       </c>
@@ -4915,7 +4919,7 @@
         <v>41729225</v>
       </c>
     </row>
-    <row r="13" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C13" t="str">
         <v>2012</v>
       </c>
@@ -4923,7 +4927,7 @@
         <v>41853628</v>
       </c>
     </row>
-    <row r="14" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C14" t="str">
         <v>2013</v>
       </c>
@@ -4931,7 +4935,7 @@
         <v>42212988</v>
       </c>
     </row>
-    <row r="15" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C15" t="str">
         <v>2014</v>
       </c>
@@ -4939,7 +4943,7 @@
         <v>42458390</v>
       </c>
     </row>
-    <row r="16" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C16" t="str">
         <v>2015</v>
       </c>
@@ -4947,7 +4951,7 @@
         <v>42660629</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="str">
         <v>2016</v>
       </c>
@@ -4955,7 +4959,7 @@
         <v>43567225</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="str">
         <v>2017</v>
       </c>
@@ -4963,7 +4967,7 @@
         <v>43819028</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="str">
         <v>2018</v>
       </c>
@@ -4971,7 +4975,7 @@
         <v>43935038</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="str">
         <v>2019</v>
       </c>
@@ -4979,7 +4983,7 @@
         <v>44433744</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21" t="str">
         <v>2020</v>
       </c>
@@ -4987,7 +4991,7 @@
         <v>43501190</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C22" t="str">
         <v>2021</v>
       </c>
@@ -4995,7 +4999,7 @@
         <v>43386527</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C23" t="str">
         <v>2022</v>
       </c>
@@ -5003,7 +5007,7 @@
         <v>44198105</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C24" t="str">
         <v>2023</v>
       </c>
@@ -5024,14 +5028,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2009</v>
       </c>
@@ -5039,92 +5043,92 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -5138,23 +5142,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729D3E50-96CE-5D4F-8758-34102C76EE6A}">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>114</v>
       </c>
@@ -5192,7 +5196,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C2" s="4">
         <v>36526</v>
       </c>
@@ -5218,7 +5222,7 @@
         <v>65.861000000000004</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C3" s="4">
         <v>36892</v>
       </c>
@@ -5244,7 +5248,7 @@
         <v>64.034999999999997</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C4" s="4">
         <v>37257</v>
       </c>
@@ -5270,7 +5274,7 @@
         <v>61.822000000000003</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C5" s="4">
         <v>37622</v>
       </c>
@@ -5296,7 +5300,7 @@
         <v>59.923999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C6" s="4">
         <v>37987</v>
       </c>
@@ -5322,7 +5326,7 @@
         <v>58.597000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C7" s="4">
         <v>38353</v>
       </c>
@@ -5348,7 +5352,7 @@
         <v>57.502000000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C8" s="4">
         <v>38718</v>
       </c>
@@ -5362,7 +5366,7 @@
         <v>66.887</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C9" s="4">
         <v>39083</v>
       </c>
@@ -5376,7 +5380,7 @@
         <v>64.158000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>39448</v>
       </c>
@@ -5390,7 +5394,7 @@
         <v>65.682000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C11" s="4">
         <v>39814</v>
       </c>
@@ -5404,7 +5408,7 @@
         <v>73.156999999999996</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C12" s="4">
         <v>40179</v>
       </c>
@@ -5418,7 +5422,7 @@
         <v>81.995000000000005</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
         <v>40544</v>
       </c>
@@ -5432,7 +5436,7 @@
         <v>79.417000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C14" s="4">
         <v>40909</v>
       </c>
@@ -5446,7 +5450,7 @@
         <v>80.745000000000005</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C15" s="4">
         <v>41275</v>
       </c>
@@ -5460,7 +5464,7 @@
         <v>78.322000000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C16" s="4">
         <v>41640</v>
       </c>
@@ -5474,7 +5478,7 @@
         <v>75.278999999999996</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C17" s="4">
         <v>42005</v>
       </c>
@@ -5488,7 +5492,7 @@
         <v>71.947000000000003</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C18" s="4">
         <v>42370</v>
       </c>
@@ -5502,7 +5506,7 @@
         <v>68.954999999999998</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C19" s="4">
         <v>42736</v>
       </c>
@@ -5516,7 +5520,7 @@
         <v>65.209999999999994</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C20" s="4">
         <v>43101</v>
       </c>
@@ -5530,7 +5534,7 @@
         <v>61.905000000000001</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C21" s="4">
         <v>43466</v>
       </c>
@@ -5544,7 +5548,7 @@
         <v>59.548999999999999</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C22" s="4">
         <v>43831</v>
       </c>
@@ -5558,7 +5562,7 @@
         <v>68.745999999999995</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C23" s="4">
         <v>44197</v>
       </c>
@@ -5572,7 +5576,7 @@
         <v>68.959999999999994</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C24" s="4">
         <v>44562</v>
       </c>
@@ -5586,7 +5590,15 @@
         <v>66.113</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I25" s="5">
+        <v>44927</v>
+      </c>
+      <c r="J25" s="7">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>120</v>
       </c>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="281" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F33ADC4A-573B-9448-9E3D-EE550492C133}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BFB71B1-2AFA-6440-9145-E697289F06A7}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="23700" windowHeight="15560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="152">
   <si>
     <t>Date</t>
   </si>
@@ -424,9 +424,6 @@
   </si>
   <si>
     <t xml:space="preserve">Projection of government gross debt for Germany </t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>Country Name</t>
@@ -4665,10 +4662,10 @@
   <sheetData>
     <row r="1" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
         <v>151</v>
-      </c>
-      <c r="D1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="3:37" x14ac:dyDescent="0.2">
@@ -4680,82 +4677,82 @@
         <v>40029198</v>
       </c>
       <c r="L2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" t="s">
         <v>121</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>122</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>123</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>124</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>125</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>126</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>127</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>128</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>129</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>130</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>131</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>132</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>133</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>134</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>135</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>136</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>137</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>138</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>139</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>140</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>141</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>142</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>143</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>144</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>145</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="3:37" x14ac:dyDescent="0.2">
@@ -4766,13 +4763,13 @@
         <v>40056637</v>
       </c>
       <c r="L3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" t="s">
         <v>147</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>148</v>
-      </c>
-      <c r="N3" t="s">
-        <v>149</v>
       </c>
       <c r="O3">
         <v>40029198</v>
@@ -4852,7 +4849,7 @@
         <v>40236914</v>
       </c>
       <c r="L4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="3:37" x14ac:dyDescent="0.2">
@@ -5140,10 +5137,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729D3E50-96CE-5D4F-8758-34102C76EE6A}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5204,10 +5201,10 @@
         <v>-1.528</v>
       </c>
       <c r="F2" s="5">
-        <v>44927</v>
+        <v>45292</v>
       </c>
       <c r="G2" s="7">
-        <v>-2.8919999999999999</v>
+        <v>-1.6539999999999999</v>
       </c>
       <c r="I2" s="5">
         <v>36526</v>
@@ -5216,10 +5213,10 @@
         <v>59.34</v>
       </c>
       <c r="L2" s="5">
-        <v>44927</v>
+        <v>45292</v>
       </c>
       <c r="M2" s="7">
-        <v>65.861000000000004</v>
+        <v>64.034999999999997</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -5230,10 +5227,10 @@
         <v>-3.0249999999999999</v>
       </c>
       <c r="F3" s="5">
-        <v>45292</v>
+        <v>45658</v>
       </c>
       <c r="G3" s="7">
-        <v>-1.6539999999999999</v>
+        <v>-0.93700000000000006</v>
       </c>
       <c r="I3" s="5">
         <v>36892</v>
@@ -5242,10 +5239,10 @@
         <v>58.192999999999998</v>
       </c>
       <c r="L3" s="5">
-        <v>45292</v>
+        <v>45658</v>
       </c>
       <c r="M3" s="7">
-        <v>64.034999999999997</v>
+        <v>61.822000000000003</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -5256,10 +5253,10 @@
         <v>-3.875</v>
       </c>
       <c r="F4" s="5">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="G4" s="7">
-        <v>-0.93700000000000006</v>
+        <v>-0.64100000000000001</v>
       </c>
       <c r="I4" s="5">
         <v>37257</v>
@@ -5268,10 +5265,10 @@
         <v>59.945999999999998</v>
       </c>
       <c r="L4" s="5">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="M4" s="7">
-        <v>61.822000000000003</v>
+        <v>59.923999999999999</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -5282,10 +5279,10 @@
         <v>-3.7040000000000002</v>
       </c>
       <c r="F5" s="5">
-        <v>46023</v>
+        <v>46388</v>
       </c>
       <c r="G5" s="7">
-        <v>-0.64100000000000001</v>
+        <v>-0.53600000000000003</v>
       </c>
       <c r="I5" s="5">
         <v>37622</v>
@@ -5294,10 +5291,10 @@
         <v>63.537999999999997</v>
       </c>
       <c r="L5" s="5">
-        <v>46023</v>
+        <v>46388</v>
       </c>
       <c r="M5" s="7">
-        <v>59.923999999999999</v>
+        <v>58.597000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -5308,10 +5305,10 @@
         <v>-3.3340000000000001</v>
       </c>
       <c r="F6" s="5">
-        <v>46388</v>
+        <v>46753</v>
       </c>
       <c r="G6" s="7">
-        <v>-0.53600000000000003</v>
+        <v>-0.54100000000000004</v>
       </c>
       <c r="I6" s="5">
         <v>37987</v>
@@ -5320,10 +5317,10 @@
         <v>65.200999999999993</v>
       </c>
       <c r="L6" s="5">
-        <v>46388</v>
+        <v>46753</v>
       </c>
       <c r="M6" s="7">
-        <v>58.597000000000001</v>
+        <v>57.502000000000002</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -5333,23 +5330,11 @@
       <c r="D7" s="6">
         <v>-3.319</v>
       </c>
-      <c r="F7" s="5">
-        <v>46753</v>
-      </c>
-      <c r="G7" s="7">
-        <v>-0.54100000000000004</v>
-      </c>
       <c r="I7" s="5">
         <v>38353</v>
       </c>
       <c r="J7" s="12">
         <v>67.546000000000006</v>
-      </c>
-      <c r="L7" s="5">
-        <v>46753</v>
-      </c>
-      <c r="M7" s="7">
-        <v>57.502000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -5591,16 +5576,17 @@
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C25" s="4">
+        <v>44927</v>
+      </c>
+      <c r="D25" s="6">
+        <v>-2.1</v>
+      </c>
       <c r="I25" s="5">
         <v>44927</v>
       </c>
       <c r="J25" s="7">
         <v>63.7</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BFB71B1-2AFA-6440-9145-E697289F06A7}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9ED4E17-7E4D-41AF-A140-7482E8F32F37}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="23700" windowHeight="15560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,25 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4B42F164-681C-4A58-84D1-0574D84188C8}</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{4B42F164-681C-4A58-84D1-0574D84188C8}">
+      <text>
+        <t xml:space="preserve">[Trådet kommentar]
+Din version af Excel lader dig læse denne trådede kommentar. Eventuelle ændringer vil dog blive fjernet, hvis filen åbnes i en nyere version af Excel. Få mere at vide: https://go.microsoft.com/fwlink/?linkid=870924
+Kommentar:
+How is your company developing in relation to the lack of new recruits and skilled workers? 
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -64,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="183">
   <si>
     <t>Date</t>
   </si>
@@ -520,6 +539,99 @@
   </si>
   <si>
     <t>Labor Force size</t>
+  </si>
+  <si>
+    <t>Branche</t>
+  </si>
+  <si>
+    <t>Mangel</t>
+  </si>
+  <si>
+    <t>Salg (uden produkt specialisering)</t>
+  </si>
+  <si>
+    <t>Børnepasning/ uddannelse</t>
+  </si>
+  <si>
+    <t>Socialt arbejde og social pædagogik</t>
+  </si>
+  <si>
+    <t>Ældrepleje</t>
+  </si>
+  <si>
+    <t>Sundheds- og sygepleje</t>
+  </si>
+  <si>
+    <t>Bygnings elektricitet</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>VVS, varme- og airconditionteknologi</t>
+  </si>
+  <si>
+    <t>Medicinsk assistent</t>
+  </si>
+  <si>
+    <t>Bygningsplanlægning og -tilsyn</t>
+  </si>
+  <si>
+    <t>Fysioterapi</t>
+  </si>
+  <si>
+    <t>Bilteknologi</t>
+  </si>
+  <si>
+    <t>Elektrisk driftsteknologi</t>
+  </si>
+  <si>
+    <t>Chauffører (fragttransport/lastbiler)</t>
+  </si>
+  <si>
+    <t>Tandlægespecialist</t>
+  </si>
+  <si>
+    <t>There is a shortage of skilled workers</t>
+  </si>
+  <si>
+    <t>There is a shortage of workers</t>
+  </si>
+  <si>
+    <t>Shortage of new recruits</t>
+  </si>
+  <si>
+    <t>Qualitative personnel adjustment (competence requirements)</t>
+  </si>
+  <si>
+    <t>Personnel reduction (in parts of the company)</t>
+  </si>
+  <si>
+    <t>More people retiring than new recruits joining</t>
+  </si>
+  <si>
+    <t>The supply of skilled workers is sufficient</t>
+  </si>
+  <si>
+    <t>The supply of workers is sufficient</t>
+  </si>
+  <si>
+    <t>The supply of new recruits is sufficient</t>
+  </si>
+  <si>
+    <t>Job cuts (in parts of the company)</t>
+  </si>
+  <si>
+    <t>Dealing with workforce ambidexterity is required</t>
+  </si>
+  <si>
+    <t>Kilde</t>
+  </si>
+  <si>
+    <t>Virksomhed</t>
+  </si>
+  <si>
+    <t>Pct</t>
   </si>
 </sst>
 </file>
@@ -530,7 +642,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,6 +677,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -583,10 +709,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -603,8 +730,17 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -621,7 +757,9 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Johan Andreas Leer Bysted" id="{052545E1-0C9A-44FD-AC43-02C3CF02B89B}" userId="S::CI65GM@student.aau.dk::6cbd2f40-4e50-4fdd-a070-c2e5e6d45bef" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -939,6 +1077,16 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I2" dT="2024-04-05T12:49:38.62" personId="{052545E1-0C9A-44FD-AC43-02C3CF02B89B}" id="{4B42F164-681C-4A58-84D1-0574D84188C8}">
+    <text xml:space="preserve">
+How is your company developing in relation to the lack of new recruits and skilled workers? 
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J289"/>
@@ -947,19 +1095,19 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="1" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +1139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1023,7 +1171,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1055,7 +1203,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1087,7 +1235,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1119,7 +1267,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1151,7 +1299,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1183,7 +1331,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1215,7 +1363,7 @@
         <v>78.2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1247,7 +1395,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1279,7 +1427,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1311,7 +1459,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1343,7 +1491,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1375,7 +1523,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1407,7 +1555,7 @@
         <v>82.8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -1439,7 +1587,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -1471,7 +1619,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -1503,7 +1651,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -1535,7 +1683,7 @@
         <v>85.7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -1567,7 +1715,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -1599,7 +1747,7 @@
         <v>87.4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -1631,7 +1779,7 @@
         <v>87.9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -1663,7 +1811,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -1695,7 +1843,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -1727,7 +1875,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -1759,7 +1907,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -1791,7 +1939,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -1823,7 +1971,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -1855,7 +2003,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -1887,7 +2035,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -1919,7 +2067,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -1951,7 +2099,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -1983,7 +2131,7 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -2015,7 +2163,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -2047,7 +2195,7 @@
         <v>102.8</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -2079,7 +2227,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -2111,7 +2259,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -2143,7 +2291,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -2175,7 +2323,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -2207,7 +2355,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -2239,7 +2387,7 @@
         <v>89.8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -2271,7 +2419,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -2303,7 +2451,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -2335,7 +2483,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -2367,7 +2515,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -2399,7 +2547,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -2431,7 +2579,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -2463,7 +2611,7 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -2495,7 +2643,7 @@
         <v>103.3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -2527,7 +2675,7 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -2559,7 +2707,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -2591,7 +2739,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -2623,7 +2771,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -2655,7 +2803,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -2687,7 +2835,7 @@
         <v>97.2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -2719,7 +2867,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -2751,7 +2899,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -2783,7 +2931,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -2815,7 +2963,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -2847,7 +2995,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -2879,7 +3027,7 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -2911,7 +3059,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -2943,7 +3091,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -2975,7 +3123,7 @@
         <v>100.3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -3007,7 +3155,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -3039,7 +3187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -3071,7 +3219,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -3103,7 +3251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -3135,7 +3283,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -3167,7 +3315,7 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -3199,7 +3347,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -3231,7 +3379,7 @@
         <v>102.3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -3263,7 +3411,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -3295,7 +3443,7 @@
         <v>102.3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -3327,7 +3475,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -3359,7 +3507,7 @@
         <v>102.6</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -3391,7 +3539,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -3423,7 +3571,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -3455,7 +3603,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -3487,7 +3635,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -3519,7 +3667,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -3551,7 +3699,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -3583,7 +3731,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -3615,7 +3763,7 @@
         <v>84.3</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -3647,7 +3795,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -3679,7 +3827,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -3711,7 +3859,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -3743,7 +3891,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -3775,7 +3923,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -3807,7 +3955,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -3839,7 +3987,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -3871,7 +4019,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -3903,7 +4051,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -3935,7 +4083,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -3967,7 +4115,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -3999,7 +4147,7 @@
         <v>97.3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -4031,7 +4179,7 @@
         <v>95.4</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -4055,591 +4203,591 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D98" s="1"/>
       <c r="J98" s="11"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D99" s="1"/>
       <c r="J99" s="11"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D100" s="1"/>
       <c r="J100" s="11"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D101" s="1"/>
       <c r="J101" s="11"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D102" s="1"/>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D103" s="1"/>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D104" s="1"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D105" s="1"/>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D106" s="1"/>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D107" s="1"/>
       <c r="J107" s="11"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D108" s="1"/>
       <c r="J108" s="11"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J109" s="11"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J110" s="11"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J111" s="11"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J112" s="11"/>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J114" s="11"/>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J115" s="11"/>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J116" s="11"/>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J117" s="11"/>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J118" s="11"/>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J119" s="11"/>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J120" s="11"/>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J121" s="11"/>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J122" s="11"/>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J123" s="11"/>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J124" s="11"/>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J125" s="11"/>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J126" s="11"/>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J127" s="11"/>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J128" s="11"/>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J129" s="11"/>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J130" s="11"/>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J131" s="11"/>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J132" s="11"/>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J133" s="11"/>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J134" s="11"/>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J135" s="11"/>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J136" s="11"/>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J137" s="11"/>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J138" s="11"/>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J139" s="11"/>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J140" s="11"/>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J141" s="11"/>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J142" s="11"/>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J143" s="11"/>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J144" s="11"/>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J145" s="11"/>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J146" s="11"/>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J147" s="11"/>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J148" s="11"/>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J149" s="11"/>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J150" s="11"/>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J151" s="11"/>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J152" s="11"/>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J153" s="11"/>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J154" s="11"/>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J155" s="11"/>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J156" s="11"/>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J157" s="11"/>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J158" s="11"/>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J159" s="11"/>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J160" s="11"/>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J161" s="11"/>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J162" s="11"/>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J163" s="11"/>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J164" s="11"/>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J165" s="11"/>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J166" s="11"/>
     </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J167" s="11"/>
     </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J168" s="11"/>
     </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J169" s="11"/>
     </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J170" s="11"/>
     </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J171" s="11"/>
     </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J172" s="11"/>
     </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J173" s="11"/>
     </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J174" s="11"/>
     </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J175" s="11"/>
     </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J176" s="11"/>
     </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J177" s="11"/>
     </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J178" s="11"/>
     </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J179" s="11"/>
     </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J180" s="11"/>
     </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J181" s="11"/>
     </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J182" s="11"/>
     </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J183" s="11"/>
     </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J184" s="11"/>
     </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J185" s="11"/>
     </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J186" s="11"/>
     </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J187" s="11"/>
     </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J188" s="11"/>
     </row>
-    <row r="189" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J189" s="11"/>
     </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J190" s="11"/>
     </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J191" s="11"/>
     </row>
-    <row r="192" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J192" s="11"/>
     </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J193" s="11"/>
     </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J194" s="11"/>
     </row>
-    <row r="195" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J195" s="11"/>
     </row>
-    <row r="196" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J196" s="11"/>
     </row>
-    <row r="197" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J197" s="11"/>
     </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J198" s="11"/>
     </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J199" s="11"/>
     </row>
-    <row r="200" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J200" s="11"/>
     </row>
-    <row r="201" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J201" s="11"/>
     </row>
-    <row r="202" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J202" s="11"/>
     </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J203" s="11"/>
     </row>
-    <row r="204" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J204" s="11"/>
     </row>
-    <row r="205" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J205" s="11"/>
     </row>
-    <row r="206" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J206" s="11"/>
     </row>
-    <row r="207" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J207" s="11"/>
     </row>
-    <row r="208" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J208" s="11"/>
     </row>
-    <row r="209" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J209" s="11"/>
     </row>
-    <row r="210" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J210" s="11"/>
     </row>
-    <row r="211" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J211" s="11"/>
     </row>
-    <row r="212" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J212" s="11"/>
     </row>
-    <row r="213" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J213" s="11"/>
     </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J214" s="11"/>
     </row>
-    <row r="215" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J215" s="11"/>
     </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J216" s="11"/>
     </row>
-    <row r="217" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J217" s="11"/>
     </row>
-    <row r="218" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J218" s="11"/>
     </row>
-    <row r="219" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J219" s="11"/>
     </row>
-    <row r="220" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J220" s="11"/>
     </row>
-    <row r="221" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J221" s="11"/>
     </row>
-    <row r="222" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J222" s="11"/>
     </row>
-    <row r="223" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J223" s="11"/>
     </row>
-    <row r="224" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J224" s="11"/>
     </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J225" s="11"/>
     </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J226" s="11"/>
     </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J227" s="11"/>
     </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J228" s="11"/>
     </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J229" s="11"/>
     </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J230" s="11"/>
     </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J231" s="11"/>
     </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J232" s="11"/>
     </row>
-    <row r="233" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J233" s="11"/>
     </row>
-    <row r="234" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J234" s="11"/>
     </row>
-    <row r="235" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J235" s="11"/>
     </row>
-    <row r="236" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J236" s="11"/>
     </row>
-    <row r="237" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J237" s="11"/>
     </row>
-    <row r="238" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J238" s="11"/>
     </row>
-    <row r="239" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J239" s="11"/>
     </row>
-    <row r="240" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J240" s="11"/>
     </row>
-    <row r="241" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J241" s="11"/>
     </row>
-    <row r="242" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J242" s="11"/>
     </row>
-    <row r="243" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J243" s="11"/>
     </row>
-    <row r="244" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J244" s="11"/>
     </row>
-    <row r="245" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J245" s="11"/>
     </row>
-    <row r="246" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J246" s="11"/>
     </row>
-    <row r="247" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J247" s="11"/>
     </row>
-    <row r="248" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J248" s="11"/>
     </row>
-    <row r="249" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J249" s="11"/>
     </row>
-    <row r="250" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J250" s="11"/>
     </row>
-    <row r="251" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J251" s="11"/>
     </row>
-    <row r="252" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J252" s="11"/>
     </row>
-    <row r="253" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J253" s="11"/>
     </row>
-    <row r="254" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J254" s="11"/>
     </row>
-    <row r="255" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J255" s="11"/>
     </row>
-    <row r="256" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J256" s="11"/>
     </row>
-    <row r="257" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J257" s="11"/>
     </row>
-    <row r="258" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J258" s="11"/>
     </row>
-    <row r="259" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J259" s="11"/>
     </row>
-    <row r="260" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J260" s="11"/>
     </row>
-    <row r="261" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J261" s="11"/>
     </row>
-    <row r="262" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J262" s="11"/>
     </row>
-    <row r="263" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J263" s="11"/>
     </row>
-    <row r="264" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J264" s="11"/>
     </row>
-    <row r="265" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J265" s="11"/>
     </row>
-    <row r="266" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J266" s="11"/>
     </row>
-    <row r="267" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J267" s="11"/>
     </row>
-    <row r="268" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J268" s="11"/>
     </row>
-    <row r="269" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J269" s="11"/>
     </row>
-    <row r="270" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J270" s="11"/>
     </row>
-    <row r="271" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J271" s="11"/>
     </row>
-    <row r="272" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J272" s="11"/>
     </row>
-    <row r="273" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J273" s="11"/>
     </row>
-    <row r="274" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J274" s="11"/>
     </row>
-    <row r="275" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J275" s="11"/>
     </row>
-    <row r="276" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J276" s="11"/>
     </row>
-    <row r="277" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J277" s="11"/>
     </row>
-    <row r="278" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J278" s="11"/>
     </row>
-    <row r="279" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J279" s="11"/>
     </row>
-    <row r="280" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J280" s="11"/>
     </row>
-    <row r="281" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J281" s="11"/>
     </row>
-    <row r="282" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J282" s="11"/>
     </row>
-    <row r="283" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J283" s="11"/>
     </row>
-    <row r="284" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J284" s="11"/>
     </row>
-    <row r="285" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J285" s="11"/>
     </row>
-    <row r="286" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J286" s="11"/>
     </row>
-    <row r="287" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J287" s="11"/>
     </row>
-    <row r="288" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J288" s="11"/>
     </row>
-    <row r="289" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J289" s="11"/>
     </row>
   </sheetData>
@@ -4648,307 +4796,484 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08EDB66-D816-49B7-B3A7-830E147E6D1C}">
-  <dimension ref="C1:AK24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08EDB66-D816-49B7-B3A7-830E147E6D1C}">
+  <dimension ref="C1:AM24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>150</v>
       </c>
       <c r="D1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C2" t="str" cm="1">
-        <f t="array" ref="C2:D24">TRANSPOSE(O2:AK3)</f>
+        <f t="array" ref="C2:D24">TRANSPOSE(Q2:AM3)</f>
         <v>2001</v>
       </c>
       <c r="D2">
         <v>40029198</v>
       </c>
-      <c r="L2" t="s">
+      <c r="F2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="14">
+        <v>26192</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="16">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
         <v>120</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>121</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>122</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>123</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>124</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>125</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>126</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>127</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>128</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>129</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>130</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>131</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>132</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>133</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>134</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>135</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>136</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>137</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>138</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>139</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>140</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>141</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>142</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>143</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>144</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C3" t="str">
         <v>2002</v>
       </c>
       <c r="D3">
         <v>40056637</v>
       </c>
-      <c r="L3" t="s">
+      <c r="F3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="14">
+        <v>22941</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="16">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
         <v>146</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>147</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>148</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>40029198</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>40056637</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>40236914</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>40039826</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>41239999</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>41693116</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>41861246</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>41917490</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>41978630</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>41949335</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>41729225</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>41853628</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>42212988</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>42458390</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>42660629</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>43567225</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>43819028</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>43935038</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>44433744</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>43501190</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>43386527</v>
       </c>
-      <c r="AJ3">
+      <c r="AL3">
         <v>44198105</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>44368658</v>
       </c>
     </row>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C4" t="str">
         <v>2003</v>
       </c>
       <c r="D4">
         <v>40236914</v>
       </c>
-      <c r="L4" t="s">
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="14">
+        <v>20268</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J4" s="16">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C5" t="str">
         <v>2004</v>
       </c>
       <c r="D5">
         <v>40039826</v>
       </c>
-    </row>
-    <row r="6" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="14">
+        <v>19840</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="J5" s="16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C6" t="str">
         <v>2005</v>
       </c>
       <c r="D6">
         <v>41239999</v>
       </c>
-    </row>
-    <row r="7" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="14">
+        <v>19167</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J6" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C7" t="str">
         <v>2006</v>
       </c>
       <c r="D7">
         <v>41693116</v>
       </c>
-    </row>
-    <row r="8" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="14">
+        <v>16341</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J7" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C8" t="str">
         <v>2007</v>
       </c>
       <c r="D8">
         <v>41861246</v>
       </c>
-    </row>
-    <row r="9" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="14">
+        <v>15052</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="J8" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C9" t="str">
         <v>2008</v>
       </c>
       <c r="D9">
         <v>41917490</v>
       </c>
-    </row>
-    <row r="10" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="14">
+        <v>14248</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C10" t="str">
         <v>2009</v>
       </c>
       <c r="D10">
         <v>41978630</v>
       </c>
-    </row>
-    <row r="11" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="14">
+        <v>13587</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="J10" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C11" t="str">
         <v>2010</v>
       </c>
       <c r="D11">
         <v>41949335</v>
       </c>
-    </row>
-    <row r="12" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="14">
+        <v>11578</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="J11" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C12" t="str">
         <v>2011</v>
       </c>
       <c r="D12">
         <v>41729225</v>
       </c>
-    </row>
-    <row r="13" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="14">
+        <v>11099</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" s="16">
+        <v>7</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C13" t="str">
         <v>2012</v>
       </c>
       <c r="D13">
         <v>41853628</v>
       </c>
-    </row>
-    <row r="14" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="14">
+        <v>10638</v>
+      </c>
+    </row>
+    <row r="14" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C14" t="str">
         <v>2013</v>
       </c>
       <c r="D14">
         <v>42212988</v>
       </c>
-    </row>
-    <row r="15" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="14">
+        <v>10501</v>
+      </c>
+    </row>
+    <row r="15" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
         <v>2014</v>
       </c>
       <c r="D15">
         <v>42458390</v>
       </c>
-    </row>
-    <row r="16" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="14">
+        <v>9351</v>
+      </c>
+    </row>
+    <row r="16" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C16" t="str">
         <v>2015</v>
       </c>
       <c r="D16">
         <v>42660629</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="14">
+        <v>8978</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C17" t="str">
         <v>2016</v>
       </c>
@@ -4956,7 +5281,7 @@
         <v>43567225</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C18" t="str">
         <v>2017</v>
       </c>
@@ -4964,7 +5289,7 @@
         <v>43819028</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C19" t="str">
         <v>2018</v>
       </c>
@@ -4972,7 +5297,7 @@
         <v>43935038</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C20" t="str">
         <v>2019</v>
       </c>
@@ -4980,7 +5305,7 @@
         <v>44433744</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" t="str">
         <v>2020</v>
       </c>
@@ -4988,7 +5313,7 @@
         <v>43501190</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C22" t="str">
         <v>2021</v>
       </c>
@@ -4996,7 +5321,7 @@
         <v>43386527</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C23" t="str">
         <v>2022</v>
       </c>
@@ -5004,7 +5329,7 @@
         <v>44198105</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C24" t="str">
         <v>2023</v>
       </c>
@@ -5013,7 +5338,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H16" r:id="rId1" xr:uid="{CD3E0A74-6C49-41A8-ABFD-336AF1C8F38E}"/>
+    <hyperlink ref="K12" r:id="rId2" xr:uid="{91D62949-6B55-4A30-97ED-8F10D8B3EB14}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5025,14 +5355,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2009</v>
       </c>
@@ -5040,92 +5370,92 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -5139,23 +5469,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729D3E50-96CE-5D4F-8758-34102C76EE6A}">
   <dimension ref="B1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>114</v>
       </c>
@@ -5193,7 +5523,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C2" s="4">
         <v>36526</v>
       </c>
@@ -5219,7 +5549,7 @@
         <v>64.034999999999997</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C3" s="4">
         <v>36892</v>
       </c>
@@ -5245,7 +5575,7 @@
         <v>61.822000000000003</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C4" s="4">
         <v>37257</v>
       </c>
@@ -5271,7 +5601,7 @@
         <v>59.923999999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C5" s="4">
         <v>37622</v>
       </c>
@@ -5297,7 +5627,7 @@
         <v>58.597000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C6" s="4">
         <v>37987</v>
       </c>
@@ -5323,7 +5653,7 @@
         <v>57.502000000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C7" s="4">
         <v>38353</v>
       </c>
@@ -5337,7 +5667,7 @@
         <v>67.546000000000006</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C8" s="4">
         <v>38718</v>
       </c>
@@ -5351,7 +5681,7 @@
         <v>66.887</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C9" s="4">
         <v>39083</v>
       </c>
@@ -5365,7 +5695,7 @@
         <v>64.158000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C10" s="4">
         <v>39448</v>
       </c>
@@ -5379,7 +5709,7 @@
         <v>65.682000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C11" s="4">
         <v>39814</v>
       </c>
@@ -5393,7 +5723,7 @@
         <v>73.156999999999996</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C12" s="4">
         <v>40179</v>
       </c>
@@ -5407,7 +5737,7 @@
         <v>81.995000000000005</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C13" s="4">
         <v>40544</v>
       </c>
@@ -5421,7 +5751,7 @@
         <v>79.417000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C14" s="4">
         <v>40909</v>
       </c>
@@ -5435,7 +5765,7 @@
         <v>80.745000000000005</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C15" s="4">
         <v>41275</v>
       </c>
@@ -5449,7 +5779,7 @@
         <v>78.322000000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C16" s="4">
         <v>41640</v>
       </c>
@@ -5463,7 +5793,7 @@
         <v>75.278999999999996</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C17" s="4">
         <v>42005</v>
       </c>
@@ -5477,7 +5807,7 @@
         <v>71.947000000000003</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C18" s="4">
         <v>42370</v>
       </c>
@@ -5491,7 +5821,7 @@
         <v>68.954999999999998</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C19" s="4">
         <v>42736</v>
       </c>
@@ -5505,7 +5835,7 @@
         <v>65.209999999999994</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C20" s="4">
         <v>43101</v>
       </c>
@@ -5519,7 +5849,7 @@
         <v>61.905000000000001</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C21" s="4">
         <v>43466</v>
       </c>
@@ -5533,7 +5863,7 @@
         <v>59.548999999999999</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C22" s="4">
         <v>43831</v>
       </c>
@@ -5547,7 +5877,7 @@
         <v>68.745999999999995</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C23" s="4">
         <v>44197</v>
       </c>
@@ -5561,7 +5891,7 @@
         <v>68.959999999999994</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C24" s="4">
         <v>44562</v>
       </c>
@@ -5575,7 +5905,7 @@
         <v>66.113</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C25" s="4">
         <v>44927</v>
       </c>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="314" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9ED4E17-7E4D-41AF-A140-7482E8F32F37}"/>
+  <xr:revisionPtr revIDLastSave="360" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{605CA3AB-6D0C-4887-AC42-0854F3A3C164}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="178">
   <si>
     <t>Date</t>
   </si>
@@ -550,18 +550,6 @@
     <t>Salg (uden produkt specialisering)</t>
   </si>
   <si>
-    <t>Børnepasning/ uddannelse</t>
-  </si>
-  <si>
-    <t>Socialt arbejde og social pædagogik</t>
-  </si>
-  <si>
-    <t>Ældrepleje</t>
-  </si>
-  <si>
-    <t>Sundheds- og sygepleje</t>
-  </si>
-  <si>
     <t>Bygnings elektricitet</t>
   </si>
   <si>
@@ -571,27 +559,15 @@
     <t>VVS, varme- og airconditionteknologi</t>
   </si>
   <si>
-    <t>Medicinsk assistent</t>
-  </si>
-  <si>
     <t>Bygningsplanlægning og -tilsyn</t>
   </si>
   <si>
-    <t>Fysioterapi</t>
-  </si>
-  <si>
     <t>Bilteknologi</t>
   </si>
   <si>
     <t>Elektrisk driftsteknologi</t>
   </si>
   <si>
-    <t>Chauffører (fragttransport/lastbiler)</t>
-  </si>
-  <si>
-    <t>Tandlægespecialist</t>
-  </si>
-  <si>
     <t>There is a shortage of skilled workers</t>
   </si>
   <si>
@@ -632,6 +608,15 @@
   </si>
   <si>
     <t>Pct</t>
+  </si>
+  <si>
+    <t>Sundhedssektoren</t>
+  </si>
+  <si>
+    <t>Socialt arbejde og uddannelse</t>
+  </si>
+  <si>
+    <t>Transport</t>
   </si>
 </sst>
 </file>
@@ -642,7 +627,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,12 +663,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -711,7 +690,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -730,14 +709,14 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -4800,7 +4779,7 @@
   <dimension ref="C1:AM24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4808,6 +4787,7 @@
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="40.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4825,10 +4805,10 @@
         <v>153</v>
       </c>
       <c r="I1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="J1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="3:39" x14ac:dyDescent="0.35">
@@ -4840,15 +4820,16 @@
         <v>40029198</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="14">
-        <v>26192</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J2" s="16">
+        <v>175</v>
+      </c>
+      <c r="G2" s="17">
+        <f>19840+19167+13587+11099+8978</f>
+        <v>72671</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="15">
         <v>44</v>
       </c>
       <c r="N2" t="s">
@@ -4938,15 +4919,16 @@
         <v>40056637</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="14">
-        <v>22941</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J3" s="16">
+        <v>176</v>
+      </c>
+      <c r="G3" s="17">
+        <f>20268+22941</f>
+        <v>43209</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="15">
         <v>35</v>
       </c>
       <c r="N3" t="s">
@@ -5036,15 +5018,15 @@
         <v>40236914</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="14">
-        <v>20268</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J4" s="16">
+        <v>154</v>
+      </c>
+      <c r="G4" s="17">
+        <v>26192</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="15">
         <v>32</v>
       </c>
       <c r="N4" t="s">
@@ -5059,15 +5041,15 @@
         <v>40039826</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="14">
-        <v>19840</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J5" s="16">
+        <v>155</v>
+      </c>
+      <c r="G5" s="17">
+        <v>16341</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="15">
         <v>22</v>
       </c>
     </row>
@@ -5079,15 +5061,15 @@
         <v>41239999</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="14">
-        <v>19167</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="J6" s="16">
+        <v>156</v>
+      </c>
+      <c r="G6" s="17">
+        <v>15052</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5099,15 +5081,15 @@
         <v>41693116</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="14">
-        <v>16341</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="J7" s="16">
+        <v>157</v>
+      </c>
+      <c r="G7" s="17">
+        <v>14248</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="J7" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5119,15 +5101,15 @@
         <v>41861246</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="14">
-        <v>15052</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="J8" s="16">
+        <v>158</v>
+      </c>
+      <c r="G8" s="17">
+        <v>11578</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J8" s="15">
         <v>15</v>
       </c>
     </row>
@@ -5139,15 +5121,15 @@
         <v>41917490</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="14">
-        <v>14248</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="J9" s="16">
+        <v>159</v>
+      </c>
+      <c r="G9" s="17">
+        <v>10638</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="15">
         <v>14</v>
       </c>
     </row>
@@ -5159,15 +5141,15 @@
         <v>41978630</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="14">
-        <v>13587</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="J10" s="16">
+        <v>160</v>
+      </c>
+      <c r="G10" s="17">
+        <v>10501</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="15">
         <v>14</v>
       </c>
     </row>
@@ -5179,15 +5161,18 @@
         <v>41949335</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
-      </c>
-      <c r="G11" s="14">
-        <v>11578</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="J11" s="16">
+        <v>177</v>
+      </c>
+      <c r="G11" s="17">
+        <v>9351</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="J11" s="15">
         <v>12</v>
       </c>
     </row>
@@ -5198,20 +5183,15 @@
       <c r="D12">
         <v>41729225</v>
       </c>
-      <c r="F12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G12" s="14">
-        <v>11099</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="J12" s="16">
+      <c r="G12" s="17"/>
+      <c r="I12" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="J12" s="15">
         <v>7</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>180</v>
+      <c r="K12" s="16" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="3:39" x14ac:dyDescent="0.35">
@@ -5221,12 +5201,6 @@
       <c r="D13">
         <v>41853628</v>
       </c>
-      <c r="F13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" s="14">
-        <v>10638</v>
-      </c>
     </row>
     <row r="14" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C14" t="str">
@@ -5235,12 +5209,6 @@
       <c r="D14">
         <v>42212988</v>
       </c>
-      <c r="F14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G14" s="14">
-        <v>10501</v>
-      </c>
     </row>
     <row r="15" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
@@ -5249,12 +5217,6 @@
       <c r="D15">
         <v>42458390</v>
       </c>
-      <c r="F15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G15" s="14">
-        <v>9351</v>
-      </c>
     </row>
     <row r="16" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C16" t="str">
@@ -5263,15 +5225,6 @@
       <c r="D16">
         <v>42660629</v>
       </c>
-      <c r="F16" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="14">
-        <v>8978</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C17" t="str">
@@ -5338,8 +5291,11 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G11">
+    <sortCondition descending="1" ref="G11"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="H16" r:id="rId1" xr:uid="{CD3E0A74-6C49-41A8-ABFD-336AF1C8F38E}"/>
+    <hyperlink ref="H11" r:id="rId1" xr:uid="{CD3E0A74-6C49-41A8-ABFD-336AF1C8F38E}"/>
     <hyperlink ref="K12" r:id="rId2" xr:uid="{91D62949-6B55-4A30-97ED-8F10D8B3EB14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="360" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{605CA3AB-6D0C-4887-AC42-0854F3A3C164}"/>
+  <xr:revisionPtr revIDLastSave="367" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDD112BA-2285-4ED8-88B3-1BA4828F5DDB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,21 +547,9 @@
     <t>Mangel</t>
   </si>
   <si>
-    <t>Salg (uden produkt specialisering)</t>
-  </si>
-  <si>
-    <t>Bygnings elektricitet</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
-    <t>VVS, varme- og airconditionteknologi</t>
-  </si>
-  <si>
-    <t>Bygningsplanlægning og -tilsyn</t>
-  </si>
-  <si>
     <t>Bilteknologi</t>
   </si>
   <si>
@@ -610,13 +598,25 @@
     <t>Pct</t>
   </si>
   <si>
-    <t>Sundhedssektoren</t>
-  </si>
-  <si>
     <t>Socialt arbejde og uddannelse</t>
   </si>
   <si>
     <t>Transport</t>
+  </si>
+  <si>
+    <t>Salg</t>
+  </si>
+  <si>
+    <t>VVS</t>
+  </si>
+  <si>
+    <t>Bygningsplanlægning</t>
+  </si>
+  <si>
+    <t>Elektrikere</t>
+  </si>
+  <si>
+    <t>Sundhed</t>
   </si>
 </sst>
 </file>
@@ -4779,7 +4779,7 @@
   <dimension ref="C1:AM24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4805,10 +4805,10 @@
         <v>153</v>
       </c>
       <c r="I1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="3:39" x14ac:dyDescent="0.35">
@@ -4820,14 +4820,14 @@
         <v>40029198</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G2" s="17">
         <f>19840+19167+13587+11099+8978</f>
         <v>72671</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J2" s="15">
         <v>44</v>
@@ -4919,14 +4919,14 @@
         <v>40056637</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G3" s="17">
         <f>20268+22941</f>
         <v>43209</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J3" s="15">
         <v>35</v>
@@ -5018,13 +5018,13 @@
         <v>40236914</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G4" s="17">
         <v>26192</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J4" s="15">
         <v>32</v>
@@ -5041,13 +5041,13 @@
         <v>40039826</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="G5" s="17">
         <v>16341</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J5" s="15">
         <v>22</v>
@@ -5061,13 +5061,13 @@
         <v>41239999</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G6" s="17">
         <v>15052</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J6" s="15">
         <v>16</v>
@@ -5081,13 +5081,13 @@
         <v>41693116</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="G7" s="17">
         <v>14248</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J7" s="15">
         <v>16</v>
@@ -5101,13 +5101,13 @@
         <v>41861246</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G8" s="17">
         <v>11578</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J8" s="15">
         <v>15</v>
@@ -5121,13 +5121,13 @@
         <v>41917490</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G9" s="17">
         <v>10638</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J9" s="15">
         <v>14</v>
@@ -5141,13 +5141,13 @@
         <v>41978630</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G10" s="17">
         <v>10501</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J10" s="15">
         <v>14</v>
@@ -5161,16 +5161,16 @@
         <v>41949335</v>
       </c>
       <c r="F11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G11" s="17">
         <v>9351</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J11" s="15">
         <v>12</v>
@@ -5185,13 +5185,13 @@
       </c>
       <c r="G12" s="17"/>
       <c r="I12" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J12" s="15">
         <v>7</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="3:39" x14ac:dyDescent="0.35">

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="367" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDD112BA-2285-4ED8-88B3-1BA4828F5DDB}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA869AF9-B7AA-45A9-BAB1-0DB83D87FBDA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,9 +598,6 @@
     <t>Pct</t>
   </si>
   <si>
-    <t>Socialt arbejde og uddannelse</t>
-  </si>
-  <si>
     <t>Transport</t>
   </si>
   <si>
@@ -617,6 +614,9 @@
   </si>
   <si>
     <t>Sundhed</t>
+  </si>
+  <si>
+    <t>Pædagogik og uddannelse</t>
   </si>
 </sst>
 </file>
@@ -4779,7 +4779,7 @@
   <dimension ref="C1:AM24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4820,7 +4820,7 @@
         <v>40029198</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G2" s="17">
         <f>19840+19167+13587+11099+8978</f>
@@ -4919,7 +4919,7 @@
         <v>40056637</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G3" s="17">
         <f>20268+22941</f>
@@ -5018,7 +5018,7 @@
         <v>40236914</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G4" s="17">
         <v>26192</v>
@@ -5041,7 +5041,7 @@
         <v>40039826</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G5" s="17">
         <v>16341</v>
@@ -5081,7 +5081,7 @@
         <v>41693116</v>
       </c>
       <c r="F7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G7" s="17">
         <v>14248</v>
@@ -5101,7 +5101,7 @@
         <v>41861246</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="17">
         <v>11578</v>
@@ -5161,7 +5161,7 @@
         <v>41949335</v>
       </c>
       <c r="F11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G11" s="17">
         <v>9351</v>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="368" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA869AF9-B7AA-45A9-BAB1-0DB83D87FBDA}"/>
+  <xr:revisionPtr revIDLastSave="385" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D998C7AB-12DF-8C44-8FC4-AD3E2E6C1EC1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="186">
   <si>
     <t>Date</t>
   </si>
@@ -617,6 +617,30 @@
   </si>
   <si>
     <t>Pædagogik og uddannelse</t>
+  </si>
+  <si>
+    <t>Legal and tax advice, auditing</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Land transportation and transport in long distance pipelines</t>
+  </si>
+  <si>
+    <t>Architecture and engineering consultancies</t>
+  </si>
+  <si>
+    <t>Accommodation</t>
+  </si>
+  <si>
+    <t>Information technology services</t>
+  </si>
+  <si>
+    <t>Branche2</t>
+  </si>
+  <si>
+    <t>Pct2</t>
   </si>
 </sst>
 </file>
@@ -692,7 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -717,6 +741,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1076,14 +1103,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -4776,10 +4805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08EDB66-D816-49B7-B3A7-830E147E6D1C}">
-  <dimension ref="C1:AM24"/>
+  <dimension ref="C1:AU24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4789,9 +4818,10 @@
     <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="40.81640625" customWidth="1"/>
+    <col min="13" max="13" width="49.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>150</v>
       </c>
@@ -4810,10 +4840,16 @@
       <c r="J1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="2" spans="3:39" x14ac:dyDescent="0.35">
+      <c r="M1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C2" t="str" cm="1">
-        <f t="array" ref="C2:D24">TRANSPOSE(Q2:AM3)</f>
+        <f t="array" ref="C2:D24">TRANSPOSE(Y2:AU3)</f>
         <v>2001</v>
       </c>
       <c r="D2">
@@ -4832,86 +4868,92 @@
       <c r="J2" s="15">
         <v>44</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="N2" s="18">
+        <v>75.2</v>
+      </c>
+      <c r="V2" t="s">
         <v>120</v>
       </c>
-      <c r="O2" t="s">
+      <c r="W2" t="s">
         <v>121</v>
       </c>
-      <c r="P2" t="s">
+      <c r="X2" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Y2" t="s">
         <v>123</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Z2" t="s">
         <v>124</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AA2" t="s">
         <v>125</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AB2" t="s">
         <v>126</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AC2" t="s">
         <v>127</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AD2" t="s">
         <v>128</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AE2" t="s">
         <v>129</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AF2" t="s">
         <v>130</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AG2" t="s">
         <v>131</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AH2" t="s">
         <v>132</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AI2" t="s">
         <v>133</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AJ2" t="s">
         <v>134</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AK2" t="s">
         <v>135</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AL2" t="s">
         <v>136</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AM2" t="s">
         <v>137</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AN2" t="s">
         <v>138</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AO2" t="s">
         <v>139</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AP2" t="s">
         <v>140</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AQ2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AR2" t="s">
         <v>142</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AS2" t="s">
         <v>143</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AT2" t="s">
         <v>144</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AU2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C3" t="str">
         <v>2002</v>
       </c>
@@ -4931,86 +4973,92 @@
       <c r="J3" s="15">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="N3" s="18">
+        <v>59.4</v>
+      </c>
+      <c r="V3" t="s">
         <v>146</v>
       </c>
-      <c r="O3" t="s">
+      <c r="W3" t="s">
         <v>147</v>
       </c>
-      <c r="P3" t="s">
+      <c r="X3" t="s">
         <v>148</v>
       </c>
-      <c r="Q3">
+      <c r="Y3">
         <v>40029198</v>
       </c>
-      <c r="R3">
+      <c r="Z3">
         <v>40056637</v>
       </c>
-      <c r="S3">
+      <c r="AA3">
         <v>40236914</v>
       </c>
-      <c r="T3">
+      <c r="AB3">
         <v>40039826</v>
       </c>
-      <c r="U3">
+      <c r="AC3">
         <v>41239999</v>
       </c>
-      <c r="V3">
+      <c r="AD3">
         <v>41693116</v>
       </c>
-      <c r="W3">
+      <c r="AE3">
         <v>41861246</v>
       </c>
-      <c r="X3">
+      <c r="AF3">
         <v>41917490</v>
       </c>
-      <c r="Y3">
+      <c r="AG3">
         <v>41978630</v>
       </c>
-      <c r="Z3">
+      <c r="AH3">
         <v>41949335</v>
       </c>
-      <c r="AA3">
+      <c r="AI3">
         <v>41729225</v>
       </c>
-      <c r="AB3">
+      <c r="AJ3">
         <v>41853628</v>
       </c>
-      <c r="AC3">
+      <c r="AK3">
         <v>42212988</v>
       </c>
-      <c r="AD3">
+      <c r="AL3">
         <v>42458390</v>
       </c>
-      <c r="AE3">
+      <c r="AM3">
         <v>42660629</v>
       </c>
-      <c r="AF3">
+      <c r="AN3">
         <v>43567225</v>
       </c>
-      <c r="AG3">
+      <c r="AO3">
         <v>43819028</v>
       </c>
-      <c r="AH3">
+      <c r="AP3">
         <v>43935038</v>
       </c>
-      <c r="AI3">
+      <c r="AQ3">
         <v>44433744</v>
       </c>
-      <c r="AJ3">
+      <c r="AR3">
         <v>43501190</v>
       </c>
-      <c r="AK3">
+      <c r="AS3">
         <v>43386527</v>
       </c>
-      <c r="AL3">
+      <c r="AT3">
         <v>44198105</v>
       </c>
-      <c r="AM3">
+      <c r="AU3">
         <v>44368658</v>
       </c>
     </row>
-    <row r="4" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C4" t="str">
         <v>2003</v>
       </c>
@@ -5029,11 +5077,17 @@
       <c r="J4" s="15">
         <v>32</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="N4" s="18">
+        <v>57.8</v>
+      </c>
+      <c r="V4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C5" t="str">
         <v>2004</v>
       </c>
@@ -5052,8 +5106,14 @@
       <c r="J5" s="15">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="3:39" x14ac:dyDescent="0.35">
+      <c r="M5" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5" s="18">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C6" t="str">
         <v>2005</v>
       </c>
@@ -5072,8 +5132,14 @@
       <c r="J6" s="15">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="3:39" x14ac:dyDescent="0.35">
+      <c r="M6" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="N6" s="18">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C7" t="str">
         <v>2006</v>
       </c>
@@ -5092,8 +5158,17 @@
       <c r="J7" s="15">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="3:39" x14ac:dyDescent="0.35">
+      <c r="M7" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="N7" s="18">
+        <v>49.8</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C8" t="str">
         <v>2007</v>
       </c>
@@ -5113,7 +5188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C9" t="str">
         <v>2008</v>
       </c>
@@ -5133,7 +5208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C10" t="str">
         <v>2009</v>
       </c>
@@ -5153,7 +5228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C11" t="str">
         <v>2010</v>
       </c>
@@ -5176,7 +5251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C12" t="str">
         <v>2011</v>
       </c>
@@ -5194,7 +5269,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C13" t="str">
         <v>2012</v>
       </c>
@@ -5202,7 +5277,7 @@
         <v>41853628</v>
       </c>
     </row>
-    <row r="14" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C14" t="str">
         <v>2013</v>
       </c>
@@ -5210,7 +5285,7 @@
         <v>42212988</v>
       </c>
     </row>
-    <row r="15" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
         <v>2014</v>
       </c>
@@ -5218,7 +5293,7 @@
         <v>42458390</v>
       </c>
     </row>
-    <row r="16" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C16" t="str">
         <v>2015</v>
       </c>
@@ -5297,9 +5372,10 @@
   <hyperlinks>
     <hyperlink ref="H11" r:id="rId1" xr:uid="{CD3E0A74-6C49-41A8-ABFD-336AF1C8F38E}"/>
     <hyperlink ref="K12" r:id="rId2" xr:uid="{91D62949-6B55-4A30-97ED-8F10D8B3EB14}"/>
+    <hyperlink ref="O7" r:id="rId3" xr:uid="{6E0417E8-B4C7-4220-8339-3A828551FF3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="385" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D998C7AB-12DF-8C44-8FC4-AD3E2E6C1EC1}"/>
+  <xr:revisionPtr revIDLastSave="392" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CF69AC1-D9CC-4829-8FC9-9EF37305EC7B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,28 +619,28 @@
     <t>Pædagogik og uddannelse</t>
   </si>
   <si>
-    <t>Legal and tax advice, auditing</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>Land transportation and transport in long distance pipelines</t>
-  </si>
-  <si>
-    <t>Architecture and engineering consultancies</t>
-  </si>
-  <si>
-    <t>Accommodation</t>
-  </si>
-  <si>
-    <t>Information technology services</t>
-  </si>
-  <si>
     <t>Branche2</t>
   </si>
   <si>
     <t>Pct2</t>
+  </si>
+  <si>
+    <t>Jura og revision</t>
+  </si>
+  <si>
+    <t>Lager</t>
+  </si>
+  <si>
+    <t>Fragt og fragt i pipeline</t>
+  </si>
+  <si>
+    <t>Arkitekter og ingeniører</t>
+  </si>
+  <si>
+    <t>Indlogering</t>
+  </si>
+  <si>
+    <t>IT-ydelser</t>
   </si>
 </sst>
 </file>
@@ -4841,10 +4841,10 @@
         <v>170</v>
       </c>
       <c r="M1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="N1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="3:47" x14ac:dyDescent="0.35">
@@ -4869,7 +4869,7 @@
         <v>44</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N2" s="18">
         <v>75.2</v>
@@ -4974,7 +4974,7 @@
         <v>35</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N3" s="18">
         <v>59.4</v>
@@ -5078,7 +5078,7 @@
         <v>32</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N4" s="18">
         <v>57.8</v>
@@ -5107,7 +5107,7 @@
         <v>22</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N5" s="18">
         <v>53.7</v>
@@ -5133,7 +5133,7 @@
         <v>16</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N6" s="18">
         <v>51.7</v>
@@ -5159,7 +5159,7 @@
         <v>16</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N7" s="18">
         <v>49.8</v>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="392" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CF69AC1-D9CC-4829-8FC9-9EF37305EC7B}"/>
+  <xr:revisionPtr revIDLastSave="420" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFB9C04D-9BB6-824A-A739-56B261A998C1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="15560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="186">
   <si>
     <t>Date</t>
   </si>
@@ -651,7 +651,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,6 +694,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -716,7 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -744,6 +751,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1101,21 +1109,21 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1179,7 +1187,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1211,7 +1219,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1243,7 +1251,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1275,7 +1283,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1307,7 +1315,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1339,7 +1347,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1371,7 +1379,7 @@
         <v>78.2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1403,7 +1411,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1435,7 +1443,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1467,7 +1475,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1499,7 +1507,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1531,7 +1539,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1563,7 +1571,7 @@
         <v>82.8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -1595,7 +1603,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -1627,7 +1635,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -1659,7 +1667,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -1691,7 +1699,7 @@
         <v>85.7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -1723,7 +1731,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -1755,7 +1763,7 @@
         <v>87.4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -1787,7 +1795,7 @@
         <v>87.9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -1819,7 +1827,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -1851,7 +1859,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -1883,7 +1891,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -1915,7 +1923,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -1947,7 +1955,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -1979,7 +1987,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -2011,7 +2019,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -2043,7 +2051,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -2075,7 +2083,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -2107,7 +2115,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -2139,7 +2147,7 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -2171,7 +2179,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -2203,7 +2211,7 @@
         <v>102.8</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -2235,7 +2243,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -2267,7 +2275,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -2299,7 +2307,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -2331,7 +2339,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -2363,7 +2371,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -2395,7 +2403,7 @@
         <v>89.8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -2427,7 +2435,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -2459,7 +2467,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -2491,7 +2499,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -2523,7 +2531,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -2555,7 +2563,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -2587,7 +2595,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -2619,7 +2627,7 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -2651,7 +2659,7 @@
         <v>103.3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -2683,7 +2691,7 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -2715,7 +2723,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -2747,7 +2755,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -2779,7 +2787,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -2811,7 +2819,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -2843,7 +2851,7 @@
         <v>97.2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -2875,7 +2883,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -2907,7 +2915,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -2939,7 +2947,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -2971,7 +2979,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -3003,7 +3011,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -3035,7 +3043,7 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -3067,7 +3075,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -3099,7 +3107,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -3131,7 +3139,7 @@
         <v>100.3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -3163,7 +3171,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -3195,7 +3203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -3227,7 +3235,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -3259,7 +3267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -3291,7 +3299,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -3323,7 +3331,7 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -3355,7 +3363,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -3387,7 +3395,7 @@
         <v>102.3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -3419,7 +3427,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -3451,7 +3459,7 @@
         <v>102.3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -3483,7 +3491,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -3515,7 +3523,7 @@
         <v>102.6</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -3547,7 +3555,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -3579,7 +3587,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -3611,7 +3619,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -3643,7 +3651,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -3675,7 +3683,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -3707,7 +3715,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -3739,7 +3747,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -3771,7 +3779,7 @@
         <v>84.3</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -3803,7 +3811,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -3835,7 +3843,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -3867,7 +3875,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -3899,7 +3907,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -3931,7 +3939,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -3963,7 +3971,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -3995,7 +4003,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -4027,7 +4035,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -4059,7 +4067,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -4091,7 +4099,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -4123,7 +4131,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -4155,7 +4163,7 @@
         <v>97.3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -4187,7 +4195,7 @@
         <v>95.4</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -4211,591 +4219,591 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
       <c r="J98" s="11"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
       <c r="J99" s="11"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
       <c r="J100" s="11"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
       <c r="J101" s="11"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
       <c r="J107" s="11"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
       <c r="J108" s="11"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J109" s="11"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J110" s="11"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J111" s="11"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J112" s="11"/>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J114" s="11"/>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J115" s="11"/>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J116" s="11"/>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J117" s="11"/>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J118" s="11"/>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J119" s="11"/>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J120" s="11"/>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J121" s="11"/>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J122" s="11"/>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J123" s="11"/>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J124" s="11"/>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J125" s="11"/>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J126" s="11"/>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J127" s="11"/>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J128" s="11"/>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J129" s="11"/>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J130" s="11"/>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J131" s="11"/>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J132" s="11"/>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J133" s="11"/>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J134" s="11"/>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J135" s="11"/>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J136" s="11"/>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J137" s="11"/>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J138" s="11"/>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J139" s="11"/>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J140" s="11"/>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J141" s="11"/>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J142" s="11"/>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J143" s="11"/>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J144" s="11"/>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J145" s="11"/>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J146" s="11"/>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J147" s="11"/>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J148" s="11"/>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J149" s="11"/>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J150" s="11"/>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J151" s="11"/>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J152" s="11"/>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J153" s="11"/>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J154" s="11"/>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J155" s="11"/>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J156" s="11"/>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J157" s="11"/>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J158" s="11"/>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J159" s="11"/>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J160" s="11"/>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J161" s="11"/>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J162" s="11"/>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J163" s="11"/>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J164" s="11"/>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J165" s="11"/>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J166" s="11"/>
     </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J167" s="11"/>
     </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J168" s="11"/>
     </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J169" s="11"/>
     </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J170" s="11"/>
     </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J171" s="11"/>
     </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J172" s="11"/>
     </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J173" s="11"/>
     </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J174" s="11"/>
     </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J175" s="11"/>
     </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J176" s="11"/>
     </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J177" s="11"/>
     </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J178" s="11"/>
     </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J179" s="11"/>
     </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J180" s="11"/>
     </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J181" s="11"/>
     </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J182" s="11"/>
     </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J183" s="11"/>
     </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J184" s="11"/>
     </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J185" s="11"/>
     </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J186" s="11"/>
     </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J187" s="11"/>
     </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J188" s="11"/>
     </row>
-    <row r="189" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J189" s="11"/>
     </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J190" s="11"/>
     </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J191" s="11"/>
     </row>
-    <row r="192" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J192" s="11"/>
     </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J193" s="11"/>
     </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J194" s="11"/>
     </row>
-    <row r="195" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J195" s="11"/>
     </row>
-    <row r="196" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J196" s="11"/>
     </row>
-    <row r="197" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J197" s="11"/>
     </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J198" s="11"/>
     </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J199" s="11"/>
     </row>
-    <row r="200" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J200" s="11"/>
     </row>
-    <row r="201" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J201" s="11"/>
     </row>
-    <row r="202" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J202" s="11"/>
     </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J203" s="11"/>
     </row>
-    <row r="204" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J204" s="11"/>
     </row>
-    <row r="205" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J205" s="11"/>
     </row>
-    <row r="206" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J206" s="11"/>
     </row>
-    <row r="207" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J207" s="11"/>
     </row>
-    <row r="208" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J208" s="11"/>
     </row>
-    <row r="209" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J209" s="11"/>
     </row>
-    <row r="210" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J210" s="11"/>
     </row>
-    <row r="211" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J211" s="11"/>
     </row>
-    <row r="212" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J212" s="11"/>
     </row>
-    <row r="213" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J213" s="11"/>
     </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J214" s="11"/>
     </row>
-    <row r="215" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J215" s="11"/>
     </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J216" s="11"/>
     </row>
-    <row r="217" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J217" s="11"/>
     </row>
-    <row r="218" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J218" s="11"/>
     </row>
-    <row r="219" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J219" s="11"/>
     </row>
-    <row r="220" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J220" s="11"/>
     </row>
-    <row r="221" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J221" s="11"/>
     </row>
-    <row r="222" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J222" s="11"/>
     </row>
-    <row r="223" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J223" s="11"/>
     </row>
-    <row r="224" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J224" s="11"/>
     </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J225" s="11"/>
     </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J226" s="11"/>
     </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J227" s="11"/>
     </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J228" s="11"/>
     </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J229" s="11"/>
     </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J230" s="11"/>
     </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J231" s="11"/>
     </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J232" s="11"/>
     </row>
-    <row r="233" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J233" s="11"/>
     </row>
-    <row r="234" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J234" s="11"/>
     </row>
-    <row r="235" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J235" s="11"/>
     </row>
-    <row r="236" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J236" s="11"/>
     </row>
-    <row r="237" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J237" s="11"/>
     </row>
-    <row r="238" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J238" s="11"/>
     </row>
-    <row r="239" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J239" s="11"/>
     </row>
-    <row r="240" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J240" s="11"/>
     </row>
-    <row r="241" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J241" s="11"/>
     </row>
-    <row r="242" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J242" s="11"/>
     </row>
-    <row r="243" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J243" s="11"/>
     </row>
-    <row r="244" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J244" s="11"/>
     </row>
-    <row r="245" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J245" s="11"/>
     </row>
-    <row r="246" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="246" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J246" s="11"/>
     </row>
-    <row r="247" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="247" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J247" s="11"/>
     </row>
-    <row r="248" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J248" s="11"/>
     </row>
-    <row r="249" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J249" s="11"/>
     </row>
-    <row r="250" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="250" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J250" s="11"/>
     </row>
-    <row r="251" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="251" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J251" s="11"/>
     </row>
-    <row r="252" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J252" s="11"/>
     </row>
-    <row r="253" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J253" s="11"/>
     </row>
-    <row r="254" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J254" s="11"/>
     </row>
-    <row r="255" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J255" s="11"/>
     </row>
-    <row r="256" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J256" s="11"/>
     </row>
-    <row r="257" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="257" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J257" s="11"/>
     </row>
-    <row r="258" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="258" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J258" s="11"/>
     </row>
-    <row r="259" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="259" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J259" s="11"/>
     </row>
-    <row r="260" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="260" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J260" s="11"/>
     </row>
-    <row r="261" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J261" s="11"/>
     </row>
-    <row r="262" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="262" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J262" s="11"/>
     </row>
-    <row r="263" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J263" s="11"/>
     </row>
-    <row r="264" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="264" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J264" s="11"/>
     </row>
-    <row r="265" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="265" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J265" s="11"/>
     </row>
-    <row r="266" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J266" s="11"/>
     </row>
-    <row r="267" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J267" s="11"/>
     </row>
-    <row r="268" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="268" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J268" s="11"/>
     </row>
-    <row r="269" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J269" s="11"/>
     </row>
-    <row r="270" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J270" s="11"/>
     </row>
-    <row r="271" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J271" s="11"/>
     </row>
-    <row r="272" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="272" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J272" s="11"/>
     </row>
-    <row r="273" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="273" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J273" s="11"/>
     </row>
-    <row r="274" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="274" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J274" s="11"/>
     </row>
-    <row r="275" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="275" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J275" s="11"/>
     </row>
-    <row r="276" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="276" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J276" s="11"/>
     </row>
-    <row r="277" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="277" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J277" s="11"/>
     </row>
-    <row r="278" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="278" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J278" s="11"/>
     </row>
-    <row r="279" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="279" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J279" s="11"/>
     </row>
-    <row r="280" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="280" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J280" s="11"/>
     </row>
-    <row r="281" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="281" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J281" s="11"/>
     </row>
-    <row r="282" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="282" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J282" s="11"/>
     </row>
-    <row r="283" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="283" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J283" s="11"/>
     </row>
-    <row r="284" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="284" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J284" s="11"/>
     </row>
-    <row r="285" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="285" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J285" s="11"/>
     </row>
-    <row r="286" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="286" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J286" s="11"/>
     </row>
-    <row r="287" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="287" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J287" s="11"/>
     </row>
-    <row r="288" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="288" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J288" s="11"/>
     </row>
-    <row r="289" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="289" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J289" s="11"/>
     </row>
   </sheetData>
@@ -4807,21 +4815,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08EDB66-D816-49B7-B3A7-830E147E6D1C}">
   <dimension ref="C1:AU24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.81640625" customWidth="1"/>
-    <col min="13" max="13" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.83203125" customWidth="1"/>
+    <col min="13" max="13" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>150</v>
       </c>
@@ -4847,7 +4855,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2:D24">TRANSPOSE(Y2:AU3)</f>
         <v>2001</v>
@@ -4953,7 +4961,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C3" t="str">
         <v>2002</v>
       </c>
@@ -5058,7 +5066,7 @@
         <v>44368658</v>
       </c>
     </row>
-    <row r="4" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C4" t="str">
         <v>2003</v>
       </c>
@@ -5087,7 +5095,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C5" t="str">
         <v>2004</v>
       </c>
@@ -5113,7 +5121,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="6" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C6" t="str">
         <v>2005</v>
       </c>
@@ -5139,7 +5147,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="7" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C7" t="str">
         <v>2006</v>
       </c>
@@ -5168,7 +5176,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C8" t="str">
         <v>2007</v>
       </c>
@@ -5188,7 +5196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C9" t="str">
         <v>2008</v>
       </c>
@@ -5208,7 +5216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C10" t="str">
         <v>2009</v>
       </c>
@@ -5228,7 +5236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C11" t="str">
         <v>2010</v>
       </c>
@@ -5251,7 +5259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C12" t="str">
         <v>2011</v>
       </c>
@@ -5269,7 +5277,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C13" t="str">
         <v>2012</v>
       </c>
@@ -5277,7 +5285,7 @@
         <v>41853628</v>
       </c>
     </row>
-    <row r="14" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C14" t="str">
         <v>2013</v>
       </c>
@@ -5285,7 +5293,7 @@
         <v>42212988</v>
       </c>
     </row>
-    <row r="15" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C15" t="str">
         <v>2014</v>
       </c>
@@ -5293,7 +5301,7 @@
         <v>42458390</v>
       </c>
     </row>
-    <row r="16" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C16" t="str">
         <v>2015</v>
       </c>
@@ -5301,7 +5309,7 @@
         <v>42660629</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="str">
         <v>2016</v>
       </c>
@@ -5309,7 +5317,7 @@
         <v>43567225</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="str">
         <v>2017</v>
       </c>
@@ -5317,7 +5325,7 @@
         <v>43819028</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="str">
         <v>2018</v>
       </c>
@@ -5325,7 +5333,7 @@
         <v>43935038</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="str">
         <v>2019</v>
       </c>
@@ -5333,7 +5341,7 @@
         <v>44433744</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21" t="str">
         <v>2020</v>
       </c>
@@ -5341,7 +5349,7 @@
         <v>43501190</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C22" t="str">
         <v>2021</v>
       </c>
@@ -5349,7 +5357,7 @@
         <v>43386527</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C23" t="str">
         <v>2022</v>
       </c>
@@ -5357,7 +5365,7 @@
         <v>44198105</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C24" t="str">
         <v>2023</v>
       </c>
@@ -5387,14 +5395,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2009</v>
       </c>
@@ -5402,92 +5410,92 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -5499,25 +5507,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729D3E50-96CE-5D4F-8758-34102C76EE6A}">
-  <dimension ref="B1:M25"/>
+  <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="143" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>114</v>
       </c>
@@ -5554,8 +5563,17 @@
       <c r="M1" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C2" s="4">
         <v>36526</v>
       </c>
@@ -5580,8 +5598,15 @@
       <c r="M2" s="7">
         <v>64.034999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N2" s="19"/>
+      <c r="O2" s="5">
+        <v>36526</v>
+      </c>
+      <c r="P2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C3" s="4">
         <v>36892</v>
       </c>
@@ -5606,8 +5631,15 @@
       <c r="M3" s="7">
         <v>61.822000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N3" s="19"/>
+      <c r="O3" s="5">
+        <v>36892</v>
+      </c>
+      <c r="P3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C4" s="4">
         <v>37257</v>
       </c>
@@ -5632,8 +5664,15 @@
       <c r="M4" s="7">
         <v>59.923999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N4" s="19"/>
+      <c r="O4" s="5">
+        <v>37257</v>
+      </c>
+      <c r="P4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C5" s="4">
         <v>37622</v>
       </c>
@@ -5658,8 +5697,15 @@
       <c r="M5" s="7">
         <v>58.597000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N5" s="19"/>
+      <c r="O5" s="5">
+        <v>37622</v>
+      </c>
+      <c r="P5">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C6" s="4">
         <v>37987</v>
       </c>
@@ -5684,8 +5730,15 @@
       <c r="M6" s="7">
         <v>57.502000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N6" s="19"/>
+      <c r="O6" s="5">
+        <v>37987</v>
+      </c>
+      <c r="P6">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C7" s="4">
         <v>38353</v>
       </c>
@@ -5698,8 +5751,15 @@
       <c r="J7" s="12">
         <v>67.546000000000006</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N7" s="19"/>
+      <c r="O7" s="5">
+        <v>38353</v>
+      </c>
+      <c r="P7">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C8" s="4">
         <v>38718</v>
       </c>
@@ -5712,8 +5772,15 @@
       <c r="J8" s="12">
         <v>66.887</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N8" s="19"/>
+      <c r="O8" s="5">
+        <v>38718</v>
+      </c>
+      <c r="P8">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C9" s="4">
         <v>39083</v>
       </c>
@@ -5726,8 +5793,15 @@
       <c r="J9" s="12">
         <v>64.158000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N9" s="19"/>
+      <c r="O9" s="5">
+        <v>39083</v>
+      </c>
+      <c r="P9">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>39448</v>
       </c>
@@ -5740,8 +5814,15 @@
       <c r="J10" s="12">
         <v>65.682000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N10" s="19"/>
+      <c r="O10" s="5">
+        <v>39448</v>
+      </c>
+      <c r="P10">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C11" s="4">
         <v>39814</v>
       </c>
@@ -5754,8 +5835,15 @@
       <c r="J11" s="12">
         <v>73.156999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N11" s="19"/>
+      <c r="O11" s="5">
+        <v>39814</v>
+      </c>
+      <c r="P11">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C12" s="4">
         <v>40179</v>
       </c>
@@ -5768,8 +5856,15 @@
       <c r="J12" s="12">
         <v>81.995000000000005</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N12" s="19"/>
+      <c r="O12" s="5">
+        <v>40179</v>
+      </c>
+      <c r="P12">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
         <v>40544</v>
       </c>
@@ -5782,8 +5877,15 @@
       <c r="J13" s="12">
         <v>79.417000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N13" s="19"/>
+      <c r="O13" s="5">
+        <v>40544</v>
+      </c>
+      <c r="P13">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C14" s="4">
         <v>40909</v>
       </c>
@@ -5796,8 +5898,15 @@
       <c r="J14" s="12">
         <v>80.745000000000005</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N14" s="19"/>
+      <c r="O14" s="5">
+        <v>40909</v>
+      </c>
+      <c r="P14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C15" s="4">
         <v>41275</v>
       </c>
@@ -5810,8 +5919,15 @@
       <c r="J15" s="12">
         <v>78.322000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N15" s="19"/>
+      <c r="O15" s="5">
+        <v>41275</v>
+      </c>
+      <c r="P15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C16" s="4">
         <v>41640</v>
       </c>
@@ -5824,8 +5940,15 @@
       <c r="J16" s="12">
         <v>75.278999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="N16" s="19"/>
+      <c r="O16" s="5">
+        <v>41640</v>
+      </c>
+      <c r="P16">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="4">
         <v>42005</v>
       </c>
@@ -5838,8 +5961,15 @@
       <c r="J17" s="12">
         <v>71.947000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="N17" s="19"/>
+      <c r="O17" s="5">
+        <v>42005</v>
+      </c>
+      <c r="P17">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="4">
         <v>42370</v>
       </c>
@@ -5852,8 +5982,15 @@
       <c r="J18" s="12">
         <v>68.954999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="N18" s="19"/>
+      <c r="O18" s="5">
+        <v>42370</v>
+      </c>
+      <c r="P18">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="4">
         <v>42736</v>
       </c>
@@ -5866,8 +6003,15 @@
       <c r="J19" s="12">
         <v>65.209999999999994</v>
       </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="N19" s="19"/>
+      <c r="O19" s="5">
+        <v>42736</v>
+      </c>
+      <c r="P19">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="4">
         <v>43101</v>
       </c>
@@ -5880,8 +6024,15 @@
       <c r="J20" s="12">
         <v>61.905000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="N20" s="19"/>
+      <c r="O20" s="5">
+        <v>43101</v>
+      </c>
+      <c r="P20">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="4">
         <v>43466</v>
       </c>
@@ -5894,8 +6045,15 @@
       <c r="J21" s="12">
         <v>59.548999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="N21" s="19"/>
+      <c r="O21" s="5">
+        <v>43466</v>
+      </c>
+      <c r="P21">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="4">
         <v>43831</v>
       </c>
@@ -5908,8 +6066,15 @@
       <c r="J22" s="12">
         <v>68.745999999999995</v>
       </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="N22" s="19"/>
+      <c r="O22" s="5">
+        <v>43831</v>
+      </c>
+      <c r="P22">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="4">
         <v>44197</v>
       </c>
@@ -5922,8 +6087,15 @@
       <c r="J23" s="7">
         <v>68.959999999999994</v>
       </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="N23" s="19"/>
+      <c r="O23" s="5">
+        <v>44197</v>
+      </c>
+      <c r="P23">
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="4">
         <v>44562</v>
       </c>
@@ -5936,8 +6108,15 @@
       <c r="J24" s="7">
         <v>66.113</v>
       </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="N24" s="19"/>
+      <c r="O24" s="5">
+        <v>44562</v>
+      </c>
+      <c r="P24">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="4">
         <v>44927</v>
       </c>
@@ -5949,6 +6128,13 @@
       </c>
       <c r="J25" s="7">
         <v>63.7</v>
+      </c>
+      <c r="N25" s="19"/>
+      <c r="O25" s="5">
+        <v>44927</v>
+      </c>
+      <c r="P25">
+        <v>90.2</v>
       </c>
     </row>
   </sheetData>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="420" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFB9C04D-9BB6-824A-A739-56B261A998C1}"/>
+  <xr:revisionPtr revIDLastSave="440" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CED47715-2796-9242-9150-B8BBFE080264}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="15560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="188">
   <si>
     <t>Date</t>
   </si>
@@ -641,6 +641,12 @@
   </si>
   <si>
     <t>IT-ydelser</t>
+  </si>
+  <si>
+    <t>Generel government gross debt for EU</t>
+  </si>
+  <si>
+    <t>Generel government net lending/borrowing for EU</t>
   </si>
 </sst>
 </file>
@@ -723,7 +729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -752,6 +758,8 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -5507,10 +5515,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729D3E50-96CE-5D4F-8758-34102C76EE6A}">
-  <dimension ref="B1:P25"/>
+  <dimension ref="B1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="143" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5524,9 +5532,11 @@
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>114</v>
       </c>
@@ -5564,7 +5574,7 @@
         <v>115</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="O1" s="19" t="s">
         <v>118</v>
@@ -5572,8 +5582,17 @@
       <c r="P1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C2" s="4">
         <v>36526</v>
       </c>
@@ -5605,8 +5624,15 @@
       <c r="P2">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="20">
+        <v>36526</v>
+      </c>
+      <c r="S2" s="19">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C3" s="4">
         <v>36892</v>
       </c>
@@ -5638,8 +5664,15 @@
       <c r="P3">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20">
+        <v>36892</v>
+      </c>
+      <c r="S3" s="21">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C4" s="4">
         <v>37257</v>
       </c>
@@ -5671,8 +5704,15 @@
       <c r="P4">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="19"/>
+      <c r="R4" s="20">
+        <v>37257</v>
+      </c>
+      <c r="S4" s="21">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C5" s="4">
         <v>37622</v>
       </c>
@@ -5704,8 +5744,15 @@
       <c r="P5">
         <v>69.3</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="19"/>
+      <c r="R5" s="20">
+        <v>37622</v>
+      </c>
+      <c r="S5" s="21">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C6" s="4">
         <v>37987</v>
       </c>
@@ -5737,8 +5784,15 @@
       <c r="P6">
         <v>69.599999999999994</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="19"/>
+      <c r="R6" s="20">
+        <v>37987</v>
+      </c>
+      <c r="S6" s="21">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C7" s="4">
         <v>38353</v>
       </c>
@@ -5758,8 +5812,15 @@
       <c r="P7">
         <v>70.3</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="20">
+        <v>38353</v>
+      </c>
+      <c r="S7" s="21">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C8" s="4">
         <v>38718</v>
       </c>
@@ -5779,8 +5840,15 @@
       <c r="P8">
         <v>68.3</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="19"/>
+      <c r="R8" s="20">
+        <v>38718</v>
+      </c>
+      <c r="S8" s="21">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C9" s="4">
         <v>39083</v>
       </c>
@@ -5800,8 +5868,15 @@
       <c r="P9">
         <v>65.900000000000006</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="19"/>
+      <c r="R9" s="20">
+        <v>39083</v>
+      </c>
+      <c r="S9" s="21">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>39448</v>
       </c>
@@ -5821,8 +5896,13 @@
       <c r="P10">
         <v>69.599999999999994</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="19"/>
+      <c r="R10" s="20">
+        <v>39448</v>
+      </c>
+      <c r="S10" s="21"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C11" s="4">
         <v>39814</v>
       </c>
@@ -5842,8 +5922,13 @@
       <c r="P11">
         <v>80.099999999999994</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="19"/>
+      <c r="R11" s="20">
+        <v>39814</v>
+      </c>
+      <c r="S11" s="21"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C12" s="4">
         <v>40179</v>
       </c>
@@ -5863,8 +5948,13 @@
       <c r="P12">
         <v>85.6</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="19"/>
+      <c r="R12" s="20">
+        <v>40179</v>
+      </c>
+      <c r="S12" s="21"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
         <v>40544</v>
       </c>
@@ -5884,8 +5974,13 @@
       <c r="P13">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="19"/>
+      <c r="R13" s="20">
+        <v>40544</v>
+      </c>
+      <c r="S13" s="21"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C14" s="4">
         <v>40909</v>
       </c>
@@ -5905,8 +6000,13 @@
       <c r="P14">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="19"/>
+      <c r="R14" s="20">
+        <v>40909</v>
+      </c>
+      <c r="S14" s="21"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C15" s="4">
         <v>41275</v>
       </c>
@@ -5926,8 +6026,13 @@
       <c r="P15">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="19"/>
+      <c r="R15" s="20">
+        <v>41275</v>
+      </c>
+      <c r="S15" s="21"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C16" s="4">
         <v>41640</v>
       </c>
@@ -5947,8 +6052,13 @@
       <c r="P16">
         <v>93.2</v>
       </c>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="19"/>
+      <c r="R16" s="20">
+        <v>41640</v>
+      </c>
+      <c r="S16" s="21"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="4">
         <v>42005</v>
       </c>
@@ -5968,8 +6078,13 @@
       <c r="P17">
         <v>91.3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="19"/>
+      <c r="R17" s="20">
+        <v>42005</v>
+      </c>
+      <c r="S17" s="21"/>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="4">
         <v>42370</v>
       </c>
@@ -5989,8 +6104,13 @@
       <c r="P18">
         <v>90.4</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="19"/>
+      <c r="R18" s="20">
+        <v>42370</v>
+      </c>
+      <c r="S18" s="21"/>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="4">
         <v>42736</v>
       </c>
@@ -6010,8 +6130,13 @@
       <c r="P19">
         <v>88.1</v>
       </c>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="19"/>
+      <c r="R19" s="20">
+        <v>42736</v>
+      </c>
+      <c r="S19" s="21"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="4">
         <v>43101</v>
       </c>
@@ -6031,8 +6156,13 @@
       <c r="P20">
         <v>86.1</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20">
+        <v>43101</v>
+      </c>
+      <c r="S20" s="21"/>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="4">
         <v>43466</v>
       </c>
@@ -6052,8 +6182,13 @@
       <c r="P21">
         <v>84.1</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20">
+        <v>43466</v>
+      </c>
+      <c r="S21" s="21"/>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="4">
         <v>43831</v>
       </c>
@@ -6073,8 +6208,13 @@
       <c r="P22">
         <v>97.2</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20">
+        <v>43831</v>
+      </c>
+      <c r="S22" s="21"/>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="4">
         <v>44197</v>
       </c>
@@ -6094,8 +6234,13 @@
       <c r="P23">
         <v>94.7</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="19"/>
+      <c r="R23" s="20">
+        <v>44197</v>
+      </c>
+      <c r="S23" s="21"/>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="4">
         <v>44562</v>
       </c>
@@ -6115,8 +6260,13 @@
       <c r="P24">
         <v>90.9</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="19"/>
+      <c r="R24" s="20">
+        <v>44562</v>
+      </c>
+      <c r="S24" s="21"/>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="4">
         <v>44927</v>
       </c>
@@ -6136,6 +6286,11 @@
       <c r="P25">
         <v>90.2</v>
       </c>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="20">
+        <v>44927</v>
+      </c>
+      <c r="S25" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="440" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CED47715-2796-9242-9150-B8BBFE080264}"/>
+  <xr:revisionPtr revIDLastSave="457" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E52557B-1127-6B4C-A636-6CCA2E74F14B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="15560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -1117,21 +1117,21 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>78.2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>82.8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>85.7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>87.4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>87.9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>102.8</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>89.8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>103.3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>97.2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>100.3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>102.3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>102.3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>102.6</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>84.3</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>97.3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>95.4</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -4227,591 +4227,591 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D98" s="1"/>
       <c r="J98" s="11"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D99" s="1"/>
       <c r="J99" s="11"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D100" s="1"/>
       <c r="J100" s="11"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D101" s="1"/>
       <c r="J101" s="11"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D102" s="1"/>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D103" s="1"/>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D104" s="1"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D105" s="1"/>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D106" s="1"/>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D107" s="1"/>
       <c r="J107" s="11"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D108" s="1"/>
       <c r="J108" s="11"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J109" s="11"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J110" s="11"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J111" s="11"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J112" s="11"/>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J114" s="11"/>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J115" s="11"/>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J116" s="11"/>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J117" s="11"/>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J118" s="11"/>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J119" s="11"/>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J120" s="11"/>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J121" s="11"/>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J122" s="11"/>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J123" s="11"/>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J124" s="11"/>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J125" s="11"/>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J126" s="11"/>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J127" s="11"/>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J128" s="11"/>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J129" s="11"/>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J130" s="11"/>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J131" s="11"/>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J132" s="11"/>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J133" s="11"/>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J134" s="11"/>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J135" s="11"/>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J136" s="11"/>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J137" s="11"/>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J138" s="11"/>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J139" s="11"/>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J140" s="11"/>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J141" s="11"/>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J142" s="11"/>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J143" s="11"/>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J144" s="11"/>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J145" s="11"/>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J146" s="11"/>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J147" s="11"/>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J148" s="11"/>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J149" s="11"/>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J150" s="11"/>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J151" s="11"/>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J152" s="11"/>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J153" s="11"/>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J154" s="11"/>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J155" s="11"/>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J156" s="11"/>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J157" s="11"/>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J158" s="11"/>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J159" s="11"/>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J160" s="11"/>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J161" s="11"/>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J162" s="11"/>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J163" s="11"/>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J164" s="11"/>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J165" s="11"/>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J166" s="11"/>
     </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J167" s="11"/>
     </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J168" s="11"/>
     </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J169" s="11"/>
     </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J170" s="11"/>
     </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J171" s="11"/>
     </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J172" s="11"/>
     </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J173" s="11"/>
     </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J174" s="11"/>
     </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J175" s="11"/>
     </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J176" s="11"/>
     </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J177" s="11"/>
     </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J178" s="11"/>
     </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J179" s="11"/>
     </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J180" s="11"/>
     </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J181" s="11"/>
     </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J182" s="11"/>
     </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J183" s="11"/>
     </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J184" s="11"/>
     </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J185" s="11"/>
     </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J186" s="11"/>
     </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J187" s="11"/>
     </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J188" s="11"/>
     </row>
-    <row r="189" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J189" s="11"/>
     </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J190" s="11"/>
     </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J191" s="11"/>
     </row>
-    <row r="192" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J192" s="11"/>
     </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J193" s="11"/>
     </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J194" s="11"/>
     </row>
-    <row r="195" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J195" s="11"/>
     </row>
-    <row r="196" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J196" s="11"/>
     </row>
-    <row r="197" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J197" s="11"/>
     </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J198" s="11"/>
     </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J199" s="11"/>
     </row>
-    <row r="200" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J200" s="11"/>
     </row>
-    <row r="201" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J201" s="11"/>
     </row>
-    <row r="202" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J202" s="11"/>
     </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J203" s="11"/>
     </row>
-    <row r="204" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J204" s="11"/>
     </row>
-    <row r="205" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J205" s="11"/>
     </row>
-    <row r="206" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J206" s="11"/>
     </row>
-    <row r="207" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J207" s="11"/>
     </row>
-    <row r="208" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J208" s="11"/>
     </row>
-    <row r="209" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J209" s="11"/>
     </row>
-    <row r="210" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J210" s="11"/>
     </row>
-    <row r="211" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J211" s="11"/>
     </row>
-    <row r="212" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J212" s="11"/>
     </row>
-    <row r="213" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J213" s="11"/>
     </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J214" s="11"/>
     </row>
-    <row r="215" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J215" s="11"/>
     </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J216" s="11"/>
     </row>
-    <row r="217" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J217" s="11"/>
     </row>
-    <row r="218" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J218" s="11"/>
     </row>
-    <row r="219" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J219" s="11"/>
     </row>
-    <row r="220" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J220" s="11"/>
     </row>
-    <row r="221" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J221" s="11"/>
     </row>
-    <row r="222" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J222" s="11"/>
     </row>
-    <row r="223" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J223" s="11"/>
     </row>
-    <row r="224" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J224" s="11"/>
     </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J225" s="11"/>
     </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J226" s="11"/>
     </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J227" s="11"/>
     </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J228" s="11"/>
     </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J229" s="11"/>
     </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J230" s="11"/>
     </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J231" s="11"/>
     </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J232" s="11"/>
     </row>
-    <row r="233" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J233" s="11"/>
     </row>
-    <row r="234" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J234" s="11"/>
     </row>
-    <row r="235" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J235" s="11"/>
     </row>
-    <row r="236" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J236" s="11"/>
     </row>
-    <row r="237" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J237" s="11"/>
     </row>
-    <row r="238" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J238" s="11"/>
     </row>
-    <row r="239" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J239" s="11"/>
     </row>
-    <row r="240" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J240" s="11"/>
     </row>
-    <row r="241" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J241" s="11"/>
     </row>
-    <row r="242" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J242" s="11"/>
     </row>
-    <row r="243" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J243" s="11"/>
     </row>
-    <row r="244" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J244" s="11"/>
     </row>
-    <row r="245" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J245" s="11"/>
     </row>
-    <row r="246" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J246" s="11"/>
     </row>
-    <row r="247" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J247" s="11"/>
     </row>
-    <row r="248" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J248" s="11"/>
     </row>
-    <row r="249" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J249" s="11"/>
     </row>
-    <row r="250" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J250" s="11"/>
     </row>
-    <row r="251" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J251" s="11"/>
     </row>
-    <row r="252" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J252" s="11"/>
     </row>
-    <row r="253" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J253" s="11"/>
     </row>
-    <row r="254" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J254" s="11"/>
     </row>
-    <row r="255" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J255" s="11"/>
     </row>
-    <row r="256" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J256" s="11"/>
     </row>
-    <row r="257" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J257" s="11"/>
     </row>
-    <row r="258" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J258" s="11"/>
     </row>
-    <row r="259" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J259" s="11"/>
     </row>
-    <row r="260" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J260" s="11"/>
     </row>
-    <row r="261" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J261" s="11"/>
     </row>
-    <row r="262" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J262" s="11"/>
     </row>
-    <row r="263" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J263" s="11"/>
     </row>
-    <row r="264" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J264" s="11"/>
     </row>
-    <row r="265" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J265" s="11"/>
     </row>
-    <row r="266" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J266" s="11"/>
     </row>
-    <row r="267" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J267" s="11"/>
     </row>
-    <row r="268" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J268" s="11"/>
     </row>
-    <row r="269" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J269" s="11"/>
     </row>
-    <row r="270" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J270" s="11"/>
     </row>
-    <row r="271" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J271" s="11"/>
     </row>
-    <row r="272" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J272" s="11"/>
     </row>
-    <row r="273" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J273" s="11"/>
     </row>
-    <row r="274" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J274" s="11"/>
     </row>
-    <row r="275" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J275" s="11"/>
     </row>
-    <row r="276" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J276" s="11"/>
     </row>
-    <row r="277" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J277" s="11"/>
     </row>
-    <row r="278" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J278" s="11"/>
     </row>
-    <row r="279" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J279" s="11"/>
     </row>
-    <row r="280" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J280" s="11"/>
     </row>
-    <row r="281" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J281" s="11"/>
     </row>
-    <row r="282" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J282" s="11"/>
     </row>
-    <row r="283" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J283" s="11"/>
     </row>
-    <row r="284" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J284" s="11"/>
     </row>
-    <row r="285" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J285" s="11"/>
     </row>
-    <row r="286" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J286" s="11"/>
     </row>
-    <row r="287" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J287" s="11"/>
     </row>
-    <row r="288" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J288" s="11"/>
     </row>
-    <row r="289" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J289" s="11"/>
     </row>
   </sheetData>
@@ -4827,17 +4827,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.83203125" customWidth="1"/>
-    <col min="13" max="13" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.81640625" customWidth="1"/>
+    <col min="13" max="13" width="45.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>150</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2:D24">TRANSPOSE(Y2:AU3)</f>
         <v>2001</v>
@@ -4969,7 +4969,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C3" t="str">
         <v>2002</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>44368658</v>
       </c>
     </row>
-    <row r="4" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C4" t="str">
         <v>2003</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C5" t="str">
         <v>2004</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="6" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C6" t="str">
         <v>2005</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="7" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C7" t="str">
         <v>2006</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C8" t="str">
         <v>2007</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C9" t="str">
         <v>2008</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C10" t="str">
         <v>2009</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C11" t="str">
         <v>2010</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C12" t="str">
         <v>2011</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C13" t="str">
         <v>2012</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>41853628</v>
       </c>
     </row>
-    <row r="14" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C14" t="str">
         <v>2013</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>42212988</v>
       </c>
     </row>
-    <row r="15" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
         <v>2014</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>42458390</v>
       </c>
     </row>
-    <row r="16" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C16" t="str">
         <v>2015</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>42660629</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C17" t="str">
         <v>2016</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>43567225</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C18" t="str">
         <v>2017</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>43819028</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C19" t="str">
         <v>2018</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>43935038</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C20" t="str">
         <v>2019</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>44433744</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" t="str">
         <v>2020</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>43501190</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C22" t="str">
         <v>2021</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>43386527</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C23" t="str">
         <v>2022</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>44198105</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C24" t="str">
         <v>2023</v>
       </c>
@@ -5403,14 +5403,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2009</v>
       </c>
@@ -5418,92 +5418,92 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -5521,22 +5521,22 @@
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>114</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C2" s="4">
         <v>36526</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C3" s="4">
         <v>36892</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C4" s="4">
         <v>37257</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C5" s="4">
         <v>37622</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C6" s="4">
         <v>37987</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C7" s="4">
         <v>38353</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C8" s="4">
         <v>38718</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C9" s="4">
         <v>39083</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C10" s="4">
         <v>39448</v>
       </c>
@@ -5900,9 +5900,11 @@
       <c r="R10" s="20">
         <v>39448</v>
       </c>
-      <c r="S10" s="21"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S10" s="21">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C11" s="4">
         <v>39814</v>
       </c>
@@ -5926,9 +5928,11 @@
       <c r="R11" s="20">
         <v>39814</v>
       </c>
-      <c r="S11" s="21"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S11" s="21">
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C12" s="4">
         <v>40179</v>
       </c>
@@ -5952,9 +5956,11 @@
       <c r="R12" s="20">
         <v>40179</v>
       </c>
-      <c r="S12" s="21"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S12" s="21">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C13" s="4">
         <v>40544</v>
       </c>
@@ -5978,9 +5984,11 @@
       <c r="R13" s="20">
         <v>40544</v>
       </c>
-      <c r="S13" s="21"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S13" s="21">
+        <v>-4.3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C14" s="4">
         <v>40909</v>
       </c>
@@ -6004,9 +6012,11 @@
       <c r="R14" s="20">
         <v>40909</v>
       </c>
-      <c r="S14" s="21"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="21">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="4">
         <v>41275</v>
       </c>
@@ -6030,9 +6040,11 @@
       <c r="R15" s="20">
         <v>41275</v>
       </c>
-      <c r="S15" s="21"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S15" s="21">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C16" s="4">
         <v>41640</v>
       </c>
@@ -6056,9 +6068,11 @@
       <c r="R16" s="20">
         <v>41640</v>
       </c>
-      <c r="S16" s="21"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S16" s="21">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C17" s="4">
         <v>42005</v>
       </c>
@@ -6082,9 +6096,11 @@
       <c r="R17" s="20">
         <v>42005</v>
       </c>
-      <c r="S17" s="21"/>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S17" s="21">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C18" s="4">
         <v>42370</v>
       </c>
@@ -6108,9 +6124,11 @@
       <c r="R18" s="20">
         <v>42370</v>
       </c>
-      <c r="S18" s="21"/>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S18" s="21">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C19" s="4">
         <v>42736</v>
       </c>
@@ -6134,9 +6152,11 @@
       <c r="R19" s="20">
         <v>42736</v>
       </c>
-      <c r="S19" s="21"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S19" s="21">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C20" s="4">
         <v>43101</v>
       </c>
@@ -6160,9 +6180,11 @@
       <c r="R20" s="20">
         <v>43101</v>
       </c>
-      <c r="S20" s="21"/>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="21">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C21" s="4">
         <v>43466</v>
       </c>
@@ -6186,9 +6208,11 @@
       <c r="R21" s="20">
         <v>43466</v>
       </c>
-      <c r="S21" s="21"/>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S21" s="21">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C22" s="4">
         <v>43831</v>
       </c>
@@ -6212,9 +6236,11 @@
       <c r="R22" s="20">
         <v>43831</v>
       </c>
-      <c r="S22" s="21"/>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="21">
+        <v>-7.1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C23" s="4">
         <v>44197</v>
       </c>
@@ -6238,9 +6264,11 @@
       <c r="R23" s="20">
         <v>44197</v>
       </c>
-      <c r="S23" s="21"/>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S23" s="21">
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C24" s="4">
         <v>44562</v>
       </c>
@@ -6264,9 +6292,11 @@
       <c r="R24" s="20">
         <v>44562</v>
       </c>
-      <c r="S24" s="21"/>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S24" s="21">
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C25" s="4">
         <v>44927</v>
       </c>
@@ -6290,7 +6320,9 @@
       <c r="R25" s="20">
         <v>44927</v>
       </c>
-      <c r="S25" s="21"/>
+      <c r="S25" s="21">
+        <v>-3.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="457" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E52557B-1127-6B4C-A636-6CCA2E74F14B}"/>
+  <xr:revisionPtr revIDLastSave="464" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{514E7CDC-6C08-4D67-A829-C85A414D3E5B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="187">
   <si>
     <t>Date</t>
   </si>
@@ -596,9 +596,6 @@
   </si>
   <si>
     <t>Pct</t>
-  </si>
-  <si>
-    <t>Transport</t>
   </si>
   <si>
     <t>Salg</t>
@@ -4823,8 +4820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08EDB66-D816-49B7-B3A7-830E147E6D1C}">
   <dimension ref="C1:AU24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4857,10 +4854,10 @@
         <v>170</v>
       </c>
       <c r="M1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" t="s">
         <v>178</v>
-      </c>
-      <c r="N1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="3:47" x14ac:dyDescent="0.35">
@@ -4872,7 +4869,7 @@
         <v>40029198</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G2" s="17">
         <f>19840+19167+13587+11099+8978</f>
@@ -4885,7 +4882,7 @@
         <v>44</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N2" s="18">
         <v>75.2</v>
@@ -4977,7 +4974,7 @@
         <v>40056637</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G3" s="17">
         <f>20268+22941</f>
@@ -4990,7 +4987,7 @@
         <v>35</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N3" s="18">
         <v>59.4</v>
@@ -5082,10 +5079,11 @@
         <v>40236914</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G4" s="17">
-        <v>26192</v>
+        <f>26192+5957</f>
+        <v>32149</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>159</v>
@@ -5094,7 +5092,7 @@
         <v>32</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N4" s="18">
         <v>57.8</v>
@@ -5111,10 +5109,11 @@
         <v>40039826</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G5" s="17">
-        <v>16341</v>
+        <f>16341+10501</f>
+        <v>26842</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>160</v>
@@ -5123,7 +5122,7 @@
         <v>22</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N5" s="18">
         <v>53.7</v>
@@ -5140,7 +5139,8 @@
         <v>154</v>
       </c>
       <c r="G6" s="17">
-        <v>15052</v>
+        <f>15052+6921</f>
+        <v>21973</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>161</v>
@@ -5149,7 +5149,7 @@
         <v>16</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N6" s="18">
         <v>51.7</v>
@@ -5163,7 +5163,7 @@
         <v>41693116</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G7" s="17">
         <v>14248</v>
@@ -5175,7 +5175,7 @@
         <v>16</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N7" s="18">
         <v>49.8</v>
@@ -5192,10 +5192,11 @@
         <v>41861246</v>
       </c>
       <c r="F8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G8" s="17">
-        <v>11578</v>
+        <f>11578+5989</f>
+        <v>17567</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>163</v>
@@ -5237,6 +5238,9 @@
       <c r="G10" s="17">
         <v>10501</v>
       </c>
+      <c r="H10" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="I10" s="14" t="s">
         <v>165</v>
       </c>
@@ -5251,15 +5255,7 @@
       <c r="D11">
         <v>41949335</v>
       </c>
-      <c r="F11" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="17">
-        <v>9351</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>168</v>
-      </c>
+      <c r="G11" s="17"/>
       <c r="I11" s="14" t="s">
         <v>166</v>
       </c>
@@ -5274,7 +5270,6 @@
       <c r="D12">
         <v>41729225</v>
       </c>
-      <c r="G12" s="17"/>
       <c r="I12" s="14" t="s">
         <v>167</v>
       </c>
@@ -5382,11 +5377,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G11">
-    <sortCondition descending="1" ref="G11"/>
-  </sortState>
   <hyperlinks>
-    <hyperlink ref="H11" r:id="rId1" xr:uid="{CD3E0A74-6C49-41A8-ABFD-336AF1C8F38E}"/>
+    <hyperlink ref="H10" r:id="rId1" xr:uid="{CD3E0A74-6C49-41A8-ABFD-336AF1C8F38E}"/>
     <hyperlink ref="K12" r:id="rId2" xr:uid="{91D62949-6B55-4A30-97ED-8F10D8B3EB14}"/>
     <hyperlink ref="O7" r:id="rId3" xr:uid="{6E0417E8-B4C7-4220-8339-3A828551FF3E}"/>
   </hyperlinks>
@@ -5517,7 +5509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729D3E50-96CE-5D4F-8758-34102C76EE6A}">
   <dimension ref="B1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="143" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="143" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
@@ -5574,7 +5566,7 @@
         <v>115</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O1" s="19" t="s">
         <v>118</v>
@@ -5583,7 +5575,7 @@
         <v>115</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R1" s="19" t="s">
         <v>0</v>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="464" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{514E7CDC-6C08-4D67-A829-C85A414D3E5B}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F64AF84-307E-4005-84D9-CA8AE3CB593C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="186">
   <si>
     <t>Date</t>
   </si>
@@ -550,12 +550,6 @@
     <t>IT</t>
   </si>
   <si>
-    <t>Bilteknologi</t>
-  </si>
-  <si>
-    <t>Elektrisk driftsteknologi</t>
-  </si>
-  <si>
     <t>There is a shortage of skilled workers</t>
   </si>
   <si>
@@ -604,9 +598,6 @@
     <t>VVS</t>
   </si>
   <si>
-    <t>Bygningsplanlægning</t>
-  </si>
-  <si>
     <t>Elektrikere</t>
   </si>
   <si>
@@ -644,6 +635,12 @@
   </si>
   <si>
     <t>Generel government net lending/borrowing for EU</t>
+  </si>
+  <si>
+    <t>Ingeniører</t>
+  </si>
+  <si>
+    <t>Byplanlægning og arkitektur</t>
   </si>
 </sst>
 </file>
@@ -4821,7 +4818,7 @@
   <dimension ref="C1:AU24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4848,16 +4845,16 @@
         <v>153</v>
       </c>
       <c r="I1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="3:47" x14ac:dyDescent="0.35">
@@ -4869,20 +4866,20 @@
         <v>40029198</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G2" s="17">
         <f>19840+19167+13587+11099+8978</f>
         <v>72671</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J2" s="15">
         <v>44</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N2" s="18">
         <v>75.2</v>
@@ -4974,20 +4971,20 @@
         <v>40056637</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G3" s="17">
         <f>20268+22941</f>
         <v>43209</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J3" s="15">
         <v>35</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N3" s="18">
         <v>59.4</v>
@@ -5079,20 +5076,20 @@
         <v>40236914</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G4" s="17">
         <f>26192+5957</f>
         <v>32149</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J4" s="15">
         <v>32</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N4" s="18">
         <v>57.8</v>
@@ -5109,20 +5106,20 @@
         <v>40039826</v>
       </c>
       <c r="F5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G5" s="17">
         <f>16341+10501</f>
         <v>26842</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J5" s="15">
         <v>22</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N5" s="18">
         <v>53.7</v>
@@ -5143,13 +5140,13 @@
         <v>21973</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J6" s="15">
         <v>16</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N6" s="18">
         <v>51.7</v>
@@ -5163,25 +5160,25 @@
         <v>41693116</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G7" s="17">
         <v>14248</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J7" s="15">
         <v>16</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N7" s="18">
         <v>49.8</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="3:47" x14ac:dyDescent="0.35">
@@ -5192,14 +5189,14 @@
         <v>41861246</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="G8" s="17">
         <f>11578+5989</f>
         <v>17567</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J8" s="15">
         <v>15</v>
@@ -5213,13 +5210,17 @@
         <v>41917490</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="G9" s="17">
-        <v>10638</v>
+        <f>6087+6110+8750</f>
+        <v>20947</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J9" s="15">
         <v>14</v>
@@ -5232,17 +5233,8 @@
       <c r="D10">
         <v>41978630</v>
       </c>
-      <c r="F10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="17">
-        <v>10501</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>168</v>
-      </c>
       <c r="I10" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J10" s="15">
         <v>14</v>
@@ -5255,9 +5247,8 @@
       <c r="D11">
         <v>41949335</v>
       </c>
-      <c r="G11" s="17"/>
       <c r="I11" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J11" s="15">
         <v>12</v>
@@ -5271,13 +5262,13 @@
         <v>41729225</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J12" s="15">
         <v>7</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="3:47" x14ac:dyDescent="0.35">
@@ -5378,7 +5369,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H10" r:id="rId1" xr:uid="{CD3E0A74-6C49-41A8-ABFD-336AF1C8F38E}"/>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{CD3E0A74-6C49-41A8-ABFD-336AF1C8F38E}"/>
     <hyperlink ref="K12" r:id="rId2" xr:uid="{91D62949-6B55-4A30-97ED-8F10D8B3EB14}"/>
     <hyperlink ref="O7" r:id="rId3" xr:uid="{6E0417E8-B4C7-4220-8339-3A828551FF3E}"/>
   </hyperlinks>
@@ -5566,7 +5557,7 @@
         <v>115</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O1" s="19" t="s">
         <v>118</v>
@@ -5575,7 +5566,7 @@
         <v>115</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="R1" s="19" t="s">
         <v>0</v>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="473" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F64AF84-307E-4005-84D9-CA8AE3CB593C}"/>
+  <xr:revisionPtr revIDLastSave="514" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE2E34BC-B06D-492F-8878-D22FD683A878}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Nøgletal" sheetId="1" r:id="rId1"/>
     <sheet name="Labor force" sheetId="4" r:id="rId2"/>
     <sheet name="Balance of Payments" sheetId="3" r:id="rId3"/>
     <sheet name="Debt " sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$I$2:$I$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nøgletal!$I$2:$I$97</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,9 +49,9 @@
   <commentList>
     <comment ref="I2" authorId="0" shapeId="0" xr:uid="{4B42F164-681C-4A58-84D1-0574D84188C8}">
       <text>
-        <t xml:space="preserve">[Trådet kommentar]
-Din version af Excel lader dig læse denne trådede kommentar. Eventuelle ændringer vil dog blive fjernet, hvis filen åbnes i en nyere version af Excel. Få mere at vide: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
 How is your company developing in relation to the lack of new recruits and skilled workers? 
 </t>
       </text>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="191">
   <si>
     <t>Date</t>
   </si>
@@ -115,6 +115,21 @@
     <t>Productivity output per hour worked (mining and manufacturing)</t>
   </si>
   <si>
+    <t>Real Exports of Goods and Services for Germany, Percent Change, Quarterly, Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>China: Real GDP growth quarterly previous period (National Bureau of Statistics of China)</t>
+  </si>
+  <si>
+    <t>Eurozonen: Real GDP growth quarterly previous period</t>
+  </si>
+  <si>
+    <t>Real private consumption: https://fred.stlouisfed.org/series/NAEXKP02DEQ657S</t>
+  </si>
+  <si>
+    <t>Germany energy inflation: https://tradingeconomics.com/germany/energy-inflation</t>
+  </si>
+  <si>
     <t> 0,9865 </t>
   </si>
   <si>
@@ -403,6 +418,198 @@
     <t> 1,0751 </t>
   </si>
   <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Labor Force size</t>
+  </si>
+  <si>
+    <t>Branche</t>
+  </si>
+  <si>
+    <t>Mangel</t>
+  </si>
+  <si>
+    <t>Virksomhed</t>
+  </si>
+  <si>
+    <t>Pct</t>
+  </si>
+  <si>
+    <t>Branche2</t>
+  </si>
+  <si>
+    <t>Pct2</t>
+  </si>
+  <si>
+    <t>Sundhed</t>
+  </si>
+  <si>
+    <t>There is a shortage of skilled workers</t>
+  </si>
+  <si>
+    <t>Jura og revision</t>
+  </si>
+  <si>
+    <t>Country Name</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>Indicator Name</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>Pædagogik og uddannelse</t>
+  </si>
+  <si>
+    <t>There is a shortage of workers</t>
+  </si>
+  <si>
+    <t>Lager</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Salg</t>
+  </si>
+  <si>
+    <t>Shortage of new recruits</t>
+  </si>
+  <si>
+    <t>Fragt og fragt i pipeline</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SL.TLF.TOTL.IN?end=2023&amp;locations=DE&amp;start=2000</t>
+  </si>
+  <si>
+    <t>Elektrikere</t>
+  </si>
+  <si>
+    <t>Qualitative personnel adjustment (competence requirements)</t>
+  </si>
+  <si>
+    <t>Arkitekter og ingeniører</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Personnel reduction (in parts of the company)</t>
+  </si>
+  <si>
+    <t>Indlogering</t>
+  </si>
+  <si>
+    <t>VVS</t>
+  </si>
+  <si>
+    <t>More people retiring than new recruits joining</t>
+  </si>
+  <si>
+    <t>IT-ydelser</t>
+  </si>
+  <si>
+    <t>Kilde</t>
+  </si>
+  <si>
+    <t>Byplanlægning og arkitektur</t>
+  </si>
+  <si>
+    <t>The supply of skilled workers is sufficient</t>
+  </si>
+  <si>
+    <t>Ingeniører</t>
+  </si>
+  <si>
+    <t>The supply of workers is sufficient</t>
+  </si>
+  <si>
+    <t>The supply of new recruits is sufficient</t>
+  </si>
+  <si>
+    <t>Job cuts (in parts of the company)</t>
+  </si>
+  <si>
+    <t>Dealing with workforce ambidexterity is required</t>
+  </si>
+  <si>
     <t>Period</t>
   </si>
   <si>
@@ -445,213 +652,22 @@
     <t xml:space="preserve">Projection of government gross debt for Germany </t>
   </si>
   <si>
-    <t>Country Name</t>
-  </si>
-  <si>
-    <t>Country Code</t>
-  </si>
-  <si>
-    <t>Indicator Name</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>DEU</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>https://data.worldbank.org/indicator/SL.TLF.TOTL.IN?end=2023&amp;locations=DE&amp;start=2000</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Labor Force size</t>
-  </si>
-  <si>
-    <t>Branche</t>
-  </si>
-  <si>
-    <t>Mangel</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>There is a shortage of skilled workers</t>
-  </si>
-  <si>
-    <t>There is a shortage of workers</t>
-  </si>
-  <si>
-    <t>Shortage of new recruits</t>
-  </si>
-  <si>
-    <t>Qualitative personnel adjustment (competence requirements)</t>
-  </si>
-  <si>
-    <t>Personnel reduction (in parts of the company)</t>
-  </si>
-  <si>
-    <t>More people retiring than new recruits joining</t>
-  </si>
-  <si>
-    <t>The supply of skilled workers is sufficient</t>
-  </si>
-  <si>
-    <t>The supply of workers is sufficient</t>
-  </si>
-  <si>
-    <t>The supply of new recruits is sufficient</t>
-  </si>
-  <si>
-    <t>Job cuts (in parts of the company)</t>
-  </si>
-  <si>
-    <t>Dealing with workforce ambidexterity is required</t>
-  </si>
-  <si>
-    <t>Kilde</t>
-  </si>
-  <si>
-    <t>Virksomhed</t>
-  </si>
-  <si>
-    <t>Pct</t>
-  </si>
-  <si>
-    <t>Salg</t>
-  </si>
-  <si>
-    <t>VVS</t>
-  </si>
-  <si>
-    <t>Elektrikere</t>
-  </si>
-  <si>
-    <t>Sundhed</t>
-  </si>
-  <si>
-    <t>Pædagogik og uddannelse</t>
-  </si>
-  <si>
-    <t>Branche2</t>
-  </si>
-  <si>
-    <t>Pct2</t>
-  </si>
-  <si>
-    <t>Jura og revision</t>
-  </si>
-  <si>
-    <t>Lager</t>
-  </si>
-  <si>
-    <t>Fragt og fragt i pipeline</t>
-  </si>
-  <si>
-    <t>Arkitekter og ingeniører</t>
-  </si>
-  <si>
-    <t>Indlogering</t>
-  </si>
-  <si>
-    <t>IT-ydelser</t>
-  </si>
-  <si>
     <t>Generel government gross debt for EU</t>
   </si>
   <si>
     <t>Generel government net lending/borrowing for EU</t>
-  </si>
-  <si>
-    <t>Ingeniører</t>
-  </si>
-  <si>
-    <t>Byplanlægning og arkitektur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,22 +687,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -700,6 +700,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -721,9 +726,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -734,26 +739,25 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1105,27 +1109,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J289"/>
+  <dimension ref="A1:P289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="84.85546875" customWidth="1"/>
+    <col min="13" max="13" width="79" customWidth="1"/>
+    <col min="14" max="14" width="49.7109375" customWidth="1"/>
+    <col min="15" max="15" width="79" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1156,12 +1165,27 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="1">
         <v>1.4</v>
       </c>
       <c r="C2" s="1">
@@ -1183,17 +1207,23 @@
         <v>6.189796E-3</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="10">
+        <v>15</v>
+      </c>
+      <c r="J2" s="9">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L2" s="18">
+        <v>4.8</v>
+      </c>
+      <c r="N2" s="19">
+        <v>1.2197499999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="1">
         <v>0.8</v>
       </c>
       <c r="C3" s="1">
@@ -1215,17 +1245,23 @@
         <v>-6.1099225E-2</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="10">
+        <v>16</v>
+      </c>
+      <c r="J3" s="9">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L3" s="18">
+        <v>3.7</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0.89029999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
@@ -1247,17 +1283,23 @@
         <v>0.91796691399999997</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="10">
+        <v>17</v>
+      </c>
+      <c r="J4" s="9">
         <v>78.400000000000006</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L4" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="N4" s="19">
+        <v>0.60801000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="1">
         <v>-0.3</v>
       </c>
       <c r="C5" s="1">
@@ -1279,17 +1321,23 @@
         <v>0.82722910999999999</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="10">
+        <v>18</v>
+      </c>
+      <c r="J5" s="9">
         <v>79.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L5" s="18">
+        <v>5.3</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0.63997000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -1311,17 +1359,23 @@
         <v>-1.7235691150000001</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="10">
+        <v>19</v>
+      </c>
+      <c r="J6" s="9">
         <v>79.099999999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L6" s="18">
+        <v>-0.2</v>
+      </c>
+      <c r="N6" s="19">
+        <v>0.96804000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1">
@@ -1343,17 +1397,23 @@
         <v>0.216069645</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="10">
+        <v>20</v>
+      </c>
+      <c r="J7" s="9">
         <v>79.400000000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L7" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0.12275999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="1">
         <v>-0.2</v>
       </c>
       <c r="C8" s="1">
@@ -1375,17 +1435,23 @@
         <v>0.28924004399999997</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="10">
+        <v>21</v>
+      </c>
+      <c r="J8" s="9">
         <v>78.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L8" s="18">
+        <v>-0.2</v>
+      </c>
+      <c r="N8" s="19">
+        <v>0.14927000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="1">
         <v>-0.1</v>
       </c>
       <c r="C9" s="1">
@@ -1407,17 +1473,23 @@
         <v>1.0089601180000001</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="10">
+        <v>22</v>
+      </c>
+      <c r="J9" s="9">
         <v>77.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L9" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="N9" s="19">
+        <v>2.7459999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="1">
         <v>-0.5</v>
       </c>
       <c r="C10" s="1">
@@ -1439,17 +1511,23 @@
         <v>2.8872630999999999E-2</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="10">
+        <v>23</v>
+      </c>
+      <c r="J10" s="9">
         <v>78.599999999999994</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L10" s="18">
+        <v>-0.4</v>
+      </c>
+      <c r="N10" s="19">
+        <v>0.14657999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="1">
         <v>0.4</v>
       </c>
       <c r="C11" s="1">
@@ -1471,17 +1549,23 @@
         <v>-0.35898126600000002</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="10">
+        <v>24</v>
+      </c>
+      <c r="J11" s="9">
         <v>80.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L11" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0.52961999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="1">
         <v>0.5</v>
       </c>
       <c r="C12" s="1">
@@ -1503,17 +1587,23 @@
         <v>0.19652018800000001</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="10">
+        <v>25</v>
+      </c>
+      <c r="J12" s="9">
         <v>81.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L12" s="18">
+        <v>1.7</v>
+      </c>
+      <c r="N12" s="19">
+        <v>0.41843000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="1">
         <v>-0.1</v>
       </c>
       <c r="C13" s="1">
@@ -1535,17 +1625,23 @@
         <v>0.37363352300000002</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="10">
+        <v>26</v>
+      </c>
+      <c r="J13" s="9">
         <v>81.599999999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L13" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="N13" s="19">
+        <v>0.16761999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="1">
         <v>-1.5</v>
       </c>
       <c r="C14" s="1">
@@ -1567,17 +1663,23 @@
         <v>1.3128743810000001</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="10">
+        <v>27</v>
+      </c>
+      <c r="J14" s="9">
         <v>82.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L14" s="18">
+        <v>-3</v>
+      </c>
+      <c r="N14" s="19">
+        <v>-0.31728000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="1">
         <v>0.1</v>
       </c>
       <c r="C15" s="1">
@@ -1599,17 +1701,23 @@
         <v>-0.21871228300000001</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="10">
+        <v>28</v>
+      </c>
+      <c r="J15" s="9">
         <v>81.900000000000006</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L15" s="18">
+        <v>-0.3</v>
+      </c>
+      <c r="N15" s="19">
+        <v>9.0389999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="1">
         <v>0.8</v>
       </c>
       <c r="C16" s="1">
@@ -1631,17 +1739,23 @@
         <v>5.3757728999999997E-2</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="10">
+        <v>29</v>
+      </c>
+      <c r="J16" s="9">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L16" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="N16" s="19">
+        <v>0.59260000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="1">
         <v>0.3</v>
       </c>
       <c r="C17" s="1">
@@ -1663,17 +1777,23 @@
         <v>-0.36024741999999998</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="10">
+        <v>30</v>
+      </c>
+      <c r="J17" s="9">
         <v>84.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L17" s="18">
+        <v>2.4</v>
+      </c>
+      <c r="N17" s="19">
+        <v>0.68411999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="1">
         <v>-0.2</v>
       </c>
       <c r="C18" s="1">
@@ -1695,17 +1815,23 @@
         <v>0.50438195900000005</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="10">
+        <v>31</v>
+      </c>
+      <c r="J18" s="9">
         <v>85.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L18" s="18">
+        <v>4.3</v>
+      </c>
+      <c r="N18" s="19">
+        <v>0.50278999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="1">
         <v>0.5</v>
       </c>
       <c r="C19" s="1">
@@ -1727,17 +1853,23 @@
         <v>-0.56357813199999995</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="10">
+        <v>32</v>
+      </c>
+      <c r="J19" s="9">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L19" s="18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N19" s="19">
+        <v>0.61407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="1">
         <v>-0.2</v>
       </c>
       <c r="C20" s="1">
@@ -1759,17 +1891,23 @@
         <v>0.234477987</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="10">
+        <v>33</v>
+      </c>
+      <c r="J20" s="9">
         <v>87.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L20" s="18">
+        <v>-1.7</v>
+      </c>
+      <c r="N20" s="19">
+        <v>0.24457000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="1">
         <v>-0.1</v>
       </c>
       <c r="C21" s="1">
@@ -1791,17 +1929,23 @@
         <v>0.13371394</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="10">
+        <v>34</v>
+      </c>
+      <c r="J21" s="9">
         <v>87.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L21" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="N21" s="19">
+        <v>0.36556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="1">
         <v>0</v>
       </c>
       <c r="C22" s="1">
@@ -1823,17 +1967,23 @@
         <v>0.17811001000000001</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="10">
+        <v>35</v>
+      </c>
+      <c r="J22" s="9">
         <v>88.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L22" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="N22" s="19">
+        <v>0.20891000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="1">
         <v>0.5</v>
       </c>
       <c r="C23" s="1">
@@ -1855,17 +2005,23 @@
         <v>-0.61401686499999997</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="10">
+        <v>36</v>
+      </c>
+      <c r="J23" s="9">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L23" s="18">
+        <v>1.7</v>
+      </c>
+      <c r="N23" s="19">
+        <v>0.61641000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="1">
         <v>0.8</v>
       </c>
       <c r="C24" s="1">
@@ -1887,17 +2043,23 @@
         <v>-0.82696737799999998</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="10">
+        <v>37</v>
+      </c>
+      <c r="J24" s="9">
         <v>91.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L24" s="18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N24" s="19">
+        <v>0.78203999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="1">
         <v>0.5</v>
       </c>
       <c r="C25" s="1">
@@ -1919,17 +2081,23 @@
         <v>-0.18833066800000001</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="10">
+        <v>38</v>
+      </c>
+      <c r="J25" s="9">
         <v>93.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L25" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="N25" s="19">
+        <v>0.61492999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26" s="1">
@@ -1951,17 +2119,23 @@
         <v>-0.481418554</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="10">
+        <v>39</v>
+      </c>
+      <c r="J26" s="9">
         <v>93.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L26" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="N26" s="19">
+        <v>0.84846999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="1">
         <v>1.7</v>
       </c>
       <c r="C27" s="1">
@@ -1983,17 +2157,23 @@
         <v>-1.0422138990000001</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" s="10">
+        <v>40</v>
+      </c>
+      <c r="J27" s="9">
         <v>93.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L27" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="N27" s="19">
+        <v>1.1247499999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="1">
         <v>0.8</v>
       </c>
       <c r="C28" s="1">
@@ -2015,17 +2195,23 @@
         <v>0.32956871700000001</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="10">
+        <v>41</v>
+      </c>
+      <c r="J28" s="9">
         <v>96.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L28" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="N28" s="19">
+        <v>0.62170000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="1">
         <v>1.5</v>
       </c>
       <c r="C29" s="1">
@@ -2047,17 +2233,23 @@
         <v>-1.249074837</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="10">
+        <v>42</v>
+      </c>
+      <c r="J29" s="9">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L29" s="18">
+        <v>5.8</v>
+      </c>
+      <c r="N29" s="19">
+        <v>1.15168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="1">
         <v>0.1</v>
       </c>
       <c r="C30" s="1">
@@ -2079,17 +2271,23 @@
         <v>0.71465696199999995</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="10">
+        <v>43</v>
+      </c>
+      <c r="J30" s="9">
         <v>98.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L30" s="18">
+        <v>-0.7</v>
+      </c>
+      <c r="N30" s="19">
+        <v>0.59160000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="1">
         <v>0.8</v>
       </c>
       <c r="C31" s="1">
@@ -2111,17 +2309,23 @@
         <v>-0.16857691</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="10">
+        <v>44</v>
+      </c>
+      <c r="J31" s="9">
         <v>99.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L31" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="N31" s="19">
+        <v>0.72494999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="1">
         <v>0.5</v>
       </c>
       <c r="C32" s="1">
@@ -2143,17 +2347,23 @@
         <v>0.13418472100000001</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J32" s="10">
+        <v>45</v>
+      </c>
+      <c r="J32" s="9">
         <v>100.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L32" s="18">
+        <v>2</v>
+      </c>
+      <c r="N32" s="19">
+        <v>0.44184000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="1">
         <v>0.6</v>
       </c>
       <c r="C33" s="1">
@@ -2175,17 +2385,23 @@
         <v>0.182158871</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" s="10">
+        <v>46</v>
+      </c>
+      <c r="J33" s="9">
         <v>101.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L33" s="18">
+        <v>1</v>
+      </c>
+      <c r="N33" s="19">
+        <v>0.52381999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="1">
         <v>0.6</v>
       </c>
       <c r="C34" s="1">
@@ -2207,17 +2423,23 @@
         <v>0.71565135300000005</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="10">
+        <v>47</v>
+      </c>
+      <c r="J34" s="9">
         <v>102.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L34" s="18">
+        <v>1</v>
+      </c>
+      <c r="N34" s="19">
+        <v>0.50556999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="1">
         <v>-0.2</v>
       </c>
       <c r="C35" s="1">
@@ -2239,17 +2461,23 @@
         <v>1.113549911</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J35" s="10">
+        <v>48</v>
+      </c>
+      <c r="J35" s="9">
         <v>100.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L35" s="18">
+        <v>-0.3</v>
+      </c>
+      <c r="N35" s="19">
+        <v>-0.36049999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="1">
         <v>-0.6</v>
       </c>
       <c r="C36" s="1">
@@ -2271,17 +2499,23 @@
         <v>1.2781141380000001</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="10">
+        <v>49</v>
+      </c>
+      <c r="J36" s="9">
         <v>99.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L36" s="18">
+        <v>-0.8</v>
+      </c>
+      <c r="N36" s="19">
+        <v>-0.49652000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="1">
         <v>-1.6</v>
       </c>
       <c r="C37" s="1">
@@ -2303,17 +2537,23 @@
         <v>2.4862323260000001</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37" s="10">
+        <v>50</v>
+      </c>
+      <c r="J37" s="9">
         <v>96.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L37" s="18">
+        <v>-5.6</v>
+      </c>
+      <c r="N37" s="19">
+        <v>-1.81406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="1">
         <v>-4.7</v>
       </c>
       <c r="C38" s="1">
@@ -2335,17 +2575,23 @@
         <v>4.01263799</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38" s="10">
+        <v>51</v>
+      </c>
+      <c r="J38" s="9">
         <v>87.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L38" s="18">
+        <v>-11.6</v>
+      </c>
+      <c r="N38" s="19">
+        <v>-3.0974200000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="1">
         <v>0.2</v>
       </c>
       <c r="C39" s="1">
@@ -2367,17 +2613,23 @@
         <v>-0.44995182900000003</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J39" s="10">
+        <v>52</v>
+      </c>
+      <c r="J39" s="9">
         <v>85.9</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L39" s="18">
+        <v>-0.8</v>
+      </c>
+      <c r="N39" s="19">
+        <v>-4.1099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="1">
         <v>0.6</v>
       </c>
       <c r="C40" s="1">
@@ -2399,17 +2651,23 @@
         <v>0.103046163</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J40" s="10">
+        <v>53</v>
+      </c>
+      <c r="J40" s="9">
         <v>89.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L40" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="N40" s="19">
+        <v>0.39282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="1">
         <v>0.7</v>
       </c>
       <c r="C41" s="1">
@@ -2431,17 +2689,23 @@
         <v>-0.34085805600000002</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J41" s="10">
+        <v>54</v>
+      </c>
+      <c r="J41" s="9">
         <v>91.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L41" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="N41" s="19">
+        <v>0.47273999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="1">
         <v>0.8</v>
       </c>
       <c r="C42" s="1">
@@ -2463,17 +2727,23 @@
         <v>0.205584079</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J42" s="10">
+        <v>55</v>
+      </c>
+      <c r="J42" s="9">
         <v>92.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L42" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="N42" s="19">
+        <v>0.39011000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="1">
         <v>2.2999999999999998</v>
       </c>
       <c r="C43" s="1">
@@ -2495,17 +2765,23 @@
         <v>-1.4406707940000001</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J43" s="10">
+        <v>56</v>
+      </c>
+      <c r="J43" s="9">
         <v>95.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L43" s="18">
+        <v>7.1</v>
+      </c>
+      <c r="N43" s="19">
+        <v>0.96823999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="1">
         <v>0.8</v>
       </c>
       <c r="C44" s="1">
@@ -2527,17 +2803,23 @@
         <v>0.21948596400000001</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J44" s="10">
+        <v>57</v>
+      </c>
+      <c r="J44" s="9">
         <v>98</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L44" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="N44" s="19">
+        <v>0.44367000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="1">
         <v>0.8</v>
       </c>
       <c r="C45" s="1">
@@ -2559,17 +2841,23 @@
         <v>0.115391919</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" s="10">
+        <v>58</v>
+      </c>
+      <c r="J45" s="9">
         <v>100.7</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L45" s="18">
+        <v>2.1</v>
+      </c>
+      <c r="N45" s="19">
+        <v>0.60096000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="1">
         <v>1.9</v>
       </c>
       <c r="C46" s="1">
@@ -2591,17 +2879,23 @@
         <v>-0.485703406</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J46" s="10">
+        <v>59</v>
+      </c>
+      <c r="J46" s="9">
         <v>100.7</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L46" s="18">
+        <v>2.7</v>
+      </c>
+      <c r="N46" s="19">
+        <v>0.85902999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="1">
         <v>0.1</v>
       </c>
       <c r="C47" s="1">
@@ -2623,17 +2917,23 @@
         <v>1.0073198729999999</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J47" s="10">
+        <v>60</v>
+      </c>
+      <c r="J47" s="9">
         <v>101.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L47" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="N47" s="19">
+        <v>5.1900000000000002E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="1">
         <v>0.9</v>
       </c>
       <c r="C48" s="1">
@@ -2655,17 +2955,23 @@
         <v>-0.273985272</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J48" s="10">
+        <v>61</v>
+      </c>
+      <c r="J48" s="9">
         <v>103.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L48" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N48" s="19">
+        <v>0.13838</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="1">
         <v>-0.3</v>
       </c>
       <c r="C49" s="1">
@@ -2687,17 +2993,23 @@
         <v>1.040173692</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J49" s="10">
+        <v>62</v>
+      </c>
+      <c r="J49" s="9">
         <v>101.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L49" s="18">
+        <v>-0.4</v>
+      </c>
+      <c r="N49" s="19">
+        <v>-0.40859000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="1">
         <v>0.2</v>
       </c>
       <c r="C50" s="1">
@@ -2719,17 +3031,23 @@
         <v>1.0338263190000001</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J50" s="10">
+        <v>63</v>
+      </c>
+      <c r="J50" s="9">
         <v>99.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L50" s="18">
+        <v>2.1</v>
+      </c>
+      <c r="N50" s="19">
+        <v>-0.24351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="1">
         <v>0.2</v>
       </c>
       <c r="C51" s="1">
@@ -2751,17 +3069,23 @@
         <v>1.075717472</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J51" s="10">
+        <v>64</v>
+      </c>
+      <c r="J51" s="9">
         <v>99.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L51" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="N51" s="19">
+        <v>-0.22869</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="1">
         <v>0.3</v>
       </c>
       <c r="C52" s="1">
@@ -2783,17 +3107,23 @@
         <v>0.25398210599999999</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J52" s="10">
+        <v>65</v>
+      </c>
+      <c r="J52" s="9">
         <v>100.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L52" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="N52" s="19">
+        <v>-0.11108999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="1">
         <v>-0.5</v>
       </c>
       <c r="C53" s="1">
@@ -2815,17 +3145,23 @@
         <v>1.145063817</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J53" s="10">
+        <v>66</v>
+      </c>
+      <c r="J53" s="9">
         <v>98.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L53" s="18">
+        <v>-1.7</v>
+      </c>
+      <c r="N53" s="19">
+        <v>-0.45374999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="1">
         <v>-0.5</v>
       </c>
       <c r="C54" s="1">
@@ -2847,17 +3183,23 @@
         <v>0.77873195699999997</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J54" s="10">
+        <v>67</v>
+      </c>
+      <c r="J54" s="9">
         <v>97.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L54" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="N54" s="19">
+        <v>-0.35360999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="C55" s="1">
@@ -2879,17 +3221,23 @@
         <v>-0.20622728300000001</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J55" s="10">
+        <v>68</v>
+      </c>
+      <c r="J55" s="9">
         <v>98.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L55" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="N55" s="19">
+        <v>0.55430000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="1">
         <v>0.5</v>
       </c>
       <c r="C56" s="1">
@@ -2911,17 +3259,23 @@
         <v>0.33452826099999999</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J56" s="10">
+        <v>69</v>
+      </c>
+      <c r="J56" s="9">
         <v>98.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L56" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="N56" s="19">
+        <v>0.30076999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="1">
         <v>0.3</v>
       </c>
       <c r="C57" s="1">
@@ -2943,17 +3297,23 @@
         <v>0.43758760899999999</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J57" s="10">
+        <v>70</v>
+      </c>
+      <c r="J57" s="9">
         <v>99.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L57" s="18">
+        <v>1.7</v>
+      </c>
+      <c r="N57" s="19">
+        <v>0.30018</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="1">
         <v>1</v>
       </c>
       <c r="C58" s="1">
@@ -2975,17 +3335,23 @@
         <v>0.42331946100000001</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J58" s="10">
+        <v>71</v>
+      </c>
+      <c r="J58" s="9">
         <v>100.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L58" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="N58" s="19">
+        <v>0.39834000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="1">
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -3007,17 +3373,23 @@
         <v>0.67863599299999999</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J59" s="10">
+        <v>72</v>
+      </c>
+      <c r="J59" s="9">
         <v>100.9</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L59" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="N59" s="19">
+        <v>0.21203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="1">
         <v>0.5</v>
       </c>
       <c r="C60" s="1">
@@ -3039,17 +3411,23 @@
         <v>0.33743779200000001</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J60" s="10">
+        <v>73</v>
+      </c>
+      <c r="J60" s="9">
         <v>100.4</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L60" s="18">
+        <v>2</v>
+      </c>
+      <c r="N60" s="19">
+        <v>0.46937000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="1">
         <v>0.8</v>
       </c>
       <c r="C61" s="1">
@@ -3071,17 +3449,23 @@
         <v>-5.1236979000000002E-2</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J61" s="10">
+        <v>74</v>
+      </c>
+      <c r="J61" s="9">
         <v>99.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L61" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="N61" s="19">
+        <v>0.35433999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="1">
         <v>-0.5</v>
       </c>
       <c r="C62" s="1">
@@ -3103,17 +3487,23 @@
         <v>1.4017342260000001</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J62" s="10">
+        <v>75</v>
+      </c>
+      <c r="J62" s="9">
         <v>99.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L62" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="N62" s="19">
+        <v>0.63656999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="1">
         <v>0.8</v>
       </c>
       <c r="C63" s="1">
@@ -3135,17 +3525,23 @@
         <v>0.61928616199999997</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J63" s="10">
+        <v>76</v>
+      </c>
+      <c r="J63" s="9">
         <v>100.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L63" s="18">
+        <v>1.9</v>
+      </c>
+      <c r="N63" s="19">
+        <v>0.47854000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="1">
         <v>0.4</v>
       </c>
       <c r="C64" s="1">
@@ -3167,17 +3563,23 @@
         <v>0.34922859699999997</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J64" s="10">
+        <v>77</v>
+      </c>
+      <c r="J64" s="9">
         <v>100.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L64" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="N64" s="19">
+        <v>0.37979000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="1">
         <v>0.4</v>
       </c>
       <c r="C65" s="1">
@@ -3199,17 +3601,23 @@
         <v>0.48434283</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J65" s="10">
+        <v>78</v>
+      </c>
+      <c r="J65" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L65" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="N65" s="19">
+        <v>0.46306000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="1">
         <v>0.8</v>
       </c>
       <c r="C66" s="1">
@@ -3231,17 +3639,23 @@
         <v>-1.1341777000000001E-2</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J66" s="10">
+        <v>79</v>
+      </c>
+      <c r="J66" s="9">
         <v>100.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L66" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="N66" s="19">
+        <v>0.57313000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="1">
         <v>0.5</v>
       </c>
       <c r="C67" s="1">
@@ -3263,17 +3677,23 @@
         <v>0.21672678200000001</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="J67" s="10">
+        <v>80</v>
+      </c>
+      <c r="J67" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L67" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="N67" s="19">
+        <v>0.22178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="1">
         <v>0.2</v>
       </c>
       <c r="C68" s="1">
@@ -3295,17 +3715,23 @@
         <v>0.72955927700000001</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J68" s="10">
+        <v>81</v>
+      </c>
+      <c r="J68" s="9">
         <v>99.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L68" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="N68" s="19">
+        <v>0.47817999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="15">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="1">
         <v>0.4</v>
       </c>
       <c r="C69" s="1">
@@ -3327,17 +3753,23 @@
         <v>0.75536793800000002</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J69" s="10">
+        <v>82</v>
+      </c>
+      <c r="J69" s="9">
         <v>101.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L69" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="N69" s="19">
+        <v>0.78015999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="1">
         <v>1.2</v>
       </c>
       <c r="C70" s="1">
@@ -3359,17 +3791,23 @@
         <v>-0.225438633</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J70" s="10">
+        <v>83</v>
+      </c>
+      <c r="J70" s="9">
         <v>101.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L70" s="18">
+        <v>2.6</v>
+      </c>
+      <c r="N70" s="19">
+        <v>0.69562000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="1">
         <v>0.9</v>
       </c>
       <c r="C71" s="1">
@@ -3391,17 +3829,23 @@
         <v>9.5723476000000002E-2</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J71" s="10">
+        <v>84</v>
+      </c>
+      <c r="J71" s="9">
         <v>102.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L71" s="18">
+        <v>1.7</v>
+      </c>
+      <c r="N71" s="19">
+        <v>0.79635</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="1">
         <v>0.6</v>
       </c>
       <c r="C72" s="1">
@@ -3423,17 +3867,23 @@
         <v>0.17080437100000001</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J72" s="10">
+        <v>85</v>
+      </c>
+      <c r="J72" s="9">
         <v>102</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L72" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="N72" s="19">
+        <v>0.74746000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="1">
         <v>0.9</v>
       </c>
       <c r="C73" s="1">
@@ -3455,17 +3905,23 @@
         <v>0.300921771</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J73" s="10">
+        <v>86</v>
+      </c>
+      <c r="J73" s="9">
         <v>102.3</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L73" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N73" s="19">
+        <v>0.79752999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="1">
         <v>-0.6</v>
       </c>
       <c r="C74" s="1">
@@ -3487,17 +3943,23 @@
         <v>1.696573431</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J74" s="10">
+        <v>87</v>
+      </c>
+      <c r="J74" s="9">
         <v>103.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L74" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="N74" s="19">
+        <v>-3.4000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="1">
         <v>0.8</v>
       </c>
       <c r="C75" s="1">
@@ -3519,17 +3981,23 @@
         <v>0.307884873</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J75" s="10">
+        <v>88</v>
+      </c>
+      <c r="J75" s="9">
         <v>102.6</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L75" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="N75" s="19">
+        <v>0.55849000000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="1">
         <v>-0.9</v>
       </c>
       <c r="C76" s="1">
@@ -3551,17 +4019,23 @@
         <v>2.071250934</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J76" s="10">
+        <v>89</v>
+      </c>
+      <c r="J76" s="9">
         <v>101.3</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L76" s="18">
+        <v>-0.9</v>
+      </c>
+      <c r="N76" s="19">
+        <v>-2.4459999999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="1">
         <v>0.9</v>
       </c>
       <c r="C77" s="1">
@@ -3583,17 +4057,23 @@
         <v>-0.10087025299999999</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J77" s="10">
+        <v>90</v>
+      </c>
+      <c r="J77" s="9">
         <v>100.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L77" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="N77" s="19">
+        <v>0.68808000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="15">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="1">
         <v>0.7</v>
       </c>
       <c r="C78" s="1">
@@ -3615,17 +4095,23 @@
         <v>0.859144515</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J78" s="10">
+        <v>91</v>
+      </c>
+      <c r="J78" s="9">
         <v>99.7</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L78" s="18">
+        <v>3.7</v>
+      </c>
+      <c r="N78" s="19">
+        <v>0.59633000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="1">
         <v>0</v>
       </c>
       <c r="C79" s="1">
@@ -3647,17 +4133,23 @@
         <v>1.2532962050000001</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J79" s="10">
+        <v>92</v>
+      </c>
+      <c r="J79" s="9">
         <v>99.9</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L79" s="18">
+        <v>-1.5</v>
+      </c>
+      <c r="N79" s="19">
+        <v>0.35109000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B80" s="1">
         <v>0</v>
       </c>
       <c r="C80" s="1">
@@ -3679,17 +4171,23 @@
         <v>0.96502109999999997</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J80" s="10">
+        <v>93</v>
+      </c>
+      <c r="J80" s="9">
         <v>99.9</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L80" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="N80" s="19">
+        <v>0.16294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="15">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="1">
         <v>0.3</v>
       </c>
       <c r="C81" s="1">
@@ -3711,17 +4209,23 @@
         <v>-0.444042086</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J81" s="10">
+        <v>94</v>
+      </c>
+      <c r="J81" s="9">
         <v>99.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L81" s="18">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="N81" s="19">
+        <v>5.6030000000000003E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
-      <c r="B82" s="13">
+      <c r="B82" s="1">
         <v>-1.8</v>
       </c>
       <c r="C82" s="1">
@@ -3743,17 +4247,23 @@
         <v>2.3199836079999998</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J82" s="10">
+        <v>95</v>
+      </c>
+      <c r="J82" s="9">
         <v>100.1</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L82" s="18">
+        <v>-2</v>
+      </c>
+      <c r="N82" s="19">
+        <v>-3.4341699999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="15">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="1">
         <v>-9.1999999999999993</v>
       </c>
       <c r="C83" s="1">
@@ -3775,17 +4285,23 @@
         <v>5.1741168350000004</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J83" s="10">
+        <v>96</v>
+      </c>
+      <c r="J83" s="9">
         <v>84.3</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L83" s="18">
+        <v>-20.5</v>
+      </c>
+      <c r="N83" s="19">
+        <v>-11.27702</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="15">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
-      <c r="B84" s="13">
+      <c r="B84" s="1">
         <v>8.9</v>
       </c>
       <c r="C84" s="1">
@@ -3807,17 +4323,23 @@
         <v>-5.2851272979999999</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J84" s="10">
+        <v>97</v>
+      </c>
+      <c r="J84" s="9">
         <v>97.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L84" s="18">
+        <v>17.2</v>
+      </c>
+      <c r="N84" s="19">
+        <v>12.103949999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="15">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="1">
         <v>0.8</v>
       </c>
       <c r="C85" s="1">
@@ -3839,17 +4361,23 @@
         <v>0.38957438799999999</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J85" s="10">
+        <v>98</v>
+      </c>
+      <c r="J85" s="9">
         <v>101.3</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L85" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="N85" s="19">
+        <v>-6.2100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B86" s="1">
         <v>-1.3</v>
       </c>
       <c r="C86" s="1">
@@ -3871,17 +4399,23 @@
         <v>0.84115114099999999</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J86" s="10">
+        <v>99</v>
+      </c>
+      <c r="J86" s="9">
         <v>100.9</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L86" s="18">
+        <v>2.6</v>
+      </c>
+      <c r="N86" s="19">
+        <v>0.39471000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="15">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="C87" s="1">
@@ -3903,17 +4437,23 @@
         <v>-1.173164289</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J87" s="10">
+        <v>100</v>
+      </c>
+      <c r="J87" s="9">
         <v>100.1</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L87" s="18">
+        <v>1</v>
+      </c>
+      <c r="N87" s="19">
+        <v>2.10263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="15">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="1">
         <v>0.7</v>
       </c>
       <c r="C88" s="1">
@@ -3935,17 +4475,23 @@
         <v>1.967425395</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J88" s="10">
+        <v>101</v>
+      </c>
+      <c r="J88" s="9">
         <v>99.8</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L88" s="18">
+        <v>-0.6</v>
+      </c>
+      <c r="N88" s="19">
+        <v>2.0802700000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="15">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
-      <c r="B89" s="13">
+      <c r="B89" s="1">
         <v>0</v>
       </c>
       <c r="C89" s="1">
@@ -3967,17 +4513,23 @@
         <v>1.1958062629999999</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J89" s="10">
+        <v>102</v>
+      </c>
+      <c r="J89" s="9">
         <v>99.9</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L89" s="18">
+        <v>3.7</v>
+      </c>
+      <c r="N89" s="19">
+        <v>0.54925999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="15">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
-      <c r="B90" s="13">
+      <c r="B90" s="1">
         <v>1</v>
       </c>
       <c r="C90" s="1">
@@ -3999,17 +4551,23 @@
         <v>0.44063753</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J90" s="10">
+        <v>103</v>
+      </c>
+      <c r="J90" s="9">
         <v>101</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L90" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="N90" s="19">
+        <v>0.60416999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="15">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91" s="1">
         <v>-0.1</v>
       </c>
       <c r="C91" s="1">
@@ -4031,17 +4589,23 @@
         <v>-1.1231299999999999E-4</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J91" s="10">
+        <v>104</v>
+      </c>
+      <c r="J91" s="9">
         <v>98.3</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L91" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="N91" s="19">
+        <v>0.81647999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="15">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
-      <c r="B92" s="13">
+      <c r="B92" s="1">
         <v>0.4</v>
       </c>
       <c r="C92" s="1">
@@ -4063,17 +4627,23 @@
         <v>1.1345507189999999</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J92" s="10">
+        <v>105</v>
+      </c>
+      <c r="J92" s="9">
         <v>98.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L92" s="18">
+        <v>1</v>
+      </c>
+      <c r="N92" s="19">
+        <v>0.47155000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="15">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
-      <c r="B93" s="13">
+      <c r="B93" s="1">
         <v>-0.4</v>
       </c>
       <c r="C93" s="1">
@@ -4095,17 +4665,23 @@
         <v>2.8696497490000001</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J93" s="10">
+        <v>106</v>
+      </c>
+      <c r="J93" s="9">
         <v>99.2</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L93" s="18">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="N93" s="19">
+        <v>-6.8700000000000002E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="15">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B94" s="1">
         <v>0.1</v>
       </c>
       <c r="C94" s="1">
@@ -4127,17 +4703,23 @@
         <v>2.5742279589999999</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J94" s="10">
+        <v>107</v>
+      </c>
+      <c r="J94" s="9">
         <v>99</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L94" s="18">
+        <v>-0.2</v>
+      </c>
+      <c r="N94" s="19">
+        <v>4.138E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="15">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B95" s="1">
         <v>0</v>
       </c>
       <c r="C95" s="1">
@@ -4159,17 +4741,23 @@
         <v>9.2769905E-2</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J95" s="10">
+        <v>108</v>
+      </c>
+      <c r="J95" s="9">
         <v>97.3</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L95" s="18">
+        <v>-0.9</v>
+      </c>
+      <c r="N95" s="19">
+        <v>0.12595999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="15">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
-      <c r="B96" s="13">
+      <c r="B96" s="1">
         <v>0</v>
       </c>
       <c r="C96" s="1">
@@ -4191,17 +4779,23 @@
         <v>1.5655721570000001</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J96" s="10">
+        <v>109</v>
+      </c>
+      <c r="J96" s="9">
         <v>95.4</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L96" s="18">
+        <v>-0.7</v>
+      </c>
+      <c r="N96" s="19">
+        <v>-6.3670000000000004E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="15">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B97" s="1">
         <v>-0.3</v>
       </c>
       <c r="D97" s="1"/>
@@ -4215,598 +4809,604 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J97" s="10">
+        <v>110</v>
+      </c>
+      <c r="J97" s="9">
         <v>96.7</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L97" s="18">
+        <v>-1.6</v>
+      </c>
+      <c r="N97" s="19">
+        <v>-5.4140000000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="D98" s="1"/>
-      <c r="J98" s="11"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="1:14">
       <c r="D99" s="1"/>
-      <c r="J99" s="11"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="1:14">
       <c r="D100" s="1"/>
-      <c r="J100" s="11"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="1:14">
       <c r="D101" s="1"/>
-      <c r="J101" s="11"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="1:14">
       <c r="D102" s="1"/>
-      <c r="J102" s="11"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="1:14">
       <c r="D103" s="1"/>
-      <c r="J103" s="11"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="1:14">
       <c r="D104" s="1"/>
-      <c r="J104" s="11"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="1:14">
       <c r="D105" s="1"/>
-      <c r="J105" s="11"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="1:14">
       <c r="D106" s="1"/>
-      <c r="J106" s="11"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="1:14">
       <c r="D107" s="1"/>
-      <c r="J107" s="11"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="1:14">
       <c r="D108" s="1"/>
-      <c r="J108" s="11"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J109" s="11"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J110" s="11"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J111" s="11"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J112" s="11"/>
-    </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J113" s="11"/>
-    </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J114" s="11"/>
-    </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J115" s="11"/>
-    </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J116" s="11"/>
-    </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J117" s="11"/>
-    </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J118" s="11"/>
-    </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J119" s="11"/>
-    </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J120" s="11"/>
-    </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J121" s="11"/>
-    </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J122" s="11"/>
-    </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J123" s="11"/>
-    </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J124" s="11"/>
-    </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J125" s="11"/>
-    </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J126" s="11"/>
-    </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J127" s="11"/>
-    </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J128" s="11"/>
-    </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J129" s="11"/>
-    </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J130" s="11"/>
-    </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J131" s="11"/>
-    </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J132" s="11"/>
-    </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J133" s="11"/>
-    </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J134" s="11"/>
-    </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J135" s="11"/>
-    </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J136" s="11"/>
-    </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J137" s="11"/>
-    </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J138" s="11"/>
-    </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J139" s="11"/>
-    </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J140" s="11"/>
-    </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J141" s="11"/>
-    </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J142" s="11"/>
-    </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J143" s="11"/>
-    </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J144" s="11"/>
-    </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J145" s="11"/>
-    </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J146" s="11"/>
-    </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J147" s="11"/>
-    </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J148" s="11"/>
-    </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J149" s="11"/>
-    </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J150" s="11"/>
-    </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J151" s="11"/>
-    </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J152" s="11"/>
-    </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J153" s="11"/>
-    </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J154" s="11"/>
-    </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J155" s="11"/>
-    </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J156" s="11"/>
-    </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J157" s="11"/>
-    </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J158" s="11"/>
-    </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J159" s="11"/>
-    </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J160" s="11"/>
-    </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J161" s="11"/>
-    </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J162" s="11"/>
-    </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J163" s="11"/>
-    </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J164" s="11"/>
-    </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J165" s="11"/>
-    </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J166" s="11"/>
-    </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J167" s="11"/>
-    </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J168" s="11"/>
-    </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J169" s="11"/>
-    </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J170" s="11"/>
-    </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J171" s="11"/>
-    </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J172" s="11"/>
-    </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J173" s="11"/>
-    </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J174" s="11"/>
-    </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J175" s="11"/>
-    </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J176" s="11"/>
-    </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J177" s="11"/>
-    </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J178" s="11"/>
-    </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J179" s="11"/>
-    </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J180" s="11"/>
-    </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J181" s="11"/>
-    </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J182" s="11"/>
-    </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J183" s="11"/>
-    </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J184" s="11"/>
-    </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J185" s="11"/>
-    </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J186" s="11"/>
-    </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J187" s="11"/>
-    </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J188" s="11"/>
-    </row>
-    <row r="189" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J189" s="11"/>
-    </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J190" s="11"/>
-    </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J191" s="11"/>
-    </row>
-    <row r="192" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J192" s="11"/>
-    </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J193" s="11"/>
-    </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J194" s="11"/>
-    </row>
-    <row r="195" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J195" s="11"/>
-    </row>
-    <row r="196" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J196" s="11"/>
-    </row>
-    <row r="197" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J197" s="11"/>
-    </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J198" s="11"/>
-    </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J199" s="11"/>
-    </row>
-    <row r="200" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J200" s="11"/>
-    </row>
-    <row r="201" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J201" s="11"/>
-    </row>
-    <row r="202" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J202" s="11"/>
-    </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J203" s="11"/>
-    </row>
-    <row r="204" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J204" s="11"/>
-    </row>
-    <row r="205" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J205" s="11"/>
-    </row>
-    <row r="206" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J206" s="11"/>
-    </row>
-    <row r="207" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J207" s="11"/>
-    </row>
-    <row r="208" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J208" s="11"/>
-    </row>
-    <row r="209" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J209" s="11"/>
-    </row>
-    <row r="210" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J210" s="11"/>
-    </row>
-    <row r="211" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J211" s="11"/>
-    </row>
-    <row r="212" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J212" s="11"/>
-    </row>
-    <row r="213" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J213" s="11"/>
-    </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J214" s="11"/>
-    </row>
-    <row r="215" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J215" s="11"/>
-    </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J216" s="11"/>
-    </row>
-    <row r="217" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J217" s="11"/>
-    </row>
-    <row r="218" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J218" s="11"/>
-    </row>
-    <row r="219" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J219" s="11"/>
-    </row>
-    <row r="220" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J220" s="11"/>
-    </row>
-    <row r="221" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J221" s="11"/>
-    </row>
-    <row r="222" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J222" s="11"/>
-    </row>
-    <row r="223" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J223" s="11"/>
-    </row>
-    <row r="224" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J224" s="11"/>
-    </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J225" s="11"/>
-    </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J226" s="11"/>
-    </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J227" s="11"/>
-    </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J228" s="11"/>
-    </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J229" s="11"/>
-    </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J230" s="11"/>
-    </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J231" s="11"/>
-    </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J232" s="11"/>
-    </row>
-    <row r="233" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J233" s="11"/>
-    </row>
-    <row r="234" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J234" s="11"/>
-    </row>
-    <row r="235" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J235" s="11"/>
-    </row>
-    <row r="236" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J236" s="11"/>
-    </row>
-    <row r="237" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J237" s="11"/>
-    </row>
-    <row r="238" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J238" s="11"/>
-    </row>
-    <row r="239" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J239" s="11"/>
-    </row>
-    <row r="240" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J240" s="11"/>
-    </row>
-    <row r="241" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J241" s="11"/>
-    </row>
-    <row r="242" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J242" s="11"/>
-    </row>
-    <row r="243" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J243" s="11"/>
-    </row>
-    <row r="244" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J244" s="11"/>
-    </row>
-    <row r="245" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J245" s="11"/>
-    </row>
-    <row r="246" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J246" s="11"/>
-    </row>
-    <row r="247" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J247" s="11"/>
-    </row>
-    <row r="248" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J248" s="11"/>
-    </row>
-    <row r="249" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J249" s="11"/>
-    </row>
-    <row r="250" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J250" s="11"/>
-    </row>
-    <row r="251" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J251" s="11"/>
-    </row>
-    <row r="252" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J252" s="11"/>
-    </row>
-    <row r="253" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J253" s="11"/>
-    </row>
-    <row r="254" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J254" s="11"/>
-    </row>
-    <row r="255" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J255" s="11"/>
-    </row>
-    <row r="256" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J256" s="11"/>
-    </row>
-    <row r="257" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J257" s="11"/>
-    </row>
-    <row r="258" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J258" s="11"/>
-    </row>
-    <row r="259" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J259" s="11"/>
-    </row>
-    <row r="260" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J260" s="11"/>
-    </row>
-    <row r="261" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J261" s="11"/>
-    </row>
-    <row r="262" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J262" s="11"/>
-    </row>
-    <row r="263" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J263" s="11"/>
-    </row>
-    <row r="264" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J264" s="11"/>
-    </row>
-    <row r="265" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J265" s="11"/>
-    </row>
-    <row r="266" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J266" s="11"/>
-    </row>
-    <row r="267" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J267" s="11"/>
-    </row>
-    <row r="268" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J268" s="11"/>
-    </row>
-    <row r="269" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J269" s="11"/>
-    </row>
-    <row r="270" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J270" s="11"/>
-    </row>
-    <row r="271" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J271" s="11"/>
-    </row>
-    <row r="272" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J272" s="11"/>
-    </row>
-    <row r="273" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J273" s="11"/>
-    </row>
-    <row r="274" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J274" s="11"/>
-    </row>
-    <row r="275" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J275" s="11"/>
-    </row>
-    <row r="276" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J276" s="11"/>
-    </row>
-    <row r="277" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J277" s="11"/>
-    </row>
-    <row r="278" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J278" s="11"/>
-    </row>
-    <row r="279" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J279" s="11"/>
-    </row>
-    <row r="280" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J280" s="11"/>
-    </row>
-    <row r="281" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J281" s="11"/>
-    </row>
-    <row r="282" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J282" s="11"/>
-    </row>
-    <row r="283" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J283" s="11"/>
-    </row>
-    <row r="284" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J284" s="11"/>
-    </row>
-    <row r="285" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J285" s="11"/>
-    </row>
-    <row r="286" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J286" s="11"/>
-    </row>
-    <row r="287" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J287" s="11"/>
-    </row>
-    <row r="288" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J288" s="11"/>
-    </row>
-    <row r="289" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J289" s="11"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="J111" s="20"/>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="J112" s="20"/>
+    </row>
+    <row r="113" spans="10:10">
+      <c r="J113" s="20"/>
+    </row>
+    <row r="114" spans="10:10">
+      <c r="J114" s="20"/>
+    </row>
+    <row r="115" spans="10:10">
+      <c r="J115" s="20"/>
+    </row>
+    <row r="116" spans="10:10">
+      <c r="J116" s="20"/>
+    </row>
+    <row r="117" spans="10:10">
+      <c r="J117" s="20"/>
+    </row>
+    <row r="118" spans="10:10">
+      <c r="J118" s="20"/>
+    </row>
+    <row r="119" spans="10:10">
+      <c r="J119" s="20"/>
+    </row>
+    <row r="120" spans="10:10">
+      <c r="J120" s="20"/>
+    </row>
+    <row r="121" spans="10:10">
+      <c r="J121" s="20"/>
+    </row>
+    <row r="122" spans="10:10">
+      <c r="J122" s="20"/>
+    </row>
+    <row r="123" spans="10:10">
+      <c r="J123" s="20"/>
+    </row>
+    <row r="124" spans="10:10">
+      <c r="J124" s="20"/>
+    </row>
+    <row r="125" spans="10:10">
+      <c r="J125" s="20"/>
+    </row>
+    <row r="126" spans="10:10">
+      <c r="J126" s="20"/>
+    </row>
+    <row r="127" spans="10:10">
+      <c r="J127" s="20"/>
+    </row>
+    <row r="128" spans="10:10">
+      <c r="J128" s="20"/>
+    </row>
+    <row r="129" spans="10:10">
+      <c r="J129" s="20"/>
+    </row>
+    <row r="130" spans="10:10">
+      <c r="J130" s="20"/>
+    </row>
+    <row r="131" spans="10:10">
+      <c r="J131" s="20"/>
+    </row>
+    <row r="132" spans="10:10">
+      <c r="J132" s="20"/>
+    </row>
+    <row r="133" spans="10:10">
+      <c r="J133" s="20"/>
+    </row>
+    <row r="134" spans="10:10">
+      <c r="J134" s="20"/>
+    </row>
+    <row r="135" spans="10:10">
+      <c r="J135" s="20"/>
+    </row>
+    <row r="136" spans="10:10">
+      <c r="J136" s="20"/>
+    </row>
+    <row r="137" spans="10:10">
+      <c r="J137" s="20"/>
+    </row>
+    <row r="138" spans="10:10">
+      <c r="J138" s="20"/>
+    </row>
+    <row r="139" spans="10:10">
+      <c r="J139" s="20"/>
+    </row>
+    <row r="140" spans="10:10">
+      <c r="J140" s="20"/>
+    </row>
+    <row r="141" spans="10:10">
+      <c r="J141" s="20"/>
+    </row>
+    <row r="142" spans="10:10">
+      <c r="J142" s="20"/>
+    </row>
+    <row r="143" spans="10:10">
+      <c r="J143" s="20"/>
+    </row>
+    <row r="144" spans="10:10">
+      <c r="J144" s="20"/>
+    </row>
+    <row r="145" spans="10:10">
+      <c r="J145" s="20"/>
+    </row>
+    <row r="146" spans="10:10">
+      <c r="J146" s="20"/>
+    </row>
+    <row r="147" spans="10:10">
+      <c r="J147" s="20"/>
+    </row>
+    <row r="148" spans="10:10">
+      <c r="J148" s="20"/>
+    </row>
+    <row r="149" spans="10:10">
+      <c r="J149" s="20"/>
+    </row>
+    <row r="150" spans="10:10">
+      <c r="J150" s="20"/>
+    </row>
+    <row r="151" spans="10:10">
+      <c r="J151" s="20"/>
+    </row>
+    <row r="152" spans="10:10">
+      <c r="J152" s="20"/>
+    </row>
+    <row r="153" spans="10:10">
+      <c r="J153" s="20"/>
+    </row>
+    <row r="154" spans="10:10">
+      <c r="J154" s="20"/>
+    </row>
+    <row r="155" spans="10:10">
+      <c r="J155" s="20"/>
+    </row>
+    <row r="156" spans="10:10">
+      <c r="J156" s="20"/>
+    </row>
+    <row r="157" spans="10:10">
+      <c r="J157" s="20"/>
+    </row>
+    <row r="158" spans="10:10">
+      <c r="J158" s="20"/>
+    </row>
+    <row r="159" spans="10:10">
+      <c r="J159" s="20"/>
+    </row>
+    <row r="160" spans="10:10">
+      <c r="J160" s="20"/>
+    </row>
+    <row r="161" spans="10:10">
+      <c r="J161" s="20"/>
+    </row>
+    <row r="162" spans="10:10">
+      <c r="J162" s="20"/>
+    </row>
+    <row r="163" spans="10:10">
+      <c r="J163" s="20"/>
+    </row>
+    <row r="164" spans="10:10">
+      <c r="J164" s="20"/>
+    </row>
+    <row r="165" spans="10:10">
+      <c r="J165" s="20"/>
+    </row>
+    <row r="166" spans="10:10">
+      <c r="J166" s="20"/>
+    </row>
+    <row r="167" spans="10:10">
+      <c r="J167" s="20"/>
+    </row>
+    <row r="168" spans="10:10">
+      <c r="J168" s="20"/>
+    </row>
+    <row r="169" spans="10:10">
+      <c r="J169" s="20"/>
+    </row>
+    <row r="170" spans="10:10">
+      <c r="J170" s="20"/>
+    </row>
+    <row r="171" spans="10:10">
+      <c r="J171" s="20"/>
+    </row>
+    <row r="172" spans="10:10">
+      <c r="J172" s="20"/>
+    </row>
+    <row r="173" spans="10:10">
+      <c r="J173" s="20"/>
+    </row>
+    <row r="174" spans="10:10">
+      <c r="J174" s="20"/>
+    </row>
+    <row r="175" spans="10:10">
+      <c r="J175" s="20"/>
+    </row>
+    <row r="176" spans="10:10">
+      <c r="J176" s="20"/>
+    </row>
+    <row r="177" spans="10:10">
+      <c r="J177" s="20"/>
+    </row>
+    <row r="178" spans="10:10">
+      <c r="J178" s="20"/>
+    </row>
+    <row r="179" spans="10:10">
+      <c r="J179" s="20"/>
+    </row>
+    <row r="180" spans="10:10">
+      <c r="J180" s="20"/>
+    </row>
+    <row r="181" spans="10:10">
+      <c r="J181" s="20"/>
+    </row>
+    <row r="182" spans="10:10">
+      <c r="J182" s="20"/>
+    </row>
+    <row r="183" spans="10:10">
+      <c r="J183" s="20"/>
+    </row>
+    <row r="184" spans="10:10">
+      <c r="J184" s="20"/>
+    </row>
+    <row r="185" spans="10:10">
+      <c r="J185" s="20"/>
+    </row>
+    <row r="186" spans="10:10">
+      <c r="J186" s="20"/>
+    </row>
+    <row r="187" spans="10:10">
+      <c r="J187" s="20"/>
+    </row>
+    <row r="188" spans="10:10">
+      <c r="J188" s="20"/>
+    </row>
+    <row r="189" spans="10:10">
+      <c r="J189" s="20"/>
+    </row>
+    <row r="190" spans="10:10">
+      <c r="J190" s="20"/>
+    </row>
+    <row r="191" spans="10:10">
+      <c r="J191" s="20"/>
+    </row>
+    <row r="192" spans="10:10">
+      <c r="J192" s="20"/>
+    </row>
+    <row r="193" spans="10:10">
+      <c r="J193" s="20"/>
+    </row>
+    <row r="194" spans="10:10">
+      <c r="J194" s="20"/>
+    </row>
+    <row r="195" spans="10:10">
+      <c r="J195" s="20"/>
+    </row>
+    <row r="196" spans="10:10">
+      <c r="J196" s="20"/>
+    </row>
+    <row r="197" spans="10:10">
+      <c r="J197" s="20"/>
+    </row>
+    <row r="198" spans="10:10">
+      <c r="J198" s="20"/>
+    </row>
+    <row r="199" spans="10:10">
+      <c r="J199" s="20"/>
+    </row>
+    <row r="200" spans="10:10">
+      <c r="J200" s="20"/>
+    </row>
+    <row r="201" spans="10:10">
+      <c r="J201" s="20"/>
+    </row>
+    <row r="202" spans="10:10">
+      <c r="J202" s="20"/>
+    </row>
+    <row r="203" spans="10:10">
+      <c r="J203" s="20"/>
+    </row>
+    <row r="204" spans="10:10">
+      <c r="J204" s="20"/>
+    </row>
+    <row r="205" spans="10:10">
+      <c r="J205" s="20"/>
+    </row>
+    <row r="206" spans="10:10">
+      <c r="J206" s="20"/>
+    </row>
+    <row r="207" spans="10:10">
+      <c r="J207" s="20"/>
+    </row>
+    <row r="208" spans="10:10">
+      <c r="J208" s="20"/>
+    </row>
+    <row r="209" spans="10:10">
+      <c r="J209" s="20"/>
+    </row>
+    <row r="210" spans="10:10">
+      <c r="J210" s="20"/>
+    </row>
+    <row r="211" spans="10:10">
+      <c r="J211" s="20"/>
+    </row>
+    <row r="212" spans="10:10">
+      <c r="J212" s="20"/>
+    </row>
+    <row r="213" spans="10:10">
+      <c r="J213" s="20"/>
+    </row>
+    <row r="214" spans="10:10">
+      <c r="J214" s="20"/>
+    </row>
+    <row r="215" spans="10:10">
+      <c r="J215" s="20"/>
+    </row>
+    <row r="216" spans="10:10">
+      <c r="J216" s="20"/>
+    </row>
+    <row r="217" spans="10:10">
+      <c r="J217" s="20"/>
+    </row>
+    <row r="218" spans="10:10">
+      <c r="J218" s="20"/>
+    </row>
+    <row r="219" spans="10:10">
+      <c r="J219" s="20"/>
+    </row>
+    <row r="220" spans="10:10">
+      <c r="J220" s="20"/>
+    </row>
+    <row r="221" spans="10:10">
+      <c r="J221" s="20"/>
+    </row>
+    <row r="222" spans="10:10">
+      <c r="J222" s="20"/>
+    </row>
+    <row r="223" spans="10:10">
+      <c r="J223" s="20"/>
+    </row>
+    <row r="224" spans="10:10">
+      <c r="J224" s="20"/>
+    </row>
+    <row r="225" spans="10:10">
+      <c r="J225" s="20"/>
+    </row>
+    <row r="226" spans="10:10">
+      <c r="J226" s="20"/>
+    </row>
+    <row r="227" spans="10:10">
+      <c r="J227" s="20"/>
+    </row>
+    <row r="228" spans="10:10">
+      <c r="J228" s="20"/>
+    </row>
+    <row r="229" spans="10:10">
+      <c r="J229" s="20"/>
+    </row>
+    <row r="230" spans="10:10">
+      <c r="J230" s="20"/>
+    </row>
+    <row r="231" spans="10:10">
+      <c r="J231" s="20"/>
+    </row>
+    <row r="232" spans="10:10">
+      <c r="J232" s="20"/>
+    </row>
+    <row r="233" spans="10:10">
+      <c r="J233" s="20"/>
+    </row>
+    <row r="234" spans="10:10">
+      <c r="J234" s="20"/>
+    </row>
+    <row r="235" spans="10:10">
+      <c r="J235" s="20"/>
+    </row>
+    <row r="236" spans="10:10">
+      <c r="J236" s="20"/>
+    </row>
+    <row r="237" spans="10:10">
+      <c r="J237" s="20"/>
+    </row>
+    <row r="238" spans="10:10">
+      <c r="J238" s="20"/>
+    </row>
+    <row r="239" spans="10:10">
+      <c r="J239" s="20"/>
+    </row>
+    <row r="240" spans="10:10">
+      <c r="J240" s="20"/>
+    </row>
+    <row r="241" spans="10:10">
+      <c r="J241" s="20"/>
+    </row>
+    <row r="242" spans="10:10">
+      <c r="J242" s="20"/>
+    </row>
+    <row r="243" spans="10:10">
+      <c r="J243" s="20"/>
+    </row>
+    <row r="244" spans="10:10">
+      <c r="J244" s="20"/>
+    </row>
+    <row r="245" spans="10:10">
+      <c r="J245" s="20"/>
+    </row>
+    <row r="246" spans="10:10">
+      <c r="J246" s="20"/>
+    </row>
+    <row r="247" spans="10:10">
+      <c r="J247" s="20"/>
+    </row>
+    <row r="248" spans="10:10">
+      <c r="J248" s="20"/>
+    </row>
+    <row r="249" spans="10:10">
+      <c r="J249" s="20"/>
+    </row>
+    <row r="250" spans="10:10">
+      <c r="J250" s="20"/>
+    </row>
+    <row r="251" spans="10:10">
+      <c r="J251" s="20"/>
+    </row>
+    <row r="252" spans="10:10">
+      <c r="J252" s="20"/>
+    </row>
+    <row r="253" spans="10:10">
+      <c r="J253" s="20"/>
+    </row>
+    <row r="254" spans="10:10">
+      <c r="J254" s="20"/>
+    </row>
+    <row r="255" spans="10:10">
+      <c r="J255" s="20"/>
+    </row>
+    <row r="256" spans="10:10">
+      <c r="J256" s="20"/>
+    </row>
+    <row r="257" spans="10:10">
+      <c r="J257" s="20"/>
+    </row>
+    <row r="258" spans="10:10">
+      <c r="J258" s="20"/>
+    </row>
+    <row r="259" spans="10:10">
+      <c r="J259" s="20"/>
+    </row>
+    <row r="260" spans="10:10">
+      <c r="J260" s="20"/>
+    </row>
+    <row r="261" spans="10:10">
+      <c r="J261" s="20"/>
+    </row>
+    <row r="262" spans="10:10">
+      <c r="J262" s="20"/>
+    </row>
+    <row r="263" spans="10:10">
+      <c r="J263" s="20"/>
+    </row>
+    <row r="264" spans="10:10">
+      <c r="J264" s="20"/>
+    </row>
+    <row r="265" spans="10:10">
+      <c r="J265" s="20"/>
+    </row>
+    <row r="266" spans="10:10">
+      <c r="J266" s="20"/>
+    </row>
+    <row r="267" spans="10:10">
+      <c r="J267" s="20"/>
+    </row>
+    <row r="268" spans="10:10">
+      <c r="J268" s="20"/>
+    </row>
+    <row r="269" spans="10:10">
+      <c r="J269" s="20"/>
+    </row>
+    <row r="270" spans="10:10">
+      <c r="J270" s="20"/>
+    </row>
+    <row r="271" spans="10:10">
+      <c r="J271" s="20"/>
+    </row>
+    <row r="272" spans="10:10">
+      <c r="J272" s="20"/>
+    </row>
+    <row r="273" spans="10:10">
+      <c r="J273" s="20"/>
+    </row>
+    <row r="274" spans="10:10">
+      <c r="J274" s="20"/>
+    </row>
+    <row r="275" spans="10:10">
+      <c r="J275" s="20"/>
+    </row>
+    <row r="276" spans="10:10">
+      <c r="J276" s="20"/>
+    </row>
+    <row r="277" spans="10:10">
+      <c r="J277" s="20"/>
+    </row>
+    <row r="278" spans="10:10">
+      <c r="J278" s="20"/>
+    </row>
+    <row r="279" spans="10:10">
+      <c r="J279" s="20"/>
+    </row>
+    <row r="280" spans="10:10">
+      <c r="J280" s="20"/>
+    </row>
+    <row r="281" spans="10:10">
+      <c r="J281" s="20"/>
+    </row>
+    <row r="282" spans="10:10">
+      <c r="J282" s="20"/>
+    </row>
+    <row r="283" spans="10:10">
+      <c r="J283" s="20"/>
+    </row>
+    <row r="284" spans="10:10">
+      <c r="J284" s="20"/>
+    </row>
+    <row r="285" spans="10:10">
+      <c r="J285" s="20"/>
+    </row>
+    <row r="286" spans="10:10">
+      <c r="J286" s="20"/>
+    </row>
+    <row r="287" spans="10:10">
+      <c r="J287" s="20"/>
+    </row>
+    <row r="288" spans="10:10">
+      <c r="J288" s="20"/>
+    </row>
+    <row r="289" spans="10:10">
+      <c r="J289" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4817,47 +5417,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08EDB66-D816-49B7-B3A7-830E147E6D1C}">
   <dimension ref="C1:AU24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.81640625" customWidth="1"/>
-    <col min="13" max="13" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.85546875" customWidth="1"/>
+    <col min="13" max="13" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:47">
       <c r="C1" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="I1" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="M1" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="N1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="3:47" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="3:47">
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2:D24">TRANSPOSE(Y2:AU3)</f>
         <v>2001</v>
@@ -4866,104 +5466,104 @@
         <v>40029198</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="17">
+        <v>119</v>
+      </c>
+      <c r="G2" s="13">
         <f>19840+19167+13587+11099+8978</f>
         <v>72671</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" s="15">
+      <c r="I2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="11">
         <v>44</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="N2" s="18">
+      <c r="M2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="14">
         <v>75.2</v>
       </c>
       <c r="V2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="X2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Y2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Z2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AA2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AB2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AC2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AD2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AE2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AG2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AH2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AI2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AJ2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AK2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AL2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AM2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AO2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AP2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AQ2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AR2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AS2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AU2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="3:47" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="3:47">
       <c r="C3" t="str">
         <v>2002</v>
       </c>
@@ -4971,32 +5571,32 @@
         <v>40056637</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" s="17">
+        <v>148</v>
+      </c>
+      <c r="G3" s="13">
         <f>20268+22941</f>
         <v>43209</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="I3" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="11">
         <v>35</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="N3" s="18">
+      <c r="M3" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="N3" s="14">
         <v>59.4</v>
       </c>
       <c r="V3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="W3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="X3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Y3">
         <v>40029198</v>
@@ -5068,7 +5668,7 @@
         <v>44368658</v>
       </c>
     </row>
-    <row r="4" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:47">
       <c r="C4" t="str">
         <v>2003</v>
       </c>
@@ -5076,29 +5676,29 @@
         <v>40236914</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" s="17">
+        <v>154</v>
+      </c>
+      <c r="G4" s="13">
         <f>26192+5957</f>
         <v>32149</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="11">
+        <v>32</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="N4" s="14">
+        <v>57.8</v>
+      </c>
+      <c r="V4" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="15">
-        <v>32</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="N4" s="18">
-        <v>57.8</v>
-      </c>
-      <c r="V4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="3:47" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="3:47">
       <c r="C5" t="str">
         <v>2004</v>
       </c>
@@ -5106,26 +5706,26 @@
         <v>40039826</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="17">
+        <v>158</v>
+      </c>
+      <c r="G5" s="13">
         <f>16341+10501</f>
         <v>26842</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J5" s="15">
+      <c r="I5" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="11">
         <v>22</v>
       </c>
-      <c r="M5" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="N5" s="18">
+      <c r="M5" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="N5" s="14">
         <v>53.7</v>
       </c>
     </row>
-    <row r="6" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:47">
       <c r="C6" t="str">
         <v>2005</v>
       </c>
@@ -5133,26 +5733,26 @@
         <v>41239999</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="17">
+        <v>161</v>
+      </c>
+      <c r="G6" s="13">
         <f>15052+6921</f>
         <v>21973</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="I6" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" s="11">
         <v>16</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="N6" s="18">
+      <c r="M6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="N6" s="14">
         <v>51.7</v>
       </c>
     </row>
-    <row r="7" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:47">
       <c r="C7" t="str">
         <v>2006</v>
       </c>
@@ -5160,28 +5760,28 @@
         <v>41693116</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7" s="17">
+        <v>164</v>
+      </c>
+      <c r="G7" s="13">
         <v>14248</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="J7" s="15">
+      <c r="I7" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J7" s="11">
         <v>16</v>
       </c>
-      <c r="M7" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="N7" s="18">
+      <c r="M7" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="N7" s="14">
         <v>49.8</v>
       </c>
-      <c r="O7" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="3:47" x14ac:dyDescent="0.35">
+      <c r="O7" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="3:47">
       <c r="C8" t="str">
         <v>2007</v>
       </c>
@@ -5189,20 +5789,20 @@
         <v>41861246</v>
       </c>
       <c r="F8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="17">
+        <v>168</v>
+      </c>
+      <c r="G8" s="13">
         <f>11578+5989</f>
         <v>17567</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="J8" s="15">
+      <c r="I8" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="J8" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:47">
       <c r="C9" t="str">
         <v>2008</v>
       </c>
@@ -5210,68 +5810,68 @@
         <v>41917490</v>
       </c>
       <c r="F9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G9" s="17">
+        <v>170</v>
+      </c>
+      <c r="G9" s="13">
         <f>6087+6110+8750</f>
         <v>20947</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="J9" s="15">
+      <c r="H9" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="J9" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:47">
       <c r="C10" t="str">
         <v>2009</v>
       </c>
       <c r="D10">
         <v>41978630</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="J10" s="15">
+      <c r="I10" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="J10" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:47">
       <c r="C11" t="str">
         <v>2010</v>
       </c>
       <c r="D11">
         <v>41949335</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="J11" s="15">
+      <c r="I11" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J11" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:47">
       <c r="C12" t="str">
         <v>2011</v>
       </c>
       <c r="D12">
         <v>41729225</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="J12" s="15">
+      <c r="I12" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J12" s="11">
         <v>7</v>
       </c>
-      <c r="K12" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="3:47" x14ac:dyDescent="0.35">
+      <c r="K12" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="3:47">
       <c r="C13" t="str">
         <v>2012</v>
       </c>
@@ -5279,7 +5879,7 @@
         <v>41853628</v>
       </c>
     </row>
-    <row r="14" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:47">
       <c r="C14" t="str">
         <v>2013</v>
       </c>
@@ -5287,7 +5887,7 @@
         <v>42212988</v>
       </c>
     </row>
-    <row r="15" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:47">
       <c r="C15" t="str">
         <v>2014</v>
       </c>
@@ -5295,7 +5895,7 @@
         <v>42458390</v>
       </c>
     </row>
-    <row r="16" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:47">
       <c r="C16" t="str">
         <v>2015</v>
       </c>
@@ -5303,7 +5903,7 @@
         <v>42660629</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:4">
       <c r="C17" t="str">
         <v>2016</v>
       </c>
@@ -5311,7 +5911,7 @@
         <v>43567225</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:4">
       <c r="C18" t="str">
         <v>2017</v>
       </c>
@@ -5319,7 +5919,7 @@
         <v>43819028</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:4">
       <c r="C19" t="str">
         <v>2018</v>
       </c>
@@ -5327,7 +5927,7 @@
         <v>43935038</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:4">
       <c r="C20" t="str">
         <v>2019</v>
       </c>
@@ -5335,7 +5935,7 @@
         <v>44433744</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:4">
       <c r="C21" t="str">
         <v>2020</v>
       </c>
@@ -5343,7 +5943,7 @@
         <v>43501190</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:4">
       <c r="C22" t="str">
         <v>2021</v>
       </c>
@@ -5351,7 +5951,7 @@
         <v>43386527</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:4">
       <c r="C23" t="str">
         <v>2022</v>
       </c>
@@ -5359,7 +5959,7 @@
         <v>44198105</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:4">
       <c r="C24" t="str">
         <v>2023</v>
       </c>
@@ -5386,107 +5986,107 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2009</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -5500,82 +6100,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729D3E50-96CE-5D4F-8758-34102C76EE6A}">
   <dimension ref="B1:S25"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="143" workbookViewId="0">
+    <sheetView zoomScale="143" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="40.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:19">
       <c r="B1" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="H1" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="J1" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="K1" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>118</v>
+        <v>184</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="P1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="R1" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="R1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="S1" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19">
       <c r="C2" s="4">
         <v>36526</v>
       </c>
@@ -5591,7 +6191,7 @@
       <c r="I2" s="5">
         <v>36526</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="7">
         <v>59.34</v>
       </c>
       <c r="L2" s="5">
@@ -5600,22 +6200,22 @@
       <c r="M2" s="7">
         <v>64.034999999999997</v>
       </c>
-      <c r="N2" s="19"/>
+      <c r="N2" s="15"/>
       <c r="O2" s="5">
         <v>36526</v>
       </c>
       <c r="P2">
         <v>69</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20">
+      <c r="Q2" s="15"/>
+      <c r="R2" s="16">
         <v>36526</v>
       </c>
-      <c r="S2" s="19">
+      <c r="S2" s="15">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19">
       <c r="C3" s="4">
         <v>36892</v>
       </c>
@@ -5631,7 +6231,7 @@
       <c r="I3" s="5">
         <v>36892</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="7">
         <v>58.192999999999998</v>
       </c>
       <c r="L3" s="5">
@@ -5640,22 +6240,22 @@
       <c r="M3" s="7">
         <v>61.822000000000003</v>
       </c>
-      <c r="N3" s="19"/>
+      <c r="N3" s="15"/>
       <c r="O3" s="5">
         <v>36892</v>
       </c>
       <c r="P3">
         <v>68</v>
       </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16">
         <v>36892</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="17">
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19">
       <c r="C4" s="4">
         <v>37257</v>
       </c>
@@ -5671,7 +6271,7 @@
       <c r="I4" s="5">
         <v>37257</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="7">
         <v>59.945999999999998</v>
       </c>
       <c r="L4" s="5">
@@ -5680,22 +6280,22 @@
       <c r="M4" s="7">
         <v>59.923999999999999</v>
       </c>
-      <c r="N4" s="19"/>
+      <c r="N4" s="15"/>
       <c r="O4" s="5">
         <v>37257</v>
       </c>
       <c r="P4">
         <v>68</v>
       </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="20">
+      <c r="Q4" s="15"/>
+      <c r="R4" s="16">
         <v>37257</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="17">
         <v>-2.7</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19">
       <c r="C5" s="4">
         <v>37622</v>
       </c>
@@ -5711,7 +6311,7 @@
       <c r="I5" s="5">
         <v>37622</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="7">
         <v>63.537999999999997</v>
       </c>
       <c r="L5" s="5">
@@ -5720,22 +6320,22 @@
       <c r="M5" s="7">
         <v>58.597000000000001</v>
       </c>
-      <c r="N5" s="19"/>
+      <c r="N5" s="15"/>
       <c r="O5" s="5">
         <v>37622</v>
       </c>
       <c r="P5">
         <v>69.3</v>
       </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20">
+      <c r="Q5" s="15"/>
+      <c r="R5" s="16">
         <v>37622</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="17">
         <v>-3.1</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19">
       <c r="C6" s="4">
         <v>37987</v>
       </c>
@@ -5751,7 +6351,7 @@
       <c r="I6" s="5">
         <v>37987</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="7">
         <v>65.200999999999993</v>
       </c>
       <c r="L6" s="5">
@@ -5760,22 +6360,22 @@
       <c r="M6" s="7">
         <v>57.502000000000002</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="15"/>
       <c r="O6" s="5">
         <v>37987</v>
       </c>
       <c r="P6">
         <v>69.599999999999994</v>
       </c>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="20">
+      <c r="Q6" s="15"/>
+      <c r="R6" s="16">
         <v>37987</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="17">
         <v>-2.9</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19">
       <c r="C7" s="4">
         <v>38353</v>
       </c>
@@ -5785,25 +6385,25 @@
       <c r="I7" s="5">
         <v>38353</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="7">
         <v>67.546000000000006</v>
       </c>
-      <c r="N7" s="19"/>
+      <c r="N7" s="15"/>
       <c r="O7" s="5">
         <v>38353</v>
       </c>
       <c r="P7">
         <v>70.3</v>
       </c>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="20">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="16">
         <v>38353</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="17">
         <v>-2.6</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19">
       <c r="C8" s="4">
         <v>38718</v>
       </c>
@@ -5813,25 +6413,25 @@
       <c r="I8" s="5">
         <v>38718</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="7">
         <v>66.887</v>
       </c>
-      <c r="N8" s="19"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="5">
         <v>38718</v>
       </c>
       <c r="P8">
         <v>68.3</v>
       </c>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="20">
+      <c r="Q8" s="15"/>
+      <c r="R8" s="16">
         <v>38718</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="17">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19">
       <c r="C9" s="4">
         <v>39083</v>
       </c>
@@ -5841,25 +6441,25 @@
       <c r="I9" s="5">
         <v>39083</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="7">
         <v>64.158000000000001</v>
       </c>
-      <c r="N9" s="19"/>
+      <c r="N9" s="15"/>
       <c r="O9" s="5">
         <v>39083</v>
       </c>
       <c r="P9">
         <v>65.900000000000006</v>
       </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="20">
+      <c r="Q9" s="15"/>
+      <c r="R9" s="16">
         <v>39083</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="17">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19">
       <c r="C10" s="4">
         <v>39448</v>
       </c>
@@ -5869,25 +6469,25 @@
       <c r="I10" s="5">
         <v>39448</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="7">
         <v>65.682000000000002</v>
       </c>
-      <c r="N10" s="19"/>
+      <c r="N10" s="15"/>
       <c r="O10" s="5">
         <v>39448</v>
       </c>
       <c r="P10">
         <v>69.599999999999994</v>
       </c>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="20">
+      <c r="Q10" s="15"/>
+      <c r="R10" s="16">
         <v>39448</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="17">
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19">
       <c r="C11" s="4">
         <v>39814</v>
       </c>
@@ -5897,25 +6497,25 @@
       <c r="I11" s="5">
         <v>39814</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="7">
         <v>73.156999999999996</v>
       </c>
-      <c r="N11" s="19"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="5">
         <v>39814</v>
       </c>
       <c r="P11">
         <v>80.099999999999994</v>
       </c>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20">
+      <c r="Q11" s="15"/>
+      <c r="R11" s="16">
         <v>39814</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="17">
         <v>-6.2</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19">
       <c r="C12" s="4">
         <v>40179</v>
       </c>
@@ -5925,25 +6525,25 @@
       <c r="I12" s="5">
         <v>40179</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="7">
         <v>81.995000000000005</v>
       </c>
-      <c r="N12" s="19"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="5">
         <v>40179</v>
       </c>
       <c r="P12">
         <v>85.6</v>
       </c>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="20">
+      <c r="Q12" s="15"/>
+      <c r="R12" s="16">
         <v>40179</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="17">
         <v>-6.3</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19">
       <c r="C13" s="4">
         <v>40544</v>
       </c>
@@ -5953,25 +6553,25 @@
       <c r="I13" s="5">
         <v>40544</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="7">
         <v>79.417000000000002</v>
       </c>
-      <c r="N13" s="19"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="5">
         <v>40544</v>
       </c>
       <c r="P13">
         <v>87.5</v>
       </c>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="20">
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16">
         <v>40544</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="17">
         <v>-4.3</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19">
       <c r="C14" s="4">
         <v>40909</v>
       </c>
@@ -5981,25 +6581,25 @@
       <c r="I14" s="5">
         <v>40909</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="7">
         <v>80.745000000000005</v>
       </c>
-      <c r="N14" s="19"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="5">
         <v>40909</v>
       </c>
       <c r="P14">
         <v>91</v>
       </c>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="20">
+      <c r="Q14" s="15"/>
+      <c r="R14" s="16">
         <v>40909</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="17">
         <v>-3.8</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19">
       <c r="C15" s="4">
         <v>41275</v>
       </c>
@@ -6009,25 +6609,25 @@
       <c r="I15" s="5">
         <v>41275</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="7">
         <v>78.322000000000003</v>
       </c>
-      <c r="N15" s="19"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="5">
         <v>41275</v>
       </c>
       <c r="P15">
         <v>93</v>
       </c>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="20">
+      <c r="Q15" s="15"/>
+      <c r="R15" s="16">
         <v>41275</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="17">
         <v>-3.1</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19">
       <c r="C16" s="4">
         <v>41640</v>
       </c>
@@ -6037,25 +6637,25 @@
       <c r="I16" s="5">
         <v>41640</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="7">
         <v>75.278999999999996</v>
       </c>
-      <c r="N16" s="19"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="5">
         <v>41640</v>
       </c>
       <c r="P16">
         <v>93.2</v>
       </c>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="20">
+      <c r="Q16" s="15"/>
+      <c r="R16" s="16">
         <v>41640</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S16" s="17">
         <v>-2.5</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:19">
       <c r="C17" s="4">
         <v>42005</v>
       </c>
@@ -6065,25 +6665,25 @@
       <c r="I17" s="5">
         <v>42005</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="7">
         <v>71.947000000000003</v>
       </c>
-      <c r="N17" s="19"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="5">
         <v>42005</v>
       </c>
       <c r="P17">
         <v>91.3</v>
       </c>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="20">
+      <c r="Q17" s="15"/>
+      <c r="R17" s="16">
         <v>42005</v>
       </c>
-      <c r="S17" s="21">
+      <c r="S17" s="17">
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:19">
       <c r="C18" s="4">
         <v>42370</v>
       </c>
@@ -6093,25 +6693,25 @@
       <c r="I18" s="5">
         <v>42370</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="7">
         <v>68.954999999999998</v>
       </c>
-      <c r="N18" s="19"/>
+      <c r="N18" s="15"/>
       <c r="O18" s="5">
         <v>42370</v>
       </c>
       <c r="P18">
         <v>90.4</v>
       </c>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="20">
+      <c r="Q18" s="15"/>
+      <c r="R18" s="16">
         <v>42370</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18" s="17">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:19">
       <c r="C19" s="4">
         <v>42736</v>
       </c>
@@ -6121,25 +6721,25 @@
       <c r="I19" s="5">
         <v>42736</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="7">
         <v>65.209999999999994</v>
       </c>
-      <c r="N19" s="19"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="5">
         <v>42736</v>
       </c>
       <c r="P19">
         <v>88.1</v>
       </c>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="20">
+      <c r="Q19" s="15"/>
+      <c r="R19" s="16">
         <v>42736</v>
       </c>
-      <c r="S19" s="21">
+      <c r="S19" s="17">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:19">
       <c r="C20" s="4">
         <v>43101</v>
       </c>
@@ -6149,25 +6749,25 @@
       <c r="I20" s="5">
         <v>43101</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="7">
         <v>61.905000000000001</v>
       </c>
-      <c r="N20" s="19"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="5">
         <v>43101</v>
       </c>
       <c r="P20">
         <v>86.1</v>
       </c>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20">
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16">
         <v>43101</v>
       </c>
-      <c r="S20" s="21">
+      <c r="S20" s="17">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:19">
       <c r="C21" s="4">
         <v>43466</v>
       </c>
@@ -6177,25 +6777,25 @@
       <c r="I21" s="5">
         <v>43466</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="7">
         <v>59.548999999999999</v>
       </c>
-      <c r="N21" s="19"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="5">
         <v>43466</v>
       </c>
       <c r="P21">
         <v>84.1</v>
       </c>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="20">
+      <c r="Q21" s="15"/>
+      <c r="R21" s="16">
         <v>43466</v>
       </c>
-      <c r="S21" s="21">
+      <c r="S21" s="17">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:19">
       <c r="C22" s="4">
         <v>43831</v>
       </c>
@@ -6205,25 +6805,25 @@
       <c r="I22" s="5">
         <v>43831</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="7">
         <v>68.745999999999995</v>
       </c>
-      <c r="N22" s="19"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="5">
         <v>43831</v>
       </c>
       <c r="P22">
         <v>97.2</v>
       </c>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="20">
+      <c r="Q22" s="15"/>
+      <c r="R22" s="16">
         <v>43831</v>
       </c>
-      <c r="S22" s="21">
+      <c r="S22" s="17">
         <v>-7.1</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:19">
       <c r="C23" s="4">
         <v>44197</v>
       </c>
@@ -6236,22 +6836,22 @@
       <c r="J23" s="7">
         <v>68.959999999999994</v>
       </c>
-      <c r="N23" s="19"/>
+      <c r="N23" s="15"/>
       <c r="O23" s="5">
         <v>44197</v>
       </c>
       <c r="P23">
         <v>94.7</v>
       </c>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="20">
+      <c r="Q23" s="15"/>
+      <c r="R23" s="16">
         <v>44197</v>
       </c>
-      <c r="S23" s="21">
+      <c r="S23" s="17">
         <v>-5.2</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:19">
       <c r="C24" s="4">
         <v>44562</v>
       </c>
@@ -6264,22 +6864,22 @@
       <c r="J24" s="7">
         <v>66.113</v>
       </c>
-      <c r="N24" s="19"/>
+      <c r="N24" s="15"/>
       <c r="O24" s="5">
         <v>44562</v>
       </c>
       <c r="P24">
         <v>90.9</v>
       </c>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="20">
+      <c r="Q24" s="15"/>
+      <c r="R24" s="16">
         <v>44562</v>
       </c>
-      <c r="S24" s="21">
+      <c r="S24" s="17">
         <v>-3.6</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:19">
       <c r="C25" s="4">
         <v>44927</v>
       </c>
@@ -6292,18 +6892,18 @@
       <c r="J25" s="7">
         <v>63.7</v>
       </c>
-      <c r="N25" s="19"/>
+      <c r="N25" s="15"/>
       <c r="O25" s="5">
         <v>44927</v>
       </c>
       <c r="P25">
         <v>90.2</v>
       </c>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="20">
+      <c r="Q25" s="15"/>
+      <c r="R25" s="16">
         <v>44927</v>
       </c>
-      <c r="S25" s="21">
+      <c r="S25" s="17">
         <v>-3.3</v>
       </c>
     </row>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="514" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE2E34BC-B06D-492F-8878-D22FD683A878}"/>
+  <xr:revisionPtr revIDLastSave="707" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E20CD1D6-3E29-4F25-8EF7-FCA9F04070F6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,9 @@
     <sheet name="Balance of Payments" sheetId="3" r:id="rId3"/>
     <sheet name="Debt " sheetId="2" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nøgletal!$I$2:$I$97</definedName>
   </definedNames>
@@ -83,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="193">
   <si>
     <t>Date</t>
   </si>
@@ -127,7 +130,13 @@
     <t>Real private consumption: https://fred.stlouisfed.org/series/NAEXKP02DEQ657S</t>
   </si>
   <si>
-    <t>Germany energy inflation: https://tradingeconomics.com/germany/energy-inflation</t>
+    <t>Consumer Price Index: OECD Groups: Energy (Fuel, Electricity, and Gasoline): Total for Germany, Change, Growth rate same period previous year, Quarterly, Not Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>Germany Fiscal Expenditure EUR Billion.</t>
+  </si>
+  <si>
+    <t>China annual growth</t>
   </si>
   <si>
     <t> 0,9865 </t>
@@ -728,7 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -758,6 +767,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -774,6 +784,98 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Data"/>
+      <sheetName val="Metadata - Countries"/>
+      <sheetName val="Metadata - Indicators"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="42">
+          <cell r="BS42">
+            <v>8.4900934036516134</v>
+          </cell>
+          <cell r="BT42">
+            <v>8.3357334757762516</v>
+          </cell>
+          <cell r="BU42">
+            <v>9.1336307895446964</v>
+          </cell>
+          <cell r="BV42">
+            <v>10.038030484736964</v>
+          </cell>
+          <cell r="BW42">
+            <v>10.11362137880208</v>
+          </cell>
+          <cell r="BX42">
+            <v>11.394591808688787</v>
+          </cell>
+          <cell r="BY42">
+            <v>12.720955663945105</v>
+          </cell>
+          <cell r="BZ42">
+            <v>14.230860934047087</v>
+          </cell>
+          <cell r="CA42">
+            <v>9.6506789183468982</v>
+          </cell>
+          <cell r="CB42">
+            <v>9.3987256316321037</v>
+          </cell>
+          <cell r="CC42">
+            <v>10.635871065957176</v>
+          </cell>
+          <cell r="CD42">
+            <v>9.5508321788419863</v>
+          </cell>
+          <cell r="CE42">
+            <v>7.8637364484526415</v>
+          </cell>
+          <cell r="CF42">
+            <v>7.7661500973591018</v>
+          </cell>
+          <cell r="CG42">
+            <v>7.4257636559691633</v>
+          </cell>
+          <cell r="CH42">
+            <v>7.0413288794755005</v>
+          </cell>
+          <cell r="CI42">
+            <v>6.8487622044418401</v>
+          </cell>
+          <cell r="CJ42">
+            <v>6.9472007931653366</v>
+          </cell>
+          <cell r="CK42">
+            <v>6.7497738325114796</v>
+          </cell>
+          <cell r="CL42">
+            <v>5.950500754393147</v>
+          </cell>
+          <cell r="CM42">
+            <v>2.2386383567412054</v>
+          </cell>
+          <cell r="CN42">
+            <v>8.4484694162814122</v>
+          </cell>
+          <cell r="CO42">
+            <v>2.9890840860365273</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1109,32 +1211,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P289"/>
+  <dimension ref="A1:W289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
     <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="84.85546875" customWidth="1"/>
     <col min="13" max="13" width="79" customWidth="1"/>
     <col min="14" max="14" width="49.7109375" customWidth="1"/>
     <col min="15" max="15" width="79" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1177,11 +1280,17 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15">
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1207,7 +1316,7 @@
         <v>6.189796E-3</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" s="9">
         <v>74.5</v>
@@ -1215,11 +1324,25 @@
       <c r="L2" s="18">
         <v>4.8</v>
       </c>
+      <c r="M2">
+        <f>$W$2/4</f>
+        <v>2.1225233509129033</v>
+      </c>
       <c r="N2" s="19">
         <v>1.2197499999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15">
+      <c r="P2" s="21">
+        <v>6.1814946225242897</v>
+      </c>
+      <c r="Q2">
+        <v>229.8</v>
+      </c>
+      <c r="W2" s="21" cm="1">
+        <f t="array" ref="W2:W24">TRANSPOSE([1]Data!BS42:CO42)</f>
+        <v>8.4900934036516134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1245,7 +1368,7 @@
         <v>-6.1099225E-2</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J3" s="9">
         <v>77</v>
@@ -1253,11 +1376,24 @@
       <c r="L3" s="18">
         <v>3.7</v>
       </c>
+      <c r="M3">
+        <f>$W$2/4</f>
+        <v>2.1225233509129033</v>
+      </c>
       <c r="N3" s="19">
         <v>0.89029999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15">
+      <c r="P3" s="21">
+        <v>-4.5892814142722997</v>
+      </c>
+      <c r="Q3">
+        <v>225.2</v>
+      </c>
+      <c r="W3" s="21">
+        <v>8.3357334757762516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1283,7 +1419,7 @@
         <v>0.91796691399999997</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J4" s="9">
         <v>78.400000000000006</v>
@@ -1291,11 +1427,24 @@
       <c r="L4" s="18">
         <v>1.8</v>
       </c>
+      <c r="M4">
+        <f>$W$2/4</f>
+        <v>2.1225233509129033</v>
+      </c>
       <c r="N4" s="19">
         <v>0.60801000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15">
+      <c r="P4" s="21">
+        <v>2.0557451765107002</v>
+      </c>
+      <c r="Q4">
+        <v>235.1</v>
+      </c>
+      <c r="W4" s="21">
+        <v>9.1336307895446964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1321,7 +1470,7 @@
         <v>0.82722910999999999</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J5" s="9">
         <v>79.5</v>
@@ -1329,11 +1478,24 @@
       <c r="L5" s="18">
         <v>5.3</v>
       </c>
+      <c r="M5">
+        <f>$W$2/4</f>
+        <v>2.1225233509129033</v>
+      </c>
       <c r="N5" s="19">
         <v>0.63997000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15">
+      <c r="P5" s="21">
+        <v>1.2658025496412</v>
+      </c>
+      <c r="Q5">
+        <v>264.7</v>
+      </c>
+      <c r="W5" s="21">
+        <v>10.038030484736964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1359,7 +1521,7 @@
         <v>-1.7235691150000001</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" s="9">
         <v>79.099999999999994</v>
@@ -1367,11 +1529,24 @@
       <c r="L6" s="18">
         <v>-0.2</v>
       </c>
+      <c r="M6">
+        <f>$W$3/4</f>
+        <v>2.0839333689440629</v>
+      </c>
       <c r="N6" s="19">
         <v>0.96804000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15">
+      <c r="P6" s="21">
+        <v>-4.7227565276399002</v>
+      </c>
+      <c r="Q6">
+        <v>235.5</v>
+      </c>
+      <c r="W6" s="21">
+        <v>10.11362137880208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1397,7 +1572,7 @@
         <v>0.216069645</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J7" s="9">
         <v>79.400000000000006</v>
@@ -1405,11 +1580,24 @@
       <c r="L7" s="18">
         <v>0.4</v>
       </c>
+      <c r="M7">
+        <f>$W$3/4</f>
+        <v>2.0839333689440629</v>
+      </c>
       <c r="N7" s="19">
         <v>0.12275999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15">
+      <c r="P7" s="21">
+        <v>1.5354542486675</v>
+      </c>
+      <c r="Q7">
+        <v>228.7</v>
+      </c>
+      <c r="W7" s="21">
+        <v>11.394591808688787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1435,7 +1623,7 @@
         <v>0.28924004399999997</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J8" s="9">
         <v>78.2</v>
@@ -1443,11 +1631,24 @@
       <c r="L8" s="18">
         <v>-0.2</v>
       </c>
+      <c r="M8">
+        <f>$W$3/4</f>
+        <v>2.0839333689440629</v>
+      </c>
       <c r="N8" s="19">
         <v>0.14927000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15">
+      <c r="P8" s="21">
+        <v>-7.4229427182379801</v>
+      </c>
+      <c r="Q8">
+        <v>239.5</v>
+      </c>
+      <c r="W8" s="21">
+        <v>12.720955663945105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1473,7 +1674,7 @@
         <v>1.0089601180000001</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J9" s="9">
         <v>77.8</v>
@@ -1481,11 +1682,24 @@
       <c r="L9" s="18">
         <v>1.2</v>
       </c>
+      <c r="M9">
+        <f>$W$3/4</f>
+        <v>2.0839333689440629</v>
+      </c>
       <c r="N9" s="19">
         <v>2.7459999999999998E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15">
+      <c r="P9" s="21">
+        <v>-6.3779214568669902</v>
+      </c>
+      <c r="Q9">
+        <v>265.7</v>
+      </c>
+      <c r="W9" s="21">
+        <v>14.230860934047087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1511,7 +1725,7 @@
         <v>2.8872630999999999E-2</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J10" s="9">
         <v>78.599999999999994</v>
@@ -1519,11 +1733,24 @@
       <c r="L10" s="18">
         <v>-0.4</v>
       </c>
+      <c r="M10">
+        <f>$W$4/4</f>
+        <v>2.2834076973861741</v>
+      </c>
       <c r="N10" s="19">
         <v>0.14657999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15">
+      <c r="P10" s="21">
+        <v>1.9084091899192781</v>
+      </c>
+      <c r="Q10">
+        <v>239.7</v>
+      </c>
+      <c r="W10" s="21">
+        <v>9.6506789183468982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1549,7 +1776,7 @@
         <v>-0.35898126600000002</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J11" s="9">
         <v>80.8</v>
@@ -1557,11 +1784,24 @@
       <c r="L11" s="18">
         <v>3.1</v>
       </c>
+      <c r="M11">
+        <f>$W$4/4</f>
+        <v>2.2834076973861741</v>
+      </c>
       <c r="N11" s="19">
         <v>0.52961999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15">
+      <c r="P11" s="21">
+        <v>-0.94708197869315802</v>
+      </c>
+      <c r="Q11">
+        <v>235.6</v>
+      </c>
+      <c r="W11" s="21">
+        <v>9.3987256316321037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1587,7 +1827,7 @@
         <v>0.19652018800000001</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J12" s="9">
         <v>81.2</v>
@@ -1595,11 +1835,24 @@
       <c r="L12" s="18">
         <v>1.7</v>
       </c>
+      <c r="M12">
+        <f>$W$4/4</f>
+        <v>2.2834076973861741</v>
+      </c>
       <c r="N12" s="19">
         <v>0.41843000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15">
+      <c r="P12" s="21">
+        <v>1.3949329848110308</v>
+      </c>
+      <c r="Q12">
+        <v>244.9</v>
+      </c>
+      <c r="W12" s="21">
+        <v>10.635871065957176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1625,7 +1878,7 @@
         <v>0.37363352300000002</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J13" s="9">
         <v>81.599999999999994</v>
@@ -1633,11 +1886,24 @@
       <c r="L13" s="18">
         <v>1.8</v>
       </c>
+      <c r="M13">
+        <f>$W$4/4</f>
+        <v>2.2834076973861741</v>
+      </c>
       <c r="N13" s="19">
         <v>0.16761999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15">
+      <c r="P13" s="21">
+        <v>3.6867064631732194</v>
+      </c>
+      <c r="Q13">
+        <v>266.60000000000002</v>
+      </c>
+      <c r="W13" s="21">
+        <v>9.5508321788419863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1663,7 +1929,7 @@
         <v>1.3128743810000001</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J14" s="9">
         <v>82.8</v>
@@ -1671,11 +1937,24 @@
       <c r="L14" s="18">
         <v>-3</v>
       </c>
+      <c r="M14">
+        <f>$W$5/4</f>
+        <v>2.5095076211842411</v>
+      </c>
       <c r="N14" s="19">
         <v>-0.31728000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15">
+      <c r="P14" s="21">
+        <v>3.9081683618366099</v>
+      </c>
+      <c r="Q14">
+        <v>245.5</v>
+      </c>
+      <c r="W14" s="21">
+        <v>7.8637364484526415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -1701,7 +1980,7 @@
         <v>-0.21871228300000001</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J15" s="9">
         <v>81.900000000000006</v>
@@ -1709,11 +1988,24 @@
       <c r="L15" s="18">
         <v>-0.3</v>
       </c>
+      <c r="M15">
+        <f>$W$5/4</f>
+        <v>2.5095076211842411</v>
+      </c>
       <c r="N15" s="19">
         <v>9.0389999999999998E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15">
+      <c r="P15" s="21">
+        <v>-5.8338371804739397</v>
+      </c>
+      <c r="Q15">
+        <v>239.1</v>
+      </c>
+      <c r="W15" s="21">
+        <v>7.7661500973591018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -1739,7 +2031,7 @@
         <v>5.3757728999999997E-2</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J16" s="9">
         <v>83.5</v>
@@ -1747,11 +2039,24 @@
       <c r="L16" s="18">
         <v>3.1</v>
       </c>
+      <c r="M16">
+        <f>$W$5/4</f>
+        <v>2.5095076211842411</v>
+      </c>
       <c r="N16" s="19">
         <v>0.59260000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="15">
+      <c r="P16" s="21">
+        <v>1.2267159781835399</v>
+      </c>
+      <c r="Q16">
+        <v>252.3</v>
+      </c>
+      <c r="W16" s="21">
+        <v>7.4257636559691633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -1777,7 +2082,7 @@
         <v>-0.36024741999999998</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J17" s="9">
         <v>84.1</v>
@@ -1785,11 +2090,24 @@
       <c r="L17" s="18">
         <v>2.4</v>
       </c>
+      <c r="M17">
+        <f>$W$5/4</f>
+        <v>2.5095076211842411</v>
+      </c>
       <c r="N17" s="19">
         <v>0.68411999999999995</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="15">
+      <c r="P17" s="21">
+        <v>0.22656998449292001</v>
+      </c>
+      <c r="Q17">
+        <v>261.7</v>
+      </c>
+      <c r="W17" s="21">
+        <v>7.0413288794755005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -1815,7 +2133,7 @@
         <v>0.50438195900000005</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J18" s="9">
         <v>85.7</v>
@@ -1823,11 +2141,24 @@
       <c r="L18" s="18">
         <v>4.3</v>
       </c>
+      <c r="M18">
+        <f>$W$6/4</f>
+        <v>2.5284053447005199</v>
+      </c>
       <c r="N18" s="19">
         <v>0.50278999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="15">
+      <c r="P18" s="21">
+        <v>-4.9543735646396998</v>
+      </c>
+      <c r="Q18">
+        <v>248.9</v>
+      </c>
+      <c r="W18" s="21">
+        <v>6.8487622044418401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -1853,7 +2184,7 @@
         <v>-0.56357813199999995</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J19" s="9">
         <v>85.5</v>
@@ -1861,11 +2192,24 @@
       <c r="L19" s="18">
         <v>4.4000000000000004</v>
       </c>
+      <c r="M19">
+        <f>$W$6/4</f>
+        <v>2.5284053447005199</v>
+      </c>
       <c r="N19" s="19">
         <v>0.61407</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="15">
+      <c r="P19" s="21">
+        <v>6.6420683458566199</v>
+      </c>
+      <c r="Q19">
+        <v>235.2</v>
+      </c>
+      <c r="W19" s="21">
+        <v>6.9472007931653366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -1891,7 +2235,7 @@
         <v>0.234477987</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J20" s="9">
         <v>87.4</v>
@@ -1899,11 +2243,24 @@
       <c r="L20" s="18">
         <v>-1.7</v>
       </c>
+      <c r="M20">
+        <f>$W$6/4</f>
+        <v>2.5284053447005199</v>
+      </c>
       <c r="N20" s="19">
         <v>0.24457000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="15">
+      <c r="P20" s="21">
+        <v>1.1403857573081699</v>
+      </c>
+      <c r="Q20">
+        <v>246.9</v>
+      </c>
+      <c r="W20" s="21">
+        <v>6.7497738325114796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -1929,7 +2286,7 @@
         <v>0.13371394</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J21" s="9">
         <v>87.9</v>
@@ -1937,11 +2294,24 @@
       <c r="L21" s="18">
         <v>0.5</v>
       </c>
+      <c r="M21">
+        <f>$W$6/4</f>
+        <v>2.5284053447005199</v>
+      </c>
       <c r="N21" s="19">
         <v>0.36556</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="15">
+      <c r="P21" s="21">
+        <v>0.81331062439773005</v>
+      </c>
+      <c r="Q21">
+        <v>258.3</v>
+      </c>
+      <c r="W21" s="21">
+        <v>5.950500754393147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -1967,7 +2337,7 @@
         <v>0.17811001000000001</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J22" s="9">
         <v>88.8</v>
@@ -1975,11 +2345,24 @@
       <c r="L22" s="18">
         <v>2.5</v>
       </c>
+      <c r="M22">
+        <f>$W$7/4</f>
+        <v>2.8486479521721968</v>
+      </c>
       <c r="N22" s="19">
         <v>0.20891000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="15">
+      <c r="P22" s="21">
+        <v>-0.32101173657914001</v>
+      </c>
+      <c r="Q22">
+        <v>249.9</v>
+      </c>
+      <c r="W22" s="21">
+        <v>2.2386383567412054</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -2005,7 +2388,7 @@
         <v>-0.61401686499999997</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J23" s="9">
         <v>89</v>
@@ -2013,11 +2396,24 @@
       <c r="L23" s="18">
         <v>1.7</v>
       </c>
+      <c r="M23">
+        <f>$W$7/4</f>
+        <v>2.8486479521721968</v>
+      </c>
       <c r="N23" s="19">
         <v>0.61641000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="15">
+      <c r="P23" s="21">
+        <v>1.07670698373311</v>
+      </c>
+      <c r="Q23">
+        <v>240.4</v>
+      </c>
+      <c r="W23" s="21">
+        <v>8.4484694162814122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -2043,7 +2439,7 @@
         <v>-0.82696737799999998</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J24" s="9">
         <v>91.2</v>
@@ -2051,11 +2447,24 @@
       <c r="L24" s="18">
         <v>4.0999999999999996</v>
       </c>
+      <c r="M24">
+        <f>$W$7/4</f>
+        <v>2.8486479521721968</v>
+      </c>
       <c r="N24" s="19">
         <v>0.78203999999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="15">
+      <c r="P24" s="21">
+        <v>4.1584952721005797</v>
+      </c>
+      <c r="Q24">
+        <v>248.8</v>
+      </c>
+      <c r="W24">
+        <v>2.9890840860365273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -2081,7 +2490,7 @@
         <v>-0.18833066800000001</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J25" s="9">
         <v>93.1</v>
@@ -2089,11 +2498,21 @@
       <c r="L25" s="18">
         <v>1.6</v>
       </c>
+      <c r="M25">
+        <f>$W$7/4</f>
+        <v>2.8486479521721968</v>
+      </c>
       <c r="N25" s="19">
         <v>0.61492999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="15">
+      <c r="P25" s="21">
+        <v>0.19959269391539999</v>
+      </c>
+      <c r="Q25">
+        <v>263.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -2119,7 +2538,7 @@
         <v>-0.481418554</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J26" s="9">
         <v>93.1</v>
@@ -2127,11 +2546,21 @@
       <c r="L26" s="18">
         <v>3.3</v>
       </c>
+      <c r="M26">
+        <f>$W$8/4</f>
+        <v>3.1802389159862763</v>
+      </c>
       <c r="N26" s="19">
         <v>0.84846999999999995</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="15">
+      <c r="P26" s="21">
+        <v>1.4107804547811</v>
+      </c>
+      <c r="Q26">
+        <v>254.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -2157,7 +2586,7 @@
         <v>-1.0422138990000001</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J27" s="9">
         <v>93.9</v>
@@ -2165,11 +2594,21 @@
       <c r="L27" s="18">
         <v>3.1</v>
       </c>
+      <c r="M27">
+        <f>$W$8/4</f>
+        <v>3.1802389159862763</v>
+      </c>
       <c r="N27" s="19">
         <v>1.1247499999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="15">
+      <c r="P27" s="21">
+        <v>-1.0735901089874</v>
+      </c>
+      <c r="Q27">
+        <v>235.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -2195,7 +2634,7 @@
         <v>0.32956871700000001</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J28" s="9">
         <v>96.1</v>
@@ -2203,11 +2642,21 @@
       <c r="L28" s="18">
         <v>2.9</v>
       </c>
+      <c r="M28">
+        <f>$W$8/4</f>
+        <v>3.1802389159862763</v>
+      </c>
       <c r="N28" s="19">
         <v>0.62170000000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="15">
+      <c r="P28" s="21">
+        <v>-6.0253413761733103</v>
+      </c>
+      <c r="Q28">
+        <v>249.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -2233,7 +2682,7 @@
         <v>-1.249074837</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J29" s="9">
         <v>97</v>
@@ -2241,11 +2690,21 @@
       <c r="L29" s="18">
         <v>5.8</v>
       </c>
+      <c r="M29">
+        <f>$W$8/4</f>
+        <v>3.1802389159862763</v>
+      </c>
       <c r="N29" s="19">
         <v>1.15168</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="15">
+      <c r="P29" s="21">
+        <v>-4.0850940130239399</v>
+      </c>
+      <c r="Q29">
+        <v>263.60000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -2271,7 +2730,7 @@
         <v>0.71465696199999995</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J30" s="9">
         <v>98.7</v>
@@ -2279,11 +2738,21 @@
       <c r="L30" s="18">
         <v>-0.7</v>
       </c>
+      <c r="M30">
+        <f>$W$9/4</f>
+        <v>3.5577152335117717</v>
+      </c>
       <c r="N30" s="19">
         <v>0.59160000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="15">
+      <c r="P30" s="21">
+        <v>0.36741861530279002</v>
+      </c>
+      <c r="Q30">
+        <v>256.89999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -2309,7 +2778,7 @@
         <v>-0.16857691</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J31" s="9">
         <v>99.6</v>
@@ -2317,11 +2786,21 @@
       <c r="L31" s="18">
         <v>2.5</v>
       </c>
+      <c r="M31">
+        <f>$W$9/4</f>
+        <v>3.5577152335117717</v>
+      </c>
       <c r="N31" s="19">
         <v>0.72494999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="15">
+      <c r="P31" s="21">
+        <v>-0.58218519160991</v>
+      </c>
+      <c r="Q31">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -2347,7 +2826,7 @@
         <v>0.13418472100000001</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J32" s="9">
         <v>100.4</v>
@@ -2355,11 +2834,21 @@
       <c r="L32" s="18">
         <v>2</v>
       </c>
+      <c r="M32">
+        <f>$W$9/4</f>
+        <v>3.5577152335117717</v>
+      </c>
       <c r="N32" s="19">
         <v>0.44184000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="15">
+      <c r="P32" s="21">
+        <v>0.88133307596952004</v>
+      </c>
+      <c r="Q32">
+        <v>252.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -2385,7 +2874,7 @@
         <v>0.182158871</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J33" s="9">
         <v>101.4</v>
@@ -2393,11 +2882,21 @@
       <c r="L33" s="18">
         <v>1</v>
       </c>
+      <c r="M33">
+        <f>$W$9/4</f>
+        <v>3.5577152335117717</v>
+      </c>
       <c r="N33" s="19">
         <v>0.52381999999999995</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="15">
+      <c r="P33" s="21">
+        <v>5.5572709435479997</v>
+      </c>
+      <c r="Q33">
+        <v>267.39999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -2423,7 +2922,7 @@
         <v>0.71565135300000005</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J34" s="9">
         <v>102.8</v>
@@ -2431,11 +2930,21 @@
       <c r="L34" s="18">
         <v>1</v>
       </c>
+      <c r="M34">
+        <f>$W$10/4</f>
+        <v>2.4126697295867245</v>
+      </c>
       <c r="N34" s="19">
         <v>0.50556999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="15">
+      <c r="P34" s="21">
+        <v>0.94073832395516999</v>
+      </c>
+      <c r="Q34">
+        <v>260.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -2461,7 +2970,7 @@
         <v>1.113549911</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J35" s="9">
         <v>100.9</v>
@@ -2469,11 +2978,21 @@
       <c r="L35" s="18">
         <v>-0.3</v>
       </c>
+      <c r="M35">
+        <f>$W$10/4</f>
+        <v>2.4126697295867245</v>
+      </c>
       <c r="N35" s="19">
         <v>-0.36049999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="15">
+      <c r="P35" s="21">
+        <v>2.79541019669468</v>
+      </c>
+      <c r="Q35">
+        <v>247.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -2499,7 +3018,7 @@
         <v>1.2781141380000001</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J36" s="9">
         <v>99.4</v>
@@ -2507,11 +3026,21 @@
       <c r="L36" s="18">
         <v>-0.8</v>
       </c>
+      <c r="M36">
+        <f>$W$10/4</f>
+        <v>2.4126697295867245</v>
+      </c>
       <c r="N36" s="19">
         <v>-0.49652000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="15">
+      <c r="P36" s="21">
+        <v>1.0549162120186</v>
+      </c>
+      <c r="Q36">
+        <v>262.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -2537,7 +3066,7 @@
         <v>2.4862323260000001</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J37" s="9">
         <v>96.4</v>
@@ -2545,11 +3074,21 @@
       <c r="L37" s="18">
         <v>-5.6</v>
       </c>
+      <c r="M37">
+        <f>$W$10/4</f>
+        <v>2.4126697295867245</v>
+      </c>
       <c r="N37" s="19">
         <v>-1.81406</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="15">
+      <c r="P37" s="21">
+        <v>-10.10973028203553</v>
+      </c>
+      <c r="Q37">
+        <v>290.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -2575,7 +3114,7 @@
         <v>4.01263799</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J38" s="9">
         <v>87.7</v>
@@ -2583,11 +3122,21 @@
       <c r="L38" s="18">
         <v>-11.6</v>
       </c>
+      <c r="M38">
+        <f>$W$11/4</f>
+        <v>2.3496814079080259</v>
+      </c>
       <c r="N38" s="19">
         <v>-3.0974200000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="15">
+      <c r="P38" s="21">
+        <v>-5.5068092464503096</v>
+      </c>
+      <c r="Q38">
+        <v>274.10000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -2613,7 +3162,7 @@
         <v>-0.44995182900000003</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J39" s="9">
         <v>85.9</v>
@@ -2621,11 +3170,21 @@
       <c r="L39" s="18">
         <v>-0.8</v>
       </c>
+      <c r="M39">
+        <f>$W$11/4</f>
+        <v>2.3496814079080259</v>
+      </c>
       <c r="N39" s="19">
         <v>-4.1099999999999998E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="15">
+      <c r="P39" s="21">
+        <v>-4.3165296520390903</v>
+      </c>
+      <c r="Q39">
+        <v>271.39999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -2651,7 +3210,7 @@
         <v>0.103046163</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J40" s="9">
         <v>89.8</v>
@@ -2659,11 +3218,21 @@
       <c r="L40" s="18">
         <v>3.3</v>
       </c>
+      <c r="M40">
+        <f>$W$11/4</f>
+        <v>2.3496814079080259</v>
+      </c>
       <c r="N40" s="19">
         <v>0.39282</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="15">
+      <c r="P40" s="21">
+        <v>-1.9122745523746201</v>
+      </c>
+      <c r="Q40">
+        <v>278.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -2689,7 +3258,7 @@
         <v>-0.34085805600000002</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J41" s="9">
         <v>91.8</v>
@@ -2697,11 +3266,21 @@
       <c r="L41" s="18">
         <v>2.9</v>
       </c>
+      <c r="M41">
+        <f>$W$11/4</f>
+        <v>2.3496814079080259</v>
+      </c>
       <c r="N41" s="19">
         <v>0.47273999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="15">
+      <c r="P41" s="21">
+        <v>6.55013547204471</v>
+      </c>
+      <c r="Q41">
+        <v>298.60000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -2727,7 +3306,7 @@
         <v>0.205584079</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J42" s="9">
         <v>92.9</v>
@@ -2735,11 +3314,21 @@
       <c r="L42" s="18">
         <v>3.1</v>
       </c>
+      <c r="M42">
+        <f>$W$12/4</f>
+        <v>2.6589677664892939</v>
+      </c>
       <c r="N42" s="19">
         <v>0.39011000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="15">
+      <c r="P42" s="21">
+        <v>4.5804750872754498</v>
+      </c>
+      <c r="Q42">
+        <v>278.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -2765,7 +3354,7 @@
         <v>-1.4406707940000001</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J43" s="9">
         <v>95.1</v>
@@ -2773,11 +3362,21 @@
       <c r="L43" s="18">
         <v>7.1</v>
       </c>
+      <c r="M43">
+        <f>$W$12/4</f>
+        <v>2.6589677664892939</v>
+      </c>
       <c r="N43" s="19">
         <v>0.96823999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="15">
+      <c r="P43" s="21">
+        <v>2.0290912924017199</v>
+      </c>
+      <c r="Q43">
+        <v>271.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -2803,7 +3402,7 @@
         <v>0.21948596400000001</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J44" s="9">
         <v>98</v>
@@ -2811,11 +3410,21 @@
       <c r="L44" s="18">
         <v>1.6</v>
       </c>
+      <c r="M44">
+        <f>$W$12/4</f>
+        <v>2.6589677664892939</v>
+      </c>
       <c r="N44" s="19">
         <v>0.44367000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="15">
+      <c r="P44" s="21">
+        <v>-0.65295913432608998</v>
+      </c>
+      <c r="Q44">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -2841,7 +3450,7 @@
         <v>0.115391919</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J45" s="9">
         <v>100.7</v>
@@ -2849,11 +3458,21 @@
       <c r="L45" s="18">
         <v>2.1</v>
       </c>
+      <c r="M45">
+        <f>$W$12/4</f>
+        <v>2.6589677664892939</v>
+      </c>
       <c r="N45" s="19">
         <v>0.60096000000000005</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="15">
+      <c r="P45" s="21">
+        <v>2.1319788543718299</v>
+      </c>
+      <c r="Q45">
+        <v>304.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -2879,7 +3498,7 @@
         <v>-0.485703406</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J46" s="9">
         <v>100.7</v>
@@ -2887,11 +3506,21 @@
       <c r="L46" s="18">
         <v>2.7</v>
       </c>
+      <c r="M46">
+        <f>$W$13/4</f>
+        <v>2.3877080447104966</v>
+      </c>
       <c r="N46" s="19">
         <v>0.85902999999999996</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="15">
+      <c r="P46" s="21">
+        <v>3.7068959120674898</v>
+      </c>
+      <c r="Q46">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -2917,7 +3546,7 @@
         <v>1.0073198729999999</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J47" s="9">
         <v>101.6</v>
@@ -2925,11 +3554,21 @@
       <c r="L47" s="18">
         <v>1.5</v>
       </c>
+      <c r="M47">
+        <f>$W$13/4</f>
+        <v>2.3877080447104966</v>
+      </c>
       <c r="N47" s="19">
         <v>5.1900000000000002E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="15">
+      <c r="P47" s="21">
+        <v>-0.14483053973852</v>
+      </c>
+      <c r="Q47">
+        <v>271.39999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -2955,7 +3594,7 @@
         <v>-0.273985272</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J48" s="9">
         <v>103.3</v>
@@ -2963,11 +3602,21 @@
       <c r="L48" s="18">
         <v>1.1000000000000001</v>
       </c>
+      <c r="M48">
+        <f>$W$13/4</f>
+        <v>2.3877080447104966</v>
+      </c>
       <c r="N48" s="19">
         <v>0.13838</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="15">
+      <c r="P48" s="21">
+        <v>1.06489367339286</v>
+      </c>
+      <c r="Q48">
+        <v>288.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -2993,7 +3642,7 @@
         <v>1.040173692</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J49" s="9">
         <v>101.1</v>
@@ -3001,11 +3650,21 @@
       <c r="L49" s="18">
         <v>-0.4</v>
       </c>
+      <c r="M49">
+        <f>$W$13/4</f>
+        <v>2.3877080447104966</v>
+      </c>
       <c r="N49" s="19">
         <v>-0.40859000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="15">
+      <c r="P49" s="21">
+        <v>-0.55039821830610003</v>
+      </c>
+      <c r="Q49">
+        <v>300.10000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="15">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -3031,7 +3690,7 @@
         <v>1.0338263190000001</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J50" s="9">
         <v>99.9</v>
@@ -3039,11 +3698,21 @@
       <c r="L50" s="18">
         <v>2.1</v>
       </c>
+      <c r="M50">
+        <f>$W$14/4</f>
+        <v>1.9659341121131604</v>
+      </c>
       <c r="N50" s="19">
         <v>-0.24351</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="15">
+      <c r="P50" s="21">
+        <v>-2.7632857326917399</v>
+      </c>
+      <c r="Q50">
+        <v>293.10000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -3069,7 +3738,7 @@
         <v>1.075717472</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J51" s="9">
         <v>99.9</v>
@@ -3077,11 +3746,21 @@
       <c r="L51" s="18">
         <v>0.9</v>
       </c>
+      <c r="M51">
+        <f>$W$14/4</f>
+        <v>1.9659341121131604</v>
+      </c>
       <c r="N51" s="19">
         <v>-0.22869</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="15">
+      <c r="P51" s="21">
+        <v>-2.4222553581170398</v>
+      </c>
+      <c r="Q51">
+        <v>282.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -3107,7 +3786,7 @@
         <v>0.25398210599999999</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J52" s="9">
         <v>100.2</v>
@@ -3115,11 +3794,21 @@
       <c r="L52" s="18">
         <v>1.2</v>
       </c>
+      <c r="M52">
+        <f>$W$14/4</f>
+        <v>1.9659341121131604</v>
+      </c>
       <c r="N52" s="19">
         <v>-0.11108999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="15">
+      <c r="P52" s="21">
+        <v>1.3851786977531899</v>
+      </c>
+      <c r="Q52">
+        <v>286.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="15">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -3145,7 +3834,7 @@
         <v>1.145063817</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J53" s="9">
         <v>98.3</v>
@@ -3153,11 +3842,21 @@
       <c r="L53" s="18">
         <v>-1.7</v>
       </c>
+      <c r="M53">
+        <f>$W$14/4</f>
+        <v>1.9659341121131604</v>
+      </c>
       <c r="N53" s="19">
         <v>-0.45374999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="15">
+      <c r="P53" s="21">
+        <v>-2.0513598337387799</v>
+      </c>
+      <c r="Q53">
+        <v>316.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -3183,7 +3882,7 @@
         <v>0.77873195699999997</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J54" s="9">
         <v>97.2</v>
@@ -3191,11 +3890,21 @@
       <c r="L54" s="18">
         <v>-0.1</v>
       </c>
+      <c r="M54">
+        <f>$W$15/4</f>
+        <v>1.9415375243397754</v>
+      </c>
       <c r="N54" s="19">
         <v>-0.35360999999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="15">
+      <c r="P54" s="21">
+        <v>-1.6960241074946001</v>
+      </c>
+      <c r="Q54">
+        <v>294.89999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="15">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -3221,7 +3930,7 @@
         <v>-0.20622728300000001</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J55" s="9">
         <v>98.2</v>
@@ -3229,11 +3938,21 @@
       <c r="L55" s="18">
         <v>0.5</v>
       </c>
+      <c r="M55">
+        <f>$W$15/4</f>
+        <v>1.9415375243397754</v>
+      </c>
       <c r="N55" s="19">
         <v>0.55430000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="15">
+      <c r="P55" s="21">
+        <v>-1.0139256541217301</v>
+      </c>
+      <c r="Q55">
+        <v>292.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="15">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -3259,7 +3978,7 @@
         <v>0.33452826099999999</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J56" s="9">
         <v>98.5</v>
@@ -3267,11 +3986,21 @@
       <c r="L56" s="18">
         <v>1.8</v>
       </c>
+      <c r="M56">
+        <f>$W$15/4</f>
+        <v>1.9415375243397754</v>
+      </c>
       <c r="N56" s="19">
         <v>0.30076999999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="15">
+      <c r="P56" s="21">
+        <v>-0.56297522033235003</v>
+      </c>
+      <c r="Q56">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="15">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -3297,7 +4026,7 @@
         <v>0.43758760899999999</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J57" s="9">
         <v>99.7</v>
@@ -3305,11 +4034,21 @@
       <c r="L57" s="18">
         <v>1.7</v>
       </c>
+      <c r="M57">
+        <f>$W$15/4</f>
+        <v>1.9415375243397754</v>
+      </c>
       <c r="N57" s="19">
         <v>0.30018</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="15">
+      <c r="P57" s="21">
+        <v>-0.97062165647419929</v>
+      </c>
+      <c r="Q57">
+        <v>316.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="15">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -3335,7 +4074,7 @@
         <v>0.42331946100000001</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J58" s="9">
         <v>100.2</v>
@@ -3343,11 +4082,21 @@
       <c r="L58" s="18">
         <v>0.2</v>
       </c>
+      <c r="M58">
+        <f>$W$16/4</f>
+        <v>1.8564409139922908</v>
+      </c>
       <c r="N58" s="19">
         <v>0.39834000000000003</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="15">
+      <c r="P58" s="21">
+        <v>-2.1286509942533809</v>
+      </c>
+      <c r="Q58">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="15">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -3373,7 +4122,7 @@
         <v>0.67863599299999999</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J59" s="9">
         <v>100.9</v>
@@ -3381,11 +4130,21 @@
       <c r="L59" s="18">
         <v>0.9</v>
       </c>
+      <c r="M59">
+        <f>$W$16/4</f>
+        <v>1.8564409139922908</v>
+      </c>
       <c r="N59" s="19">
         <v>0.21203</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="15">
+      <c r="P59" s="21">
+        <v>1.2188103207842691</v>
+      </c>
+      <c r="Q59">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -3411,7 +4170,7 @@
         <v>0.33743779200000001</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J60" s="9">
         <v>100.4</v>
@@ -3419,11 +4178,21 @@
       <c r="L60" s="18">
         <v>2</v>
       </c>
+      <c r="M60">
+        <f>$W$16/4</f>
+        <v>1.8564409139922908</v>
+      </c>
       <c r="N60" s="19">
         <v>0.46937000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="15">
+      <c r="P60" s="21">
+        <v>-1.027837753629449</v>
+      </c>
+      <c r="Q60">
+        <v>305.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="15">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -3449,7 +4218,7 @@
         <v>-5.1236979000000002E-2</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J61" s="9">
         <v>99.6</v>
@@ -3457,11 +4226,21 @@
       <c r="L61" s="18">
         <v>1.8</v>
       </c>
+      <c r="M61">
+        <f>$W$16/4</f>
+        <v>1.8564409139922908</v>
+      </c>
       <c r="N61" s="19">
         <v>0.35433999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="15">
+      <c r="P61" s="21">
+        <v>-1.9701090788438</v>
+      </c>
+      <c r="Q61">
+        <v>327.60000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="15">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -3487,7 +4266,7 @@
         <v>1.4017342260000001</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J62" s="9">
         <v>99.3</v>
@@ -3495,11 +4274,21 @@
       <c r="L62" s="18">
         <v>0.9</v>
       </c>
+      <c r="M62">
+        <f>$W$17/4</f>
+        <v>1.7603322198688751</v>
+      </c>
       <c r="N62" s="19">
         <v>0.63656999999999997</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="15">
+      <c r="P62" s="21">
+        <v>-3.7741022088656102</v>
+      </c>
+      <c r="Q62">
+        <v>315.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="15">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -3525,7 +4314,7 @@
         <v>0.61928616199999997</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J63" s="9">
         <v>100.3</v>
@@ -3533,11 +4322,21 @@
       <c r="L63" s="18">
         <v>1.9</v>
       </c>
+      <c r="M63">
+        <f>$W$17/4</f>
+        <v>1.7603322198688751</v>
+      </c>
       <c r="N63" s="19">
         <v>0.47854000000000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="15">
+      <c r="P63" s="21">
+        <v>1.6784047388933101</v>
+      </c>
+      <c r="Q63">
+        <v>301.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="15">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -3563,7 +4362,7 @@
         <v>0.34922859699999997</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J64" s="9">
         <v>100.8</v>
@@ -3571,11 +4370,21 @@
       <c r="L64" s="18">
         <v>0.1</v>
       </c>
+      <c r="M64">
+        <f>$W$17/4</f>
+        <v>1.7603322198688751</v>
+      </c>
       <c r="N64" s="19">
         <v>0.37979000000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="15">
+      <c r="P64" s="21">
+        <v>-1.9865240500791499</v>
+      </c>
+      <c r="Q64">
+        <v>315.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="15">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -3601,7 +4410,7 @@
         <v>0.48434283</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J65" s="9">
         <v>100</v>
@@ -3609,11 +4418,21 @@
       <c r="L65" s="18">
         <v>-0.5</v>
       </c>
+      <c r="M65">
+        <f>$W$17/4</f>
+        <v>1.7603322198688751</v>
+      </c>
       <c r="N65" s="19">
         <v>0.46306000000000003</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="15">
+      <c r="P65" s="21">
+        <v>0.22794261530882001</v>
+      </c>
+      <c r="Q65">
+        <v>338.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="15">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -3639,7 +4458,7 @@
         <v>-1.1341777000000001E-2</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J66" s="9">
         <v>100.2</v>
@@ -3647,11 +4466,21 @@
       <c r="L66" s="18">
         <v>1.2</v>
       </c>
+      <c r="M66">
+        <f>$W$18/4</f>
+        <v>1.71219055111046</v>
+      </c>
       <c r="N66" s="19">
         <v>0.57313000000000003</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="15">
+      <c r="P66" s="21">
+        <v>0.33956075174650002</v>
+      </c>
+      <c r="Q66">
+        <v>325.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="15">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -3677,7 +4506,7 @@
         <v>0.21672678200000001</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J67" s="9">
         <v>100</v>
@@ -3685,11 +4514,21 @@
       <c r="L67" s="18">
         <v>1.2</v>
       </c>
+      <c r="M67">
+        <f>$W$18/4</f>
+        <v>1.71219055111046</v>
+      </c>
       <c r="N67" s="19">
         <v>0.22178</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="15">
+      <c r="P67" s="21">
+        <v>-6.6427148916800002E-2</v>
+      </c>
+      <c r="Q67">
+        <v>314.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="15">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -3715,7 +4554,7 @@
         <v>0.72955927700000001</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J68" s="9">
         <v>99.2</v>
@@ -3723,11 +4562,21 @@
       <c r="L68" s="18">
         <v>-0.1</v>
       </c>
+      <c r="M68">
+        <f>$W$18/4</f>
+        <v>1.71219055111046</v>
+      </c>
       <c r="N68" s="19">
         <v>0.47817999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="15">
+      <c r="P68" s="21">
+        <v>1.91977487274632</v>
+      </c>
+      <c r="Q68">
+        <v>333.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="15">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -3753,7 +4602,7 @@
         <v>0.75536793800000002</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J69" s="9">
         <v>101.1</v>
@@ -3761,11 +4610,21 @@
       <c r="L69" s="18">
         <v>0.6</v>
       </c>
+      <c r="M69">
+        <f>$W$18/4</f>
+        <v>1.71219055111046</v>
+      </c>
       <c r="N69" s="19">
         <v>0.78015999999999996</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="15">
+      <c r="P69" s="21">
+        <v>4.7208648124989621</v>
+      </c>
+      <c r="Q69">
+        <v>358.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="15">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -3791,7 +4650,7 @@
         <v>-0.225438633</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J70" s="9">
         <v>101.4</v>
@@ -3799,11 +4658,21 @@
       <c r="L70" s="18">
         <v>2.6</v>
       </c>
+      <c r="M70">
+        <f>$W$19/4</f>
+        <v>1.7368001982913341</v>
+      </c>
       <c r="N70" s="19">
         <v>0.69562000000000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="15">
+      <c r="P70" s="21">
+        <v>6.0890419589796583</v>
+      </c>
+      <c r="Q70">
+        <v>326.39999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="15">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -3829,7 +4698,7 @@
         <v>9.5723476000000002E-2</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J71" s="9">
         <v>102.3</v>
@@ -3837,11 +4706,21 @@
       <c r="L71" s="18">
         <v>1.7</v>
       </c>
+      <c r="M71">
+        <f>$W$19/4</f>
+        <v>1.7368001982913341</v>
+      </c>
       <c r="N71" s="19">
         <v>0.79635</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="15">
+      <c r="P71" s="21">
+        <v>-3.40669355065251</v>
+      </c>
+      <c r="Q71">
+        <v>332.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="15">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -3867,7 +4746,7 @@
         <v>0.17080437100000001</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J72" s="9">
         <v>102</v>
@@ -3875,11 +4754,21 @@
       <c r="L72" s="18">
         <v>1.2</v>
       </c>
+      <c r="M72">
+        <f>$W$19/4</f>
+        <v>1.7368001982913341</v>
+      </c>
       <c r="N72" s="19">
         <v>0.74746000000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="15">
+      <c r="P72" s="21">
+        <v>-0.31706445333054001</v>
+      </c>
+      <c r="Q72">
+        <v>343.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="15">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -3905,7 +4794,7 @@
         <v>0.300921771</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J73" s="9">
         <v>102.3</v>
@@ -3913,11 +4802,21 @@
       <c r="L73" s="18">
         <v>1.1000000000000001</v>
       </c>
+      <c r="M73">
+        <f>$W$19/4</f>
+        <v>1.7368001982913341</v>
+      </c>
       <c r="N73" s="19">
         <v>0.79752999999999996</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="15">
+      <c r="P73" s="21">
+        <v>0.1557393708772</v>
+      </c>
+      <c r="Q73">
+        <v>373.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="15">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -3943,7 +4842,7 @@
         <v>1.696573431</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J74" s="9">
         <v>103.5</v>
@@ -3951,11 +4850,21 @@
       <c r="L74" s="18">
         <v>0.8</v>
       </c>
+      <c r="M74">
+        <f>$W$20/4</f>
+        <v>1.6874434581278699</v>
+      </c>
       <c r="N74" s="19">
         <v>-3.4000000000000002E-4</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="15">
+      <c r="P74" s="21">
+        <v>-1.3359061678837321</v>
+      </c>
+      <c r="Q74">
+        <v>341.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="15">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -3981,7 +4890,7 @@
         <v>0.307884873</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9">
         <v>102.6</v>
@@ -3989,11 +4898,21 @@
       <c r="L75" s="18">
         <v>0.3</v>
       </c>
+      <c r="M75">
+        <f>$W$20/4</f>
+        <v>1.6874434581278699</v>
+      </c>
       <c r="N75" s="19">
         <v>0.55849000000000004</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="15">
+      <c r="P75" s="21">
+        <v>3.5229242764519122</v>
+      </c>
+      <c r="Q75">
+        <v>337.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="15">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -4019,7 +4938,7 @@
         <v>2.071250934</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J76" s="9">
         <v>101.3</v>
@@ -4027,11 +4946,21 @@
       <c r="L76" s="18">
         <v>-0.9</v>
       </c>
+      <c r="M76">
+        <f>$W$20/4</f>
+        <v>1.6874434581278699</v>
+      </c>
       <c r="N76" s="19">
         <v>-2.4459999999999999E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="15">
+      <c r="P76" s="21">
+        <v>2.7414166084687399</v>
+      </c>
+      <c r="Q76">
+        <v>355.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="15">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -4057,7 +4986,7 @@
         <v>-0.10087025299999999</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J77" s="9">
         <v>100.5</v>
@@ -4065,11 +4994,21 @@
       <c r="L77" s="18">
         <v>-0.1</v>
       </c>
+      <c r="M77">
+        <f>$W$20/4</f>
+        <v>1.6874434581278699</v>
+      </c>
       <c r="N77" s="19">
         <v>0.68808000000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="15">
+      <c r="P77" s="21">
+        <v>0.64463924002540995</v>
+      </c>
+      <c r="Q77">
+        <v>396.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="15">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -4095,7 +5034,7 @@
         <v>0.859144515</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J78" s="9">
         <v>99.7</v>
@@ -4103,11 +5042,21 @@
       <c r="L78" s="18">
         <v>3.7</v>
       </c>
+      <c r="M78">
+        <f>$W$21/4</f>
+        <v>1.4876251885982867</v>
+      </c>
       <c r="N78" s="19">
         <v>0.59633000000000003</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="15">
+      <c r="P78" s="21">
+        <v>-4.0908053794580796</v>
+      </c>
+      <c r="Q78">
+        <v>364.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="15">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -4133,7 +5082,7 @@
         <v>1.2532962050000001</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J79" s="9">
         <v>99.9</v>
@@ -4141,11 +5090,21 @@
       <c r="L79" s="18">
         <v>-1.5</v>
       </c>
+      <c r="M79">
+        <f>$W$21/4</f>
+        <v>1.4876251885982867</v>
+      </c>
       <c r="N79" s="19">
         <v>0.35109000000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="15">
+      <c r="P79" s="21">
+        <v>0.49104950760075</v>
+      </c>
+      <c r="Q79">
+        <v>374.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="15">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -4171,7 +5130,7 @@
         <v>0.96502109999999997</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J80" s="9">
         <v>99.9</v>
@@ -4179,11 +5138,21 @@
       <c r="L80" s="18">
         <v>0.9</v>
       </c>
+      <c r="M80">
+        <f>$W$21/4</f>
+        <v>1.4876251885982867</v>
+      </c>
       <c r="N80" s="19">
         <v>0.16294</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="15">
+      <c r="P80" s="21">
+        <v>-3.0442562017970989</v>
+      </c>
+      <c r="Q80">
+        <v>376.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="15">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -4209,7 +5178,7 @@
         <v>-0.444042086</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J81" s="9">
         <v>99.2</v>
@@ -4217,11 +5186,21 @@
       <c r="L81" s="18">
         <v>-1.1000000000000001</v>
       </c>
+      <c r="M81">
+        <f>$W$21/4</f>
+        <v>1.4876251885982867</v>
+      </c>
       <c r="N81" s="19">
         <v>5.6030000000000003E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" ht="15">
+      <c r="P81" s="21">
+        <v>-2.5458453917278212</v>
+      </c>
+      <c r="Q81">
+        <v>414.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="15">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -4247,7 +5226,7 @@
         <v>2.3199836079999998</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J82" s="9">
         <v>100.1</v>
@@ -4255,11 +5234,21 @@
       <c r="L82" s="18">
         <v>-2</v>
       </c>
+      <c r="M82">
+        <f>$W$22/4</f>
+        <v>0.55965958918530134</v>
+      </c>
       <c r="N82" s="19">
         <v>-3.4341699999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="15">
+      <c r="P82" s="21">
+        <v>3.62882309515027</v>
+      </c>
+      <c r="Q82">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="15">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -4285,7 +5274,7 @@
         <v>5.1741168350000004</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J83" s="9">
         <v>84.3</v>
@@ -4293,11 +5282,21 @@
       <c r="L83" s="18">
         <v>-20.5</v>
       </c>
+      <c r="M83">
+        <f>$W$22/4</f>
+        <v>0.55965958918530134</v>
+      </c>
       <c r="N83" s="19">
         <v>-11.27702</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="15">
+      <c r="P83" s="21">
+        <v>-8.32119646560575</v>
+      </c>
+      <c r="Q83">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="15">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -4323,7 +5322,7 @@
         <v>-5.2851272979999999</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J84" s="9">
         <v>97.6</v>
@@ -4331,11 +5330,21 @@
       <c r="L84" s="18">
         <v>17.2</v>
       </c>
+      <c r="M84">
+        <f>$W$22/4</f>
+        <v>0.55965958918530134</v>
+      </c>
       <c r="N84" s="19">
         <v>12.103949999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="15">
+      <c r="P84" s="21">
+        <v>0.72399981900943</v>
+      </c>
+      <c r="Q84">
+        <v>438.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="15">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -4361,7 +5370,7 @@
         <v>0.38957438799999999</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J85" s="9">
         <v>101.3</v>
@@ -4369,11 +5378,21 @@
       <c r="L85" s="18">
         <v>4.5</v>
       </c>
+      <c r="M85">
+        <f>$W$22/4</f>
+        <v>0.55965958918530134</v>
+      </c>
       <c r="N85" s="19">
         <v>-6.2100000000000002E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="15">
+      <c r="P85" s="21">
+        <v>-0.39667660907039998</v>
+      </c>
+      <c r="Q85">
+        <v>470.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="15">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -4399,7 +5418,7 @@
         <v>0.84115114099999999</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J86" s="9">
         <v>100.9</v>
@@ -4407,11 +5426,21 @@
       <c r="L86" s="18">
         <v>2.6</v>
       </c>
+      <c r="M86">
+        <f>$W$23/4</f>
+        <v>2.1121173540703531</v>
+      </c>
       <c r="N86" s="19">
         <v>0.39471000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="15">
+      <c r="P86" s="21">
+        <v>7.4757720944453796</v>
+      </c>
+      <c r="Q86">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="15">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -4437,7 +5466,7 @@
         <v>-1.173164289</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J87" s="9">
         <v>100.1</v>
@@ -4445,11 +5474,21 @@
       <c r="L87" s="18">
         <v>1</v>
       </c>
+      <c r="M87">
+        <f>$W$23/4</f>
+        <v>2.1121173540703531</v>
+      </c>
       <c r="N87" s="19">
         <v>2.10263</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="15">
+      <c r="P87" s="21">
+        <v>8.6168710763757801</v>
+      </c>
+      <c r="Q87">
+        <v>455.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="15">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -4475,7 +5514,7 @@
         <v>1.967425395</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J88" s="9">
         <v>99.8</v>
@@ -4483,11 +5522,21 @@
       <c r="L88" s="18">
         <v>-0.6</v>
       </c>
+      <c r="M88">
+        <f>$W$23/4</f>
+        <v>2.1121173540703531</v>
+      </c>
       <c r="N88" s="19">
         <v>2.0802700000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="15">
+      <c r="P88" s="21">
+        <v>3.1575562492633602</v>
+      </c>
+      <c r="Q88">
+        <v>441.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="15">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -4513,7 +5562,7 @@
         <v>1.1958062629999999</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J89" s="9">
         <v>99.9</v>
@@ -4521,11 +5570,21 @@
       <c r="L89" s="18">
         <v>3.7</v>
       </c>
+      <c r="M89">
+        <f>$W$23/4</f>
+        <v>2.1121173540703531</v>
+      </c>
       <c r="N89" s="19">
         <v>0.54925999999999997</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="15">
+      <c r="P89" s="21">
+        <v>6.5731795404730997</v>
+      </c>
+      <c r="Q89">
+        <v>500.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="15">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -4551,7 +5610,7 @@
         <v>0.44063753</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J90" s="9">
         <v>101</v>
@@ -4559,11 +5618,21 @@
       <c r="L90" s="18">
         <v>-0.1</v>
       </c>
+      <c r="M90">
+        <f>$W$24/4</f>
+        <v>0.74727102150913183</v>
+      </c>
       <c r="N90" s="19">
         <v>0.60416999999999998</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="15">
+      <c r="P90" s="21">
+        <v>5.6895696947783003</v>
+      </c>
+      <c r="Q90">
+        <v>437.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="15">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -4589,7 +5658,7 @@
         <v>-1.1231299999999999E-4</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J91" s="9">
         <v>98.3</v>
@@ -4597,11 +5666,21 @@
       <c r="L91" s="18">
         <v>0.9</v>
       </c>
+      <c r="M91">
+        <f>$W$24/4</f>
+        <v>0.74727102150913183</v>
+      </c>
       <c r="N91" s="19">
         <v>0.81647999999999998</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="15">
+      <c r="P91" s="21">
+        <v>8.4726718504168996</v>
+      </c>
+      <c r="Q91">
+        <v>447.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="15">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -4627,7 +5706,7 @@
         <v>1.1345507189999999</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J92" s="9">
         <v>98.5</v>
@@ -4635,11 +5714,21 @@
       <c r="L92" s="18">
         <v>1</v>
       </c>
+      <c r="M92">
+        <f>$W$24/4</f>
+        <v>0.74727102150913183</v>
+      </c>
       <c r="N92" s="19">
         <v>0.47155000000000002</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="15">
+      <c r="P92" s="21">
+        <v>-2.3418192944524998</v>
+      </c>
+      <c r="Q92">
+        <v>453.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="15">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -4665,7 +5754,7 @@
         <v>2.8696497490000001</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J93" s="9">
         <v>99.2</v>
@@ -4673,11 +5762,21 @@
       <c r="L93" s="18">
         <v>-1.1000000000000001</v>
       </c>
+      <c r="M93">
+        <f>$W$24/4</f>
+        <v>0.74727102150913183</v>
+      </c>
       <c r="N93" s="19">
         <v>-6.8700000000000002E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="15">
+      <c r="P93" s="21">
+        <v>-1.3515218563061</v>
+      </c>
+      <c r="Q93">
+        <v>568.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="15">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -4703,7 +5802,7 @@
         <v>2.5742279589999999</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J94" s="9">
         <v>99</v>
@@ -4714,8 +5813,14 @@
       <c r="N94" s="19">
         <v>4.138E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" ht="15">
+      <c r="P94" s="21">
+        <v>-14.338800721338</v>
+      </c>
+      <c r="Q94">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="15">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -4741,7 +5846,7 @@
         <v>9.2769905E-2</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J95" s="9">
         <v>97.3</v>
@@ -4752,8 +5857,14 @@
       <c r="N95" s="19">
         <v>0.12595999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="15">
+      <c r="P95" s="21">
+        <v>-10.59271501772808</v>
+      </c>
+      <c r="Q95">
+        <v>477.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="15">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -4779,7 +5890,7 @@
         <v>1.5655721570000001</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J96" s="9">
         <v>95.4</v>
@@ -4789,6 +5900,9 @@
       </c>
       <c r="N96" s="19">
         <v>-6.3670000000000004E-2</v>
+      </c>
+      <c r="P96" s="21">
+        <v>6.2133601011670002E-2</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="15">
@@ -4809,7 +5923,7 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J97" s="9">
         <v>96.7</v>
@@ -4821,474 +5935,474 @@
         <v>-5.4140000000000001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" ht="15">
       <c r="D98" s="1"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" ht="15">
       <c r="D99" s="1"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" ht="15">
       <c r="D100" s="1"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" ht="15">
       <c r="D101" s="1"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" ht="15">
       <c r="D102" s="1"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" ht="15">
       <c r="D103" s="1"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" ht="15">
       <c r="D104" s="1"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" ht="15">
       <c r="D105" s="1"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" ht="15">
       <c r="D106" s="1"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" ht="15">
       <c r="D107" s="1"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" ht="15">
       <c r="D108" s="1"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" ht="15">
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" ht="15">
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" ht="15">
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" ht="15">
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="10:10">
+    <row r="113" spans="10:10" ht="15">
       <c r="J113" s="20"/>
     </row>
-    <row r="114" spans="10:10">
+    <row r="114" spans="10:10" ht="15">
       <c r="J114" s="20"/>
     </row>
-    <row r="115" spans="10:10">
+    <row r="115" spans="10:10" ht="15">
       <c r="J115" s="20"/>
     </row>
-    <row r="116" spans="10:10">
+    <row r="116" spans="10:10" ht="15">
       <c r="J116" s="20"/>
     </row>
-    <row r="117" spans="10:10">
+    <row r="117" spans="10:10" ht="15">
       <c r="J117" s="20"/>
     </row>
-    <row r="118" spans="10:10">
+    <row r="118" spans="10:10" ht="15">
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="10:10">
+    <row r="119" spans="10:10" ht="15">
       <c r="J119" s="20"/>
     </row>
-    <row r="120" spans="10:10">
+    <row r="120" spans="10:10" ht="15">
       <c r="J120" s="20"/>
     </row>
-    <row r="121" spans="10:10">
+    <row r="121" spans="10:10" ht="15">
       <c r="J121" s="20"/>
     </row>
-    <row r="122" spans="10:10">
+    <row r="122" spans="10:10" ht="15">
       <c r="J122" s="20"/>
     </row>
-    <row r="123" spans="10:10">
+    <row r="123" spans="10:10" ht="15">
       <c r="J123" s="20"/>
     </row>
-    <row r="124" spans="10:10">
+    <row r="124" spans="10:10" ht="15">
       <c r="J124" s="20"/>
     </row>
-    <row r="125" spans="10:10">
+    <row r="125" spans="10:10" ht="15">
       <c r="J125" s="20"/>
     </row>
-    <row r="126" spans="10:10">
+    <row r="126" spans="10:10" ht="15">
       <c r="J126" s="20"/>
     </row>
-    <row r="127" spans="10:10">
+    <row r="127" spans="10:10" ht="15">
       <c r="J127" s="20"/>
     </row>
-    <row r="128" spans="10:10">
+    <row r="128" spans="10:10" ht="15">
       <c r="J128" s="20"/>
     </row>
-    <row r="129" spans="10:10">
+    <row r="129" spans="10:10" ht="15">
       <c r="J129" s="20"/>
     </row>
-    <row r="130" spans="10:10">
+    <row r="130" spans="10:10" ht="15">
       <c r="J130" s="20"/>
     </row>
-    <row r="131" spans="10:10">
+    <row r="131" spans="10:10" ht="15">
       <c r="J131" s="20"/>
     </row>
-    <row r="132" spans="10:10">
+    <row r="132" spans="10:10" ht="15">
       <c r="J132" s="20"/>
     </row>
-    <row r="133" spans="10:10">
+    <row r="133" spans="10:10" ht="15">
       <c r="J133" s="20"/>
     </row>
-    <row r="134" spans="10:10">
+    <row r="134" spans="10:10" ht="15">
       <c r="J134" s="20"/>
     </row>
-    <row r="135" spans="10:10">
+    <row r="135" spans="10:10" ht="15">
       <c r="J135" s="20"/>
     </row>
-    <row r="136" spans="10:10">
+    <row r="136" spans="10:10" ht="15">
       <c r="J136" s="20"/>
     </row>
-    <row r="137" spans="10:10">
+    <row r="137" spans="10:10" ht="15">
       <c r="J137" s="20"/>
     </row>
-    <row r="138" spans="10:10">
+    <row r="138" spans="10:10" ht="15">
       <c r="J138" s="20"/>
     </row>
-    <row r="139" spans="10:10">
+    <row r="139" spans="10:10" ht="15">
       <c r="J139" s="20"/>
     </row>
-    <row r="140" spans="10:10">
+    <row r="140" spans="10:10" ht="15">
       <c r="J140" s="20"/>
     </row>
-    <row r="141" spans="10:10">
+    <row r="141" spans="10:10" ht="15">
       <c r="J141" s="20"/>
     </row>
-    <row r="142" spans="10:10">
+    <row r="142" spans="10:10" ht="15">
       <c r="J142" s="20"/>
     </row>
-    <row r="143" spans="10:10">
+    <row r="143" spans="10:10" ht="15">
       <c r="J143" s="20"/>
     </row>
-    <row r="144" spans="10:10">
+    <row r="144" spans="10:10" ht="15">
       <c r="J144" s="20"/>
     </row>
-    <row r="145" spans="10:10">
+    <row r="145" spans="10:10" ht="15">
       <c r="J145" s="20"/>
     </row>
-    <row r="146" spans="10:10">
+    <row r="146" spans="10:10" ht="15">
       <c r="J146" s="20"/>
     </row>
-    <row r="147" spans="10:10">
+    <row r="147" spans="10:10" ht="15">
       <c r="J147" s="20"/>
     </row>
-    <row r="148" spans="10:10">
+    <row r="148" spans="10:10" ht="15">
       <c r="J148" s="20"/>
     </row>
-    <row r="149" spans="10:10">
+    <row r="149" spans="10:10" ht="15">
       <c r="J149" s="20"/>
     </row>
-    <row r="150" spans="10:10">
+    <row r="150" spans="10:10" ht="15">
       <c r="J150" s="20"/>
     </row>
-    <row r="151" spans="10:10">
+    <row r="151" spans="10:10" ht="15">
       <c r="J151" s="20"/>
     </row>
-    <row r="152" spans="10:10">
+    <row r="152" spans="10:10" ht="15">
       <c r="J152" s="20"/>
     </row>
-    <row r="153" spans="10:10">
+    <row r="153" spans="10:10" ht="15">
       <c r="J153" s="20"/>
     </row>
-    <row r="154" spans="10:10">
+    <row r="154" spans="10:10" ht="15">
       <c r="J154" s="20"/>
     </row>
-    <row r="155" spans="10:10">
+    <row r="155" spans="10:10" ht="15">
       <c r="J155" s="20"/>
     </row>
-    <row r="156" spans="10:10">
+    <row r="156" spans="10:10" ht="15">
       <c r="J156" s="20"/>
     </row>
-    <row r="157" spans="10:10">
+    <row r="157" spans="10:10" ht="15">
       <c r="J157" s="20"/>
     </row>
-    <row r="158" spans="10:10">
+    <row r="158" spans="10:10" ht="15">
       <c r="J158" s="20"/>
     </row>
-    <row r="159" spans="10:10">
+    <row r="159" spans="10:10" ht="15">
       <c r="J159" s="20"/>
     </row>
-    <row r="160" spans="10:10">
+    <row r="160" spans="10:10" ht="15">
       <c r="J160" s="20"/>
     </row>
-    <row r="161" spans="10:10">
+    <row r="161" spans="10:10" ht="15">
       <c r="J161" s="20"/>
     </row>
-    <row r="162" spans="10:10">
+    <row r="162" spans="10:10" ht="15">
       <c r="J162" s="20"/>
     </row>
-    <row r="163" spans="10:10">
+    <row r="163" spans="10:10" ht="15">
       <c r="J163" s="20"/>
     </row>
-    <row r="164" spans="10:10">
+    <row r="164" spans="10:10" ht="15">
       <c r="J164" s="20"/>
     </row>
-    <row r="165" spans="10:10">
+    <row r="165" spans="10:10" ht="15">
       <c r="J165" s="20"/>
     </row>
-    <row r="166" spans="10:10">
+    <row r="166" spans="10:10" ht="15">
       <c r="J166" s="20"/>
     </row>
-    <row r="167" spans="10:10">
+    <row r="167" spans="10:10" ht="15">
       <c r="J167" s="20"/>
     </row>
-    <row r="168" spans="10:10">
+    <row r="168" spans="10:10" ht="15">
       <c r="J168" s="20"/>
     </row>
-    <row r="169" spans="10:10">
+    <row r="169" spans="10:10" ht="15">
       <c r="J169" s="20"/>
     </row>
-    <row r="170" spans="10:10">
+    <row r="170" spans="10:10" ht="15">
       <c r="J170" s="20"/>
     </row>
-    <row r="171" spans="10:10">
+    <row r="171" spans="10:10" ht="15">
       <c r="J171" s="20"/>
     </row>
-    <row r="172" spans="10:10">
+    <row r="172" spans="10:10" ht="15">
       <c r="J172" s="20"/>
     </row>
-    <row r="173" spans="10:10">
+    <row r="173" spans="10:10" ht="15">
       <c r="J173" s="20"/>
     </row>
-    <row r="174" spans="10:10">
+    <row r="174" spans="10:10" ht="15">
       <c r="J174" s="20"/>
     </row>
-    <row r="175" spans="10:10">
+    <row r="175" spans="10:10" ht="15">
       <c r="J175" s="20"/>
     </row>
-    <row r="176" spans="10:10">
+    <row r="176" spans="10:10" ht="15">
       <c r="J176" s="20"/>
     </row>
-    <row r="177" spans="10:10">
+    <row r="177" spans="10:10" ht="15">
       <c r="J177" s="20"/>
     </row>
-    <row r="178" spans="10:10">
+    <row r="178" spans="10:10" ht="15">
       <c r="J178" s="20"/>
     </row>
-    <row r="179" spans="10:10">
+    <row r="179" spans="10:10" ht="15">
       <c r="J179" s="20"/>
     </row>
-    <row r="180" spans="10:10">
+    <row r="180" spans="10:10" ht="15">
       <c r="J180" s="20"/>
     </row>
-    <row r="181" spans="10:10">
+    <row r="181" spans="10:10" ht="15">
       <c r="J181" s="20"/>
     </row>
-    <row r="182" spans="10:10">
+    <row r="182" spans="10:10" ht="15">
       <c r="J182" s="20"/>
     </row>
-    <row r="183" spans="10:10">
+    <row r="183" spans="10:10" ht="15">
       <c r="J183" s="20"/>
     </row>
-    <row r="184" spans="10:10">
+    <row r="184" spans="10:10" ht="15">
       <c r="J184" s="20"/>
     </row>
-    <row r="185" spans="10:10">
+    <row r="185" spans="10:10" ht="15">
       <c r="J185" s="20"/>
     </row>
-    <row r="186" spans="10:10">
+    <row r="186" spans="10:10" ht="15">
       <c r="J186" s="20"/>
     </row>
-    <row r="187" spans="10:10">
+    <row r="187" spans="10:10" ht="15">
       <c r="J187" s="20"/>
     </row>
-    <row r="188" spans="10:10">
+    <row r="188" spans="10:10" ht="15">
       <c r="J188" s="20"/>
     </row>
-    <row r="189" spans="10:10">
+    <row r="189" spans="10:10" ht="15">
       <c r="J189" s="20"/>
     </row>
-    <row r="190" spans="10:10">
+    <row r="190" spans="10:10" ht="15">
       <c r="J190" s="20"/>
     </row>
-    <row r="191" spans="10:10">
+    <row r="191" spans="10:10" ht="15">
       <c r="J191" s="20"/>
     </row>
-    <row r="192" spans="10:10">
+    <row r="192" spans="10:10" ht="15">
       <c r="J192" s="20"/>
     </row>
-    <row r="193" spans="10:10">
+    <row r="193" spans="10:10" ht="15">
       <c r="J193" s="20"/>
     </row>
-    <row r="194" spans="10:10">
+    <row r="194" spans="10:10" ht="15">
       <c r="J194" s="20"/>
     </row>
-    <row r="195" spans="10:10">
+    <row r="195" spans="10:10" ht="15">
       <c r="J195" s="20"/>
     </row>
-    <row r="196" spans="10:10">
+    <row r="196" spans="10:10" ht="15">
       <c r="J196" s="20"/>
     </row>
-    <row r="197" spans="10:10">
+    <row r="197" spans="10:10" ht="15">
       <c r="J197" s="20"/>
     </row>
-    <row r="198" spans="10:10">
+    <row r="198" spans="10:10" ht="15">
       <c r="J198" s="20"/>
     </row>
-    <row r="199" spans="10:10">
+    <row r="199" spans="10:10" ht="15">
       <c r="J199" s="20"/>
     </row>
-    <row r="200" spans="10:10">
+    <row r="200" spans="10:10" ht="15">
       <c r="J200" s="20"/>
     </row>
-    <row r="201" spans="10:10">
+    <row r="201" spans="10:10" ht="15">
       <c r="J201" s="20"/>
     </row>
-    <row r="202" spans="10:10">
+    <row r="202" spans="10:10" ht="15">
       <c r="J202" s="20"/>
     </row>
-    <row r="203" spans="10:10">
+    <row r="203" spans="10:10" ht="15">
       <c r="J203" s="20"/>
     </row>
-    <row r="204" spans="10:10">
+    <row r="204" spans="10:10" ht="15">
       <c r="J204" s="20"/>
     </row>
-    <row r="205" spans="10:10">
+    <row r="205" spans="10:10" ht="15">
       <c r="J205" s="20"/>
     </row>
-    <row r="206" spans="10:10">
+    <row r="206" spans="10:10" ht="15">
       <c r="J206" s="20"/>
     </row>
-    <row r="207" spans="10:10">
+    <row r="207" spans="10:10" ht="15">
       <c r="J207" s="20"/>
     </row>
-    <row r="208" spans="10:10">
+    <row r="208" spans="10:10" ht="15">
       <c r="J208" s="20"/>
     </row>
-    <row r="209" spans="10:10">
+    <row r="209" spans="10:10" ht="15">
       <c r="J209" s="20"/>
     </row>
-    <row r="210" spans="10:10">
+    <row r="210" spans="10:10" ht="15">
       <c r="J210" s="20"/>
     </row>
-    <row r="211" spans="10:10">
+    <row r="211" spans="10:10" ht="15">
       <c r="J211" s="20"/>
     </row>
-    <row r="212" spans="10:10">
+    <row r="212" spans="10:10" ht="15">
       <c r="J212" s="20"/>
     </row>
-    <row r="213" spans="10:10">
+    <row r="213" spans="10:10" ht="15">
       <c r="J213" s="20"/>
     </row>
-    <row r="214" spans="10:10">
+    <row r="214" spans="10:10" ht="15">
       <c r="J214" s="20"/>
     </row>
-    <row r="215" spans="10:10">
+    <row r="215" spans="10:10" ht="15">
       <c r="J215" s="20"/>
     </row>
-    <row r="216" spans="10:10">
+    <row r="216" spans="10:10" ht="15">
       <c r="J216" s="20"/>
     </row>
-    <row r="217" spans="10:10">
+    <row r="217" spans="10:10" ht="15">
       <c r="J217" s="20"/>
     </row>
-    <row r="218" spans="10:10">
+    <row r="218" spans="10:10" ht="15">
       <c r="J218" s="20"/>
     </row>
-    <row r="219" spans="10:10">
+    <row r="219" spans="10:10" ht="15">
       <c r="J219" s="20"/>
     </row>
-    <row r="220" spans="10:10">
+    <row r="220" spans="10:10" ht="15">
       <c r="J220" s="20"/>
     </row>
-    <row r="221" spans="10:10">
+    <row r="221" spans="10:10" ht="15">
       <c r="J221" s="20"/>
     </row>
-    <row r="222" spans="10:10">
+    <row r="222" spans="10:10" ht="15">
       <c r="J222" s="20"/>
     </row>
-    <row r="223" spans="10:10">
+    <row r="223" spans="10:10" ht="15">
       <c r="J223" s="20"/>
     </row>
-    <row r="224" spans="10:10">
+    <row r="224" spans="10:10" ht="15">
       <c r="J224" s="20"/>
     </row>
-    <row r="225" spans="10:10">
+    <row r="225" spans="10:10" ht="15">
       <c r="J225" s="20"/>
     </row>
-    <row r="226" spans="10:10">
+    <row r="226" spans="10:10" ht="15">
       <c r="J226" s="20"/>
     </row>
-    <row r="227" spans="10:10">
+    <row r="227" spans="10:10" ht="15">
       <c r="J227" s="20"/>
     </row>
-    <row r="228" spans="10:10">
+    <row r="228" spans="10:10" ht="15">
       <c r="J228" s="20"/>
     </row>
-    <row r="229" spans="10:10">
+    <row r="229" spans="10:10" ht="15">
       <c r="J229" s="20"/>
     </row>
-    <row r="230" spans="10:10">
+    <row r="230" spans="10:10" ht="15">
       <c r="J230" s="20"/>
     </row>
-    <row r="231" spans="10:10">
+    <row r="231" spans="10:10" ht="15">
       <c r="J231" s="20"/>
     </row>
-    <row r="232" spans="10:10">
+    <row r="232" spans="10:10" ht="15">
       <c r="J232" s="20"/>
     </row>
-    <row r="233" spans="10:10">
+    <row r="233" spans="10:10" ht="15">
       <c r="J233" s="20"/>
     </row>
-    <row r="234" spans="10:10">
+    <row r="234" spans="10:10" ht="15">
       <c r="J234" s="20"/>
     </row>
-    <row r="235" spans="10:10">
+    <row r="235" spans="10:10" ht="15">
       <c r="J235" s="20"/>
     </row>
-    <row r="236" spans="10:10">
+    <row r="236" spans="10:10" ht="15">
       <c r="J236" s="20"/>
     </row>
-    <row r="237" spans="10:10">
+    <row r="237" spans="10:10" ht="15">
       <c r="J237" s="20"/>
     </row>
-    <row r="238" spans="10:10">
+    <row r="238" spans="10:10" ht="15">
       <c r="J238" s="20"/>
     </row>
-    <row r="239" spans="10:10">
+    <row r="239" spans="10:10" ht="15">
       <c r="J239" s="20"/>
     </row>
-    <row r="240" spans="10:10">
+    <row r="240" spans="10:10" ht="15">
       <c r="J240" s="20"/>
     </row>
-    <row r="241" spans="10:10">
+    <row r="241" spans="10:10" ht="15">
       <c r="J241" s="20"/>
     </row>
-    <row r="242" spans="10:10">
+    <row r="242" spans="10:10" ht="15">
       <c r="J242" s="20"/>
     </row>
-    <row r="243" spans="10:10">
+    <row r="243" spans="10:10" ht="15">
       <c r="J243" s="20"/>
     </row>
-    <row r="244" spans="10:10">
+    <row r="244" spans="10:10" ht="15">
       <c r="J244" s="20"/>
     </row>
-    <row r="245" spans="10:10">
+    <row r="245" spans="10:10" ht="15">
       <c r="J245" s="20"/>
     </row>
-    <row r="246" spans="10:10">
+    <row r="246" spans="10:10" ht="15">
       <c r="J246" s="20"/>
     </row>
-    <row r="247" spans="10:10">
+    <row r="247" spans="10:10" ht="15">
       <c r="J247" s="20"/>
     </row>
-    <row r="248" spans="10:10">
+    <row r="248" spans="10:10" ht="15">
       <c r="J248" s="20"/>
     </row>
-    <row r="249" spans="10:10">
+    <row r="249" spans="10:10" ht="15">
       <c r="J249" s="20"/>
     </row>
-    <row r="250" spans="10:10">
+    <row r="250" spans="10:10" ht="15">
       <c r="J250" s="20"/>
     </row>
     <row r="251" spans="10:10">
@@ -5409,6 +6523,9 @@
       <c r="J289" s="20"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P1" r:id="rId1" location="0" xr:uid="{1A5DC839-B836-414D-90FB-DC92D012B683}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5433,28 +6550,28 @@
   <sheetData>
     <row r="1" spans="3:47">
       <c r="C1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="3:47">
@@ -5466,101 +6583,101 @@
         <v>40029198</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G2" s="13">
         <f>19840+19167+13587+11099+8978</f>
         <v>72671</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J2" s="11">
         <v>44</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N2" s="14">
         <v>75.2</v>
       </c>
       <c r="V2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="W2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Y2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Z2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AA2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AB2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AG2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AH2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AI2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AJ2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AM2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AO2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AP2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AQ2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AR2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AS2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AT2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AU2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="3:47">
@@ -5571,32 +6688,32 @@
         <v>40056637</v>
       </c>
       <c r="F3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G3" s="13">
         <f>20268+22941</f>
         <v>43209</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J3" s="11">
         <v>35</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N3" s="14">
         <v>59.4</v>
       </c>
       <c r="V3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="W3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="X3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Y3">
         <v>40029198</v>
@@ -5676,26 +6793,26 @@
         <v>40236914</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G4" s="13">
         <f>26192+5957</f>
         <v>32149</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J4" s="11">
         <v>32</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N4" s="14">
         <v>57.8</v>
       </c>
       <c r="V4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="3:47">
@@ -5706,20 +6823,20 @@
         <v>40039826</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G5" s="13">
         <f>16341+10501</f>
         <v>26842</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J5" s="11">
         <v>22</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N5" s="14">
         <v>53.7</v>
@@ -5733,20 +6850,20 @@
         <v>41239999</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G6" s="13">
         <f>15052+6921</f>
         <v>21973</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J6" s="11">
         <v>16</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N6" s="14">
         <v>51.7</v>
@@ -5760,25 +6877,25 @@
         <v>41693116</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G7" s="13">
         <v>14248</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J7" s="11">
         <v>16</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N7" s="14">
         <v>49.8</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="3:47">
@@ -5789,14 +6906,14 @@
         <v>41861246</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G8" s="13">
         <f>11578+5989</f>
         <v>17567</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J8" s="11">
         <v>15</v>
@@ -5810,17 +6927,17 @@
         <v>41917490</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G9" s="13">
         <f>6087+6110+8750</f>
         <v>20947</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J9" s="11">
         <v>14</v>
@@ -5834,7 +6951,7 @@
         <v>41978630</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J10" s="11">
         <v>14</v>
@@ -5848,7 +6965,7 @@
         <v>41949335</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J11" s="11">
         <v>12</v>
@@ -5862,13 +6979,13 @@
         <v>41729225</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J12" s="11">
         <v>7</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="3:47">
@@ -5990,7 +7107,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5998,7 +7115,7 @@
         <v>2009</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6058,32 +7175,32 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -6121,58 +7238,58 @@
   <sheetData>
     <row r="1" spans="2:19">
       <c r="B1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" t="s">
         <v>186</v>
       </c>
-      <c r="I1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J1" t="s">
-        <v>184</v>
-      </c>
       <c r="K1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N1" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="15" t="s">
-        <v>187</v>
-      </c>
       <c r="P1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="2:19">

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicla\Desktop\UNI\R-Studio\Projekt Eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="707" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E20CD1D6-3E29-4F25-8EF7-FCA9F04070F6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465BCBCA-0A0D-43B5-AF41-BFF0F6465CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nøgletal" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,9 @@
   <commentList>
     <comment ref="I2" authorId="0" shapeId="0" xr:uid="{4B42F164-681C-4A58-84D1-0574D84188C8}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Trådet kommentar]
+Din version af Excel lader dig læse denne trådede kommentar. Eventuelle ændringer vil dog blive fjernet, hvis filen åbnes i en nyere version af Excel. Få mere at vide: https://go.microsoft.com/fwlink/?linkid=870924
+Kommentar:
 How is your company developing in relation to the lack of new recruits and skilled workers? 
 </t>
       </text>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="194">
   <si>
     <t>Date</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>Generel government net lending/borrowing for EU</t>
+  </si>
+  <si>
+    <t>Real GDP percent year ago</t>
   </si>
 </sst>
 </file>
@@ -676,7 +679,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,6 +718,10 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -737,7 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -768,6 +775,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1211,13 +1219,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W289"/>
+  <dimension ref="A1:AB289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="P73" zoomScale="60" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
@@ -1237,7 +1245,7 @@
     <col min="17" max="17" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1289,8 +1297,11 @@
       <c r="W1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="AB1" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1341,8 +1352,11 @@
         <f t="array" ref="W2:W24">TRANSPOSE([1]Data!BS42:CO42)</f>
         <v>8.4900934036516134</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="AB2" s="22">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1392,8 +1406,11 @@
       <c r="W3" s="21">
         <v>8.3357334757762516</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="AB3" s="22">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1443,8 +1460,11 @@
       <c r="W4" s="21">
         <v>9.1336307895446964</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="AB4" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1494,8 +1514,11 @@
       <c r="W5" s="21">
         <v>10.038030484736964</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="AB5" s="22">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1545,8 +1568,11 @@
       <c r="W6" s="21">
         <v>10.11362137880208</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="AB6" s="22">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1596,8 +1622,11 @@
       <c r="W7" s="21">
         <v>11.394591808688787</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="AB7" s="22">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1647,8 +1676,11 @@
       <c r="W8" s="21">
         <v>12.720955663945105</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="AB8" s="22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1698,8 +1730,11 @@
       <c r="W9" s="21">
         <v>14.230860934047087</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="AB9" s="22">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1749,8 +1784,11 @@
       <c r="W10" s="21">
         <v>9.6506789183468982</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="AB10" s="22">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1800,8 +1838,11 @@
       <c r="W11" s="21">
         <v>9.3987256316321037</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="AB11" s="22">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1851,8 +1892,11 @@
       <c r="W12" s="21">
         <v>10.635871065957176</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="AB12" s="22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1902,8 +1946,11 @@
       <c r="W13" s="21">
         <v>9.5508321788419863</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="AB13" s="22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1953,8 +2000,11 @@
       <c r="W14" s="21">
         <v>7.8637364484526415</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="AB14" s="22">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -2004,8 +2054,11 @@
       <c r="W15" s="21">
         <v>7.7661500973591018</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="AB15" s="22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -2055,8 +2108,11 @@
       <c r="W16" s="21">
         <v>7.4257636559691633</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="AB16" s="22">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -2106,8 +2162,11 @@
       <c r="W17" s="21">
         <v>7.0413288794755005</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="AB17" s="22">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -2157,8 +2216,11 @@
       <c r="W18" s="21">
         <v>6.8487622044418401</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="AB18" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -2208,8 +2270,11 @@
       <c r="W19" s="21">
         <v>6.9472007931653366</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="AB19" s="22">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -2259,8 +2324,11 @@
       <c r="W20" s="21">
         <v>6.7497738325114796</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="AB20" s="22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -2310,8 +2378,11 @@
       <c r="W21" s="21">
         <v>5.950500754393147</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="AB21" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -2361,8 +2432,11 @@
       <c r="W22" s="21">
         <v>2.2386383567412054</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="AB22" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -2412,8 +2486,11 @@
       <c r="W23" s="21">
         <v>8.4484694162814122</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="AB23" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -2463,8 +2540,11 @@
       <c r="W24">
         <v>2.9890840860365273</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="15">
+      <c r="AB24" s="22">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -2511,8 +2591,11 @@
       <c r="Q25">
         <v>263.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="15">
+      <c r="AB25" s="22">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -2559,8 +2642,11 @@
       <c r="Q26">
         <v>254.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="15">
+      <c r="AB26" s="22">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -2607,8 +2693,11 @@
       <c r="Q27">
         <v>235.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="15">
+      <c r="AB27" s="22">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -2655,8 +2744,11 @@
       <c r="Q28">
         <v>249.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="15">
+      <c r="AB28" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -2703,8 +2795,11 @@
       <c r="Q29">
         <v>263.60000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="15">
+      <c r="AB29" s="22">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -2751,8 +2846,11 @@
       <c r="Q30">
         <v>256.89999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="15">
+      <c r="AB30" s="22">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -2799,8 +2897,11 @@
       <c r="Q31">
         <v>237</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" ht="15">
+      <c r="AB31" s="22">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -2847,8 +2948,11 @@
       <c r="Q32">
         <v>252.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="15">
+      <c r="AB32" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -2895,8 +2999,11 @@
       <c r="Q33">
         <v>267.39999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="15">
+      <c r="AB33" s="22">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -2943,8 +3050,11 @@
       <c r="Q34">
         <v>260.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="15">
+      <c r="AB34" s="22">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -2991,8 +3101,11 @@
       <c r="Q35">
         <v>247.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="15">
+      <c r="AB35" s="22">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -3039,8 +3152,11 @@
       <c r="Q36">
         <v>262.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="15">
+      <c r="AB36" s="22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -3087,8 +3203,11 @@
       <c r="Q37">
         <v>290.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" ht="15">
+      <c r="AB37" s="22">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -3135,8 +3254,11 @@
       <c r="Q38">
         <v>274.10000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="15">
+      <c r="AB38" s="22">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -3183,8 +3305,11 @@
       <c r="Q39">
         <v>271.39999999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="15">
+      <c r="AB39" s="22">
+        <v>-6.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -3231,8 +3356,11 @@
       <c r="Q40">
         <v>278.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="15">
+      <c r="AB40" s="22">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -3279,8 +3407,11 @@
       <c r="Q41">
         <v>298.60000000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="15">
+      <c r="AB41" s="22">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -3327,8 +3458,11 @@
       <c r="Q42">
         <v>278.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="15">
+      <c r="AB42" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -3375,8 +3509,11 @@
       <c r="Q43">
         <v>271.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="15">
+      <c r="AB43" s="22">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -3423,8 +3560,11 @@
       <c r="Q44">
         <v>276</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" ht="15">
+      <c r="AB44" s="22">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -3471,8 +3611,11 @@
       <c r="Q45">
         <v>304.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" ht="15">
+      <c r="AB45" s="22">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -3519,8 +3662,11 @@
       <c r="Q46">
         <v>281</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" ht="15">
+      <c r="AB46" s="22">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -3567,8 +3713,11 @@
       <c r="Q47">
         <v>271.39999999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" ht="15">
+      <c r="AB47" s="22">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -3615,8 +3764,11 @@
       <c r="Q48">
         <v>288.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" ht="15">
+      <c r="AB48" s="22">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -3663,8 +3815,11 @@
       <c r="Q49">
         <v>300.10000000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" ht="15">
+      <c r="AB49" s="22">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -3711,8 +3866,11 @@
       <c r="Q50">
         <v>293.10000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" ht="15">
+      <c r="AB50" s="22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -3759,8 +3917,11 @@
       <c r="Q51">
         <v>282.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" ht="15">
+      <c r="AB51" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -3807,8 +3968,11 @@
       <c r="Q52">
         <v>286.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" ht="15">
+      <c r="AB52" s="22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -3855,8 +4019,11 @@
       <c r="Q53">
         <v>316.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" ht="15">
+      <c r="AB53" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -3903,8 +4070,11 @@
       <c r="Q54">
         <v>294.89999999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" ht="15">
+      <c r="AB54" s="22">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -3951,8 +4121,11 @@
       <c r="Q55">
         <v>292.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" ht="15">
+      <c r="AB55" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -3999,8 +4172,11 @@
       <c r="Q56">
         <v>300</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" ht="15">
+      <c r="AB56" s="22">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -4047,8 +4223,11 @@
       <c r="Q57">
         <v>316.2</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" ht="15">
+      <c r="AB57" s="22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -4095,8 +4274,11 @@
       <c r="Q58">
         <v>305</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" ht="15">
+      <c r="AB58" s="22">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -4143,8 +4325,11 @@
       <c r="Q59">
         <v>299</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" ht="15">
+      <c r="AB59" s="22">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -4191,8 +4376,11 @@
       <c r="Q60">
         <v>305.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" ht="15">
+      <c r="AB60" s="22">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -4239,8 +4427,11 @@
       <c r="Q61">
         <v>327.60000000000002</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" ht="15">
+      <c r="AB61" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -4287,8 +4478,11 @@
       <c r="Q62">
         <v>315.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" ht="15">
+      <c r="AB62" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -4335,8 +4529,11 @@
       <c r="Q63">
         <v>301.8</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" ht="15">
+      <c r="AB63" s="22">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -4383,8 +4580,11 @@
       <c r="Q64">
         <v>315.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" ht="15">
+      <c r="AB64" s="22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -4431,8 +4631,11 @@
       <c r="Q65">
         <v>338.9</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" ht="15">
+      <c r="AB65" s="22">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -4479,8 +4682,11 @@
       <c r="Q66">
         <v>325.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" ht="15">
+      <c r="AB66" s="22">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -4527,8 +4733,11 @@
       <c r="Q67">
         <v>314.2</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" ht="15">
+      <c r="AB67" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -4575,8 +4784,11 @@
       <c r="Q68">
         <v>333.4</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" ht="15">
+      <c r="AB68" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -4623,8 +4835,11 @@
       <c r="Q69">
         <v>358.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" ht="15">
+      <c r="AB69" s="22">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -4671,8 +4886,11 @@
       <c r="Q70">
         <v>326.39999999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" ht="15">
+      <c r="AB70" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -4719,8 +4937,11 @@
       <c r="Q71">
         <v>332.7</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" ht="15">
+      <c r="AB71" s="22">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -4767,8 +4988,11 @@
       <c r="Q72">
         <v>343.2</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" ht="15">
+      <c r="AB72" s="22">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -4815,8 +5039,11 @@
       <c r="Q73">
         <v>373.8</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" ht="15">
+      <c r="AB73" s="22">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -4863,8 +5090,11 @@
       <c r="Q74">
         <v>341.7</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" ht="15">
+      <c r="AB74" s="22">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -4911,8 +5141,11 @@
       <c r="Q75">
         <v>337.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" ht="15">
+      <c r="AB75" s="22">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -4959,8 +5192,11 @@
       <c r="Q76">
         <v>355.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" ht="15">
+      <c r="AB76" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -5007,8 +5243,11 @@
       <c r="Q77">
         <v>396.4</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" ht="15">
+      <c r="AB77" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -5055,8 +5294,11 @@
       <c r="Q78">
         <v>364.1</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" ht="15">
+      <c r="AB78" s="22">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -5103,8 +5345,11 @@
       <c r="Q79">
         <v>374.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" ht="15">
+      <c r="AB79" s="22">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -5151,8 +5396,11 @@
       <c r="Q80">
         <v>376.9</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" ht="15">
+      <c r="AB80" s="22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -5199,8 +5447,11 @@
       <c r="Q81">
         <v>414.7</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" ht="15">
+      <c r="AB81" s="22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -5247,8 +5498,11 @@
       <c r="Q82">
         <v>379</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" ht="15">
+      <c r="AB82" s="22">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -5295,8 +5549,11 @@
       <c r="Q83">
         <v>429</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" ht="15">
+      <c r="AB83" s="22">
+        <v>-10.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -5343,8 +5600,11 @@
       <c r="Q84">
         <v>438.3</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" ht="15">
+      <c r="AB84" s="22">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -5391,8 +5651,11 @@
       <c r="Q85">
         <v>470.2</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" ht="15">
+      <c r="AB85" s="22">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -5439,8 +5702,11 @@
       <c r="Q86">
         <v>458</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" ht="15">
+      <c r="AB86" s="22">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -5487,8 +5753,11 @@
       <c r="Q87">
         <v>455.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" ht="15">
+      <c r="AB87" s="22">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -5535,8 +5804,11 @@
       <c r="Q88">
         <v>441.4</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" ht="15">
+      <c r="AB88" s="22">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -5583,8 +5855,11 @@
       <c r="Q89">
         <v>500.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" ht="15">
+      <c r="AB89" s="22">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -5631,8 +5906,11 @@
       <c r="Q90">
         <v>437.3</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" ht="15">
+      <c r="AB90" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -5679,8 +5957,11 @@
       <c r="Q91">
         <v>447.7</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" ht="15">
+      <c r="AB91" s="22">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -5727,8 +6008,11 @@
       <c r="Q92">
         <v>453.3</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" ht="15">
+      <c r="AB92" s="22">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -5775,8 +6059,11 @@
       <c r="Q93">
         <v>568.9</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" ht="15">
+      <c r="AB93" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -5819,8 +6106,11 @@
       <c r="Q94">
         <v>497</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" ht="15">
+      <c r="AB94" s="22">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -5863,8 +6153,11 @@
       <c r="Q95">
         <v>477.6</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" ht="15">
+      <c r="AB95" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -5904,8 +6197,11 @@
       <c r="P96" s="21">
         <v>6.2133601011670002E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="15">
+      <c r="AB96" s="22">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -5934,592 +6230,595 @@
       <c r="N97" s="19">
         <v>-5.4140000000000001E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" ht="15">
+      <c r="AB97" s="22">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D98" s="1"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="1:14" ht="15">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D99" s="1"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="1:14" ht="15">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D100" s="1"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="1:14" ht="15">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D101" s="1"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="1:14" ht="15">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D102" s="1"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="1:14" ht="15">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D103" s="1"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="1:14" ht="15">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D104" s="1"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="1:14" ht="15">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D105" s="1"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="1:14" ht="15">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D106" s="1"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="1:14" ht="15">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D107" s="1"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="1:14" ht="15">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D108" s="1"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="1:14" ht="15">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="1:14" ht="15">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="1:14" ht="15">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="1:14" ht="15">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="10:10" ht="15">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J113" s="20"/>
     </row>
-    <row r="114" spans="10:10" ht="15">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J114" s="20"/>
     </row>
-    <row r="115" spans="10:10" ht="15">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J115" s="20"/>
     </row>
-    <row r="116" spans="10:10" ht="15">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J116" s="20"/>
     </row>
-    <row r="117" spans="10:10" ht="15">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J117" s="20"/>
     </row>
-    <row r="118" spans="10:10" ht="15">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="10:10" ht="15">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J119" s="20"/>
     </row>
-    <row r="120" spans="10:10" ht="15">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J120" s="20"/>
     </row>
-    <row r="121" spans="10:10" ht="15">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J121" s="20"/>
     </row>
-    <row r="122" spans="10:10" ht="15">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J122" s="20"/>
     </row>
-    <row r="123" spans="10:10" ht="15">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J123" s="20"/>
     </row>
-    <row r="124" spans="10:10" ht="15">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J124" s="20"/>
     </row>
-    <row r="125" spans="10:10" ht="15">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J125" s="20"/>
     </row>
-    <row r="126" spans="10:10" ht="15">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J126" s="20"/>
     </row>
-    <row r="127" spans="10:10" ht="15">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J127" s="20"/>
     </row>
-    <row r="128" spans="10:10" ht="15">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J128" s="20"/>
     </row>
-    <row r="129" spans="10:10" ht="15">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J129" s="20"/>
     </row>
-    <row r="130" spans="10:10" ht="15">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J130" s="20"/>
     </row>
-    <row r="131" spans="10:10" ht="15">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J131" s="20"/>
     </row>
-    <row r="132" spans="10:10" ht="15">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J132" s="20"/>
     </row>
-    <row r="133" spans="10:10" ht="15">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J133" s="20"/>
     </row>
-    <row r="134" spans="10:10" ht="15">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J134" s="20"/>
     </row>
-    <row r="135" spans="10:10" ht="15">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J135" s="20"/>
     </row>
-    <row r="136" spans="10:10" ht="15">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J136" s="20"/>
     </row>
-    <row r="137" spans="10:10" ht="15">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J137" s="20"/>
     </row>
-    <row r="138" spans="10:10" ht="15">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J138" s="20"/>
     </row>
-    <row r="139" spans="10:10" ht="15">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J139" s="20"/>
     </row>
-    <row r="140" spans="10:10" ht="15">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J140" s="20"/>
     </row>
-    <row r="141" spans="10:10" ht="15">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J141" s="20"/>
     </row>
-    <row r="142" spans="10:10" ht="15">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J142" s="20"/>
     </row>
-    <row r="143" spans="10:10" ht="15">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J143" s="20"/>
     </row>
-    <row r="144" spans="10:10" ht="15">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J144" s="20"/>
     </row>
-    <row r="145" spans="10:10" ht="15">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J145" s="20"/>
     </row>
-    <row r="146" spans="10:10" ht="15">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J146" s="20"/>
     </row>
-    <row r="147" spans="10:10" ht="15">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J147" s="20"/>
     </row>
-    <row r="148" spans="10:10" ht="15">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J148" s="20"/>
     </row>
-    <row r="149" spans="10:10" ht="15">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J149" s="20"/>
     </row>
-    <row r="150" spans="10:10" ht="15">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J150" s="20"/>
     </row>
-    <row r="151" spans="10:10" ht="15">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J151" s="20"/>
     </row>
-    <row r="152" spans="10:10" ht="15">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J152" s="20"/>
     </row>
-    <row r="153" spans="10:10" ht="15">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J153" s="20"/>
     </row>
-    <row r="154" spans="10:10" ht="15">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J154" s="20"/>
     </row>
-    <row r="155" spans="10:10" ht="15">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J155" s="20"/>
     </row>
-    <row r="156" spans="10:10" ht="15">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J156" s="20"/>
     </row>
-    <row r="157" spans="10:10" ht="15">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J157" s="20"/>
     </row>
-    <row r="158" spans="10:10" ht="15">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J158" s="20"/>
     </row>
-    <row r="159" spans="10:10" ht="15">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J159" s="20"/>
     </row>
-    <row r="160" spans="10:10" ht="15">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J160" s="20"/>
     </row>
-    <row r="161" spans="10:10" ht="15">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J161" s="20"/>
     </row>
-    <row r="162" spans="10:10" ht="15">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J162" s="20"/>
     </row>
-    <row r="163" spans="10:10" ht="15">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J163" s="20"/>
     </row>
-    <row r="164" spans="10:10" ht="15">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J164" s="20"/>
     </row>
-    <row r="165" spans="10:10" ht="15">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J165" s="20"/>
     </row>
-    <row r="166" spans="10:10" ht="15">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J166" s="20"/>
     </row>
-    <row r="167" spans="10:10" ht="15">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J167" s="20"/>
     </row>
-    <row r="168" spans="10:10" ht="15">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J168" s="20"/>
     </row>
-    <row r="169" spans="10:10" ht="15">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J169" s="20"/>
     </row>
-    <row r="170" spans="10:10" ht="15">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J170" s="20"/>
     </row>
-    <row r="171" spans="10:10" ht="15">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J171" s="20"/>
     </row>
-    <row r="172" spans="10:10" ht="15">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J172" s="20"/>
     </row>
-    <row r="173" spans="10:10" ht="15">
+    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J173" s="20"/>
     </row>
-    <row r="174" spans="10:10" ht="15">
+    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J174" s="20"/>
     </row>
-    <row r="175" spans="10:10" ht="15">
+    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J175" s="20"/>
     </row>
-    <row r="176" spans="10:10" ht="15">
+    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J176" s="20"/>
     </row>
-    <row r="177" spans="10:10" ht="15">
+    <row r="177" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J177" s="20"/>
     </row>
-    <row r="178" spans="10:10" ht="15">
+    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J178" s="20"/>
     </row>
-    <row r="179" spans="10:10" ht="15">
+    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J179" s="20"/>
     </row>
-    <row r="180" spans="10:10" ht="15">
+    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J180" s="20"/>
     </row>
-    <row r="181" spans="10:10" ht="15">
+    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J181" s="20"/>
     </row>
-    <row r="182" spans="10:10" ht="15">
+    <row r="182" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J182" s="20"/>
     </row>
-    <row r="183" spans="10:10" ht="15">
+    <row r="183" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J183" s="20"/>
     </row>
-    <row r="184" spans="10:10" ht="15">
+    <row r="184" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J184" s="20"/>
     </row>
-    <row r="185" spans="10:10" ht="15">
+    <row r="185" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J185" s="20"/>
     </row>
-    <row r="186" spans="10:10" ht="15">
+    <row r="186" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J186" s="20"/>
     </row>
-    <row r="187" spans="10:10" ht="15">
+    <row r="187" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J187" s="20"/>
     </row>
-    <row r="188" spans="10:10" ht="15">
+    <row r="188" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J188" s="20"/>
     </row>
-    <row r="189" spans="10:10" ht="15">
+    <row r="189" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J189" s="20"/>
     </row>
-    <row r="190" spans="10:10" ht="15">
+    <row r="190" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J190" s="20"/>
     </row>
-    <row r="191" spans="10:10" ht="15">
+    <row r="191" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J191" s="20"/>
     </row>
-    <row r="192" spans="10:10" ht="15">
+    <row r="192" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J192" s="20"/>
     </row>
-    <row r="193" spans="10:10" ht="15">
+    <row r="193" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J193" s="20"/>
     </row>
-    <row r="194" spans="10:10" ht="15">
+    <row r="194" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J194" s="20"/>
     </row>
-    <row r="195" spans="10:10" ht="15">
+    <row r="195" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J195" s="20"/>
     </row>
-    <row r="196" spans="10:10" ht="15">
+    <row r="196" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J196" s="20"/>
     </row>
-    <row r="197" spans="10:10" ht="15">
+    <row r="197" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J197" s="20"/>
     </row>
-    <row r="198" spans="10:10" ht="15">
+    <row r="198" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J198" s="20"/>
     </row>
-    <row r="199" spans="10:10" ht="15">
+    <row r="199" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J199" s="20"/>
     </row>
-    <row r="200" spans="10:10" ht="15">
+    <row r="200" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J200" s="20"/>
     </row>
-    <row r="201" spans="10:10" ht="15">
+    <row r="201" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J201" s="20"/>
     </row>
-    <row r="202" spans="10:10" ht="15">
+    <row r="202" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J202" s="20"/>
     </row>
-    <row r="203" spans="10:10" ht="15">
+    <row r="203" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J203" s="20"/>
     </row>
-    <row r="204" spans="10:10" ht="15">
+    <row r="204" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J204" s="20"/>
     </row>
-    <row r="205" spans="10:10" ht="15">
+    <row r="205" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J205" s="20"/>
     </row>
-    <row r="206" spans="10:10" ht="15">
+    <row r="206" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J206" s="20"/>
     </row>
-    <row r="207" spans="10:10" ht="15">
+    <row r="207" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J207" s="20"/>
     </row>
-    <row r="208" spans="10:10" ht="15">
+    <row r="208" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J208" s="20"/>
     </row>
-    <row r="209" spans="10:10" ht="15">
+    <row r="209" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J209" s="20"/>
     </row>
-    <row r="210" spans="10:10" ht="15">
+    <row r="210" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J210" s="20"/>
     </row>
-    <row r="211" spans="10:10" ht="15">
+    <row r="211" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J211" s="20"/>
     </row>
-    <row r="212" spans="10:10" ht="15">
+    <row r="212" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J212" s="20"/>
     </row>
-    <row r="213" spans="10:10" ht="15">
+    <row r="213" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J213" s="20"/>
     </row>
-    <row r="214" spans="10:10" ht="15">
+    <row r="214" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J214" s="20"/>
     </row>
-    <row r="215" spans="10:10" ht="15">
+    <row r="215" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J215" s="20"/>
     </row>
-    <row r="216" spans="10:10" ht="15">
+    <row r="216" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J216" s="20"/>
     </row>
-    <row r="217" spans="10:10" ht="15">
+    <row r="217" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J217" s="20"/>
     </row>
-    <row r="218" spans="10:10" ht="15">
+    <row r="218" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J218" s="20"/>
     </row>
-    <row r="219" spans="10:10" ht="15">
+    <row r="219" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J219" s="20"/>
     </row>
-    <row r="220" spans="10:10" ht="15">
+    <row r="220" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J220" s="20"/>
     </row>
-    <row r="221" spans="10:10" ht="15">
+    <row r="221" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J221" s="20"/>
     </row>
-    <row r="222" spans="10:10" ht="15">
+    <row r="222" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J222" s="20"/>
     </row>
-    <row r="223" spans="10:10" ht="15">
+    <row r="223" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J223" s="20"/>
     </row>
-    <row r="224" spans="10:10" ht="15">
+    <row r="224" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J224" s="20"/>
     </row>
-    <row r="225" spans="10:10" ht="15">
+    <row r="225" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J225" s="20"/>
     </row>
-    <row r="226" spans="10:10" ht="15">
+    <row r="226" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J226" s="20"/>
     </row>
-    <row r="227" spans="10:10" ht="15">
+    <row r="227" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J227" s="20"/>
     </row>
-    <row r="228" spans="10:10" ht="15">
+    <row r="228" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J228" s="20"/>
     </row>
-    <row r="229" spans="10:10" ht="15">
+    <row r="229" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J229" s="20"/>
     </row>
-    <row r="230" spans="10:10" ht="15">
+    <row r="230" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J230" s="20"/>
     </row>
-    <row r="231" spans="10:10" ht="15">
+    <row r="231" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J231" s="20"/>
     </row>
-    <row r="232" spans="10:10" ht="15">
+    <row r="232" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J232" s="20"/>
     </row>
-    <row r="233" spans="10:10" ht="15">
+    <row r="233" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J233" s="20"/>
     </row>
-    <row r="234" spans="10:10" ht="15">
+    <row r="234" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J234" s="20"/>
     </row>
-    <row r="235" spans="10:10" ht="15">
+    <row r="235" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J235" s="20"/>
     </row>
-    <row r="236" spans="10:10" ht="15">
+    <row r="236" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J236" s="20"/>
     </row>
-    <row r="237" spans="10:10" ht="15">
+    <row r="237" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J237" s="20"/>
     </row>
-    <row r="238" spans="10:10" ht="15">
+    <row r="238" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J238" s="20"/>
     </row>
-    <row r="239" spans="10:10" ht="15">
+    <row r="239" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J239" s="20"/>
     </row>
-    <row r="240" spans="10:10" ht="15">
+    <row r="240" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J240" s="20"/>
     </row>
-    <row r="241" spans="10:10" ht="15">
+    <row r="241" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J241" s="20"/>
     </row>
-    <row r="242" spans="10:10" ht="15">
+    <row r="242" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J242" s="20"/>
     </row>
-    <row r="243" spans="10:10" ht="15">
+    <row r="243" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J243" s="20"/>
     </row>
-    <row r="244" spans="10:10" ht="15">
+    <row r="244" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J244" s="20"/>
     </row>
-    <row r="245" spans="10:10" ht="15">
+    <row r="245" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J245" s="20"/>
     </row>
-    <row r="246" spans="10:10" ht="15">
+    <row r="246" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J246" s="20"/>
     </row>
-    <row r="247" spans="10:10" ht="15">
+    <row r="247" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J247" s="20"/>
     </row>
-    <row r="248" spans="10:10" ht="15">
+    <row r="248" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J248" s="20"/>
     </row>
-    <row r="249" spans="10:10" ht="15">
+    <row r="249" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J249" s="20"/>
     </row>
-    <row r="250" spans="10:10" ht="15">
+    <row r="250" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J250" s="20"/>
     </row>
-    <row r="251" spans="10:10">
+    <row r="251" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J251" s="20"/>
     </row>
-    <row r="252" spans="10:10">
+    <row r="252" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J252" s="20"/>
     </row>
-    <row r="253" spans="10:10">
+    <row r="253" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J253" s="20"/>
     </row>
-    <row r="254" spans="10:10">
+    <row r="254" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J254" s="20"/>
     </row>
-    <row r="255" spans="10:10">
+    <row r="255" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J255" s="20"/>
     </row>
-    <row r="256" spans="10:10">
+    <row r="256" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J256" s="20"/>
     </row>
-    <row r="257" spans="10:10">
+    <row r="257" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J257" s="20"/>
     </row>
-    <row r="258" spans="10:10">
+    <row r="258" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J258" s="20"/>
     </row>
-    <row r="259" spans="10:10">
+    <row r="259" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J259" s="20"/>
     </row>
-    <row r="260" spans="10:10">
+    <row r="260" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J260" s="20"/>
     </row>
-    <row r="261" spans="10:10">
+    <row r="261" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J261" s="20"/>
     </row>
-    <row r="262" spans="10:10">
+    <row r="262" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J262" s="20"/>
     </row>
-    <row r="263" spans="10:10">
+    <row r="263" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J263" s="20"/>
     </row>
-    <row r="264" spans="10:10">
+    <row r="264" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J264" s="20"/>
     </row>
-    <row r="265" spans="10:10">
+    <row r="265" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J265" s="20"/>
     </row>
-    <row r="266" spans="10:10">
+    <row r="266" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J266" s="20"/>
     </row>
-    <row r="267" spans="10:10">
+    <row r="267" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J267" s="20"/>
     </row>
-    <row r="268" spans="10:10">
+    <row r="268" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J268" s="20"/>
     </row>
-    <row r="269" spans="10:10">
+    <row r="269" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J269" s="20"/>
     </row>
-    <row r="270" spans="10:10">
+    <row r="270" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J270" s="20"/>
     </row>
-    <row r="271" spans="10:10">
+    <row r="271" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J271" s="20"/>
     </row>
-    <row r="272" spans="10:10">
+    <row r="272" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J272" s="20"/>
     </row>
-    <row r="273" spans="10:10">
+    <row r="273" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J273" s="20"/>
     </row>
-    <row r="274" spans="10:10">
+    <row r="274" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J274" s="20"/>
     </row>
-    <row r="275" spans="10:10">
+    <row r="275" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J275" s="20"/>
     </row>
-    <row r="276" spans="10:10">
+    <row r="276" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J276" s="20"/>
     </row>
-    <row r="277" spans="10:10">
+    <row r="277" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J277" s="20"/>
     </row>
-    <row r="278" spans="10:10">
+    <row r="278" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J278" s="20"/>
     </row>
-    <row r="279" spans="10:10">
+    <row r="279" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J279" s="20"/>
     </row>
-    <row r="280" spans="10:10">
+    <row r="280" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J280" s="20"/>
     </row>
-    <row r="281" spans="10:10">
+    <row r="281" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J281" s="20"/>
     </row>
-    <row r="282" spans="10:10">
+    <row r="282" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J282" s="20"/>
     </row>
-    <row r="283" spans="10:10">
+    <row r="283" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J283" s="20"/>
     </row>
-    <row r="284" spans="10:10">
+    <row r="284" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J284" s="20"/>
     </row>
-    <row r="285" spans="10:10">
+    <row r="285" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J285" s="20"/>
     </row>
-    <row r="286" spans="10:10">
+    <row r="286" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J286" s="20"/>
     </row>
-    <row r="287" spans="10:10">
+    <row r="287" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J287" s="20"/>
     </row>
-    <row r="288" spans="10:10">
+    <row r="288" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J288" s="20"/>
     </row>
-    <row r="289" spans="10:10">
+    <row r="289" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J289" s="20"/>
     </row>
   </sheetData>
@@ -6538,7 +6837,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -6548,7 +6847,7 @@
     <col min="13" max="13" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:47">
+    <row r="1" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>113</v>
       </c>
@@ -6574,7 +6873,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="3:47">
+    <row r="2" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2:D24">TRANSPOSE(Y2:AU3)</f>
         <v>2001</v>
@@ -6680,7 +6979,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="3:47">
+    <row r="3" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C3" t="str">
         <v>2002</v>
       </c>
@@ -6785,7 +7084,7 @@
         <v>44368658</v>
       </c>
     </row>
-    <row r="4" spans="3:47">
+    <row r="4" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C4" t="str">
         <v>2003</v>
       </c>
@@ -6815,7 +7114,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="3:47">
+    <row r="5" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C5" t="str">
         <v>2004</v>
       </c>
@@ -6842,7 +7141,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="6" spans="3:47">
+    <row r="6" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C6" t="str">
         <v>2005</v>
       </c>
@@ -6869,7 +7168,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="7" spans="3:47">
+    <row r="7" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C7" t="str">
         <v>2006</v>
       </c>
@@ -6898,7 +7197,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="3:47">
+    <row r="8" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C8" t="str">
         <v>2007</v>
       </c>
@@ -6919,7 +7218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:47">
+    <row r="9" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C9" t="str">
         <v>2008</v>
       </c>
@@ -6943,7 +7242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:47">
+    <row r="10" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C10" t="str">
         <v>2009</v>
       </c>
@@ -6957,7 +7256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:47">
+    <row r="11" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C11" t="str">
         <v>2010</v>
       </c>
@@ -6971,7 +7270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="3:47">
+    <row r="12" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C12" t="str">
         <v>2011</v>
       </c>
@@ -6988,7 +7287,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="3:47">
+    <row r="13" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C13" t="str">
         <v>2012</v>
       </c>
@@ -6996,7 +7295,7 @@
         <v>41853628</v>
       </c>
     </row>
-    <row r="14" spans="3:47">
+    <row r="14" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C14" t="str">
         <v>2013</v>
       </c>
@@ -7004,7 +7303,7 @@
         <v>42212988</v>
       </c>
     </row>
-    <row r="15" spans="3:47">
+    <row r="15" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C15" t="str">
         <v>2014</v>
       </c>
@@ -7012,7 +7311,7 @@
         <v>42458390</v>
       </c>
     </row>
-    <row r="16" spans="3:47">
+    <row r="16" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C16" t="str">
         <v>2015</v>
       </c>
@@ -7020,7 +7319,7 @@
         <v>42660629</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="str">
         <v>2016</v>
       </c>
@@ -7028,7 +7327,7 @@
         <v>43567225</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="str">
         <v>2017</v>
       </c>
@@ -7036,7 +7335,7 @@
         <v>43819028</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="str">
         <v>2018</v>
       </c>
@@ -7044,7 +7343,7 @@
         <v>43935038</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="str">
         <v>2019</v>
       </c>
@@ -7052,7 +7351,7 @@
         <v>44433744</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="str">
         <v>2020</v>
       </c>
@@ -7060,7 +7359,7 @@
         <v>43501190</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="str">
         <v>2021</v>
       </c>
@@ -7068,7 +7367,7 @@
         <v>43386527</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="str">
         <v>2022</v>
       </c>
@@ -7076,7 +7375,7 @@
         <v>44198105</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" t="str">
         <v>2023</v>
       </c>
@@ -7103,14 +7402,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2009</v>
       </c>
@@ -7118,92 +7417,92 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -7221,7 +7520,7 @@
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
@@ -7236,7 +7535,7 @@
     <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>185</v>
       </c>
@@ -7292,7 +7591,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C2" s="4">
         <v>36526</v>
       </c>
@@ -7332,7 +7631,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="3" spans="2:19">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C3" s="4">
         <v>36892</v>
       </c>
@@ -7372,7 +7671,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C4" s="4">
         <v>37257</v>
       </c>
@@ -7412,7 +7711,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C5" s="4">
         <v>37622</v>
       </c>
@@ -7452,7 +7751,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
         <v>37987</v>
       </c>
@@ -7492,7 +7791,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>38353</v>
       </c>
@@ -7520,7 +7819,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C8" s="4">
         <v>38718</v>
       </c>
@@ -7548,7 +7847,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="9" spans="2:19">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
         <v>39083</v>
       </c>
@@ -7576,7 +7875,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="10" spans="2:19">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C10" s="4">
         <v>39448</v>
       </c>
@@ -7604,7 +7903,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:19">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <v>39814</v>
       </c>
@@ -7632,7 +7931,7 @@
         <v>-6.2</v>
       </c>
     </row>
-    <row r="12" spans="2:19">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C12" s="4">
         <v>40179</v>
       </c>
@@ -7660,7 +7959,7 @@
         <v>-6.3</v>
       </c>
     </row>
-    <row r="13" spans="2:19">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
         <v>40544</v>
       </c>
@@ -7688,7 +7987,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C14" s="4">
         <v>40909</v>
       </c>
@@ -7716,7 +8015,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C15" s="4">
         <v>41275</v>
       </c>
@@ -7744,7 +8043,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C16" s="4">
         <v>41640</v>
       </c>
@@ -7772,7 +8071,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="17" spans="3:19">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17" s="4">
         <v>42005</v>
       </c>
@@ -7800,7 +8099,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="3:19">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C18" s="4">
         <v>42370</v>
       </c>
@@ -7828,7 +8127,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="19" spans="3:19">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19" s="4">
         <v>42736</v>
       </c>
@@ -7856,7 +8155,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="20" spans="3:19">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C20" s="4">
         <v>43101</v>
       </c>
@@ -7884,7 +8183,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="21" spans="3:19">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C21" s="4">
         <v>43466</v>
       </c>
@@ -7912,7 +8211,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="22" spans="3:19">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="4">
         <v>43831</v>
       </c>
@@ -7940,7 +8239,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="23" spans="3:19">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C23" s="4">
         <v>44197</v>
       </c>
@@ -7968,7 +8267,7 @@
         <v>-5.2</v>
       </c>
     </row>
-    <row r="24" spans="3:19">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C24" s="4">
         <v>44562</v>
       </c>
@@ -7996,7 +8295,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="25" spans="3:19">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25" s="4">
         <v>44927</v>
       </c>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicla\Desktop\UNI\R-Studio\Projekt Eksamen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonhedegaard/Desktop/simons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465BCBCA-0A0D-43B5-AF41-BFF0F6465CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071B8EB2-A1B0-E14E-9BFF-1E2D3CDDA101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nøgletal" sheetId="1" r:id="rId1"/>
@@ -139,294 +139,6 @@
     <t>China annual growth</t>
   </si>
   <si>
-    <t> 0,9865 </t>
-  </si>
-  <si>
-    <t> 0,9332 </t>
-  </si>
-  <si>
-    <t> 0,9052 </t>
-  </si>
-  <si>
-    <t> 0,8683 </t>
-  </si>
-  <si>
-    <t> 0,9232 </t>
-  </si>
-  <si>
-    <t> 0,8725 </t>
-  </si>
-  <si>
-    <t> 0,8903 </t>
-  </si>
-  <si>
-    <t> 0,8959 </t>
-  </si>
-  <si>
-    <t> 0,8766 </t>
-  </si>
-  <si>
-    <t> 0,9188 </t>
-  </si>
-  <si>
-    <t> 0,9838 </t>
-  </si>
-  <si>
-    <t> 0,9994 </t>
-  </si>
-  <si>
-    <t> 1,0731 </t>
-  </si>
-  <si>
-    <t> 1,1372 </t>
-  </si>
-  <si>
-    <t> 1,1248 </t>
-  </si>
-  <si>
-    <t> 1,1890 </t>
-  </si>
-  <si>
-    <t> 1,2497 </t>
-  </si>
-  <si>
-    <t> 1,2046 </t>
-  </si>
-  <si>
-    <t> 1,2220 </t>
-  </si>
-  <si>
-    <t> 1,2977 </t>
-  </si>
-  <si>
-    <t> 1,3113 </t>
-  </si>
-  <si>
-    <t> 1,2594 </t>
-  </si>
-  <si>
-    <t> 1,2199 </t>
-  </si>
-  <si>
-    <t> 1,1884 </t>
-  </si>
-  <si>
-    <t> 1,2023 </t>
-  </si>
-  <si>
-    <t> 1,2582 </t>
-  </si>
-  <si>
-    <t> 1,2743 </t>
-  </si>
-  <si>
-    <t> 1,2887 </t>
-  </si>
-  <si>
-    <t> 1,3106 </t>
-  </si>
-  <si>
-    <t> 1,3481 </t>
-  </si>
-  <si>
-    <t> 1,3738 </t>
-  </si>
-  <si>
-    <t> 1,4486 </t>
-  </si>
-  <si>
-    <t> 1,4976 </t>
-  </si>
-  <si>
-    <t> 1,5622 </t>
-  </si>
-  <si>
-    <t> 1,5050 </t>
-  </si>
-  <si>
-    <t> 1,3180 </t>
-  </si>
-  <si>
-    <t> 1,3029 </t>
-  </si>
-  <si>
-    <t> 1,3632 </t>
-  </si>
-  <si>
-    <t> 1,4303 </t>
-  </si>
-  <si>
-    <t> 1,4779 </t>
-  </si>
-  <si>
-    <t> 1,3829 </t>
-  </si>
-  <si>
-    <t> 1,2708 </t>
-  </si>
-  <si>
-    <t> 1,2910 </t>
-  </si>
-  <si>
-    <t> 1,3583 </t>
-  </si>
-  <si>
-    <t> 1,3680 </t>
-  </si>
-  <si>
-    <t> 1,4391 </t>
-  </si>
-  <si>
-    <t> 1,4127 </t>
-  </si>
-  <si>
-    <t> 1,3482 </t>
-  </si>
-  <si>
-    <t> 1,3108 </t>
-  </si>
-  <si>
-    <t> 1,2814 </t>
-  </si>
-  <si>
-    <t> 1,2502 </t>
-  </si>
-  <si>
-    <t> 1,2967 </t>
-  </si>
-  <si>
-    <t> 1,3206 </t>
-  </si>
-  <si>
-    <t> 1,3062 </t>
-  </si>
-  <si>
-    <t> 1,3242 </t>
-  </si>
-  <si>
-    <t> 1,3610 </t>
-  </si>
-  <si>
-    <t> 1,3696 </t>
-  </si>
-  <si>
-    <t> 1,3711 </t>
-  </si>
-  <si>
-    <t> 1,3256 </t>
-  </si>
-  <si>
-    <t> 1,2498 </t>
-  </si>
-  <si>
-    <t> 1,1261 </t>
-  </si>
-  <si>
-    <t> 1,1053 </t>
-  </si>
-  <si>
-    <t> 1,1117 </t>
-  </si>
-  <si>
-    <t> 1,0953 </t>
-  </si>
-  <si>
-    <t> 1,1020 </t>
-  </si>
-  <si>
-    <t> 1,1292 </t>
-  </si>
-  <si>
-    <t> 1,1166 </t>
-  </si>
-  <si>
-    <t> 1,0789 </t>
-  </si>
-  <si>
-    <t> 1,0648 </t>
-  </si>
-  <si>
-    <t> 1,1021 </t>
-  </si>
-  <si>
-    <t> 1,1746 </t>
-  </si>
-  <si>
-    <t> 1,1774 </t>
-  </si>
-  <si>
-    <t> 1,2292 </t>
-  </si>
-  <si>
-    <t> 1,1915 </t>
-  </si>
-  <si>
-    <t> 1,1629 </t>
-  </si>
-  <si>
-    <t> 1,1414 </t>
-  </si>
-  <si>
-    <t> 1,1358 </t>
-  </si>
-  <si>
-    <t> 1,1237 </t>
-  </si>
-  <si>
-    <t> 1,1119 </t>
-  </si>
-  <si>
-    <t> 1,1071 </t>
-  </si>
-  <si>
-    <t> 1,1027 </t>
-  </si>
-  <si>
-    <t> 1,1014 </t>
-  </si>
-  <si>
-    <t> 1,1689 </t>
-  </si>
-  <si>
-    <t> 1,1929 </t>
-  </si>
-  <si>
-    <t> 1,2048 </t>
-  </si>
-  <si>
-    <t> 1,2058 </t>
-  </si>
-  <si>
-    <t> 1,1788 </t>
-  </si>
-  <si>
-    <t> 1,1435 </t>
-  </si>
-  <si>
-    <t> 1,1217 </t>
-  </si>
-  <si>
-    <t> 1,0647 </t>
-  </si>
-  <si>
-    <t> 1,0070 </t>
-  </si>
-  <si>
-    <t> 1,0205 </t>
-  </si>
-  <si>
-    <t> 1,0730 </t>
-  </si>
-  <si>
-    <t> 1,0887 </t>
-  </si>
-  <si>
-    <t> 1,0884 </t>
-  </si>
-  <si>
-    <t> 1,0751 </t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -668,6 +380,294 @@
   </si>
   <si>
     <t>Real GDP percent year ago</t>
+  </si>
+  <si>
+    <t> 0.9865 </t>
+  </si>
+  <si>
+    <t> 0.9332 </t>
+  </si>
+  <si>
+    <t> 0.9052 </t>
+  </si>
+  <si>
+    <t> 0.8683 </t>
+  </si>
+  <si>
+    <t> 0.9232 </t>
+  </si>
+  <si>
+    <t> 0.8725 </t>
+  </si>
+  <si>
+    <t> 0.8903 </t>
+  </si>
+  <si>
+    <t> 0.8959 </t>
+  </si>
+  <si>
+    <t> 0.8766 </t>
+  </si>
+  <si>
+    <t> 0.9188 </t>
+  </si>
+  <si>
+    <t> 0.9838 </t>
+  </si>
+  <si>
+    <t> 0.9994 </t>
+  </si>
+  <si>
+    <t> 1.0731 </t>
+  </si>
+  <si>
+    <t> 1.1372 </t>
+  </si>
+  <si>
+    <t> 1.1248 </t>
+  </si>
+  <si>
+    <t> 1.1890 </t>
+  </si>
+  <si>
+    <t> 1.2497 </t>
+  </si>
+  <si>
+    <t> 1.2046 </t>
+  </si>
+  <si>
+    <t> 1.2220 </t>
+  </si>
+  <si>
+    <t> 1.2977 </t>
+  </si>
+  <si>
+    <t> 1.3113 </t>
+  </si>
+  <si>
+    <t> 1.2594 </t>
+  </si>
+  <si>
+    <t> 1.2199 </t>
+  </si>
+  <si>
+    <t> 1.1884 </t>
+  </si>
+  <si>
+    <t> 1.2023 </t>
+  </si>
+  <si>
+    <t> 1.2582 </t>
+  </si>
+  <si>
+    <t> 1.2743 </t>
+  </si>
+  <si>
+    <t> 1.2887 </t>
+  </si>
+  <si>
+    <t> 1.3106 </t>
+  </si>
+  <si>
+    <t> 1.3481 </t>
+  </si>
+  <si>
+    <t> 1.3738 </t>
+  </si>
+  <si>
+    <t> 1.4486 </t>
+  </si>
+  <si>
+    <t> 1.4976 </t>
+  </si>
+  <si>
+    <t> 1.5622 </t>
+  </si>
+  <si>
+    <t> 1.5050 </t>
+  </si>
+  <si>
+    <t> 1.3180 </t>
+  </si>
+  <si>
+    <t> 1.3029 </t>
+  </si>
+  <si>
+    <t> 1.3632 </t>
+  </si>
+  <si>
+    <t> 1.4303 </t>
+  </si>
+  <si>
+    <t> 1.4779 </t>
+  </si>
+  <si>
+    <t> 1.3829 </t>
+  </si>
+  <si>
+    <t> 1.2708 </t>
+  </si>
+  <si>
+    <t> 1.2910 </t>
+  </si>
+  <si>
+    <t> 1.3583 </t>
+  </si>
+  <si>
+    <t> 1.3680 </t>
+  </si>
+  <si>
+    <t> 1.4391 </t>
+  </si>
+  <si>
+    <t> 1.4127 </t>
+  </si>
+  <si>
+    <t> 1.3482 </t>
+  </si>
+  <si>
+    <t> 1.3108 </t>
+  </si>
+  <si>
+    <t> 1.2814 </t>
+  </si>
+  <si>
+    <t> 1.2502 </t>
+  </si>
+  <si>
+    <t> 1.2967 </t>
+  </si>
+  <si>
+    <t> 1.3206 </t>
+  </si>
+  <si>
+    <t> 1.3062 </t>
+  </si>
+  <si>
+    <t> 1.3242 </t>
+  </si>
+  <si>
+    <t> 1.3610 </t>
+  </si>
+  <si>
+    <t> 1.3696 </t>
+  </si>
+  <si>
+    <t> 1.3711 </t>
+  </si>
+  <si>
+    <t> 1.3256 </t>
+  </si>
+  <si>
+    <t> 1.2498 </t>
+  </si>
+  <si>
+    <t> 1.1261 </t>
+  </si>
+  <si>
+    <t> 1.1053 </t>
+  </si>
+  <si>
+    <t> 1.1117 </t>
+  </si>
+  <si>
+    <t> 1.0953 </t>
+  </si>
+  <si>
+    <t> 1.1020 </t>
+  </si>
+  <si>
+    <t> 1.1292 </t>
+  </si>
+  <si>
+    <t> 1.1166 </t>
+  </si>
+  <si>
+    <t> 1.0789 </t>
+  </si>
+  <si>
+    <t> 1.0648 </t>
+  </si>
+  <si>
+    <t> 1.1021 </t>
+  </si>
+  <si>
+    <t> 1.1746 </t>
+  </si>
+  <si>
+    <t> 1.1774 </t>
+  </si>
+  <si>
+    <t> 1.2292 </t>
+  </si>
+  <si>
+    <t> 1.1915 </t>
+  </si>
+  <si>
+    <t> 1.1629 </t>
+  </si>
+  <si>
+    <t> 1.1414 </t>
+  </si>
+  <si>
+    <t> 1.1358 </t>
+  </si>
+  <si>
+    <t> 1.1237 </t>
+  </si>
+  <si>
+    <t> 1.1119 </t>
+  </si>
+  <si>
+    <t> 1.1071 </t>
+  </si>
+  <si>
+    <t> 1.1027 </t>
+  </si>
+  <si>
+    <t> 1.1014 </t>
+  </si>
+  <si>
+    <t> 1.1689 </t>
+  </si>
+  <si>
+    <t> 1.1929 </t>
+  </si>
+  <si>
+    <t> 1.2048 </t>
+  </si>
+  <si>
+    <t> 1.2058 </t>
+  </si>
+  <si>
+    <t> 1.1788 </t>
+  </si>
+  <si>
+    <t> 1.1435 </t>
+  </si>
+  <si>
+    <t> 1.1217 </t>
+  </si>
+  <si>
+    <t> 1.0647 </t>
+  </si>
+  <si>
+    <t> 1.0070 </t>
+  </si>
+  <si>
+    <t> 1.0205 </t>
+  </si>
+  <si>
+    <t> 1.0730 </t>
+  </si>
+  <si>
+    <t> 1.0887 </t>
+  </si>
+  <si>
+    <t> 1.0884 </t>
+  </si>
+  <si>
+    <t> 1.0751 </t>
   </si>
 </sst>
 </file>
@@ -716,11 +716,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1221,31 +1222,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P73" zoomScale="60" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="84.85546875" customWidth="1"/>
+    <col min="12" max="12" width="84.83203125" customWidth="1"/>
     <col min="13" max="13" width="79" customWidth="1"/>
-    <col min="14" max="14" width="49.7109375" customWidth="1"/>
+    <col min="14" max="14" width="49.6640625" customWidth="1"/>
     <col min="15" max="15" width="79" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1298,10 +1299,10 @@
         <v>16</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1327,7 +1328,7 @@
         <v>6.189796E-3</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="J2" s="9">
         <v>74.5</v>
@@ -1356,7 +1357,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>-6.1099225E-2</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="J3" s="9">
         <v>77</v>
@@ -1410,7 +1411,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>0.91796691399999997</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="J4" s="9">
         <v>78.400000000000006</v>
@@ -1464,7 +1465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>0.82722910999999999</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="J5" s="9">
         <v>79.5</v>
@@ -1518,7 +1519,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1544,7 +1545,7 @@
         <v>-1.7235691150000001</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="J6" s="9">
         <v>79.099999999999994</v>
@@ -1572,7 +1573,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>0.216069645</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="J7" s="9">
         <v>79.400000000000006</v>
@@ -1626,7 +1627,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>0.28924004399999997</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="J8" s="9">
         <v>78.2</v>
@@ -1680,7 +1681,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>1.0089601180000001</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="J9" s="9">
         <v>77.8</v>
@@ -1734,7 +1735,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>2.8872630999999999E-2</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="J10" s="9">
         <v>78.599999999999994</v>
@@ -1788,7 +1789,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>-0.35898126600000002</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="J11" s="9">
         <v>80.8</v>
@@ -1842,7 +1843,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1868,7 +1869,7 @@
         <v>0.19652018800000001</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="J12" s="9">
         <v>81.2</v>
@@ -1896,7 +1897,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1922,7 +1923,7 @@
         <v>0.37363352300000002</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="J13" s="9">
         <v>81.599999999999994</v>
@@ -1950,7 +1951,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1976,7 +1977,7 @@
         <v>1.3128743810000001</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="J14" s="9">
         <v>82.8</v>
@@ -2004,7 +2005,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>-0.21871228300000001</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="J15" s="9">
         <v>81.900000000000006</v>
@@ -2058,7 +2059,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>5.3757728999999997E-2</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="J16" s="9">
         <v>83.5</v>
@@ -2112,7 +2113,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>-0.36024741999999998</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="J17" s="9">
         <v>84.1</v>
@@ -2166,7 +2167,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -2192,7 +2193,7 @@
         <v>0.50438195900000005</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="J18" s="9">
         <v>85.7</v>
@@ -2220,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>-0.56357813199999995</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="J19" s="9">
         <v>85.5</v>
@@ -2274,7 +2275,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>0.234477987</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="J20" s="9">
         <v>87.4</v>
@@ -2328,7 +2329,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>0.13371394</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="J21" s="9">
         <v>87.9</v>
@@ -2382,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>0.17811001000000001</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="J22" s="9">
         <v>88.8</v>
@@ -2436,7 +2437,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>-0.61401686499999997</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="J23" s="9">
         <v>89</v>
@@ -2490,7 +2491,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>-0.82696737799999998</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="J24" s="9">
         <v>91.2</v>
@@ -2544,7 +2545,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -2570,7 +2571,7 @@
         <v>-0.18833066800000001</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="J25" s="9">
         <v>93.1</v>
@@ -2595,7 +2596,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>-0.481418554</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="J26" s="9">
         <v>93.1</v>
@@ -2646,7 +2647,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -2672,7 +2673,7 @@
         <v>-1.0422138990000001</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="J27" s="9">
         <v>93.9</v>
@@ -2697,7 +2698,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -2723,7 +2724,7 @@
         <v>0.32956871700000001</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="J28" s="9">
         <v>96.1</v>
@@ -2748,7 +2749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -2774,7 +2775,7 @@
         <v>-1.249074837</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="J29" s="9">
         <v>97</v>
@@ -2799,7 +2800,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>0.71465696199999995</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="J30" s="9">
         <v>98.7</v>
@@ -2850,7 +2851,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -2876,7 +2877,7 @@
         <v>-0.16857691</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="J31" s="9">
         <v>99.6</v>
@@ -2901,7 +2902,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>0.13418472100000001</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="J32" s="9">
         <v>100.4</v>
@@ -2952,7 +2953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>0.182158871</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="J33" s="9">
         <v>101.4</v>
@@ -3003,7 +3004,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -3029,7 +3030,7 @@
         <v>0.71565135300000005</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="J34" s="9">
         <v>102.8</v>
@@ -3054,7 +3055,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>1.113549911</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="J35" s="9">
         <v>100.9</v>
@@ -3105,7 +3106,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -3131,7 +3132,7 @@
         <v>1.2781141380000001</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="J36" s="9">
         <v>99.4</v>
@@ -3156,7 +3157,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -3182,7 +3183,7 @@
         <v>2.4862323260000001</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="J37" s="9">
         <v>96.4</v>
@@ -3207,7 +3208,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>4.01263799</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="J38" s="9">
         <v>87.7</v>
@@ -3258,7 +3259,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>-0.44995182900000003</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="J39" s="9">
         <v>85.9</v>
@@ -3309,7 +3310,7 @@
         <v>-6.7</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>0.103046163</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="J40" s="9">
         <v>89.8</v>
@@ -3360,7 +3361,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>-0.34085805600000002</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="J41" s="9">
         <v>91.8</v>
@@ -3411,7 +3412,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -3437,7 +3438,7 @@
         <v>0.205584079</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J42" s="9">
         <v>92.9</v>
@@ -3462,7 +3463,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -3488,7 +3489,7 @@
         <v>-1.4406707940000001</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="J43" s="9">
         <v>95.1</v>
@@ -3513,7 +3514,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -3539,7 +3540,7 @@
         <v>0.21948596400000001</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="J44" s="9">
         <v>98</v>
@@ -3564,7 +3565,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>0.115391919</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="J45" s="9">
         <v>100.7</v>
@@ -3615,7 +3616,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -3641,7 +3642,7 @@
         <v>-0.485703406</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="J46" s="9">
         <v>100.7</v>
@@ -3666,7 +3667,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -3692,7 +3693,7 @@
         <v>1.0073198729999999</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="J47" s="9">
         <v>101.6</v>
@@ -3717,7 +3718,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -3743,7 +3744,7 @@
         <v>-0.273985272</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="J48" s="9">
         <v>103.3</v>
@@ -3768,7 +3769,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>1.040173692</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="J49" s="9">
         <v>101.1</v>
@@ -3819,7 +3820,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>1.0338263190000001</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="J50" s="9">
         <v>99.9</v>
@@ -3870,7 +3871,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -3896,7 +3897,7 @@
         <v>1.075717472</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="J51" s="9">
         <v>99.9</v>
@@ -3921,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -3947,7 +3948,7 @@
         <v>0.25398210599999999</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="J52" s="9">
         <v>100.2</v>
@@ -3972,7 +3973,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -3998,7 +3999,7 @@
         <v>1.145063817</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="J53" s="9">
         <v>98.3</v>
@@ -4023,7 +4024,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -4049,7 +4050,7 @@
         <v>0.77873195699999997</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="J54" s="9">
         <v>97.2</v>
@@ -4074,7 +4075,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -4100,7 +4101,7 @@
         <v>-0.20622728300000001</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="J55" s="9">
         <v>98.2</v>
@@ -4125,7 +4126,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>0.33452826099999999</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="J56" s="9">
         <v>98.5</v>
@@ -4176,7 +4177,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>0.43758760899999999</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="J57" s="9">
         <v>99.7</v>
@@ -4227,7 +4228,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -4253,7 +4254,7 @@
         <v>0.42331946100000001</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="J58" s="9">
         <v>100.2</v>
@@ -4278,7 +4279,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -4304,7 +4305,7 @@
         <v>0.67863599299999999</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="J59" s="9">
         <v>100.9</v>
@@ -4329,7 +4330,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -4355,7 +4356,7 @@
         <v>0.33743779200000001</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="J60" s="9">
         <v>100.4</v>
@@ -4380,7 +4381,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>-5.1236979000000002E-2</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="J61" s="9">
         <v>99.6</v>
@@ -4431,7 +4432,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -4457,7 +4458,7 @@
         <v>1.4017342260000001</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="J62" s="9">
         <v>99.3</v>
@@ -4482,7 +4483,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -4508,7 +4509,7 @@
         <v>0.61928616199999997</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="J63" s="9">
         <v>100.3</v>
@@ -4533,7 +4534,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -4559,7 +4560,7 @@
         <v>0.34922859699999997</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="J64" s="9">
         <v>100.8</v>
@@ -4584,7 +4585,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -4610,7 +4611,7 @@
         <v>0.48434283</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="J65" s="9">
         <v>100</v>
@@ -4635,7 +4636,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -4661,7 +4662,7 @@
         <v>-1.1341777000000001E-2</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="J66" s="9">
         <v>100.2</v>
@@ -4686,7 +4687,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -4712,7 +4713,7 @@
         <v>0.21672678200000001</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="J67" s="9">
         <v>100</v>
@@ -4737,7 +4738,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>0.72955927700000001</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="J68" s="9">
         <v>99.2</v>
@@ -4788,7 +4789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -4814,7 +4815,7 @@
         <v>0.75536793800000002</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="J69" s="9">
         <v>101.1</v>
@@ -4839,7 +4840,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -4865,7 +4866,7 @@
         <v>-0.225438633</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="J70" s="9">
         <v>101.4</v>
@@ -4890,7 +4891,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -4916,7 +4917,7 @@
         <v>9.5723476000000002E-2</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="J71" s="9">
         <v>102.3</v>
@@ -4941,7 +4942,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -4967,7 +4968,7 @@
         <v>0.17080437100000001</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="J72" s="9">
         <v>102</v>
@@ -4992,7 +4993,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>0.300921771</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="J73" s="9">
         <v>102.3</v>
@@ -5043,7 +5044,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -5069,7 +5070,7 @@
         <v>1.696573431</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="J74" s="9">
         <v>103.5</v>
@@ -5094,7 +5095,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -5120,7 +5121,7 @@
         <v>0.307884873</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="J75" s="9">
         <v>102.6</v>
@@ -5145,7 +5146,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -5171,7 +5172,7 @@
         <v>2.071250934</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="J76" s="9">
         <v>101.3</v>
@@ -5196,7 +5197,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -5222,7 +5223,7 @@
         <v>-0.10087025299999999</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="J77" s="9">
         <v>100.5</v>
@@ -5247,7 +5248,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -5273,7 +5274,7 @@
         <v>0.859144515</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="J78" s="9">
         <v>99.7</v>
@@ -5298,7 +5299,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -5324,7 +5325,7 @@
         <v>1.2532962050000001</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="J79" s="9">
         <v>99.9</v>
@@ -5349,7 +5350,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -5375,7 +5376,7 @@
         <v>0.96502109999999997</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="J80" s="9">
         <v>99.9</v>
@@ -5400,7 +5401,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>-0.444042086</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="J81" s="9">
         <v>99.2</v>
@@ -5451,7 +5452,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -5477,7 +5478,7 @@
         <v>2.3199836079999998</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="J82" s="9">
         <v>100.1</v>
@@ -5502,7 +5503,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -5528,7 +5529,7 @@
         <v>5.1741168350000004</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="J83" s="9">
         <v>84.3</v>
@@ -5553,7 +5554,7 @@
         <v>-10.6</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -5579,7 +5580,7 @@
         <v>-5.2851272979999999</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="J84" s="9">
         <v>97.6</v>
@@ -5604,7 +5605,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -5630,7 +5631,7 @@
         <v>0.38957438799999999</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="J85" s="9">
         <v>101.3</v>
@@ -5655,7 +5656,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -5681,7 +5682,7 @@
         <v>0.84115114099999999</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="J86" s="9">
         <v>100.9</v>
@@ -5706,7 +5707,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -5732,7 +5733,7 @@
         <v>-1.173164289</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="J87" s="9">
         <v>100.1</v>
@@ -5757,7 +5758,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -5783,7 +5784,7 @@
         <v>1.967425395</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="J88" s="9">
         <v>99.8</v>
@@ -5808,7 +5809,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>1.1958062629999999</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="J89" s="9">
         <v>99.9</v>
@@ -5859,7 +5860,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -5885,7 +5886,7 @@
         <v>0.44063753</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="J90" s="9">
         <v>101</v>
@@ -5910,7 +5911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -5936,7 +5937,7 @@
         <v>-1.1231299999999999E-4</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="J91" s="9">
         <v>98.3</v>
@@ -5961,7 +5962,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -5987,7 +5988,7 @@
         <v>1.1345507189999999</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="J92" s="9">
         <v>98.5</v>
@@ -6012,7 +6013,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -6038,7 +6039,7 @@
         <v>2.8696497490000001</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="J93" s="9">
         <v>99.2</v>
@@ -6063,7 +6064,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -6089,7 +6090,7 @@
         <v>2.5742279589999999</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="J94" s="9">
         <v>99</v>
@@ -6110,7 +6111,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -6136,7 +6137,7 @@
         <v>9.2769905E-2</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="J95" s="9">
         <v>97.3</v>
@@ -6157,7 +6158,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -6183,7 +6184,7 @@
         <v>1.5655721570000001</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="J96" s="9">
         <v>95.4</v>
@@ -6201,7 +6202,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -6219,7 +6220,7 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="J97" s="9">
         <v>96.7</v>
@@ -6234,591 +6235,591 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J113" s="20"/>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J114" s="20"/>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J115" s="20"/>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J116" s="20"/>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J117" s="20"/>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J119" s="20"/>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J120" s="20"/>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J121" s="20"/>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J122" s="20"/>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J123" s="20"/>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J124" s="20"/>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J125" s="20"/>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J126" s="20"/>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J127" s="20"/>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J128" s="20"/>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J129" s="20"/>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J130" s="20"/>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J131" s="20"/>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J132" s="20"/>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J133" s="20"/>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J134" s="20"/>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J135" s="20"/>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J136" s="20"/>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J137" s="20"/>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J138" s="20"/>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J139" s="20"/>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J140" s="20"/>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J141" s="20"/>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J142" s="20"/>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J143" s="20"/>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J144" s="20"/>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J145" s="20"/>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J146" s="20"/>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J147" s="20"/>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J148" s="20"/>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J149" s="20"/>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J150" s="20"/>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J151" s="20"/>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J152" s="20"/>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J153" s="20"/>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J154" s="20"/>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J155" s="20"/>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J156" s="20"/>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J157" s="20"/>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J158" s="20"/>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J159" s="20"/>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J160" s="20"/>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J161" s="20"/>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J162" s="20"/>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J163" s="20"/>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J164" s="20"/>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J165" s="20"/>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J166" s="20"/>
     </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J167" s="20"/>
     </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J168" s="20"/>
     </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J169" s="20"/>
     </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J170" s="20"/>
     </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J171" s="20"/>
     </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J172" s="20"/>
     </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J173" s="20"/>
     </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J174" s="20"/>
     </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J175" s="20"/>
     </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J176" s="20"/>
     </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J177" s="20"/>
     </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J178" s="20"/>
     </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J179" s="20"/>
     </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J180" s="20"/>
     </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J181" s="20"/>
     </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J182" s="20"/>
     </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J183" s="20"/>
     </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J184" s="20"/>
     </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J185" s="20"/>
     </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J186" s="20"/>
     </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J187" s="20"/>
     </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J188" s="20"/>
     </row>
-    <row r="189" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J189" s="20"/>
     </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J190" s="20"/>
     </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J191" s="20"/>
     </row>
-    <row r="192" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J192" s="20"/>
     </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J193" s="20"/>
     </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J194" s="20"/>
     </row>
-    <row r="195" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J195" s="20"/>
     </row>
-    <row r="196" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J196" s="20"/>
     </row>
-    <row r="197" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J197" s="20"/>
     </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J198" s="20"/>
     </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J199" s="20"/>
     </row>
-    <row r="200" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J200" s="20"/>
     </row>
-    <row r="201" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J201" s="20"/>
     </row>
-    <row r="202" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J202" s="20"/>
     </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J203" s="20"/>
     </row>
-    <row r="204" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J204" s="20"/>
     </row>
-    <row r="205" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J205" s="20"/>
     </row>
-    <row r="206" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J206" s="20"/>
     </row>
-    <row r="207" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J207" s="20"/>
     </row>
-    <row r="208" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J208" s="20"/>
     </row>
-    <row r="209" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J209" s="20"/>
     </row>
-    <row r="210" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J210" s="20"/>
     </row>
-    <row r="211" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J211" s="20"/>
     </row>
-    <row r="212" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J212" s="20"/>
     </row>
-    <row r="213" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J213" s="20"/>
     </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J214" s="20"/>
     </row>
-    <row r="215" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J215" s="20"/>
     </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J216" s="20"/>
     </row>
-    <row r="217" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J217" s="20"/>
     </row>
-    <row r="218" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J218" s="20"/>
     </row>
-    <row r="219" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J219" s="20"/>
     </row>
-    <row r="220" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J220" s="20"/>
     </row>
-    <row r="221" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J221" s="20"/>
     </row>
-    <row r="222" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J222" s="20"/>
     </row>
-    <row r="223" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J223" s="20"/>
     </row>
-    <row r="224" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J224" s="20"/>
     </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J225" s="20"/>
     </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J226" s="20"/>
     </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J227" s="20"/>
     </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J228" s="20"/>
     </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J229" s="20"/>
     </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J230" s="20"/>
     </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J231" s="20"/>
     </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J232" s="20"/>
     </row>
-    <row r="233" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J233" s="20"/>
     </row>
-    <row r="234" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J234" s="20"/>
     </row>
-    <row r="235" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J235" s="20"/>
     </row>
-    <row r="236" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J236" s="20"/>
     </row>
-    <row r="237" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J237" s="20"/>
     </row>
-    <row r="238" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J238" s="20"/>
     </row>
-    <row r="239" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J239" s="20"/>
     </row>
-    <row r="240" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J240" s="20"/>
     </row>
-    <row r="241" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J241" s="20"/>
     </row>
-    <row r="242" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J242" s="20"/>
     </row>
-    <row r="243" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J243" s="20"/>
     </row>
-    <row r="244" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J244" s="20"/>
     </row>
-    <row r="245" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J245" s="20"/>
     </row>
-    <row r="246" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J246" s="20"/>
     </row>
-    <row r="247" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J247" s="20"/>
     </row>
-    <row r="248" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J248" s="20"/>
     </row>
-    <row r="249" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J249" s="20"/>
     </row>
-    <row r="250" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J250" s="20"/>
     </row>
-    <row r="251" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J251" s="20"/>
     </row>
-    <row r="252" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J252" s="20"/>
     </row>
-    <row r="253" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J253" s="20"/>
     </row>
-    <row r="254" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J254" s="20"/>
     </row>
-    <row r="255" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J255" s="20"/>
     </row>
-    <row r="256" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J256" s="20"/>
     </row>
-    <row r="257" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J257" s="20"/>
     </row>
-    <row r="258" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J258" s="20"/>
     </row>
-    <row r="259" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J259" s="20"/>
     </row>
-    <row r="260" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J260" s="20"/>
     </row>
-    <row r="261" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J261" s="20"/>
     </row>
-    <row r="262" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J262" s="20"/>
     </row>
-    <row r="263" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J263" s="20"/>
     </row>
-    <row r="264" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J264" s="20"/>
     </row>
-    <row r="265" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J265" s="20"/>
     </row>
-    <row r="266" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J266" s="20"/>
     </row>
-    <row r="267" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J267" s="20"/>
     </row>
-    <row r="268" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J268" s="20"/>
     </row>
-    <row r="269" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J269" s="20"/>
     </row>
-    <row r="270" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J270" s="20"/>
     </row>
-    <row r="271" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J271" s="20"/>
     </row>
-    <row r="272" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J272" s="20"/>
     </row>
-    <row r="273" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J273" s="20"/>
     </row>
-    <row r="274" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J274" s="20"/>
     </row>
-    <row r="275" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J275" s="20"/>
     </row>
-    <row r="276" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J276" s="20"/>
     </row>
-    <row r="277" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J277" s="20"/>
     </row>
-    <row r="278" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J278" s="20"/>
     </row>
-    <row r="279" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J279" s="20"/>
     </row>
-    <row r="280" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J280" s="20"/>
     </row>
-    <row r="281" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J281" s="20"/>
     </row>
-    <row r="282" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J282" s="20"/>
     </row>
-    <row r="283" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J283" s="20"/>
     </row>
-    <row r="284" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J284" s="20"/>
     </row>
-    <row r="285" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J285" s="20"/>
     </row>
-    <row r="286" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J286" s="20"/>
     </row>
-    <row r="287" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J287" s="20"/>
     </row>
-    <row r="288" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J288" s="20"/>
     </row>
-    <row r="289" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J289" s="20"/>
     </row>
   </sheetData>
@@ -6837,43 +6838,43 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.85546875" customWidth="1"/>
-    <col min="13" max="13" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.83203125" customWidth="1"/>
+    <col min="13" max="13" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="M1" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="N1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="3:47" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2:D24">TRANSPOSE(Y2:AU3)</f>
         <v>2001</v>
@@ -6882,104 +6883,104 @@
         <v>40029198</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="G2" s="13">
         <f>19840+19167+13587+11099+8978</f>
         <v>72671</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="J2" s="11">
         <v>44</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="N2" s="14">
         <v>75.2</v>
       </c>
       <c r="V2" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="W2" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="X2" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="Z2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="AB2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="AD2" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="AE2" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="AF2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="AG2" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="AI2" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="AJ2" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="AK2" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="AL2" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="AN2" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="AO2" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="AP2" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="AQ2" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="AR2" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="AS2" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="AT2" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="AU2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="3:47" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C3" t="str">
         <v>2002</v>
       </c>
@@ -6987,32 +6988,32 @@
         <v>40056637</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="G3" s="13">
         <f>20268+22941</f>
         <v>43209</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="J3" s="11">
         <v>35</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="N3" s="14">
         <v>59.4</v>
       </c>
       <c r="V3" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="W3" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="X3" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="Y3">
         <v>40029198</v>
@@ -7084,7 +7085,7 @@
         <v>44368658</v>
       </c>
     </row>
-    <row r="4" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C4" t="str">
         <v>2003</v>
       </c>
@@ -7092,29 +7093,29 @@
         <v>40236914</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="G4" s="13">
         <f>26192+5957</f>
         <v>32149</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="J4" s="11">
         <v>32</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="N4" s="14">
         <v>57.8</v>
       </c>
       <c r="V4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="3:47" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C5" t="str">
         <v>2004</v>
       </c>
@@ -7122,26 +7123,26 @@
         <v>40039826</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="G5" s="13">
         <f>16341+10501</f>
         <v>26842</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="J5" s="11">
         <v>22</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="N5" s="14">
         <v>53.7</v>
       </c>
     </row>
-    <row r="6" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C6" t="str">
         <v>2005</v>
       </c>
@@ -7149,26 +7150,26 @@
         <v>41239999</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="G6" s="13">
         <f>15052+6921</f>
         <v>21973</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="J6" s="11">
         <v>16</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="N6" s="14">
         <v>51.7</v>
       </c>
     </row>
-    <row r="7" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C7" t="str">
         <v>2006</v>
       </c>
@@ -7176,28 +7177,28 @@
         <v>41693116</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="G7" s="13">
         <v>14248</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="J7" s="11">
         <v>16</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="N7" s="14">
         <v>49.8</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="3:47" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C8" t="str">
         <v>2007</v>
       </c>
@@ -7205,20 +7206,20 @@
         <v>41861246</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="G8" s="13">
         <f>11578+5989</f>
         <v>17567</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="J8" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C9" t="str">
         <v>2008</v>
       </c>
@@ -7226,23 +7227,23 @@
         <v>41917490</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="G9" s="13">
         <f>6087+6110+8750</f>
         <v>20947</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="J9" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C10" t="str">
         <v>2009</v>
       </c>
@@ -7250,13 +7251,13 @@
         <v>41978630</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="J10" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C11" t="str">
         <v>2010</v>
       </c>
@@ -7264,13 +7265,13 @@
         <v>41949335</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="J11" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C12" t="str">
         <v>2011</v>
       </c>
@@ -7278,16 +7279,16 @@
         <v>41729225</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="J12" s="11">
         <v>7</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="3:47" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C13" t="str">
         <v>2012</v>
       </c>
@@ -7295,7 +7296,7 @@
         <v>41853628</v>
       </c>
     </row>
-    <row r="14" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C14" t="str">
         <v>2013</v>
       </c>
@@ -7303,7 +7304,7 @@
         <v>42212988</v>
       </c>
     </row>
-    <row r="15" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C15" t="str">
         <v>2014</v>
       </c>
@@ -7311,7 +7312,7 @@
         <v>42458390</v>
       </c>
     </row>
-    <row r="16" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C16" t="str">
         <v>2015</v>
       </c>
@@ -7319,7 +7320,7 @@
         <v>42660629</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="str">
         <v>2016</v>
       </c>
@@ -7327,7 +7328,7 @@
         <v>43567225</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="str">
         <v>2017</v>
       </c>
@@ -7335,7 +7336,7 @@
         <v>43819028</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="str">
         <v>2018</v>
       </c>
@@ -7343,7 +7344,7 @@
         <v>43935038</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="str">
         <v>2019</v>
       </c>
@@ -7351,7 +7352,7 @@
         <v>44433744</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21" t="str">
         <v>2020</v>
       </c>
@@ -7359,7 +7360,7 @@
         <v>43501190</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C22" t="str">
         <v>2021</v>
       </c>
@@ -7367,7 +7368,7 @@
         <v>43386527</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C23" t="str">
         <v>2022</v>
       </c>
@@ -7375,7 +7376,7 @@
         <v>44198105</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C24" t="str">
         <v>2023</v>
       </c>
@@ -7402,107 +7403,107 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2009</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -7520,78 +7521,78 @@
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="H1" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="I1" t="s">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="J1" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="P1" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="R1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C2" s="4">
         <v>36526</v>
       </c>
@@ -7631,7 +7632,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C3" s="4">
         <v>36892</v>
       </c>
@@ -7671,7 +7672,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C4" s="4">
         <v>37257</v>
       </c>
@@ -7711,7 +7712,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C5" s="4">
         <v>37622</v>
       </c>
@@ -7751,7 +7752,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C6" s="4">
         <v>37987</v>
       </c>
@@ -7791,7 +7792,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C7" s="4">
         <v>38353</v>
       </c>
@@ -7819,7 +7820,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C8" s="4">
         <v>38718</v>
       </c>
@@ -7847,7 +7848,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C9" s="4">
         <v>39083</v>
       </c>
@@ -7875,7 +7876,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>39448</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C11" s="4">
         <v>39814</v>
       </c>
@@ -7931,7 +7932,7 @@
         <v>-6.2</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C12" s="4">
         <v>40179</v>
       </c>
@@ -7959,7 +7960,7 @@
         <v>-6.3</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
         <v>40544</v>
       </c>
@@ -7987,7 +7988,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C14" s="4">
         <v>40909</v>
       </c>
@@ -8015,7 +8016,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C15" s="4">
         <v>41275</v>
       </c>
@@ -8043,7 +8044,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C16" s="4">
         <v>41640</v>
       </c>
@@ -8071,7 +8072,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="4">
         <v>42005</v>
       </c>
@@ -8099,7 +8100,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="4">
         <v>42370</v>
       </c>
@@ -8127,7 +8128,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="4">
         <v>42736</v>
       </c>
@@ -8155,7 +8156,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="4">
         <v>43101</v>
       </c>
@@ -8183,7 +8184,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="4">
         <v>43466</v>
       </c>
@@ -8211,7 +8212,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="4">
         <v>43831</v>
       </c>
@@ -8239,7 +8240,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="4">
         <v>44197</v>
       </c>
@@ -8267,7 +8268,7 @@
         <v>-5.2</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="4">
         <v>44562</v>
       </c>
@@ -8295,7 +8296,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="4">
         <v>44927</v>
       </c>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="707" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E20CD1D6-3E29-4F25-8EF7-FCA9F04070F6}"/>
+  <xr:revisionPtr revIDLastSave="720" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FA87A45-48E6-4EA7-BADB-E4BE01C4A34D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="194">
   <si>
     <t>Date</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>China annual growth</t>
+  </si>
+  <si>
+    <t>Real GDP percent year ago</t>
   </si>
   <si>
     <t> 0,9865 </t>
@@ -676,7 +679,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,6 +718,10 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -737,7 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -768,6 +775,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1211,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W289"/>
+  <dimension ref="A1:AA289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1237,7 +1246,7 @@
     <col min="17" max="17" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1289,8 +1298,11 @@
       <c r="W1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="AA1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1315,8 +1327,8 @@
       <c r="H2" s="1">
         <v>6.189796E-3</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>17</v>
+      <c r="I2" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="J2" s="9">
         <v>74.5</v>
@@ -1341,8 +1353,11 @@
         <f t="array" ref="W2:W24">TRANSPOSE([1]Data!BS42:CO42)</f>
         <v>8.4900934036516134</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="AA2" s="22">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1367,8 +1382,8 @@
       <c r="H3" s="1">
         <v>-6.1099225E-2</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>18</v>
+      <c r="I3" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="J3" s="9">
         <v>77</v>
@@ -1392,8 +1407,11 @@
       <c r="W3" s="21">
         <v>8.3357334757762516</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="AA3" s="22">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1418,8 +1436,8 @@
       <c r="H4" s="1">
         <v>0.91796691399999997</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>19</v>
+      <c r="I4" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="J4" s="9">
         <v>78.400000000000006</v>
@@ -1443,8 +1461,11 @@
       <c r="W4" s="21">
         <v>9.1336307895446964</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="AA4" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1469,8 +1490,8 @@
       <c r="H5" s="1">
         <v>0.82722910999999999</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>20</v>
+      <c r="I5" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="J5" s="9">
         <v>79.5</v>
@@ -1494,8 +1515,11 @@
       <c r="W5" s="21">
         <v>10.038030484736964</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="AA5" s="22">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1520,8 +1544,8 @@
       <c r="H6" s="1">
         <v>-1.7235691150000001</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>21</v>
+      <c r="I6" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="J6" s="9">
         <v>79.099999999999994</v>
@@ -1545,8 +1569,11 @@
       <c r="W6" s="21">
         <v>10.11362137880208</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="AA6" s="22">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1571,8 +1598,8 @@
       <c r="H7" s="1">
         <v>0.216069645</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>22</v>
+      <c r="I7" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="J7" s="9">
         <v>79.400000000000006</v>
@@ -1596,8 +1623,11 @@
       <c r="W7" s="21">
         <v>11.394591808688787</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="AA7" s="22">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1622,8 +1652,8 @@
       <c r="H8" s="1">
         <v>0.28924004399999997</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>23</v>
+      <c r="I8" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="J8" s="9">
         <v>78.2</v>
@@ -1647,8 +1677,11 @@
       <c r="W8" s="21">
         <v>12.720955663945105</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="AA8" s="22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1673,8 +1706,8 @@
       <c r="H9" s="1">
         <v>1.0089601180000001</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>24</v>
+      <c r="I9" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="J9" s="9">
         <v>77.8</v>
@@ -1698,8 +1731,11 @@
       <c r="W9" s="21">
         <v>14.230860934047087</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="AA9" s="22">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1724,8 +1760,8 @@
       <c r="H10" s="1">
         <v>2.8872630999999999E-2</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>25</v>
+      <c r="I10" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="J10" s="9">
         <v>78.599999999999994</v>
@@ -1749,8 +1785,11 @@
       <c r="W10" s="21">
         <v>9.6506789183468982</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="AA10" s="22">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1775,8 +1814,8 @@
       <c r="H11" s="1">
         <v>-0.35898126600000002</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>26</v>
+      <c r="I11" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="J11" s="9">
         <v>80.8</v>
@@ -1800,8 +1839,11 @@
       <c r="W11" s="21">
         <v>9.3987256316321037</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="AA11" s="22">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1826,8 +1868,8 @@
       <c r="H12" s="1">
         <v>0.19652018800000001</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>27</v>
+      <c r="I12" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="J12" s="9">
         <v>81.2</v>
@@ -1851,8 +1893,11 @@
       <c r="W12" s="21">
         <v>10.635871065957176</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="AA12" s="22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1877,8 +1922,8 @@
       <c r="H13" s="1">
         <v>0.37363352300000002</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>28</v>
+      <c r="I13" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="J13" s="9">
         <v>81.599999999999994</v>
@@ -1902,8 +1947,11 @@
       <c r="W13" s="21">
         <v>9.5508321788419863</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="AA13" s="22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1928,8 +1976,8 @@
       <c r="H14" s="1">
         <v>1.3128743810000001</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>29</v>
+      <c r="I14" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="J14" s="9">
         <v>82.8</v>
@@ -1953,8 +2001,11 @@
       <c r="W14" s="21">
         <v>7.8637364484526415</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="AA14" s="22">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -1979,8 +2030,8 @@
       <c r="H15" s="1">
         <v>-0.21871228300000001</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>30</v>
+      <c r="I15" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="J15" s="9">
         <v>81.900000000000006</v>
@@ -2004,8 +2055,11 @@
       <c r="W15" s="21">
         <v>7.7661500973591018</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="AA15" s="22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -2030,8 +2084,8 @@
       <c r="H16" s="1">
         <v>5.3757728999999997E-2</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>31</v>
+      <c r="I16" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="J16" s="9">
         <v>83.5</v>
@@ -2055,8 +2109,11 @@
       <c r="W16" s="21">
         <v>7.4257636559691633</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="AA16" s="22">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -2081,8 +2138,8 @@
       <c r="H17" s="1">
         <v>-0.36024741999999998</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>32</v>
+      <c r="I17" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="J17" s="9">
         <v>84.1</v>
@@ -2106,8 +2163,11 @@
       <c r="W17" s="21">
         <v>7.0413288794755005</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="AA17" s="22">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -2132,8 +2192,8 @@
       <c r="H18" s="1">
         <v>0.50438195900000005</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>33</v>
+      <c r="I18" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="J18" s="9">
         <v>85.7</v>
@@ -2157,8 +2217,11 @@
       <c r="W18" s="21">
         <v>6.8487622044418401</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="AA18" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="15">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -2183,8 +2246,8 @@
       <c r="H19" s="1">
         <v>-0.56357813199999995</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>34</v>
+      <c r="I19" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="J19" s="9">
         <v>85.5</v>
@@ -2208,8 +2271,11 @@
       <c r="W19" s="21">
         <v>6.9472007931653366</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="AA19" s="22">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="15">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -2234,8 +2300,8 @@
       <c r="H20" s="1">
         <v>0.234477987</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>35</v>
+      <c r="I20" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="J20" s="9">
         <v>87.4</v>
@@ -2259,8 +2325,11 @@
       <c r="W20" s="21">
         <v>6.7497738325114796</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="AA20" s="22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="15">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -2285,8 +2354,8 @@
       <c r="H21" s="1">
         <v>0.13371394</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>36</v>
+      <c r="I21" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="J21" s="9">
         <v>87.9</v>
@@ -2310,8 +2379,11 @@
       <c r="W21" s="21">
         <v>5.950500754393147</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="AA21" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -2336,8 +2408,8 @@
       <c r="H22" s="1">
         <v>0.17811001000000001</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>37</v>
+      <c r="I22" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="J22" s="9">
         <v>88.8</v>
@@ -2361,8 +2433,11 @@
       <c r="W22" s="21">
         <v>2.2386383567412054</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="AA22" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="15">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -2387,8 +2462,8 @@
       <c r="H23" s="1">
         <v>-0.61401686499999997</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>38</v>
+      <c r="I23" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="J23" s="9">
         <v>89</v>
@@ -2412,8 +2487,11 @@
       <c r="W23" s="21">
         <v>8.4484694162814122</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="AA23" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="15">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -2438,8 +2516,8 @@
       <c r="H24" s="1">
         <v>-0.82696737799999998</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>39</v>
+      <c r="I24" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="J24" s="9">
         <v>91.2</v>
@@ -2463,8 +2541,11 @@
       <c r="W24">
         <v>2.9890840860365273</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="15">
+      <c r="AA24" s="22">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="15">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -2489,8 +2570,8 @@
       <c r="H25" s="1">
         <v>-0.18833066800000001</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>40</v>
+      <c r="I25" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="J25" s="9">
         <v>93.1</v>
@@ -2511,8 +2592,11 @@
       <c r="Q25">
         <v>263.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="15">
+      <c r="AA25" s="22">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="15">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -2537,8 +2621,8 @@
       <c r="H26" s="1">
         <v>-0.481418554</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>41</v>
+      <c r="I26" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="J26" s="9">
         <v>93.1</v>
@@ -2559,8 +2643,11 @@
       <c r="Q26">
         <v>254.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="15">
+      <c r="AA26" s="22">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="15">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -2585,8 +2672,8 @@
       <c r="H27" s="1">
         <v>-1.0422138990000001</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>42</v>
+      <c r="I27" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="J27" s="9">
         <v>93.9</v>
@@ -2607,8 +2694,11 @@
       <c r="Q27">
         <v>235.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="15">
+      <c r="AA27" s="22">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="15">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -2633,8 +2723,8 @@
       <c r="H28" s="1">
         <v>0.32956871700000001</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>43</v>
+      <c r="I28" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="J28" s="9">
         <v>96.1</v>
@@ -2655,8 +2745,11 @@
       <c r="Q28">
         <v>249.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="15">
+      <c r="AA28" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="15">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -2681,8 +2774,8 @@
       <c r="H29" s="1">
         <v>-1.249074837</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>44</v>
+      <c r="I29" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="J29" s="9">
         <v>97</v>
@@ -2703,8 +2796,11 @@
       <c r="Q29">
         <v>263.60000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="15">
+      <c r="AA29" s="22">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="15">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -2729,8 +2825,8 @@
       <c r="H30" s="1">
         <v>0.71465696199999995</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>45</v>
+      <c r="I30" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="J30" s="9">
         <v>98.7</v>
@@ -2751,8 +2847,11 @@
       <c r="Q30">
         <v>256.89999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="15">
+      <c r="AA30" s="22">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="15">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -2777,8 +2876,8 @@
       <c r="H31" s="1">
         <v>-0.16857691</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>46</v>
+      <c r="I31" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="J31" s="9">
         <v>99.6</v>
@@ -2799,8 +2898,11 @@
       <c r="Q31">
         <v>237</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" ht="15">
+      <c r="AA31" s="22">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="15">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -2825,8 +2927,8 @@
       <c r="H32" s="1">
         <v>0.13418472100000001</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>47</v>
+      <c r="I32" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="J32" s="9">
         <v>100.4</v>
@@ -2847,8 +2949,11 @@
       <c r="Q32">
         <v>252.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="15">
+      <c r="AA32" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="15">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -2873,8 +2978,8 @@
       <c r="H33" s="1">
         <v>0.182158871</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>48</v>
+      <c r="I33" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="J33" s="9">
         <v>101.4</v>
@@ -2895,8 +3000,11 @@
       <c r="Q33">
         <v>267.39999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="15">
+      <c r="AA33" s="22">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="15">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -2921,8 +3029,8 @@
       <c r="H34" s="1">
         <v>0.71565135300000005</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>49</v>
+      <c r="I34" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="J34" s="9">
         <v>102.8</v>
@@ -2943,8 +3051,11 @@
       <c r="Q34">
         <v>260.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="15">
+      <c r="AA34" s="22">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="15">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -2969,8 +3080,8 @@
       <c r="H35" s="1">
         <v>1.113549911</v>
       </c>
-      <c r="I35" s="9" t="s">
-        <v>50</v>
+      <c r="I35" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="J35" s="9">
         <v>100.9</v>
@@ -2991,8 +3102,11 @@
       <c r="Q35">
         <v>247.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="15">
+      <c r="AA35" s="22">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="15">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -3017,8 +3131,8 @@
       <c r="H36" s="1">
         <v>1.2781141380000001</v>
       </c>
-      <c r="I36" s="9" t="s">
-        <v>51</v>
+      <c r="I36" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="J36" s="9">
         <v>99.4</v>
@@ -3039,8 +3153,11 @@
       <c r="Q36">
         <v>262.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="15">
+      <c r="AA36" s="22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="15">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -3065,8 +3182,8 @@
       <c r="H37" s="1">
         <v>2.4862323260000001</v>
       </c>
-      <c r="I37" s="9" t="s">
-        <v>52</v>
+      <c r="I37" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="J37" s="9">
         <v>96.4</v>
@@ -3087,8 +3204,11 @@
       <c r="Q37">
         <v>290.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" ht="15">
+      <c r="AA37" s="22">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="15">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -3113,8 +3233,8 @@
       <c r="H38" s="1">
         <v>4.01263799</v>
       </c>
-      <c r="I38" s="9" t="s">
-        <v>53</v>
+      <c r="I38" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="J38" s="9">
         <v>87.7</v>
@@ -3135,8 +3255,11 @@
       <c r="Q38">
         <v>274.10000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="15">
+      <c r="AA38" s="22">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="15">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -3161,8 +3284,8 @@
       <c r="H39" s="1">
         <v>-0.44995182900000003</v>
       </c>
-      <c r="I39" s="9" t="s">
-        <v>54</v>
+      <c r="I39" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="J39" s="9">
         <v>85.9</v>
@@ -3183,8 +3306,11 @@
       <c r="Q39">
         <v>271.39999999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="15">
+      <c r="AA39" s="22">
+        <v>-6.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="15">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -3209,8 +3335,8 @@
       <c r="H40" s="1">
         <v>0.103046163</v>
       </c>
-      <c r="I40" s="9" t="s">
-        <v>55</v>
+      <c r="I40" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="J40" s="9">
         <v>89.8</v>
@@ -3231,8 +3357,11 @@
       <c r="Q40">
         <v>278.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="15">
+      <c r="AA40" s="22">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -3257,8 +3386,8 @@
       <c r="H41" s="1">
         <v>-0.34085805600000002</v>
       </c>
-      <c r="I41" s="9" t="s">
-        <v>56</v>
+      <c r="I41" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="J41" s="9">
         <v>91.8</v>
@@ -3279,8 +3408,11 @@
       <c r="Q41">
         <v>298.60000000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="15">
+      <c r="AA41" s="22">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="15">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -3305,8 +3437,8 @@
       <c r="H42" s="1">
         <v>0.205584079</v>
       </c>
-      <c r="I42" s="9" t="s">
-        <v>57</v>
+      <c r="I42" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="J42" s="9">
         <v>92.9</v>
@@ -3327,8 +3459,11 @@
       <c r="Q42">
         <v>278.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="15">
+      <c r="AA42" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="15">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -3353,8 +3488,8 @@
       <c r="H43" s="1">
         <v>-1.4406707940000001</v>
       </c>
-      <c r="I43" s="9" t="s">
-        <v>58</v>
+      <c r="I43" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="J43" s="9">
         <v>95.1</v>
@@ -3375,8 +3510,11 @@
       <c r="Q43">
         <v>271.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="15">
+      <c r="AA43" s="22">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="15">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -3401,8 +3539,8 @@
       <c r="H44" s="1">
         <v>0.21948596400000001</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>59</v>
+      <c r="I44" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="J44" s="9">
         <v>98</v>
@@ -3423,8 +3561,11 @@
       <c r="Q44">
         <v>276</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" ht="15">
+      <c r="AA44" s="22">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="15">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -3449,8 +3590,8 @@
       <c r="H45" s="1">
         <v>0.115391919</v>
       </c>
-      <c r="I45" s="9" t="s">
-        <v>60</v>
+      <c r="I45" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="J45" s="9">
         <v>100.7</v>
@@ -3471,8 +3612,11 @@
       <c r="Q45">
         <v>304.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" ht="15">
+      <c r="AA45" s="22">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="15">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -3497,8 +3641,8 @@
       <c r="H46" s="1">
         <v>-0.485703406</v>
       </c>
-      <c r="I46" s="9" t="s">
-        <v>61</v>
+      <c r="I46" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="J46" s="9">
         <v>100.7</v>
@@ -3519,8 +3663,11 @@
       <c r="Q46">
         <v>281</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" ht="15">
+      <c r="AA46" s="22">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="15">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -3545,8 +3692,8 @@
       <c r="H47" s="1">
         <v>1.0073198729999999</v>
       </c>
-      <c r="I47" s="9" t="s">
-        <v>62</v>
+      <c r="I47" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="J47" s="9">
         <v>101.6</v>
@@ -3567,8 +3714,11 @@
       <c r="Q47">
         <v>271.39999999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" ht="15">
+      <c r="AA47" s="22">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="15">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -3593,8 +3743,8 @@
       <c r="H48" s="1">
         <v>-0.273985272</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>63</v>
+      <c r="I48" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="J48" s="9">
         <v>103.3</v>
@@ -3615,8 +3765,11 @@
       <c r="Q48">
         <v>288.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" ht="15">
+      <c r="AA48" s="22">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="15">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -3641,8 +3794,8 @@
       <c r="H49" s="1">
         <v>1.040173692</v>
       </c>
-      <c r="I49" s="9" t="s">
-        <v>64</v>
+      <c r="I49" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="J49" s="9">
         <v>101.1</v>
@@ -3663,8 +3816,11 @@
       <c r="Q49">
         <v>300.10000000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" ht="15">
+      <c r="AA49" s="22">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="15">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -3689,8 +3845,8 @@
       <c r="H50" s="1">
         <v>1.0338263190000001</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>65</v>
+      <c r="I50" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="J50" s="9">
         <v>99.9</v>
@@ -3711,8 +3867,11 @@
       <c r="Q50">
         <v>293.10000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" ht="15">
+      <c r="AA50" s="22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="15">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -3737,8 +3896,8 @@
       <c r="H51" s="1">
         <v>1.075717472</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>66</v>
+      <c r="I51" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="J51" s="9">
         <v>99.9</v>
@@ -3759,8 +3918,11 @@
       <c r="Q51">
         <v>282.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" ht="15">
+      <c r="AA51" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" ht="15">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -3785,8 +3947,8 @@
       <c r="H52" s="1">
         <v>0.25398210599999999</v>
       </c>
-      <c r="I52" s="9" t="s">
-        <v>67</v>
+      <c r="I52" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="J52" s="9">
         <v>100.2</v>
@@ -3807,8 +3969,11 @@
       <c r="Q52">
         <v>286.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" ht="15">
+      <c r="AA52" s="22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" ht="15">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -3833,8 +3998,8 @@
       <c r="H53" s="1">
         <v>1.145063817</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>68</v>
+      <c r="I53" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="J53" s="9">
         <v>98.3</v>
@@ -3855,8 +4020,11 @@
       <c r="Q53">
         <v>316.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" ht="15">
+      <c r="AA53" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" ht="15">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -3881,8 +4049,8 @@
       <c r="H54" s="1">
         <v>0.77873195699999997</v>
       </c>
-      <c r="I54" s="9" t="s">
-        <v>69</v>
+      <c r="I54" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="J54" s="9">
         <v>97.2</v>
@@ -3903,8 +4071,11 @@
       <c r="Q54">
         <v>294.89999999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" ht="15">
+      <c r="AA54" s="22">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" ht="15">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -3929,8 +4100,8 @@
       <c r="H55" s="1">
         <v>-0.20622728300000001</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>70</v>
+      <c r="I55" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="J55" s="9">
         <v>98.2</v>
@@ -3951,8 +4122,11 @@
       <c r="Q55">
         <v>292.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" ht="15">
+      <c r="AA55" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" ht="15">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -3977,8 +4151,8 @@
       <c r="H56" s="1">
         <v>0.33452826099999999</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>71</v>
+      <c r="I56" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="J56" s="9">
         <v>98.5</v>
@@ -3999,8 +4173,11 @@
       <c r="Q56">
         <v>300</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" ht="15">
+      <c r="AA56" s="22">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" ht="15">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -4025,8 +4202,8 @@
       <c r="H57" s="1">
         <v>0.43758760899999999</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>72</v>
+      <c r="I57" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="J57" s="9">
         <v>99.7</v>
@@ -4047,8 +4224,11 @@
       <c r="Q57">
         <v>316.2</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" ht="15">
+      <c r="AA57" s="22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" ht="15">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -4073,8 +4253,8 @@
       <c r="H58" s="1">
         <v>0.42331946100000001</v>
       </c>
-      <c r="I58" s="9" t="s">
-        <v>73</v>
+      <c r="I58" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="J58" s="9">
         <v>100.2</v>
@@ -4095,8 +4275,11 @@
       <c r="Q58">
         <v>305</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" ht="15">
+      <c r="AA58" s="22">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" ht="15">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -4121,8 +4304,8 @@
       <c r="H59" s="1">
         <v>0.67863599299999999</v>
       </c>
-      <c r="I59" s="9" t="s">
-        <v>74</v>
+      <c r="I59" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="J59" s="9">
         <v>100.9</v>
@@ -4143,8 +4326,11 @@
       <c r="Q59">
         <v>299</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" ht="15">
+      <c r="AA59" s="22">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" ht="15">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -4169,8 +4355,8 @@
       <c r="H60" s="1">
         <v>0.33743779200000001</v>
       </c>
-      <c r="I60" s="9" t="s">
-        <v>75</v>
+      <c r="I60" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="J60" s="9">
         <v>100.4</v>
@@ -4191,8 +4377,11 @@
       <c r="Q60">
         <v>305.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" ht="15">
+      <c r="AA60" s="22">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" ht="15">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -4217,8 +4406,8 @@
       <c r="H61" s="1">
         <v>-5.1236979000000002E-2</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>76</v>
+      <c r="I61" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="J61" s="9">
         <v>99.6</v>
@@ -4239,8 +4428,11 @@
       <c r="Q61">
         <v>327.60000000000002</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" ht="15">
+      <c r="AA61" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" ht="15">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -4265,8 +4457,8 @@
       <c r="H62" s="1">
         <v>1.4017342260000001</v>
       </c>
-      <c r="I62" s="9" t="s">
-        <v>77</v>
+      <c r="I62" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="J62" s="9">
         <v>99.3</v>
@@ -4287,8 +4479,11 @@
       <c r="Q62">
         <v>315.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" ht="15">
+      <c r="AA62" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" ht="15">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -4313,8 +4508,8 @@
       <c r="H63" s="1">
         <v>0.61928616199999997</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>78</v>
+      <c r="I63" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="J63" s="9">
         <v>100.3</v>
@@ -4335,8 +4530,11 @@
       <c r="Q63">
         <v>301.8</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" ht="15">
+      <c r="AA63" s="22">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" ht="15">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -4361,8 +4559,8 @@
       <c r="H64" s="1">
         <v>0.34922859699999997</v>
       </c>
-      <c r="I64" s="9" t="s">
-        <v>79</v>
+      <c r="I64" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="J64" s="9">
         <v>100.8</v>
@@ -4383,8 +4581,11 @@
       <c r="Q64">
         <v>315.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" ht="15">
+      <c r="AA64" s="22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" ht="15">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -4409,8 +4610,8 @@
       <c r="H65" s="1">
         <v>0.48434283</v>
       </c>
-      <c r="I65" s="9" t="s">
-        <v>80</v>
+      <c r="I65" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="J65" s="9">
         <v>100</v>
@@ -4431,8 +4632,11 @@
       <c r="Q65">
         <v>338.9</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" ht="15">
+      <c r="AA65" s="22">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" ht="15">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -4457,8 +4661,8 @@
       <c r="H66" s="1">
         <v>-1.1341777000000001E-2</v>
       </c>
-      <c r="I66" s="9" t="s">
-        <v>81</v>
+      <c r="I66" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="J66" s="9">
         <v>100.2</v>
@@ -4479,8 +4683,11 @@
       <c r="Q66">
         <v>325.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" ht="15">
+      <c r="AA66" s="22">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" ht="15">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -4505,8 +4712,8 @@
       <c r="H67" s="1">
         <v>0.21672678200000001</v>
       </c>
-      <c r="I67" s="9" t="s">
-        <v>82</v>
+      <c r="I67" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="J67" s="9">
         <v>100</v>
@@ -4527,8 +4734,11 @@
       <c r="Q67">
         <v>314.2</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" ht="15">
+      <c r="AA67" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" ht="15">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -4553,8 +4763,8 @@
       <c r="H68" s="1">
         <v>0.72955927700000001</v>
       </c>
-      <c r="I68" s="9" t="s">
-        <v>83</v>
+      <c r="I68" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="J68" s="9">
         <v>99.2</v>
@@ -4575,8 +4785,11 @@
       <c r="Q68">
         <v>333.4</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" ht="15">
+      <c r="AA68" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" ht="15">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -4601,8 +4814,8 @@
       <c r="H69" s="1">
         <v>0.75536793800000002</v>
       </c>
-      <c r="I69" s="9" t="s">
-        <v>84</v>
+      <c r="I69" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="J69" s="9">
         <v>101.1</v>
@@ -4623,8 +4836,11 @@
       <c r="Q69">
         <v>358.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" ht="15">
+      <c r="AA69" s="22">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" ht="15">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -4649,8 +4865,8 @@
       <c r="H70" s="1">
         <v>-0.225438633</v>
       </c>
-      <c r="I70" s="9" t="s">
-        <v>85</v>
+      <c r="I70" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="J70" s="9">
         <v>101.4</v>
@@ -4671,8 +4887,11 @@
       <c r="Q70">
         <v>326.39999999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" ht="15">
+      <c r="AA70" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" ht="15">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -4697,8 +4916,8 @@
       <c r="H71" s="1">
         <v>9.5723476000000002E-2</v>
       </c>
-      <c r="I71" s="9" t="s">
-        <v>86</v>
+      <c r="I71" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="J71" s="9">
         <v>102.3</v>
@@ -4719,8 +4938,11 @@
       <c r="Q71">
         <v>332.7</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" ht="15">
+      <c r="AA71" s="22">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" ht="15">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -4745,8 +4967,8 @@
       <c r="H72" s="1">
         <v>0.17080437100000001</v>
       </c>
-      <c r="I72" s="9" t="s">
-        <v>87</v>
+      <c r="I72" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="J72" s="9">
         <v>102</v>
@@ -4767,8 +4989,11 @@
       <c r="Q72">
         <v>343.2</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" ht="15">
+      <c r="AA72" s="22">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" ht="15">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -4793,8 +5018,8 @@
       <c r="H73" s="1">
         <v>0.300921771</v>
       </c>
-      <c r="I73" s="9" t="s">
-        <v>88</v>
+      <c r="I73" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="J73" s="9">
         <v>102.3</v>
@@ -4815,8 +5040,11 @@
       <c r="Q73">
         <v>373.8</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" ht="15">
+      <c r="AA73" s="22">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" ht="15">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -4841,8 +5069,8 @@
       <c r="H74" s="1">
         <v>1.696573431</v>
       </c>
-      <c r="I74" s="9" t="s">
-        <v>89</v>
+      <c r="I74" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="J74" s="9">
         <v>103.5</v>
@@ -4863,8 +5091,11 @@
       <c r="Q74">
         <v>341.7</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" ht="15">
+      <c r="AA74" s="22">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" ht="15">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -4889,8 +5120,8 @@
       <c r="H75" s="1">
         <v>0.307884873</v>
       </c>
-      <c r="I75" s="9" t="s">
-        <v>90</v>
+      <c r="I75" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="J75" s="9">
         <v>102.6</v>
@@ -4911,8 +5142,11 @@
       <c r="Q75">
         <v>337.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" ht="15">
+      <c r="AA75" s="22">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" ht="15">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -4937,8 +5171,8 @@
       <c r="H76" s="1">
         <v>2.071250934</v>
       </c>
-      <c r="I76" s="9" t="s">
-        <v>91</v>
+      <c r="I76" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="J76" s="9">
         <v>101.3</v>
@@ -4959,8 +5193,11 @@
       <c r="Q76">
         <v>355.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" ht="15">
+      <c r="AA76" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" ht="15">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -4985,8 +5222,8 @@
       <c r="H77" s="1">
         <v>-0.10087025299999999</v>
       </c>
-      <c r="I77" s="9" t="s">
-        <v>92</v>
+      <c r="I77" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="J77" s="9">
         <v>100.5</v>
@@ -5007,8 +5244,11 @@
       <c r="Q77">
         <v>396.4</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" ht="15">
+      <c r="AA77" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" ht="15">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -5033,8 +5273,8 @@
       <c r="H78" s="1">
         <v>0.859144515</v>
       </c>
-      <c r="I78" s="9" t="s">
-        <v>93</v>
+      <c r="I78" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="J78" s="9">
         <v>99.7</v>
@@ -5055,8 +5295,11 @@
       <c r="Q78">
         <v>364.1</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" ht="15">
+      <c r="AA78" s="22">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" ht="15">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -5081,8 +5324,8 @@
       <c r="H79" s="1">
         <v>1.2532962050000001</v>
       </c>
-      <c r="I79" s="9" t="s">
-        <v>94</v>
+      <c r="I79" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="J79" s="9">
         <v>99.9</v>
@@ -5103,8 +5346,11 @@
       <c r="Q79">
         <v>374.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" ht="15">
+      <c r="AA79" s="22">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" ht="15">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -5129,8 +5375,8 @@
       <c r="H80" s="1">
         <v>0.96502109999999997</v>
       </c>
-      <c r="I80" s="9" t="s">
-        <v>95</v>
+      <c r="I80" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="J80" s="9">
         <v>99.9</v>
@@ -5151,8 +5397,11 @@
       <c r="Q80">
         <v>376.9</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" ht="15">
+      <c r="AA80" s="22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" ht="15">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -5177,8 +5426,8 @@
       <c r="H81" s="1">
         <v>-0.444042086</v>
       </c>
-      <c r="I81" s="9" t="s">
-        <v>96</v>
+      <c r="I81" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="J81" s="9">
         <v>99.2</v>
@@ -5199,8 +5448,11 @@
       <c r="Q81">
         <v>414.7</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" ht="15">
+      <c r="AA81" s="22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" ht="15">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -5225,8 +5477,8 @@
       <c r="H82" s="1">
         <v>2.3199836079999998</v>
       </c>
-      <c r="I82" s="9" t="s">
-        <v>97</v>
+      <c r="I82" s="23" t="s">
+        <v>98</v>
       </c>
       <c r="J82" s="9">
         <v>100.1</v>
@@ -5247,8 +5499,11 @@
       <c r="Q82">
         <v>379</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" ht="15">
+      <c r="AA82" s="22">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" ht="15">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -5273,8 +5528,8 @@
       <c r="H83" s="1">
         <v>5.1741168350000004</v>
       </c>
-      <c r="I83" s="9" t="s">
-        <v>98</v>
+      <c r="I83" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="J83" s="9">
         <v>84.3</v>
@@ -5295,8 +5550,11 @@
       <c r="Q83">
         <v>429</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" ht="15">
+      <c r="AA83" s="22">
+        <v>-10.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" ht="15">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -5321,8 +5579,8 @@
       <c r="H84" s="1">
         <v>-5.2851272979999999</v>
       </c>
-      <c r="I84" s="9" t="s">
-        <v>99</v>
+      <c r="I84" s="23" t="s">
+        <v>100</v>
       </c>
       <c r="J84" s="9">
         <v>97.6</v>
@@ -5343,8 +5601,11 @@
       <c r="Q84">
         <v>438.3</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" ht="15">
+      <c r="AA84" s="22">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" ht="15">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -5369,8 +5630,8 @@
       <c r="H85" s="1">
         <v>0.38957438799999999</v>
       </c>
-      <c r="I85" s="9" t="s">
-        <v>100</v>
+      <c r="I85" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="J85" s="9">
         <v>101.3</v>
@@ -5391,8 +5652,11 @@
       <c r="Q85">
         <v>470.2</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" ht="15">
+      <c r="AA85" s="22">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" ht="15">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -5417,8 +5681,8 @@
       <c r="H86" s="1">
         <v>0.84115114099999999</v>
       </c>
-      <c r="I86" s="9" t="s">
-        <v>101</v>
+      <c r="I86" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="J86" s="9">
         <v>100.9</v>
@@ -5439,8 +5703,11 @@
       <c r="Q86">
         <v>458</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" ht="15">
+      <c r="AA86" s="22">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" ht="15">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -5465,8 +5732,8 @@
       <c r="H87" s="1">
         <v>-1.173164289</v>
       </c>
-      <c r="I87" s="9" t="s">
-        <v>102</v>
+      <c r="I87" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="J87" s="9">
         <v>100.1</v>
@@ -5487,8 +5754,11 @@
       <c r="Q87">
         <v>455.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" ht="15">
+      <c r="AA87" s="22">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" ht="15">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -5513,8 +5783,8 @@
       <c r="H88" s="1">
         <v>1.967425395</v>
       </c>
-      <c r="I88" s="9" t="s">
-        <v>103</v>
+      <c r="I88" s="23" t="s">
+        <v>104</v>
       </c>
       <c r="J88" s="9">
         <v>99.8</v>
@@ -5535,8 +5805,11 @@
       <c r="Q88">
         <v>441.4</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" ht="15">
+      <c r="AA88" s="22">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" ht="15">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -5561,8 +5834,8 @@
       <c r="H89" s="1">
         <v>1.1958062629999999</v>
       </c>
-      <c r="I89" s="9" t="s">
-        <v>104</v>
+      <c r="I89" s="23" t="s">
+        <v>105</v>
       </c>
       <c r="J89" s="9">
         <v>99.9</v>
@@ -5583,8 +5856,11 @@
       <c r="Q89">
         <v>500.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" ht="15">
+      <c r="AA89" s="22">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" ht="15">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -5609,8 +5885,8 @@
       <c r="H90" s="1">
         <v>0.44063753</v>
       </c>
-      <c r="I90" s="9" t="s">
-        <v>105</v>
+      <c r="I90" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="J90" s="9">
         <v>101</v>
@@ -5631,8 +5907,11 @@
       <c r="Q90">
         <v>437.3</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" ht="15">
+      <c r="AA90" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" ht="15">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -5657,8 +5936,8 @@
       <c r="H91" s="1">
         <v>-1.1231299999999999E-4</v>
       </c>
-      <c r="I91" s="9" t="s">
-        <v>106</v>
+      <c r="I91" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="J91" s="9">
         <v>98.3</v>
@@ -5679,8 +5958,11 @@
       <c r="Q91">
         <v>447.7</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" ht="15">
+      <c r="AA91" s="22">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" ht="15">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -5705,8 +5987,8 @@
       <c r="H92" s="1">
         <v>1.1345507189999999</v>
       </c>
-      <c r="I92" s="9" t="s">
-        <v>107</v>
+      <c r="I92" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="J92" s="9">
         <v>98.5</v>
@@ -5727,8 +6009,11 @@
       <c r="Q92">
         <v>453.3</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" ht="15">
+      <c r="AA92" s="22">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" ht="15">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -5753,8 +6038,8 @@
       <c r="H93" s="1">
         <v>2.8696497490000001</v>
       </c>
-      <c r="I93" s="9" t="s">
-        <v>108</v>
+      <c r="I93" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="J93" s="9">
         <v>99.2</v>
@@ -5775,8 +6060,11 @@
       <c r="Q93">
         <v>568.9</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" ht="15">
+      <c r="AA93" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" ht="15">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -5801,8 +6089,8 @@
       <c r="H94" s="1">
         <v>2.5742279589999999</v>
       </c>
-      <c r="I94" s="9" t="s">
-        <v>109</v>
+      <c r="I94" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="J94" s="9">
         <v>99</v>
@@ -5819,8 +6107,11 @@
       <c r="Q94">
         <v>497</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" ht="15">
+      <c r="AA94" s="22">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" ht="15">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -5845,8 +6136,8 @@
       <c r="H95" s="1">
         <v>9.2769905E-2</v>
       </c>
-      <c r="I95" s="9" t="s">
-        <v>110</v>
+      <c r="I95" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="J95" s="9">
         <v>97.3</v>
@@ -5863,8 +6154,11 @@
       <c r="Q95">
         <v>477.6</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" ht="15">
+      <c r="AA95" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" ht="15">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -5889,8 +6183,8 @@
       <c r="H96" s="1">
         <v>1.5655721570000001</v>
       </c>
-      <c r="I96" s="9" t="s">
-        <v>111</v>
+      <c r="I96" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="J96" s="9">
         <v>95.4</v>
@@ -5904,8 +6198,11 @@
       <c r="P96" s="21">
         <v>6.2133601011670002E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="15">
+      <c r="AA96" s="22">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" ht="15">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -5922,8 +6219,8 @@
       <c r="G97" s="1">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="I97" s="9" t="s">
-        <v>112</v>
+      <c r="I97" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="J97" s="9">
         <v>96.7</v>
@@ -5934,61 +6231,64 @@
       <c r="N97" s="19">
         <v>-5.4140000000000001E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" ht="15">
+      <c r="AA97" s="22">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" ht="15">
       <c r="D98" s="1"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="1:14" ht="15">
+    <row r="99" spans="1:27" ht="15">
       <c r="D99" s="1"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="1:14" ht="15">
+    <row r="100" spans="1:27" ht="15">
       <c r="D100" s="1"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="1:14" ht="15">
+    <row r="101" spans="1:27" ht="15">
       <c r="D101" s="1"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="1:14" ht="15">
+    <row r="102" spans="1:27" ht="15">
       <c r="D102" s="1"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="1:14" ht="15">
+    <row r="103" spans="1:27" ht="15">
       <c r="D103" s="1"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="1:14" ht="15">
+    <row r="104" spans="1:27" ht="15">
       <c r="D104" s="1"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="1:14" ht="15">
+    <row r="105" spans="1:27" ht="15">
       <c r="D105" s="1"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="1:14" ht="15">
+    <row r="106" spans="1:27" ht="15">
       <c r="D106" s="1"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="1:14" ht="15">
+    <row r="107" spans="1:27" ht="15">
       <c r="D107" s="1"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="1:14" ht="15">
+    <row r="108" spans="1:27" ht="15">
       <c r="D108" s="1"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="1:14" ht="15">
+    <row r="109" spans="1:27" ht="15">
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="1:14" ht="15">
+    <row r="110" spans="1:27" ht="15">
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="1:14" ht="15">
+    <row r="111" spans="1:27" ht="15">
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="1:14" ht="15">
+    <row r="112" spans="1:27" ht="15">
       <c r="J112" s="20"/>
     </row>
     <row r="113" spans="10:10" ht="15">
@@ -6550,28 +6850,28 @@
   <sheetData>
     <row r="1" spans="3:47">
       <c r="C1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="3:47">
@@ -6583,101 +6883,101 @@
         <v>40029198</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G2" s="13">
         <f>19840+19167+13587+11099+8978</f>
         <v>72671</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J2" s="11">
         <v>44</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N2" s="14">
         <v>75.2</v>
       </c>
       <c r="V2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="X2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Y2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AE2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AH2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AI2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AM2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AN2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AO2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AQ2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AR2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AS2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AT2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AU2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="3:47">
@@ -6688,32 +6988,32 @@
         <v>40056637</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G3" s="13">
         <f>20268+22941</f>
         <v>43209</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J3" s="11">
         <v>35</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N3" s="14">
         <v>59.4</v>
       </c>
       <c r="V3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="W3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y3">
         <v>40029198</v>
@@ -6793,26 +7093,26 @@
         <v>40236914</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G4" s="13">
         <f>26192+5957</f>
         <v>32149</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J4" s="11">
         <v>32</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N4" s="14">
         <v>57.8</v>
       </c>
       <c r="V4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="3:47">
@@ -6823,20 +7123,20 @@
         <v>40039826</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G5" s="13">
         <f>16341+10501</f>
         <v>26842</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J5" s="11">
         <v>22</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N5" s="14">
         <v>53.7</v>
@@ -6850,20 +7150,20 @@
         <v>41239999</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G6" s="13">
         <f>15052+6921</f>
         <v>21973</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J6" s="11">
         <v>16</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N6" s="14">
         <v>51.7</v>
@@ -6877,25 +7177,25 @@
         <v>41693116</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G7" s="13">
         <v>14248</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J7" s="11">
         <v>16</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N7" s="14">
         <v>49.8</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="3:47">
@@ -6906,14 +7206,14 @@
         <v>41861246</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G8" s="13">
         <f>11578+5989</f>
         <v>17567</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J8" s="11">
         <v>15</v>
@@ -6927,17 +7227,17 @@
         <v>41917490</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G9" s="13">
         <f>6087+6110+8750</f>
         <v>20947</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J9" s="11">
         <v>14</v>
@@ -6951,7 +7251,7 @@
         <v>41978630</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J10" s="11">
         <v>14</v>
@@ -6965,7 +7265,7 @@
         <v>41949335</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J11" s="11">
         <v>12</v>
@@ -6979,13 +7279,13 @@
         <v>41729225</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J12" s="11">
         <v>7</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="3:47">
@@ -7107,7 +7407,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7115,7 +7415,7 @@
         <v>2009</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7175,32 +7475,32 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -7217,8 +7517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729D3E50-96CE-5D4F-8758-34102C76EE6A}">
   <dimension ref="B1:S25"/>
   <sheetViews>
-    <sheetView zoomScale="143" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView topLeftCell="Q1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -7238,61 +7538,61 @@
   <sheetData>
     <row r="1" spans="2:19">
       <c r="B1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="2:19">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" ht="15">
       <c r="C2" s="4">
         <v>36526</v>
       </c>
@@ -7332,7 +7632,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="3" spans="2:19">
+    <row r="3" spans="2:19" ht="15">
       <c r="C3" s="4">
         <v>36892</v>
       </c>
@@ -7372,7 +7672,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="2:19" ht="15">
       <c r="C4" s="4">
         <v>37257</v>
       </c>
@@ -7412,7 +7712,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:19" ht="15">
       <c r="C5" s="4">
         <v>37622</v>
       </c>
@@ -7452,7 +7752,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:19" ht="15">
       <c r="C6" s="4">
         <v>37987</v>
       </c>
@@ -7492,7 +7792,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:19" ht="15">
       <c r="C7" s="4">
         <v>38353</v>
       </c>
@@ -7520,7 +7820,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:19" ht="15">
       <c r="C8" s="4">
         <v>38718</v>
       </c>
@@ -7548,7 +7848,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="9" spans="2:19">
+    <row r="9" spans="2:19" ht="15">
       <c r="C9" s="4">
         <v>39083</v>
       </c>
@@ -7576,7 +7876,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="10" spans="2:19">
+    <row r="10" spans="2:19" ht="15">
       <c r="C10" s="4">
         <v>39448</v>
       </c>
@@ -7604,7 +7904,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:19">
+    <row r="11" spans="2:19" ht="15">
       <c r="C11" s="4">
         <v>39814</v>
       </c>
@@ -7632,7 +7932,7 @@
         <v>-6.2</v>
       </c>
     </row>
-    <row r="12" spans="2:19">
+    <row r="12" spans="2:19" ht="15">
       <c r="C12" s="4">
         <v>40179</v>
       </c>
@@ -7660,7 +7960,7 @@
         <v>-6.3</v>
       </c>
     </row>
-    <row r="13" spans="2:19">
+    <row r="13" spans="2:19" ht="15">
       <c r="C13" s="4">
         <v>40544</v>
       </c>
@@ -7688,7 +7988,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
+    <row r="14" spans="2:19" ht="15">
       <c r="C14" s="4">
         <v>40909</v>
       </c>
@@ -7716,7 +8016,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:19" ht="15">
       <c r="C15" s="4">
         <v>41275</v>
       </c>
@@ -7744,7 +8044,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:19" ht="15">
       <c r="C16" s="4">
         <v>41640</v>
       </c>
@@ -7772,7 +8072,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="17" spans="3:19">
+    <row r="17" spans="3:19" ht="15">
       <c r="C17" s="4">
         <v>42005</v>
       </c>
@@ -7800,7 +8100,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="3:19">
+    <row r="18" spans="3:19" ht="15">
       <c r="C18" s="4">
         <v>42370</v>
       </c>
@@ -7828,7 +8128,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="19" spans="3:19">
+    <row r="19" spans="3:19" ht="15">
       <c r="C19" s="4">
         <v>42736</v>
       </c>
@@ -7856,7 +8156,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="20" spans="3:19">
+    <row r="20" spans="3:19" ht="15">
       <c r="C20" s="4">
         <v>43101</v>
       </c>
@@ -7884,7 +8184,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="21" spans="3:19">
+    <row r="21" spans="3:19" ht="15">
       <c r="C21" s="4">
         <v>43466</v>
       </c>
@@ -7912,7 +8212,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="22" spans="3:19">
+    <row r="22" spans="3:19" ht="15">
       <c r="C22" s="4">
         <v>43831</v>
       </c>
@@ -7940,7 +8240,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="23" spans="3:19">
+    <row r="23" spans="3:19" ht="15">
       <c r="C23" s="4">
         <v>44197</v>
       </c>
@@ -7968,7 +8268,7 @@
         <v>-5.2</v>
       </c>
     </row>
-    <row r="24" spans="3:19">
+    <row r="24" spans="3:19" ht="15">
       <c r="C24" s="4">
         <v>44562</v>
       </c>
@@ -7996,7 +8296,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="25" spans="3:19">
+    <row r="25" spans="3:19" ht="15">
       <c r="C25" s="4">
         <v>44927</v>
       </c>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="720" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FA87A45-48E6-4EA7-BADB-E4BE01C4A34D}"/>
+  <xr:revisionPtr revIDLastSave="764" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FCB5D2D-A880-4CF0-A675-E8142D52B8D8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nøgletal!$I$2:$I$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nøgletal!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -112,9 +112,6 @@
     <t>ULC pct change previous period</t>
   </si>
   <si>
-    <t>exchange rate 1 EUR to USD</t>
-  </si>
-  <si>
     <t>Productivity output per hour worked (mining and manufacturing)</t>
   </si>
   <si>
@@ -142,292 +139,7 @@
     <t>Real GDP percent year ago</t>
   </si>
   <si>
-    <t> 0,9865 </t>
-  </si>
-  <si>
-    <t> 0,9332 </t>
-  </si>
-  <si>
-    <t> 0,9052 </t>
-  </si>
-  <si>
-    <t> 0,8683 </t>
-  </si>
-  <si>
-    <t> 0,9232 </t>
-  </si>
-  <si>
-    <t> 0,8725 </t>
-  </si>
-  <si>
-    <t> 0,8903 </t>
-  </si>
-  <si>
-    <t> 0,8959 </t>
-  </si>
-  <si>
-    <t> 0,8766 </t>
-  </si>
-  <si>
-    <t> 0,9188 </t>
-  </si>
-  <si>
-    <t> 0,9838 </t>
-  </si>
-  <si>
-    <t> 0,9994 </t>
-  </si>
-  <si>
-    <t> 1,0731 </t>
-  </si>
-  <si>
-    <t> 1,1372 </t>
-  </si>
-  <si>
-    <t> 1,1248 </t>
-  </si>
-  <si>
-    <t> 1,1890 </t>
-  </si>
-  <si>
-    <t> 1,2497 </t>
-  </si>
-  <si>
-    <t> 1,2046 </t>
-  </si>
-  <si>
-    <t> 1,2220 </t>
-  </si>
-  <si>
-    <t> 1,2977 </t>
-  </si>
-  <si>
-    <t> 1,3113 </t>
-  </si>
-  <si>
-    <t> 1,2594 </t>
-  </si>
-  <si>
-    <t> 1,2199 </t>
-  </si>
-  <si>
-    <t> 1,1884 </t>
-  </si>
-  <si>
-    <t> 1,2023 </t>
-  </si>
-  <si>
-    <t> 1,2582 </t>
-  </si>
-  <si>
-    <t> 1,2743 </t>
-  </si>
-  <si>
-    <t> 1,2887 </t>
-  </si>
-  <si>
-    <t> 1,3106 </t>
-  </si>
-  <si>
-    <t> 1,3481 </t>
-  </si>
-  <si>
-    <t> 1,3738 </t>
-  </si>
-  <si>
-    <t> 1,4486 </t>
-  </si>
-  <si>
-    <t> 1,4976 </t>
-  </si>
-  <si>
-    <t> 1,5622 </t>
-  </si>
-  <si>
-    <t> 1,5050 </t>
-  </si>
-  <si>
-    <t> 1,3180 </t>
-  </si>
-  <si>
-    <t> 1,3029 </t>
-  </si>
-  <si>
-    <t> 1,3632 </t>
-  </si>
-  <si>
-    <t> 1,4303 </t>
-  </si>
-  <si>
-    <t> 1,4779 </t>
-  </si>
-  <si>
-    <t> 1,3829 </t>
-  </si>
-  <si>
-    <t> 1,2708 </t>
-  </si>
-  <si>
-    <t> 1,2910 </t>
-  </si>
-  <si>
-    <t> 1,3583 </t>
-  </si>
-  <si>
-    <t> 1,3680 </t>
-  </si>
-  <si>
-    <t> 1,4391 </t>
-  </si>
-  <si>
-    <t> 1,4127 </t>
-  </si>
-  <si>
-    <t> 1,3482 </t>
-  </si>
-  <si>
-    <t> 1,3108 </t>
-  </si>
-  <si>
-    <t> 1,2814 </t>
-  </si>
-  <si>
-    <t> 1,2502 </t>
-  </si>
-  <si>
-    <t> 1,2967 </t>
-  </si>
-  <si>
-    <t> 1,3206 </t>
-  </si>
-  <si>
-    <t> 1,3062 </t>
-  </si>
-  <si>
-    <t> 1,3242 </t>
-  </si>
-  <si>
-    <t> 1,3610 </t>
-  </si>
-  <si>
-    <t> 1,3696 </t>
-  </si>
-  <si>
-    <t> 1,3711 </t>
-  </si>
-  <si>
-    <t> 1,3256 </t>
-  </si>
-  <si>
-    <t> 1,2498 </t>
-  </si>
-  <si>
-    <t> 1,1261 </t>
-  </si>
-  <si>
-    <t> 1,1053 </t>
-  </si>
-  <si>
-    <t> 1,1117 </t>
-  </si>
-  <si>
-    <t> 1,0953 </t>
-  </si>
-  <si>
-    <t> 1,1020 </t>
-  </si>
-  <si>
-    <t> 1,1292 </t>
-  </si>
-  <si>
-    <t> 1,1166 </t>
-  </si>
-  <si>
-    <t> 1,0789 </t>
-  </si>
-  <si>
-    <t> 1,0648 </t>
-  </si>
-  <si>
-    <t> 1,1021 </t>
-  </si>
-  <si>
-    <t> 1,1746 </t>
-  </si>
-  <si>
-    <t> 1,1774 </t>
-  </si>
-  <si>
-    <t> 1,2292 </t>
-  </si>
-  <si>
-    <t> 1,1915 </t>
-  </si>
-  <si>
-    <t> 1,1629 </t>
-  </si>
-  <si>
-    <t> 1,1414 </t>
-  </si>
-  <si>
-    <t> 1,1358 </t>
-  </si>
-  <si>
-    <t> 1,1237 </t>
-  </si>
-  <si>
-    <t> 1,1119 </t>
-  </si>
-  <si>
-    <t> 1,1071 </t>
-  </si>
-  <si>
-    <t> 1,1027 </t>
-  </si>
-  <si>
-    <t> 1,1014 </t>
-  </si>
-  <si>
-    <t> 1,1689 </t>
-  </si>
-  <si>
-    <t> 1,1929 </t>
-  </si>
-  <si>
-    <t> 1,2048 </t>
-  </si>
-  <si>
-    <t> 1,2058 </t>
-  </si>
-  <si>
-    <t> 1,1788 </t>
-  </si>
-  <si>
-    <t> 1,1435 </t>
-  </si>
-  <si>
-    <t> 1,1217 </t>
-  </si>
-  <si>
-    <t> 1,0647 </t>
-  </si>
-  <si>
-    <t> 1,0070 </t>
-  </si>
-  <si>
-    <t> 1,0205 </t>
-  </si>
-  <si>
-    <t> 1,0730 </t>
-  </si>
-  <si>
-    <t> 1,0887 </t>
-  </si>
-  <si>
-    <t> 1,0884 </t>
-  </si>
-  <si>
-    <t> 1,0751 </t>
+    <t>Exchange rate</t>
   </si>
   <si>
     <t>Year</t>
@@ -744,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -775,8 +487,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1220,13 +931,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA289"/>
+  <dimension ref="A1:AD289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
@@ -1236,17 +947,17 @@
     <col min="6" max="6" width="33.28515625" customWidth="1"/>
     <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="84.85546875" customWidth="1"/>
-    <col min="13" max="13" width="79" customWidth="1"/>
-    <col min="14" max="14" width="49.7109375" customWidth="1"/>
-    <col min="15" max="15" width="79" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="84.85546875" customWidth="1"/>
+    <col min="12" max="12" width="79" customWidth="1"/>
+    <col min="13" max="13" width="49.7109375" customWidth="1"/>
+    <col min="14" max="14" width="79" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="30" max="30" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +985,7 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
       <c r="L1" t="s">
@@ -1286,23 +997,23 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15">
+    <row r="2" spans="1:30">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1327,37 +1038,34 @@
       <c r="H2" s="1">
         <v>6.189796E-3</v>
       </c>
-      <c r="I2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="9">
+      <c r="I2" s="9">
         <v>74.5</v>
       </c>
-      <c r="L2" s="18">
+      <c r="K2" s="18">
         <v>4.8</v>
       </c>
-      <c r="M2">
-        <f>$W$2/4</f>
+      <c r="L2">
+        <f>$V$2/4</f>
         <v>2.1225233509129033</v>
       </c>
-      <c r="N2" s="19">
+      <c r="M2" s="19">
         <v>1.2197499999999999</v>
       </c>
-      <c r="P2" s="21">
+      <c r="O2" s="21">
         <v>6.1814946225242897</v>
       </c>
-      <c r="Q2">
+      <c r="P2">
         <v>229.8</v>
       </c>
-      <c r="W2" s="21" cm="1">
-        <f t="array" ref="W2:W24">TRANSPOSE([1]Data!BS42:CO42)</f>
+      <c r="V2" s="21" cm="1">
+        <f t="array" ref="V2:V24">TRANSPOSE([1]Data!BS42:CO42)</f>
         <v>8.4900934036516134</v>
       </c>
-      <c r="AA2" s="22">
+      <c r="Z2" s="22">
         <v>3.4</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15">
+    <row r="3" spans="1:30">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1382,36 +1090,33 @@
       <c r="H3" s="1">
         <v>-6.1099225E-2</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="I3" s="9">
         <v>77</v>
       </c>
-      <c r="L3" s="18">
+      <c r="K3" s="18">
         <v>3.7</v>
       </c>
-      <c r="M3">
-        <f>$W$2/4</f>
+      <c r="L3">
+        <f>$V$2/4</f>
         <v>2.1225233509129033</v>
       </c>
-      <c r="N3" s="19">
+      <c r="M3" s="19">
         <v>0.89029999999999998</v>
       </c>
-      <c r="P3" s="21">
+      <c r="O3" s="21">
         <v>-4.5892814142722997</v>
       </c>
-      <c r="Q3">
+      <c r="P3">
         <v>225.2</v>
       </c>
-      <c r="W3" s="21">
+      <c r="V3" s="21">
         <v>8.3357334757762516</v>
       </c>
-      <c r="AA3" s="22">
+      <c r="Z3" s="22">
         <v>4.2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15">
+    <row r="4" spans="1:30">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1436,36 +1141,33 @@
       <c r="H4" s="1">
         <v>0.91796691399999997</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="I4" s="9">
         <v>78.400000000000006</v>
       </c>
-      <c r="L4" s="18">
+      <c r="K4" s="18">
         <v>1.8</v>
       </c>
-      <c r="M4">
-        <f>$W$2/4</f>
+      <c r="L4">
+        <f>$V$2/4</f>
         <v>2.1225233509129033</v>
       </c>
-      <c r="N4" s="19">
+      <c r="M4" s="19">
         <v>0.60801000000000005</v>
       </c>
-      <c r="P4" s="21">
+      <c r="O4" s="21">
         <v>2.0557451765107002</v>
       </c>
-      <c r="Q4">
+      <c r="P4">
         <v>235.1</v>
       </c>
-      <c r="W4" s="21">
+      <c r="V4" s="21">
         <v>9.1336307895446964</v>
       </c>
-      <c r="AA4" s="22">
+      <c r="Z4" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15">
+    <row r="5" spans="1:30">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1490,36 +1192,33 @@
       <c r="H5" s="1">
         <v>0.82722910999999999</v>
       </c>
-      <c r="I5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="I5" s="9">
         <v>79.5</v>
       </c>
-      <c r="L5" s="18">
+      <c r="K5" s="18">
         <v>5.3</v>
       </c>
-      <c r="M5">
-        <f>$W$2/4</f>
+      <c r="L5">
+        <f>$V$2/4</f>
         <v>2.1225233509129033</v>
       </c>
-      <c r="N5" s="19">
+      <c r="M5" s="19">
         <v>0.63997000000000004</v>
       </c>
-      <c r="P5" s="21">
+      <c r="O5" s="21">
         <v>1.2658025496412</v>
       </c>
-      <c r="Q5">
+      <c r="P5">
         <v>264.7</v>
       </c>
-      <c r="W5" s="21">
+      <c r="V5" s="21">
         <v>10.038030484736964</v>
       </c>
-      <c r="AA5" s="22">
+      <c r="Z5" s="22">
         <v>1.9</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15">
+    <row r="6" spans="1:30">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1544,36 +1243,33 @@
       <c r="H6" s="1">
         <v>-1.7235691150000001</v>
       </c>
-      <c r="I6" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="I6" s="9">
         <v>79.099999999999994</v>
       </c>
-      <c r="L6" s="18">
+      <c r="K6" s="18">
         <v>-0.2</v>
       </c>
-      <c r="M6">
-        <f>$W$3/4</f>
+      <c r="L6">
+        <f>$V$3/4</f>
         <v>2.0839333689440629</v>
       </c>
-      <c r="N6" s="19">
+      <c r="M6" s="19">
         <v>0.96804000000000001</v>
       </c>
-      <c r="P6" s="21">
+      <c r="O6" s="21">
         <v>-4.7227565276399002</v>
       </c>
-      <c r="Q6">
+      <c r="P6">
         <v>235.5</v>
       </c>
-      <c r="W6" s="21">
+      <c r="V6" s="21">
         <v>10.11362137880208</v>
       </c>
-      <c r="AA6" s="22">
+      <c r="Z6" s="22">
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15">
+    <row r="7" spans="1:30">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1598,36 +1294,33 @@
       <c r="H7" s="1">
         <v>0.216069645</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="I7" s="9">
         <v>79.400000000000006</v>
       </c>
-      <c r="L7" s="18">
+      <c r="K7" s="18">
         <v>0.4</v>
       </c>
-      <c r="M7">
-        <f>$W$3/4</f>
+      <c r="L7">
+        <f>$V$3/4</f>
         <v>2.0839333689440629</v>
       </c>
-      <c r="N7" s="19">
+      <c r="M7" s="19">
         <v>0.12275999999999999</v>
       </c>
-      <c r="P7" s="21">
+      <c r="O7" s="21">
         <v>1.5354542486675</v>
       </c>
-      <c r="Q7">
+      <c r="P7">
         <v>228.7</v>
       </c>
-      <c r="W7" s="21">
+      <c r="V7" s="21">
         <v>11.394591808688787</v>
       </c>
-      <c r="AA7" s="22">
+      <c r="Z7" s="22">
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15">
+    <row r="8" spans="1:30">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1652,36 +1345,33 @@
       <c r="H8" s="1">
         <v>0.28924004399999997</v>
       </c>
-      <c r="I8" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="I8" s="9">
         <v>78.2</v>
       </c>
-      <c r="L8" s="18">
+      <c r="K8" s="18">
         <v>-0.2</v>
       </c>
-      <c r="M8">
-        <f>$W$3/4</f>
+      <c r="L8">
+        <f>$V$3/4</f>
         <v>2.0839333689440629</v>
       </c>
-      <c r="N8" s="19">
+      <c r="M8" s="19">
         <v>0.14927000000000001</v>
       </c>
-      <c r="P8" s="21">
+      <c r="O8" s="21">
         <v>-7.4229427182379801</v>
       </c>
-      <c r="Q8">
+      <c r="P8">
         <v>239.5</v>
       </c>
-      <c r="W8" s="21">
+      <c r="V8" s="21">
         <v>12.720955663945105</v>
       </c>
-      <c r="AA8" s="22">
+      <c r="Z8" s="22">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15">
+    <row r="9" spans="1:30">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1706,36 +1396,33 @@
       <c r="H9" s="1">
         <v>1.0089601180000001</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="I9" s="9">
         <v>77.8</v>
       </c>
-      <c r="L9" s="18">
+      <c r="K9" s="18">
         <v>1.2</v>
       </c>
-      <c r="M9">
-        <f>$W$3/4</f>
+      <c r="L9">
+        <f>$V$3/4</f>
         <v>2.0839333689440629</v>
       </c>
-      <c r="N9" s="19">
+      <c r="M9" s="19">
         <v>2.7459999999999998E-2</v>
       </c>
-      <c r="P9" s="21">
+      <c r="O9" s="21">
         <v>-6.3779214568669902</v>
       </c>
-      <c r="Q9">
+      <c r="P9">
         <v>265.7</v>
       </c>
-      <c r="W9" s="21">
+      <c r="V9" s="21">
         <v>14.230860934047087</v>
       </c>
-      <c r="AA9" s="22">
+      <c r="Z9" s="22">
         <v>1.7</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15">
+    <row r="10" spans="1:30">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1760,36 +1447,33 @@
       <c r="H10" s="1">
         <v>2.8872630999999999E-2</v>
       </c>
-      <c r="I10" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="I10" s="9">
         <v>78.599999999999994</v>
       </c>
-      <c r="L10" s="18">
+      <c r="K10" s="18">
         <v>-0.4</v>
       </c>
-      <c r="M10">
-        <f>$W$4/4</f>
+      <c r="L10">
+        <f>$V$4/4</f>
         <v>2.2834076973861741</v>
       </c>
-      <c r="N10" s="19">
+      <c r="M10" s="19">
         <v>0.14657999999999999</v>
       </c>
-      <c r="P10" s="21">
+      <c r="O10" s="21">
         <v>1.9084091899192781</v>
       </c>
-      <c r="Q10">
+      <c r="P10">
         <v>239.7</v>
       </c>
-      <c r="W10" s="21">
+      <c r="V10" s="21">
         <v>9.6506789183468982</v>
       </c>
-      <c r="AA10" s="22">
+      <c r="Z10" s="22">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15">
+    <row r="11" spans="1:30">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1814,36 +1498,33 @@
       <c r="H11" s="1">
         <v>-0.35898126600000002</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="I11" s="9">
         <v>80.8</v>
       </c>
-      <c r="L11" s="18">
+      <c r="K11" s="18">
         <v>3.1</v>
       </c>
-      <c r="M11">
-        <f>$W$4/4</f>
+      <c r="L11">
+        <f>$V$4/4</f>
         <v>2.2834076973861741</v>
       </c>
-      <c r="N11" s="19">
+      <c r="M11" s="19">
         <v>0.52961999999999998</v>
       </c>
-      <c r="P11" s="21">
+      <c r="O11" s="21">
         <v>-0.94708197869315802</v>
       </c>
-      <c r="Q11">
+      <c r="P11">
         <v>235.6</v>
       </c>
-      <c r="W11" s="21">
+      <c r="V11" s="21">
         <v>9.3987256316321037</v>
       </c>
-      <c r="AA11" s="22">
+      <c r="Z11" s="22">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15">
+    <row r="12" spans="1:30">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1868,36 +1549,33 @@
       <c r="H12" s="1">
         <v>0.19652018800000001</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="9">
+      <c r="I12" s="9">
         <v>81.2</v>
       </c>
-      <c r="L12" s="18">
+      <c r="K12" s="18">
         <v>1.7</v>
       </c>
-      <c r="M12">
-        <f>$W$4/4</f>
+      <c r="L12">
+        <f>$V$4/4</f>
         <v>2.2834076973861741</v>
       </c>
-      <c r="N12" s="19">
+      <c r="M12" s="19">
         <v>0.41843000000000002</v>
       </c>
-      <c r="P12" s="21">
+      <c r="O12" s="21">
         <v>1.3949329848110308</v>
       </c>
-      <c r="Q12">
+      <c r="P12">
         <v>244.9</v>
       </c>
-      <c r="W12" s="21">
+      <c r="V12" s="21">
         <v>10.635871065957176</v>
       </c>
-      <c r="AA12" s="22">
+      <c r="Z12" s="22">
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15">
+    <row r="13" spans="1:30">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1922,36 +1600,33 @@
       <c r="H13" s="1">
         <v>0.37363352300000002</v>
       </c>
-      <c r="I13" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="9">
+      <c r="I13" s="9">
         <v>81.599999999999994</v>
       </c>
-      <c r="L13" s="18">
+      <c r="K13" s="18">
         <v>1.8</v>
       </c>
-      <c r="M13">
-        <f>$W$4/4</f>
+      <c r="L13">
+        <f>$V$4/4</f>
         <v>2.2834076973861741</v>
       </c>
-      <c r="N13" s="19">
+      <c r="M13" s="19">
         <v>0.16761999999999999</v>
       </c>
-      <c r="P13" s="21">
+      <c r="O13" s="21">
         <v>3.6867064631732194</v>
       </c>
-      <c r="Q13">
+      <c r="P13">
         <v>266.60000000000002</v>
       </c>
-      <c r="W13" s="21">
+      <c r="V13" s="21">
         <v>9.5508321788419863</v>
       </c>
-      <c r="AA13" s="22">
+      <c r="Z13" s="22">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15">
+    <row r="14" spans="1:30">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1976,36 +1651,33 @@
       <c r="H14" s="1">
         <v>1.3128743810000001</v>
       </c>
-      <c r="I14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="I14" s="9">
         <v>82.8</v>
       </c>
-      <c r="L14" s="18">
+      <c r="K14" s="18">
         <v>-3</v>
       </c>
-      <c r="M14">
-        <f>$W$5/4</f>
+      <c r="L14">
+        <f>$V$5/4</f>
         <v>2.5095076211842411</v>
       </c>
-      <c r="N14" s="19">
+      <c r="M14" s="19">
         <v>-0.31728000000000001</v>
       </c>
-      <c r="P14" s="21">
+      <c r="O14" s="21">
         <v>3.9081683618366099</v>
       </c>
-      <c r="Q14">
+      <c r="P14">
         <v>245.5</v>
       </c>
-      <c r="W14" s="21">
+      <c r="V14" s="21">
         <v>7.8637364484526415</v>
       </c>
-      <c r="AA14" s="22">
+      <c r="Z14" s="22">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15">
+    <row r="15" spans="1:30">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -2030,36 +1702,33 @@
       <c r="H15" s="1">
         <v>-0.21871228300000001</v>
       </c>
-      <c r="I15" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="9">
+      <c r="I15" s="9">
         <v>81.900000000000006</v>
       </c>
-      <c r="L15" s="18">
+      <c r="K15" s="18">
         <v>-0.3</v>
       </c>
-      <c r="M15">
-        <f>$W$5/4</f>
+      <c r="L15">
+        <f>$V$5/4</f>
         <v>2.5095076211842411</v>
       </c>
-      <c r="N15" s="19">
+      <c r="M15" s="19">
         <v>9.0389999999999998E-2</v>
       </c>
-      <c r="P15" s="21">
+      <c r="O15" s="21">
         <v>-5.8338371804739397</v>
       </c>
-      <c r="Q15">
+      <c r="P15">
         <v>239.1</v>
       </c>
-      <c r="W15" s="21">
+      <c r="V15" s="21">
         <v>7.7661500973591018</v>
       </c>
-      <c r="AA15" s="22">
+      <c r="Z15" s="22">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15">
+    <row r="16" spans="1:30">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -2084,36 +1753,33 @@
       <c r="H16" s="1">
         <v>5.3757728999999997E-2</v>
       </c>
-      <c r="I16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="9">
+      <c r="I16" s="9">
         <v>83.5</v>
       </c>
-      <c r="L16" s="18">
+      <c r="K16" s="18">
         <v>3.1</v>
       </c>
-      <c r="M16">
-        <f>$W$5/4</f>
+      <c r="L16">
+        <f>$V$5/4</f>
         <v>2.5095076211842411</v>
       </c>
-      <c r="N16" s="19">
+      <c r="M16" s="19">
         <v>0.59260000000000002</v>
       </c>
-      <c r="P16" s="21">
+      <c r="O16" s="21">
         <v>1.2267159781835399</v>
       </c>
-      <c r="Q16">
+      <c r="P16">
         <v>252.3</v>
       </c>
-      <c r="W16" s="21">
+      <c r="V16" s="21">
         <v>7.4257636559691633</v>
       </c>
-      <c r="AA16" s="22">
+      <c r="Z16" s="22">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15">
+    <row r="17" spans="1:26">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -2138,36 +1804,33 @@
       <c r="H17" s="1">
         <v>-0.36024741999999998</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="9">
+      <c r="I17" s="9">
         <v>84.1</v>
       </c>
-      <c r="L17" s="18">
+      <c r="K17" s="18">
         <v>2.4</v>
       </c>
-      <c r="M17">
-        <f>$W$5/4</f>
+      <c r="L17">
+        <f>$V$5/4</f>
         <v>2.5095076211842411</v>
       </c>
-      <c r="N17" s="19">
+      <c r="M17" s="19">
         <v>0.68411999999999995</v>
       </c>
-      <c r="P17" s="21">
+      <c r="O17" s="21">
         <v>0.22656998449292001</v>
       </c>
-      <c r="Q17">
+      <c r="P17">
         <v>261.7</v>
       </c>
-      <c r="W17" s="21">
+      <c r="V17" s="21">
         <v>7.0413288794755005</v>
       </c>
-      <c r="AA17" s="22">
+      <c r="Z17" s="22">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15">
+    <row r="18" spans="1:26">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -2192,36 +1855,33 @@
       <c r="H18" s="1">
         <v>0.50438195900000005</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="9">
+      <c r="I18" s="9">
         <v>85.7</v>
       </c>
-      <c r="L18" s="18">
+      <c r="K18" s="18">
         <v>4.3</v>
       </c>
-      <c r="M18">
-        <f>$W$6/4</f>
+      <c r="L18">
+        <f>$V$6/4</f>
         <v>2.5284053447005199</v>
       </c>
-      <c r="N18" s="19">
+      <c r="M18" s="19">
         <v>0.50278999999999996</v>
       </c>
-      <c r="P18" s="21">
+      <c r="O18" s="21">
         <v>-4.9543735646396998</v>
       </c>
-      <c r="Q18">
+      <c r="P18">
         <v>248.9</v>
       </c>
-      <c r="W18" s="21">
+      <c r="V18" s="21">
         <v>6.8487622044418401</v>
       </c>
-      <c r="AA18" s="22">
+      <c r="Z18" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15">
+    <row r="19" spans="1:26">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -2246,36 +1906,33 @@
       <c r="H19" s="1">
         <v>-0.56357813199999995</v>
       </c>
-      <c r="I19" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="9">
+      <c r="I19" s="9">
         <v>85.5</v>
       </c>
-      <c r="L19" s="18">
+      <c r="K19" s="18">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M19">
-        <f>$W$6/4</f>
+      <c r="L19">
+        <f>$V$6/4</f>
         <v>2.5284053447005199</v>
       </c>
-      <c r="N19" s="19">
+      <c r="M19" s="19">
         <v>0.61407</v>
       </c>
-      <c r="P19" s="21">
+      <c r="O19" s="21">
         <v>6.6420683458566199</v>
       </c>
-      <c r="Q19">
+      <c r="P19">
         <v>235.2</v>
       </c>
-      <c r="W19" s="21">
+      <c r="V19" s="21">
         <v>6.9472007931653366</v>
       </c>
-      <c r="AA19" s="22">
+      <c r="Z19" s="22">
         <v>1.4</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15">
+    <row r="20" spans="1:26">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -2300,36 +1957,33 @@
       <c r="H20" s="1">
         <v>0.234477987</v>
       </c>
-      <c r="I20" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="9">
+      <c r="I20" s="9">
         <v>87.4</v>
       </c>
-      <c r="L20" s="18">
+      <c r="K20" s="18">
         <v>-1.7</v>
       </c>
-      <c r="M20">
-        <f>$W$6/4</f>
+      <c r="L20">
+        <f>$V$6/4</f>
         <v>2.5284053447005199</v>
       </c>
-      <c r="N20" s="19">
+      <c r="M20" s="19">
         <v>0.24457000000000001</v>
       </c>
-      <c r="P20" s="21">
+      <c r="O20" s="21">
         <v>1.1403857573081699</v>
       </c>
-      <c r="Q20">
+      <c r="P20">
         <v>246.9</v>
       </c>
-      <c r="W20" s="21">
+      <c r="V20" s="21">
         <v>6.7497738325114796</v>
       </c>
-      <c r="AA20" s="22">
+      <c r="Z20" s="22">
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15">
+    <row r="21" spans="1:26">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -2354,36 +2008,33 @@
       <c r="H21" s="1">
         <v>0.13371394</v>
       </c>
-      <c r="I21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="9">
+      <c r="I21" s="9">
         <v>87.9</v>
       </c>
-      <c r="L21" s="18">
+      <c r="K21" s="18">
         <v>0.5</v>
       </c>
-      <c r="M21">
-        <f>$W$6/4</f>
+      <c r="L21">
+        <f>$V$6/4</f>
         <v>2.5284053447005199</v>
       </c>
-      <c r="N21" s="19">
+      <c r="M21" s="19">
         <v>0.36556</v>
       </c>
-      <c r="P21" s="21">
+      <c r="O21" s="21">
         <v>0.81331062439773005</v>
       </c>
-      <c r="Q21">
+      <c r="P21">
         <v>258.3</v>
       </c>
-      <c r="W21" s="21">
+      <c r="V21" s="21">
         <v>5.950500754393147</v>
       </c>
-      <c r="AA21" s="22">
+      <c r="Z21" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15">
+    <row r="22" spans="1:26">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -2408,36 +2059,33 @@
       <c r="H22" s="1">
         <v>0.17811001000000001</v>
       </c>
-      <c r="I22" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="9">
+      <c r="I22" s="9">
         <v>88.8</v>
       </c>
-      <c r="L22" s="18">
+      <c r="K22" s="18">
         <v>2.5</v>
       </c>
-      <c r="M22">
-        <f>$W$7/4</f>
+      <c r="L22">
+        <f>$V$7/4</f>
         <v>2.8486479521721968</v>
       </c>
-      <c r="N22" s="19">
+      <c r="M22" s="19">
         <v>0.20891000000000001</v>
       </c>
-      <c r="P22" s="21">
+      <c r="O22" s="21">
         <v>-0.32101173657914001</v>
       </c>
-      <c r="Q22">
+      <c r="P22">
         <v>249.9</v>
       </c>
-      <c r="W22" s="21">
+      <c r="V22" s="21">
         <v>2.2386383567412054</v>
       </c>
-      <c r="AA22" s="22">
+      <c r="Z22" s="22">
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15">
+    <row r="23" spans="1:26">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -2462,36 +2110,33 @@
       <c r="H23" s="1">
         <v>-0.61401686499999997</v>
       </c>
-      <c r="I23" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="9">
+      <c r="I23" s="9">
         <v>89</v>
       </c>
-      <c r="L23" s="18">
+      <c r="K23" s="18">
         <v>1.7</v>
       </c>
-      <c r="M23">
-        <f>$W$7/4</f>
+      <c r="L23">
+        <f>$V$7/4</f>
         <v>2.8486479521721968</v>
       </c>
-      <c r="N23" s="19">
+      <c r="M23" s="19">
         <v>0.61641000000000001</v>
       </c>
-      <c r="P23" s="21">
+      <c r="O23" s="21">
         <v>1.07670698373311</v>
       </c>
-      <c r="Q23">
+      <c r="P23">
         <v>240.4</v>
       </c>
-      <c r="W23" s="21">
+      <c r="V23" s="21">
         <v>8.4484694162814122</v>
       </c>
-      <c r="AA23" s="22">
+      <c r="Z23" s="22">
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15">
+    <row r="24" spans="1:26">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -2516,36 +2161,33 @@
       <c r="H24" s="1">
         <v>-0.82696737799999998</v>
       </c>
-      <c r="I24" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="9">
+      <c r="I24" s="9">
         <v>91.2</v>
       </c>
-      <c r="L24" s="18">
+      <c r="K24" s="18">
         <v>4.0999999999999996</v>
       </c>
-      <c r="M24">
-        <f>$W$7/4</f>
+      <c r="L24">
+        <f>$V$7/4</f>
         <v>2.8486479521721968</v>
       </c>
-      <c r="N24" s="19">
+      <c r="M24" s="19">
         <v>0.78203999999999996</v>
       </c>
-      <c r="P24" s="21">
+      <c r="O24" s="21">
         <v>4.1584952721005797</v>
       </c>
-      <c r="Q24">
+      <c r="P24">
         <v>248.8</v>
       </c>
-      <c r="W24">
+      <c r="V24">
         <v>2.9890840860365273</v>
       </c>
-      <c r="AA24" s="22">
+      <c r="Z24" s="22">
         <v>1.3</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15">
+    <row r="25" spans="1:26">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -2570,33 +2212,30 @@
       <c r="H25" s="1">
         <v>-0.18833066800000001</v>
       </c>
-      <c r="I25" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="9">
+      <c r="I25" s="9">
         <v>93.1</v>
       </c>
-      <c r="L25" s="18">
+      <c r="K25" s="18">
         <v>1.6</v>
       </c>
-      <c r="M25">
-        <f>$W$7/4</f>
+      <c r="L25">
+        <f>$V$7/4</f>
         <v>2.8486479521721968</v>
       </c>
-      <c r="N25" s="19">
+      <c r="M25" s="19">
         <v>0.61492999999999998</v>
       </c>
-      <c r="P25" s="21">
+      <c r="O25" s="21">
         <v>0.19959269391539999</v>
       </c>
-      <c r="Q25">
+      <c r="P25">
         <v>263.8</v>
       </c>
-      <c r="AA25" s="22">
+      <c r="Z25" s="22">
         <v>1.9</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15">
+    <row r="26" spans="1:26">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -2621,33 +2260,30 @@
       <c r="H26" s="1">
         <v>-0.481418554</v>
       </c>
-      <c r="I26" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" s="9">
+      <c r="I26" s="9">
         <v>93.1</v>
       </c>
-      <c r="L26" s="18">
+      <c r="K26" s="18">
         <v>3.3</v>
       </c>
-      <c r="M26">
-        <f>$W$8/4</f>
+      <c r="L26">
+        <f>$V$8/4</f>
         <v>3.1802389159862763</v>
       </c>
-      <c r="N26" s="19">
+      <c r="M26" s="19">
         <v>0.84846999999999995</v>
       </c>
-      <c r="P26" s="21">
+      <c r="O26" s="21">
         <v>1.4107804547811</v>
       </c>
-      <c r="Q26">
+      <c r="P26">
         <v>254.1</v>
       </c>
-      <c r="AA26" s="22">
+      <c r="Z26" s="22">
         <v>2.9</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15">
+    <row r="27" spans="1:26">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -2672,33 +2308,30 @@
       <c r="H27" s="1">
         <v>-1.0422138990000001</v>
       </c>
-      <c r="I27" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="9">
+      <c r="I27" s="9">
         <v>93.9</v>
       </c>
-      <c r="L27" s="18">
+      <c r="K27" s="18">
         <v>3.1</v>
       </c>
-      <c r="M27">
-        <f>$W$8/4</f>
+      <c r="L27">
+        <f>$V$8/4</f>
         <v>3.1802389159862763</v>
       </c>
-      <c r="N27" s="19">
+      <c r="M27" s="19">
         <v>1.1247499999999999</v>
       </c>
-      <c r="P27" s="21">
+      <c r="O27" s="21">
         <v>-1.0735901089874</v>
       </c>
-      <c r="Q27">
+      <c r="P27">
         <v>235.6</v>
       </c>
-      <c r="AA27" s="22">
+      <c r="Z27" s="22">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15">
+    <row r="28" spans="1:26">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -2723,33 +2356,30 @@
       <c r="H28" s="1">
         <v>0.32956871700000001</v>
       </c>
-      <c r="I28" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" s="9">
+      <c r="I28" s="9">
         <v>96.1</v>
       </c>
-      <c r="L28" s="18">
+      <c r="K28" s="18">
         <v>2.9</v>
       </c>
-      <c r="M28">
-        <f>$W$8/4</f>
+      <c r="L28">
+        <f>$V$8/4</f>
         <v>3.1802389159862763</v>
       </c>
-      <c r="N28" s="19">
+      <c r="M28" s="19">
         <v>0.62170000000000003</v>
       </c>
-      <c r="P28" s="21">
+      <c r="O28" s="21">
         <v>-6.0253413761733103</v>
       </c>
-      <c r="Q28">
+      <c r="P28">
         <v>249.2</v>
       </c>
-      <c r="AA28" s="22">
+      <c r="Z28" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15">
+    <row r="29" spans="1:26">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -2774,33 +2404,30 @@
       <c r="H29" s="1">
         <v>-1.249074837</v>
       </c>
-      <c r="I29" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J29" s="9">
+      <c r="I29" s="9">
         <v>97</v>
       </c>
-      <c r="L29" s="18">
+      <c r="K29" s="18">
         <v>5.8</v>
       </c>
-      <c r="M29">
-        <f>$W$8/4</f>
+      <c r="L29">
+        <f>$V$8/4</f>
         <v>3.1802389159862763</v>
       </c>
-      <c r="N29" s="19">
+      <c r="M29" s="19">
         <v>1.15168</v>
       </c>
-      <c r="P29" s="21">
+      <c r="O29" s="21">
         <v>-4.0850940130239399</v>
       </c>
-      <c r="Q29">
+      <c r="P29">
         <v>263.60000000000002</v>
       </c>
-      <c r="AA29" s="22">
+      <c r="Z29" s="22">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15">
+    <row r="30" spans="1:26">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -2825,33 +2452,30 @@
       <c r="H30" s="1">
         <v>0.71465696199999995</v>
       </c>
-      <c r="I30" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="9">
+      <c r="I30" s="9">
         <v>98.7</v>
       </c>
-      <c r="L30" s="18">
+      <c r="K30" s="18">
         <v>-0.7</v>
       </c>
-      <c r="M30">
-        <f>$W$9/4</f>
+      <c r="L30">
+        <f>$V$9/4</f>
         <v>3.5577152335117717</v>
       </c>
-      <c r="N30" s="19">
+      <c r="M30" s="19">
         <v>0.59160000000000001</v>
       </c>
-      <c r="P30" s="21">
+      <c r="O30" s="21">
         <v>0.36741861530279002</v>
       </c>
-      <c r="Q30">
+      <c r="P30">
         <v>256.89999999999998</v>
       </c>
-      <c r="AA30" s="22">
+      <c r="Z30" s="22">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15">
+    <row r="31" spans="1:26">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -2876,33 +2500,30 @@
       <c r="H31" s="1">
         <v>-0.16857691</v>
       </c>
-      <c r="I31" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="J31" s="9">
+      <c r="I31" s="9">
         <v>99.6</v>
       </c>
-      <c r="L31" s="18">
+      <c r="K31" s="18">
         <v>2.5</v>
       </c>
-      <c r="M31">
-        <f>$W$9/4</f>
+      <c r="L31">
+        <f>$V$9/4</f>
         <v>3.5577152335117717</v>
       </c>
-      <c r="N31" s="19">
+      <c r="M31" s="19">
         <v>0.72494999999999998</v>
       </c>
-      <c r="P31" s="21">
+      <c r="O31" s="21">
         <v>-0.58218519160991</v>
       </c>
-      <c r="Q31">
+      <c r="P31">
         <v>237</v>
       </c>
-      <c r="AA31" s="22">
+      <c r="Z31" s="22">
         <v>3.2</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15">
+    <row r="32" spans="1:26">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -2927,33 +2548,30 @@
       <c r="H32" s="1">
         <v>0.13418472100000001</v>
       </c>
-      <c r="I32" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="J32" s="9">
+      <c r="I32" s="9">
         <v>100.4</v>
       </c>
-      <c r="L32" s="18">
+      <c r="K32" s="18">
         <v>2</v>
       </c>
-      <c r="M32">
-        <f>$W$9/4</f>
+      <c r="L32">
+        <f>$V$9/4</f>
         <v>3.5577152335117717</v>
       </c>
-      <c r="N32" s="19">
+      <c r="M32" s="19">
         <v>0.44184000000000001</v>
       </c>
-      <c r="P32" s="21">
+      <c r="O32" s="21">
         <v>0.88133307596952004</v>
       </c>
-      <c r="Q32">
+      <c r="P32">
         <v>252.8</v>
       </c>
-      <c r="AA32" s="22">
+      <c r="Z32" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15">
+    <row r="33" spans="1:26">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -2978,33 +2596,30 @@
       <c r="H33" s="1">
         <v>0.182158871</v>
       </c>
-      <c r="I33" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J33" s="9">
+      <c r="I33" s="9">
         <v>101.4</v>
       </c>
-      <c r="L33" s="18">
+      <c r="K33" s="18">
         <v>1</v>
       </c>
-      <c r="M33">
-        <f>$W$9/4</f>
+      <c r="L33">
+        <f>$V$9/4</f>
         <v>3.5577152335117717</v>
       </c>
-      <c r="N33" s="19">
+      <c r="M33" s="19">
         <v>0.52381999999999995</v>
       </c>
-      <c r="P33" s="21">
+      <c r="O33" s="21">
         <v>5.5572709435479997</v>
       </c>
-      <c r="Q33">
+      <c r="P33">
         <v>267.39999999999998</v>
       </c>
-      <c r="AA33" s="22">
+      <c r="Z33" s="22">
         <v>2.1</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="15">
+    <row r="34" spans="1:26">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -3029,33 +2644,30 @@
       <c r="H34" s="1">
         <v>0.71565135300000005</v>
       </c>
-      <c r="I34" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="J34" s="9">
+      <c r="I34" s="9">
         <v>102.8</v>
       </c>
-      <c r="L34" s="18">
+      <c r="K34" s="18">
         <v>1</v>
       </c>
-      <c r="M34">
-        <f>$W$10/4</f>
+      <c r="L34">
+        <f>$V$10/4</f>
         <v>2.4126697295867245</v>
       </c>
-      <c r="N34" s="19">
+      <c r="M34" s="19">
         <v>0.50556999999999996</v>
       </c>
-      <c r="P34" s="21">
+      <c r="O34" s="21">
         <v>0.94073832395516999</v>
       </c>
-      <c r="Q34">
+      <c r="P34">
         <v>260.2</v>
       </c>
-      <c r="AA34" s="22">
+      <c r="Z34" s="22">
         <v>2.7</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15">
+    <row r="35" spans="1:26">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -3080,33 +2692,30 @@
       <c r="H35" s="1">
         <v>1.113549911</v>
       </c>
-      <c r="I35" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" s="9">
+      <c r="I35" s="9">
         <v>100.9</v>
       </c>
-      <c r="L35" s="18">
+      <c r="K35" s="18">
         <v>-0.3</v>
       </c>
-      <c r="M35">
-        <f>$W$10/4</f>
+      <c r="L35">
+        <f>$V$10/4</f>
         <v>2.4126697295867245</v>
       </c>
-      <c r="N35" s="19">
+      <c r="M35" s="19">
         <v>-0.36049999999999999</v>
       </c>
-      <c r="P35" s="21">
+      <c r="O35" s="21">
         <v>2.79541019669468</v>
       </c>
-      <c r="Q35">
+      <c r="P35">
         <v>247.9</v>
       </c>
-      <c r="AA35" s="22">
+      <c r="Z35" s="22">
         <v>1.6</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="15">
+    <row r="36" spans="1:26">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -3131,33 +2740,30 @@
       <c r="H36" s="1">
         <v>1.2781141380000001</v>
       </c>
-      <c r="I36" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="9">
+      <c r="I36" s="9">
         <v>99.4</v>
       </c>
-      <c r="L36" s="18">
+      <c r="K36" s="18">
         <v>-0.8</v>
       </c>
-      <c r="M36">
-        <f>$W$10/4</f>
+      <c r="L36">
+        <f>$V$10/4</f>
         <v>2.4126697295867245</v>
       </c>
-      <c r="N36" s="19">
+      <c r="M36" s="19">
         <v>-0.49652000000000002</v>
       </c>
-      <c r="P36" s="21">
+      <c r="O36" s="21">
         <v>1.0549162120186</v>
       </c>
-      <c r="Q36">
+      <c r="P36">
         <v>262.2</v>
       </c>
-      <c r="AA36" s="22">
+      <c r="Z36" s="22">
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15">
+    <row r="37" spans="1:26">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -3182,33 +2788,30 @@
       <c r="H37" s="1">
         <v>2.4862323260000001</v>
       </c>
-      <c r="I37" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="J37" s="9">
+      <c r="I37" s="9">
         <v>96.4</v>
       </c>
-      <c r="L37" s="18">
+      <c r="K37" s="18">
         <v>-5.6</v>
       </c>
-      <c r="M37">
-        <f>$W$10/4</f>
+      <c r="L37">
+        <f>$V$10/4</f>
         <v>2.4126697295867245</v>
       </c>
-      <c r="N37" s="19">
+      <c r="M37" s="19">
         <v>-1.81406</v>
       </c>
-      <c r="P37" s="21">
+      <c r="O37" s="21">
         <v>-10.10973028203553</v>
       </c>
-      <c r="Q37">
+      <c r="P37">
         <v>290.3</v>
       </c>
-      <c r="AA37" s="22">
+      <c r="Z37" s="22">
         <v>-1.8</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15">
+    <row r="38" spans="1:26">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -3233,33 +2836,30 @@
       <c r="H38" s="1">
         <v>4.01263799</v>
       </c>
-      <c r="I38" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J38" s="9">
+      <c r="I38" s="9">
         <v>87.7</v>
       </c>
-      <c r="L38" s="18">
+      <c r="K38" s="18">
         <v>-11.6</v>
       </c>
-      <c r="M38">
-        <f>$W$11/4</f>
+      <c r="L38">
+        <f>$V$11/4</f>
         <v>2.3496814079080259</v>
       </c>
-      <c r="N38" s="19">
+      <c r="M38" s="19">
         <v>-3.0974200000000001</v>
       </c>
-      <c r="P38" s="21">
+      <c r="O38" s="21">
         <v>-5.5068092464503096</v>
       </c>
-      <c r="Q38">
+      <c r="P38">
         <v>274.10000000000002</v>
       </c>
-      <c r="AA38" s="22">
+      <c r="Z38" s="22">
         <v>-7</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15">
+    <row r="39" spans="1:26">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -3284,33 +2884,30 @@
       <c r="H39" s="1">
         <v>-0.44995182900000003</v>
       </c>
-      <c r="I39" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="J39" s="9">
+      <c r="I39" s="9">
         <v>85.9</v>
       </c>
-      <c r="L39" s="18">
+      <c r="K39" s="18">
         <v>-0.8</v>
       </c>
-      <c r="M39">
-        <f>$W$11/4</f>
+      <c r="L39">
+        <f>$V$11/4</f>
         <v>2.3496814079080259</v>
       </c>
-      <c r="N39" s="19">
+      <c r="M39" s="19">
         <v>-4.1099999999999998E-2</v>
       </c>
-      <c r="P39" s="21">
+      <c r="O39" s="21">
         <v>-4.3165296520390903</v>
       </c>
-      <c r="Q39">
+      <c r="P39">
         <v>271.39999999999998</v>
       </c>
-      <c r="AA39" s="22">
+      <c r="Z39" s="22">
         <v>-6.7</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15">
+    <row r="40" spans="1:26">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -3335,33 +2932,30 @@
       <c r="H40" s="1">
         <v>0.103046163</v>
       </c>
-      <c r="I40" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="J40" s="9">
+      <c r="I40" s="9">
         <v>89.8</v>
       </c>
-      <c r="L40" s="18">
+      <c r="K40" s="18">
         <v>3.3</v>
       </c>
-      <c r="M40">
-        <f>$W$11/4</f>
+      <c r="L40">
+        <f>$V$11/4</f>
         <v>2.3496814079080259</v>
       </c>
-      <c r="N40" s="19">
+      <c r="M40" s="19">
         <v>0.39282</v>
       </c>
-      <c r="P40" s="21">
+      <c r="O40" s="21">
         <v>-1.9122745523746201</v>
       </c>
-      <c r="Q40">
+      <c r="P40">
         <v>278.7</v>
       </c>
-      <c r="AA40" s="22">
+      <c r="Z40" s="22">
         <v>-5.5</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="15">
+    <row r="41" spans="1:26">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -3386,33 +2980,30 @@
       <c r="H41" s="1">
         <v>-0.34085805600000002</v>
       </c>
-      <c r="I41" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J41" s="9">
+      <c r="I41" s="9">
         <v>91.8</v>
       </c>
-      <c r="L41" s="18">
+      <c r="K41" s="18">
         <v>2.9</v>
       </c>
-      <c r="M41">
-        <f>$W$11/4</f>
+      <c r="L41">
+        <f>$V$11/4</f>
         <v>2.3496814079080259</v>
       </c>
-      <c r="N41" s="19">
+      <c r="M41" s="19">
         <v>0.47273999999999999</v>
       </c>
-      <c r="P41" s="21">
+      <c r="O41" s="21">
         <v>6.55013547204471</v>
       </c>
-      <c r="Q41">
+      <c r="P41">
         <v>298.60000000000002</v>
       </c>
-      <c r="AA41" s="22">
+      <c r="Z41" s="22">
         <v>-3.3</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="15">
+    <row r="42" spans="1:26">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -3437,33 +3028,30 @@
       <c r="H42" s="1">
         <v>0.205584079</v>
       </c>
-      <c r="I42" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J42" s="9">
+      <c r="I42" s="9">
         <v>92.9</v>
       </c>
-      <c r="L42" s="18">
+      <c r="K42" s="18">
         <v>3.1</v>
       </c>
-      <c r="M42">
-        <f>$W$12/4</f>
+      <c r="L42">
+        <f>$V$12/4</f>
         <v>2.6589677664892939</v>
       </c>
-      <c r="N42" s="19">
+      <c r="M42" s="19">
         <v>0.39011000000000001</v>
       </c>
-      <c r="P42" s="21">
+      <c r="O42" s="21">
         <v>4.5804750872754498</v>
       </c>
-      <c r="Q42">
+      <c r="P42">
         <v>278.7</v>
       </c>
-      <c r="AA42" s="22">
+      <c r="Z42" s="22">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="15">
+    <row r="43" spans="1:26">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -3488,33 +3076,30 @@
       <c r="H43" s="1">
         <v>-1.4406707940000001</v>
       </c>
-      <c r="I43" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="J43" s="9">
+      <c r="I43" s="9">
         <v>95.1</v>
       </c>
-      <c r="L43" s="18">
+      <c r="K43" s="18">
         <v>7.1</v>
       </c>
-      <c r="M43">
-        <f>$W$12/4</f>
+      <c r="L43">
+        <f>$V$12/4</f>
         <v>2.6589677664892939</v>
       </c>
-      <c r="N43" s="19">
+      <c r="M43" s="19">
         <v>0.96823999999999999</v>
       </c>
-      <c r="P43" s="21">
+      <c r="O43" s="21">
         <v>2.0290912924017199</v>
       </c>
-      <c r="Q43">
+      <c r="P43">
         <v>271.5</v>
       </c>
-      <c r="AA43" s="22">
+      <c r="Z43" s="22">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="15">
+    <row r="44" spans="1:26">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -3539,33 +3124,30 @@
       <c r="H44" s="1">
         <v>0.21948596400000001</v>
       </c>
-      <c r="I44" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="J44" s="9">
+      <c r="I44" s="9">
         <v>98</v>
       </c>
-      <c r="L44" s="18">
+      <c r="K44" s="18">
         <v>1.6</v>
       </c>
-      <c r="M44">
-        <f>$W$12/4</f>
+      <c r="L44">
+        <f>$V$12/4</f>
         <v>2.6589677664892939</v>
       </c>
-      <c r="N44" s="19">
+      <c r="M44" s="19">
         <v>0.44367000000000001</v>
       </c>
-      <c r="P44" s="21">
+      <c r="O44" s="21">
         <v>-0.65295913432608998</v>
       </c>
-      <c r="Q44">
+      <c r="P44">
         <v>276</v>
       </c>
-      <c r="AA44" s="22">
+      <c r="Z44" s="22">
         <v>4.7</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15">
+    <row r="45" spans="1:26">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -3590,33 +3172,30 @@
       <c r="H45" s="1">
         <v>0.115391919</v>
       </c>
-      <c r="I45" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="J45" s="9">
+      <c r="I45" s="9">
         <v>100.7</v>
       </c>
-      <c r="L45" s="18">
+      <c r="K45" s="18">
         <v>2.1</v>
       </c>
-      <c r="M45">
-        <f>$W$12/4</f>
+      <c r="L45">
+        <f>$V$12/4</f>
         <v>2.6589677664892939</v>
       </c>
-      <c r="N45" s="19">
+      <c r="M45" s="19">
         <v>0.60096000000000005</v>
       </c>
-      <c r="P45" s="21">
+      <c r="O45" s="21">
         <v>2.1319788543718299</v>
       </c>
-      <c r="Q45">
+      <c r="P45">
         <v>304.8</v>
       </c>
-      <c r="AA45" s="22">
+      <c r="Z45" s="22">
         <v>4.8</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="15">
+    <row r="46" spans="1:26">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -3641,33 +3220,30 @@
       <c r="H46" s="1">
         <v>-0.485703406</v>
       </c>
-      <c r="I46" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="J46" s="9">
+      <c r="I46" s="9">
         <v>100.7</v>
       </c>
-      <c r="L46" s="18">
+      <c r="K46" s="18">
         <v>2.7</v>
       </c>
-      <c r="M46">
-        <f>$W$13/4</f>
+      <c r="L46">
+        <f>$V$13/4</f>
         <v>2.3877080447104966</v>
       </c>
-      <c r="N46" s="19">
+      <c r="M46" s="19">
         <v>0.85902999999999996</v>
       </c>
-      <c r="P46" s="21">
+      <c r="O46" s="21">
         <v>3.7068959120674898</v>
       </c>
-      <c r="Q46">
+      <c r="P46">
         <v>281</v>
       </c>
-      <c r="AA46" s="22">
+      <c r="Z46" s="22">
         <v>5.9</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="15">
+    <row r="47" spans="1:26">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -3692,33 +3268,30 @@
       <c r="H47" s="1">
         <v>1.0073198729999999</v>
       </c>
-      <c r="I47" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="J47" s="9">
+      <c r="I47" s="9">
         <v>101.6</v>
       </c>
-      <c r="L47" s="18">
+      <c r="K47" s="18">
         <v>1.5</v>
       </c>
-      <c r="M47">
-        <f>$W$13/4</f>
+      <c r="L47">
+        <f>$V$13/4</f>
         <v>2.3877080447104966</v>
       </c>
-      <c r="N47" s="19">
+      <c r="M47" s="19">
         <v>5.1900000000000002E-3</v>
       </c>
-      <c r="P47" s="21">
+      <c r="O47" s="21">
         <v>-0.14483053973852</v>
       </c>
-      <c r="Q47">
+      <c r="P47">
         <v>271.39999999999998</v>
       </c>
-      <c r="AA47" s="22">
+      <c r="Z47" s="22">
         <v>3.7</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="15">
+    <row r="48" spans="1:26">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -3743,33 +3316,30 @@
       <c r="H48" s="1">
         <v>-0.273985272</v>
       </c>
-      <c r="I48" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="J48" s="9">
+      <c r="I48" s="9">
         <v>103.3</v>
       </c>
-      <c r="L48" s="18">
+      <c r="K48" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M48">
-        <f>$W$13/4</f>
+      <c r="L48">
+        <f>$V$13/4</f>
         <v>2.3877080447104966</v>
       </c>
-      <c r="N48" s="19">
+      <c r="M48" s="19">
         <v>0.13838</v>
       </c>
-      <c r="P48" s="21">
+      <c r="O48" s="21">
         <v>1.06489367339286</v>
       </c>
-      <c r="Q48">
+      <c r="P48">
         <v>288.2</v>
       </c>
-      <c r="AA48" s="22">
+      <c r="Z48" s="22">
         <v>3.8</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="15">
+    <row r="49" spans="1:26">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -3794,33 +3364,30 @@
       <c r="H49" s="1">
         <v>1.040173692</v>
       </c>
-      <c r="I49" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J49" s="9">
+      <c r="I49" s="9">
         <v>101.1</v>
       </c>
-      <c r="L49" s="18">
+      <c r="K49" s="18">
         <v>-0.4</v>
       </c>
-      <c r="M49">
-        <f>$W$13/4</f>
+      <c r="L49">
+        <f>$V$13/4</f>
         <v>2.3877080447104966</v>
       </c>
-      <c r="N49" s="19">
+      <c r="M49" s="19">
         <v>-0.40859000000000001</v>
       </c>
-      <c r="P49" s="21">
+      <c r="O49" s="21">
         <v>-0.55039821830610003</v>
       </c>
-      <c r="Q49">
+      <c r="P49">
         <v>300.10000000000002</v>
       </c>
-      <c r="AA49" s="22">
+      <c r="Z49" s="22">
         <v>2.6</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="15">
+    <row r="50" spans="1:26">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -3845,33 +3412,30 @@
       <c r="H50" s="1">
         <v>1.0338263190000001</v>
       </c>
-      <c r="I50" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="J50" s="9">
+      <c r="I50" s="9">
         <v>99.9</v>
       </c>
-      <c r="L50" s="18">
+      <c r="K50" s="18">
         <v>2.1</v>
       </c>
-      <c r="M50">
-        <f>$W$14/4</f>
+      <c r="L50">
+        <f>$V$14/4</f>
         <v>1.9659341121131604</v>
       </c>
-      <c r="N50" s="19">
+      <c r="M50" s="19">
         <v>-0.24351</v>
       </c>
-      <c r="P50" s="21">
+      <c r="O50" s="21">
         <v>-2.7632857326917399</v>
       </c>
-      <c r="Q50">
+      <c r="P50">
         <v>293.10000000000002</v>
       </c>
-      <c r="AA50" s="22">
+      <c r="Z50" s="22">
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="15">
+    <row r="51" spans="1:26">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -3896,33 +3460,30 @@
       <c r="H51" s="1">
         <v>1.075717472</v>
       </c>
-      <c r="I51" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="J51" s="9">
+      <c r="I51" s="9">
         <v>99.9</v>
       </c>
-      <c r="L51" s="18">
+      <c r="K51" s="18">
         <v>0.9</v>
       </c>
-      <c r="M51">
-        <f>$W$14/4</f>
+      <c r="L51">
+        <f>$V$14/4</f>
         <v>1.9659341121131604</v>
       </c>
-      <c r="N51" s="19">
+      <c r="M51" s="19">
         <v>-0.22869</v>
       </c>
-      <c r="P51" s="21">
+      <c r="O51" s="21">
         <v>-2.4222553581170398</v>
       </c>
-      <c r="Q51">
+      <c r="P51">
         <v>282.2</v>
       </c>
-      <c r="AA51" s="22">
+      <c r="Z51" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="15">
+    <row r="52" spans="1:26">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -3947,33 +3508,30 @@
       <c r="H52" s="1">
         <v>0.25398210599999999</v>
       </c>
-      <c r="I52" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="J52" s="9">
+      <c r="I52" s="9">
         <v>100.2</v>
       </c>
-      <c r="L52" s="18">
+      <c r="K52" s="18">
         <v>1.2</v>
       </c>
-      <c r="M52">
-        <f>$W$14/4</f>
+      <c r="L52">
+        <f>$V$14/4</f>
         <v>1.9659341121131604</v>
       </c>
-      <c r="N52" s="19">
+      <c r="M52" s="19">
         <v>-0.11108999999999999</v>
       </c>
-      <c r="P52" s="21">
+      <c r="O52" s="21">
         <v>1.3851786977531899</v>
       </c>
-      <c r="Q52">
+      <c r="P52">
         <v>286.2</v>
       </c>
-      <c r="AA52" s="22">
+      <c r="Z52" s="22">
         <v>0.4</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="15">
+    <row r="53" spans="1:26">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -3998,33 +3556,30 @@
       <c r="H53" s="1">
         <v>1.145063817</v>
       </c>
-      <c r="I53" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="J53" s="9">
+      <c r="I53" s="9">
         <v>98.3</v>
       </c>
-      <c r="L53" s="18">
+      <c r="K53" s="18">
         <v>-1.7</v>
       </c>
-      <c r="M53">
-        <f>$W$14/4</f>
+      <c r="L53">
+        <f>$V$14/4</f>
         <v>1.9659341121131604</v>
       </c>
-      <c r="N53" s="19">
+      <c r="M53" s="19">
         <v>-0.45374999999999999</v>
       </c>
-      <c r="P53" s="21">
+      <c r="O53" s="21">
         <v>-2.0513598337387799</v>
       </c>
-      <c r="Q53">
+      <c r="P53">
         <v>316.3</v>
       </c>
-      <c r="AA53" s="22">
+      <c r="Z53" s="22">
         <v>0.2</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15">
+    <row r="54" spans="1:26">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -4049,33 +3604,30 @@
       <c r="H54" s="1">
         <v>0.77873195699999997</v>
       </c>
-      <c r="I54" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="J54" s="9">
+      <c r="I54" s="9">
         <v>97.2</v>
       </c>
-      <c r="L54" s="18">
+      <c r="K54" s="18">
         <v>-0.1</v>
       </c>
-      <c r="M54">
-        <f>$W$15/4</f>
+      <c r="L54">
+        <f>$V$15/4</f>
         <v>1.9415375243397754</v>
       </c>
-      <c r="N54" s="19">
+      <c r="M54" s="19">
         <v>-0.35360999999999998</v>
       </c>
-      <c r="P54" s="21">
+      <c r="O54" s="21">
         <v>-1.6960241074946001</v>
       </c>
-      <c r="Q54">
+      <c r="P54">
         <v>294.89999999999998</v>
       </c>
-      <c r="AA54" s="22">
+      <c r="Z54" s="22">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15">
+    <row r="55" spans="1:26">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -4100,33 +3652,30 @@
       <c r="H55" s="1">
         <v>-0.20622728300000001</v>
       </c>
-      <c r="I55" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J55" s="9">
+      <c r="I55" s="9">
         <v>98.2</v>
       </c>
-      <c r="L55" s="18">
+      <c r="K55" s="18">
         <v>0.5</v>
       </c>
-      <c r="M55">
-        <f>$W$15/4</f>
+      <c r="L55">
+        <f>$V$15/4</f>
         <v>1.9415375243397754</v>
       </c>
-      <c r="N55" s="19">
+      <c r="M55" s="19">
         <v>0.55430000000000001</v>
       </c>
-      <c r="P55" s="21">
+      <c r="O55" s="21">
         <v>-1.0139256541217301</v>
       </c>
-      <c r="Q55">
+      <c r="P55">
         <v>292.7</v>
       </c>
-      <c r="AA55" s="22">
+      <c r="Z55" s="22">
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="15">
+    <row r="56" spans="1:26">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -4151,33 +3700,30 @@
       <c r="H56" s="1">
         <v>0.33452826099999999</v>
       </c>
-      <c r="I56" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="J56" s="9">
+      <c r="I56" s="9">
         <v>98.5</v>
       </c>
-      <c r="L56" s="18">
+      <c r="K56" s="18">
         <v>1.8</v>
       </c>
-      <c r="M56">
-        <f>$W$15/4</f>
+      <c r="L56">
+        <f>$V$15/4</f>
         <v>1.9415375243397754</v>
       </c>
-      <c r="N56" s="19">
+      <c r="M56" s="19">
         <v>0.30076999999999998</v>
       </c>
-      <c r="P56" s="21">
+      <c r="O56" s="21">
         <v>-0.56297522033235003</v>
       </c>
-      <c r="Q56">
+      <c r="P56">
         <v>300</v>
       </c>
-      <c r="AA56" s="22">
+      <c r="Z56" s="22">
         <v>0.7</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15">
+    <row r="57" spans="1:26">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -4202,33 +3748,30 @@
       <c r="H57" s="1">
         <v>0.43758760899999999</v>
       </c>
-      <c r="I57" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="J57" s="9">
+      <c r="I57" s="9">
         <v>99.7</v>
       </c>
-      <c r="L57" s="18">
+      <c r="K57" s="18">
         <v>1.7</v>
       </c>
-      <c r="M57">
-        <f>$W$15/4</f>
+      <c r="L57">
+        <f>$V$15/4</f>
         <v>1.9415375243397754</v>
       </c>
-      <c r="N57" s="19">
+      <c r="M57" s="19">
         <v>0.30018</v>
       </c>
-      <c r="P57" s="21">
+      <c r="O57" s="21">
         <v>-0.97062165647419929</v>
       </c>
-      <c r="Q57">
+      <c r="P57">
         <v>316.2</v>
       </c>
-      <c r="AA57" s="22">
+      <c r="Z57" s="22">
         <v>1.5</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="15">
+    <row r="58" spans="1:26">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -4253,33 +3796,30 @@
       <c r="H58" s="1">
         <v>0.42331946100000001</v>
       </c>
-      <c r="I58" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="J58" s="9">
+      <c r="I58" s="9">
         <v>100.2</v>
       </c>
-      <c r="L58" s="18">
+      <c r="K58" s="18">
         <v>0.2</v>
       </c>
-      <c r="M58">
-        <f>$W$16/4</f>
+      <c r="L58">
+        <f>$V$16/4</f>
         <v>1.8564409139922908</v>
       </c>
-      <c r="N58" s="19">
+      <c r="M58" s="19">
         <v>0.39834000000000003</v>
       </c>
-      <c r="P58" s="21">
+      <c r="O58" s="21">
         <v>-2.1286509942533809</v>
       </c>
-      <c r="Q58">
+      <c r="P58">
         <v>305</v>
       </c>
-      <c r="AA58" s="22">
+      <c r="Z58" s="22">
         <v>2.9</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15">
+    <row r="59" spans="1:26">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -4304,33 +3844,30 @@
       <c r="H59" s="1">
         <v>0.67863599299999999</v>
       </c>
-      <c r="I59" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J59" s="9">
+      <c r="I59" s="9">
         <v>100.9</v>
       </c>
-      <c r="L59" s="18">
+      <c r="K59" s="18">
         <v>0.9</v>
       </c>
-      <c r="M59">
-        <f>$W$16/4</f>
+      <c r="L59">
+        <f>$V$16/4</f>
         <v>1.8564409139922908</v>
       </c>
-      <c r="N59" s="19">
+      <c r="M59" s="19">
         <v>0.21203</v>
       </c>
-      <c r="P59" s="21">
+      <c r="O59" s="21">
         <v>1.2188103207842691</v>
       </c>
-      <c r="Q59">
+      <c r="P59">
         <v>299</v>
       </c>
-      <c r="AA59" s="22">
+      <c r="Z59" s="22">
         <v>1.8</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15">
+    <row r="60" spans="1:26">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -4355,33 +3892,30 @@
       <c r="H60" s="1">
         <v>0.33743779200000001</v>
       </c>
-      <c r="I60" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="J60" s="9">
+      <c r="I60" s="9">
         <v>100.4</v>
       </c>
-      <c r="L60" s="18">
+      <c r="K60" s="18">
         <v>2</v>
       </c>
-      <c r="M60">
-        <f>$W$16/4</f>
+      <c r="L60">
+        <f>$V$16/4</f>
         <v>1.8564409139922908</v>
       </c>
-      <c r="N60" s="19">
+      <c r="M60" s="19">
         <v>0.46937000000000001</v>
       </c>
-      <c r="P60" s="21">
+      <c r="O60" s="21">
         <v>-1.027837753629449</v>
       </c>
-      <c r="Q60">
+      <c r="P60">
         <v>305.5</v>
       </c>
-      <c r="AA60" s="22">
+      <c r="Z60" s="22">
         <v>1.8</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15">
+    <row r="61" spans="1:26">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -4406,33 +3940,30 @@
       <c r="H61" s="1">
         <v>-5.1236979000000002E-2</v>
       </c>
-      <c r="I61" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="J61" s="9">
+      <c r="I61" s="9">
         <v>99.6</v>
       </c>
-      <c r="L61" s="18">
+      <c r="K61" s="18">
         <v>1.8</v>
       </c>
-      <c r="M61">
-        <f>$W$16/4</f>
+      <c r="L61">
+        <f>$V$16/4</f>
         <v>1.8564409139922908</v>
       </c>
-      <c r="N61" s="19">
+      <c r="M61" s="19">
         <v>0.35433999999999999</v>
       </c>
-      <c r="P61" s="21">
+      <c r="O61" s="21">
         <v>-1.9701090788438</v>
       </c>
-      <c r="Q61">
+      <c r="P61">
         <v>327.60000000000002</v>
       </c>
-      <c r="AA61" s="22">
+      <c r="Z61" s="22">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15">
+    <row r="62" spans="1:26">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -4457,33 +3988,30 @@
       <c r="H62" s="1">
         <v>1.4017342260000001</v>
       </c>
-      <c r="I62" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J62" s="9">
+      <c r="I62" s="9">
         <v>99.3</v>
       </c>
-      <c r="L62" s="18">
+      <c r="K62" s="18">
         <v>0.9</v>
       </c>
-      <c r="M62">
-        <f>$W$17/4</f>
+      <c r="L62">
+        <f>$V$17/4</f>
         <v>1.7603322198688751</v>
       </c>
-      <c r="N62" s="19">
+      <c r="M62" s="19">
         <v>0.63656999999999997</v>
       </c>
-      <c r="P62" s="21">
+      <c r="O62" s="21">
         <v>-3.7741022088656102</v>
       </c>
-      <c r="Q62">
+      <c r="P62">
         <v>315.8</v>
       </c>
-      <c r="AA62" s="22">
+      <c r="Z62" s="22">
         <v>0.8</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15">
+    <row r="63" spans="1:26">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -4508,33 +4036,30 @@
       <c r="H63" s="1">
         <v>0.61928616199999997</v>
       </c>
-      <c r="I63" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="J63" s="9">
+      <c r="I63" s="9">
         <v>100.3</v>
       </c>
-      <c r="L63" s="18">
+      <c r="K63" s="18">
         <v>1.9</v>
       </c>
-      <c r="M63">
-        <f>$W$17/4</f>
+      <c r="L63">
+        <f>$V$17/4</f>
         <v>1.7603322198688751</v>
       </c>
-      <c r="N63" s="19">
+      <c r="M63" s="19">
         <v>0.47854000000000002</v>
       </c>
-      <c r="P63" s="21">
+      <c r="O63" s="21">
         <v>1.6784047388933101</v>
       </c>
-      <c r="Q63">
+      <c r="P63">
         <v>301.8</v>
       </c>
-      <c r="AA63" s="22">
+      <c r="Z63" s="22">
         <v>1.6</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15">
+    <row r="64" spans="1:26">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -4559,33 +4084,30 @@
       <c r="H64" s="1">
         <v>0.34922859699999997</v>
       </c>
-      <c r="I64" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="J64" s="9">
+      <c r="I64" s="9">
         <v>100.8</v>
       </c>
-      <c r="L64" s="18">
+      <c r="K64" s="18">
         <v>0.1</v>
       </c>
-      <c r="M64">
-        <f>$W$17/4</f>
+      <c r="L64">
+        <f>$V$17/4</f>
         <v>1.7603322198688751</v>
       </c>
-      <c r="N64" s="19">
+      <c r="M64" s="19">
         <v>0.37979000000000002</v>
       </c>
-      <c r="P64" s="21">
+      <c r="O64" s="21">
         <v>-1.9865240500791499</v>
       </c>
-      <c r="Q64">
+      <c r="P64">
         <v>315.5</v>
       </c>
-      <c r="AA64" s="22">
+      <c r="Z64" s="22">
         <v>1.5</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15">
+    <row r="65" spans="1:26">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -4610,33 +4132,30 @@
       <c r="H65" s="1">
         <v>0.48434283</v>
       </c>
-      <c r="I65" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="J65" s="9">
+      <c r="I65" s="9">
         <v>100</v>
       </c>
-      <c r="L65" s="18">
+      <c r="K65" s="18">
         <v>-0.5</v>
       </c>
-      <c r="M65">
-        <f>$W$17/4</f>
+      <c r="L65">
+        <f>$V$17/4</f>
         <v>1.7603322198688751</v>
       </c>
-      <c r="N65" s="19">
+      <c r="M65" s="19">
         <v>0.46306000000000003</v>
       </c>
-      <c r="P65" s="21">
+      <c r="O65" s="21">
         <v>0.22794261530882001</v>
       </c>
-      <c r="Q65">
+      <c r="P65">
         <v>338.9</v>
       </c>
-      <c r="AA65" s="22">
+      <c r="Z65" s="22">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15">
+    <row r="66" spans="1:26">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -4661,33 +4180,30 @@
       <c r="H66" s="1">
         <v>-1.1341777000000001E-2</v>
       </c>
-      <c r="I66" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="J66" s="9">
+      <c r="I66" s="9">
         <v>100.2</v>
       </c>
-      <c r="L66" s="18">
+      <c r="K66" s="18">
         <v>1.2</v>
       </c>
-      <c r="M66">
-        <f>$W$18/4</f>
+      <c r="L66">
+        <f>$V$18/4</f>
         <v>1.71219055111046</v>
       </c>
-      <c r="N66" s="19">
+      <c r="M66" s="19">
         <v>0.57313000000000003</v>
       </c>
-      <c r="P66" s="21">
+      <c r="O66" s="21">
         <v>0.33956075174650002</v>
       </c>
-      <c r="Q66">
+      <c r="P66">
         <v>325.3</v>
       </c>
-      <c r="AA66" s="22">
+      <c r="Z66" s="22">
         <v>2.5</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="15">
+    <row r="67" spans="1:26">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -4712,33 +4228,30 @@
       <c r="H67" s="1">
         <v>0.21672678200000001</v>
       </c>
-      <c r="I67" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="J67" s="9">
+      <c r="I67" s="9">
         <v>100</v>
       </c>
-      <c r="L67" s="18">
+      <c r="K67" s="18">
         <v>1.2</v>
       </c>
-      <c r="M67">
-        <f>$W$18/4</f>
+      <c r="L67">
+        <f>$V$18/4</f>
         <v>1.71219055111046</v>
       </c>
-      <c r="N67" s="19">
+      <c r="M67" s="19">
         <v>0.22178</v>
       </c>
-      <c r="P67" s="21">
+      <c r="O67" s="21">
         <v>-6.6427148916800002E-2</v>
       </c>
-      <c r="Q67">
+      <c r="P67">
         <v>314.2</v>
       </c>
-      <c r="AA67" s="22">
+      <c r="Z67" s="22">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="15">
+    <row r="68" spans="1:26">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -4763,33 +4276,30 @@
       <c r="H68" s="1">
         <v>0.72955927700000001</v>
       </c>
-      <c r="I68" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="J68" s="9">
+      <c r="I68" s="9">
         <v>99.2</v>
       </c>
-      <c r="L68" s="18">
+      <c r="K68" s="18">
         <v>-0.1</v>
       </c>
-      <c r="M68">
-        <f>$W$18/4</f>
+      <c r="L68">
+        <f>$V$18/4</f>
         <v>1.71219055111046</v>
       </c>
-      <c r="N68" s="19">
+      <c r="M68" s="19">
         <v>0.47817999999999999</v>
       </c>
-      <c r="P68" s="21">
+      <c r="O68" s="21">
         <v>1.91977487274632</v>
       </c>
-      <c r="Q68">
+      <c r="P68">
         <v>333.4</v>
       </c>
-      <c r="AA68" s="22">
+      <c r="Z68" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="15">
+    <row r="69" spans="1:26">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -4814,33 +4324,30 @@
       <c r="H69" s="1">
         <v>0.75536793800000002</v>
       </c>
-      <c r="I69" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="J69" s="9">
+      <c r="I69" s="9">
         <v>101.1</v>
       </c>
-      <c r="L69" s="18">
+      <c r="K69" s="18">
         <v>0.6</v>
       </c>
-      <c r="M69">
-        <f>$W$18/4</f>
+      <c r="L69">
+        <f>$V$18/4</f>
         <v>1.71219055111046</v>
       </c>
-      <c r="N69" s="19">
+      <c r="M69" s="19">
         <v>0.78015999999999996</v>
       </c>
-      <c r="P69" s="21">
+      <c r="O69" s="21">
         <v>4.7208648124989621</v>
       </c>
-      <c r="Q69">
+      <c r="P69">
         <v>358.1</v>
       </c>
-      <c r="AA69" s="22">
+      <c r="Z69" s="22">
         <v>1.9</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="15">
+    <row r="70" spans="1:26">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -4865,33 +4372,30 @@
       <c r="H70" s="1">
         <v>-0.225438633</v>
       </c>
-      <c r="I70" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="J70" s="9">
+      <c r="I70" s="9">
         <v>101.4</v>
       </c>
-      <c r="L70" s="18">
+      <c r="K70" s="18">
         <v>2.6</v>
       </c>
-      <c r="M70">
-        <f>$W$19/4</f>
+      <c r="L70">
+        <f>$V$19/4</f>
         <v>1.7368001982913341</v>
       </c>
-      <c r="N70" s="19">
+      <c r="M70" s="19">
         <v>0.69562000000000002</v>
       </c>
-      <c r="P70" s="21">
+      <c r="O70" s="21">
         <v>6.0890419589796583</v>
       </c>
-      <c r="Q70">
+      <c r="P70">
         <v>326.39999999999998</v>
       </c>
-      <c r="AA70" s="22">
+      <c r="Z70" s="22">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="15">
+    <row r="71" spans="1:26">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -4916,33 +4420,30 @@
       <c r="H71" s="1">
         <v>9.5723476000000002E-2</v>
       </c>
-      <c r="I71" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="J71" s="9">
+      <c r="I71" s="9">
         <v>102.3</v>
       </c>
-      <c r="L71" s="18">
+      <c r="K71" s="18">
         <v>1.7</v>
       </c>
-      <c r="M71">
-        <f>$W$19/4</f>
+      <c r="L71">
+        <f>$V$19/4</f>
         <v>1.7368001982913341</v>
       </c>
-      <c r="N71" s="19">
+      <c r="M71" s="19">
         <v>0.79635</v>
       </c>
-      <c r="P71" s="21">
+      <c r="O71" s="21">
         <v>-3.40669355065251</v>
       </c>
-      <c r="Q71">
+      <c r="P71">
         <v>332.7</v>
       </c>
-      <c r="AA71" s="22">
+      <c r="Z71" s="22">
         <v>2.7</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="15">
+    <row r="72" spans="1:26">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -4967,33 +4468,30 @@
       <c r="H72" s="1">
         <v>0.17080437100000001</v>
       </c>
-      <c r="I72" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="J72" s="9">
+      <c r="I72" s="9">
         <v>102</v>
       </c>
-      <c r="L72" s="18">
+      <c r="K72" s="18">
         <v>1.2</v>
       </c>
-      <c r="M72">
-        <f>$W$19/4</f>
+      <c r="L72">
+        <f>$V$19/4</f>
         <v>1.7368001982913341</v>
       </c>
-      <c r="N72" s="19">
+      <c r="M72" s="19">
         <v>0.74746000000000001</v>
       </c>
-      <c r="P72" s="21">
+      <c r="O72" s="21">
         <v>-0.31706445333054001</v>
       </c>
-      <c r="Q72">
+      <c r="P72">
         <v>343.2</v>
       </c>
-      <c r="AA72" s="22">
+      <c r="Z72" s="22">
         <v>3.2</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="15">
+    <row r="73" spans="1:26">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -5018,33 +4516,30 @@
       <c r="H73" s="1">
         <v>0.300921771</v>
       </c>
-      <c r="I73" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="J73" s="9">
+      <c r="I73" s="9">
         <v>102.3</v>
       </c>
-      <c r="L73" s="18">
+      <c r="K73" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M73">
-        <f>$W$19/4</f>
+      <c r="L73">
+        <f>$V$19/4</f>
         <v>1.7368001982913341</v>
       </c>
-      <c r="N73" s="19">
+      <c r="M73" s="19">
         <v>0.79752999999999996</v>
       </c>
-      <c r="P73" s="21">
+      <c r="O73" s="21">
         <v>0.1557393708772</v>
       </c>
-      <c r="Q73">
+      <c r="P73">
         <v>373.8</v>
       </c>
-      <c r="AA73" s="22">
+      <c r="Z73" s="22">
         <v>3.8</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="15">
+    <row r="74" spans="1:26">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -5069,33 +4564,30 @@
       <c r="H74" s="1">
         <v>1.696573431</v>
       </c>
-      <c r="I74" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="J74" s="9">
+      <c r="I74" s="9">
         <v>103.5</v>
       </c>
-      <c r="L74" s="18">
+      <c r="K74" s="18">
         <v>0.8</v>
       </c>
-      <c r="M74">
-        <f>$W$20/4</f>
+      <c r="L74">
+        <f>$V$20/4</f>
         <v>1.6874434581278699</v>
       </c>
-      <c r="N74" s="19">
+      <c r="M74" s="19">
         <v>-3.4000000000000002E-4</v>
       </c>
-      <c r="P74" s="21">
+      <c r="O74" s="21">
         <v>-1.3359061678837321</v>
       </c>
-      <c r="Q74">
+      <c r="P74">
         <v>341.7</v>
       </c>
-      <c r="AA74" s="22">
+      <c r="Z74" s="22">
         <v>1.9</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="15">
+    <row r="75" spans="1:26">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -5120,33 +4612,30 @@
       <c r="H75" s="1">
         <v>0.307884873</v>
       </c>
-      <c r="I75" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="J75" s="9">
+      <c r="I75" s="9">
         <v>102.6</v>
       </c>
-      <c r="L75" s="18">
+      <c r="K75" s="18">
         <v>0.3</v>
       </c>
-      <c r="M75">
-        <f>$W$20/4</f>
+      <c r="L75">
+        <f>$V$20/4</f>
         <v>1.6874434581278699</v>
       </c>
-      <c r="N75" s="19">
+      <c r="M75" s="19">
         <v>0.55849000000000004</v>
       </c>
-      <c r="P75" s="21">
+      <c r="O75" s="21">
         <v>3.5229242764519122</v>
       </c>
-      <c r="Q75">
+      <c r="P75">
         <v>337.3</v>
       </c>
-      <c r="AA75" s="22">
+      <c r="Z75" s="22">
         <v>1.8</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="15">
+    <row r="76" spans="1:26">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -5171,33 +4660,30 @@
       <c r="H76" s="1">
         <v>2.071250934</v>
       </c>
-      <c r="I76" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J76" s="9">
+      <c r="I76" s="9">
         <v>101.3</v>
       </c>
-      <c r="L76" s="18">
+      <c r="K76" s="18">
         <v>-0.9</v>
       </c>
-      <c r="M76">
-        <f>$W$20/4</f>
+      <c r="L76">
+        <f>$V$20/4</f>
         <v>1.6874434581278699</v>
       </c>
-      <c r="N76" s="19">
+      <c r="M76" s="19">
         <v>-2.4459999999999999E-2</v>
       </c>
-      <c r="P76" s="21">
+      <c r="O76" s="21">
         <v>2.7414166084687399</v>
       </c>
-      <c r="Q76">
+      <c r="P76">
         <v>355.5</v>
       </c>
-      <c r="AA76" s="22">
+      <c r="Z76" s="22">
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="15">
+    <row r="77" spans="1:26">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -5222,33 +4708,30 @@
       <c r="H77" s="1">
         <v>-0.10087025299999999</v>
       </c>
-      <c r="I77" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="J77" s="9">
+      <c r="I77" s="9">
         <v>100.5</v>
       </c>
-      <c r="L77" s="18">
+      <c r="K77" s="18">
         <v>-0.1</v>
       </c>
-      <c r="M77">
-        <f>$W$20/4</f>
+      <c r="L77">
+        <f>$V$20/4</f>
         <v>1.6874434581278699</v>
       </c>
-      <c r="N77" s="19">
+      <c r="M77" s="19">
         <v>0.68808000000000002</v>
       </c>
-      <c r="P77" s="21">
+      <c r="O77" s="21">
         <v>0.64463924002540995</v>
       </c>
-      <c r="Q77">
+      <c r="P77">
         <v>396.4</v>
       </c>
-      <c r="AA77" s="22">
+      <c r="Z77" s="22">
         <v>0.1</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="15">
+    <row r="78" spans="1:26">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -5273,33 +4756,30 @@
       <c r="H78" s="1">
         <v>0.859144515</v>
       </c>
-      <c r="I78" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="J78" s="9">
+      <c r="I78" s="9">
         <v>99.7</v>
       </c>
-      <c r="L78" s="18">
+      <c r="K78" s="18">
         <v>3.7</v>
       </c>
-      <c r="M78">
-        <f>$W$21/4</f>
+      <c r="L78">
+        <f>$V$21/4</f>
         <v>1.4876251885982867</v>
       </c>
-      <c r="N78" s="19">
+      <c r="M78" s="19">
         <v>0.59633000000000003</v>
       </c>
-      <c r="P78" s="21">
+      <c r="O78" s="21">
         <v>-4.0908053794580796</v>
       </c>
-      <c r="Q78">
+      <c r="P78">
         <v>364.1</v>
       </c>
-      <c r="AA78" s="22">
+      <c r="Z78" s="22">
         <v>1.4</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="15">
+    <row r="79" spans="1:26">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -5324,33 +4804,30 @@
       <c r="H79" s="1">
         <v>1.2532962050000001</v>
       </c>
-      <c r="I79" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="J79" s="9">
+      <c r="I79" s="9">
         <v>99.9</v>
       </c>
-      <c r="L79" s="18">
+      <c r="K79" s="18">
         <v>-1.5</v>
       </c>
-      <c r="M79">
-        <f>$W$21/4</f>
+      <c r="L79">
+        <f>$V$21/4</f>
         <v>1.4876251885982867</v>
       </c>
-      <c r="N79" s="19">
+      <c r="M79" s="19">
         <v>0.35109000000000001</v>
       </c>
-      <c r="P79" s="21">
+      <c r="O79" s="21">
         <v>0.49104950760075</v>
       </c>
-      <c r="Q79">
+      <c r="P79">
         <v>374.5</v>
       </c>
-      <c r="AA79" s="22">
+      <c r="Z79" s="22">
         <v>0.6</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="15">
+    <row r="80" spans="1:26">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -5375,33 +4852,30 @@
       <c r="H80" s="1">
         <v>0.96502109999999997</v>
       </c>
-      <c r="I80" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="J80" s="9">
+      <c r="I80" s="9">
         <v>99.9</v>
       </c>
-      <c r="L80" s="18">
+      <c r="K80" s="18">
         <v>0.9</v>
       </c>
-      <c r="M80">
-        <f>$W$21/4</f>
+      <c r="L80">
+        <f>$V$21/4</f>
         <v>1.4876251885982867</v>
       </c>
-      <c r="N80" s="19">
+      <c r="M80" s="19">
         <v>0.16294</v>
       </c>
-      <c r="P80" s="21">
+      <c r="O80" s="21">
         <v>-3.0442562017970989</v>
       </c>
-      <c r="Q80">
+      <c r="P80">
         <v>376.9</v>
       </c>
-      <c r="AA80" s="22">
+      <c r="Z80" s="22">
         <v>1.5</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="15">
+    <row r="81" spans="1:26">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -5426,33 +4900,30 @@
       <c r="H81" s="1">
         <v>-0.444042086</v>
       </c>
-      <c r="I81" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="J81" s="9">
+      <c r="I81" s="9">
         <v>99.2</v>
       </c>
-      <c r="L81" s="18">
+      <c r="K81" s="18">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="M81">
-        <f>$W$21/4</f>
+      <c r="L81">
+        <f>$V$21/4</f>
         <v>1.4876251885982867</v>
       </c>
-      <c r="N81" s="19">
+      <c r="M81" s="19">
         <v>5.6030000000000003E-2</v>
       </c>
-      <c r="P81" s="21">
+      <c r="O81" s="21">
         <v>-2.5458453917278212</v>
       </c>
-      <c r="Q81">
+      <c r="P81">
         <v>414.7</v>
       </c>
-      <c r="AA81" s="22">
+      <c r="Z81" s="22">
         <v>0.9</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="15">
+    <row r="82" spans="1:26">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -5477,33 +4948,30 @@
       <c r="H82" s="1">
         <v>2.3199836079999998</v>
       </c>
-      <c r="I82" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="J82" s="9">
+      <c r="I82" s="9">
         <v>100.1</v>
       </c>
-      <c r="L82" s="18">
+      <c r="K82" s="18">
         <v>-2</v>
       </c>
-      <c r="M82">
-        <f>$W$22/4</f>
+      <c r="L82">
+        <f>$V$22/4</f>
         <v>0.55965958918530134</v>
       </c>
-      <c r="N82" s="19">
+      <c r="M82" s="19">
         <v>-3.4341699999999999</v>
       </c>
-      <c r="P82" s="21">
+      <c r="O82" s="21">
         <v>3.62882309515027</v>
       </c>
-      <c r="Q82">
+      <c r="P82">
         <v>379</v>
       </c>
-      <c r="AA82" s="22">
+      <c r="Z82" s="22">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="15">
+    <row r="83" spans="1:26">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -5528,33 +4996,30 @@
       <c r="H83" s="1">
         <v>5.1741168350000004</v>
       </c>
-      <c r="I83" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="J83" s="9">
+      <c r="I83" s="9">
         <v>84.3</v>
       </c>
-      <c r="L83" s="18">
+      <c r="K83" s="18">
         <v>-20.5</v>
       </c>
-      <c r="M83">
-        <f>$W$22/4</f>
+      <c r="L83">
+        <f>$V$22/4</f>
         <v>0.55965958918530134</v>
       </c>
-      <c r="N83" s="19">
+      <c r="M83" s="19">
         <v>-11.27702</v>
       </c>
-      <c r="P83" s="21">
+      <c r="O83" s="21">
         <v>-8.32119646560575</v>
       </c>
-      <c r="Q83">
+      <c r="P83">
         <v>429</v>
       </c>
-      <c r="AA83" s="22">
+      <c r="Z83" s="22">
         <v>-10.6</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="15">
+    <row r="84" spans="1:26">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -5579,33 +5044,30 @@
       <c r="H84" s="1">
         <v>-5.2851272979999999</v>
       </c>
-      <c r="I84" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="J84" s="9">
+      <c r="I84" s="9">
         <v>97.6</v>
       </c>
-      <c r="L84" s="18">
+      <c r="K84" s="18">
         <v>17.2</v>
       </c>
-      <c r="M84">
-        <f>$W$22/4</f>
+      <c r="L84">
+        <f>$V$22/4</f>
         <v>0.55965958918530134</v>
       </c>
-      <c r="N84" s="19">
+      <c r="M84" s="19">
         <v>12.103949999999999</v>
       </c>
-      <c r="P84" s="21">
+      <c r="O84" s="21">
         <v>0.72399981900943</v>
       </c>
-      <c r="Q84">
+      <c r="P84">
         <v>438.3</v>
       </c>
-      <c r="AA84" s="22">
+      <c r="Z84" s="22">
         <v>-2.6</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="15">
+    <row r="85" spans="1:26">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -5630,33 +5092,30 @@
       <c r="H85" s="1">
         <v>0.38957438799999999</v>
       </c>
-      <c r="I85" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="J85" s="9">
+      <c r="I85" s="9">
         <v>101.3</v>
       </c>
-      <c r="L85" s="18">
+      <c r="K85" s="18">
         <v>4.5</v>
       </c>
-      <c r="M85">
-        <f>$W$22/4</f>
+      <c r="L85">
+        <f>$V$22/4</f>
         <v>0.55965958918530134</v>
       </c>
-      <c r="N85" s="19">
+      <c r="M85" s="19">
         <v>-6.2100000000000002E-2</v>
       </c>
-      <c r="P85" s="21">
+      <c r="O85" s="21">
         <v>-0.39667660907039998</v>
       </c>
-      <c r="Q85">
+      <c r="P85">
         <v>470.2</v>
       </c>
-      <c r="AA85" s="22">
+      <c r="Z85" s="22">
         <v>-2.1</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="15">
+    <row r="86" spans="1:26">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -5681,33 +5140,30 @@
       <c r="H86" s="1">
         <v>0.84115114099999999</v>
       </c>
-      <c r="I86" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="J86" s="9">
+      <c r="I86" s="9">
         <v>100.9</v>
       </c>
-      <c r="L86" s="18">
+      <c r="K86" s="18">
         <v>2.6</v>
       </c>
-      <c r="M86">
-        <f>$W$23/4</f>
+      <c r="L86">
+        <f>$V$23/4</f>
         <v>2.1121173540703531</v>
       </c>
-      <c r="N86" s="19">
+      <c r="M86" s="19">
         <v>0.39471000000000001</v>
       </c>
-      <c r="P86" s="21">
+      <c r="O86" s="21">
         <v>7.4757720944453796</v>
       </c>
-      <c r="Q86">
+      <c r="P86">
         <v>458</v>
       </c>
-      <c r="AA86" s="22">
+      <c r="Z86" s="22">
         <v>-1.6</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="15">
+    <row r="87" spans="1:26">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -5732,33 +5188,30 @@
       <c r="H87" s="1">
         <v>-1.173164289</v>
       </c>
-      <c r="I87" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J87" s="9">
+      <c r="I87" s="9">
         <v>100.1</v>
       </c>
-      <c r="L87" s="18">
+      <c r="K87" s="18">
         <v>1</v>
       </c>
-      <c r="M87">
-        <f>$W$23/4</f>
+      <c r="L87">
+        <f>$V$23/4</f>
         <v>2.1121173540703531</v>
       </c>
-      <c r="N87" s="19">
+      <c r="M87" s="19">
         <v>2.10263</v>
       </c>
-      <c r="P87" s="21">
+      <c r="O87" s="21">
         <v>8.6168710763757801</v>
       </c>
-      <c r="Q87">
+      <c r="P87">
         <v>455.3</v>
       </c>
-      <c r="AA87" s="22">
+      <c r="Z87" s="22">
         <v>10.8</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="15">
+    <row r="88" spans="1:26">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -5783,33 +5236,30 @@
       <c r="H88" s="1">
         <v>1.967425395</v>
       </c>
-      <c r="I88" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="J88" s="9">
+      <c r="I88" s="9">
         <v>99.8</v>
       </c>
-      <c r="L88" s="18">
+      <c r="K88" s="18">
         <v>-0.6</v>
       </c>
-      <c r="M88">
-        <f>$W$23/4</f>
+      <c r="L88">
+        <f>$V$23/4</f>
         <v>2.1121173540703531</v>
       </c>
-      <c r="N88" s="19">
+      <c r="M88" s="19">
         <v>2.0802700000000001</v>
       </c>
-      <c r="P88" s="21">
+      <c r="O88" s="21">
         <v>3.1575562492633602</v>
       </c>
-      <c r="Q88">
+      <c r="P88">
         <v>441.4</v>
       </c>
-      <c r="AA88" s="22">
+      <c r="Z88" s="22">
         <v>2.4</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="15">
+    <row r="89" spans="1:26">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -5834,33 +5284,30 @@
       <c r="H89" s="1">
         <v>1.1958062629999999</v>
       </c>
-      <c r="I89" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="J89" s="9">
+      <c r="I89" s="9">
         <v>99.9</v>
       </c>
-      <c r="L89" s="18">
+      <c r="K89" s="18">
         <v>3.7</v>
       </c>
-      <c r="M89">
-        <f>$W$23/4</f>
+      <c r="L89">
+        <f>$V$23/4</f>
         <v>2.1121173540703531</v>
       </c>
-      <c r="N89" s="19">
+      <c r="M89" s="19">
         <v>0.54925999999999997</v>
       </c>
-      <c r="P89" s="21">
+      <c r="O89" s="21">
         <v>6.5731795404730997</v>
       </c>
-      <c r="Q89">
+      <c r="P89">
         <v>500.6</v>
       </c>
-      <c r="AA89" s="22">
+      <c r="Z89" s="22">
         <v>1.6</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="15">
+    <row r="90" spans="1:26">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -5885,33 +5332,30 @@
       <c r="H90" s="1">
         <v>0.44063753</v>
       </c>
-      <c r="I90" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="J90" s="9">
+      <c r="I90" s="9">
         <v>101</v>
       </c>
-      <c r="L90" s="18">
+      <c r="K90" s="18">
         <v>-0.1</v>
       </c>
-      <c r="M90">
-        <f>$W$24/4</f>
+      <c r="L90">
+        <f>$V$24/4</f>
         <v>0.74727102150913183</v>
       </c>
-      <c r="N90" s="19">
+      <c r="M90" s="19">
         <v>0.60416999999999998</v>
       </c>
-      <c r="P90" s="21">
+      <c r="O90" s="21">
         <v>5.6895696947783003</v>
       </c>
-      <c r="Q90">
+      <c r="P90">
         <v>437.3</v>
       </c>
-      <c r="AA90" s="22">
+      <c r="Z90" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="15">
+    <row r="91" spans="1:26">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -5936,33 +5380,30 @@
       <c r="H91" s="1">
         <v>-1.1231299999999999E-4</v>
       </c>
-      <c r="I91" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J91" s="9">
+      <c r="I91" s="9">
         <v>98.3</v>
       </c>
-      <c r="L91" s="18">
+      <c r="K91" s="18">
         <v>0.9</v>
       </c>
-      <c r="M91">
-        <f>$W$24/4</f>
+      <c r="L91">
+        <f>$V$24/4</f>
         <v>0.74727102150913183</v>
       </c>
-      <c r="N91" s="19">
+      <c r="M91" s="19">
         <v>0.81647999999999998</v>
       </c>
-      <c r="P91" s="21">
+      <c r="O91" s="21">
         <v>8.4726718504168996</v>
       </c>
-      <c r="Q91">
+      <c r="P91">
         <v>447.7</v>
       </c>
-      <c r="AA91" s="22">
+      <c r="Z91" s="22">
         <v>1.6</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="15">
+    <row r="92" spans="1:26">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -5987,33 +5428,30 @@
       <c r="H92" s="1">
         <v>1.1345507189999999</v>
       </c>
-      <c r="I92" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J92" s="9">
+      <c r="I92" s="9">
         <v>98.5</v>
       </c>
-      <c r="L92" s="18">
+      <c r="K92" s="18">
         <v>1</v>
       </c>
-      <c r="M92">
-        <f>$W$24/4</f>
+      <c r="L92">
+        <f>$V$24/4</f>
         <v>0.74727102150913183</v>
       </c>
-      <c r="N92" s="19">
+      <c r="M92" s="19">
         <v>0.47155000000000002</v>
       </c>
-      <c r="P92" s="21">
+      <c r="O92" s="21">
         <v>-2.3418192944524998</v>
       </c>
-      <c r="Q92">
+      <c r="P92">
         <v>453.3</v>
       </c>
-      <c r="AA92" s="22">
+      <c r="Z92" s="22">
         <v>1.2</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="15">
+    <row r="93" spans="1:26">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -6038,33 +5476,30 @@
       <c r="H93" s="1">
         <v>2.8696497490000001</v>
       </c>
-      <c r="I93" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="J93" s="9">
+      <c r="I93" s="9">
         <v>99.2</v>
       </c>
-      <c r="L93" s="18">
+      <c r="K93" s="18">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="M93">
-        <f>$W$24/4</f>
+      <c r="L93">
+        <f>$V$24/4</f>
         <v>0.74727102150913183</v>
       </c>
-      <c r="N93" s="19">
+      <c r="M93" s="19">
         <v>-6.8700000000000002E-3</v>
       </c>
-      <c r="P93" s="21">
+      <c r="O93" s="21">
         <v>-1.3515218563061</v>
       </c>
-      <c r="Q93">
+      <c r="P93">
         <v>568.9</v>
       </c>
-      <c r="AA93" s="22">
+      <c r="Z93" s="22">
         <v>0.8</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="15">
+    <row r="94" spans="1:26">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -6089,29 +5524,26 @@
       <c r="H94" s="1">
         <v>2.5742279589999999</v>
       </c>
-      <c r="I94" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="J94" s="9">
+      <c r="I94" s="9">
         <v>99</v>
       </c>
-      <c r="L94" s="18">
+      <c r="K94" s="18">
         <v>-0.2</v>
       </c>
-      <c r="N94" s="19">
+      <c r="M94" s="19">
         <v>4.138E-2</v>
       </c>
-      <c r="P94" s="21">
+      <c r="O94" s="21">
         <v>-14.338800721338</v>
       </c>
-      <c r="Q94">
+      <c r="P94">
         <v>497</v>
       </c>
-      <c r="AA94" s="22">
+      <c r="Z94" s="22">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="15">
+    <row r="95" spans="1:26">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -6136,29 +5568,26 @@
       <c r="H95" s="1">
         <v>9.2769905E-2</v>
       </c>
-      <c r="I95" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="J95" s="9">
+      <c r="I95" s="9">
         <v>97.3</v>
       </c>
-      <c r="L95" s="18">
+      <c r="K95" s="18">
         <v>-0.9</v>
       </c>
-      <c r="N95" s="19">
+      <c r="M95" s="19">
         <v>0.12595999999999999</v>
       </c>
-      <c r="P95" s="21">
+      <c r="O95" s="21">
         <v>-10.59271501772808</v>
       </c>
-      <c r="Q95">
+      <c r="P95">
         <v>477.6</v>
       </c>
-      <c r="AA95" s="22">
+      <c r="Z95" s="22">
         <v>0.1</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="15">
+    <row r="96" spans="1:26">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -6183,26 +5612,23 @@
       <c r="H96" s="1">
         <v>1.5655721570000001</v>
       </c>
-      <c r="I96" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="J96" s="9">
+      <c r="I96" s="9">
         <v>95.4</v>
       </c>
-      <c r="L96" s="18">
+      <c r="K96" s="18">
         <v>-0.7</v>
       </c>
-      <c r="N96" s="19">
+      <c r="M96" s="19">
         <v>-6.3670000000000004E-2</v>
       </c>
-      <c r="P96" s="21">
+      <c r="O96" s="21">
         <v>6.2133601011670002E-2</v>
       </c>
-      <c r="AA96" s="22">
+      <c r="Z96" s="22">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="15">
+    <row r="97" spans="1:26">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -6219,612 +5645,609 @@
       <c r="G97" s="1">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="I97" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="J97" s="9">
+      <c r="I97" s="9">
         <v>96.7</v>
       </c>
-      <c r="L97" s="18">
+      <c r="K97" s="18">
         <v>-1.6</v>
       </c>
-      <c r="N97" s="19">
+      <c r="M97" s="19">
         <v>-5.4140000000000001E-2</v>
       </c>
-      <c r="AA97" s="22">
+      <c r="Z97" s="22">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="15">
+    <row r="98" spans="1:26">
       <c r="D98" s="1"/>
-      <c r="J98" s="20"/>
-    </row>
-    <row r="99" spans="1:27" ht="15">
+      <c r="I98" s="20"/>
+    </row>
+    <row r="99" spans="1:26">
       <c r="D99" s="1"/>
-      <c r="J99" s="20"/>
-    </row>
-    <row r="100" spans="1:27" ht="15">
+      <c r="I99" s="20"/>
+    </row>
+    <row r="100" spans="1:26">
       <c r="D100" s="1"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="1:27" ht="15">
+      <c r="I100" s="20"/>
+    </row>
+    <row r="101" spans="1:26">
       <c r="D101" s="1"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="1:27" ht="15">
+      <c r="I101" s="20"/>
+    </row>
+    <row r="102" spans="1:26">
       <c r="D102" s="1"/>
-      <c r="J102" s="20"/>
-    </row>
-    <row r="103" spans="1:27" ht="15">
+      <c r="I102" s="20"/>
+    </row>
+    <row r="103" spans="1:26">
       <c r="D103" s="1"/>
-      <c r="J103" s="20"/>
-    </row>
-    <row r="104" spans="1:27" ht="15">
+      <c r="I103" s="20"/>
+    </row>
+    <row r="104" spans="1:26">
       <c r="D104" s="1"/>
-      <c r="J104" s="20"/>
-    </row>
-    <row r="105" spans="1:27" ht="15">
+      <c r="I104" s="20"/>
+    </row>
+    <row r="105" spans="1:26">
       <c r="D105" s="1"/>
-      <c r="J105" s="20"/>
-    </row>
-    <row r="106" spans="1:27" ht="15">
+      <c r="I105" s="20"/>
+    </row>
+    <row r="106" spans="1:26">
       <c r="D106" s="1"/>
-      <c r="J106" s="20"/>
-    </row>
-    <row r="107" spans="1:27" ht="15">
+      <c r="I106" s="20"/>
+    </row>
+    <row r="107" spans="1:26">
       <c r="D107" s="1"/>
-      <c r="J107" s="20"/>
-    </row>
-    <row r="108" spans="1:27" ht="15">
+      <c r="I107" s="20"/>
+    </row>
+    <row r="108" spans="1:26">
       <c r="D108" s="1"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="1:27" ht="15">
-      <c r="J109" s="20"/>
-    </row>
-    <row r="110" spans="1:27" ht="15">
-      <c r="J110" s="20"/>
-    </row>
-    <row r="111" spans="1:27" ht="15">
-      <c r="J111" s="20"/>
-    </row>
-    <row r="112" spans="1:27" ht="15">
-      <c r="J112" s="20"/>
-    </row>
-    <row r="113" spans="10:10" ht="15">
-      <c r="J113" s="20"/>
-    </row>
-    <row r="114" spans="10:10" ht="15">
-      <c r="J114" s="20"/>
-    </row>
-    <row r="115" spans="10:10" ht="15">
-      <c r="J115" s="20"/>
-    </row>
-    <row r="116" spans="10:10" ht="15">
-      <c r="J116" s="20"/>
-    </row>
-    <row r="117" spans="10:10" ht="15">
-      <c r="J117" s="20"/>
-    </row>
-    <row r="118" spans="10:10" ht="15">
-      <c r="J118" s="20"/>
-    </row>
-    <row r="119" spans="10:10" ht="15">
-      <c r="J119" s="20"/>
-    </row>
-    <row r="120" spans="10:10" ht="15">
-      <c r="J120" s="20"/>
-    </row>
-    <row r="121" spans="10:10" ht="15">
-      <c r="J121" s="20"/>
-    </row>
-    <row r="122" spans="10:10" ht="15">
-      <c r="J122" s="20"/>
-    </row>
-    <row r="123" spans="10:10" ht="15">
-      <c r="J123" s="20"/>
-    </row>
-    <row r="124" spans="10:10" ht="15">
-      <c r="J124" s="20"/>
-    </row>
-    <row r="125" spans="10:10" ht="15">
-      <c r="J125" s="20"/>
-    </row>
-    <row r="126" spans="10:10" ht="15">
-      <c r="J126" s="20"/>
-    </row>
-    <row r="127" spans="10:10" ht="15">
-      <c r="J127" s="20"/>
-    </row>
-    <row r="128" spans="10:10" ht="15">
-      <c r="J128" s="20"/>
-    </row>
-    <row r="129" spans="10:10" ht="15">
-      <c r="J129" s="20"/>
-    </row>
-    <row r="130" spans="10:10" ht="15">
-      <c r="J130" s="20"/>
-    </row>
-    <row r="131" spans="10:10" ht="15">
-      <c r="J131" s="20"/>
-    </row>
-    <row r="132" spans="10:10" ht="15">
-      <c r="J132" s="20"/>
-    </row>
-    <row r="133" spans="10:10" ht="15">
-      <c r="J133" s="20"/>
-    </row>
-    <row r="134" spans="10:10" ht="15">
-      <c r="J134" s="20"/>
-    </row>
-    <row r="135" spans="10:10" ht="15">
-      <c r="J135" s="20"/>
-    </row>
-    <row r="136" spans="10:10" ht="15">
-      <c r="J136" s="20"/>
-    </row>
-    <row r="137" spans="10:10" ht="15">
-      <c r="J137" s="20"/>
-    </row>
-    <row r="138" spans="10:10" ht="15">
-      <c r="J138" s="20"/>
-    </row>
-    <row r="139" spans="10:10" ht="15">
-      <c r="J139" s="20"/>
-    </row>
-    <row r="140" spans="10:10" ht="15">
-      <c r="J140" s="20"/>
-    </row>
-    <row r="141" spans="10:10" ht="15">
-      <c r="J141" s="20"/>
-    </row>
-    <row r="142" spans="10:10" ht="15">
-      <c r="J142" s="20"/>
-    </row>
-    <row r="143" spans="10:10" ht="15">
-      <c r="J143" s="20"/>
-    </row>
-    <row r="144" spans="10:10" ht="15">
-      <c r="J144" s="20"/>
-    </row>
-    <row r="145" spans="10:10" ht="15">
-      <c r="J145" s="20"/>
-    </row>
-    <row r="146" spans="10:10" ht="15">
-      <c r="J146" s="20"/>
-    </row>
-    <row r="147" spans="10:10" ht="15">
-      <c r="J147" s="20"/>
-    </row>
-    <row r="148" spans="10:10" ht="15">
-      <c r="J148" s="20"/>
-    </row>
-    <row r="149" spans="10:10" ht="15">
-      <c r="J149" s="20"/>
-    </row>
-    <row r="150" spans="10:10" ht="15">
-      <c r="J150" s="20"/>
-    </row>
-    <row r="151" spans="10:10" ht="15">
-      <c r="J151" s="20"/>
-    </row>
-    <row r="152" spans="10:10" ht="15">
-      <c r="J152" s="20"/>
-    </row>
-    <row r="153" spans="10:10" ht="15">
-      <c r="J153" s="20"/>
-    </row>
-    <row r="154" spans="10:10" ht="15">
-      <c r="J154" s="20"/>
-    </row>
-    <row r="155" spans="10:10" ht="15">
-      <c r="J155" s="20"/>
-    </row>
-    <row r="156" spans="10:10" ht="15">
-      <c r="J156" s="20"/>
-    </row>
-    <row r="157" spans="10:10" ht="15">
-      <c r="J157" s="20"/>
-    </row>
-    <row r="158" spans="10:10" ht="15">
-      <c r="J158" s="20"/>
-    </row>
-    <row r="159" spans="10:10" ht="15">
-      <c r="J159" s="20"/>
-    </row>
-    <row r="160" spans="10:10" ht="15">
-      <c r="J160" s="20"/>
-    </row>
-    <row r="161" spans="10:10" ht="15">
-      <c r="J161" s="20"/>
-    </row>
-    <row r="162" spans="10:10" ht="15">
-      <c r="J162" s="20"/>
-    </row>
-    <row r="163" spans="10:10" ht="15">
-      <c r="J163" s="20"/>
-    </row>
-    <row r="164" spans="10:10" ht="15">
-      <c r="J164" s="20"/>
-    </row>
-    <row r="165" spans="10:10" ht="15">
-      <c r="J165" s="20"/>
-    </row>
-    <row r="166" spans="10:10" ht="15">
-      <c r="J166" s="20"/>
-    </row>
-    <row r="167" spans="10:10" ht="15">
-      <c r="J167" s="20"/>
-    </row>
-    <row r="168" spans="10:10" ht="15">
-      <c r="J168" s="20"/>
-    </row>
-    <row r="169" spans="10:10" ht="15">
-      <c r="J169" s="20"/>
-    </row>
-    <row r="170" spans="10:10" ht="15">
-      <c r="J170" s="20"/>
-    </row>
-    <row r="171" spans="10:10" ht="15">
-      <c r="J171" s="20"/>
-    </row>
-    <row r="172" spans="10:10" ht="15">
-      <c r="J172" s="20"/>
-    </row>
-    <row r="173" spans="10:10" ht="15">
-      <c r="J173" s="20"/>
-    </row>
-    <row r="174" spans="10:10" ht="15">
-      <c r="J174" s="20"/>
-    </row>
-    <row r="175" spans="10:10" ht="15">
-      <c r="J175" s="20"/>
-    </row>
-    <row r="176" spans="10:10" ht="15">
-      <c r="J176" s="20"/>
-    </row>
-    <row r="177" spans="10:10" ht="15">
-      <c r="J177" s="20"/>
-    </row>
-    <row r="178" spans="10:10" ht="15">
-      <c r="J178" s="20"/>
-    </row>
-    <row r="179" spans="10:10" ht="15">
-      <c r="J179" s="20"/>
-    </row>
-    <row r="180" spans="10:10" ht="15">
-      <c r="J180" s="20"/>
-    </row>
-    <row r="181" spans="10:10" ht="15">
-      <c r="J181" s="20"/>
-    </row>
-    <row r="182" spans="10:10" ht="15">
-      <c r="J182" s="20"/>
-    </row>
-    <row r="183" spans="10:10" ht="15">
-      <c r="J183" s="20"/>
-    </row>
-    <row r="184" spans="10:10" ht="15">
-      <c r="J184" s="20"/>
-    </row>
-    <row r="185" spans="10:10" ht="15">
-      <c r="J185" s="20"/>
-    </row>
-    <row r="186" spans="10:10" ht="15">
-      <c r="J186" s="20"/>
-    </row>
-    <row r="187" spans="10:10" ht="15">
-      <c r="J187" s="20"/>
-    </row>
-    <row r="188" spans="10:10" ht="15">
-      <c r="J188" s="20"/>
-    </row>
-    <row r="189" spans="10:10" ht="15">
-      <c r="J189" s="20"/>
-    </row>
-    <row r="190" spans="10:10" ht="15">
-      <c r="J190" s="20"/>
-    </row>
-    <row r="191" spans="10:10" ht="15">
-      <c r="J191" s="20"/>
-    </row>
-    <row r="192" spans="10:10" ht="15">
-      <c r="J192" s="20"/>
-    </row>
-    <row r="193" spans="10:10" ht="15">
-      <c r="J193" s="20"/>
-    </row>
-    <row r="194" spans="10:10" ht="15">
-      <c r="J194" s="20"/>
-    </row>
-    <row r="195" spans="10:10" ht="15">
-      <c r="J195" s="20"/>
-    </row>
-    <row r="196" spans="10:10" ht="15">
-      <c r="J196" s="20"/>
-    </row>
-    <row r="197" spans="10:10" ht="15">
-      <c r="J197" s="20"/>
-    </row>
-    <row r="198" spans="10:10" ht="15">
-      <c r="J198" s="20"/>
-    </row>
-    <row r="199" spans="10:10" ht="15">
-      <c r="J199" s="20"/>
-    </row>
-    <row r="200" spans="10:10" ht="15">
-      <c r="J200" s="20"/>
-    </row>
-    <row r="201" spans="10:10" ht="15">
-      <c r="J201" s="20"/>
-    </row>
-    <row r="202" spans="10:10" ht="15">
-      <c r="J202" s="20"/>
-    </row>
-    <row r="203" spans="10:10" ht="15">
-      <c r="J203" s="20"/>
-    </row>
-    <row r="204" spans="10:10" ht="15">
-      <c r="J204" s="20"/>
-    </row>
-    <row r="205" spans="10:10" ht="15">
-      <c r="J205" s="20"/>
-    </row>
-    <row r="206" spans="10:10" ht="15">
-      <c r="J206" s="20"/>
-    </row>
-    <row r="207" spans="10:10" ht="15">
-      <c r="J207" s="20"/>
-    </row>
-    <row r="208" spans="10:10" ht="15">
-      <c r="J208" s="20"/>
-    </row>
-    <row r="209" spans="10:10" ht="15">
-      <c r="J209" s="20"/>
-    </row>
-    <row r="210" spans="10:10" ht="15">
-      <c r="J210" s="20"/>
-    </row>
-    <row r="211" spans="10:10" ht="15">
-      <c r="J211" s="20"/>
-    </row>
-    <row r="212" spans="10:10" ht="15">
-      <c r="J212" s="20"/>
-    </row>
-    <row r="213" spans="10:10" ht="15">
-      <c r="J213" s="20"/>
-    </row>
-    <row r="214" spans="10:10" ht="15">
-      <c r="J214" s="20"/>
-    </row>
-    <row r="215" spans="10:10" ht="15">
-      <c r="J215" s="20"/>
-    </row>
-    <row r="216" spans="10:10" ht="15">
-      <c r="J216" s="20"/>
-    </row>
-    <row r="217" spans="10:10" ht="15">
-      <c r="J217" s="20"/>
-    </row>
-    <row r="218" spans="10:10" ht="15">
-      <c r="J218" s="20"/>
-    </row>
-    <row r="219" spans="10:10" ht="15">
-      <c r="J219" s="20"/>
-    </row>
-    <row r="220" spans="10:10" ht="15">
-      <c r="J220" s="20"/>
-    </row>
-    <row r="221" spans="10:10" ht="15">
-      <c r="J221" s="20"/>
-    </row>
-    <row r="222" spans="10:10" ht="15">
-      <c r="J222" s="20"/>
-    </row>
-    <row r="223" spans="10:10" ht="15">
-      <c r="J223" s="20"/>
-    </row>
-    <row r="224" spans="10:10" ht="15">
-      <c r="J224" s="20"/>
-    </row>
-    <row r="225" spans="10:10" ht="15">
-      <c r="J225" s="20"/>
-    </row>
-    <row r="226" spans="10:10" ht="15">
-      <c r="J226" s="20"/>
-    </row>
-    <row r="227" spans="10:10" ht="15">
-      <c r="J227" s="20"/>
-    </row>
-    <row r="228" spans="10:10" ht="15">
-      <c r="J228" s="20"/>
-    </row>
-    <row r="229" spans="10:10" ht="15">
-      <c r="J229" s="20"/>
-    </row>
-    <row r="230" spans="10:10" ht="15">
-      <c r="J230" s="20"/>
-    </row>
-    <row r="231" spans="10:10" ht="15">
-      <c r="J231" s="20"/>
-    </row>
-    <row r="232" spans="10:10" ht="15">
-      <c r="J232" s="20"/>
-    </row>
-    <row r="233" spans="10:10" ht="15">
-      <c r="J233" s="20"/>
-    </row>
-    <row r="234" spans="10:10" ht="15">
-      <c r="J234" s="20"/>
-    </row>
-    <row r="235" spans="10:10" ht="15">
-      <c r="J235" s="20"/>
-    </row>
-    <row r="236" spans="10:10" ht="15">
-      <c r="J236" s="20"/>
-    </row>
-    <row r="237" spans="10:10" ht="15">
-      <c r="J237" s="20"/>
-    </row>
-    <row r="238" spans="10:10" ht="15">
-      <c r="J238" s="20"/>
-    </row>
-    <row r="239" spans="10:10" ht="15">
-      <c r="J239" s="20"/>
-    </row>
-    <row r="240" spans="10:10" ht="15">
-      <c r="J240" s="20"/>
-    </row>
-    <row r="241" spans="10:10" ht="15">
-      <c r="J241" s="20"/>
-    </row>
-    <row r="242" spans="10:10" ht="15">
-      <c r="J242" s="20"/>
-    </row>
-    <row r="243" spans="10:10" ht="15">
-      <c r="J243" s="20"/>
-    </row>
-    <row r="244" spans="10:10" ht="15">
-      <c r="J244" s="20"/>
-    </row>
-    <row r="245" spans="10:10" ht="15">
-      <c r="J245" s="20"/>
-    </row>
-    <row r="246" spans="10:10" ht="15">
-      <c r="J246" s="20"/>
-    </row>
-    <row r="247" spans="10:10" ht="15">
-      <c r="J247" s="20"/>
-    </row>
-    <row r="248" spans="10:10" ht="15">
-      <c r="J248" s="20"/>
-    </row>
-    <row r="249" spans="10:10" ht="15">
-      <c r="J249" s="20"/>
-    </row>
-    <row r="250" spans="10:10" ht="15">
-      <c r="J250" s="20"/>
-    </row>
-    <row r="251" spans="10:10">
-      <c r="J251" s="20"/>
-    </row>
-    <row r="252" spans="10:10">
-      <c r="J252" s="20"/>
-    </row>
-    <row r="253" spans="10:10">
-      <c r="J253" s="20"/>
-    </row>
-    <row r="254" spans="10:10">
-      <c r="J254" s="20"/>
-    </row>
-    <row r="255" spans="10:10">
-      <c r="J255" s="20"/>
-    </row>
-    <row r="256" spans="10:10">
-      <c r="J256" s="20"/>
-    </row>
-    <row r="257" spans="10:10">
-      <c r="J257" s="20"/>
-    </row>
-    <row r="258" spans="10:10">
-      <c r="J258" s="20"/>
-    </row>
-    <row r="259" spans="10:10">
-      <c r="J259" s="20"/>
-    </row>
-    <row r="260" spans="10:10">
-      <c r="J260" s="20"/>
-    </row>
-    <row r="261" spans="10:10">
-      <c r="J261" s="20"/>
-    </row>
-    <row r="262" spans="10:10">
-      <c r="J262" s="20"/>
-    </row>
-    <row r="263" spans="10:10">
-      <c r="J263" s="20"/>
-    </row>
-    <row r="264" spans="10:10">
-      <c r="J264" s="20"/>
-    </row>
-    <row r="265" spans="10:10">
-      <c r="J265" s="20"/>
-    </row>
-    <row r="266" spans="10:10">
-      <c r="J266" s="20"/>
-    </row>
-    <row r="267" spans="10:10">
-      <c r="J267" s="20"/>
-    </row>
-    <row r="268" spans="10:10">
-      <c r="J268" s="20"/>
-    </row>
-    <row r="269" spans="10:10">
-      <c r="J269" s="20"/>
-    </row>
-    <row r="270" spans="10:10">
-      <c r="J270" s="20"/>
-    </row>
-    <row r="271" spans="10:10">
-      <c r="J271" s="20"/>
-    </row>
-    <row r="272" spans="10:10">
-      <c r="J272" s="20"/>
-    </row>
-    <row r="273" spans="10:10">
-      <c r="J273" s="20"/>
-    </row>
-    <row r="274" spans="10:10">
-      <c r="J274" s="20"/>
-    </row>
-    <row r="275" spans="10:10">
-      <c r="J275" s="20"/>
-    </row>
-    <row r="276" spans="10:10">
-      <c r="J276" s="20"/>
-    </row>
-    <row r="277" spans="10:10">
-      <c r="J277" s="20"/>
-    </row>
-    <row r="278" spans="10:10">
-      <c r="J278" s="20"/>
-    </row>
-    <row r="279" spans="10:10">
-      <c r="J279" s="20"/>
-    </row>
-    <row r="280" spans="10:10">
-      <c r="J280" s="20"/>
-    </row>
-    <row r="281" spans="10:10">
-      <c r="J281" s="20"/>
-    </row>
-    <row r="282" spans="10:10">
-      <c r="J282" s="20"/>
-    </row>
-    <row r="283" spans="10:10">
-      <c r="J283" s="20"/>
-    </row>
-    <row r="284" spans="10:10">
-      <c r="J284" s="20"/>
-    </row>
-    <row r="285" spans="10:10">
-      <c r="J285" s="20"/>
-    </row>
-    <row r="286" spans="10:10">
-      <c r="J286" s="20"/>
-    </row>
-    <row r="287" spans="10:10">
-      <c r="J287" s="20"/>
-    </row>
-    <row r="288" spans="10:10">
-      <c r="J288" s="20"/>
-    </row>
-    <row r="289" spans="10:10">
-      <c r="J289" s="20"/>
+      <c r="I108" s="20"/>
+    </row>
+    <row r="109" spans="1:26">
+      <c r="I109" s="20"/>
+    </row>
+    <row r="110" spans="1:26">
+      <c r="I110" s="20"/>
+    </row>
+    <row r="111" spans="1:26">
+      <c r="I111" s="20"/>
+    </row>
+    <row r="112" spans="1:26">
+      <c r="I112" s="20"/>
+    </row>
+    <row r="113" spans="9:9">
+      <c r="I113" s="20"/>
+    </row>
+    <row r="114" spans="9:9">
+      <c r="I114" s="20"/>
+    </row>
+    <row r="115" spans="9:9">
+      <c r="I115" s="20"/>
+    </row>
+    <row r="116" spans="9:9">
+      <c r="I116" s="20"/>
+    </row>
+    <row r="117" spans="9:9">
+      <c r="I117" s="20"/>
+    </row>
+    <row r="118" spans="9:9">
+      <c r="I118" s="20"/>
+    </row>
+    <row r="119" spans="9:9">
+      <c r="I119" s="20"/>
+    </row>
+    <row r="120" spans="9:9">
+      <c r="I120" s="20"/>
+    </row>
+    <row r="121" spans="9:9">
+      <c r="I121" s="20"/>
+    </row>
+    <row r="122" spans="9:9">
+      <c r="I122" s="20"/>
+    </row>
+    <row r="123" spans="9:9">
+      <c r="I123" s="20"/>
+    </row>
+    <row r="124" spans="9:9">
+      <c r="I124" s="20"/>
+    </row>
+    <row r="125" spans="9:9">
+      <c r="I125" s="20"/>
+    </row>
+    <row r="126" spans="9:9">
+      <c r="I126" s="20"/>
+    </row>
+    <row r="127" spans="9:9">
+      <c r="I127" s="20"/>
+    </row>
+    <row r="128" spans="9:9">
+      <c r="I128" s="20"/>
+    </row>
+    <row r="129" spans="9:9">
+      <c r="I129" s="20"/>
+    </row>
+    <row r="130" spans="9:9">
+      <c r="I130" s="20"/>
+    </row>
+    <row r="131" spans="9:9">
+      <c r="I131" s="20"/>
+    </row>
+    <row r="132" spans="9:9">
+      <c r="I132" s="20"/>
+    </row>
+    <row r="133" spans="9:9">
+      <c r="I133" s="20"/>
+    </row>
+    <row r="134" spans="9:9">
+      <c r="I134" s="20"/>
+    </row>
+    <row r="135" spans="9:9">
+      <c r="I135" s="20"/>
+    </row>
+    <row r="136" spans="9:9">
+      <c r="I136" s="20"/>
+    </row>
+    <row r="137" spans="9:9">
+      <c r="I137" s="20"/>
+    </row>
+    <row r="138" spans="9:9">
+      <c r="I138" s="20"/>
+    </row>
+    <row r="139" spans="9:9">
+      <c r="I139" s="20"/>
+    </row>
+    <row r="140" spans="9:9">
+      <c r="I140" s="20"/>
+    </row>
+    <row r="141" spans="9:9">
+      <c r="I141" s="20"/>
+    </row>
+    <row r="142" spans="9:9">
+      <c r="I142" s="20"/>
+    </row>
+    <row r="143" spans="9:9">
+      <c r="I143" s="20"/>
+    </row>
+    <row r="144" spans="9:9">
+      <c r="I144" s="20"/>
+    </row>
+    <row r="145" spans="9:9">
+      <c r="I145" s="20"/>
+    </row>
+    <row r="146" spans="9:9">
+      <c r="I146" s="20"/>
+    </row>
+    <row r="147" spans="9:9">
+      <c r="I147" s="20"/>
+    </row>
+    <row r="148" spans="9:9">
+      <c r="I148" s="20"/>
+    </row>
+    <row r="149" spans="9:9">
+      <c r="I149" s="20"/>
+    </row>
+    <row r="150" spans="9:9">
+      <c r="I150" s="20"/>
+    </row>
+    <row r="151" spans="9:9">
+      <c r="I151" s="20"/>
+    </row>
+    <row r="152" spans="9:9">
+      <c r="I152" s="20"/>
+    </row>
+    <row r="153" spans="9:9">
+      <c r="I153" s="20"/>
+    </row>
+    <row r="154" spans="9:9">
+      <c r="I154" s="20"/>
+    </row>
+    <row r="155" spans="9:9">
+      <c r="I155" s="20"/>
+    </row>
+    <row r="156" spans="9:9">
+      <c r="I156" s="20"/>
+    </row>
+    <row r="157" spans="9:9">
+      <c r="I157" s="20"/>
+    </row>
+    <row r="158" spans="9:9">
+      <c r="I158" s="20"/>
+    </row>
+    <row r="159" spans="9:9">
+      <c r="I159" s="20"/>
+    </row>
+    <row r="160" spans="9:9">
+      <c r="I160" s="20"/>
+    </row>
+    <row r="161" spans="9:9">
+      <c r="I161" s="20"/>
+    </row>
+    <row r="162" spans="9:9">
+      <c r="I162" s="20"/>
+    </row>
+    <row r="163" spans="9:9">
+      <c r="I163" s="20"/>
+    </row>
+    <row r="164" spans="9:9">
+      <c r="I164" s="20"/>
+    </row>
+    <row r="165" spans="9:9">
+      <c r="I165" s="20"/>
+    </row>
+    <row r="166" spans="9:9">
+      <c r="I166" s="20"/>
+    </row>
+    <row r="167" spans="9:9">
+      <c r="I167" s="20"/>
+    </row>
+    <row r="168" spans="9:9">
+      <c r="I168" s="20"/>
+    </row>
+    <row r="169" spans="9:9">
+      <c r="I169" s="20"/>
+    </row>
+    <row r="170" spans="9:9">
+      <c r="I170" s="20"/>
+    </row>
+    <row r="171" spans="9:9">
+      <c r="I171" s="20"/>
+    </row>
+    <row r="172" spans="9:9">
+      <c r="I172" s="20"/>
+    </row>
+    <row r="173" spans="9:9">
+      <c r="I173" s="20"/>
+    </row>
+    <row r="174" spans="9:9">
+      <c r="I174" s="20"/>
+    </row>
+    <row r="175" spans="9:9">
+      <c r="I175" s="20"/>
+    </row>
+    <row r="176" spans="9:9">
+      <c r="I176" s="20"/>
+    </row>
+    <row r="177" spans="9:9">
+      <c r="I177" s="20"/>
+    </row>
+    <row r="178" spans="9:9">
+      <c r="I178" s="20"/>
+    </row>
+    <row r="179" spans="9:9">
+      <c r="I179" s="20"/>
+    </row>
+    <row r="180" spans="9:9">
+      <c r="I180" s="20"/>
+    </row>
+    <row r="181" spans="9:9">
+      <c r="I181" s="20"/>
+    </row>
+    <row r="182" spans="9:9">
+      <c r="I182" s="20"/>
+    </row>
+    <row r="183" spans="9:9">
+      <c r="I183" s="20"/>
+    </row>
+    <row r="184" spans="9:9">
+      <c r="I184" s="20"/>
+    </row>
+    <row r="185" spans="9:9">
+      <c r="I185" s="20"/>
+    </row>
+    <row r="186" spans="9:9">
+      <c r="I186" s="20"/>
+    </row>
+    <row r="187" spans="9:9">
+      <c r="I187" s="20"/>
+    </row>
+    <row r="188" spans="9:9">
+      <c r="I188" s="20"/>
+    </row>
+    <row r="189" spans="9:9">
+      <c r="I189" s="20"/>
+    </row>
+    <row r="190" spans="9:9">
+      <c r="I190" s="20"/>
+    </row>
+    <row r="191" spans="9:9">
+      <c r="I191" s="20"/>
+    </row>
+    <row r="192" spans="9:9">
+      <c r="I192" s="20"/>
+    </row>
+    <row r="193" spans="9:9">
+      <c r="I193" s="20"/>
+    </row>
+    <row r="194" spans="9:9">
+      <c r="I194" s="20"/>
+    </row>
+    <row r="195" spans="9:9">
+      <c r="I195" s="20"/>
+    </row>
+    <row r="196" spans="9:9">
+      <c r="I196" s="20"/>
+    </row>
+    <row r="197" spans="9:9">
+      <c r="I197" s="20"/>
+    </row>
+    <row r="198" spans="9:9">
+      <c r="I198" s="20"/>
+    </row>
+    <row r="199" spans="9:9">
+      <c r="I199" s="20"/>
+    </row>
+    <row r="200" spans="9:9">
+      <c r="I200" s="20"/>
+    </row>
+    <row r="201" spans="9:9">
+      <c r="I201" s="20"/>
+    </row>
+    <row r="202" spans="9:9">
+      <c r="I202" s="20"/>
+    </row>
+    <row r="203" spans="9:9">
+      <c r="I203" s="20"/>
+    </row>
+    <row r="204" spans="9:9">
+      <c r="I204" s="20"/>
+    </row>
+    <row r="205" spans="9:9">
+      <c r="I205" s="20"/>
+    </row>
+    <row r="206" spans="9:9">
+      <c r="I206" s="20"/>
+    </row>
+    <row r="207" spans="9:9">
+      <c r="I207" s="20"/>
+    </row>
+    <row r="208" spans="9:9">
+      <c r="I208" s="20"/>
+    </row>
+    <row r="209" spans="9:9">
+      <c r="I209" s="20"/>
+    </row>
+    <row r="210" spans="9:9">
+      <c r="I210" s="20"/>
+    </row>
+    <row r="211" spans="9:9">
+      <c r="I211" s="20"/>
+    </row>
+    <row r="212" spans="9:9">
+      <c r="I212" s="20"/>
+    </row>
+    <row r="213" spans="9:9">
+      <c r="I213" s="20"/>
+    </row>
+    <row r="214" spans="9:9">
+      <c r="I214" s="20"/>
+    </row>
+    <row r="215" spans="9:9">
+      <c r="I215" s="20"/>
+    </row>
+    <row r="216" spans="9:9">
+      <c r="I216" s="20"/>
+    </row>
+    <row r="217" spans="9:9">
+      <c r="I217" s="20"/>
+    </row>
+    <row r="218" spans="9:9">
+      <c r="I218" s="20"/>
+    </row>
+    <row r="219" spans="9:9">
+      <c r="I219" s="20"/>
+    </row>
+    <row r="220" spans="9:9">
+      <c r="I220" s="20"/>
+    </row>
+    <row r="221" spans="9:9">
+      <c r="I221" s="20"/>
+    </row>
+    <row r="222" spans="9:9">
+      <c r="I222" s="20"/>
+    </row>
+    <row r="223" spans="9:9">
+      <c r="I223" s="20"/>
+    </row>
+    <row r="224" spans="9:9">
+      <c r="I224" s="20"/>
+    </row>
+    <row r="225" spans="9:9">
+      <c r="I225" s="20"/>
+    </row>
+    <row r="226" spans="9:9">
+      <c r="I226" s="20"/>
+    </row>
+    <row r="227" spans="9:9">
+      <c r="I227" s="20"/>
+    </row>
+    <row r="228" spans="9:9">
+      <c r="I228" s="20"/>
+    </row>
+    <row r="229" spans="9:9">
+      <c r="I229" s="20"/>
+    </row>
+    <row r="230" spans="9:9">
+      <c r="I230" s="20"/>
+    </row>
+    <row r="231" spans="9:9">
+      <c r="I231" s="20"/>
+    </row>
+    <row r="232" spans="9:9">
+      <c r="I232" s="20"/>
+    </row>
+    <row r="233" spans="9:9">
+      <c r="I233" s="20"/>
+    </row>
+    <row r="234" spans="9:9">
+      <c r="I234" s="20"/>
+    </row>
+    <row r="235" spans="9:9">
+      <c r="I235" s="20"/>
+    </row>
+    <row r="236" spans="9:9">
+      <c r="I236" s="20"/>
+    </row>
+    <row r="237" spans="9:9">
+      <c r="I237" s="20"/>
+    </row>
+    <row r="238" spans="9:9">
+      <c r="I238" s="20"/>
+    </row>
+    <row r="239" spans="9:9">
+      <c r="I239" s="20"/>
+    </row>
+    <row r="240" spans="9:9">
+      <c r="I240" s="20"/>
+    </row>
+    <row r="241" spans="9:9">
+      <c r="I241" s="20"/>
+    </row>
+    <row r="242" spans="9:9">
+      <c r="I242" s="20"/>
+    </row>
+    <row r="243" spans="9:9">
+      <c r="I243" s="20"/>
+    </row>
+    <row r="244" spans="9:9">
+      <c r="I244" s="20"/>
+    </row>
+    <row r="245" spans="9:9">
+      <c r="I245" s="20"/>
+    </row>
+    <row r="246" spans="9:9">
+      <c r="I246" s="20"/>
+    </row>
+    <row r="247" spans="9:9">
+      <c r="I247" s="20"/>
+    </row>
+    <row r="248" spans="9:9">
+      <c r="I248" s="20"/>
+    </row>
+    <row r="249" spans="9:9">
+      <c r="I249" s="20"/>
+    </row>
+    <row r="250" spans="9:9">
+      <c r="I250" s="20"/>
+    </row>
+    <row r="251" spans="9:9">
+      <c r="I251" s="20"/>
+    </row>
+    <row r="252" spans="9:9">
+      <c r="I252" s="20"/>
+    </row>
+    <row r="253" spans="9:9">
+      <c r="I253" s="20"/>
+    </row>
+    <row r="254" spans="9:9">
+      <c r="I254" s="20"/>
+    </row>
+    <row r="255" spans="9:9">
+      <c r="I255" s="20"/>
+    </row>
+    <row r="256" spans="9:9">
+      <c r="I256" s="20"/>
+    </row>
+    <row r="257" spans="9:9">
+      <c r="I257" s="20"/>
+    </row>
+    <row r="258" spans="9:9">
+      <c r="I258" s="20"/>
+    </row>
+    <row r="259" spans="9:9">
+      <c r="I259" s="20"/>
+    </row>
+    <row r="260" spans="9:9">
+      <c r="I260" s="20"/>
+    </row>
+    <row r="261" spans="9:9">
+      <c r="I261" s="20"/>
+    </row>
+    <row r="262" spans="9:9">
+      <c r="I262" s="20"/>
+    </row>
+    <row r="263" spans="9:9">
+      <c r="I263" s="20"/>
+    </row>
+    <row r="264" spans="9:9">
+      <c r="I264" s="20"/>
+    </row>
+    <row r="265" spans="9:9">
+      <c r="I265" s="20"/>
+    </row>
+    <row r="266" spans="9:9">
+      <c r="I266" s="20"/>
+    </row>
+    <row r="267" spans="9:9">
+      <c r="I267" s="20"/>
+    </row>
+    <row r="268" spans="9:9">
+      <c r="I268" s="20"/>
+    </row>
+    <row r="269" spans="9:9">
+      <c r="I269" s="20"/>
+    </row>
+    <row r="270" spans="9:9">
+      <c r="I270" s="20"/>
+    </row>
+    <row r="271" spans="9:9">
+      <c r="I271" s="20"/>
+    </row>
+    <row r="272" spans="9:9">
+      <c r="I272" s="20"/>
+    </row>
+    <row r="273" spans="9:9">
+      <c r="I273" s="20"/>
+    </row>
+    <row r="274" spans="9:9">
+      <c r="I274" s="20"/>
+    </row>
+    <row r="275" spans="9:9">
+      <c r="I275" s="20"/>
+    </row>
+    <row r="276" spans="9:9">
+      <c r="I276" s="20"/>
+    </row>
+    <row r="277" spans="9:9">
+      <c r="I277" s="20"/>
+    </row>
+    <row r="278" spans="9:9">
+      <c r="I278" s="20"/>
+    </row>
+    <row r="279" spans="9:9">
+      <c r="I279" s="20"/>
+    </row>
+    <row r="280" spans="9:9">
+      <c r="I280" s="20"/>
+    </row>
+    <row r="281" spans="9:9">
+      <c r="I281" s="20"/>
+    </row>
+    <row r="282" spans="9:9">
+      <c r="I282" s="20"/>
+    </row>
+    <row r="283" spans="9:9">
+      <c r="I283" s="20"/>
+    </row>
+    <row r="284" spans="9:9">
+      <c r="I284" s="20"/>
+    </row>
+    <row r="285" spans="9:9">
+      <c r="I285" s="20"/>
+    </row>
+    <row r="286" spans="9:9">
+      <c r="I286" s="20"/>
+    </row>
+    <row r="287" spans="9:9">
+      <c r="I287" s="20"/>
+    </row>
+    <row r="288" spans="9:9">
+      <c r="I288" s="20"/>
+    </row>
+    <row r="289" spans="9:9">
+      <c r="I289" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P1" r:id="rId1" location="0" xr:uid="{1A5DC839-B836-414D-90FB-DC92D012B683}"/>
+    <hyperlink ref="O1" r:id="rId1" location="0" xr:uid="{1A5DC839-B836-414D-90FB-DC92D012B683}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6850,28 +6273,28 @@
   <sheetData>
     <row r="1" spans="3:47">
       <c r="C1" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="3:47">
@@ -6883,101 +6306,101 @@
         <v>40029198</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="G2" s="13">
         <f>19840+19167+13587+11099+8978</f>
         <v>72671</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="J2" s="11">
         <v>44</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="N2" s="14">
         <v>75.2</v>
       </c>
       <c r="V2" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="W2" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="Y2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="AC2" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="AD2" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="AE2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="AG2" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="AI2" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="AK2" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="AL2" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="AM2" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="AO2" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="AQ2" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="AR2" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="AT2" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="AU2" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="3:47">
@@ -6988,32 +6411,32 @@
         <v>40056637</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="G3" s="13">
         <f>20268+22941</f>
         <v>43209</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="J3" s="11">
         <v>35</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="N3" s="14">
         <v>59.4</v>
       </c>
       <c r="V3" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="W3" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="X3" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="Y3">
         <v>40029198</v>
@@ -7093,26 +6516,26 @@
         <v>40236914</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="G4" s="13">
         <f>26192+5957</f>
         <v>32149</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="J4" s="11">
         <v>32</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="N4" s="14">
         <v>57.8</v>
       </c>
       <c r="V4" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="3:47">
@@ -7123,20 +6546,20 @@
         <v>40039826</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="G5" s="13">
         <f>16341+10501</f>
         <v>26842</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="J5" s="11">
         <v>22</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="N5" s="14">
         <v>53.7</v>
@@ -7150,20 +6573,20 @@
         <v>41239999</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="G6" s="13">
         <f>15052+6921</f>
         <v>21973</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="J6" s="11">
         <v>16</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="N6" s="14">
         <v>51.7</v>
@@ -7177,25 +6600,25 @@
         <v>41693116</v>
       </c>
       <c r="F7" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="G7" s="13">
         <v>14248</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="J7" s="11">
         <v>16</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="N7" s="14">
         <v>49.8</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="3:47">
@@ -7206,14 +6629,14 @@
         <v>41861246</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="G8" s="13">
         <f>11578+5989</f>
         <v>17567</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="J8" s="11">
         <v>15</v>
@@ -7227,17 +6650,17 @@
         <v>41917490</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="G9" s="13">
         <f>6087+6110+8750</f>
         <v>20947</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="J9" s="11">
         <v>14</v>
@@ -7251,7 +6674,7 @@
         <v>41978630</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="J10" s="11">
         <v>14</v>
@@ -7265,7 +6688,7 @@
         <v>41949335</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="J11" s="11">
         <v>12</v>
@@ -7279,13 +6702,13 @@
         <v>41729225</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="J12" s="11">
         <v>7</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="3:47">
@@ -7407,7 +6830,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7415,7 +6838,7 @@
         <v>2009</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7475,32 +6898,32 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -7538,61 +6961,61 @@
   <sheetData>
     <row r="1" spans="2:19">
       <c r="B1" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="H1" t="s">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="I1" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="J1" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="K1" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="P1" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c r="R1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="2:19" ht="15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19">
       <c r="C2" s="4">
         <v>36526</v>
       </c>
@@ -7632,7 +7055,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="15">
+    <row r="3" spans="2:19">
       <c r="C3" s="4">
         <v>36892</v>
       </c>
@@ -7672,7 +7095,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="15">
+    <row r="4" spans="2:19">
       <c r="C4" s="4">
         <v>37257</v>
       </c>
@@ -7712,7 +7135,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="15">
+    <row r="5" spans="2:19">
       <c r="C5" s="4">
         <v>37622</v>
       </c>
@@ -7752,7 +7175,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="15">
+    <row r="6" spans="2:19">
       <c r="C6" s="4">
         <v>37987</v>
       </c>
@@ -7792,7 +7215,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="15">
+    <row r="7" spans="2:19">
       <c r="C7" s="4">
         <v>38353</v>
       </c>
@@ -7820,7 +7243,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="15">
+    <row r="8" spans="2:19">
       <c r="C8" s="4">
         <v>38718</v>
       </c>
@@ -7848,7 +7271,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="15">
+    <row r="9" spans="2:19">
       <c r="C9" s="4">
         <v>39083</v>
       </c>
@@ -7876,7 +7299,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="15">
+    <row r="10" spans="2:19">
       <c r="C10" s="4">
         <v>39448</v>
       </c>
@@ -7904,7 +7327,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="15">
+    <row r="11" spans="2:19">
       <c r="C11" s="4">
         <v>39814</v>
       </c>
@@ -7932,7 +7355,7 @@
         <v>-6.2</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15">
+    <row r="12" spans="2:19">
       <c r="C12" s="4">
         <v>40179</v>
       </c>
@@ -7960,7 +7383,7 @@
         <v>-6.3</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="15">
+    <row r="13" spans="2:19">
       <c r="C13" s="4">
         <v>40544</v>
       </c>
@@ -7988,7 +7411,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="15">
+    <row r="14" spans="2:19">
       <c r="C14" s="4">
         <v>40909</v>
       </c>
@@ -8016,7 +7439,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="15">
+    <row r="15" spans="2:19">
       <c r="C15" s="4">
         <v>41275</v>
       </c>
@@ -8044,7 +7467,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="15">
+    <row r="16" spans="2:19">
       <c r="C16" s="4">
         <v>41640</v>
       </c>
@@ -8072,7 +7495,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="17" spans="3:19" ht="15">
+    <row r="17" spans="3:19">
       <c r="C17" s="4">
         <v>42005</v>
       </c>
@@ -8100,7 +7523,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="3:19" ht="15">
+    <row r="18" spans="3:19">
       <c r="C18" s="4">
         <v>42370</v>
       </c>
@@ -8128,7 +7551,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="19" spans="3:19" ht="15">
+    <row r="19" spans="3:19">
       <c r="C19" s="4">
         <v>42736</v>
       </c>
@@ -8156,7 +7579,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="20" spans="3:19" ht="15">
+    <row r="20" spans="3:19">
       <c r="C20" s="4">
         <v>43101</v>
       </c>
@@ -8184,7 +7607,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="21" spans="3:19" ht="15">
+    <row r="21" spans="3:19">
       <c r="C21" s="4">
         <v>43466</v>
       </c>
@@ -8212,7 +7635,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="22" spans="3:19" ht="15">
+    <row r="22" spans="3:19">
       <c r="C22" s="4">
         <v>43831</v>
       </c>
@@ -8240,7 +7663,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="23" spans="3:19" ht="15">
+    <row r="23" spans="3:19">
       <c r="C23" s="4">
         <v>44197</v>
       </c>
@@ -8268,7 +7691,7 @@
         <v>-5.2</v>
       </c>
     </row>
-    <row r="24" spans="3:19" ht="15">
+    <row r="24" spans="3:19">
       <c r="C24" s="4">
         <v>44562</v>
       </c>
@@ -8296,7 +7719,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="25" spans="3:19" ht="15">
+    <row r="25" spans="3:19">
       <c r="C25" s="4">
         <v>44927</v>
       </c>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="764" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FCB5D2D-A880-4CF0-A675-E8142D52B8D8}"/>
+  <xr:revisionPtr revIDLastSave="870" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31EC7EB7-B727-47D8-9FAF-39085D093862}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nøgletal" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,9 @@
   <commentList>
     <comment ref="I2" authorId="0" shapeId="0" xr:uid="{4B42F164-681C-4A58-84D1-0574D84188C8}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Trådet kommentar]
+Din version af Excel lader dig læse denne trådede kommentar. Eventuelle ændringer vil dog blive fjernet, hvis filen åbnes i en nyere version af Excel. Få mere at vide: https://go.microsoft.com/fwlink/?linkid=870924
+Kommentar:
 How is your company developing in relation to the lack of new recruits and skilled workers? 
 </t>
       </text>
@@ -391,7 +391,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,31 +933,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="60" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" customWidth="1"/>
+    <col min="5" max="5" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.26953125" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="84.85546875" customWidth="1"/>
+    <col min="11" max="11" width="84.81640625" customWidth="1"/>
     <col min="12" max="12" width="79" customWidth="1"/>
-    <col min="13" max="13" width="49.7109375" customWidth="1"/>
+    <col min="13" max="13" width="49.7265625" customWidth="1"/>
     <col min="14" max="14" width="79" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" customWidth="1"/>
-    <col min="30" max="30" width="23.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" customWidth="1"/>
+    <col min="30" max="30" width="23.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1064,8 +1064,11 @@
       <c r="Z2" s="22">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AD2">
+        <v>0.98650000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1115,8 +1118,11 @@
       <c r="Z3" s="22">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AD3">
+        <v>0.93320000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1166,8 +1172,11 @@
       <c r="Z4" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AD4">
+        <v>0.9052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1217,8 +1226,11 @@
       <c r="Z5" s="22">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AD5">
+        <v>0.86829999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1268,8 +1280,11 @@
       <c r="Z6" s="22">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AD6">
+        <v>0.92320000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1319,8 +1334,11 @@
       <c r="Z7" s="22">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AD7">
+        <v>0.87250000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1370,8 +1388,11 @@
       <c r="Z8" s="22">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="AD8">
+        <v>0.89029999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1421,8 +1442,11 @@
       <c r="Z9" s="22">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AD9">
+        <v>0.89590000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1472,8 +1496,11 @@
       <c r="Z10" s="22">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AD10">
+        <v>0.87660000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1523,8 +1550,11 @@
       <c r="Z11" s="22">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AD11">
+        <v>0.91879999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1574,8 +1604,11 @@
       <c r="Z12" s="22">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AD12">
+        <v>0.98380000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1625,8 +1658,11 @@
       <c r="Z13" s="22">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AD13">
+        <v>0.99939999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1676,8 +1712,11 @@
       <c r="Z14" s="22">
         <v>-0.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AD14">
+        <v>1.0730999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -1727,8 +1766,11 @@
       <c r="Z15" s="22">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AD15">
+        <v>1.1372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -1778,8 +1820,11 @@
       <c r="Z16" s="22">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AD16">
+        <v>1.1248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -1829,8 +1874,11 @@
       <c r="Z17" s="22">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AD17">
+        <v>1.1890000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -1880,8 +1928,11 @@
       <c r="Z18" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AD18">
+        <v>1.2497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -1931,8 +1982,11 @@
       <c r="Z19" s="22">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AD19">
+        <v>1.2045999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -1982,8 +2036,11 @@
       <c r="Z20" s="22">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AD20">
+        <v>1.222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -2033,8 +2090,11 @@
       <c r="Z21" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AD21">
+        <v>1.2977000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -2084,8 +2144,11 @@
       <c r="Z22" s="22">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AD22">
+        <v>1.3132999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -2135,8 +2198,11 @@
       <c r="Z23" s="22">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AD23">
+        <v>1.2594000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -2186,8 +2252,11 @@
       <c r="Z24" s="22">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AD24">
+        <v>1.2199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -2234,8 +2303,11 @@
       <c r="Z25" s="22">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AD25">
+        <v>1.1883999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -2282,8 +2354,11 @@
       <c r="Z26" s="22">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AD26">
+        <v>1.2022999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -2330,8 +2405,11 @@
       <c r="Z27" s="22">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AD27">
+        <v>1.2582</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -2378,8 +2456,11 @@
       <c r="Z28" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AD28">
+        <v>1.2743</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -2426,8 +2507,11 @@
       <c r="Z29" s="22">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AD29">
+        <v>1.2887</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -2474,8 +2558,11 @@
       <c r="Z30" s="22">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AD30">
+        <v>1.3106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -2522,8 +2609,11 @@
       <c r="Z31" s="22">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AD31">
+        <v>1.3481000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -2570,8 +2660,11 @@
       <c r="Z32" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AD32">
+        <v>1.3737999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -2618,8 +2711,11 @@
       <c r="Z33" s="22">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AD33">
+        <v>1.4486000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -2666,8 +2762,11 @@
       <c r="Z34" s="22">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AD34">
+        <v>1.4976</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -2714,8 +2813,11 @@
       <c r="Z35" s="22">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AD35">
+        <v>1.5622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -2762,8 +2864,11 @@
       <c r="Z36" s="22">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AD36">
+        <v>1.5049999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -2810,8 +2915,11 @@
       <c r="Z37" s="22">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AD37">
+        <v>1.3180000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -2858,8 +2966,11 @@
       <c r="Z38" s="22">
         <v>-7</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AD38">
+        <v>1.3028999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -2906,8 +3017,11 @@
       <c r="Z39" s="22">
         <v>-6.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AD39">
+        <v>1.3632</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -2954,8 +3068,11 @@
       <c r="Z40" s="22">
         <v>-5.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AD40">
+        <v>1.4302999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -3002,8 +3119,11 @@
       <c r="Z41" s="22">
         <v>-3.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AD41">
+        <v>1.4779</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -3050,8 +3170,11 @@
       <c r="Z42" s="22">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AD42">
+        <v>1.3829</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -3098,8 +3221,11 @@
       <c r="Z43" s="22">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AD43">
+        <v>1.2707999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -3146,8 +3272,11 @@
       <c r="Z44" s="22">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AD44">
+        <v>1.2909999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -3194,8 +3323,11 @@
       <c r="Z45" s="22">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="AD45">
+        <v>1.3583000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -3242,8 +3374,11 @@
       <c r="Z46" s="22">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AD46">
+        <v>1.3680000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -3290,8 +3425,11 @@
       <c r="Z47" s="22">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="AD47">
+        <v>1.4391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -3338,8 +3476,11 @@
       <c r="Z48" s="22">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AD48">
+        <v>1.4127000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -3386,8 +3527,11 @@
       <c r="Z49" s="22">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="AD49">
+        <v>1.3482000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -3434,8 +3578,11 @@
       <c r="Z50" s="22">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="AD50">
+        <v>1.3108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -3482,8 +3629,11 @@
       <c r="Z51" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AD51">
+        <v>1.2814000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -3530,8 +3680,11 @@
       <c r="Z52" s="22">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:26">
+      <c r="AD52">
+        <v>1.2502</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -3578,8 +3731,11 @@
       <c r="Z53" s="22">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AD53">
+        <v>1.2967</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -3626,8 +3782,11 @@
       <c r="Z54" s="22">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:26">
+      <c r="AD54">
+        <v>1.3206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -3674,8 +3833,11 @@
       <c r="Z55" s="22">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:26">
+      <c r="AD55">
+        <v>1.3062</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -3722,8 +3884,11 @@
       <c r="Z56" s="22">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="AD56">
+        <v>1.3242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -3770,8 +3935,11 @@
       <c r="Z57" s="22">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="AD57">
+        <v>1.361</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -3818,8 +3986,11 @@
       <c r="Z58" s="22">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="AD58">
+        <v>1.3695999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -3866,8 +4037,11 @@
       <c r="Z59" s="22">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="60" spans="1:26">
+      <c r="AD59">
+        <v>1.3711</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -3914,8 +4088,11 @@
       <c r="Z60" s="22">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="61" spans="1:26">
+      <c r="AD60">
+        <v>1.3255999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -3962,8 +4139,11 @@
       <c r="Z61" s="22">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:26">
+      <c r="AD61">
+        <v>1.2498</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -4010,8 +4190,11 @@
       <c r="Z62" s="22">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:26">
+      <c r="AD62">
+        <v>1.1261000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -4058,8 +4241,11 @@
       <c r="Z63" s="22">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:26">
+      <c r="AD63">
+        <v>1.1052999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -4106,8 +4292,11 @@
       <c r="Z64" s="22">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:26">
+      <c r="AD64">
+        <v>1.1116999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -4154,8 +4343,11 @@
       <c r="Z65" s="22">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:26">
+      <c r="AD65">
+        <v>1.0952999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -4202,8 +4394,11 @@
       <c r="Z66" s="22">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:26">
+      <c r="AD66">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -4250,8 +4445,11 @@
       <c r="Z67" s="22">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="68" spans="1:26">
+      <c r="AD67">
+        <v>1.1292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -4298,8 +4496,11 @@
       <c r="Z68" s="22">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:26">
+      <c r="AD68">
+        <v>1.1166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -4346,8 +4547,11 @@
       <c r="Z69" s="22">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:26">
+      <c r="AD69">
+        <v>1.0789</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -4394,8 +4598,11 @@
       <c r="Z70" s="22">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:26">
+      <c r="AD70">
+        <v>1.0648</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -4442,8 +4649,11 @@
       <c r="Z71" s="22">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="72" spans="1:26">
+      <c r="AD71">
+        <v>1.1021000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="Z72" s="22">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="73" spans="1:26">
+      <c r="AD72">
+        <v>1.1746000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -4538,8 +4751,11 @@
       <c r="Z73" s="22">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="74" spans="1:26">
+      <c r="AD73">
+        <v>1.1774</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -4586,8 +4802,11 @@
       <c r="Z74" s="22">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="75" spans="1:26">
+      <c r="AD74">
+        <v>1.2292000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -4634,8 +4853,11 @@
       <c r="Z75" s="22">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="76" spans="1:26">
+      <c r="AD75">
+        <v>1.1915</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -4682,8 +4904,11 @@
       <c r="Z76" s="22">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="77" spans="1:26">
+      <c r="AD76">
+        <v>1.1629</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -4730,8 +4955,11 @@
       <c r="Z77" s="22">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="78" spans="1:26">
+      <c r="AD77">
+        <v>1.1414</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -4778,8 +5006,11 @@
       <c r="Z78" s="22">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="79" spans="1:26">
+      <c r="AD78">
+        <v>1.1357999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -4826,8 +5057,11 @@
       <c r="Z79" s="22">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:26">
+      <c r="AD79">
+        <v>1.1236999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -4874,8 +5108,11 @@
       <c r="Z80" s="22">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:26">
+      <c r="AD80">
+        <v>1.1119000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -4922,8 +5159,11 @@
       <c r="Z81" s="22">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="82" spans="1:26">
+      <c r="AD81">
+        <v>1.1071</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -4970,8 +5210,11 @@
       <c r="Z82" s="22">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:26">
+      <c r="AD82">
+        <v>1.1027</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -5018,8 +5261,11 @@
       <c r="Z83" s="22">
         <v>-10.6</v>
       </c>
-    </row>
-    <row r="84" spans="1:26">
+      <c r="AD83">
+        <v>1.1013999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -5066,8 +5312,11 @@
       <c r="Z84" s="22">
         <v>-2.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:26">
+      <c r="AD84">
+        <v>1.1689000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -5114,8 +5363,11 @@
       <c r="Z85" s="22">
         <v>-2.1</v>
       </c>
-    </row>
-    <row r="86" spans="1:26">
+      <c r="AD85">
+        <v>1.1929000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -5162,8 +5414,11 @@
       <c r="Z86" s="22">
         <v>-1.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:26">
+      <c r="AD86">
+        <v>1.2048000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -5210,8 +5465,11 @@
       <c r="Z87" s="22">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="88" spans="1:26">
+      <c r="AD87">
+        <v>1.2058</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -5258,8 +5516,11 @@
       <c r="Z88" s="22">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="89" spans="1:26">
+      <c r="AD88">
+        <v>1.1788000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -5306,8 +5567,11 @@
       <c r="Z89" s="22">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:26">
+      <c r="AD89">
+        <v>1.1435</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -5354,8 +5618,11 @@
       <c r="Z90" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:26">
+      <c r="AD90">
+        <v>1.1216999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -5402,8 +5669,11 @@
       <c r="Z91" s="22">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="92" spans="1:26">
+      <c r="AD91">
+        <v>1.0647</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -5450,8 +5720,11 @@
       <c r="Z92" s="22">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="93" spans="1:26">
+      <c r="AD92">
+        <v>1.0069999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -5498,8 +5771,11 @@
       <c r="Z93" s="22">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="94" spans="1:26">
+      <c r="AD93">
+        <v>1.0205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -5542,8 +5818,11 @@
       <c r="Z94" s="22">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="95" spans="1:26">
+      <c r="AD94">
+        <v>1.073</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -5586,8 +5865,11 @@
       <c r="Z95" s="22">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="96" spans="1:26">
+      <c r="AD95">
+        <v>1.0887</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -5627,8 +5909,11 @@
       <c r="Z96" s="22">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="97" spans="1:26">
+      <c r="AD96">
+        <v>1.0884</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -5657,592 +5942,595 @@
       <c r="Z97" s="22">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="98" spans="1:26">
+      <c r="AD97">
+        <v>1.0750999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D98" s="1"/>
       <c r="I98" s="20"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D99" s="1"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D100" s="1"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D101" s="1"/>
       <c r="I101" s="20"/>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D102" s="1"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D103" s="1"/>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D104" s="1"/>
       <c r="I104" s="20"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D105" s="1"/>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D106" s="1"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D107" s="1"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D108" s="1"/>
       <c r="I108" s="20"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.35">
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.35">
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.35">
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.35">
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="9:9">
+    <row r="113" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="9:9">
+    <row r="114" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="9:9">
+    <row r="115" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="9:9">
+    <row r="116" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="9:9">
+    <row r="117" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="9:9">
+    <row r="118" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="9:9">
+    <row r="119" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="9:9">
+    <row r="120" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="9:9">
+    <row r="121" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="9:9">
+    <row r="122" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="9:9">
+    <row r="123" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="9:9">
+    <row r="124" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="9:9">
+    <row r="125" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="9:9">
+    <row r="126" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="9:9">
+    <row r="127" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I127" s="20"/>
     </row>
-    <row r="128" spans="9:9">
+    <row r="128" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="9:9">
+    <row r="129" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="9:9">
+    <row r="130" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="9:9">
+    <row r="131" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="9:9">
+    <row r="132" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="9:9">
+    <row r="133" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="9:9">
+    <row r="134" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="9:9">
+    <row r="135" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="9:9">
+    <row r="136" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="9:9">
+    <row r="137" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I137" s="20"/>
     </row>
-    <row r="138" spans="9:9">
+    <row r="138" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="9:9">
+    <row r="139" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="9:9">
+    <row r="140" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="9:9">
+    <row r="141" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="9:9">
+    <row r="142" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="9:9">
+    <row r="143" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="9:9">
+    <row r="144" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="9:9">
+    <row r="145" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="9:9">
+    <row r="146" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="9:9">
+    <row r="147" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="9:9">
+    <row r="148" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="9:9">
+    <row r="149" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="9:9">
+    <row r="150" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="9:9">
+    <row r="151" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="9:9">
+    <row r="152" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="9:9">
+    <row r="153" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="9:9">
+    <row r="154" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="9:9">
+    <row r="155" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="9:9">
+    <row r="156" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="9:9">
+    <row r="157" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I157" s="20"/>
     </row>
-    <row r="158" spans="9:9">
+    <row r="158" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="9:9">
+    <row r="159" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="9:9">
+    <row r="160" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="9:9">
+    <row r="161" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="9:9">
+    <row r="162" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="9:9">
+    <row r="163" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="9:9">
+    <row r="164" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="9:9">
+    <row r="165" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="9:9">
+    <row r="166" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="9:9">
+    <row r="167" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="9:9">
+    <row r="168" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I168" s="20"/>
     </row>
-    <row r="169" spans="9:9">
+    <row r="169" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="9:9">
+    <row r="170" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="9:9">
+    <row r="171" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="9:9">
+    <row r="172" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="9:9">
+    <row r="173" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="9:9">
+    <row r="174" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="9:9">
+    <row r="175" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="9:9">
+    <row r="176" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="9:9">
+    <row r="177" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="9:9">
+    <row r="178" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="9:9">
+    <row r="179" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="9:9">
+    <row r="180" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="9:9">
+    <row r="181" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="9:9">
+    <row r="182" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="9:9">
+    <row r="183" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="9:9">
+    <row r="184" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="9:9">
+    <row r="185" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="9:9">
+    <row r="186" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="9:9">
+    <row r="187" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="9:9">
+    <row r="188" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="9:9">
+    <row r="189" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="9:9">
+    <row r="190" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="9:9">
+    <row r="191" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="9:9">
+    <row r="192" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="9:9">
+    <row r="193" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I193" s="20"/>
     </row>
-    <row r="194" spans="9:9">
+    <row r="194" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="9:9">
+    <row r="195" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I195" s="20"/>
     </row>
-    <row r="196" spans="9:9">
+    <row r="196" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I196" s="20"/>
     </row>
-    <row r="197" spans="9:9">
+    <row r="197" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="9:9">
+    <row r="198" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I198" s="20"/>
     </row>
-    <row r="199" spans="9:9">
+    <row r="199" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="9:9">
+    <row r="200" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="9:9">
+    <row r="201" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="9:9">
+    <row r="202" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="9:9">
+    <row r="203" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="9:9">
+    <row r="204" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="9:9">
+    <row r="205" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="9:9">
+    <row r="206" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="9:9">
+    <row r="207" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="9:9">
+    <row r="208" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I208" s="20"/>
     </row>
-    <row r="209" spans="9:9">
+    <row r="209" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="9:9">
+    <row r="210" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="9:9">
+    <row r="211" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="9:9">
+    <row r="212" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="9:9">
+    <row r="213" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="9:9">
+    <row r="214" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="9:9">
+    <row r="215" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="9:9">
+    <row r="216" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="9:9">
+    <row r="217" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="9:9">
+    <row r="218" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="9:9">
+    <row r="219" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="9:9">
+    <row r="220" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="9:9">
+    <row r="221" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="9:9">
+    <row r="222" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="9:9">
+    <row r="223" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="9:9">
+    <row r="224" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="9:9">
+    <row r="225" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="9:9">
+    <row r="226" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="9:9">
+    <row r="227" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="9:9">
+    <row r="228" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="9:9">
+    <row r="229" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="9:9">
+    <row r="230" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="9:9">
+    <row r="231" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="9:9">
+    <row r="232" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="9:9">
+    <row r="233" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="9:9">
+    <row r="234" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="9:9">
+    <row r="235" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="9:9">
+    <row r="236" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="9:9">
+    <row r="237" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="9:9">
+    <row r="238" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="9:9">
+    <row r="239" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="9:9">
+    <row r="240" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="9:9">
+    <row r="241" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="9:9">
+    <row r="242" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="9:9">
+    <row r="243" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="9:9">
+    <row r="244" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="9:9">
+    <row r="245" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="9:9">
+    <row r="246" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="9:9">
+    <row r="247" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="9:9">
+    <row r="248" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="9:9">
+    <row r="249" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="9:9">
+    <row r="250" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="9:9">
+    <row r="251" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="9:9">
+    <row r="252" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I252" s="20"/>
     </row>
-    <row r="253" spans="9:9">
+    <row r="253" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="9:9">
+    <row r="254" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="9:9">
+    <row r="255" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="9:9">
+    <row r="256" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="9:9">
+    <row r="257" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="9:9">
+    <row r="258" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I258" s="20"/>
     </row>
-    <row r="259" spans="9:9">
+    <row r="259" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="9:9">
+    <row r="260" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="9:9">
+    <row r="261" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="9:9">
+    <row r="262" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="9:9">
+    <row r="263" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="9:9">
+    <row r="264" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="9:9">
+    <row r="265" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="9:9">
+    <row r="266" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="9:9">
+    <row r="267" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="9:9">
+    <row r="268" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="9:9">
+    <row r="269" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="9:9">
+    <row r="270" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="9:9">
+    <row r="271" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="9:9">
+    <row r="272" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="9:9">
+    <row r="273" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="9:9">
+    <row r="274" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="9:9">
+    <row r="275" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="9:9">
+    <row r="276" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="9:9">
+    <row r="277" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I277" s="20"/>
     </row>
-    <row r="278" spans="9:9">
+    <row r="278" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="9:9">
+    <row r="279" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="9:9">
+    <row r="280" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="9:9">
+    <row r="281" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="9:9">
+    <row r="282" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="9:9">
+    <row r="283" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="9:9">
+    <row r="284" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="9:9">
+    <row r="285" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="9:9">
+    <row r="286" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="9:9">
+    <row r="287" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="9:9">
+    <row r="288" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="9:9">
+    <row r="289" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I289" s="20"/>
     </row>
   </sheetData>
@@ -6261,17 +6549,17 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.85546875" customWidth="1"/>
-    <col min="13" max="13" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.81640625" customWidth="1"/>
+    <col min="13" max="13" width="45.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:47">
+    <row r="1" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>18</v>
       </c>
@@ -6297,7 +6585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="3:47">
+    <row r="2" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2:D24">TRANSPOSE(Y2:AU3)</f>
         <v>2001</v>
@@ -6403,7 +6691,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="3:47">
+    <row r="3" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C3" t="str">
         <v>2002</v>
       </c>
@@ -6508,7 +6796,7 @@
         <v>44368658</v>
       </c>
     </row>
-    <row r="4" spans="3:47">
+    <row r="4" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C4" t="str">
         <v>2003</v>
       </c>
@@ -6538,7 +6826,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="3:47">
+    <row r="5" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C5" t="str">
         <v>2004</v>
       </c>
@@ -6565,7 +6853,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="6" spans="3:47">
+    <row r="6" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C6" t="str">
         <v>2005</v>
       </c>
@@ -6592,7 +6880,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="7" spans="3:47">
+    <row r="7" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C7" t="str">
         <v>2006</v>
       </c>
@@ -6621,7 +6909,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="3:47">
+    <row r="8" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C8" t="str">
         <v>2007</v>
       </c>
@@ -6642,7 +6930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:47">
+    <row r="9" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C9" t="str">
         <v>2008</v>
       </c>
@@ -6666,7 +6954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:47">
+    <row r="10" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C10" t="str">
         <v>2009</v>
       </c>
@@ -6680,7 +6968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:47">
+    <row r="11" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C11" t="str">
         <v>2010</v>
       </c>
@@ -6694,7 +6982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="3:47">
+    <row r="12" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C12" t="str">
         <v>2011</v>
       </c>
@@ -6711,7 +6999,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="3:47">
+    <row r="13" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C13" t="str">
         <v>2012</v>
       </c>
@@ -6719,7 +7007,7 @@
         <v>41853628</v>
       </c>
     </row>
-    <row r="14" spans="3:47">
+    <row r="14" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C14" t="str">
         <v>2013</v>
       </c>
@@ -6727,7 +7015,7 @@
         <v>42212988</v>
       </c>
     </row>
-    <row r="15" spans="3:47">
+    <row r="15" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
         <v>2014</v>
       </c>
@@ -6735,7 +7023,7 @@
         <v>42458390</v>
       </c>
     </row>
-    <row r="16" spans="3:47">
+    <row r="16" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C16" t="str">
         <v>2015</v>
       </c>
@@ -6743,7 +7031,7 @@
         <v>42660629</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C17" t="str">
         <v>2016</v>
       </c>
@@ -6751,7 +7039,7 @@
         <v>43567225</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C18" t="str">
         <v>2017</v>
       </c>
@@ -6759,7 +7047,7 @@
         <v>43819028</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C19" t="str">
         <v>2018</v>
       </c>
@@ -6767,7 +7055,7 @@
         <v>43935038</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C20" t="str">
         <v>2019</v>
       </c>
@@ -6775,7 +7063,7 @@
         <v>44433744</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" t="str">
         <v>2020</v>
       </c>
@@ -6783,7 +7071,7 @@
         <v>43501190</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C22" t="str">
         <v>2021</v>
       </c>
@@ -6791,7 +7079,7 @@
         <v>43386527</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C23" t="str">
         <v>2022</v>
       </c>
@@ -6799,7 +7087,7 @@
         <v>44198105</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C24" t="str">
         <v>2023</v>
       </c>
@@ -6826,14 +7114,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2009</v>
       </c>
@@ -6841,92 +7129,92 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -6944,22 +7232,22 @@
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>90</v>
       </c>
@@ -7015,7 +7303,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C2" s="4">
         <v>36526</v>
       </c>
@@ -7055,7 +7343,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="3" spans="2:19">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C3" s="4">
         <v>36892</v>
       </c>
@@ -7095,7 +7383,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C4" s="4">
         <v>37257</v>
       </c>
@@ -7135,7 +7423,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C5" s="4">
         <v>37622</v>
       </c>
@@ -7175,7 +7463,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C6" s="4">
         <v>37987</v>
       </c>
@@ -7215,7 +7503,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C7" s="4">
         <v>38353</v>
       </c>
@@ -7243,7 +7531,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C8" s="4">
         <v>38718</v>
       </c>
@@ -7271,7 +7559,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="9" spans="2:19">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C9" s="4">
         <v>39083</v>
       </c>
@@ -7299,7 +7587,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="10" spans="2:19">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C10" s="4">
         <v>39448</v>
       </c>
@@ -7327,7 +7615,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:19">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C11" s="4">
         <v>39814</v>
       </c>
@@ -7355,7 +7643,7 @@
         <v>-6.2</v>
       </c>
     </row>
-    <row r="12" spans="2:19">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C12" s="4">
         <v>40179</v>
       </c>
@@ -7383,7 +7671,7 @@
         <v>-6.3</v>
       </c>
     </row>
-    <row r="13" spans="2:19">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C13" s="4">
         <v>40544</v>
       </c>
@@ -7411,7 +7699,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C14" s="4">
         <v>40909</v>
       </c>
@@ -7439,7 +7727,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="4">
         <v>41275</v>
       </c>
@@ -7467,7 +7755,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C16" s="4">
         <v>41640</v>
       </c>
@@ -7495,7 +7783,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="17" spans="3:19">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C17" s="4">
         <v>42005</v>
       </c>
@@ -7523,7 +7811,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="3:19">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C18" s="4">
         <v>42370</v>
       </c>
@@ -7551,7 +7839,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="19" spans="3:19">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C19" s="4">
         <v>42736</v>
       </c>
@@ -7579,7 +7867,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="20" spans="3:19">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C20" s="4">
         <v>43101</v>
       </c>
@@ -7607,7 +7895,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="21" spans="3:19">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C21" s="4">
         <v>43466</v>
       </c>
@@ -7635,7 +7923,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="22" spans="3:19">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C22" s="4">
         <v>43831</v>
       </c>
@@ -7663,7 +7951,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="23" spans="3:19">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C23" s="4">
         <v>44197</v>
       </c>
@@ -7691,7 +7979,7 @@
         <v>-5.2</v>
       </c>
     </row>
-    <row r="24" spans="3:19">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C24" s="4">
         <v>44562</v>
       </c>
@@ -7719,7 +8007,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="25" spans="3:19">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C25" s="4">
         <v>44927</v>
       </c>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="870" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31EC7EB7-B727-47D8-9FAF-39085D093862}"/>
+  <xr:revisionPtr revIDLastSave="872" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F6CADAA-32CB-4619-82EF-C49F4F83C115}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,9 @@
   <commentList>
     <comment ref="I2" authorId="0" shapeId="0" xr:uid="{4B42F164-681C-4A58-84D1-0574D84188C8}">
       <text>
-        <t xml:space="preserve">[Trådet kommentar]
-Din version af Excel lader dig læse denne trådede kommentar. Eventuelle ændringer vil dog blive fjernet, hvis filen åbnes i en nyere version af Excel. Få mere at vide: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
 How is your company developing in relation to the lack of new recruits and skilled workers? 
 </t>
       </text>
@@ -391,7 +391,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,31 +933,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="60" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" customWidth="1"/>
-    <col min="5" max="5" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.26953125" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="84.81640625" customWidth="1"/>
+    <col min="11" max="11" width="84.85546875" customWidth="1"/>
     <col min="12" max="12" width="79" customWidth="1"/>
-    <col min="13" max="13" width="49.7265625" customWidth="1"/>
+    <col min="13" max="13" width="49.7109375" customWidth="1"/>
     <col min="14" max="14" width="79" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" customWidth="1"/>
-    <col min="16" max="16" width="14.1796875" customWidth="1"/>
-    <col min="30" max="30" width="23.7265625" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="30" max="30" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>0.98650000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>0.93320000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>0.9052</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>0.86829999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>0.92320000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>0.87250000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>0.89029999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>0.89590000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>0.87660000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>0.91879999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>0.98380000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>0.99939999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>1.0730999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>1.1372</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>1.1248</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>1.1890000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>1.2497</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>1.2045999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>1.222</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>1.2977000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>1.3132999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>1.2594000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>1.2199</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>1.1883999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>1.2022999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>1.2582</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>1.2743</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>1.2887</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>1.3106</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>1.3481000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>1.3737999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>1.4486000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>1.4976</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>1.5622</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>1.5049999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>1.3180000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>1.3028999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>1.3632</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>1.4302999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>1.4779</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>1.3829</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>1.2707999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>1.2909999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>1.3583000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>1.3680000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>1.4391</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>1.4127000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>1.3482000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>1.3108</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>1.2814000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>1.2502</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>1.2967</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>1.3206</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>1.3062</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>1.3242</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>1.361</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>1.3695999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>1.3711</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>1.3255999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>1.2498</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>1.1261000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>1.1052999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>1.1116999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:30">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>1.0952999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:30">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:30">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>1.1292</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:30">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>1.1166</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:30">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>1.0789</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:30">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>1.0648</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:30">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>1.1021000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:30">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>1.1746000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:30">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>1.1774</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:30">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>1.2292000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:30">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>1.1915</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:30">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>1.1629</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:30">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>1.1414</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:30">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>1.1357999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:30">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>1.1236999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:30">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>1.1119000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:30">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>1.1071</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:30">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>1.1027</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:30">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>1.1013999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:30">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>1.1689000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:30">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>1.1929000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:30">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>1.2048000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:30">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>1.2058</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:30">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>1.1788000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:30">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>1.1435</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:30">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>1.1216999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:30">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>1.0647</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:30">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>1.0069999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:30">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>1.0205</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:30">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>1.073</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:30">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>1.0887</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:30">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>1.0884</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:30">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -5946,591 +5946,591 @@
         <v>1.0750999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:30">
       <c r="D98" s="1"/>
       <c r="I98" s="20"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:30">
       <c r="D99" s="1"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:30">
       <c r="D100" s="1"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:30">
       <c r="D101" s="1"/>
       <c r="I101" s="20"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:30">
       <c r="D102" s="1"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:30">
       <c r="D103" s="1"/>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:30">
       <c r="D104" s="1"/>
       <c r="I104" s="20"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:30">
       <c r="D105" s="1"/>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:30">
       <c r="D106" s="1"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:30">
       <c r="D107" s="1"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:30">
       <c r="D108" s="1"/>
       <c r="I108" s="20"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:30">
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:30">
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:30">
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:30">
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="9:9">
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="9:9">
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="9:9">
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="9:9">
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="9:9">
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="9:9">
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="9:9">
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="9:9">
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="9:9">
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="9:9">
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="9:9">
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="9:9">
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="9:9">
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="9:9">
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="9:9">
       <c r="I127" s="20"/>
     </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="9:9">
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="9:9">
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="9:9">
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="9:9">
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="9:9">
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="9:9">
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="9:9">
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="9:9">
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="9:9">
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="9:9">
       <c r="I137" s="20"/>
     </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="9:9">
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="9:9">
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="9:9">
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="9:9">
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="9:9">
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="9:9">
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="9:9">
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="9:9">
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="9:9">
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="9:9">
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="9:9">
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="9:9">
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="9:9">
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="9:9">
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="9:9">
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="9:9">
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="9:9">
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="9:9">
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="9:9">
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="9:9">
       <c r="I157" s="20"/>
     </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="9:9">
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="9:9">
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="9:9">
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="9:9">
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="9:9">
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="9:9">
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="9:9">
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="9:9">
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="9:9">
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="9:9">
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="9:9">
       <c r="I168" s="20"/>
     </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="9:9">
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="9:9">
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="9:9">
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="9:9">
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="9:9">
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="9:9">
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="9:9">
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="9:9">
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="9:9">
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="9:9">
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="9:9">
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="9:9">
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="9:9">
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="9:9">
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="9:9">
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="9:9">
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="9:9">
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="9:9">
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="9:9">
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="9:9">
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="9:9">
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="9:9">
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="9:9">
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="9:9">
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="9:9">
       <c r="I193" s="20"/>
     </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="9:9">
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="9:9">
       <c r="I195" s="20"/>
     </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="9:9">
       <c r="I196" s="20"/>
     </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="9:9">
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="9:9">
       <c r="I198" s="20"/>
     </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="9:9">
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="9:9">
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="9:9">
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="9:9">
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="9:9">
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="9:9">
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="9:9">
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="9:9">
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="9:9">
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="9:9">
       <c r="I208" s="20"/>
     </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="9:9">
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="9:9">
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="9:9">
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="9:9">
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="9:9">
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="9:9">
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="9:9">
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="9:9">
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="9:9">
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="9:9">
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="9:9">
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="9:9">
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="9:9">
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="9:9">
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="9:9">
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="9:9">
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="9:9">
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="9:9">
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="9:9">
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="9:9">
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="9:9">
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="9:9">
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="9:9">
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="9:9">
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="9:9">
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="9:9">
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="9:9">
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="9:9">
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="9:9">
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="9:9">
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="9:9">
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="9:9">
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="9:9">
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="9:9">
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="9:9">
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="9:9">
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="9:9">
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="9:9">
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="9:9">
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="9:9">
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="9:9">
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="9:9">
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="9:9">
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="9:9">
       <c r="I252" s="20"/>
     </row>
-    <row r="253" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="9:9">
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="9:9">
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="9:9">
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="9:9">
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="9:9">
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="9:9">
       <c r="I258" s="20"/>
     </row>
-    <row r="259" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="9:9">
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="9:9">
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="9:9">
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="9:9">
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="9:9">
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="9:9">
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="9:9">
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="9:9">
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="9:9">
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="9:9">
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="9:9">
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="9:9">
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="9:9">
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="9:9">
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="9:9">
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="9:9">
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="9:9">
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="9:9">
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="9:9">
       <c r="I277" s="20"/>
     </row>
-    <row r="278" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="9:9">
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="9:9">
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="9:9">
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="9:9">
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="9:9">
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="9:9">
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="9:9">
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="9:9">
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="9:9">
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="9:9">
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="9:9">
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="9:9">
       <c r="I289" s="20"/>
     </row>
   </sheetData>
@@ -6549,17 +6549,17 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.81640625" customWidth="1"/>
-    <col min="13" max="13" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.85546875" customWidth="1"/>
+    <col min="13" max="13" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:47">
       <c r="C1" t="s">
         <v>18</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:47">
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2:D24">TRANSPOSE(Y2:AU3)</f>
         <v>2001</v>
@@ -6691,7 +6691,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:47">
       <c r="C3" t="str">
         <v>2002</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>44368658</v>
       </c>
     </row>
-    <row r="4" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:47">
       <c r="C4" t="str">
         <v>2003</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:47">
       <c r="C5" t="str">
         <v>2004</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="6" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:47">
       <c r="C6" t="str">
         <v>2005</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="7" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:47">
       <c r="C7" t="str">
         <v>2006</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:47">
       <c r="C8" t="str">
         <v>2007</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:47">
       <c r="C9" t="str">
         <v>2008</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:47">
       <c r="C10" t="str">
         <v>2009</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:47">
       <c r="C11" t="str">
         <v>2010</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:47">
       <c r="C12" t="str">
         <v>2011</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:47">
       <c r="C13" t="str">
         <v>2012</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>41853628</v>
       </c>
     </row>
-    <row r="14" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:47">
       <c r="C14" t="str">
         <v>2013</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>42212988</v>
       </c>
     </row>
-    <row r="15" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:47">
       <c r="C15" t="str">
         <v>2014</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>42458390</v>
       </c>
     </row>
-    <row r="16" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:47">
       <c r="C16" t="str">
         <v>2015</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>42660629</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:4">
       <c r="C17" t="str">
         <v>2016</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>43567225</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:4">
       <c r="C18" t="str">
         <v>2017</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>43819028</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:4">
       <c r="C19" t="str">
         <v>2018</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>43935038</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:4">
       <c r="C20" t="str">
         <v>2019</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>44433744</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:4">
       <c r="C21" t="str">
         <v>2020</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>43501190</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:4">
       <c r="C22" t="str">
         <v>2021</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>43386527</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:4">
       <c r="C23" t="str">
         <v>2022</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>44198105</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:4">
       <c r="C24" t="str">
         <v>2023</v>
       </c>
@@ -7114,14 +7114,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2009</v>
       </c>
@@ -7129,92 +7129,92 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -7232,22 +7232,22 @@
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:19">
       <c r="B1" t="s">
         <v>90</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19">
       <c r="C2" s="4">
         <v>36526</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19">
       <c r="C3" s="4">
         <v>36892</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19">
       <c r="C4" s="4">
         <v>37257</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19">
       <c r="C5" s="4">
         <v>37622</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19">
       <c r="C6" s="4">
         <v>37987</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19">
       <c r="C7" s="4">
         <v>38353</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19">
       <c r="C8" s="4">
         <v>38718</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19">
       <c r="C9" s="4">
         <v>39083</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19">
       <c r="C10" s="4">
         <v>39448</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19">
       <c r="C11" s="4">
         <v>39814</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>-6.2</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19">
       <c r="C12" s="4">
         <v>40179</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>-6.3</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19">
       <c r="C13" s="4">
         <v>40544</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19">
       <c r="C14" s="4">
         <v>40909</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19">
       <c r="C15" s="4">
         <v>41275</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19">
       <c r="C16" s="4">
         <v>41640</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:19">
       <c r="C17" s="4">
         <v>42005</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:19">
       <c r="C18" s="4">
         <v>42370</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:19">
       <c r="C19" s="4">
         <v>42736</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:19">
       <c r="C20" s="4">
         <v>43101</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:19">
       <c r="C21" s="4">
         <v>43466</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:19">
       <c r="C22" s="4">
         <v>43831</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:19">
       <c r="C23" s="4">
         <v>44197</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>-5.2</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:19">
       <c r="C24" s="4">
         <v>44562</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:19">
       <c r="C25" s="4">
         <v>44927</v>
       </c>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicla\Desktop\UNI\R-Studio\Projekt Eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465BCBCA-0A0D-43B5-AF41-BFF0F6465CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C6B261-3B8D-48AC-B9F6-F651ED7810EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="196">
   <si>
     <t>Date</t>
   </si>
@@ -668,6 +668,12 @@
   </si>
   <si>
     <t>Real GDP percent year ago</t>
+  </si>
+  <si>
+    <t>USA real gdp percent year ago</t>
+  </si>
+  <si>
+    <t>New eurozone gdp year ago</t>
   </si>
 </sst>
 </file>
@@ -716,11 +722,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -806,7 +813,7 @@
       <sheetName val="Metadata - Indicators"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="42">
           <cell r="BS42">
             <v>8.4900934036516134</v>
@@ -879,8 +886,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1219,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB289"/>
+  <dimension ref="A1:AL289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P73" zoomScale="60" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1252,7 @@
     <col min="17" max="17" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1300,8 +1307,14 @@
       <c r="AB1" s="15" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1355,8 +1368,14 @@
       <c r="AB2" s="22">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG2" s="19">
+        <v>6.2740900000000002</v>
+      </c>
+      <c r="AL2" s="19">
+        <v>4.1474700000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1409,8 +1428,14 @@
       <c r="AB3" s="22">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG3" s="19">
+        <v>7.57395</v>
+      </c>
+      <c r="AL3" s="19">
+        <v>4.52576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1463,8 +1488,14 @@
       <c r="AB4" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG4" s="19">
+        <v>6.5197000000000003</v>
+      </c>
+      <c r="AL4" s="19">
+        <v>3.8984800000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1517,8 +1548,14 @@
       <c r="AB5" s="22">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG5" s="19">
+        <v>5.4097600000000003</v>
+      </c>
+      <c r="AL5" s="19">
+        <v>3.39933</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1571,8 +1608,14 @@
       <c r="AB6" s="22">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG6" s="19">
+        <v>4.6795</v>
+      </c>
+      <c r="AL6" s="19">
+        <v>3.1422099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1625,8 +1668,14 @@
       <c r="AB7" s="22">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG7" s="19">
+        <v>3.42788</v>
+      </c>
+      <c r="AL7" s="19">
+        <v>2.3575400000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1679,8 +1728,14 @@
       <c r="AB8" s="22">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG8" s="19">
+        <v>2.7122600000000001</v>
+      </c>
+      <c r="AL8" s="19">
+        <v>1.8908199999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1733,8 +1788,14 @@
       <c r="AB9" s="22">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG9" s="19">
+        <v>2.1533799999999998</v>
+      </c>
+      <c r="AL9" s="19">
+        <v>1.2706999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1787,8 +1848,14 @@
       <c r="AB10" s="22">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG10" s="19">
+        <v>2.992</v>
+      </c>
+      <c r="AL10" s="19">
+        <v>0.44677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1841,8 +1908,14 @@
       <c r="AB11" s="22">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG11" s="19">
+        <v>2.7215799999999999</v>
+      </c>
+      <c r="AL11" s="19">
+        <v>0.85494999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1895,8 +1968,14 @@
       <c r="AB12" s="22">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG12" s="19">
+        <v>3.6423800000000002</v>
+      </c>
+      <c r="AL12" s="19">
+        <v>1.1259999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1949,8 +2028,14 @@
       <c r="AB13" s="22">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG13" s="19">
+        <v>3.76126</v>
+      </c>
+      <c r="AL13" s="19">
+        <v>1.2677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -2003,8 +2088,14 @@
       <c r="AB14" s="22">
         <v>-0.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG14" s="19">
+        <v>3.6224699999999999</v>
+      </c>
+      <c r="AL14" s="19">
+        <v>0.79864999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -2057,8 +2148,14 @@
       <c r="AB15" s="22">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG15" s="19">
+        <v>3.90638</v>
+      </c>
+      <c r="AL15" s="19">
+        <v>0.35824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -2111,8 +2208,14 @@
       <c r="AB16" s="22">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG16" s="19">
+        <v>5.3043199999999997</v>
+      </c>
+      <c r="AL16" s="19">
+        <v>0.53230999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -2165,8 +2268,14 @@
       <c r="AB17" s="22">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG17" s="19">
+        <v>6.4259399999999998</v>
+      </c>
+      <c r="AL17" s="19">
+        <v>1.0507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -2219,8 +2328,14 @@
       <c r="AB18" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG18" s="19">
+        <v>6.7058299999999997</v>
+      </c>
+      <c r="AL18" s="19">
+        <v>1.88202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -2273,8 +2388,14 @@
       <c r="AB19" s="22">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG19" s="19">
+        <v>7.0720900000000002</v>
+      </c>
+      <c r="AL19" s="19">
+        <v>2.4150800000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -2327,8 +2448,14 @@
       <c r="AB20" s="22">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG20" s="19">
+        <v>6.3859199999999996</v>
+      </c>
+      <c r="AL20" s="19">
+        <v>2.06073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -2381,8 +2508,14 @@
       <c r="AB21" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG21" s="19">
+        <v>6.4132300000000004</v>
+      </c>
+      <c r="AL21" s="19">
+        <v>1.7378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -2435,8 +2568,14 @@
       <c r="AB22" s="22">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG22" s="19">
+        <v>7.07714</v>
+      </c>
+      <c r="AL22" s="19">
+        <v>1.44032</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -2489,8 +2628,14 @@
       <c r="AB23" s="22">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG23" s="19">
+        <v>6.6858199999999997</v>
+      </c>
+      <c r="AL23" s="19">
+        <v>1.44268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -2543,8 +2688,14 @@
       <c r="AB24" s="22">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG24" s="19">
+        <v>6.8046699999999998</v>
+      </c>
+      <c r="AL24" s="19">
+        <v>1.9865600000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -2594,8 +2745,14 @@
       <c r="AB25" s="22">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG25" s="19">
+        <v>6.3620700000000001</v>
+      </c>
+      <c r="AL25" s="19">
+        <v>2.2399800000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -2645,8 +2802,14 @@
       <c r="AB26" s="22">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG26" s="19">
+        <v>6.5156700000000001</v>
+      </c>
+      <c r="AL26" s="19">
+        <v>2.89249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -2696,8 +2859,14 @@
       <c r="AB27" s="22">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG27" s="19">
+        <v>6.4287700000000001</v>
+      </c>
+      <c r="AL27" s="19">
+        <v>3.4123299999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -2747,8 +2916,14 @@
       <c r="AB28" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG28" s="19">
+        <v>5.5357700000000003</v>
+      </c>
+      <c r="AL28" s="19">
+        <v>3.24783</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -2798,8 +2973,14 @@
       <c r="AB29" s="22">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG29" s="19">
+        <v>5.3688500000000001</v>
+      </c>
+      <c r="AL29" s="19">
+        <v>3.7986</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -2849,8 +3030,14 @@
       <c r="AB30" s="22">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG30" s="19">
+        <v>4.5332999999999997</v>
+      </c>
+      <c r="AL30" s="19">
+        <v>3.53423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -2900,8 +3087,14 @@
       <c r="AB31" s="22">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG31" s="19">
+        <v>4.7163399999999998</v>
+      </c>
+      <c r="AL31" s="19">
+        <v>3.1249099999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -2951,8 +3144,14 @@
       <c r="AB32" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG32" s="19">
+        <v>5.0030299999999999</v>
+      </c>
+      <c r="AL32" s="19">
+        <v>2.9405600000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -3002,8 +3201,14 @@
       <c r="AB33" s="22">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG33" s="19">
+        <v>4.8113900000000003</v>
+      </c>
+      <c r="AL33" s="19">
+        <v>2.3016100000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -3053,8 +3258,14 @@
       <c r="AB34" s="22">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG34" s="19">
+        <v>3.4531399999999999</v>
+      </c>
+      <c r="AL34" s="19">
+        <v>2.2141199999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -3104,8 +3315,14 @@
       <c r="AB35" s="22">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG35" s="19">
+        <v>3.2191100000000001</v>
+      </c>
+      <c r="AL35" s="19">
+        <v>1.1126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -3155,8 +3372,14 @@
       <c r="AB36" s="22">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG36" s="19">
+        <v>2.2993600000000001</v>
+      </c>
+      <c r="AL36" s="19">
+        <v>0.16799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -3206,8 +3429,14 @@
       <c r="AB37" s="22">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG37" s="19">
+        <v>-0.72611999999999999</v>
+      </c>
+      <c r="AL37" s="19">
+        <v>-2.16161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -3257,8 +3486,14 @@
       <c r="AB38" s="22">
         <v>-7</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG38" s="19">
+        <v>-1.8742399999999999</v>
+      </c>
+      <c r="AL38" s="19">
+        <v>-5.6689999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -3308,8 +3543,14 @@
       <c r="AB39" s="22">
         <v>-6.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG39" s="19">
+        <v>-3.2589399999999999</v>
+      </c>
+      <c r="AL39" s="19">
+        <v>-5.3666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -3359,8 +3600,14 @@
       <c r="AB40" s="22">
         <v>-5.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG40" s="19">
+        <v>-3.0211199999999998</v>
+      </c>
+      <c r="AL40" s="19">
+        <v>-4.5208000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -3410,8 +3657,14 @@
       <c r="AB41" s="22">
         <v>-3.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG41" s="19">
+        <v>0.29463</v>
+      </c>
+      <c r="AL41" s="19">
+        <v>-2.29705</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -3461,8 +3714,14 @@
       <c r="AB42" s="22">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG42" s="19">
+        <v>2.3124500000000001</v>
+      </c>
+      <c r="AL42" s="19">
+        <v>1.2193000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -3512,8 +3771,14 @@
       <c r="AB43" s="22">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG43" s="19">
+        <v>4.1648500000000004</v>
+      </c>
+      <c r="AL43" s="19">
+        <v>2.2413599999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -3563,8 +3828,14 @@
       <c r="AB44" s="22">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG44" s="19">
+        <v>4.7943199999999999</v>
+      </c>
+      <c r="AL44" s="19">
+        <v>2.2931499999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -3614,8 +3885,14 @@
       <c r="AB45" s="22">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG45" s="19">
+        <v>4.4926199999999996</v>
+      </c>
+      <c r="AL45" s="19">
+        <v>2.4236800000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -3665,8 +3942,14 @@
       <c r="AB46" s="22">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG46" s="19">
+        <v>3.9746299999999999</v>
+      </c>
+      <c r="AL46" s="19">
+        <v>2.9020999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -3716,8 +3999,14 @@
       <c r="AB47" s="22">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG47" s="19">
+        <v>3.85406</v>
+      </c>
+      <c r="AL47" s="19">
+        <v>1.9206099999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -3767,8 +4056,14 @@
       <c r="AB48" s="22">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG48" s="19">
+        <v>3.3422700000000001</v>
+      </c>
+      <c r="AL48" s="19">
+        <v>1.61083</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -3818,8 +4113,14 @@
       <c r="AB49" s="22">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG49" s="19">
+        <v>3.4801000000000002</v>
+      </c>
+      <c r="AL49" s="19">
+        <v>0.59114999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -3869,8 +4170,14 @@
       <c r="AB50" s="22">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG50" s="19">
+        <v>4.6728899999999998</v>
+      </c>
+      <c r="AL50" s="19">
+        <v>-0.50846000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -3920,8 +4227,14 @@
       <c r="AB51" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG51" s="19">
+        <v>4.1753099999999996</v>
+      </c>
+      <c r="AL51" s="19">
+        <v>-0.74114999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -3971,8 +4284,14 @@
       <c r="AB52" s="22">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG52" s="19">
+        <v>4.2936800000000002</v>
+      </c>
+      <c r="AL52" s="19">
+        <v>-0.98841000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -4022,8 +4341,14 @@
       <c r="AB53" s="22">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG53" s="19">
+        <v>3.6494800000000001</v>
+      </c>
+      <c r="AL53" s="19">
+        <v>-1.03331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -4073,8 +4398,14 @@
       <c r="AB54" s="22">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG54" s="19">
+        <v>3.6056400000000002</v>
+      </c>
+      <c r="AL54" s="19">
+        <v>-1.1425399999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -4124,8 +4455,14 @@
       <c r="AB55" s="22">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG55" s="19">
+        <v>3.2181700000000002</v>
+      </c>
+      <c r="AL55" s="19">
+        <v>-0.36671999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -4175,8 +4512,14 @@
       <c r="AB56" s="22">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG56" s="19">
+        <v>3.88673</v>
+      </c>
+      <c r="AL56" s="19">
+        <v>4.4069999999999998E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -4226,8 +4569,14 @@
       <c r="AB57" s="22">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG57" s="19">
+        <v>4.6990299999999996</v>
+      </c>
+      <c r="AL57" s="19">
+        <v>0.80179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -4277,8 +4626,14 @@
       <c r="AB58" s="22">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG58" s="19">
+        <v>3.3009499999999998</v>
+      </c>
+      <c r="AL58" s="19">
+        <v>1.5624499999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -4328,8 +4683,14 @@
       <c r="AB59" s="22">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG59" s="19">
+        <v>4.7213599999999998</v>
+      </c>
+      <c r="AL59" s="19">
+        <v>1.21675</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -4379,8 +4740,14 @@
       <c r="AB60" s="22">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG60" s="19">
+        <v>5.0159099999999999</v>
+      </c>
+      <c r="AL60" s="19">
+        <v>1.38689</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -4430,8 +4797,14 @@
       <c r="AB61" s="22">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG61" s="19">
+        <v>4.1883400000000002</v>
+      </c>
+      <c r="AL61" s="19">
+        <v>1.44164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -4481,8 +4854,14 @@
       <c r="AB62" s="22">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG62" s="19">
+        <v>5.0343299999999997</v>
+      </c>
+      <c r="AL62" s="19">
+        <v>1.6823399999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -4532,8 +4911,14 @@
       <c r="AB63" s="22">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG63" s="19">
+        <v>4.3455500000000002</v>
+      </c>
+      <c r="AL63" s="19">
+        <v>1.9527600000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -4583,8 +4968,14 @@
       <c r="AB64" s="22">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG64" s="19">
+        <v>3.3553700000000002</v>
+      </c>
+      <c r="AL64" s="19">
+        <v>1.86185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -4634,8 +5025,14 @@
       <c r="AB65" s="22">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG65" s="19">
+        <v>2.92014</v>
+      </c>
+      <c r="AL65" s="19">
+        <v>1.9722</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -4685,8 +5082,14 @@
       <c r="AB66" s="22">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG66" s="19">
+        <v>2.5598800000000002</v>
+      </c>
+      <c r="AL66" s="19">
+        <v>1.9079200000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -4736,8 +5139,14 @@
       <c r="AB67" s="22">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG67" s="19">
+        <v>2.3628200000000001</v>
+      </c>
+      <c r="AL67" s="19">
+        <v>1.64751</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -4787,8 +5196,14 @@
       <c r="AB68" s="22">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG68" s="19">
+        <v>2.66831</v>
+      </c>
+      <c r="AL68" s="19">
+        <v>1.74715</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -4838,8 +5253,14 @@
       <c r="AB69" s="22">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG69" s="19">
+        <v>3.5488900000000001</v>
+      </c>
+      <c r="AL69" s="19">
+        <v>2.0683099999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -4889,8 +5310,14 @@
       <c r="AB70" s="22">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG70" s="19">
+        <v>4.0707899999999997</v>
+      </c>
+      <c r="AL70" s="19">
+        <v>2.19259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -4940,8 +5367,14 @@
       <c r="AB71" s="22">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG71" s="19">
+        <v>3.8849499999999999</v>
+      </c>
+      <c r="AL71" s="19">
+        <v>2.77847</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -4991,8 +5424,14 @@
       <c r="AB72" s="22">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG72" s="19">
+        <v>4.2342199999999997</v>
+      </c>
+      <c r="AL72" s="19">
+        <v>3.0539200000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -5042,8 +5481,14 @@
       <c r="AB73" s="22">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG73" s="19">
+        <v>4.9645900000000003</v>
+      </c>
+      <c r="AL73" s="19">
+        <v>3.0716999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -5093,8 +5538,14 @@
       <c r="AB74" s="22">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG74" s="19">
+        <v>5.4380899999999999</v>
+      </c>
+      <c r="AL74" s="19">
+        <v>2.3593099999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -5144,8 +5595,14 @@
       <c r="AB75" s="22">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG75" s="19">
+        <v>5.8762800000000004</v>
+      </c>
+      <c r="AL75" s="19">
+        <v>2.11775</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -5195,8 +5652,14 @@
       <c r="AB76" s="22">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG76" s="19">
+        <v>5.6170099999999996</v>
+      </c>
+      <c r="AL76" s="19">
+        <v>1.33535</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -5246,8 +5709,14 @@
       <c r="AB77" s="22">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG77" s="19">
+        <v>4.39574</v>
+      </c>
+      <c r="AL77" s="19">
+        <v>1.2253099999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -5297,8 +5766,14 @@
       <c r="AB78" s="22">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG78" s="19">
+        <v>3.8152200000000001</v>
+      </c>
+      <c r="AL78" s="19">
+        <v>1.8286199999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -5348,8 +5823,14 @@
       <c r="AB79" s="22">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG79" s="19">
+        <v>3.9058700000000002</v>
+      </c>
+      <c r="AL79" s="19">
+        <v>1.61896</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -5399,8 +5880,14 @@
       <c r="AB80" s="22">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG80" s="19">
+        <v>4.3057999999999996</v>
+      </c>
+      <c r="AL80" s="19">
+        <v>1.80932</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -5450,8 +5937,14 @@
       <c r="AB81" s="22">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG81" s="19">
+        <v>4.7066100000000004</v>
+      </c>
+      <c r="AL81" s="19">
+        <v>1.17205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -5501,8 +5994,14 @@
       <c r="AB82" s="22">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG82" s="19">
+        <v>2.85432</v>
+      </c>
+      <c r="AL82" s="19">
+        <v>-2.8841100000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -5552,8 +6051,14 @@
       <c r="AB83" s="22">
         <v>-10.6</v>
       </c>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG83" s="19">
+        <v>-6.8816800000000002</v>
+      </c>
+      <c r="AL83" s="19">
+        <v>-14.138159999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -5603,8 +6108,14 @@
       <c r="AB84" s="22">
         <v>-2.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG84" s="19">
+        <v>-0.215</v>
+      </c>
+      <c r="AL84" s="19">
+        <v>-3.9012099999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -5654,8 +6165,14 @@
       <c r="AB85" s="22">
         <v>-2.1</v>
       </c>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG85" s="19">
+        <v>0.55752999999999997</v>
+      </c>
+      <c r="AL85" s="19">
+        <v>-4.0156599999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -5705,8 +6222,14 @@
       <c r="AB86" s="22">
         <v>-1.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG86" s="19">
+        <v>4.11707</v>
+      </c>
+      <c r="AL86" s="19">
+        <v>-0.20594000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -5756,8 +6279,14 @@
       <c r="AB87" s="22">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG87" s="19">
+        <v>16.96979</v>
+      </c>
+      <c r="AL87" s="19">
+        <v>14.84553</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -5807,8 +6336,14 @@
       <c r="AB88" s="22">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG88" s="19">
+        <v>10.07654</v>
+      </c>
+      <c r="AL88" s="19">
+        <v>4.5759699999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -5858,8 +6393,14 @@
       <c r="AB89" s="22">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG89" s="19">
+        <v>11.941700000000001</v>
+      </c>
+      <c r="AL89" s="19">
+        <v>5.2162199999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -5909,8 +6450,14 @@
       <c r="AB90" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG90" s="19">
+        <v>10.747389999999999</v>
+      </c>
+      <c r="AL90" s="19">
+        <v>5.4382200000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -5960,8 +6507,14 @@
       <c r="AB91" s="22">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG91" s="19">
+        <v>9.6680200000000003</v>
+      </c>
+      <c r="AL91" s="19">
+        <v>4.1063900000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -6011,8 +6564,14 @@
       <c r="AB92" s="22">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG92" s="19">
+        <v>9.0883699999999994</v>
+      </c>
+      <c r="AL92" s="19">
+        <v>2.4637600000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -6062,8 +6621,14 @@
       <c r="AB93" s="22">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG93" s="19">
+        <v>7.1134899999999996</v>
+      </c>
+      <c r="AL93" s="19">
+        <v>1.89344</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -6109,8 +6674,14 @@
       <c r="AB94" s="22">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG94" s="19">
+        <v>7.1296400000000002</v>
+      </c>
+      <c r="AL94" s="19">
+        <v>1.31589</v>
+      </c>
+    </row>
+    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -6156,8 +6727,14 @@
       <c r="AB95" s="22">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG95" s="19">
+        <v>5.9455200000000001</v>
+      </c>
+      <c r="AL95" s="19">
+        <v>0.63360000000000005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -6200,8 +6777,14 @@
       <c r="AB96" s="22">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG96" s="19">
+        <v>6.2146999999999997</v>
+      </c>
+      <c r="AL96" s="19">
+        <v>0.10224999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -6233,61 +6816,73 @@
       <c r="AB97" s="22">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG97" s="19">
+        <v>5.86402</v>
+      </c>
+      <c r="AL97" s="19">
+        <v>5.0990000000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D98" s="1"/>
       <c r="J98" s="20"/>
-    </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AG98" s="19">
+        <v>5.4856400000000001</v>
+      </c>
+      <c r="AL98" s="19">
+        <v>0.34694000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D99" s="1"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D100" s="1"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D101" s="1"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D102" s="1"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D103" s="1"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D104" s="1"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D105" s="1"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D106" s="1"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D107" s="1"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D108" s="1"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J112" s="20"/>
     </row>
     <row r="113" spans="10:10" x14ac:dyDescent="0.25">

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicla\Desktop\UNI\R-Studio\Projekt Eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C6B261-3B8D-48AC-B9F6-F651ED7810EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD11F8C-49EE-4032-A665-9D81838C8B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicla\Desktop\UNI\R-Studio\Projekt Eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD11F8C-49EE-4032-A665-9D81838C8B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91AC25D-5E2D-4C48-8C42-7A183EFAB353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1228,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+    <sheetView tabSelected="1" topLeftCell="O66" zoomScale="60" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AN98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="872" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F6CADAA-32CB-4619-82EF-C49F4F83C115}"/>
+  <xr:revisionPtr revIDLastSave="878" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DBBE580-08A7-4930-8363-1FA40519283D}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nøgletal" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>Exchange rate</t>
+  </si>
+  <si>
+    <t>USA real gdp percent year ago</t>
+  </si>
+  <si>
+    <t>New eurozone gdp year ago</t>
   </si>
   <si>
     <t>Year</t>
@@ -391,7 +397,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,13 +432,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -481,13 +484,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -931,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD289"/>
+  <dimension ref="A1:AN289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" topLeftCell="N81" zoomScale="106" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -946,18 +949,20 @@
     <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.28515625" customWidth="1"/>
     <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="84.85546875" customWidth="1"/>
     <col min="12" max="12" width="79" customWidth="1"/>
     <col min="13" max="13" width="49.7109375" customWidth="1"/>
     <col min="14" max="14" width="79" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="140.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:40">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1012,8 +1017,20 @@
       <c r="AD1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AG1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1041,34 +1058,46 @@
       <c r="I2" s="9">
         <v>74.5</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="1">
         <v>4.8</v>
       </c>
       <c r="L2">
         <f>$V$2/4</f>
         <v>2.1225233509129033</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="18">
         <v>1.2197499999999999</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="20">
         <v>6.1814946225242897</v>
       </c>
       <c r="P2">
         <v>229.8</v>
       </c>
-      <c r="V2" s="21" cm="1">
+      <c r="V2" s="20" cm="1">
         <f t="array" ref="V2:V24">TRANSPOSE([1]Data!BS42:CO42)</f>
         <v>8.4900934036516134</v>
       </c>
-      <c r="Z2" s="22">
+      <c r="Z2" s="1">
         <v>3.4</v>
       </c>
       <c r="AD2">
         <v>0.98650000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AG2" s="21">
+        <v>6.3</v>
+      </c>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1096,33 +1125,45 @@
       <c r="I3" s="9">
         <v>77</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="1">
         <v>3.7</v>
       </c>
       <c r="L3">
         <f>$V$2/4</f>
         <v>2.1225233509129033</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="18">
         <v>0.89029999999999998</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="20">
         <v>-4.5892814142722997</v>
       </c>
       <c r="P3">
         <v>225.2</v>
       </c>
-      <c r="V3" s="21">
+      <c r="V3" s="20">
         <v>8.3357334757762516</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="1">
         <v>4.2</v>
       </c>
       <c r="AD3">
         <v>0.93320000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AG3" s="21">
+        <v>7.6</v>
+      </c>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21">
+        <v>4.5</v>
+      </c>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+    </row>
+    <row r="4" spans="1:40">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1150,33 +1191,45 @@
       <c r="I4" s="9">
         <v>78.400000000000006</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="1">
         <v>1.8</v>
       </c>
       <c r="L4">
         <f>$V$2/4</f>
         <v>2.1225233509129033</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="18">
         <v>0.60801000000000005</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="20">
         <v>2.0557451765107002</v>
       </c>
       <c r="P4">
         <v>235.1</v>
       </c>
-      <c r="V4" s="21">
+      <c r="V4" s="20">
         <v>9.1336307895446964</v>
       </c>
-      <c r="Z4" s="22">
+      <c r="Z4" s="1">
         <v>3</v>
       </c>
       <c r="AD4">
         <v>0.9052</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AG4" s="21">
+        <v>6.5</v>
+      </c>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21">
+        <v>3.9</v>
+      </c>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1204,33 +1257,45 @@
       <c r="I5" s="9">
         <v>79.5</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="1">
         <v>5.3</v>
       </c>
       <c r="L5">
         <f>$V$2/4</f>
         <v>2.1225233509129033</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="18">
         <v>0.63997000000000004</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="20">
         <v>1.2658025496412</v>
       </c>
       <c r="P5">
         <v>264.7</v>
       </c>
-      <c r="V5" s="21">
+      <c r="V5" s="20">
         <v>10.038030484736964</v>
       </c>
-      <c r="Z5" s="22">
+      <c r="Z5" s="1">
         <v>1.9</v>
       </c>
       <c r="AD5">
         <v>0.86829999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AG5" s="21">
+        <v>5.4</v>
+      </c>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21">
+        <v>3.4</v>
+      </c>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="21"/>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1258,33 +1323,45 @@
       <c r="I6" s="9">
         <v>79.099999999999994</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="1">
         <v>-0.2</v>
       </c>
       <c r="L6">
         <f>$V$3/4</f>
         <v>2.0839333689440629</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="18">
         <v>0.96804000000000001</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="20">
         <v>-4.7227565276399002</v>
       </c>
       <c r="P6">
         <v>235.5</v>
       </c>
-      <c r="V6" s="21">
+      <c r="V6" s="20">
         <v>10.11362137880208</v>
       </c>
-      <c r="Z6" s="22">
+      <c r="Z6" s="1">
         <v>2.5</v>
       </c>
       <c r="AD6">
         <v>0.92320000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AG6" s="21">
+        <v>4.7</v>
+      </c>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21">
+        <v>3.1</v>
+      </c>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1312,33 +1389,45 @@
       <c r="I7" s="9">
         <v>79.400000000000006</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="1">
         <v>0.4</v>
       </c>
       <c r="L7">
         <f>$V$3/4</f>
         <v>2.0839333689440629</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="18">
         <v>0.12275999999999999</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="20">
         <v>1.5354542486675</v>
       </c>
       <c r="P7">
         <v>228.7</v>
       </c>
-      <c r="V7" s="21">
+      <c r="V7" s="20">
         <v>11.394591808688787</v>
       </c>
-      <c r="Z7" s="22">
+      <c r="Z7" s="1">
         <v>1.6</v>
       </c>
       <c r="AD7">
         <v>0.87250000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AG7" s="21">
+        <v>3.4</v>
+      </c>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1366,33 +1455,45 @@
       <c r="I8" s="9">
         <v>78.2</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="1">
         <v>-0.2</v>
       </c>
       <c r="L8">
         <f>$V$3/4</f>
         <v>2.0839333689440629</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="18">
         <v>0.14927000000000001</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="20">
         <v>-7.4229427182379801</v>
       </c>
       <c r="P8">
         <v>239.5</v>
       </c>
-      <c r="V8" s="21">
+      <c r="V8" s="20">
         <v>12.720955663945105</v>
       </c>
-      <c r="Z8" s="22">
+      <c r="Z8" s="1">
         <v>1.5</v>
       </c>
       <c r="AD8">
         <v>0.89029999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="AG8" s="21">
+        <v>2.7</v>
+      </c>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21">
+        <v>1.9</v>
+      </c>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1420,33 +1521,45 @@
       <c r="I9" s="9">
         <v>77.8</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="1">
         <v>1.2</v>
       </c>
       <c r="L9">
         <f>$V$3/4</f>
         <v>2.0839333689440629</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="18">
         <v>2.7459999999999998E-2</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="20">
         <v>-6.3779214568669902</v>
       </c>
       <c r="P9">
         <v>265.7</v>
       </c>
-      <c r="V9" s="21">
+      <c r="V9" s="20">
         <v>14.230860934047087</v>
       </c>
-      <c r="Z9" s="22">
+      <c r="Z9" s="1">
         <v>1.7</v>
       </c>
       <c r="AD9">
         <v>0.89590000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AG9" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1474,33 +1587,45 @@
       <c r="I10" s="9">
         <v>78.599999999999994</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="1">
         <v>-0.4</v>
       </c>
       <c r="L10">
         <f>$V$4/4</f>
         <v>2.2834076973861741</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="18">
         <v>0.14657999999999999</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="20">
         <v>1.9084091899192781</v>
       </c>
       <c r="P10">
         <v>239.7</v>
       </c>
-      <c r="V10" s="21">
+      <c r="V10" s="20">
         <v>9.6506789183468982</v>
       </c>
-      <c r="Z10" s="22">
+      <c r="Z10" s="1">
         <v>-0.8</v>
       </c>
       <c r="AD10">
         <v>0.87660000000000005</v>
       </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AG10" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1528,33 +1653,45 @@
       <c r="I11" s="9">
         <v>80.8</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="1">
         <v>3.1</v>
       </c>
       <c r="L11">
         <f>$V$4/4</f>
         <v>2.2834076973861741</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="18">
         <v>0.52961999999999998</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="20">
         <v>-0.94708197869315802</v>
       </c>
       <c r="P11">
         <v>235.6</v>
       </c>
-      <c r="V11" s="21">
+      <c r="V11" s="20">
         <v>9.3987256316321037</v>
       </c>
-      <c r="Z11" s="22">
+      <c r="Z11" s="1">
         <v>-0.4</v>
       </c>
       <c r="AD11">
         <v>0.91879999999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AG11" s="21">
+        <v>2.7</v>
+      </c>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1582,33 +1719,45 @@
       <c r="I12" s="9">
         <v>81.2</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="1">
         <v>1.7</v>
       </c>
       <c r="L12">
         <f>$V$4/4</f>
         <v>2.2834076973861741</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="18">
         <v>0.41843000000000002</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="20">
         <v>1.3949329848110308</v>
       </c>
       <c r="P12">
         <v>244.9</v>
       </c>
-      <c r="V12" s="21">
+      <c r="V12" s="20">
         <v>10.635871065957176</v>
       </c>
-      <c r="Z12" s="22">
+      <c r="Z12" s="1">
         <v>0.3</v>
       </c>
       <c r="AD12">
         <v>0.98380000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AG12" s="21">
+        <v>3.6</v>
+      </c>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1636,33 +1785,45 @@
       <c r="I13" s="9">
         <v>81.599999999999994</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="1">
         <v>1.8</v>
       </c>
       <c r="L13">
         <f>$V$4/4</f>
         <v>2.2834076973861741</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="18">
         <v>0.16761999999999999</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="20">
         <v>3.6867064631732194</v>
       </c>
       <c r="P13">
         <v>266.60000000000002</v>
       </c>
-      <c r="V13" s="21">
+      <c r="V13" s="20">
         <v>9.5508321788419863</v>
       </c>
-      <c r="Z13" s="22">
+      <c r="Z13" s="1">
         <v>0.3</v>
       </c>
       <c r="AD13">
         <v>0.99939999999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AG13" s="21">
+        <v>3.8</v>
+      </c>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="21"/>
+    </row>
+    <row r="14" spans="1:40">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1690,33 +1851,45 @@
       <c r="I14" s="9">
         <v>82.8</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="1">
         <v>-3</v>
       </c>
       <c r="L14">
         <f>$V$5/4</f>
         <v>2.5095076211842411</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="18">
         <v>-0.31728000000000001</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="20">
         <v>3.9081683618366099</v>
       </c>
       <c r="P14">
         <v>245.5</v>
       </c>
-      <c r="V14" s="21">
+      <c r="V14" s="20">
         <v>7.8637364484526415</v>
       </c>
-      <c r="Z14" s="22">
+      <c r="Z14" s="1">
         <v>-0.7</v>
       </c>
       <c r="AD14">
         <v>1.0730999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AG14" s="21">
+        <v>3.6</v>
+      </c>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+    </row>
+    <row r="15" spans="1:40">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -1744,33 +1917,45 @@
       <c r="I15" s="9">
         <v>81.900000000000006</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="1">
         <v>-0.3</v>
       </c>
       <c r="L15">
         <f>$V$5/4</f>
         <v>2.5095076211842411</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="18">
         <v>9.0389999999999998E-2</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="20">
         <v>-5.8338371804739397</v>
       </c>
       <c r="P15">
         <v>239.1</v>
       </c>
-      <c r="V15" s="21">
+      <c r="V15" s="20">
         <v>7.7661500973591018</v>
       </c>
-      <c r="Z15" s="22">
+      <c r="Z15" s="1">
         <v>-1</v>
       </c>
       <c r="AD15">
         <v>1.1372</v>
       </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AG15" s="21">
+        <v>3.9</v>
+      </c>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+    </row>
+    <row r="16" spans="1:40">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -1798,33 +1983,45 @@
       <c r="I16" s="9">
         <v>83.5</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="1">
         <v>3.1</v>
       </c>
       <c r="L16">
         <f>$V$5/4</f>
         <v>2.5095076211842411</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="18">
         <v>0.59260000000000002</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="20">
         <v>1.2267159781835399</v>
       </c>
       <c r="P16">
         <v>252.3</v>
       </c>
-      <c r="V16" s="21">
+      <c r="V16" s="20">
         <v>7.4257636559691633</v>
       </c>
-      <c r="Z16" s="22">
+      <c r="Z16" s="1">
         <v>-0.8</v>
       </c>
       <c r="AD16">
         <v>1.1248</v>
       </c>
-    </row>
-    <row r="17" spans="1:30">
+      <c r="AG16" s="21">
+        <v>5.3</v>
+      </c>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+    </row>
+    <row r="17" spans="1:40">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -1852,33 +2049,45 @@
       <c r="I17" s="9">
         <v>84.1</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="1">
         <v>2.4</v>
       </c>
       <c r="L17">
         <f>$V$5/4</f>
         <v>2.5095076211842411</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="18">
         <v>0.68411999999999995</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="20">
         <v>0.22656998449292001</v>
       </c>
       <c r="P17">
         <v>261.7</v>
       </c>
-      <c r="V17" s="21">
+      <c r="V17" s="20">
         <v>7.0413288794755005</v>
       </c>
-      <c r="Z17" s="22">
+      <c r="Z17" s="1">
         <v>-0.3</v>
       </c>
       <c r="AD17">
         <v>1.1890000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="AG17" s="21">
+        <v>6.4</v>
+      </c>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+    </row>
+    <row r="18" spans="1:40">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -1906,33 +2115,45 @@
       <c r="I18" s="9">
         <v>85.7</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="1">
         <v>4.3</v>
       </c>
       <c r="L18">
         <f>$V$6/4</f>
         <v>2.5284053447005199</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="18">
         <v>0.50278999999999996</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="20">
         <v>-4.9543735646396998</v>
       </c>
       <c r="P18">
         <v>248.9</v>
       </c>
-      <c r="V18" s="21">
+      <c r="V18" s="20">
         <v>6.8487622044418401</v>
       </c>
-      <c r="Z18" s="22">
+      <c r="Z18" s="1">
         <v>1</v>
       </c>
       <c r="AD18">
         <v>1.2497</v>
       </c>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="AG18" s="21">
+        <v>6.7</v>
+      </c>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="21"/>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="21">
+        <v>1.9</v>
+      </c>
+      <c r="AM18" s="21"/>
+      <c r="AN18" s="21"/>
+    </row>
+    <row r="19" spans="1:40">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -1960,33 +2181,45 @@
       <c r="I19" s="9">
         <v>85.5</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="L19">
         <f>$V$6/4</f>
         <v>2.5284053447005199</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="18">
         <v>0.61407</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="20">
         <v>6.6420683458566199</v>
       </c>
       <c r="P19">
         <v>235.2</v>
       </c>
-      <c r="V19" s="21">
+      <c r="V19" s="20">
         <v>6.9472007931653366</v>
       </c>
-      <c r="Z19" s="22">
+      <c r="Z19" s="1">
         <v>1.4</v>
       </c>
       <c r="AD19">
         <v>1.2045999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="AG19" s="21">
+        <v>7.1</v>
+      </c>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="AM19" s="21"/>
+      <c r="AN19" s="21"/>
+    </row>
+    <row r="20" spans="1:40">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -2014,33 +2247,45 @@
       <c r="I20" s="9">
         <v>87.4</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="1">
         <v>-1.7</v>
       </c>
       <c r="L20">
         <f>$V$6/4</f>
         <v>2.5284053447005199</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="18">
         <v>0.24457000000000001</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="20">
         <v>1.1403857573081699</v>
       </c>
       <c r="P20">
         <v>246.9</v>
       </c>
-      <c r="V20" s="21">
+      <c r="V20" s="20">
         <v>6.7497738325114796</v>
       </c>
-      <c r="Z20" s="22">
+      <c r="Z20" s="1">
         <v>0.4</v>
       </c>
       <c r="AD20">
         <v>1.222</v>
       </c>
-    </row>
-    <row r="21" spans="1:30">
+      <c r="AG20" s="21">
+        <v>6.4</v>
+      </c>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="21">
+        <v>2.1</v>
+      </c>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="21"/>
+    </row>
+    <row r="21" spans="1:40">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -2068,33 +2313,45 @@
       <c r="I21" s="9">
         <v>87.9</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="1">
         <v>0.5</v>
       </c>
       <c r="L21">
         <f>$V$6/4</f>
         <v>2.5284053447005199</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="18">
         <v>0.36556</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="20">
         <v>0.81331062439773005</v>
       </c>
       <c r="P21">
         <v>258.3</v>
       </c>
-      <c r="V21" s="21">
+      <c r="V21" s="20">
         <v>5.950500754393147</v>
       </c>
-      <c r="Z21" s="22">
+      <c r="Z21" s="1">
         <v>0</v>
       </c>
       <c r="AD21">
         <v>1.2977000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AG21" s="21">
+        <v>6.4</v>
+      </c>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
+    </row>
+    <row r="22" spans="1:40">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -2122,33 +2379,45 @@
       <c r="I22" s="9">
         <v>88.8</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="1">
         <v>2.5</v>
       </c>
       <c r="L22">
         <f>$V$7/4</f>
         <v>2.8486479521721968</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="18">
         <v>0.20891000000000001</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="20">
         <v>-0.32101173657914001</v>
       </c>
       <c r="P22">
         <v>249.9</v>
       </c>
-      <c r="V22" s="21">
+      <c r="V22" s="20">
         <v>2.2386383567412054</v>
       </c>
-      <c r="Z22" s="22">
+      <c r="Z22" s="1">
         <v>0.2</v>
       </c>
       <c r="AD22">
         <v>1.3132999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="AG22" s="21">
+        <v>7.1</v>
+      </c>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="21"/>
+      <c r="AK22" s="21"/>
+      <c r="AL22" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="AM22" s="21"/>
+      <c r="AN22" s="21"/>
+    </row>
+    <row r="23" spans="1:40">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -2176,33 +2445,45 @@
       <c r="I23" s="9">
         <v>89</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="1">
         <v>1.7</v>
       </c>
       <c r="L23">
         <f>$V$7/4</f>
         <v>2.8486479521721968</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M23" s="18">
         <v>0.61641000000000001</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O23" s="20">
         <v>1.07670698373311</v>
       </c>
       <c r="P23">
         <v>240.4</v>
       </c>
-      <c r="V23" s="21">
+      <c r="V23" s="20">
         <v>8.4484694162814122</v>
       </c>
-      <c r="Z23" s="22">
+      <c r="Z23" s="1">
         <v>0.2</v>
       </c>
       <c r="AD23">
         <v>1.2594000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:30">
+      <c r="AG23" s="21">
+        <v>6.7</v>
+      </c>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
+    </row>
+    <row r="24" spans="1:40">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -2230,17 +2511,17 @@
       <c r="I24" s="9">
         <v>91.2</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="L24">
         <f>$V$7/4</f>
         <v>2.8486479521721968</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="18">
         <v>0.78203999999999996</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="20">
         <v>4.1584952721005797</v>
       </c>
       <c r="P24">
@@ -2249,14 +2530,26 @@
       <c r="V24">
         <v>2.9890840860365273</v>
       </c>
-      <c r="Z24" s="22">
+      <c r="Z24" s="1">
         <v>1.3</v>
       </c>
       <c r="AD24">
         <v>1.2199</v>
       </c>
-    </row>
-    <row r="25" spans="1:30">
+      <c r="AG24" s="21">
+        <v>6.8</v>
+      </c>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="21"/>
+      <c r="AK24" s="21"/>
+      <c r="AL24" s="21">
+        <v>2</v>
+      </c>
+      <c r="AM24" s="21"/>
+      <c r="AN24" s="21"/>
+    </row>
+    <row r="25" spans="1:40">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -2284,30 +2577,42 @@
       <c r="I25" s="9">
         <v>93.1</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="1">
         <v>1.6</v>
       </c>
       <c r="L25">
         <f>$V$7/4</f>
         <v>2.8486479521721968</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="18">
         <v>0.61492999999999998</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25" s="20">
         <v>0.19959269391539999</v>
       </c>
       <c r="P25">
         <v>263.8</v>
       </c>
-      <c r="Z25" s="22">
+      <c r="Z25" s="1">
         <v>1.9</v>
       </c>
       <c r="AD25">
         <v>1.1883999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:30">
+      <c r="AG25" s="21">
+        <v>6.4</v>
+      </c>
+      <c r="AH25" s="21"/>
+      <c r="AI25" s="21"/>
+      <c r="AJ25" s="21"/>
+      <c r="AK25" s="21"/>
+      <c r="AL25" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM25" s="21"/>
+      <c r="AN25" s="21"/>
+    </row>
+    <row r="26" spans="1:40">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -2335,30 +2640,42 @@
       <c r="I26" s="9">
         <v>93.1</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="1">
         <v>3.3</v>
       </c>
       <c r="L26">
         <f>$V$8/4</f>
         <v>3.1802389159862763</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="18">
         <v>0.84846999999999995</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O26" s="20">
         <v>1.4107804547811</v>
       </c>
       <c r="P26">
         <v>254.1</v>
       </c>
-      <c r="Z26" s="22">
+      <c r="Z26" s="1">
         <v>2.9</v>
       </c>
       <c r="AD26">
         <v>1.2022999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:30">
+      <c r="AG26" s="21">
+        <v>6.5</v>
+      </c>
+      <c r="AH26" s="21"/>
+      <c r="AI26" s="21"/>
+      <c r="AJ26" s="21"/>
+      <c r="AK26" s="21"/>
+      <c r="AL26" s="21">
+        <v>2.9</v>
+      </c>
+      <c r="AM26" s="21"/>
+      <c r="AN26" s="21"/>
+    </row>
+    <row r="27" spans="1:40">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -2386,30 +2703,42 @@
       <c r="I27" s="9">
         <v>93.9</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="1">
         <v>3.1</v>
       </c>
       <c r="L27">
         <f>$V$8/4</f>
         <v>3.1802389159862763</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="18">
         <v>1.1247499999999999</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O27" s="20">
         <v>-1.0735901089874</v>
       </c>
       <c r="P27">
         <v>235.6</v>
       </c>
-      <c r="Z27" s="22">
+      <c r="Z27" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="AD27">
         <v>1.2582</v>
       </c>
-    </row>
-    <row r="28" spans="1:30">
+      <c r="AG27" s="21">
+        <v>6.4</v>
+      </c>
+      <c r="AH27" s="21"/>
+      <c r="AI27" s="21"/>
+      <c r="AJ27" s="21"/>
+      <c r="AK27" s="21"/>
+      <c r="AL27" s="21">
+        <v>3.4</v>
+      </c>
+      <c r="AM27" s="21"/>
+      <c r="AN27" s="21"/>
+    </row>
+    <row r="28" spans="1:40">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -2437,30 +2766,42 @@
       <c r="I28" s="9">
         <v>96.1</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="1">
         <v>2.9</v>
       </c>
       <c r="L28">
         <f>$V$8/4</f>
         <v>3.1802389159862763</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="18">
         <v>0.62170000000000003</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28" s="20">
         <v>-6.0253413761733103</v>
       </c>
       <c r="P28">
         <v>249.2</v>
       </c>
-      <c r="Z28" s="22">
+      <c r="Z28" s="1">
         <v>4</v>
       </c>
       <c r="AD28">
         <v>1.2743</v>
       </c>
-    </row>
-    <row r="29" spans="1:30">
+      <c r="AG28" s="21">
+        <v>5.5</v>
+      </c>
+      <c r="AH28" s="21"/>
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="21"/>
+      <c r="AK28" s="21"/>
+      <c r="AL28" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="21"/>
+    </row>
+    <row r="29" spans="1:40">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -2488,30 +2829,42 @@
       <c r="I29" s="9">
         <v>97</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="1">
         <v>5.8</v>
       </c>
       <c r="L29">
         <f>$V$8/4</f>
         <v>3.1802389159862763</v>
       </c>
-      <c r="M29" s="19">
+      <c r="M29" s="18">
         <v>1.15168</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29" s="20">
         <v>-4.0850940130239399</v>
       </c>
       <c r="P29">
         <v>263.60000000000002</v>
       </c>
-      <c r="Z29" s="22">
+      <c r="Z29" s="1">
         <v>5.0999999999999996</v>
       </c>
       <c r="AD29">
         <v>1.2887</v>
       </c>
-    </row>
-    <row r="30" spans="1:30">
+      <c r="AG29" s="21">
+        <v>5.4</v>
+      </c>
+      <c r="AH29" s="21"/>
+      <c r="AI29" s="21"/>
+      <c r="AJ29" s="21"/>
+      <c r="AK29" s="21"/>
+      <c r="AL29" s="21">
+        <v>3.8</v>
+      </c>
+      <c r="AM29" s="21"/>
+      <c r="AN29" s="21"/>
+    </row>
+    <row r="30" spans="1:40">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -2539,30 +2892,42 @@
       <c r="I30" s="9">
         <v>98.7</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="1">
         <v>-0.7</v>
       </c>
       <c r="L30">
         <f>$V$9/4</f>
         <v>3.5577152335117717</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M30" s="18">
         <v>0.59160000000000001</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30" s="20">
         <v>0.36741861530279002</v>
       </c>
       <c r="P30">
         <v>256.89999999999998</v>
       </c>
-      <c r="Z30" s="22">
+      <c r="Z30" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="AD30">
         <v>1.3106</v>
       </c>
-    </row>
-    <row r="31" spans="1:30">
+      <c r="AG30" s="21">
+        <v>4.5</v>
+      </c>
+      <c r="AH30" s="21"/>
+      <c r="AI30" s="21"/>
+      <c r="AJ30" s="21"/>
+      <c r="AK30" s="21"/>
+      <c r="AL30" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="AM30" s="21"/>
+      <c r="AN30" s="21"/>
+    </row>
+    <row r="31" spans="1:40">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -2590,30 +2955,42 @@
       <c r="I31" s="9">
         <v>99.6</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="1">
         <v>2.5</v>
       </c>
       <c r="L31">
         <f>$V$9/4</f>
         <v>3.5577152335117717</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M31" s="18">
         <v>0.72494999999999998</v>
       </c>
-      <c r="O31" s="21">
+      <c r="O31" s="20">
         <v>-0.58218519160991</v>
       </c>
       <c r="P31">
         <v>237</v>
       </c>
-      <c r="Z31" s="22">
+      <c r="Z31" s="1">
         <v>3.2</v>
       </c>
       <c r="AD31">
         <v>1.3481000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:30">
+      <c r="AG31" s="21">
+        <v>4.7</v>
+      </c>
+      <c r="AH31" s="21"/>
+      <c r="AI31" s="21"/>
+      <c r="AJ31" s="21"/>
+      <c r="AK31" s="21"/>
+      <c r="AL31" s="21">
+        <v>3.1</v>
+      </c>
+      <c r="AM31" s="21"/>
+      <c r="AN31" s="21"/>
+    </row>
+    <row r="32" spans="1:40">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -2641,30 +3018,42 @@
       <c r="I32" s="9">
         <v>100.4</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="1">
         <v>2</v>
       </c>
       <c r="L32">
         <f>$V$9/4</f>
         <v>3.5577152335117717</v>
       </c>
-      <c r="M32" s="19">
+      <c r="M32" s="18">
         <v>0.44184000000000001</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O32" s="20">
         <v>0.88133307596952004</v>
       </c>
       <c r="P32">
         <v>252.8</v>
       </c>
-      <c r="Z32" s="22">
+      <c r="Z32" s="1">
         <v>3</v>
       </c>
       <c r="AD32">
         <v>1.3737999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:30">
+      <c r="AG32" s="21">
+        <v>5</v>
+      </c>
+      <c r="AH32" s="21"/>
+      <c r="AI32" s="21"/>
+      <c r="AJ32" s="21"/>
+      <c r="AK32" s="21"/>
+      <c r="AL32" s="21">
+        <v>2.9</v>
+      </c>
+      <c r="AM32" s="21"/>
+      <c r="AN32" s="21"/>
+    </row>
+    <row r="33" spans="1:40">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -2692,30 +3081,42 @@
       <c r="I33" s="9">
         <v>101.4</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="1">
         <v>1</v>
       </c>
       <c r="L33">
         <f>$V$9/4</f>
         <v>3.5577152335117717</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="18">
         <v>0.52381999999999995</v>
       </c>
-      <c r="O33" s="21">
+      <c r="O33" s="20">
         <v>5.5572709435479997</v>
       </c>
       <c r="P33">
         <v>267.39999999999998</v>
       </c>
-      <c r="Z33" s="22">
+      <c r="Z33" s="1">
         <v>2.1</v>
       </c>
       <c r="AD33">
         <v>1.4486000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:30">
+      <c r="AG33" s="21">
+        <v>4.8</v>
+      </c>
+      <c r="AH33" s="21"/>
+      <c r="AI33" s="21"/>
+      <c r="AJ33" s="21"/>
+      <c r="AK33" s="21"/>
+      <c r="AL33" s="21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AM33" s="21"/>
+      <c r="AN33" s="21"/>
+    </row>
+    <row r="34" spans="1:40">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -2743,30 +3144,42 @@
       <c r="I34" s="9">
         <v>102.8</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="1">
         <v>1</v>
       </c>
       <c r="L34">
         <f>$V$10/4</f>
         <v>2.4126697295867245</v>
       </c>
-      <c r="M34" s="19">
+      <c r="M34" s="18">
         <v>0.50556999999999996</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="20">
         <v>0.94073832395516999</v>
       </c>
       <c r="P34">
         <v>260.2</v>
       </c>
-      <c r="Z34" s="22">
+      <c r="Z34" s="1">
         <v>2.7</v>
       </c>
       <c r="AD34">
         <v>1.4976</v>
       </c>
-    </row>
-    <row r="35" spans="1:30">
+      <c r="AG34" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="AH34" s="21"/>
+      <c r="AI34" s="21"/>
+      <c r="AJ34" s="21"/>
+      <c r="AK34" s="21"/>
+      <c r="AL34" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM34" s="21"/>
+      <c r="AN34" s="21"/>
+    </row>
+    <row r="35" spans="1:40">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -2794,30 +3207,42 @@
       <c r="I35" s="9">
         <v>100.9</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="1">
         <v>-0.3</v>
       </c>
       <c r="L35">
         <f>$V$10/4</f>
         <v>2.4126697295867245</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M35" s="18">
         <v>-0.36049999999999999</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35" s="20">
         <v>2.79541019669468</v>
       </c>
       <c r="P35">
         <v>247.9</v>
       </c>
-      <c r="Z35" s="22">
+      <c r="Z35" s="1">
         <v>1.6</v>
       </c>
       <c r="AD35">
         <v>1.5622</v>
       </c>
-    </row>
-    <row r="36" spans="1:30">
+      <c r="AG35" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="AH35" s="21"/>
+      <c r="AI35" s="21"/>
+      <c r="AJ35" s="21"/>
+      <c r="AK35" s="21"/>
+      <c r="AL35" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AM35" s="21"/>
+      <c r="AN35" s="21"/>
+    </row>
+    <row r="36" spans="1:40">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -2845,30 +3270,42 @@
       <c r="I36" s="9">
         <v>99.4</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="1">
         <v>-0.8</v>
       </c>
       <c r="L36">
         <f>$V$10/4</f>
         <v>2.4126697295867245</v>
       </c>
-      <c r="M36" s="19">
+      <c r="M36" s="18">
         <v>-0.49652000000000002</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36" s="20">
         <v>1.0549162120186</v>
       </c>
       <c r="P36">
         <v>262.2</v>
       </c>
-      <c r="Z36" s="22">
+      <c r="Z36" s="1">
         <v>0.4</v>
       </c>
       <c r="AD36">
         <v>1.5049999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:30">
+      <c r="AG36" s="21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AH36" s="21"/>
+      <c r="AI36" s="21"/>
+      <c r="AJ36" s="21"/>
+      <c r="AK36" s="21"/>
+      <c r="AL36" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="AM36" s="21"/>
+      <c r="AN36" s="21"/>
+    </row>
+    <row r="37" spans="1:40">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -2896,30 +3333,42 @@
       <c r="I37" s="9">
         <v>96.4</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K37" s="1">
         <v>-5.6</v>
       </c>
       <c r="L37">
         <f>$V$10/4</f>
         <v>2.4126697295867245</v>
       </c>
-      <c r="M37" s="19">
+      <c r="M37" s="18">
         <v>-1.81406</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O37" s="20">
         <v>-10.10973028203553</v>
       </c>
       <c r="P37">
         <v>290.3</v>
       </c>
-      <c r="Z37" s="22">
+      <c r="Z37" s="1">
         <v>-1.8</v>
       </c>
       <c r="AD37">
         <v>1.3180000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:30">
+      <c r="AG37" s="21">
+        <v>-0.7</v>
+      </c>
+      <c r="AH37" s="21"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="21"/>
+      <c r="AL37" s="21">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AM37" s="21"/>
+      <c r="AN37" s="21"/>
+    </row>
+    <row r="38" spans="1:40">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -2947,30 +3396,42 @@
       <c r="I38" s="9">
         <v>87.7</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K38" s="1">
         <v>-11.6</v>
       </c>
       <c r="L38">
         <f>$V$11/4</f>
         <v>2.3496814079080259</v>
       </c>
-      <c r="M38" s="19">
+      <c r="M38" s="18">
         <v>-3.0974200000000001</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O38" s="20">
         <v>-5.5068092464503096</v>
       </c>
       <c r="P38">
         <v>274.10000000000002</v>
       </c>
-      <c r="Z38" s="22">
+      <c r="Z38" s="1">
         <v>-7</v>
       </c>
       <c r="AD38">
         <v>1.3028999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:30">
+      <c r="AG38" s="21">
+        <v>-1.9</v>
+      </c>
+      <c r="AH38" s="21"/>
+      <c r="AI38" s="21"/>
+      <c r="AJ38" s="21"/>
+      <c r="AK38" s="21"/>
+      <c r="AL38" s="21">
+        <v>-5.7</v>
+      </c>
+      <c r="AM38" s="21"/>
+      <c r="AN38" s="21"/>
+    </row>
+    <row r="39" spans="1:40">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -2998,30 +3459,42 @@
       <c r="I39" s="9">
         <v>85.9</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K39" s="1">
         <v>-0.8</v>
       </c>
       <c r="L39">
         <f>$V$11/4</f>
         <v>2.3496814079080259</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M39" s="18">
         <v>-4.1099999999999998E-2</v>
       </c>
-      <c r="O39" s="21">
+      <c r="O39" s="20">
         <v>-4.3165296520390903</v>
       </c>
       <c r="P39">
         <v>271.39999999999998</v>
       </c>
-      <c r="Z39" s="22">
+      <c r="Z39" s="1">
         <v>-6.7</v>
       </c>
       <c r="AD39">
         <v>1.3632</v>
       </c>
-    </row>
-    <row r="40" spans="1:30">
+      <c r="AG39" s="21">
+        <v>-3.3</v>
+      </c>
+      <c r="AH39" s="21"/>
+      <c r="AI39" s="21"/>
+      <c r="AJ39" s="21"/>
+      <c r="AK39" s="21"/>
+      <c r="AL39" s="21">
+        <v>-5.4</v>
+      </c>
+      <c r="AM39" s="21"/>
+      <c r="AN39" s="21"/>
+    </row>
+    <row r="40" spans="1:40">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -3049,30 +3522,42 @@
       <c r="I40" s="9">
         <v>89.8</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="1">
         <v>3.3</v>
       </c>
       <c r="L40">
         <f>$V$11/4</f>
         <v>2.3496814079080259</v>
       </c>
-      <c r="M40" s="19">
+      <c r="M40" s="18">
         <v>0.39282</v>
       </c>
-      <c r="O40" s="21">
+      <c r="O40" s="20">
         <v>-1.9122745523746201</v>
       </c>
       <c r="P40">
         <v>278.7</v>
       </c>
-      <c r="Z40" s="22">
+      <c r="Z40" s="1">
         <v>-5.5</v>
       </c>
       <c r="AD40">
         <v>1.4302999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:30">
+      <c r="AG40" s="21">
+        <v>-3</v>
+      </c>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="21"/>
+      <c r="AJ40" s="21"/>
+      <c r="AK40" s="21"/>
+      <c r="AL40" s="21">
+        <v>-4.5</v>
+      </c>
+      <c r="AM40" s="21"/>
+      <c r="AN40" s="21"/>
+    </row>
+    <row r="41" spans="1:40">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -3100,30 +3585,42 @@
       <c r="I41" s="9">
         <v>91.8</v>
       </c>
-      <c r="K41" s="18">
+      <c r="K41" s="1">
         <v>2.9</v>
       </c>
       <c r="L41">
         <f>$V$11/4</f>
         <v>2.3496814079080259</v>
       </c>
-      <c r="M41" s="19">
+      <c r="M41" s="18">
         <v>0.47273999999999999</v>
       </c>
-      <c r="O41" s="21">
+      <c r="O41" s="20">
         <v>6.55013547204471</v>
       </c>
       <c r="P41">
         <v>298.60000000000002</v>
       </c>
-      <c r="Z41" s="22">
+      <c r="Z41" s="1">
         <v>-3.3</v>
       </c>
       <c r="AD41">
         <v>1.4779</v>
       </c>
-    </row>
-    <row r="42" spans="1:30">
+      <c r="AG41" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="AH41" s="21"/>
+      <c r="AI41" s="21"/>
+      <c r="AJ41" s="21"/>
+      <c r="AK41" s="21"/>
+      <c r="AL41" s="21">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AM41" s="21"/>
+      <c r="AN41" s="21"/>
+    </row>
+    <row r="42" spans="1:40">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -3151,30 +3648,42 @@
       <c r="I42" s="9">
         <v>92.9</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="1">
         <v>3.1</v>
       </c>
       <c r="L42">
         <f>$V$12/4</f>
         <v>2.6589677664892939</v>
       </c>
-      <c r="M42" s="19">
+      <c r="M42" s="18">
         <v>0.39011000000000001</v>
       </c>
-      <c r="O42" s="21">
+      <c r="O42" s="20">
         <v>4.5804750872754498</v>
       </c>
       <c r="P42">
         <v>278.7</v>
       </c>
-      <c r="Z42" s="22">
+      <c r="Z42" s="1">
         <v>2.2999999999999998</v>
       </c>
       <c r="AD42">
         <v>1.3829</v>
       </c>
-    </row>
-    <row r="43" spans="1:30">
+      <c r="AG42" s="21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AH42" s="21"/>
+      <c r="AI42" s="21"/>
+      <c r="AJ42" s="21"/>
+      <c r="AK42" s="21"/>
+      <c r="AL42" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="AM42" s="21"/>
+      <c r="AN42" s="21"/>
+    </row>
+    <row r="43" spans="1:40">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -3202,30 +3711,42 @@
       <c r="I43" s="9">
         <v>95.1</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="1">
         <v>7.1</v>
       </c>
       <c r="L43">
         <f>$V$12/4</f>
         <v>2.6589677664892939</v>
       </c>
-      <c r="M43" s="19">
+      <c r="M43" s="18">
         <v>0.96823999999999999</v>
       </c>
-      <c r="O43" s="21">
+      <c r="O43" s="20">
         <v>2.0290912924017199</v>
       </c>
       <c r="P43">
         <v>271.5</v>
       </c>
-      <c r="Z43" s="22">
+      <c r="Z43" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="AD43">
         <v>1.2707999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:30">
+      <c r="AG43" s="21">
+        <v>4.2</v>
+      </c>
+      <c r="AH43" s="21"/>
+      <c r="AI43" s="21"/>
+      <c r="AJ43" s="21"/>
+      <c r="AK43" s="21"/>
+      <c r="AL43" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM43" s="21"/>
+      <c r="AN43" s="21"/>
+    </row>
+    <row r="44" spans="1:40">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -3253,30 +3774,42 @@
       <c r="I44" s="9">
         <v>98</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K44" s="1">
         <v>1.6</v>
       </c>
       <c r="L44">
         <f>$V$12/4</f>
         <v>2.6589677664892939</v>
       </c>
-      <c r="M44" s="19">
+      <c r="M44" s="18">
         <v>0.44367000000000001</v>
       </c>
-      <c r="O44" s="21">
+      <c r="O44" s="20">
         <v>-0.65295913432608998</v>
       </c>
       <c r="P44">
         <v>276</v>
       </c>
-      <c r="Z44" s="22">
+      <c r="Z44" s="1">
         <v>4.7</v>
       </c>
       <c r="AD44">
         <v>1.2909999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:30">
+      <c r="AG44" s="21">
+        <v>4.8</v>
+      </c>
+      <c r="AH44" s="21"/>
+      <c r="AI44" s="21"/>
+      <c r="AJ44" s="21"/>
+      <c r="AK44" s="21"/>
+      <c r="AL44" s="21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AM44" s="21"/>
+      <c r="AN44" s="21"/>
+    </row>
+    <row r="45" spans="1:40">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -3304,30 +3837,42 @@
       <c r="I45" s="9">
         <v>100.7</v>
       </c>
-      <c r="K45" s="18">
+      <c r="K45" s="1">
         <v>2.1</v>
       </c>
       <c r="L45">
         <f>$V$12/4</f>
         <v>2.6589677664892939</v>
       </c>
-      <c r="M45" s="19">
+      <c r="M45" s="18">
         <v>0.60096000000000005</v>
       </c>
-      <c r="O45" s="21">
+      <c r="O45" s="20">
         <v>2.1319788543718299</v>
       </c>
       <c r="P45">
         <v>304.8</v>
       </c>
-      <c r="Z45" s="22">
+      <c r="Z45" s="1">
         <v>4.8</v>
       </c>
       <c r="AD45">
         <v>1.3583000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:30">
+      <c r="AG45" s="21">
+        <v>4.5</v>
+      </c>
+      <c r="AH45" s="21"/>
+      <c r="AI45" s="21"/>
+      <c r="AJ45" s="21"/>
+      <c r="AK45" s="21"/>
+      <c r="AL45" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="AM45" s="21"/>
+      <c r="AN45" s="21"/>
+    </row>
+    <row r="46" spans="1:40">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -3355,30 +3900,42 @@
       <c r="I46" s="9">
         <v>100.7</v>
       </c>
-      <c r="K46" s="18">
+      <c r="K46" s="1">
         <v>2.7</v>
       </c>
       <c r="L46">
         <f>$V$13/4</f>
         <v>2.3877080447104966</v>
       </c>
-      <c r="M46" s="19">
+      <c r="M46" s="18">
         <v>0.85902999999999996</v>
       </c>
-      <c r="O46" s="21">
+      <c r="O46" s="20">
         <v>3.7068959120674898</v>
       </c>
       <c r="P46">
         <v>281</v>
       </c>
-      <c r="Z46" s="22">
+      <c r="Z46" s="1">
         <v>5.9</v>
       </c>
       <c r="AD46">
         <v>1.3680000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:30">
+      <c r="AG46" s="21">
+        <v>4</v>
+      </c>
+      <c r="AH46" s="21"/>
+      <c r="AI46" s="21"/>
+      <c r="AJ46" s="21"/>
+      <c r="AK46" s="21"/>
+      <c r="AL46" s="21">
+        <v>2.9</v>
+      </c>
+      <c r="AM46" s="21"/>
+      <c r="AN46" s="21"/>
+    </row>
+    <row r="47" spans="1:40">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -3406,30 +3963,42 @@
       <c r="I47" s="9">
         <v>101.6</v>
       </c>
-      <c r="K47" s="18">
+      <c r="K47" s="1">
         <v>1.5</v>
       </c>
       <c r="L47">
         <f>$V$13/4</f>
         <v>2.3877080447104966</v>
       </c>
-      <c r="M47" s="19">
+      <c r="M47" s="18">
         <v>5.1900000000000002E-3</v>
       </c>
-      <c r="O47" s="21">
+      <c r="O47" s="20">
         <v>-0.14483053973852</v>
       </c>
       <c r="P47">
         <v>271.39999999999998</v>
       </c>
-      <c r="Z47" s="22">
+      <c r="Z47" s="1">
         <v>3.7</v>
       </c>
       <c r="AD47">
         <v>1.4391</v>
       </c>
-    </row>
-    <row r="48" spans="1:30">
+      <c r="AG47" s="21">
+        <v>3.9</v>
+      </c>
+      <c r="AH47" s="21"/>
+      <c r="AI47" s="21"/>
+      <c r="AJ47" s="21"/>
+      <c r="AK47" s="21"/>
+      <c r="AL47" s="21">
+        <v>1.9</v>
+      </c>
+      <c r="AM47" s="21"/>
+      <c r="AN47" s="21"/>
+    </row>
+    <row r="48" spans="1:40">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -3457,30 +4026,42 @@
       <c r="I48" s="9">
         <v>103.3</v>
       </c>
-      <c r="K48" s="18">
+      <c r="K48" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="L48">
         <f>$V$13/4</f>
         <v>2.3877080447104966</v>
       </c>
-      <c r="M48" s="19">
+      <c r="M48" s="18">
         <v>0.13838</v>
       </c>
-      <c r="O48" s="21">
+      <c r="O48" s="20">
         <v>1.06489367339286</v>
       </c>
       <c r="P48">
         <v>288.2</v>
       </c>
-      <c r="Z48" s="22">
+      <c r="Z48" s="1">
         <v>3.8</v>
       </c>
       <c r="AD48">
         <v>1.4127000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:30">
+      <c r="AG48" s="21">
+        <v>3.3</v>
+      </c>
+      <c r="AH48" s="21"/>
+      <c r="AI48" s="21"/>
+      <c r="AJ48" s="21"/>
+      <c r="AK48" s="21"/>
+      <c r="AL48" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="AM48" s="21"/>
+      <c r="AN48" s="21"/>
+    </row>
+    <row r="49" spans="1:40">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -3508,30 +4089,42 @@
       <c r="I49" s="9">
         <v>101.1</v>
       </c>
-      <c r="K49" s="18">
+      <c r="K49" s="1">
         <v>-0.4</v>
       </c>
       <c r="L49">
         <f>$V$13/4</f>
         <v>2.3877080447104966</v>
       </c>
-      <c r="M49" s="19">
+      <c r="M49" s="18">
         <v>-0.40859000000000001</v>
       </c>
-      <c r="O49" s="21">
+      <c r="O49" s="20">
         <v>-0.55039821830610003</v>
       </c>
       <c r="P49">
         <v>300.10000000000002</v>
       </c>
-      <c r="Z49" s="22">
+      <c r="Z49" s="1">
         <v>2.6</v>
       </c>
       <c r="AD49">
         <v>1.3482000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:30">
+      <c r="AG49" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="AH49" s="21"/>
+      <c r="AI49" s="21"/>
+      <c r="AJ49" s="21"/>
+      <c r="AK49" s="21"/>
+      <c r="AL49" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="AM49" s="21"/>
+      <c r="AN49" s="21"/>
+    </row>
+    <row r="50" spans="1:40">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -3559,30 +4152,42 @@
       <c r="I50" s="9">
         <v>99.9</v>
       </c>
-      <c r="K50" s="18">
+      <c r="K50" s="1">
         <v>2.1</v>
       </c>
       <c r="L50">
         <f>$V$14/4</f>
         <v>1.9659341121131604</v>
       </c>
-      <c r="M50" s="19">
+      <c r="M50" s="18">
         <v>-0.24351</v>
       </c>
-      <c r="O50" s="21">
+      <c r="O50" s="20">
         <v>-2.7632857326917399</v>
       </c>
       <c r="P50">
         <v>293.10000000000002</v>
       </c>
-      <c r="Z50" s="22">
+      <c r="Z50" s="1">
         <v>0.9</v>
       </c>
       <c r="AD50">
         <v>1.3108</v>
       </c>
-    </row>
-    <row r="51" spans="1:30">
+      <c r="AG50" s="21">
+        <v>4.7</v>
+      </c>
+      <c r="AH50" s="21"/>
+      <c r="AI50" s="21"/>
+      <c r="AJ50" s="21"/>
+      <c r="AK50" s="21"/>
+      <c r="AL50" s="21">
+        <v>-0.5</v>
+      </c>
+      <c r="AM50" s="21"/>
+      <c r="AN50" s="21"/>
+    </row>
+    <row r="51" spans="1:40">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -3610,30 +4215,42 @@
       <c r="I51" s="9">
         <v>99.9</v>
       </c>
-      <c r="K51" s="18">
+      <c r="K51" s="1">
         <v>0.9</v>
       </c>
       <c r="L51">
         <f>$V$14/4</f>
         <v>1.9659341121131604</v>
       </c>
-      <c r="M51" s="19">
+      <c r="M51" s="18">
         <v>-0.22869</v>
       </c>
-      <c r="O51" s="21">
+      <c r="O51" s="20">
         <v>-2.4222553581170398</v>
       </c>
       <c r="P51">
         <v>282.2</v>
       </c>
-      <c r="Z51" s="22">
+      <c r="Z51" s="1">
         <v>1</v>
       </c>
       <c r="AD51">
         <v>1.2814000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:30">
+      <c r="AG51" s="21">
+        <v>4.2</v>
+      </c>
+      <c r="AH51" s="21"/>
+      <c r="AI51" s="21"/>
+      <c r="AJ51" s="21"/>
+      <c r="AK51" s="21"/>
+      <c r="AL51" s="21">
+        <v>-0.7</v>
+      </c>
+      <c r="AM51" s="21"/>
+      <c r="AN51" s="21"/>
+    </row>
+    <row r="52" spans="1:40">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -3661,30 +4278,42 @@
       <c r="I52" s="9">
         <v>100.2</v>
       </c>
-      <c r="K52" s="18">
+      <c r="K52" s="1">
         <v>1.2</v>
       </c>
       <c r="L52">
         <f>$V$14/4</f>
         <v>1.9659341121131604</v>
       </c>
-      <c r="M52" s="19">
+      <c r="M52" s="18">
         <v>-0.11108999999999999</v>
       </c>
-      <c r="O52" s="21">
+      <c r="O52" s="20">
         <v>1.3851786977531899</v>
       </c>
       <c r="P52">
         <v>286.2</v>
       </c>
-      <c r="Z52" s="22">
+      <c r="Z52" s="1">
         <v>0.4</v>
       </c>
       <c r="AD52">
         <v>1.2502</v>
       </c>
-    </row>
-    <row r="53" spans="1:30">
+      <c r="AG52" s="21">
+        <v>4.3</v>
+      </c>
+      <c r="AH52" s="21"/>
+      <c r="AI52" s="21"/>
+      <c r="AJ52" s="21"/>
+      <c r="AK52" s="21"/>
+      <c r="AL52" s="21">
+        <v>-1</v>
+      </c>
+      <c r="AM52" s="21"/>
+      <c r="AN52" s="21"/>
+    </row>
+    <row r="53" spans="1:40">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -3712,30 +4341,42 @@
       <c r="I53" s="9">
         <v>98.3</v>
       </c>
-      <c r="K53" s="18">
+      <c r="K53" s="1">
         <v>-1.7</v>
       </c>
       <c r="L53">
         <f>$V$14/4</f>
         <v>1.9659341121131604</v>
       </c>
-      <c r="M53" s="19">
+      <c r="M53" s="18">
         <v>-0.45374999999999999</v>
       </c>
-      <c r="O53" s="21">
+      <c r="O53" s="20">
         <v>-2.0513598337387799</v>
       </c>
       <c r="P53">
         <v>316.3</v>
       </c>
-      <c r="Z53" s="22">
+      <c r="Z53" s="1">
         <v>0.2</v>
       </c>
       <c r="AD53">
         <v>1.2967</v>
       </c>
-    </row>
-    <row r="54" spans="1:30">
+      <c r="AG53" s="21">
+        <v>3.6</v>
+      </c>
+      <c r="AH53" s="21"/>
+      <c r="AI53" s="21"/>
+      <c r="AJ53" s="21"/>
+      <c r="AK53" s="21"/>
+      <c r="AL53" s="21">
+        <v>-1</v>
+      </c>
+      <c r="AM53" s="21"/>
+      <c r="AN53" s="21"/>
+    </row>
+    <row r="54" spans="1:40">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -3763,30 +4404,42 @@
       <c r="I54" s="9">
         <v>97.2</v>
       </c>
-      <c r="K54" s="18">
+      <c r="K54" s="1">
         <v>-0.1</v>
       </c>
       <c r="L54">
         <f>$V$15/4</f>
         <v>1.9415375243397754</v>
       </c>
-      <c r="M54" s="19">
+      <c r="M54" s="18">
         <v>-0.35360999999999998</v>
       </c>
-      <c r="O54" s="21">
+      <c r="O54" s="20">
         <v>-1.6960241074946001</v>
       </c>
       <c r="P54">
         <v>294.89999999999998</v>
       </c>
-      <c r="Z54" s="22">
+      <c r="Z54" s="1">
         <v>-0.4</v>
       </c>
       <c r="AD54">
         <v>1.3206</v>
       </c>
-    </row>
-    <row r="55" spans="1:30">
+      <c r="AG54" s="21">
+        <v>3.6</v>
+      </c>
+      <c r="AH54" s="21"/>
+      <c r="AI54" s="21"/>
+      <c r="AJ54" s="21"/>
+      <c r="AK54" s="21"/>
+      <c r="AL54" s="21">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AM54" s="21"/>
+      <c r="AN54" s="21"/>
+    </row>
+    <row r="55" spans="1:40">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -3814,30 +4467,42 @@
       <c r="I55" s="9">
         <v>98.2</v>
       </c>
-      <c r="K55" s="18">
+      <c r="K55" s="1">
         <v>0.5</v>
       </c>
       <c r="L55">
         <f>$V$15/4</f>
         <v>1.9415375243397754</v>
       </c>
-      <c r="M55" s="19">
+      <c r="M55" s="18">
         <v>0.55430000000000001</v>
       </c>
-      <c r="O55" s="21">
+      <c r="O55" s="20">
         <v>-1.0139256541217301</v>
       </c>
       <c r="P55">
         <v>292.7</v>
       </c>
-      <c r="Z55" s="22">
+      <c r="Z55" s="1">
         <v>0.5</v>
       </c>
       <c r="AD55">
         <v>1.3062</v>
       </c>
-    </row>
-    <row r="56" spans="1:30">
+      <c r="AG55" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="AH55" s="21"/>
+      <c r="AI55" s="21"/>
+      <c r="AJ55" s="21"/>
+      <c r="AK55" s="21"/>
+      <c r="AL55" s="21">
+        <v>-0.4</v>
+      </c>
+      <c r="AM55" s="21"/>
+      <c r="AN55" s="21"/>
+    </row>
+    <row r="56" spans="1:40">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -3865,30 +4530,42 @@
       <c r="I56" s="9">
         <v>98.5</v>
       </c>
-      <c r="K56" s="18">
+      <c r="K56" s="1">
         <v>1.8</v>
       </c>
       <c r="L56">
         <f>$V$15/4</f>
         <v>1.9415375243397754</v>
       </c>
-      <c r="M56" s="19">
+      <c r="M56" s="18">
         <v>0.30076999999999998</v>
       </c>
-      <c r="O56" s="21">
+      <c r="O56" s="20">
         <v>-0.56297522033235003</v>
       </c>
       <c r="P56">
         <v>300</v>
       </c>
-      <c r="Z56" s="22">
+      <c r="Z56" s="1">
         <v>0.7</v>
       </c>
       <c r="AD56">
         <v>1.3242</v>
       </c>
-    </row>
-    <row r="57" spans="1:30">
+      <c r="AG56" s="21">
+        <v>3.9</v>
+      </c>
+      <c r="AH56" s="21"/>
+      <c r="AI56" s="21"/>
+      <c r="AJ56" s="21"/>
+      <c r="AK56" s="21"/>
+      <c r="AL56" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="21"/>
+      <c r="AN56" s="21"/>
+    </row>
+    <row r="57" spans="1:40">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -3916,30 +4593,42 @@
       <c r="I57" s="9">
         <v>99.7</v>
       </c>
-      <c r="K57" s="18">
+      <c r="K57" s="1">
         <v>1.7</v>
       </c>
       <c r="L57">
         <f>$V$15/4</f>
         <v>1.9415375243397754</v>
       </c>
-      <c r="M57" s="19">
+      <c r="M57" s="18">
         <v>0.30018</v>
       </c>
-      <c r="O57" s="21">
+      <c r="O57" s="20">
         <v>-0.97062165647419929</v>
       </c>
       <c r="P57">
         <v>316.2</v>
       </c>
-      <c r="Z57" s="22">
+      <c r="Z57" s="1">
         <v>1.5</v>
       </c>
       <c r="AD57">
         <v>1.361</v>
       </c>
-    </row>
-    <row r="58" spans="1:30">
+      <c r="AG57" s="21">
+        <v>4.7</v>
+      </c>
+      <c r="AH57" s="21"/>
+      <c r="AI57" s="21"/>
+      <c r="AJ57" s="21"/>
+      <c r="AK57" s="21"/>
+      <c r="AL57" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="AM57" s="21"/>
+      <c r="AN57" s="21"/>
+    </row>
+    <row r="58" spans="1:40">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -3967,30 +4656,42 @@
       <c r="I58" s="9">
         <v>100.2</v>
       </c>
-      <c r="K58" s="18">
+      <c r="K58" s="1">
         <v>0.2</v>
       </c>
       <c r="L58">
         <f>$V$16/4</f>
         <v>1.8564409139922908</v>
       </c>
-      <c r="M58" s="19">
+      <c r="M58" s="18">
         <v>0.39834000000000003</v>
       </c>
-      <c r="O58" s="21">
+      <c r="O58" s="20">
         <v>-2.1286509942533809</v>
       </c>
       <c r="P58">
         <v>305</v>
       </c>
-      <c r="Z58" s="22">
+      <c r="Z58" s="1">
         <v>2.9</v>
       </c>
       <c r="AD58">
         <v>1.3695999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:30">
+      <c r="AG58" s="21">
+        <v>3.3</v>
+      </c>
+      <c r="AH58" s="21"/>
+      <c r="AI58" s="21"/>
+      <c r="AJ58" s="21"/>
+      <c r="AK58" s="21"/>
+      <c r="AL58" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="AM58" s="21"/>
+      <c r="AN58" s="21"/>
+    </row>
+    <row r="59" spans="1:40">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -4018,30 +4719,42 @@
       <c r="I59" s="9">
         <v>100.9</v>
       </c>
-      <c r="K59" s="18">
+      <c r="K59" s="1">
         <v>0.9</v>
       </c>
       <c r="L59">
         <f>$V$16/4</f>
         <v>1.8564409139922908</v>
       </c>
-      <c r="M59" s="19">
+      <c r="M59" s="18">
         <v>0.21203</v>
       </c>
-      <c r="O59" s="21">
+      <c r="O59" s="20">
         <v>1.2188103207842691</v>
       </c>
       <c r="P59">
         <v>299</v>
       </c>
-      <c r="Z59" s="22">
+      <c r="Z59" s="1">
         <v>1.8</v>
       </c>
       <c r="AD59">
         <v>1.3711</v>
       </c>
-    </row>
-    <row r="60" spans="1:30">
+      <c r="AG59" s="21">
+        <v>4.7</v>
+      </c>
+      <c r="AH59" s="21"/>
+      <c r="AI59" s="21"/>
+      <c r="AJ59" s="21"/>
+      <c r="AK59" s="21"/>
+      <c r="AL59" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="AM59" s="21"/>
+      <c r="AN59" s="21"/>
+    </row>
+    <row r="60" spans="1:40">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -4069,30 +4782,42 @@
       <c r="I60" s="9">
         <v>100.4</v>
       </c>
-      <c r="K60" s="18">
+      <c r="K60" s="1">
         <v>2</v>
       </c>
       <c r="L60">
         <f>$V$16/4</f>
         <v>1.8564409139922908</v>
       </c>
-      <c r="M60" s="19">
+      <c r="M60" s="18">
         <v>0.46937000000000001</v>
       </c>
-      <c r="O60" s="21">
+      <c r="O60" s="20">
         <v>-1.027837753629449</v>
       </c>
       <c r="P60">
         <v>305.5</v>
       </c>
-      <c r="Z60" s="22">
+      <c r="Z60" s="1">
         <v>1.8</v>
       </c>
       <c r="AD60">
         <v>1.3255999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:30">
+      <c r="AG60" s="21">
+        <v>5</v>
+      </c>
+      <c r="AH60" s="21"/>
+      <c r="AI60" s="21"/>
+      <c r="AJ60" s="21"/>
+      <c r="AK60" s="21"/>
+      <c r="AL60" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="AM60" s="21"/>
+      <c r="AN60" s="21"/>
+    </row>
+    <row r="61" spans="1:40">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -4120,30 +4845,42 @@
       <c r="I61" s="9">
         <v>99.6</v>
       </c>
-      <c r="K61" s="18">
+      <c r="K61" s="1">
         <v>1.8</v>
       </c>
       <c r="L61">
         <f>$V$16/4</f>
         <v>1.8564409139922908</v>
       </c>
-      <c r="M61" s="19">
+      <c r="M61" s="18">
         <v>0.35433999999999999</v>
       </c>
-      <c r="O61" s="21">
+      <c r="O61" s="20">
         <v>-1.9701090788438</v>
       </c>
       <c r="P61">
         <v>327.60000000000002</v>
       </c>
-      <c r="Z61" s="22">
+      <c r="Z61" s="1">
         <v>2.2999999999999998</v>
       </c>
       <c r="AD61">
         <v>1.2498</v>
       </c>
-    </row>
-    <row r="62" spans="1:30">
+      <c r="AG61" s="21">
+        <v>4.2</v>
+      </c>
+      <c r="AH61" s="21"/>
+      <c r="AI61" s="21"/>
+      <c r="AJ61" s="21"/>
+      <c r="AK61" s="21"/>
+      <c r="AL61" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="AM61" s="21"/>
+      <c r="AN61" s="21"/>
+    </row>
+    <row r="62" spans="1:40">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -4171,30 +4908,42 @@
       <c r="I62" s="9">
         <v>99.3</v>
       </c>
-      <c r="K62" s="18">
+      <c r="K62" s="1">
         <v>0.9</v>
       </c>
       <c r="L62">
         <f>$V$17/4</f>
         <v>1.7603322198688751</v>
       </c>
-      <c r="M62" s="19">
+      <c r="M62" s="18">
         <v>0.63656999999999997</v>
       </c>
-      <c r="O62" s="21">
+      <c r="O62" s="20">
         <v>-3.7741022088656102</v>
       </c>
       <c r="P62">
         <v>315.8</v>
       </c>
-      <c r="Z62" s="22">
+      <c r="Z62" s="1">
         <v>0.8</v>
       </c>
       <c r="AD62">
         <v>1.1261000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:30">
+      <c r="AG62" s="21">
+        <v>5</v>
+      </c>
+      <c r="AH62" s="21"/>
+      <c r="AI62" s="21"/>
+      <c r="AJ62" s="21"/>
+      <c r="AK62" s="21"/>
+      <c r="AL62" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="AM62" s="21"/>
+      <c r="AN62" s="21"/>
+    </row>
+    <row r="63" spans="1:40">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -4222,30 +4971,42 @@
       <c r="I63" s="9">
         <v>100.3</v>
       </c>
-      <c r="K63" s="18">
+      <c r="K63" s="1">
         <v>1.9</v>
       </c>
       <c r="L63">
         <f>$V$17/4</f>
         <v>1.7603322198688751</v>
       </c>
-      <c r="M63" s="19">
+      <c r="M63" s="18">
         <v>0.47854000000000002</v>
       </c>
-      <c r="O63" s="21">
+      <c r="O63" s="20">
         <v>1.6784047388933101</v>
       </c>
       <c r="P63">
         <v>301.8</v>
       </c>
-      <c r="Z63" s="22">
+      <c r="Z63" s="1">
         <v>1.6</v>
       </c>
       <c r="AD63">
         <v>1.1052999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:30">
+      <c r="AG63" s="21">
+        <v>4.3</v>
+      </c>
+      <c r="AH63" s="21"/>
+      <c r="AI63" s="21"/>
+      <c r="AJ63" s="21"/>
+      <c r="AK63" s="21"/>
+      <c r="AL63" s="21">
+        <v>2</v>
+      </c>
+      <c r="AM63" s="21"/>
+      <c r="AN63" s="21"/>
+    </row>
+    <row r="64" spans="1:40">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -4273,30 +5034,42 @@
       <c r="I64" s="9">
         <v>100.8</v>
       </c>
-      <c r="K64" s="18">
+      <c r="K64" s="1">
         <v>0.1</v>
       </c>
       <c r="L64">
         <f>$V$17/4</f>
         <v>1.7603322198688751</v>
       </c>
-      <c r="M64" s="19">
+      <c r="M64" s="18">
         <v>0.37979000000000002</v>
       </c>
-      <c r="O64" s="21">
+      <c r="O64" s="20">
         <v>-1.9865240500791499</v>
       </c>
       <c r="P64">
         <v>315.5</v>
       </c>
-      <c r="Z64" s="22">
+      <c r="Z64" s="1">
         <v>1.5</v>
       </c>
       <c r="AD64">
         <v>1.1116999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:30">
+      <c r="AG64" s="21">
+        <v>3.4</v>
+      </c>
+      <c r="AH64" s="21"/>
+      <c r="AI64" s="21"/>
+      <c r="AJ64" s="21"/>
+      <c r="AK64" s="21"/>
+      <c r="AL64" s="21">
+        <v>1.9</v>
+      </c>
+      <c r="AM64" s="21"/>
+      <c r="AN64" s="21"/>
+    </row>
+    <row r="65" spans="1:40">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -4324,30 +5097,42 @@
       <c r="I65" s="9">
         <v>100</v>
       </c>
-      <c r="K65" s="18">
+      <c r="K65" s="1">
         <v>-0.5</v>
       </c>
       <c r="L65">
         <f>$V$17/4</f>
         <v>1.7603322198688751</v>
       </c>
-      <c r="M65" s="19">
+      <c r="M65" s="18">
         <v>0.46306000000000003</v>
       </c>
-      <c r="O65" s="21">
+      <c r="O65" s="20">
         <v>0.22794261530882001</v>
       </c>
       <c r="P65">
         <v>338.9</v>
       </c>
-      <c r="Z65" s="22">
+      <c r="Z65" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="AD65">
         <v>1.0952999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:30">
+      <c r="AG65" s="21">
+        <v>2.9</v>
+      </c>
+      <c r="AH65" s="21"/>
+      <c r="AI65" s="21"/>
+      <c r="AJ65" s="21"/>
+      <c r="AK65" s="21"/>
+      <c r="AL65" s="21">
+        <v>2</v>
+      </c>
+      <c r="AM65" s="21"/>
+      <c r="AN65" s="21"/>
+    </row>
+    <row r="66" spans="1:40">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -4375,30 +5160,42 @@
       <c r="I66" s="9">
         <v>100.2</v>
       </c>
-      <c r="K66" s="18">
+      <c r="K66" s="1">
         <v>1.2</v>
       </c>
       <c r="L66">
         <f>$V$18/4</f>
         <v>1.71219055111046</v>
       </c>
-      <c r="M66" s="19">
+      <c r="M66" s="18">
         <v>0.57313000000000003</v>
       </c>
-      <c r="O66" s="21">
+      <c r="O66" s="20">
         <v>0.33956075174650002</v>
       </c>
       <c r="P66">
         <v>325.3</v>
       </c>
-      <c r="Z66" s="22">
+      <c r="Z66" s="1">
         <v>2.5</v>
       </c>
       <c r="AD66">
         <v>1.1020000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:30">
+      <c r="AG66" s="21">
+        <v>2.6</v>
+      </c>
+      <c r="AH66" s="21"/>
+      <c r="AI66" s="21"/>
+      <c r="AJ66" s="21"/>
+      <c r="AK66" s="21"/>
+      <c r="AL66" s="21">
+        <v>1.9</v>
+      </c>
+      <c r="AM66" s="21"/>
+      <c r="AN66" s="21"/>
+    </row>
+    <row r="67" spans="1:40">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -4426,30 +5223,42 @@
       <c r="I67" s="9">
         <v>100</v>
       </c>
-      <c r="K67" s="18">
+      <c r="K67" s="1">
         <v>1.2</v>
       </c>
       <c r="L67">
         <f>$V$18/4</f>
         <v>1.71219055111046</v>
       </c>
-      <c r="M67" s="19">
+      <c r="M67" s="18">
         <v>0.22178</v>
       </c>
-      <c r="O67" s="21">
+      <c r="O67" s="20">
         <v>-6.6427148916800002E-2</v>
       </c>
       <c r="P67">
         <v>314.2</v>
       </c>
-      <c r="Z67" s="22">
+      <c r="Z67" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="AD67">
         <v>1.1292</v>
       </c>
-    </row>
-    <row r="68" spans="1:30">
+      <c r="AG67" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="AH67" s="21"/>
+      <c r="AI67" s="21"/>
+      <c r="AJ67" s="21"/>
+      <c r="AK67" s="21"/>
+      <c r="AL67" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="AM67" s="21"/>
+      <c r="AN67" s="21"/>
+    </row>
+    <row r="68" spans="1:40">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -4477,30 +5286,42 @@
       <c r="I68" s="9">
         <v>99.2</v>
       </c>
-      <c r="K68" s="18">
+      <c r="K68" s="1">
         <v>-0.1</v>
       </c>
       <c r="L68">
         <f>$V$18/4</f>
         <v>1.71219055111046</v>
       </c>
-      <c r="M68" s="19">
+      <c r="M68" s="18">
         <v>0.47817999999999999</v>
       </c>
-      <c r="O68" s="21">
+      <c r="O68" s="20">
         <v>1.91977487274632</v>
       </c>
       <c r="P68">
         <v>333.4</v>
       </c>
-      <c r="Z68" s="22">
+      <c r="Z68" s="1">
         <v>2</v>
       </c>
       <c r="AD68">
         <v>1.1166</v>
       </c>
-    </row>
-    <row r="69" spans="1:30">
+      <c r="AG68" s="21">
+        <v>2.7</v>
+      </c>
+      <c r="AH68" s="21"/>
+      <c r="AI68" s="21"/>
+      <c r="AJ68" s="21"/>
+      <c r="AK68" s="21"/>
+      <c r="AL68" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="AM68" s="21"/>
+      <c r="AN68" s="21"/>
+    </row>
+    <row r="69" spans="1:40">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -4528,30 +5349,42 @@
       <c r="I69" s="9">
         <v>101.1</v>
       </c>
-      <c r="K69" s="18">
+      <c r="K69" s="1">
         <v>0.6</v>
       </c>
       <c r="L69">
         <f>$V$18/4</f>
         <v>1.71219055111046</v>
       </c>
-      <c r="M69" s="19">
+      <c r="M69" s="18">
         <v>0.78015999999999996</v>
       </c>
-      <c r="O69" s="21">
+      <c r="O69" s="20">
         <v>4.7208648124989621</v>
       </c>
       <c r="P69">
         <v>358.1</v>
       </c>
-      <c r="Z69" s="22">
+      <c r="Z69" s="1">
         <v>1.9</v>
       </c>
       <c r="AD69">
         <v>1.0789</v>
       </c>
-    </row>
-    <row r="70" spans="1:30">
+      <c r="AG69" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="AH69" s="21"/>
+      <c r="AI69" s="21"/>
+      <c r="AJ69" s="21"/>
+      <c r="AK69" s="21"/>
+      <c r="AL69" s="21">
+        <v>2.1</v>
+      </c>
+      <c r="AM69" s="21"/>
+      <c r="AN69" s="21"/>
+    </row>
+    <row r="70" spans="1:40">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -4579,30 +5412,42 @@
       <c r="I70" s="9">
         <v>101.4</v>
       </c>
-      <c r="K70" s="18">
+      <c r="K70" s="1">
         <v>2.6</v>
       </c>
       <c r="L70">
         <f>$V$19/4</f>
         <v>1.7368001982913341</v>
       </c>
-      <c r="M70" s="19">
+      <c r="M70" s="18">
         <v>0.69562000000000002</v>
       </c>
-      <c r="O70" s="21">
+      <c r="O70" s="20">
         <v>6.0890419589796583</v>
       </c>
       <c r="P70">
         <v>326.39999999999998</v>
       </c>
-      <c r="Z70" s="22">
+      <c r="Z70" s="1">
         <v>2.2999999999999998</v>
       </c>
       <c r="AD70">
         <v>1.0648</v>
       </c>
-    </row>
-    <row r="71" spans="1:30">
+      <c r="AG70" s="21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AH70" s="21"/>
+      <c r="AI70" s="21"/>
+      <c r="AJ70" s="21"/>
+      <c r="AK70" s="21"/>
+      <c r="AL70" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM70" s="21"/>
+      <c r="AN70" s="21"/>
+    </row>
+    <row r="71" spans="1:40">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -4630,30 +5475,42 @@
       <c r="I71" s="9">
         <v>102.3</v>
       </c>
-      <c r="K71" s="18">
+      <c r="K71" s="1">
         <v>1.7</v>
       </c>
       <c r="L71">
         <f>$V$19/4</f>
         <v>1.7368001982913341</v>
       </c>
-      <c r="M71" s="19">
+      <c r="M71" s="18">
         <v>0.79635</v>
       </c>
-      <c r="O71" s="21">
+      <c r="O71" s="20">
         <v>-3.40669355065251</v>
       </c>
       <c r="P71">
         <v>332.7</v>
       </c>
-      <c r="Z71" s="22">
+      <c r="Z71" s="1">
         <v>2.7</v>
       </c>
       <c r="AD71">
         <v>1.1021000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:30">
+      <c r="AG71" s="21">
+        <v>3.9</v>
+      </c>
+      <c r="AH71" s="21"/>
+      <c r="AI71" s="21"/>
+      <c r="AJ71" s="21"/>
+      <c r="AK71" s="21"/>
+      <c r="AL71" s="21">
+        <v>2.8</v>
+      </c>
+      <c r="AM71" s="21"/>
+      <c r="AN71" s="21"/>
+    </row>
+    <row r="72" spans="1:40">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -4681,30 +5538,42 @@
       <c r="I72" s="9">
         <v>102</v>
       </c>
-      <c r="K72" s="18">
+      <c r="K72" s="1">
         <v>1.2</v>
       </c>
       <c r="L72">
         <f>$V$19/4</f>
         <v>1.7368001982913341</v>
       </c>
-      <c r="M72" s="19">
+      <c r="M72" s="18">
         <v>0.74746000000000001</v>
       </c>
-      <c r="O72" s="21">
+      <c r="O72" s="20">
         <v>-0.31706445333054001</v>
       </c>
       <c r="P72">
         <v>343.2</v>
       </c>
-      <c r="Z72" s="22">
+      <c r="Z72" s="1">
         <v>3.2</v>
       </c>
       <c r="AD72">
         <v>1.1746000000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:30">
+      <c r="AG72" s="21">
+        <v>4.2</v>
+      </c>
+      <c r="AH72" s="21"/>
+      <c r="AI72" s="21"/>
+      <c r="AJ72" s="21"/>
+      <c r="AK72" s="21"/>
+      <c r="AL72" s="21">
+        <v>3.1</v>
+      </c>
+      <c r="AM72" s="21"/>
+      <c r="AN72" s="21"/>
+    </row>
+    <row r="73" spans="1:40">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -4732,30 +5601,42 @@
       <c r="I73" s="9">
         <v>102.3</v>
       </c>
-      <c r="K73" s="18">
+      <c r="K73" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="L73">
         <f>$V$19/4</f>
         <v>1.7368001982913341</v>
       </c>
-      <c r="M73" s="19">
+      <c r="M73" s="18">
         <v>0.79752999999999996</v>
       </c>
-      <c r="O73" s="21">
+      <c r="O73" s="20">
         <v>0.1557393708772</v>
       </c>
       <c r="P73">
         <v>373.8</v>
       </c>
-      <c r="Z73" s="22">
+      <c r="Z73" s="1">
         <v>3.8</v>
       </c>
       <c r="AD73">
         <v>1.1774</v>
       </c>
-    </row>
-    <row r="74" spans="1:30">
+      <c r="AG73" s="21">
+        <v>5</v>
+      </c>
+      <c r="AH73" s="21"/>
+      <c r="AI73" s="21"/>
+      <c r="AJ73" s="21"/>
+      <c r="AK73" s="21"/>
+      <c r="AL73" s="21">
+        <v>3.1</v>
+      </c>
+      <c r="AM73" s="21"/>
+      <c r="AN73" s="21"/>
+    </row>
+    <row r="74" spans="1:40">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -4783,30 +5664,42 @@
       <c r="I74" s="9">
         <v>103.5</v>
       </c>
-      <c r="K74" s="18">
+      <c r="K74" s="1">
         <v>0.8</v>
       </c>
       <c r="L74">
         <f>$V$20/4</f>
         <v>1.6874434581278699</v>
       </c>
-      <c r="M74" s="19">
+      <c r="M74" s="18">
         <v>-3.4000000000000002E-4</v>
       </c>
-      <c r="O74" s="21">
+      <c r="O74" s="20">
         <v>-1.3359061678837321</v>
       </c>
       <c r="P74">
         <v>341.7</v>
       </c>
-      <c r="Z74" s="22">
+      <c r="Z74" s="1">
         <v>1.9</v>
       </c>
       <c r="AD74">
         <v>1.2292000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:30">
+      <c r="AG74" s="21">
+        <v>5.4</v>
+      </c>
+      <c r="AH74" s="21"/>
+      <c r="AI74" s="21"/>
+      <c r="AJ74" s="21"/>
+      <c r="AK74" s="21"/>
+      <c r="AL74" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="AM74" s="21"/>
+      <c r="AN74" s="21"/>
+    </row>
+    <row r="75" spans="1:40">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -4834,30 +5727,42 @@
       <c r="I75" s="9">
         <v>102.6</v>
       </c>
-      <c r="K75" s="18">
+      <c r="K75" s="1">
         <v>0.3</v>
       </c>
       <c r="L75">
         <f>$V$20/4</f>
         <v>1.6874434581278699</v>
       </c>
-      <c r="M75" s="19">
+      <c r="M75" s="18">
         <v>0.55849000000000004</v>
       </c>
-      <c r="O75" s="21">
+      <c r="O75" s="20">
         <v>3.5229242764519122</v>
       </c>
       <c r="P75">
         <v>337.3</v>
       </c>
-      <c r="Z75" s="22">
+      <c r="Z75" s="1">
         <v>1.8</v>
       </c>
       <c r="AD75">
         <v>1.1915</v>
       </c>
-    </row>
-    <row r="76" spans="1:30">
+      <c r="AG75" s="21">
+        <v>5.9</v>
+      </c>
+      <c r="AH75" s="21"/>
+      <c r="AI75" s="21"/>
+      <c r="AJ75" s="21"/>
+      <c r="AK75" s="21"/>
+      <c r="AL75" s="21">
+        <v>2.1</v>
+      </c>
+      <c r="AM75" s="21"/>
+      <c r="AN75" s="21"/>
+    </row>
+    <row r="76" spans="1:40">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -4885,30 +5790,42 @@
       <c r="I76" s="9">
         <v>101.3</v>
       </c>
-      <c r="K76" s="18">
+      <c r="K76" s="1">
         <v>-0.9</v>
       </c>
       <c r="L76">
         <f>$V$20/4</f>
         <v>1.6874434581278699</v>
       </c>
-      <c r="M76" s="19">
+      <c r="M76" s="18">
         <v>-2.4459999999999999E-2</v>
       </c>
-      <c r="O76" s="21">
+      <c r="O76" s="20">
         <v>2.7414166084687399</v>
       </c>
       <c r="P76">
         <v>355.5</v>
       </c>
-      <c r="Z76" s="22">
+      <c r="Z76" s="1">
         <v>0.2</v>
       </c>
       <c r="AD76">
         <v>1.1629</v>
       </c>
-    </row>
-    <row r="77" spans="1:30">
+      <c r="AG76" s="21">
+        <v>5.6</v>
+      </c>
+      <c r="AH76" s="21"/>
+      <c r="AI76" s="21"/>
+      <c r="AJ76" s="21"/>
+      <c r="AK76" s="21"/>
+      <c r="AL76" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="AM76" s="21"/>
+      <c r="AN76" s="21"/>
+    </row>
+    <row r="77" spans="1:40">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -4936,30 +5853,42 @@
       <c r="I77" s="9">
         <v>100.5</v>
       </c>
-      <c r="K77" s="18">
+      <c r="K77" s="1">
         <v>-0.1</v>
       </c>
       <c r="L77">
         <f>$V$20/4</f>
         <v>1.6874434581278699</v>
       </c>
-      <c r="M77" s="19">
+      <c r="M77" s="18">
         <v>0.68808000000000002</v>
       </c>
-      <c r="O77" s="21">
+      <c r="O77" s="20">
         <v>0.64463924002540995</v>
       </c>
       <c r="P77">
         <v>396.4</v>
       </c>
-      <c r="Z77" s="22">
+      <c r="Z77" s="1">
         <v>0.1</v>
       </c>
       <c r="AD77">
         <v>1.1414</v>
       </c>
-    </row>
-    <row r="78" spans="1:30">
+      <c r="AG77" s="21">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AH77" s="21"/>
+      <c r="AI77" s="21"/>
+      <c r="AJ77" s="21"/>
+      <c r="AK77" s="21"/>
+      <c r="AL77" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="AM77" s="21"/>
+      <c r="AN77" s="21"/>
+    </row>
+    <row r="78" spans="1:40">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -4987,30 +5916,42 @@
       <c r="I78" s="9">
         <v>99.7</v>
       </c>
-      <c r="K78" s="18">
+      <c r="K78" s="1">
         <v>3.7</v>
       </c>
       <c r="L78">
         <f>$V$21/4</f>
         <v>1.4876251885982867</v>
       </c>
-      <c r="M78" s="19">
+      <c r="M78" s="18">
         <v>0.59633000000000003</v>
       </c>
-      <c r="O78" s="21">
+      <c r="O78" s="20">
         <v>-4.0908053794580796</v>
       </c>
       <c r="P78">
         <v>364.1</v>
       </c>
-      <c r="Z78" s="22">
+      <c r="Z78" s="1">
         <v>1.4</v>
       </c>
       <c r="AD78">
         <v>1.1357999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:30">
+      <c r="AG78" s="21">
+        <v>3.8</v>
+      </c>
+      <c r="AH78" s="21"/>
+      <c r="AI78" s="21"/>
+      <c r="AJ78" s="21"/>
+      <c r="AK78" s="21"/>
+      <c r="AL78" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="AM78" s="21"/>
+      <c r="AN78" s="21"/>
+    </row>
+    <row r="79" spans="1:40">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -5038,30 +5979,42 @@
       <c r="I79" s="9">
         <v>99.9</v>
       </c>
-      <c r="K79" s="18">
+      <c r="K79" s="1">
         <v>-1.5</v>
       </c>
       <c r="L79">
         <f>$V$21/4</f>
         <v>1.4876251885982867</v>
       </c>
-      <c r="M79" s="19">
+      <c r="M79" s="18">
         <v>0.35109000000000001</v>
       </c>
-      <c r="O79" s="21">
+      <c r="O79" s="20">
         <v>0.49104950760075</v>
       </c>
       <c r="P79">
         <v>374.5</v>
       </c>
-      <c r="Z79" s="22">
+      <c r="Z79" s="1">
         <v>0.6</v>
       </c>
       <c r="AD79">
         <v>1.1236999999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:30">
+      <c r="AG79" s="21">
+        <v>3.9</v>
+      </c>
+      <c r="AH79" s="21"/>
+      <c r="AI79" s="21"/>
+      <c r="AJ79" s="21"/>
+      <c r="AK79" s="21"/>
+      <c r="AL79" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="AM79" s="21"/>
+      <c r="AN79" s="21"/>
+    </row>
+    <row r="80" spans="1:40">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -5089,30 +6042,42 @@
       <c r="I80" s="9">
         <v>99.9</v>
       </c>
-      <c r="K80" s="18">
+      <c r="K80" s="1">
         <v>0.9</v>
       </c>
       <c r="L80">
         <f>$V$21/4</f>
         <v>1.4876251885982867</v>
       </c>
-      <c r="M80" s="19">
+      <c r="M80" s="18">
         <v>0.16294</v>
       </c>
-      <c r="O80" s="21">
+      <c r="O80" s="20">
         <v>-3.0442562017970989</v>
       </c>
       <c r="P80">
         <v>376.9</v>
       </c>
-      <c r="Z80" s="22">
+      <c r="Z80" s="1">
         <v>1.5</v>
       </c>
       <c r="AD80">
         <v>1.1119000000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:30">
+      <c r="AG80" s="21">
+        <v>4.3</v>
+      </c>
+      <c r="AH80" s="21"/>
+      <c r="AI80" s="21"/>
+      <c r="AJ80" s="21"/>
+      <c r="AK80" s="21"/>
+      <c r="AL80" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="AM80" s="21"/>
+      <c r="AN80" s="21"/>
+    </row>
+    <row r="81" spans="1:40">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -5140,30 +6105,42 @@
       <c r="I81" s="9">
         <v>99.2</v>
       </c>
-      <c r="K81" s="18">
+      <c r="K81" s="1">
         <v>-1.1000000000000001</v>
       </c>
       <c r="L81">
         <f>$V$21/4</f>
         <v>1.4876251885982867</v>
       </c>
-      <c r="M81" s="19">
+      <c r="M81" s="18">
         <v>5.6030000000000003E-2</v>
       </c>
-      <c r="O81" s="21">
+      <c r="O81" s="20">
         <v>-2.5458453917278212</v>
       </c>
       <c r="P81">
         <v>414.7</v>
       </c>
-      <c r="Z81" s="22">
+      <c r="Z81" s="1">
         <v>0.9</v>
       </c>
       <c r="AD81">
         <v>1.1071</v>
       </c>
-    </row>
-    <row r="82" spans="1:30">
+      <c r="AG81" s="21">
+        <v>4.7</v>
+      </c>
+      <c r="AH81" s="21"/>
+      <c r="AI81" s="21"/>
+      <c r="AJ81" s="21"/>
+      <c r="AK81" s="21"/>
+      <c r="AL81" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="AM81" s="21"/>
+      <c r="AN81" s="21"/>
+    </row>
+    <row r="82" spans="1:40">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -5191,30 +6168,42 @@
       <c r="I82" s="9">
         <v>100.1</v>
       </c>
-      <c r="K82" s="18">
+      <c r="K82" s="1">
         <v>-2</v>
       </c>
       <c r="L82">
         <f>$V$22/4</f>
         <v>0.55965958918530134</v>
       </c>
-      <c r="M82" s="19">
+      <c r="M82" s="18">
         <v>-3.4341699999999999</v>
       </c>
-      <c r="O82" s="21">
+      <c r="O82" s="20">
         <v>3.62882309515027</v>
       </c>
       <c r="P82">
         <v>379</v>
       </c>
-      <c r="Z82" s="22">
+      <c r="Z82" s="1">
         <v>-1.5</v>
       </c>
       <c r="AD82">
         <v>1.1027</v>
       </c>
-    </row>
-    <row r="83" spans="1:30">
+      <c r="AG82" s="21">
+        <v>2.9</v>
+      </c>
+      <c r="AH82" s="21"/>
+      <c r="AI82" s="21"/>
+      <c r="AJ82" s="21"/>
+      <c r="AK82" s="21"/>
+      <c r="AL82" s="21">
+        <v>-2.9</v>
+      </c>
+      <c r="AM82" s="21"/>
+      <c r="AN82" s="21"/>
+    </row>
+    <row r="83" spans="1:40">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -5242,30 +6231,42 @@
       <c r="I83" s="9">
         <v>84.3</v>
       </c>
-      <c r="K83" s="18">
+      <c r="K83" s="1">
         <v>-20.5</v>
       </c>
       <c r="L83">
         <f>$V$22/4</f>
         <v>0.55965958918530134</v>
       </c>
-      <c r="M83" s="19">
+      <c r="M83" s="18">
         <v>-11.27702</v>
       </c>
-      <c r="O83" s="21">
+      <c r="O83" s="20">
         <v>-8.32119646560575</v>
       </c>
       <c r="P83">
         <v>429</v>
       </c>
-      <c r="Z83" s="22">
+      <c r="Z83" s="1">
         <v>-10.6</v>
       </c>
       <c r="AD83">
         <v>1.1013999999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:30">
+      <c r="AG83" s="21">
+        <v>-6.9</v>
+      </c>
+      <c r="AH83" s="21"/>
+      <c r="AI83" s="21"/>
+      <c r="AJ83" s="21"/>
+      <c r="AK83" s="21"/>
+      <c r="AL83" s="21">
+        <v>-14.1</v>
+      </c>
+      <c r="AM83" s="21"/>
+      <c r="AN83" s="21"/>
+    </row>
+    <row r="84" spans="1:40">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -5293,30 +6294,42 @@
       <c r="I84" s="9">
         <v>97.6</v>
       </c>
-      <c r="K84" s="18">
+      <c r="K84" s="1">
         <v>17.2</v>
       </c>
       <c r="L84">
         <f>$V$22/4</f>
         <v>0.55965958918530134</v>
       </c>
-      <c r="M84" s="19">
+      <c r="M84" s="18">
         <v>12.103949999999999</v>
       </c>
-      <c r="O84" s="21">
+      <c r="O84" s="20">
         <v>0.72399981900943</v>
       </c>
       <c r="P84">
         <v>438.3</v>
       </c>
-      <c r="Z84" s="22">
+      <c r="Z84" s="1">
         <v>-2.6</v>
       </c>
       <c r="AD84">
         <v>1.1689000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:30">
+      <c r="AG84" s="21">
+        <v>-0.2</v>
+      </c>
+      <c r="AH84" s="21"/>
+      <c r="AI84" s="21"/>
+      <c r="AJ84" s="21"/>
+      <c r="AK84" s="21"/>
+      <c r="AL84" s="21">
+        <v>-3.9</v>
+      </c>
+      <c r="AM84" s="21"/>
+      <c r="AN84" s="21"/>
+    </row>
+    <row r="85" spans="1:40">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -5344,30 +6357,42 @@
       <c r="I85" s="9">
         <v>101.3</v>
       </c>
-      <c r="K85" s="18">
+      <c r="K85" s="1">
         <v>4.5</v>
       </c>
       <c r="L85">
         <f>$V$22/4</f>
         <v>0.55965958918530134</v>
       </c>
-      <c r="M85" s="19">
+      <c r="M85" s="18">
         <v>-6.2100000000000002E-2</v>
       </c>
-      <c r="O85" s="21">
+      <c r="O85" s="20">
         <v>-0.39667660907039998</v>
       </c>
       <c r="P85">
         <v>470.2</v>
       </c>
-      <c r="Z85" s="22">
+      <c r="Z85" s="1">
         <v>-2.1</v>
       </c>
       <c r="AD85">
         <v>1.1929000000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:30">
+      <c r="AG85" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="AH85" s="21"/>
+      <c r="AI85" s="21"/>
+      <c r="AJ85" s="21"/>
+      <c r="AK85" s="21"/>
+      <c r="AL85" s="21">
+        <v>-4</v>
+      </c>
+      <c r="AM85" s="21"/>
+      <c r="AN85" s="21"/>
+    </row>
+    <row r="86" spans="1:40">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -5395,30 +6420,42 @@
       <c r="I86" s="9">
         <v>100.9</v>
       </c>
-      <c r="K86" s="18">
+      <c r="K86" s="1">
         <v>2.6</v>
       </c>
       <c r="L86">
         <f>$V$23/4</f>
         <v>2.1121173540703531</v>
       </c>
-      <c r="M86" s="19">
+      <c r="M86" s="18">
         <v>0.39471000000000001</v>
       </c>
-      <c r="O86" s="21">
+      <c r="O86" s="20">
         <v>7.4757720944453796</v>
       </c>
       <c r="P86">
         <v>458</v>
       </c>
-      <c r="Z86" s="22">
+      <c r="Z86" s="1">
         <v>-1.6</v>
       </c>
       <c r="AD86">
         <v>1.2048000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:30">
+      <c r="AG86" s="21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AH86" s="21"/>
+      <c r="AI86" s="21"/>
+      <c r="AJ86" s="21"/>
+      <c r="AK86" s="21"/>
+      <c r="AL86" s="21">
+        <v>-0.2</v>
+      </c>
+      <c r="AM86" s="21"/>
+      <c r="AN86" s="21"/>
+    </row>
+    <row r="87" spans="1:40">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -5446,30 +6483,42 @@
       <c r="I87" s="9">
         <v>100.1</v>
       </c>
-      <c r="K87" s="18">
+      <c r="K87" s="1">
         <v>1</v>
       </c>
       <c r="L87">
         <f>$V$23/4</f>
         <v>2.1121173540703531</v>
       </c>
-      <c r="M87" s="19">
+      <c r="M87" s="18">
         <v>2.10263</v>
       </c>
-      <c r="O87" s="21">
+      <c r="O87" s="20">
         <v>8.6168710763757801</v>
       </c>
       <c r="P87">
         <v>455.3</v>
       </c>
-      <c r="Z87" s="22">
+      <c r="Z87" s="1">
         <v>10.8</v>
       </c>
       <c r="AD87">
         <v>1.2058</v>
       </c>
-    </row>
-    <row r="88" spans="1:30">
+      <c r="AG87" s="21">
+        <v>17</v>
+      </c>
+      <c r="AH87" s="21"/>
+      <c r="AI87" s="21"/>
+      <c r="AJ87" s="21"/>
+      <c r="AK87" s="21"/>
+      <c r="AL87" s="21">
+        <v>14.8</v>
+      </c>
+      <c r="AM87" s="21"/>
+      <c r="AN87" s="21"/>
+    </row>
+    <row r="88" spans="1:40">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -5497,30 +6546,42 @@
       <c r="I88" s="9">
         <v>99.8</v>
       </c>
-      <c r="K88" s="18">
+      <c r="K88" s="1">
         <v>-0.6</v>
       </c>
       <c r="L88">
         <f>$V$23/4</f>
         <v>2.1121173540703531</v>
       </c>
-      <c r="M88" s="19">
+      <c r="M88" s="18">
         <v>2.0802700000000001</v>
       </c>
-      <c r="O88" s="21">
+      <c r="O88" s="20">
         <v>3.1575562492633602</v>
       </c>
       <c r="P88">
         <v>441.4</v>
       </c>
-      <c r="Z88" s="22">
+      <c r="Z88" s="1">
         <v>2.4</v>
       </c>
       <c r="AD88">
         <v>1.1788000000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:30">
+      <c r="AG88" s="21">
+        <v>10.1</v>
+      </c>
+      <c r="AH88" s="21"/>
+      <c r="AI88" s="21"/>
+      <c r="AJ88" s="21"/>
+      <c r="AK88" s="21"/>
+      <c r="AL88" s="21">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM88" s="21"/>
+      <c r="AN88" s="21"/>
+    </row>
+    <row r="89" spans="1:40">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -5548,30 +6609,42 @@
       <c r="I89" s="9">
         <v>99.9</v>
       </c>
-      <c r="K89" s="18">
+      <c r="K89" s="1">
         <v>3.7</v>
       </c>
       <c r="L89">
         <f>$V$23/4</f>
         <v>2.1121173540703531</v>
       </c>
-      <c r="M89" s="19">
+      <c r="M89" s="18">
         <v>0.54925999999999997</v>
       </c>
-      <c r="O89" s="21">
+      <c r="O89" s="20">
         <v>6.5731795404730997</v>
       </c>
       <c r="P89">
         <v>500.6</v>
       </c>
-      <c r="Z89" s="22">
+      <c r="Z89" s="1">
         <v>1.6</v>
       </c>
       <c r="AD89">
         <v>1.1435</v>
       </c>
-    </row>
-    <row r="90" spans="1:30">
+      <c r="AG89" s="21">
+        <v>11.9</v>
+      </c>
+      <c r="AH89" s="21"/>
+      <c r="AI89" s="21"/>
+      <c r="AJ89" s="21"/>
+      <c r="AK89" s="21"/>
+      <c r="AL89" s="21">
+        <v>5.2</v>
+      </c>
+      <c r="AM89" s="21"/>
+      <c r="AN89" s="21"/>
+    </row>
+    <row r="90" spans="1:40">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -5599,30 +6672,42 @@
       <c r="I90" s="9">
         <v>101</v>
       </c>
-      <c r="K90" s="18">
+      <c r="K90" s="1">
         <v>-0.1</v>
       </c>
       <c r="L90">
         <f>$V$24/4</f>
         <v>0.74727102150913183</v>
       </c>
-      <c r="M90" s="19">
+      <c r="M90" s="18">
         <v>0.60416999999999998</v>
       </c>
-      <c r="O90" s="21">
+      <c r="O90" s="20">
         <v>5.6895696947783003</v>
       </c>
       <c r="P90">
         <v>437.3</v>
       </c>
-      <c r="Z90" s="22">
+      <c r="Z90" s="1">
         <v>4</v>
       </c>
       <c r="AD90">
         <v>1.1216999999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:30">
+      <c r="AG90" s="21">
+        <v>10.7</v>
+      </c>
+      <c r="AH90" s="21"/>
+      <c r="AI90" s="21"/>
+      <c r="AJ90" s="21"/>
+      <c r="AK90" s="21"/>
+      <c r="AL90" s="21">
+        <v>5.4</v>
+      </c>
+      <c r="AM90" s="21"/>
+      <c r="AN90" s="21"/>
+    </row>
+    <row r="91" spans="1:40">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -5650,30 +6735,42 @@
       <c r="I91" s="9">
         <v>98.3</v>
       </c>
-      <c r="K91" s="18">
+      <c r="K91" s="1">
         <v>0.9</v>
       </c>
       <c r="L91">
         <f>$V$24/4</f>
         <v>0.74727102150913183</v>
       </c>
-      <c r="M91" s="19">
+      <c r="M91" s="18">
         <v>0.81647999999999998</v>
       </c>
-      <c r="O91" s="21">
+      <c r="O91" s="20">
         <v>8.4726718504168996</v>
       </c>
       <c r="P91">
         <v>447.7</v>
       </c>
-      <c r="Z91" s="22">
+      <c r="Z91" s="1">
         <v>1.6</v>
       </c>
       <c r="AD91">
         <v>1.0647</v>
       </c>
-    </row>
-    <row r="92" spans="1:30">
+      <c r="AG91" s="21">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AH91" s="21"/>
+      <c r="AI91" s="21"/>
+      <c r="AJ91" s="21"/>
+      <c r="AK91" s="21"/>
+      <c r="AL91" s="21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AM91" s="21"/>
+      <c r="AN91" s="21"/>
+    </row>
+    <row r="92" spans="1:40">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -5701,30 +6798,42 @@
       <c r="I92" s="9">
         <v>98.5</v>
       </c>
-      <c r="K92" s="18">
+      <c r="K92" s="1">
         <v>1</v>
       </c>
       <c r="L92">
         <f>$V$24/4</f>
         <v>0.74727102150913183</v>
       </c>
-      <c r="M92" s="19">
+      <c r="M92" s="18">
         <v>0.47155000000000002</v>
       </c>
-      <c r="O92" s="21">
+      <c r="O92" s="20">
         <v>-2.3418192944524998</v>
       </c>
       <c r="P92">
         <v>453.3</v>
       </c>
-      <c r="Z92" s="22">
+      <c r="Z92" s="1">
         <v>1.2</v>
       </c>
       <c r="AD92">
         <v>1.0069999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:30">
+      <c r="AG92" s="21">
+        <v>9.1</v>
+      </c>
+      <c r="AH92" s="21"/>
+      <c r="AI92" s="21"/>
+      <c r="AJ92" s="21"/>
+      <c r="AK92" s="21"/>
+      <c r="AL92" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="AM92" s="21"/>
+      <c r="AN92" s="21"/>
+    </row>
+    <row r="93" spans="1:40">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -5752,30 +6861,42 @@
       <c r="I93" s="9">
         <v>99.2</v>
       </c>
-      <c r="K93" s="18">
+      <c r="K93" s="1">
         <v>-1.1000000000000001</v>
       </c>
       <c r="L93">
         <f>$V$24/4</f>
         <v>0.74727102150913183</v>
       </c>
-      <c r="M93" s="19">
+      <c r="M93" s="18">
         <v>-6.8700000000000002E-3</v>
       </c>
-      <c r="O93" s="21">
+      <c r="O93" s="20">
         <v>-1.3515218563061</v>
       </c>
       <c r="P93">
         <v>568.9</v>
       </c>
-      <c r="Z93" s="22">
+      <c r="Z93" s="1">
         <v>0.8</v>
       </c>
       <c r="AD93">
         <v>1.0205</v>
       </c>
-    </row>
-    <row r="94" spans="1:30">
+      <c r="AG93" s="21">
+        <v>7.1</v>
+      </c>
+      <c r="AH93" s="21"/>
+      <c r="AI93" s="21"/>
+      <c r="AJ93" s="21"/>
+      <c r="AK93" s="21"/>
+      <c r="AL93" s="21">
+        <v>1.9</v>
+      </c>
+      <c r="AM93" s="21"/>
+      <c r="AN93" s="21"/>
+    </row>
+    <row r="94" spans="1:40">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -5803,26 +6924,38 @@
       <c r="I94" s="9">
         <v>99</v>
       </c>
-      <c r="K94" s="18">
+      <c r="K94" s="1">
         <v>-0.2</v>
       </c>
-      <c r="M94" s="19">
+      <c r="M94" s="18">
         <v>4.138E-2</v>
       </c>
-      <c r="O94" s="21">
+      <c r="O94" s="20">
         <v>-14.338800721338</v>
       </c>
       <c r="P94">
         <v>497</v>
       </c>
-      <c r="Z94" s="22">
+      <c r="Z94" s="1">
         <v>-0.1</v>
       </c>
       <c r="AD94">
         <v>1.073</v>
       </c>
-    </row>
-    <row r="95" spans="1:30">
+      <c r="AG94" s="21">
+        <v>7.1</v>
+      </c>
+      <c r="AH94" s="21"/>
+      <c r="AI94" s="21"/>
+      <c r="AJ94" s="21"/>
+      <c r="AK94" s="21"/>
+      <c r="AL94" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="AM94" s="21"/>
+      <c r="AN94" s="21"/>
+    </row>
+    <row r="95" spans="1:40">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -5850,26 +6983,38 @@
       <c r="I95" s="9">
         <v>97.3</v>
       </c>
-      <c r="K95" s="18">
+      <c r="K95" s="1">
         <v>-0.9</v>
       </c>
-      <c r="M95" s="19">
+      <c r="M95" s="18">
         <v>0.12595999999999999</v>
       </c>
-      <c r="O95" s="21">
+      <c r="O95" s="20">
         <v>-10.59271501772808</v>
       </c>
       <c r="P95">
         <v>477.6</v>
       </c>
-      <c r="Z95" s="22">
+      <c r="Z95" s="1">
         <v>0.1</v>
       </c>
       <c r="AD95">
         <v>1.0887</v>
       </c>
-    </row>
-    <row r="96" spans="1:30">
+      <c r="AG95" s="21">
+        <v>5.9</v>
+      </c>
+      <c r="AH95" s="21"/>
+      <c r="AI95" s="21"/>
+      <c r="AJ95" s="21"/>
+      <c r="AK95" s="21"/>
+      <c r="AL95" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="AM95" s="21"/>
+      <c r="AN95" s="21"/>
+    </row>
+    <row r="96" spans="1:40">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -5897,23 +7042,35 @@
       <c r="I96" s="9">
         <v>95.4</v>
       </c>
-      <c r="K96" s="18">
+      <c r="K96" s="1">
         <v>-0.7</v>
       </c>
-      <c r="M96" s="19">
+      <c r="M96" s="18">
         <v>-6.3670000000000004E-2</v>
       </c>
-      <c r="O96" s="21">
+      <c r="O96" s="20">
         <v>6.2133601011670002E-2</v>
       </c>
-      <c r="Z96" s="22">
+      <c r="Z96" s="1">
         <v>-0.3</v>
       </c>
       <c r="AD96">
         <v>1.0884</v>
       </c>
-    </row>
-    <row r="97" spans="1:30">
+      <c r="AG96" s="21">
+        <v>6.2</v>
+      </c>
+      <c r="AH96" s="21"/>
+      <c r="AI96" s="21"/>
+      <c r="AJ96" s="21"/>
+      <c r="AK96" s="21"/>
+      <c r="AL96" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AM96" s="21"/>
+      <c r="AN96" s="21"/>
+    </row>
+    <row r="97" spans="1:40">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -5933,605 +7090,629 @@
       <c r="I97" s="9">
         <v>96.7</v>
       </c>
-      <c r="K97" s="18">
+      <c r="K97" s="1">
         <v>-1.6</v>
       </c>
-      <c r="M97" s="19">
+      <c r="M97" s="18">
         <v>-5.4140000000000001E-2</v>
       </c>
-      <c r="Z97" s="22">
+      <c r="Z97" s="1">
         <v>-0.2</v>
       </c>
       <c r="AD97">
         <v>1.0750999999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:30">
+      <c r="AG97" s="21">
+        <v>5.9</v>
+      </c>
+      <c r="AH97" s="21"/>
+      <c r="AI97" s="21"/>
+      <c r="AJ97" s="21"/>
+      <c r="AK97" s="21"/>
+      <c r="AL97" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AM97" s="21"/>
+      <c r="AN97" s="21"/>
+    </row>
+    <row r="98" spans="1:40">
       <c r="D98" s="1"/>
-      <c r="I98" s="20"/>
-    </row>
-    <row r="99" spans="1:30">
+      <c r="I98" s="19"/>
+      <c r="AG98" s="21">
+        <v>5.5</v>
+      </c>
+      <c r="AH98" s="21"/>
+      <c r="AI98" s="21"/>
+      <c r="AJ98" s="21"/>
+      <c r="AK98" s="21"/>
+      <c r="AL98" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="AM98" s="21"/>
+      <c r="AN98" s="21"/>
+    </row>
+    <row r="99" spans="1:40">
       <c r="D99" s="1"/>
-      <c r="I99" s="20"/>
-    </row>
-    <row r="100" spans="1:30">
+      <c r="I99" s="19"/>
+    </row>
+    <row r="100" spans="1:40">
       <c r="D100" s="1"/>
-      <c r="I100" s="20"/>
-    </row>
-    <row r="101" spans="1:30">
+      <c r="I100" s="19"/>
+    </row>
+    <row r="101" spans="1:40">
       <c r="D101" s="1"/>
-      <c r="I101" s="20"/>
-    </row>
-    <row r="102" spans="1:30">
+      <c r="I101" s="19"/>
+    </row>
+    <row r="102" spans="1:40">
       <c r="D102" s="1"/>
-      <c r="I102" s="20"/>
-    </row>
-    <row r="103" spans="1:30">
+      <c r="I102" s="19"/>
+    </row>
+    <row r="103" spans="1:40">
       <c r="D103" s="1"/>
-      <c r="I103" s="20"/>
-    </row>
-    <row r="104" spans="1:30">
+      <c r="I103" s="19"/>
+    </row>
+    <row r="104" spans="1:40">
       <c r="D104" s="1"/>
-      <c r="I104" s="20"/>
-    </row>
-    <row r="105" spans="1:30">
+      <c r="I104" s="19"/>
+    </row>
+    <row r="105" spans="1:40">
       <c r="D105" s="1"/>
-      <c r="I105" s="20"/>
-    </row>
-    <row r="106" spans="1:30">
+      <c r="I105" s="19"/>
+    </row>
+    <row r="106" spans="1:40">
       <c r="D106" s="1"/>
-      <c r="I106" s="20"/>
-    </row>
-    <row r="107" spans="1:30">
+      <c r="I106" s="19"/>
+    </row>
+    <row r="107" spans="1:40">
       <c r="D107" s="1"/>
-      <c r="I107" s="20"/>
-    </row>
-    <row r="108" spans="1:30">
+      <c r="I107" s="19"/>
+    </row>
+    <row r="108" spans="1:40">
       <c r="D108" s="1"/>
-      <c r="I108" s="20"/>
-    </row>
-    <row r="109" spans="1:30">
-      <c r="I109" s="20"/>
-    </row>
-    <row r="110" spans="1:30">
-      <c r="I110" s="20"/>
-    </row>
-    <row r="111" spans="1:30">
-      <c r="I111" s="20"/>
-    </row>
-    <row r="112" spans="1:30">
-      <c r="I112" s="20"/>
+      <c r="I108" s="19"/>
+    </row>
+    <row r="109" spans="1:40">
+      <c r="I109" s="19"/>
+    </row>
+    <row r="110" spans="1:40">
+      <c r="I110" s="19"/>
+    </row>
+    <row r="111" spans="1:40">
+      <c r="I111" s="19"/>
+    </row>
+    <row r="112" spans="1:40">
+      <c r="I112" s="19"/>
     </row>
     <row r="113" spans="9:9">
-      <c r="I113" s="20"/>
+      <c r="I113" s="19"/>
     </row>
     <row r="114" spans="9:9">
-      <c r="I114" s="20"/>
+      <c r="I114" s="19"/>
     </row>
     <row r="115" spans="9:9">
-      <c r="I115" s="20"/>
+      <c r="I115" s="19"/>
     </row>
     <row r="116" spans="9:9">
-      <c r="I116" s="20"/>
+      <c r="I116" s="19"/>
     </row>
     <row r="117" spans="9:9">
-      <c r="I117" s="20"/>
+      <c r="I117" s="19"/>
     </row>
     <row r="118" spans="9:9">
-      <c r="I118" s="20"/>
+      <c r="I118" s="19"/>
     </row>
     <row r="119" spans="9:9">
-      <c r="I119" s="20"/>
+      <c r="I119" s="19"/>
     </row>
     <row r="120" spans="9:9">
-      <c r="I120" s="20"/>
+      <c r="I120" s="19"/>
     </row>
     <row r="121" spans="9:9">
-      <c r="I121" s="20"/>
+      <c r="I121" s="19"/>
     </row>
     <row r="122" spans="9:9">
-      <c r="I122" s="20"/>
+      <c r="I122" s="19"/>
     </row>
     <row r="123" spans="9:9">
-      <c r="I123" s="20"/>
+      <c r="I123" s="19"/>
     </row>
     <row r="124" spans="9:9">
-      <c r="I124" s="20"/>
+      <c r="I124" s="19"/>
     </row>
     <row r="125" spans="9:9">
-      <c r="I125" s="20"/>
+      <c r="I125" s="19"/>
     </row>
     <row r="126" spans="9:9">
-      <c r="I126" s="20"/>
+      <c r="I126" s="19"/>
     </row>
     <row r="127" spans="9:9">
-      <c r="I127" s="20"/>
+      <c r="I127" s="19"/>
     </row>
     <row r="128" spans="9:9">
-      <c r="I128" s="20"/>
+      <c r="I128" s="19"/>
     </row>
     <row r="129" spans="9:9">
-      <c r="I129" s="20"/>
+      <c r="I129" s="19"/>
     </row>
     <row r="130" spans="9:9">
-      <c r="I130" s="20"/>
+      <c r="I130" s="19"/>
     </row>
     <row r="131" spans="9:9">
-      <c r="I131" s="20"/>
+      <c r="I131" s="19"/>
     </row>
     <row r="132" spans="9:9">
-      <c r="I132" s="20"/>
+      <c r="I132" s="19"/>
     </row>
     <row r="133" spans="9:9">
-      <c r="I133" s="20"/>
+      <c r="I133" s="19"/>
     </row>
     <row r="134" spans="9:9">
-      <c r="I134" s="20"/>
+      <c r="I134" s="19"/>
     </row>
     <row r="135" spans="9:9">
-      <c r="I135" s="20"/>
+      <c r="I135" s="19"/>
     </row>
     <row r="136" spans="9:9">
-      <c r="I136" s="20"/>
+      <c r="I136" s="19"/>
     </row>
     <row r="137" spans="9:9">
-      <c r="I137" s="20"/>
+      <c r="I137" s="19"/>
     </row>
     <row r="138" spans="9:9">
-      <c r="I138" s="20"/>
+      <c r="I138" s="19"/>
     </row>
     <row r="139" spans="9:9">
-      <c r="I139" s="20"/>
+      <c r="I139" s="19"/>
     </row>
     <row r="140" spans="9:9">
-      <c r="I140" s="20"/>
+      <c r="I140" s="19"/>
     </row>
     <row r="141" spans="9:9">
-      <c r="I141" s="20"/>
+      <c r="I141" s="19"/>
     </row>
     <row r="142" spans="9:9">
-      <c r="I142" s="20"/>
+      <c r="I142" s="19"/>
     </row>
     <row r="143" spans="9:9">
-      <c r="I143" s="20"/>
+      <c r="I143" s="19"/>
     </row>
     <row r="144" spans="9:9">
-      <c r="I144" s="20"/>
+      <c r="I144" s="19"/>
     </row>
     <row r="145" spans="9:9">
-      <c r="I145" s="20"/>
+      <c r="I145" s="19"/>
     </row>
     <row r="146" spans="9:9">
-      <c r="I146" s="20"/>
+      <c r="I146" s="19"/>
     </row>
     <row r="147" spans="9:9">
-      <c r="I147" s="20"/>
+      <c r="I147" s="19"/>
     </row>
     <row r="148" spans="9:9">
-      <c r="I148" s="20"/>
+      <c r="I148" s="19"/>
     </row>
     <row r="149" spans="9:9">
-      <c r="I149" s="20"/>
+      <c r="I149" s="19"/>
     </row>
     <row r="150" spans="9:9">
-      <c r="I150" s="20"/>
+      <c r="I150" s="19"/>
     </row>
     <row r="151" spans="9:9">
-      <c r="I151" s="20"/>
+      <c r="I151" s="19"/>
     </row>
     <row r="152" spans="9:9">
-      <c r="I152" s="20"/>
+      <c r="I152" s="19"/>
     </row>
     <row r="153" spans="9:9">
-      <c r="I153" s="20"/>
+      <c r="I153" s="19"/>
     </row>
     <row r="154" spans="9:9">
-      <c r="I154" s="20"/>
+      <c r="I154" s="19"/>
     </row>
     <row r="155" spans="9:9">
-      <c r="I155" s="20"/>
+      <c r="I155" s="19"/>
     </row>
     <row r="156" spans="9:9">
-      <c r="I156" s="20"/>
+      <c r="I156" s="19"/>
     </row>
     <row r="157" spans="9:9">
-      <c r="I157" s="20"/>
+      <c r="I157" s="19"/>
     </row>
     <row r="158" spans="9:9">
-      <c r="I158" s="20"/>
+      <c r="I158" s="19"/>
     </row>
     <row r="159" spans="9:9">
-      <c r="I159" s="20"/>
+      <c r="I159" s="19"/>
     </row>
     <row r="160" spans="9:9">
-      <c r="I160" s="20"/>
+      <c r="I160" s="19"/>
     </row>
     <row r="161" spans="9:9">
-      <c r="I161" s="20"/>
+      <c r="I161" s="19"/>
     </row>
     <row r="162" spans="9:9">
-      <c r="I162" s="20"/>
+      <c r="I162" s="19"/>
     </row>
     <row r="163" spans="9:9">
-      <c r="I163" s="20"/>
+      <c r="I163" s="19"/>
     </row>
     <row r="164" spans="9:9">
-      <c r="I164" s="20"/>
+      <c r="I164" s="19"/>
     </row>
     <row r="165" spans="9:9">
-      <c r="I165" s="20"/>
+      <c r="I165" s="19"/>
     </row>
     <row r="166" spans="9:9">
-      <c r="I166" s="20"/>
+      <c r="I166" s="19"/>
     </row>
     <row r="167" spans="9:9">
-      <c r="I167" s="20"/>
+      <c r="I167" s="19"/>
     </row>
     <row r="168" spans="9:9">
-      <c r="I168" s="20"/>
+      <c r="I168" s="19"/>
     </row>
     <row r="169" spans="9:9">
-      <c r="I169" s="20"/>
+      <c r="I169" s="19"/>
     </row>
     <row r="170" spans="9:9">
-      <c r="I170" s="20"/>
+      <c r="I170" s="19"/>
     </row>
     <row r="171" spans="9:9">
-      <c r="I171" s="20"/>
+      <c r="I171" s="19"/>
     </row>
     <row r="172" spans="9:9">
-      <c r="I172" s="20"/>
+      <c r="I172" s="19"/>
     </row>
     <row r="173" spans="9:9">
-      <c r="I173" s="20"/>
+      <c r="I173" s="19"/>
     </row>
     <row r="174" spans="9:9">
-      <c r="I174" s="20"/>
+      <c r="I174" s="19"/>
     </row>
     <row r="175" spans="9:9">
-      <c r="I175" s="20"/>
+      <c r="I175" s="19"/>
     </row>
     <row r="176" spans="9:9">
-      <c r="I176" s="20"/>
+      <c r="I176" s="19"/>
     </row>
     <row r="177" spans="9:9">
-      <c r="I177" s="20"/>
+      <c r="I177" s="19"/>
     </row>
     <row r="178" spans="9:9">
-      <c r="I178" s="20"/>
+      <c r="I178" s="19"/>
     </row>
     <row r="179" spans="9:9">
-      <c r="I179" s="20"/>
+      <c r="I179" s="19"/>
     </row>
     <row r="180" spans="9:9">
-      <c r="I180" s="20"/>
+      <c r="I180" s="19"/>
     </row>
     <row r="181" spans="9:9">
-      <c r="I181" s="20"/>
+      <c r="I181" s="19"/>
     </row>
     <row r="182" spans="9:9">
-      <c r="I182" s="20"/>
+      <c r="I182" s="19"/>
     </row>
     <row r="183" spans="9:9">
-      <c r="I183" s="20"/>
+      <c r="I183" s="19"/>
     </row>
     <row r="184" spans="9:9">
-      <c r="I184" s="20"/>
+      <c r="I184" s="19"/>
     </row>
     <row r="185" spans="9:9">
-      <c r="I185" s="20"/>
+      <c r="I185" s="19"/>
     </row>
     <row r="186" spans="9:9">
-      <c r="I186" s="20"/>
+      <c r="I186" s="19"/>
     </row>
     <row r="187" spans="9:9">
-      <c r="I187" s="20"/>
+      <c r="I187" s="19"/>
     </row>
     <row r="188" spans="9:9">
-      <c r="I188" s="20"/>
+      <c r="I188" s="19"/>
     </row>
     <row r="189" spans="9:9">
-      <c r="I189" s="20"/>
+      <c r="I189" s="19"/>
     </row>
     <row r="190" spans="9:9">
-      <c r="I190" s="20"/>
+      <c r="I190" s="19"/>
     </row>
     <row r="191" spans="9:9">
-      <c r="I191" s="20"/>
+      <c r="I191" s="19"/>
     </row>
     <row r="192" spans="9:9">
-      <c r="I192" s="20"/>
+      <c r="I192" s="19"/>
     </row>
     <row r="193" spans="9:9">
-      <c r="I193" s="20"/>
+      <c r="I193" s="19"/>
     </row>
     <row r="194" spans="9:9">
-      <c r="I194" s="20"/>
+      <c r="I194" s="19"/>
     </row>
     <row r="195" spans="9:9">
-      <c r="I195" s="20"/>
+      <c r="I195" s="19"/>
     </row>
     <row r="196" spans="9:9">
-      <c r="I196" s="20"/>
+      <c r="I196" s="19"/>
     </row>
     <row r="197" spans="9:9">
-      <c r="I197" s="20"/>
+      <c r="I197" s="19"/>
     </row>
     <row r="198" spans="9:9">
-      <c r="I198" s="20"/>
+      <c r="I198" s="19"/>
     </row>
     <row r="199" spans="9:9">
-      <c r="I199" s="20"/>
+      <c r="I199" s="19"/>
     </row>
     <row r="200" spans="9:9">
-      <c r="I200" s="20"/>
+      <c r="I200" s="19"/>
     </row>
     <row r="201" spans="9:9">
-      <c r="I201" s="20"/>
+      <c r="I201" s="19"/>
     </row>
     <row r="202" spans="9:9">
-      <c r="I202" s="20"/>
+      <c r="I202" s="19"/>
     </row>
     <row r="203" spans="9:9">
-      <c r="I203" s="20"/>
+      <c r="I203" s="19"/>
     </row>
     <row r="204" spans="9:9">
-      <c r="I204" s="20"/>
+      <c r="I204" s="19"/>
     </row>
     <row r="205" spans="9:9">
-      <c r="I205" s="20"/>
+      <c r="I205" s="19"/>
     </row>
     <row r="206" spans="9:9">
-      <c r="I206" s="20"/>
+      <c r="I206" s="19"/>
     </row>
     <row r="207" spans="9:9">
-      <c r="I207" s="20"/>
+      <c r="I207" s="19"/>
     </row>
     <row r="208" spans="9:9">
-      <c r="I208" s="20"/>
+      <c r="I208" s="19"/>
     </row>
     <row r="209" spans="9:9">
-      <c r="I209" s="20"/>
+      <c r="I209" s="19"/>
     </row>
     <row r="210" spans="9:9">
-      <c r="I210" s="20"/>
+      <c r="I210" s="19"/>
     </row>
     <row r="211" spans="9:9">
-      <c r="I211" s="20"/>
+      <c r="I211" s="19"/>
     </row>
     <row r="212" spans="9:9">
-      <c r="I212" s="20"/>
+      <c r="I212" s="19"/>
     </row>
     <row r="213" spans="9:9">
-      <c r="I213" s="20"/>
+      <c r="I213" s="19"/>
     </row>
     <row r="214" spans="9:9">
-      <c r="I214" s="20"/>
+      <c r="I214" s="19"/>
     </row>
     <row r="215" spans="9:9">
-      <c r="I215" s="20"/>
+      <c r="I215" s="19"/>
     </row>
     <row r="216" spans="9:9">
-      <c r="I216" s="20"/>
+      <c r="I216" s="19"/>
     </row>
     <row r="217" spans="9:9">
-      <c r="I217" s="20"/>
+      <c r="I217" s="19"/>
     </row>
     <row r="218" spans="9:9">
-      <c r="I218" s="20"/>
+      <c r="I218" s="19"/>
     </row>
     <row r="219" spans="9:9">
-      <c r="I219" s="20"/>
+      <c r="I219" s="19"/>
     </row>
     <row r="220" spans="9:9">
-      <c r="I220" s="20"/>
+      <c r="I220" s="19"/>
     </row>
     <row r="221" spans="9:9">
-      <c r="I221" s="20"/>
+      <c r="I221" s="19"/>
     </row>
     <row r="222" spans="9:9">
-      <c r="I222" s="20"/>
+      <c r="I222" s="19"/>
     </row>
     <row r="223" spans="9:9">
-      <c r="I223" s="20"/>
+      <c r="I223" s="19"/>
     </row>
     <row r="224" spans="9:9">
-      <c r="I224" s="20"/>
+      <c r="I224" s="19"/>
     </row>
     <row r="225" spans="9:9">
-      <c r="I225" s="20"/>
+      <c r="I225" s="19"/>
     </row>
     <row r="226" spans="9:9">
-      <c r="I226" s="20"/>
+      <c r="I226" s="19"/>
     </row>
     <row r="227" spans="9:9">
-      <c r="I227" s="20"/>
+      <c r="I227" s="19"/>
     </row>
     <row r="228" spans="9:9">
-      <c r="I228" s="20"/>
+      <c r="I228" s="19"/>
     </row>
     <row r="229" spans="9:9">
-      <c r="I229" s="20"/>
+      <c r="I229" s="19"/>
     </row>
     <row r="230" spans="9:9">
-      <c r="I230" s="20"/>
+      <c r="I230" s="19"/>
     </row>
     <row r="231" spans="9:9">
-      <c r="I231" s="20"/>
+      <c r="I231" s="19"/>
     </row>
     <row r="232" spans="9:9">
-      <c r="I232" s="20"/>
+      <c r="I232" s="19"/>
     </row>
     <row r="233" spans="9:9">
-      <c r="I233" s="20"/>
+      <c r="I233" s="19"/>
     </row>
     <row r="234" spans="9:9">
-      <c r="I234" s="20"/>
+      <c r="I234" s="19"/>
     </row>
     <row r="235" spans="9:9">
-      <c r="I235" s="20"/>
+      <c r="I235" s="19"/>
     </row>
     <row r="236" spans="9:9">
-      <c r="I236" s="20"/>
+      <c r="I236" s="19"/>
     </row>
     <row r="237" spans="9:9">
-      <c r="I237" s="20"/>
+      <c r="I237" s="19"/>
     </row>
     <row r="238" spans="9:9">
-      <c r="I238" s="20"/>
+      <c r="I238" s="19"/>
     </row>
     <row r="239" spans="9:9">
-      <c r="I239" s="20"/>
+      <c r="I239" s="19"/>
     </row>
     <row r="240" spans="9:9">
-      <c r="I240" s="20"/>
+      <c r="I240" s="19"/>
     </row>
     <row r="241" spans="9:9">
-      <c r="I241" s="20"/>
+      <c r="I241" s="19"/>
     </row>
     <row r="242" spans="9:9">
-      <c r="I242" s="20"/>
+      <c r="I242" s="19"/>
     </row>
     <row r="243" spans="9:9">
-      <c r="I243" s="20"/>
+      <c r="I243" s="19"/>
     </row>
     <row r="244" spans="9:9">
-      <c r="I244" s="20"/>
+      <c r="I244" s="19"/>
     </row>
     <row r="245" spans="9:9">
-      <c r="I245" s="20"/>
+      <c r="I245" s="19"/>
     </row>
     <row r="246" spans="9:9">
-      <c r="I246" s="20"/>
+      <c r="I246" s="19"/>
     </row>
     <row r="247" spans="9:9">
-      <c r="I247" s="20"/>
+      <c r="I247" s="19"/>
     </row>
     <row r="248" spans="9:9">
-      <c r="I248" s="20"/>
+      <c r="I248" s="19"/>
     </row>
     <row r="249" spans="9:9">
-      <c r="I249" s="20"/>
+      <c r="I249" s="19"/>
     </row>
     <row r="250" spans="9:9">
-      <c r="I250" s="20"/>
+      <c r="I250" s="19"/>
     </row>
     <row r="251" spans="9:9">
-      <c r="I251" s="20"/>
+      <c r="I251" s="19"/>
     </row>
     <row r="252" spans="9:9">
-      <c r="I252" s="20"/>
+      <c r="I252" s="19"/>
     </row>
     <row r="253" spans="9:9">
-      <c r="I253" s="20"/>
+      <c r="I253" s="19"/>
     </row>
     <row r="254" spans="9:9">
-      <c r="I254" s="20"/>
+      <c r="I254" s="19"/>
     </row>
     <row r="255" spans="9:9">
-      <c r="I255" s="20"/>
+      <c r="I255" s="19"/>
     </row>
     <row r="256" spans="9:9">
-      <c r="I256" s="20"/>
+      <c r="I256" s="19"/>
     </row>
     <row r="257" spans="9:9">
-      <c r="I257" s="20"/>
+      <c r="I257" s="19"/>
     </row>
     <row r="258" spans="9:9">
-      <c r="I258" s="20"/>
+      <c r="I258" s="19"/>
     </row>
     <row r="259" spans="9:9">
-      <c r="I259" s="20"/>
+      <c r="I259" s="19"/>
     </row>
     <row r="260" spans="9:9">
-      <c r="I260" s="20"/>
+      <c r="I260" s="19"/>
     </row>
     <row r="261" spans="9:9">
-      <c r="I261" s="20"/>
+      <c r="I261" s="19"/>
     </row>
     <row r="262" spans="9:9">
-      <c r="I262" s="20"/>
+      <c r="I262" s="19"/>
     </row>
     <row r="263" spans="9:9">
-      <c r="I263" s="20"/>
+      <c r="I263" s="19"/>
     </row>
     <row r="264" spans="9:9">
-      <c r="I264" s="20"/>
+      <c r="I264" s="19"/>
     </row>
     <row r="265" spans="9:9">
-      <c r="I265" s="20"/>
+      <c r="I265" s="19"/>
     </row>
     <row r="266" spans="9:9">
-      <c r="I266" s="20"/>
+      <c r="I266" s="19"/>
     </row>
     <row r="267" spans="9:9">
-      <c r="I267" s="20"/>
+      <c r="I267" s="19"/>
     </row>
     <row r="268" spans="9:9">
-      <c r="I268" s="20"/>
+      <c r="I268" s="19"/>
     </row>
     <row r="269" spans="9:9">
-      <c r="I269" s="20"/>
+      <c r="I269" s="19"/>
     </row>
     <row r="270" spans="9:9">
-      <c r="I270" s="20"/>
+      <c r="I270" s="19"/>
     </row>
     <row r="271" spans="9:9">
-      <c r="I271" s="20"/>
+      <c r="I271" s="19"/>
     </row>
     <row r="272" spans="9:9">
-      <c r="I272" s="20"/>
+      <c r="I272" s="19"/>
     </row>
     <row r="273" spans="9:9">
-      <c r="I273" s="20"/>
+      <c r="I273" s="19"/>
     </row>
     <row r="274" spans="9:9">
-      <c r="I274" s="20"/>
+      <c r="I274" s="19"/>
     </row>
     <row r="275" spans="9:9">
-      <c r="I275" s="20"/>
+      <c r="I275" s="19"/>
     </row>
     <row r="276" spans="9:9">
-      <c r="I276" s="20"/>
+      <c r="I276" s="19"/>
     </row>
     <row r="277" spans="9:9">
-      <c r="I277" s="20"/>
+      <c r="I277" s="19"/>
     </row>
     <row r="278" spans="9:9">
-      <c r="I278" s="20"/>
+      <c r="I278" s="19"/>
     </row>
     <row r="279" spans="9:9">
-      <c r="I279" s="20"/>
+      <c r="I279" s="19"/>
     </row>
     <row r="280" spans="9:9">
-      <c r="I280" s="20"/>
+      <c r="I280" s="19"/>
     </row>
     <row r="281" spans="9:9">
-      <c r="I281" s="20"/>
+      <c r="I281" s="19"/>
     </row>
     <row r="282" spans="9:9">
-      <c r="I282" s="20"/>
+      <c r="I282" s="19"/>
     </row>
     <row r="283" spans="9:9">
-      <c r="I283" s="20"/>
+      <c r="I283" s="19"/>
     </row>
     <row r="284" spans="9:9">
-      <c r="I284" s="20"/>
+      <c r="I284" s="19"/>
     </row>
     <row r="285" spans="9:9">
-      <c r="I285" s="20"/>
+      <c r="I285" s="19"/>
     </row>
     <row r="286" spans="9:9">
-      <c r="I286" s="20"/>
+      <c r="I286" s="19"/>
     </row>
     <row r="287" spans="9:9">
-      <c r="I287" s="20"/>
+      <c r="I287" s="19"/>
     </row>
     <row r="288" spans="9:9">
-      <c r="I288" s="20"/>
+      <c r="I288" s="19"/>
     </row>
     <row r="289" spans="9:9">
-      <c r="I289" s="20"/>
+      <c r="I289" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6549,40 +7730,40 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="40.85546875" customWidth="1"/>
     <col min="13" max="13" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:47">
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="3:47">
@@ -6594,101 +7775,101 @@
         <v>40029198</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="13">
         <f>19840+19167+13587+11099+8978</f>
         <v>72671</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J2" s="11">
         <v>44</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N2" s="14">
         <v>75.2</v>
       </c>
       <c r="V2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AA2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AH2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AK2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AM2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AN2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AO2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AP2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AQ2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AR2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AS2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AT2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AU2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="3:47">
@@ -6699,32 +7880,32 @@
         <v>40056637</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" s="13">
         <f>20268+22941</f>
         <v>43209</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" s="11">
         <v>35</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N3" s="14">
         <v>59.4</v>
       </c>
       <c r="V3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y3">
         <v>40029198</v>
@@ -6804,26 +7985,26 @@
         <v>40236914</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" s="13">
         <f>26192+5957</f>
         <v>32149</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J4" s="11">
         <v>32</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N4" s="14">
         <v>57.8</v>
       </c>
       <c r="V4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="3:47">
@@ -6834,20 +8015,20 @@
         <v>40039826</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G5" s="13">
         <f>16341+10501</f>
         <v>26842</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J5" s="11">
         <v>22</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N5" s="14">
         <v>53.7</v>
@@ -6861,20 +8042,20 @@
         <v>41239999</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G6" s="13">
         <f>15052+6921</f>
         <v>21973</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J6" s="11">
         <v>16</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N6" s="14">
         <v>51.7</v>
@@ -6888,25 +8069,25 @@
         <v>41693116</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G7" s="13">
         <v>14248</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J7" s="11">
         <v>16</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N7" s="14">
         <v>49.8</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="3:47">
@@ -6917,14 +8098,14 @@
         <v>41861246</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G8" s="13">
         <f>11578+5989</f>
         <v>17567</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J8" s="11">
         <v>15</v>
@@ -6938,17 +8119,17 @@
         <v>41917490</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G9" s="13">
         <f>6087+6110+8750</f>
         <v>20947</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J9" s="11">
         <v>14</v>
@@ -6962,7 +8143,7 @@
         <v>41978630</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J10" s="11">
         <v>14</v>
@@ -6976,7 +8157,7 @@
         <v>41949335</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J11" s="11">
         <v>12</v>
@@ -6990,13 +8171,13 @@
         <v>41729225</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J12" s="11">
         <v>7</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="3:47">
@@ -7114,11 +8295,11 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7126,7 +8307,7 @@
         <v>2009</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7186,32 +8367,32 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -7232,75 +8413,75 @@
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19">
       <c r="B1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" t="s">
-        <v>91</v>
-      </c>
       <c r="K1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="15" t="s">
-        <v>94</v>
-      </c>
       <c r="P1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="2:19">

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="878" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DBBE580-08A7-4930-8363-1FA40519283D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nøgletal" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,9 @@
   <commentList>
     <comment ref="I2" authorId="0" shapeId="0" xr:uid="{4B42F164-681C-4A58-84D1-0574D84188C8}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Trådet kommentar]
+Din version af Excel lader dig læse denne trådede kommentar. Eventuelle ændringer vil dog blive fjernet, hvis filen åbnes i en nyere version af Excel. Få mere at vide: https://go.microsoft.com/fwlink/?linkid=870924
+Kommentar:
 How is your company developing in relation to the lack of new recruits and skilled workers? 
 </t>
       </text>
@@ -397,7 +397,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -489,8 +489,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -936,33 +935,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N81" zoomScale="106" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" customWidth="1"/>
+    <col min="5" max="5" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.26953125" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="84.85546875" customWidth="1"/>
+    <col min="11" max="11" width="84.81640625" customWidth="1"/>
     <col min="12" max="12" width="79" customWidth="1"/>
-    <col min="13" max="13" width="49.7109375" customWidth="1"/>
+    <col min="13" max="13" width="49.7265625" customWidth="1"/>
     <col min="14" max="14" width="79" customWidth="1"/>
-    <col min="15" max="15" width="140.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.7109375" customWidth="1"/>
+    <col min="15" max="15" width="140.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1020,17 +1019,17 @@
       <c r="AG1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
       <c r="AJ1" s="21"/>
       <c r="AK1" s="21"/>
       <c r="AL1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-    </row>
-    <row r="2" spans="1:40">
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1097,7 +1096,7 @@
       <c r="AM2" s="21"/>
       <c r="AN2" s="21"/>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1163,7 +1162,7 @@
       <c r="AM3" s="21"/>
       <c r="AN3" s="21"/>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1229,7 +1228,7 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1295,7 +1294,7 @@
       <c r="AM5" s="21"/>
       <c r="AN5" s="21"/>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1361,7 +1360,7 @@
       <c r="AM6" s="21"/>
       <c r="AN6" s="21"/>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1427,7 +1426,7 @@
       <c r="AM7" s="21"/>
       <c r="AN7" s="21"/>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1493,7 +1492,7 @@
       <c r="AM8" s="21"/>
       <c r="AN8" s="21"/>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1559,7 +1558,7 @@
       <c r="AM9" s="21"/>
       <c r="AN9" s="21"/>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1625,7 +1624,7 @@
       <c r="AM10" s="21"/>
       <c r="AN10" s="21"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1691,7 +1690,7 @@
       <c r="AM11" s="21"/>
       <c r="AN11" s="21"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1757,7 +1756,7 @@
       <c r="AM12" s="21"/>
       <c r="AN12" s="21"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1823,7 +1822,7 @@
       <c r="AM13" s="21"/>
       <c r="AN13" s="21"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1889,7 +1888,7 @@
       <c r="AM14" s="21"/>
       <c r="AN14" s="21"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -1955,7 +1954,7 @@
       <c r="AM15" s="21"/>
       <c r="AN15" s="21"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -2021,7 +2020,7 @@
       <c r="AM16" s="21"/>
       <c r="AN16" s="21"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -2087,7 +2086,7 @@
       <c r="AM17" s="21"/>
       <c r="AN17" s="21"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -2153,7 +2152,7 @@
       <c r="AM18" s="21"/>
       <c r="AN18" s="21"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -2219,7 +2218,7 @@
       <c r="AM19" s="21"/>
       <c r="AN19" s="21"/>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -2285,7 +2284,7 @@
       <c r="AM20" s="21"/>
       <c r="AN20" s="21"/>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -2351,7 +2350,7 @@
       <c r="AM21" s="21"/>
       <c r="AN21" s="21"/>
     </row>
-    <row r="22" spans="1:40">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -2417,7 +2416,7 @@
       <c r="AM22" s="21"/>
       <c r="AN22" s="21"/>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -2483,7 +2482,7 @@
       <c r="AM23" s="21"/>
       <c r="AN23" s="21"/>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -2549,7 +2548,7 @@
       <c r="AM24" s="21"/>
       <c r="AN24" s="21"/>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -2612,7 +2611,7 @@
       <c r="AM25" s="21"/>
       <c r="AN25" s="21"/>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -2675,7 +2674,7 @@
       <c r="AM26" s="21"/>
       <c r="AN26" s="21"/>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -2738,7 +2737,7 @@
       <c r="AM27" s="21"/>
       <c r="AN27" s="21"/>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -2801,7 +2800,7 @@
       <c r="AM28" s="21"/>
       <c r="AN28" s="21"/>
     </row>
-    <row r="29" spans="1:40">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -2864,7 +2863,7 @@
       <c r="AM29" s="21"/>
       <c r="AN29" s="21"/>
     </row>
-    <row r="30" spans="1:40">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -2927,7 +2926,7 @@
       <c r="AM30" s="21"/>
       <c r="AN30" s="21"/>
     </row>
-    <row r="31" spans="1:40">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -2990,7 +2989,7 @@
       <c r="AM31" s="21"/>
       <c r="AN31" s="21"/>
     </row>
-    <row r="32" spans="1:40">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -3053,7 +3052,7 @@
       <c r="AM32" s="21"/>
       <c r="AN32" s="21"/>
     </row>
-    <row r="33" spans="1:40">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -3116,7 +3115,7 @@
       <c r="AM33" s="21"/>
       <c r="AN33" s="21"/>
     </row>
-    <row r="34" spans="1:40">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -3179,7 +3178,7 @@
       <c r="AM34" s="21"/>
       <c r="AN34" s="21"/>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -3242,7 +3241,7 @@
       <c r="AM35" s="21"/>
       <c r="AN35" s="21"/>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -3305,7 +3304,7 @@
       <c r="AM36" s="21"/>
       <c r="AN36" s="21"/>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -3368,7 +3367,7 @@
       <c r="AM37" s="21"/>
       <c r="AN37" s="21"/>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -3431,7 +3430,7 @@
       <c r="AM38" s="21"/>
       <c r="AN38" s="21"/>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -3494,7 +3493,7 @@
       <c r="AM39" s="21"/>
       <c r="AN39" s="21"/>
     </row>
-    <row r="40" spans="1:40">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -3557,7 +3556,7 @@
       <c r="AM40" s="21"/>
       <c r="AN40" s="21"/>
     </row>
-    <row r="41" spans="1:40">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -3620,7 +3619,7 @@
       <c r="AM41" s="21"/>
       <c r="AN41" s="21"/>
     </row>
-    <row r="42" spans="1:40">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -3683,7 +3682,7 @@
       <c r="AM42" s="21"/>
       <c r="AN42" s="21"/>
     </row>
-    <row r="43" spans="1:40">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -3746,7 +3745,7 @@
       <c r="AM43" s="21"/>
       <c r="AN43" s="21"/>
     </row>
-    <row r="44" spans="1:40">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -3809,7 +3808,7 @@
       <c r="AM44" s="21"/>
       <c r="AN44" s="21"/>
     </row>
-    <row r="45" spans="1:40">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -3872,7 +3871,7 @@
       <c r="AM45" s="21"/>
       <c r="AN45" s="21"/>
     </row>
-    <row r="46" spans="1:40">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -3935,7 +3934,7 @@
       <c r="AM46" s="21"/>
       <c r="AN46" s="21"/>
     </row>
-    <row r="47" spans="1:40">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -3998,7 +3997,7 @@
       <c r="AM47" s="21"/>
       <c r="AN47" s="21"/>
     </row>
-    <row r="48" spans="1:40">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -4061,7 +4060,7 @@
       <c r="AM48" s="21"/>
       <c r="AN48" s="21"/>
     </row>
-    <row r="49" spans="1:40">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -4124,7 +4123,7 @@
       <c r="AM49" s="21"/>
       <c r="AN49" s="21"/>
     </row>
-    <row r="50" spans="1:40">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -4187,7 +4186,7 @@
       <c r="AM50" s="21"/>
       <c r="AN50" s="21"/>
     </row>
-    <row r="51" spans="1:40">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -4250,7 +4249,7 @@
       <c r="AM51" s="21"/>
       <c r="AN51" s="21"/>
     </row>
-    <row r="52" spans="1:40">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -4313,7 +4312,7 @@
       <c r="AM52" s="21"/>
       <c r="AN52" s="21"/>
     </row>
-    <row r="53" spans="1:40">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -4376,7 +4375,7 @@
       <c r="AM53" s="21"/>
       <c r="AN53" s="21"/>
     </row>
-    <row r="54" spans="1:40">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -4439,7 +4438,7 @@
       <c r="AM54" s="21"/>
       <c r="AN54" s="21"/>
     </row>
-    <row r="55" spans="1:40">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -4502,7 +4501,7 @@
       <c r="AM55" s="21"/>
       <c r="AN55" s="21"/>
     </row>
-    <row r="56" spans="1:40">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -4565,7 +4564,7 @@
       <c r="AM56" s="21"/>
       <c r="AN56" s="21"/>
     </row>
-    <row r="57" spans="1:40">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -4628,7 +4627,7 @@
       <c r="AM57" s="21"/>
       <c r="AN57" s="21"/>
     </row>
-    <row r="58" spans="1:40">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -4691,7 +4690,7 @@
       <c r="AM58" s="21"/>
       <c r="AN58" s="21"/>
     </row>
-    <row r="59" spans="1:40">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -4754,7 +4753,7 @@
       <c r="AM59" s="21"/>
       <c r="AN59" s="21"/>
     </row>
-    <row r="60" spans="1:40">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -4817,7 +4816,7 @@
       <c r="AM60" s="21"/>
       <c r="AN60" s="21"/>
     </row>
-    <row r="61" spans="1:40">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -4880,7 +4879,7 @@
       <c r="AM61" s="21"/>
       <c r="AN61" s="21"/>
     </row>
-    <row r="62" spans="1:40">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -4943,7 +4942,7 @@
       <c r="AM62" s="21"/>
       <c r="AN62" s="21"/>
     </row>
-    <row r="63" spans="1:40">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -5006,7 +5005,7 @@
       <c r="AM63" s="21"/>
       <c r="AN63" s="21"/>
     </row>
-    <row r="64" spans="1:40">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -5069,7 +5068,7 @@
       <c r="AM64" s="21"/>
       <c r="AN64" s="21"/>
     </row>
-    <row r="65" spans="1:40">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -5132,7 +5131,7 @@
       <c r="AM65" s="21"/>
       <c r="AN65" s="21"/>
     </row>
-    <row r="66" spans="1:40">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -5195,7 +5194,7 @@
       <c r="AM66" s="21"/>
       <c r="AN66" s="21"/>
     </row>
-    <row r="67" spans="1:40">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -5258,7 +5257,7 @@
       <c r="AM67" s="21"/>
       <c r="AN67" s="21"/>
     </row>
-    <row r="68" spans="1:40">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -5321,7 +5320,7 @@
       <c r="AM68" s="21"/>
       <c r="AN68" s="21"/>
     </row>
-    <row r="69" spans="1:40">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -5384,7 +5383,7 @@
       <c r="AM69" s="21"/>
       <c r="AN69" s="21"/>
     </row>
-    <row r="70" spans="1:40">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -5447,7 +5446,7 @@
       <c r="AM70" s="21"/>
       <c r="AN70" s="21"/>
     </row>
-    <row r="71" spans="1:40">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -5510,7 +5509,7 @@
       <c r="AM71" s="21"/>
       <c r="AN71" s="21"/>
     </row>
-    <row r="72" spans="1:40">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -5573,7 +5572,7 @@
       <c r="AM72" s="21"/>
       <c r="AN72" s="21"/>
     </row>
-    <row r="73" spans="1:40">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -5636,7 +5635,7 @@
       <c r="AM73" s="21"/>
       <c r="AN73" s="21"/>
     </row>
-    <row r="74" spans="1:40">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -5699,7 +5698,7 @@
       <c r="AM74" s="21"/>
       <c r="AN74" s="21"/>
     </row>
-    <row r="75" spans="1:40">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -5762,7 +5761,7 @@
       <c r="AM75" s="21"/>
       <c r="AN75" s="21"/>
     </row>
-    <row r="76" spans="1:40">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -5825,7 +5824,7 @@
       <c r="AM76" s="21"/>
       <c r="AN76" s="21"/>
     </row>
-    <row r="77" spans="1:40">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -5888,7 +5887,7 @@
       <c r="AM77" s="21"/>
       <c r="AN77" s="21"/>
     </row>
-    <row r="78" spans="1:40">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -5951,7 +5950,7 @@
       <c r="AM78" s="21"/>
       <c r="AN78" s="21"/>
     </row>
-    <row r="79" spans="1:40">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -6014,7 +6013,7 @@
       <c r="AM79" s="21"/>
       <c r="AN79" s="21"/>
     </row>
-    <row r="80" spans="1:40">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -6077,7 +6076,7 @@
       <c r="AM80" s="21"/>
       <c r="AN80" s="21"/>
     </row>
-    <row r="81" spans="1:40">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -6140,7 +6139,7 @@
       <c r="AM81" s="21"/>
       <c r="AN81" s="21"/>
     </row>
-    <row r="82" spans="1:40">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -6203,7 +6202,7 @@
       <c r="AM82" s="21"/>
       <c r="AN82" s="21"/>
     </row>
-    <row r="83" spans="1:40">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -6266,7 +6265,7 @@
       <c r="AM83" s="21"/>
       <c r="AN83" s="21"/>
     </row>
-    <row r="84" spans="1:40">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -6329,7 +6328,7 @@
       <c r="AM84" s="21"/>
       <c r="AN84" s="21"/>
     </row>
-    <row r="85" spans="1:40">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -6392,7 +6391,7 @@
       <c r="AM85" s="21"/>
       <c r="AN85" s="21"/>
     </row>
-    <row r="86" spans="1:40">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -6455,7 +6454,7 @@
       <c r="AM86" s="21"/>
       <c r="AN86" s="21"/>
     </row>
-    <row r="87" spans="1:40">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -6518,7 +6517,7 @@
       <c r="AM87" s="21"/>
       <c r="AN87" s="21"/>
     </row>
-    <row r="88" spans="1:40">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -6581,7 +6580,7 @@
       <c r="AM88" s="21"/>
       <c r="AN88" s="21"/>
     </row>
-    <row r="89" spans="1:40">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -6644,7 +6643,7 @@
       <c r="AM89" s="21"/>
       <c r="AN89" s="21"/>
     </row>
-    <row r="90" spans="1:40">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -6707,7 +6706,7 @@
       <c r="AM90" s="21"/>
       <c r="AN90" s="21"/>
     </row>
-    <row r="91" spans="1:40">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -6770,7 +6769,7 @@
       <c r="AM91" s="21"/>
       <c r="AN91" s="21"/>
     </row>
-    <row r="92" spans="1:40">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -6833,7 +6832,7 @@
       <c r="AM92" s="21"/>
       <c r="AN92" s="21"/>
     </row>
-    <row r="93" spans="1:40">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -6896,7 +6895,7 @@
       <c r="AM93" s="21"/>
       <c r="AN93" s="21"/>
     </row>
-    <row r="94" spans="1:40">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -6955,7 +6954,7 @@
       <c r="AM94" s="21"/>
       <c r="AN94" s="21"/>
     </row>
-    <row r="95" spans="1:40">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -7014,7 +7013,7 @@
       <c r="AM95" s="21"/>
       <c r="AN95" s="21"/>
     </row>
-    <row r="96" spans="1:40">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -7070,7 +7069,7 @@
       <c r="AM96" s="21"/>
       <c r="AN96" s="21"/>
     </row>
-    <row r="97" spans="1:40">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -7115,7 +7114,7 @@
       <c r="AM97" s="21"/>
       <c r="AN97" s="21"/>
     </row>
-    <row r="98" spans="1:40">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D98" s="1"/>
       <c r="I98" s="19"/>
       <c r="AG98" s="21">
@@ -7131,587 +7130,587 @@
       <c r="AM98" s="21"/>
       <c r="AN98" s="21"/>
     </row>
-    <row r="99" spans="1:40">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D99" s="1"/>
       <c r="I99" s="19"/>
     </row>
-    <row r="100" spans="1:40">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D100" s="1"/>
       <c r="I100" s="19"/>
     </row>
-    <row r="101" spans="1:40">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D101" s="1"/>
       <c r="I101" s="19"/>
     </row>
-    <row r="102" spans="1:40">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D102" s="1"/>
       <c r="I102" s="19"/>
     </row>
-    <row r="103" spans="1:40">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D103" s="1"/>
       <c r="I103" s="19"/>
     </row>
-    <row r="104" spans="1:40">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D104" s="1"/>
       <c r="I104" s="19"/>
     </row>
-    <row r="105" spans="1:40">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D105" s="1"/>
       <c r="I105" s="19"/>
     </row>
-    <row r="106" spans="1:40">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D106" s="1"/>
       <c r="I106" s="19"/>
     </row>
-    <row r="107" spans="1:40">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D107" s="1"/>
       <c r="I107" s="19"/>
     </row>
-    <row r="108" spans="1:40">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D108" s="1"/>
       <c r="I108" s="19"/>
     </row>
-    <row r="109" spans="1:40">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.35">
       <c r="I109" s="19"/>
     </row>
-    <row r="110" spans="1:40">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.35">
       <c r="I110" s="19"/>
     </row>
-    <row r="111" spans="1:40">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.35">
       <c r="I111" s="19"/>
     </row>
-    <row r="112" spans="1:40">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.35">
       <c r="I112" s="19"/>
     </row>
-    <row r="113" spans="9:9">
+    <row r="113" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I113" s="19"/>
     </row>
-    <row r="114" spans="9:9">
+    <row r="114" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I114" s="19"/>
     </row>
-    <row r="115" spans="9:9">
+    <row r="115" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I115" s="19"/>
     </row>
-    <row r="116" spans="9:9">
+    <row r="116" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="9:9">
+    <row r="117" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="9:9">
+    <row r="118" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="9:9">
+    <row r="119" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I119" s="19"/>
     </row>
-    <row r="120" spans="9:9">
+    <row r="120" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I120" s="19"/>
     </row>
-    <row r="121" spans="9:9">
+    <row r="121" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I121" s="19"/>
     </row>
-    <row r="122" spans="9:9">
+    <row r="122" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I122" s="19"/>
     </row>
-    <row r="123" spans="9:9">
+    <row r="123" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I123" s="19"/>
     </row>
-    <row r="124" spans="9:9">
+    <row r="124" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I124" s="19"/>
     </row>
-    <row r="125" spans="9:9">
+    <row r="125" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I125" s="19"/>
     </row>
-    <row r="126" spans="9:9">
+    <row r="126" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I126" s="19"/>
     </row>
-    <row r="127" spans="9:9">
+    <row r="127" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I127" s="19"/>
     </row>
-    <row r="128" spans="9:9">
+    <row r="128" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I128" s="19"/>
     </row>
-    <row r="129" spans="9:9">
+    <row r="129" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I129" s="19"/>
     </row>
-    <row r="130" spans="9:9">
+    <row r="130" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I130" s="19"/>
     </row>
-    <row r="131" spans="9:9">
+    <row r="131" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I131" s="19"/>
     </row>
-    <row r="132" spans="9:9">
+    <row r="132" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I132" s="19"/>
     </row>
-    <row r="133" spans="9:9">
+    <row r="133" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I133" s="19"/>
     </row>
-    <row r="134" spans="9:9">
+    <row r="134" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I134" s="19"/>
     </row>
-    <row r="135" spans="9:9">
+    <row r="135" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I135" s="19"/>
     </row>
-    <row r="136" spans="9:9">
+    <row r="136" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I136" s="19"/>
     </row>
-    <row r="137" spans="9:9">
+    <row r="137" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I137" s="19"/>
     </row>
-    <row r="138" spans="9:9">
+    <row r="138" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I138" s="19"/>
     </row>
-    <row r="139" spans="9:9">
+    <row r="139" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I139" s="19"/>
     </row>
-    <row r="140" spans="9:9">
+    <row r="140" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I140" s="19"/>
     </row>
-    <row r="141" spans="9:9">
+    <row r="141" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I141" s="19"/>
     </row>
-    <row r="142" spans="9:9">
+    <row r="142" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I142" s="19"/>
     </row>
-    <row r="143" spans="9:9">
+    <row r="143" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I143" s="19"/>
     </row>
-    <row r="144" spans="9:9">
+    <row r="144" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I144" s="19"/>
     </row>
-    <row r="145" spans="9:9">
+    <row r="145" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I145" s="19"/>
     </row>
-    <row r="146" spans="9:9">
+    <row r="146" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I146" s="19"/>
     </row>
-    <row r="147" spans="9:9">
+    <row r="147" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I147" s="19"/>
     </row>
-    <row r="148" spans="9:9">
+    <row r="148" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I148" s="19"/>
     </row>
-    <row r="149" spans="9:9">
+    <row r="149" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I149" s="19"/>
     </row>
-    <row r="150" spans="9:9">
+    <row r="150" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I150" s="19"/>
     </row>
-    <row r="151" spans="9:9">
+    <row r="151" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I151" s="19"/>
     </row>
-    <row r="152" spans="9:9">
+    <row r="152" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I152" s="19"/>
     </row>
-    <row r="153" spans="9:9">
+    <row r="153" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I153" s="19"/>
     </row>
-    <row r="154" spans="9:9">
+    <row r="154" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I154" s="19"/>
     </row>
-    <row r="155" spans="9:9">
+    <row r="155" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I155" s="19"/>
     </row>
-    <row r="156" spans="9:9">
+    <row r="156" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I156" s="19"/>
     </row>
-    <row r="157" spans="9:9">
+    <row r="157" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I157" s="19"/>
     </row>
-    <row r="158" spans="9:9">
+    <row r="158" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I158" s="19"/>
     </row>
-    <row r="159" spans="9:9">
+    <row r="159" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I159" s="19"/>
     </row>
-    <row r="160" spans="9:9">
+    <row r="160" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I160" s="19"/>
     </row>
-    <row r="161" spans="9:9">
+    <row r="161" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I161" s="19"/>
     </row>
-    <row r="162" spans="9:9">
+    <row r="162" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I162" s="19"/>
     </row>
-    <row r="163" spans="9:9">
+    <row r="163" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I163" s="19"/>
     </row>
-    <row r="164" spans="9:9">
+    <row r="164" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I164" s="19"/>
     </row>
-    <row r="165" spans="9:9">
+    <row r="165" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I165" s="19"/>
     </row>
-    <row r="166" spans="9:9">
+    <row r="166" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I166" s="19"/>
     </row>
-    <row r="167" spans="9:9">
+    <row r="167" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I167" s="19"/>
     </row>
-    <row r="168" spans="9:9">
+    <row r="168" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I168" s="19"/>
     </row>
-    <row r="169" spans="9:9">
+    <row r="169" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I169" s="19"/>
     </row>
-    <row r="170" spans="9:9">
+    <row r="170" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I170" s="19"/>
     </row>
-    <row r="171" spans="9:9">
+    <row r="171" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I171" s="19"/>
     </row>
-    <row r="172" spans="9:9">
+    <row r="172" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I172" s="19"/>
     </row>
-    <row r="173" spans="9:9">
+    <row r="173" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I173" s="19"/>
     </row>
-    <row r="174" spans="9:9">
+    <row r="174" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I174" s="19"/>
     </row>
-    <row r="175" spans="9:9">
+    <row r="175" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I175" s="19"/>
     </row>
-    <row r="176" spans="9:9">
+    <row r="176" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I176" s="19"/>
     </row>
-    <row r="177" spans="9:9">
+    <row r="177" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I177" s="19"/>
     </row>
-    <row r="178" spans="9:9">
+    <row r="178" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I178" s="19"/>
     </row>
-    <row r="179" spans="9:9">
+    <row r="179" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I179" s="19"/>
     </row>
-    <row r="180" spans="9:9">
+    <row r="180" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I180" s="19"/>
     </row>
-    <row r="181" spans="9:9">
+    <row r="181" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I181" s="19"/>
     </row>
-    <row r="182" spans="9:9">
+    <row r="182" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I182" s="19"/>
     </row>
-    <row r="183" spans="9:9">
+    <row r="183" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I183" s="19"/>
     </row>
-    <row r="184" spans="9:9">
+    <row r="184" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I184" s="19"/>
     </row>
-    <row r="185" spans="9:9">
+    <row r="185" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I185" s="19"/>
     </row>
-    <row r="186" spans="9:9">
+    <row r="186" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I186" s="19"/>
     </row>
-    <row r="187" spans="9:9">
+    <row r="187" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I187" s="19"/>
     </row>
-    <row r="188" spans="9:9">
+    <row r="188" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I188" s="19"/>
     </row>
-    <row r="189" spans="9:9">
+    <row r="189" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I189" s="19"/>
     </row>
-    <row r="190" spans="9:9">
+    <row r="190" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I190" s="19"/>
     </row>
-    <row r="191" spans="9:9">
+    <row r="191" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I191" s="19"/>
     </row>
-    <row r="192" spans="9:9">
+    <row r="192" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I192" s="19"/>
     </row>
-    <row r="193" spans="9:9">
+    <row r="193" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I193" s="19"/>
     </row>
-    <row r="194" spans="9:9">
+    <row r="194" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I194" s="19"/>
     </row>
-    <row r="195" spans="9:9">
+    <row r="195" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I195" s="19"/>
     </row>
-    <row r="196" spans="9:9">
+    <row r="196" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I196" s="19"/>
     </row>
-    <row r="197" spans="9:9">
+    <row r="197" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I197" s="19"/>
     </row>
-    <row r="198" spans="9:9">
+    <row r="198" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I198" s="19"/>
     </row>
-    <row r="199" spans="9:9">
+    <row r="199" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I199" s="19"/>
     </row>
-    <row r="200" spans="9:9">
+    <row r="200" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I200" s="19"/>
     </row>
-    <row r="201" spans="9:9">
+    <row r="201" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I201" s="19"/>
     </row>
-    <row r="202" spans="9:9">
+    <row r="202" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I202" s="19"/>
     </row>
-    <row r="203" spans="9:9">
+    <row r="203" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I203" s="19"/>
     </row>
-    <row r="204" spans="9:9">
+    <row r="204" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I204" s="19"/>
     </row>
-    <row r="205" spans="9:9">
+    <row r="205" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I205" s="19"/>
     </row>
-    <row r="206" spans="9:9">
+    <row r="206" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I206" s="19"/>
     </row>
-    <row r="207" spans="9:9">
+    <row r="207" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I207" s="19"/>
     </row>
-    <row r="208" spans="9:9">
+    <row r="208" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I208" s="19"/>
     </row>
-    <row r="209" spans="9:9">
+    <row r="209" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I209" s="19"/>
     </row>
-    <row r="210" spans="9:9">
+    <row r="210" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I210" s="19"/>
     </row>
-    <row r="211" spans="9:9">
+    <row r="211" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I211" s="19"/>
     </row>
-    <row r="212" spans="9:9">
+    <row r="212" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I212" s="19"/>
     </row>
-    <row r="213" spans="9:9">
+    <row r="213" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I213" s="19"/>
     </row>
-    <row r="214" spans="9:9">
+    <row r="214" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I214" s="19"/>
     </row>
-    <row r="215" spans="9:9">
+    <row r="215" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I215" s="19"/>
     </row>
-    <row r="216" spans="9:9">
+    <row r="216" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I216" s="19"/>
     </row>
-    <row r="217" spans="9:9">
+    <row r="217" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I217" s="19"/>
     </row>
-    <row r="218" spans="9:9">
+    <row r="218" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I218" s="19"/>
     </row>
-    <row r="219" spans="9:9">
+    <row r="219" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I219" s="19"/>
     </row>
-    <row r="220" spans="9:9">
+    <row r="220" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I220" s="19"/>
     </row>
-    <row r="221" spans="9:9">
+    <row r="221" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I221" s="19"/>
     </row>
-    <row r="222" spans="9:9">
+    <row r="222" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I222" s="19"/>
     </row>
-    <row r="223" spans="9:9">
+    <row r="223" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I223" s="19"/>
     </row>
-    <row r="224" spans="9:9">
+    <row r="224" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I224" s="19"/>
     </row>
-    <row r="225" spans="9:9">
+    <row r="225" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I225" s="19"/>
     </row>
-    <row r="226" spans="9:9">
+    <row r="226" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I226" s="19"/>
     </row>
-    <row r="227" spans="9:9">
+    <row r="227" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I227" s="19"/>
     </row>
-    <row r="228" spans="9:9">
+    <row r="228" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I228" s="19"/>
     </row>
-    <row r="229" spans="9:9">
+    <row r="229" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I229" s="19"/>
     </row>
-    <row r="230" spans="9:9">
+    <row r="230" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I230" s="19"/>
     </row>
-    <row r="231" spans="9:9">
+    <row r="231" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I231" s="19"/>
     </row>
-    <row r="232" spans="9:9">
+    <row r="232" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I232" s="19"/>
     </row>
-    <row r="233" spans="9:9">
+    <row r="233" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I233" s="19"/>
     </row>
-    <row r="234" spans="9:9">
+    <row r="234" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I234" s="19"/>
     </row>
-    <row r="235" spans="9:9">
+    <row r="235" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I235" s="19"/>
     </row>
-    <row r="236" spans="9:9">
+    <row r="236" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I236" s="19"/>
     </row>
-    <row r="237" spans="9:9">
+    <row r="237" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I237" s="19"/>
     </row>
-    <row r="238" spans="9:9">
+    <row r="238" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I238" s="19"/>
     </row>
-    <row r="239" spans="9:9">
+    <row r="239" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I239" s="19"/>
     </row>
-    <row r="240" spans="9:9">
+    <row r="240" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I240" s="19"/>
     </row>
-    <row r="241" spans="9:9">
+    <row r="241" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I241" s="19"/>
     </row>
-    <row r="242" spans="9:9">
+    <row r="242" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I242" s="19"/>
     </row>
-    <row r="243" spans="9:9">
+    <row r="243" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I243" s="19"/>
     </row>
-    <row r="244" spans="9:9">
+    <row r="244" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I244" s="19"/>
     </row>
-    <row r="245" spans="9:9">
+    <row r="245" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I245" s="19"/>
     </row>
-    <row r="246" spans="9:9">
+    <row r="246" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I246" s="19"/>
     </row>
-    <row r="247" spans="9:9">
+    <row r="247" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I247" s="19"/>
     </row>
-    <row r="248" spans="9:9">
+    <row r="248" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I248" s="19"/>
     </row>
-    <row r="249" spans="9:9">
+    <row r="249" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I249" s="19"/>
     </row>
-    <row r="250" spans="9:9">
+    <row r="250" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I250" s="19"/>
     </row>
-    <row r="251" spans="9:9">
+    <row r="251" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I251" s="19"/>
     </row>
-    <row r="252" spans="9:9">
+    <row r="252" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I252" s="19"/>
     </row>
-    <row r="253" spans="9:9">
+    <row r="253" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I253" s="19"/>
     </row>
-    <row r="254" spans="9:9">
+    <row r="254" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I254" s="19"/>
     </row>
-    <row r="255" spans="9:9">
+    <row r="255" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I255" s="19"/>
     </row>
-    <row r="256" spans="9:9">
+    <row r="256" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I256" s="19"/>
     </row>
-    <row r="257" spans="9:9">
+    <row r="257" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I257" s="19"/>
     </row>
-    <row r="258" spans="9:9">
+    <row r="258" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I258" s="19"/>
     </row>
-    <row r="259" spans="9:9">
+    <row r="259" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I259" s="19"/>
     </row>
-    <row r="260" spans="9:9">
+    <row r="260" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I260" s="19"/>
     </row>
-    <row r="261" spans="9:9">
+    <row r="261" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I261" s="19"/>
     </row>
-    <row r="262" spans="9:9">
+    <row r="262" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I262" s="19"/>
     </row>
-    <row r="263" spans="9:9">
+    <row r="263" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I263" s="19"/>
     </row>
-    <row r="264" spans="9:9">
+    <row r="264" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I264" s="19"/>
     </row>
-    <row r="265" spans="9:9">
+    <row r="265" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I265" s="19"/>
     </row>
-    <row r="266" spans="9:9">
+    <row r="266" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I266" s="19"/>
     </row>
-    <row r="267" spans="9:9">
+    <row r="267" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I267" s="19"/>
     </row>
-    <row r="268" spans="9:9">
+    <row r="268" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I268" s="19"/>
     </row>
-    <row r="269" spans="9:9">
+    <row r="269" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I269" s="19"/>
     </row>
-    <row r="270" spans="9:9">
+    <row r="270" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I270" s="19"/>
     </row>
-    <row r="271" spans="9:9">
+    <row r="271" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I271" s="19"/>
     </row>
-    <row r="272" spans="9:9">
+    <row r="272" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I272" s="19"/>
     </row>
-    <row r="273" spans="9:9">
+    <row r="273" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I273" s="19"/>
     </row>
-    <row r="274" spans="9:9">
+    <row r="274" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I274" s="19"/>
     </row>
-    <row r="275" spans="9:9">
+    <row r="275" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I275" s="19"/>
     </row>
-    <row r="276" spans="9:9">
+    <row r="276" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I276" s="19"/>
     </row>
-    <row r="277" spans="9:9">
+    <row r="277" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I277" s="19"/>
     </row>
-    <row r="278" spans="9:9">
+    <row r="278" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I278" s="19"/>
     </row>
-    <row r="279" spans="9:9">
+    <row r="279" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I279" s="19"/>
     </row>
-    <row r="280" spans="9:9">
+    <row r="280" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I280" s="19"/>
     </row>
-    <row r="281" spans="9:9">
+    <row r="281" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I281" s="19"/>
     </row>
-    <row r="282" spans="9:9">
+    <row r="282" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I282" s="19"/>
     </row>
-    <row r="283" spans="9:9">
+    <row r="283" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I283" s="19"/>
     </row>
-    <row r="284" spans="9:9">
+    <row r="284" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I284" s="19"/>
     </row>
-    <row r="285" spans="9:9">
+    <row r="285" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I285" s="19"/>
     </row>
-    <row r="286" spans="9:9">
+    <row r="286" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I286" s="19"/>
     </row>
-    <row r="287" spans="9:9">
+    <row r="287" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I287" s="19"/>
     </row>
-    <row r="288" spans="9:9">
+    <row r="288" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I288" s="19"/>
     </row>
-    <row r="289" spans="9:9">
+    <row r="289" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I289" s="19"/>
     </row>
   </sheetData>
@@ -7730,17 +7729,17 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.85546875" customWidth="1"/>
-    <col min="13" max="13" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.81640625" customWidth="1"/>
+    <col min="13" max="13" width="45.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:47">
+    <row r="1" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>20</v>
       </c>
@@ -7766,7 +7765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="3:47">
+    <row r="2" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2:D24">TRANSPOSE(Y2:AU3)</f>
         <v>2001</v>
@@ -7872,7 +7871,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="3:47">
+    <row r="3" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C3" t="str">
         <v>2002</v>
       </c>
@@ -7977,7 +7976,7 @@
         <v>44368658</v>
       </c>
     </row>
-    <row r="4" spans="3:47">
+    <row r="4" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C4" t="str">
         <v>2003</v>
       </c>
@@ -8007,7 +8006,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="3:47">
+    <row r="5" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C5" t="str">
         <v>2004</v>
       </c>
@@ -8034,7 +8033,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="6" spans="3:47">
+    <row r="6" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C6" t="str">
         <v>2005</v>
       </c>
@@ -8061,7 +8060,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="7" spans="3:47">
+    <row r="7" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C7" t="str">
         <v>2006</v>
       </c>
@@ -8090,7 +8089,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="3:47">
+    <row r="8" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C8" t="str">
         <v>2007</v>
       </c>
@@ -8111,7 +8110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:47">
+    <row r="9" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C9" t="str">
         <v>2008</v>
       </c>
@@ -8135,7 +8134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:47">
+    <row r="10" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C10" t="str">
         <v>2009</v>
       </c>
@@ -8149,7 +8148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:47">
+    <row r="11" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C11" t="str">
         <v>2010</v>
       </c>
@@ -8163,7 +8162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="3:47">
+    <row r="12" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C12" t="str">
         <v>2011</v>
       </c>
@@ -8180,7 +8179,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="3:47">
+    <row r="13" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C13" t="str">
         <v>2012</v>
       </c>
@@ -8188,7 +8187,7 @@
         <v>41853628</v>
       </c>
     </row>
-    <row r="14" spans="3:47">
+    <row r="14" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C14" t="str">
         <v>2013</v>
       </c>
@@ -8196,7 +8195,7 @@
         <v>42212988</v>
       </c>
     </row>
-    <row r="15" spans="3:47">
+    <row r="15" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
         <v>2014</v>
       </c>
@@ -8204,7 +8203,7 @@
         <v>42458390</v>
       </c>
     </row>
-    <row r="16" spans="3:47">
+    <row r="16" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C16" t="str">
         <v>2015</v>
       </c>
@@ -8212,7 +8211,7 @@
         <v>42660629</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C17" t="str">
         <v>2016</v>
       </c>
@@ -8220,7 +8219,7 @@
         <v>43567225</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C18" t="str">
         <v>2017</v>
       </c>
@@ -8228,7 +8227,7 @@
         <v>43819028</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C19" t="str">
         <v>2018</v>
       </c>
@@ -8236,7 +8235,7 @@
         <v>43935038</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C20" t="str">
         <v>2019</v>
       </c>
@@ -8244,7 +8243,7 @@
         <v>44433744</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" t="str">
         <v>2020</v>
       </c>
@@ -8252,7 +8251,7 @@
         <v>43501190</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C22" t="str">
         <v>2021</v>
       </c>
@@ -8260,7 +8259,7 @@
         <v>43386527</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C23" t="str">
         <v>2022</v>
       </c>
@@ -8268,7 +8267,7 @@
         <v>44198105</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C24" t="str">
         <v>2023</v>
       </c>
@@ -8295,14 +8294,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2009</v>
       </c>
@@ -8310,92 +8309,92 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -8413,22 +8412,22 @@
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>92</v>
       </c>
@@ -8484,7 +8483,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C2" s="4">
         <v>36526</v>
       </c>
@@ -8524,7 +8523,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="3" spans="2:19">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C3" s="4">
         <v>36892</v>
       </c>
@@ -8564,7 +8563,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C4" s="4">
         <v>37257</v>
       </c>
@@ -8604,7 +8603,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C5" s="4">
         <v>37622</v>
       </c>
@@ -8644,7 +8643,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C6" s="4">
         <v>37987</v>
       </c>
@@ -8684,7 +8683,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C7" s="4">
         <v>38353</v>
       </c>
@@ -8712,7 +8711,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C8" s="4">
         <v>38718</v>
       </c>
@@ -8740,7 +8739,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="9" spans="2:19">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C9" s="4">
         <v>39083</v>
       </c>
@@ -8768,7 +8767,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="10" spans="2:19">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C10" s="4">
         <v>39448</v>
       </c>
@@ -8796,7 +8795,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:19">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C11" s="4">
         <v>39814</v>
       </c>
@@ -8824,7 +8823,7 @@
         <v>-6.2</v>
       </c>
     </row>
-    <row r="12" spans="2:19">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C12" s="4">
         <v>40179</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>-6.3</v>
       </c>
     </row>
-    <row r="13" spans="2:19">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C13" s="4">
         <v>40544</v>
       </c>
@@ -8880,7 +8879,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C14" s="4">
         <v>40909</v>
       </c>
@@ -8908,7 +8907,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="4">
         <v>41275</v>
       </c>
@@ -8936,7 +8935,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C16" s="4">
         <v>41640</v>
       </c>
@@ -8964,7 +8963,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="17" spans="3:19">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C17" s="4">
         <v>42005</v>
       </c>
@@ -8992,7 +8991,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="3:19">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C18" s="4">
         <v>42370</v>
       </c>
@@ -9020,7 +9019,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="19" spans="3:19">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C19" s="4">
         <v>42736</v>
       </c>
@@ -9048,7 +9047,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="20" spans="3:19">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C20" s="4">
         <v>43101</v>
       </c>
@@ -9076,7 +9075,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="21" spans="3:19">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C21" s="4">
         <v>43466</v>
       </c>
@@ -9104,7 +9103,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="22" spans="3:19">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C22" s="4">
         <v>43831</v>
       </c>
@@ -9132,7 +9131,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="23" spans="3:19">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C23" s="4">
         <v>44197</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>-5.2</v>
       </c>
     </row>
-    <row r="24" spans="3:19">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C24" s="4">
         <v>44562</v>
       </c>
@@ -9188,7 +9187,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="25" spans="3:19">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C25" s="4">
         <v>44927</v>
       </c>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="878" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DBBE580-08A7-4930-8363-1FA40519283D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nøgletal" sheetId="1" r:id="rId1"/>
@@ -939,29 +939,29 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" customWidth="1"/>
-    <col min="5" max="5" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.26953125" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="84.81640625" customWidth="1"/>
+    <col min="11" max="11" width="84.83203125" customWidth="1"/>
     <col min="12" max="12" width="79" customWidth="1"/>
-    <col min="13" max="13" width="49.7265625" customWidth="1"/>
+    <col min="13" max="13" width="49.6640625" customWidth="1"/>
     <col min="14" max="14" width="79" customWidth="1"/>
-    <col min="15" max="15" width="140.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.7265625" customWidth="1"/>
+    <col min="15" max="15" width="140.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +1029,7 @@
       <c r="AM1" s="21"/>
       <c r="AN1" s="21"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1096,7 +1096,7 @@
       <c r="AM2" s="21"/>
       <c r="AN2" s="21"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1162,7 +1162,7 @@
       <c r="AM3" s="21"/>
       <c r="AN3" s="21"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="AM5" s="21"/>
       <c r="AN5" s="21"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="AM6" s="21"/>
       <c r="AN6" s="21"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="AM7" s="21"/>
       <c r="AN7" s="21"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="AM8" s="21"/>
       <c r="AN8" s="21"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1558,7 +1558,7 @@
       <c r="AM9" s="21"/>
       <c r="AN9" s="21"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1624,7 +1624,7 @@
       <c r="AM10" s="21"/>
       <c r="AN10" s="21"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="AM11" s="21"/>
       <c r="AN11" s="21"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="AM12" s="21"/>
       <c r="AN12" s="21"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="AM13" s="21"/>
       <c r="AN13" s="21"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1888,7 +1888,7 @@
       <c r="AM14" s="21"/>
       <c r="AN14" s="21"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="AM15" s="21"/>
       <c r="AN15" s="21"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="AM16" s="21"/>
       <c r="AN16" s="21"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -2086,7 +2086,7 @@
       <c r="AM17" s="21"/>
       <c r="AN17" s="21"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -2152,7 +2152,7 @@
       <c r="AM18" s="21"/>
       <c r="AN18" s="21"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="AM19" s="21"/>
       <c r="AN19" s="21"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -2284,7 +2284,7 @@
       <c r="AM20" s="21"/>
       <c r="AN20" s="21"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="AM21" s="21"/>
       <c r="AN21" s="21"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="AM22" s="21"/>
       <c r="AN22" s="21"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -2482,7 +2482,7 @@
       <c r="AM23" s="21"/>
       <c r="AN23" s="21"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="AM24" s="21"/>
       <c r="AN24" s="21"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="AM25" s="21"/>
       <c r="AN25" s="21"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="AM26" s="21"/>
       <c r="AN26" s="21"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -2737,7 +2737,7 @@
       <c r="AM27" s="21"/>
       <c r="AN27" s="21"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="AM28" s="21"/>
       <c r="AN28" s="21"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="AM29" s="21"/>
       <c r="AN29" s="21"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="AM30" s="21"/>
       <c r="AN30" s="21"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -2989,7 +2989,7 @@
       <c r="AM31" s="21"/>
       <c r="AN31" s="21"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -3052,7 +3052,7 @@
       <c r="AM32" s="21"/>
       <c r="AN32" s="21"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="AM33" s="21"/>
       <c r="AN33" s="21"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -3178,7 +3178,7 @@
       <c r="AM34" s="21"/>
       <c r="AN34" s="21"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -3241,7 +3241,7 @@
       <c r="AM35" s="21"/>
       <c r="AN35" s="21"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -3304,7 +3304,7 @@
       <c r="AM36" s="21"/>
       <c r="AN36" s="21"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -3367,7 +3367,7 @@
       <c r="AM37" s="21"/>
       <c r="AN37" s="21"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="AM38" s="21"/>
       <c r="AN38" s="21"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -3493,7 +3493,7 @@
       <c r="AM39" s="21"/>
       <c r="AN39" s="21"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="AM40" s="21"/>
       <c r="AN40" s="21"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -3619,7 +3619,7 @@
       <c r="AM41" s="21"/>
       <c r="AN41" s="21"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -3682,7 +3682,7 @@
       <c r="AM42" s="21"/>
       <c r="AN42" s="21"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="AM43" s="21"/>
       <c r="AN43" s="21"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="AM44" s="21"/>
       <c r="AN44" s="21"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="AM45" s="21"/>
       <c r="AN45" s="21"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -3934,7 +3934,7 @@
       <c r="AM46" s="21"/>
       <c r="AN46" s="21"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -3997,7 +3997,7 @@
       <c r="AM47" s="21"/>
       <c r="AN47" s="21"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -4060,7 +4060,7 @@
       <c r="AM48" s="21"/>
       <c r="AN48" s="21"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -4123,7 +4123,7 @@
       <c r="AM49" s="21"/>
       <c r="AN49" s="21"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -4186,7 +4186,7 @@
       <c r="AM50" s="21"/>
       <c r="AN50" s="21"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -4249,7 +4249,7 @@
       <c r="AM51" s="21"/>
       <c r="AN51" s="21"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -4312,7 +4312,7 @@
       <c r="AM52" s="21"/>
       <c r="AN52" s="21"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -4375,7 +4375,7 @@
       <c r="AM53" s="21"/>
       <c r="AN53" s="21"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -4438,7 +4438,7 @@
       <c r="AM54" s="21"/>
       <c r="AN54" s="21"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -4501,7 +4501,7 @@
       <c r="AM55" s="21"/>
       <c r="AN55" s="21"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -4564,7 +4564,7 @@
       <c r="AM56" s="21"/>
       <c r="AN56" s="21"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -4627,7 +4627,7 @@
       <c r="AM57" s="21"/>
       <c r="AN57" s="21"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -4690,7 +4690,7 @@
       <c r="AM58" s="21"/>
       <c r="AN58" s="21"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -4753,7 +4753,7 @@
       <c r="AM59" s="21"/>
       <c r="AN59" s="21"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -4816,7 +4816,7 @@
       <c r="AM60" s="21"/>
       <c r="AN60" s="21"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -4879,7 +4879,7 @@
       <c r="AM61" s="21"/>
       <c r="AN61" s="21"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -4942,7 +4942,7 @@
       <c r="AM62" s="21"/>
       <c r="AN62" s="21"/>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -5005,7 +5005,7 @@
       <c r="AM63" s="21"/>
       <c r="AN63" s="21"/>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -5068,7 +5068,7 @@
       <c r="AM64" s="21"/>
       <c r="AN64" s="21"/>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="AM65" s="21"/>
       <c r="AN65" s="21"/>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -5194,7 +5194,7 @@
       <c r="AM66" s="21"/>
       <c r="AN66" s="21"/>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -5257,7 +5257,7 @@
       <c r="AM67" s="21"/>
       <c r="AN67" s="21"/>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -5320,7 +5320,7 @@
       <c r="AM68" s="21"/>
       <c r="AN68" s="21"/>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -5383,7 +5383,7 @@
       <c r="AM69" s="21"/>
       <c r="AN69" s="21"/>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -5446,7 +5446,7 @@
       <c r="AM70" s="21"/>
       <c r="AN70" s="21"/>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -5509,7 +5509,7 @@
       <c r="AM71" s="21"/>
       <c r="AN71" s="21"/>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -5572,7 +5572,7 @@
       <c r="AM72" s="21"/>
       <c r="AN72" s="21"/>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -5635,7 +5635,7 @@
       <c r="AM73" s="21"/>
       <c r="AN73" s="21"/>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -5698,7 +5698,7 @@
       <c r="AM74" s="21"/>
       <c r="AN74" s="21"/>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -5761,7 +5761,7 @@
       <c r="AM75" s="21"/>
       <c r="AN75" s="21"/>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -5824,7 +5824,7 @@
       <c r="AM76" s="21"/>
       <c r="AN76" s="21"/>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -5887,7 +5887,7 @@
       <c r="AM77" s="21"/>
       <c r="AN77" s="21"/>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -5950,7 +5950,7 @@
       <c r="AM78" s="21"/>
       <c r="AN78" s="21"/>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -6013,7 +6013,7 @@
       <c r="AM79" s="21"/>
       <c r="AN79" s="21"/>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -6076,7 +6076,7 @@
       <c r="AM80" s="21"/>
       <c r="AN80" s="21"/>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -6139,7 +6139,7 @@
       <c r="AM81" s="21"/>
       <c r="AN81" s="21"/>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -6202,7 +6202,7 @@
       <c r="AM82" s="21"/>
       <c r="AN82" s="21"/>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -6265,7 +6265,7 @@
       <c r="AM83" s="21"/>
       <c r="AN83" s="21"/>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -6328,7 +6328,7 @@
       <c r="AM84" s="21"/>
       <c r="AN84" s="21"/>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -6391,7 +6391,7 @@
       <c r="AM85" s="21"/>
       <c r="AN85" s="21"/>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -6454,7 +6454,7 @@
       <c r="AM86" s="21"/>
       <c r="AN86" s="21"/>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -6517,7 +6517,7 @@
       <c r="AM87" s="21"/>
       <c r="AN87" s="21"/>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -6580,7 +6580,7 @@
       <c r="AM88" s="21"/>
       <c r="AN88" s="21"/>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -6643,7 +6643,7 @@
       <c r="AM89" s="21"/>
       <c r="AN89" s="21"/>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -6706,7 +6706,7 @@
       <c r="AM90" s="21"/>
       <c r="AN90" s="21"/>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -6769,7 +6769,7 @@
       <c r="AM91" s="21"/>
       <c r="AN91" s="21"/>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -6832,7 +6832,7 @@
       <c r="AM92" s="21"/>
       <c r="AN92" s="21"/>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -6895,7 +6895,7 @@
       <c r="AM93" s="21"/>
       <c r="AN93" s="21"/>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -6954,7 +6954,7 @@
       <c r="AM94" s="21"/>
       <c r="AN94" s="21"/>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -7013,7 +7013,7 @@
       <c r="AM95" s="21"/>
       <c r="AN95" s="21"/>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -7069,7 +7069,7 @@
       <c r="AM96" s="21"/>
       <c r="AN96" s="21"/>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -7114,7 +7114,7 @@
       <c r="AM97" s="21"/>
       <c r="AN97" s="21"/>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
       <c r="I98" s="19"/>
       <c r="AG98" s="21">
@@ -7130,587 +7130,587 @@
       <c r="AM98" s="21"/>
       <c r="AN98" s="21"/>
     </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
       <c r="I99" s="19"/>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
       <c r="I100" s="19"/>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
       <c r="I101" s="19"/>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
       <c r="I102" s="19"/>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
       <c r="I103" s="19"/>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
       <c r="I104" s="19"/>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
       <c r="I105" s="19"/>
     </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
       <c r="I106" s="19"/>
     </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
       <c r="I107" s="19"/>
     </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
       <c r="I108" s="19"/>
     </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.2">
       <c r="I109" s="19"/>
     </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.2">
       <c r="I110" s="19"/>
     </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.2">
       <c r="I111" s="19"/>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.2">
       <c r="I112" s="19"/>
     </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I113" s="19"/>
     </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I114" s="19"/>
     </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I115" s="19"/>
     </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I119" s="19"/>
     </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I120" s="19"/>
     </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I121" s="19"/>
     </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I122" s="19"/>
     </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I123" s="19"/>
     </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I124" s="19"/>
     </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I125" s="19"/>
     </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I126" s="19"/>
     </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I127" s="19"/>
     </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I128" s="19"/>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I129" s="19"/>
     </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I130" s="19"/>
     </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I131" s="19"/>
     </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I132" s="19"/>
     </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I133" s="19"/>
     </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I134" s="19"/>
     </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I135" s="19"/>
     </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I136" s="19"/>
     </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I137" s="19"/>
     </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I138" s="19"/>
     </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I139" s="19"/>
     </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I140" s="19"/>
     </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I141" s="19"/>
     </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I142" s="19"/>
     </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I143" s="19"/>
     </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I144" s="19"/>
     </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I145" s="19"/>
     </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I146" s="19"/>
     </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I147" s="19"/>
     </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I148" s="19"/>
     </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I149" s="19"/>
     </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I150" s="19"/>
     </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I151" s="19"/>
     </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I152" s="19"/>
     </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I153" s="19"/>
     </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I154" s="19"/>
     </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I155" s="19"/>
     </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I156" s="19"/>
     </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I157" s="19"/>
     </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I158" s="19"/>
     </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I159" s="19"/>
     </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I160" s="19"/>
     </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I161" s="19"/>
     </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I162" s="19"/>
     </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I163" s="19"/>
     </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I164" s="19"/>
     </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I165" s="19"/>
     </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I166" s="19"/>
     </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I167" s="19"/>
     </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I168" s="19"/>
     </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I169" s="19"/>
     </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I170" s="19"/>
     </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I171" s="19"/>
     </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I172" s="19"/>
     </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I173" s="19"/>
     </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I174" s="19"/>
     </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I175" s="19"/>
     </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I176" s="19"/>
     </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I177" s="19"/>
     </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I178" s="19"/>
     </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I179" s="19"/>
     </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I180" s="19"/>
     </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I181" s="19"/>
     </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I182" s="19"/>
     </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I183" s="19"/>
     </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I184" s="19"/>
     </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I185" s="19"/>
     </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I186" s="19"/>
     </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I187" s="19"/>
     </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I188" s="19"/>
     </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I189" s="19"/>
     </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I190" s="19"/>
     </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I191" s="19"/>
     </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I192" s="19"/>
     </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I193" s="19"/>
     </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I194" s="19"/>
     </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I195" s="19"/>
     </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I196" s="19"/>
     </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I197" s="19"/>
     </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I198" s="19"/>
     </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I199" s="19"/>
     </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I200" s="19"/>
     </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I201" s="19"/>
     </row>
-    <row r="202" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I202" s="19"/>
     </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I203" s="19"/>
     </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I204" s="19"/>
     </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I205" s="19"/>
     </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I206" s="19"/>
     </row>
-    <row r="207" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I207" s="19"/>
     </row>
-    <row r="208" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I208" s="19"/>
     </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I209" s="19"/>
     </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I210" s="19"/>
     </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I211" s="19"/>
     </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I212" s="19"/>
     </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I213" s="19"/>
     </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I214" s="19"/>
     </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I215" s="19"/>
     </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I216" s="19"/>
     </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I217" s="19"/>
     </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I218" s="19"/>
     </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I219" s="19"/>
     </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I220" s="19"/>
     </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I221" s="19"/>
     </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I222" s="19"/>
     </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I223" s="19"/>
     </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I224" s="19"/>
     </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I225" s="19"/>
     </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I226" s="19"/>
     </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I227" s="19"/>
     </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I228" s="19"/>
     </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I229" s="19"/>
     </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I230" s="19"/>
     </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I231" s="19"/>
     </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I232" s="19"/>
     </row>
-    <row r="233" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I233" s="19"/>
     </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I234" s="19"/>
     </row>
-    <row r="235" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I235" s="19"/>
     </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I236" s="19"/>
     </row>
-    <row r="237" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I237" s="19"/>
     </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I238" s="19"/>
     </row>
-    <row r="239" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I239" s="19"/>
     </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I240" s="19"/>
     </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I241" s="19"/>
     </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I242" s="19"/>
     </row>
-    <row r="243" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I243" s="19"/>
     </row>
-    <row r="244" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I244" s="19"/>
     </row>
-    <row r="245" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I245" s="19"/>
     </row>
-    <row r="246" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I246" s="19"/>
     </row>
-    <row r="247" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I247" s="19"/>
     </row>
-    <row r="248" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I248" s="19"/>
     </row>
-    <row r="249" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I249" s="19"/>
     </row>
-    <row r="250" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I250" s="19"/>
     </row>
-    <row r="251" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I251" s="19"/>
     </row>
-    <row r="252" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I252" s="19"/>
     </row>
-    <row r="253" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I253" s="19"/>
     </row>
-    <row r="254" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I254" s="19"/>
     </row>
-    <row r="255" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I255" s="19"/>
     </row>
-    <row r="256" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I256" s="19"/>
     </row>
-    <row r="257" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I257" s="19"/>
     </row>
-    <row r="258" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I258" s="19"/>
     </row>
-    <row r="259" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I259" s="19"/>
     </row>
-    <row r="260" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I260" s="19"/>
     </row>
-    <row r="261" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I261" s="19"/>
     </row>
-    <row r="262" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I262" s="19"/>
     </row>
-    <row r="263" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I263" s="19"/>
     </row>
-    <row r="264" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I264" s="19"/>
     </row>
-    <row r="265" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I265" s="19"/>
     </row>
-    <row r="266" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I266" s="19"/>
     </row>
-    <row r="267" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I267" s="19"/>
     </row>
-    <row r="268" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I268" s="19"/>
     </row>
-    <row r="269" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I269" s="19"/>
     </row>
-    <row r="270" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I270" s="19"/>
     </row>
-    <row r="271" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I271" s="19"/>
     </row>
-    <row r="272" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I272" s="19"/>
     </row>
-    <row r="273" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I273" s="19"/>
     </row>
-    <row r="274" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I274" s="19"/>
     </row>
-    <row r="275" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I275" s="19"/>
     </row>
-    <row r="276" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I276" s="19"/>
     </row>
-    <row r="277" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I277" s="19"/>
     </row>
-    <row r="278" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I278" s="19"/>
     </row>
-    <row r="279" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I279" s="19"/>
     </row>
-    <row r="280" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I280" s="19"/>
     </row>
-    <row r="281" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I281" s="19"/>
     </row>
-    <row r="282" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I282" s="19"/>
     </row>
-    <row r="283" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I283" s="19"/>
     </row>
-    <row r="284" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I284" s="19"/>
     </row>
-    <row r="285" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I285" s="19"/>
     </row>
-    <row r="286" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I286" s="19"/>
     </row>
-    <row r="287" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I287" s="19"/>
     </row>
-    <row r="288" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I288" s="19"/>
     </row>
-    <row r="289" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I289" s="19"/>
     </row>
   </sheetData>
@@ -7729,17 +7729,17 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.81640625" customWidth="1"/>
-    <col min="13" max="13" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.83203125" customWidth="1"/>
+    <col min="13" max="13" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>20</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2:D24">TRANSPOSE(Y2:AU3)</f>
         <v>2001</v>
@@ -7871,7 +7871,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C3" t="str">
         <v>2002</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>44368658</v>
       </c>
     </row>
-    <row r="4" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C4" t="str">
         <v>2003</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C5" t="str">
         <v>2004</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="6" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C6" t="str">
         <v>2005</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="7" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C7" t="str">
         <v>2006</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C8" t="str">
         <v>2007</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C9" t="str">
         <v>2008</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C10" t="str">
         <v>2009</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C11" t="str">
         <v>2010</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C12" t="str">
         <v>2011</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C13" t="str">
         <v>2012</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>41853628</v>
       </c>
     </row>
-    <row r="14" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C14" t="str">
         <v>2013</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>42212988</v>
       </c>
     </row>
-    <row r="15" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C15" t="str">
         <v>2014</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>42458390</v>
       </c>
     </row>
-    <row r="16" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C16" t="str">
         <v>2015</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>42660629</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="str">
         <v>2016</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>43567225</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="str">
         <v>2017</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>43819028</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="str">
         <v>2018</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>43935038</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="str">
         <v>2019</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>44433744</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21" t="str">
         <v>2020</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>43501190</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C22" t="str">
         <v>2021</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>43386527</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C23" t="str">
         <v>2022</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>44198105</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C24" t="str">
         <v>2023</v>
       </c>
@@ -8294,14 +8294,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2009</v>
       </c>
@@ -8309,92 +8309,92 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -8412,22 +8412,22 @@
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>92</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C2" s="4">
         <v>36526</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C3" s="4">
         <v>36892</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C4" s="4">
         <v>37257</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C5" s="4">
         <v>37622</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C6" s="4">
         <v>37987</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C7" s="4">
         <v>38353</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C8" s="4">
         <v>38718</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C9" s="4">
         <v>39083</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>39448</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C11" s="4">
         <v>39814</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>-6.2</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C12" s="4">
         <v>40179</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>-6.3</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
         <v>40544</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C14" s="4">
         <v>40909</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C15" s="4">
         <v>41275</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C16" s="4">
         <v>41640</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="4">
         <v>42005</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="4">
         <v>42370</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="4">
         <v>42736</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="4">
         <v>43101</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="4">
         <v>43466</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="4">
         <v>43831</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="4">
         <v>44197</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>-5.2</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="4">
         <v>44562</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="4">
         <v>44927</v>
       </c>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicla\Desktop\UNI\R-Studio\Projekt Eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91AC25D-5E2D-4C48-8C42-7A183EFAB353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A81A9F-3049-4735-9198-E9732CCB6D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="197">
   <si>
     <t>Date</t>
   </si>
@@ -674,6 +674,9 @@
   </si>
   <si>
     <t>New eurozone gdp year ago</t>
+  </si>
+  <si>
+    <t>China gdp year ago</t>
   </si>
 </sst>
 </file>
@@ -1226,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL289"/>
+  <dimension ref="A1:AP289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O66" zoomScale="60" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AN98"/>
+    <sheetView tabSelected="1" topLeftCell="P62" zoomScale="60" workbookViewId="0">
+      <selection activeCell="AR82" sqref="AR82:AR83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1255,7 @@
     <col min="17" max="17" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1313,8 +1316,11 @@
       <c r="AL1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1374,8 +1380,11 @@
       <c r="AL2" s="19">
         <v>4.1474700000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP2">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1434,8 +1443,11 @@
       <c r="AL3" s="19">
         <v>4.52576</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP3">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1494,8 +1506,11 @@
       <c r="AL4" s="19">
         <v>3.8984800000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP4">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1554,8 +1569,11 @@
       <c r="AL5" s="19">
         <v>3.39933</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1614,8 +1632,11 @@
       <c r="AL6" s="19">
         <v>3.1422099999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP6">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1674,8 +1695,11 @@
       <c r="AL7" s="19">
         <v>2.3575400000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP7">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1734,8 +1758,11 @@
       <c r="AL8" s="19">
         <v>1.8908199999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="AL9" s="19">
         <v>1.2706999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1854,8 +1884,11 @@
       <c r="AL10" s="19">
         <v>0.44677</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP10">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1914,8 +1947,11 @@
       <c r="AL11" s="19">
         <v>0.85494999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP11">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1974,8 +2010,11 @@
       <c r="AL12" s="19">
         <v>1.1259999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP12">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -2034,8 +2073,11 @@
       <c r="AL13" s="19">
         <v>1.2677</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP13">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -2094,8 +2136,11 @@
       <c r="AL14" s="19">
         <v>0.79864999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP14">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -2154,8 +2199,11 @@
       <c r="AL15" s="19">
         <v>0.35824</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP15">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -2214,8 +2262,11 @@
       <c r="AL16" s="19">
         <v>0.53230999999999995</v>
       </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -2274,8 +2325,11 @@
       <c r="AL17" s="19">
         <v>1.0507</v>
       </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -2334,8 +2388,11 @@
       <c r="AL18" s="19">
         <v>1.88202</v>
       </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP18">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -2394,8 +2451,11 @@
       <c r="AL19" s="19">
         <v>2.4150800000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP19">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -2454,8 +2514,11 @@
       <c r="AL20" s="19">
         <v>2.06073</v>
       </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP20">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -2514,8 +2577,11 @@
       <c r="AL21" s="19">
         <v>1.7378</v>
       </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP21">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -2574,8 +2640,11 @@
       <c r="AL22" s="19">
         <v>1.44032</v>
       </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP22">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -2634,8 +2703,11 @@
       <c r="AL23" s="19">
         <v>1.44268</v>
       </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP23">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -2694,8 +2766,11 @@
       <c r="AL24" s="19">
         <v>1.9865600000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP24">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -2751,8 +2826,11 @@
       <c r="AL25" s="19">
         <v>2.2399800000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP25">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -2808,8 +2886,11 @@
       <c r="AL26" s="19">
         <v>2.89249</v>
       </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP26">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -2865,8 +2946,11 @@
       <c r="AL27" s="19">
         <v>3.4123299999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP27">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -2922,8 +3006,11 @@
       <c r="AL28" s="19">
         <v>3.24783</v>
       </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP28">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -2979,8 +3066,11 @@
       <c r="AL29" s="19">
         <v>3.7986</v>
       </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP29">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -3036,8 +3126,11 @@
       <c r="AL30" s="19">
         <v>3.53423</v>
       </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP30">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -3093,8 +3186,11 @@
       <c r="AL31" s="19">
         <v>3.1249099999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -3150,8 +3246,11 @@
       <c r="AL32" s="19">
         <v>2.9405600000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP32">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -3207,8 +3306,11 @@
       <c r="AL33" s="19">
         <v>2.3016100000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP33">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -3264,8 +3366,11 @@
       <c r="AL34" s="19">
         <v>2.2141199999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP34">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -3321,8 +3426,11 @@
       <c r="AL35" s="19">
         <v>1.1126</v>
       </c>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP35">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -3378,8 +3486,11 @@
       <c r="AL36" s="19">
         <v>0.16799</v>
       </c>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP36">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -3435,8 +3546,11 @@
       <c r="AL37" s="19">
         <v>-2.16161</v>
       </c>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP37">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -3492,8 +3606,11 @@
       <c r="AL38" s="19">
         <v>-5.6689999999999996</v>
       </c>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP38">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -3549,8 +3666,11 @@
       <c r="AL39" s="19">
         <v>-5.3666</v>
       </c>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP39">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -3606,8 +3726,11 @@
       <c r="AL40" s="19">
         <v>-4.5208000000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP40">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -3663,8 +3786,11 @@
       <c r="AL41" s="19">
         <v>-2.29705</v>
       </c>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP41">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -3720,8 +3846,11 @@
       <c r="AL42" s="19">
         <v>1.2193000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP42">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -3777,8 +3906,11 @@
       <c r="AL43" s="19">
         <v>2.2413599999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP43">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -3834,8 +3966,11 @@
       <c r="AL44" s="19">
         <v>2.2931499999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP44">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -3891,8 +4026,11 @@
       <c r="AL45" s="19">
         <v>2.4236800000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP45">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -3948,8 +4086,11 @@
       <c r="AL46" s="19">
         <v>2.9020999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP46">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -4005,8 +4146,11 @@
       <c r="AL47" s="19">
         <v>1.9206099999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -4062,8 +4206,11 @@
       <c r="AL48" s="19">
         <v>1.61083</v>
       </c>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP48">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -4119,8 +4266,11 @@
       <c r="AL49" s="19">
         <v>0.59114999999999995</v>
       </c>
-    </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP49">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -4176,8 +4326,11 @@
       <c r="AL50" s="19">
         <v>-0.50846000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP50">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -4233,8 +4386,11 @@
       <c r="AL51" s="19">
         <v>-0.74114999999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP51">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -4290,8 +4446,11 @@
       <c r="AL52" s="19">
         <v>-0.98841000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP52">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -4347,8 +4506,11 @@
       <c r="AL53" s="19">
         <v>-1.03331</v>
       </c>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP53">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -4404,8 +4566,11 @@
       <c r="AL54" s="19">
         <v>-1.1425399999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP54">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -4461,8 +4626,11 @@
       <c r="AL55" s="19">
         <v>-0.36671999999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP55">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -4518,8 +4686,11 @@
       <c r="AL56" s="19">
         <v>4.4069999999999998E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP56">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -4575,8 +4746,11 @@
       <c r="AL57" s="19">
         <v>0.80179</v>
       </c>
-    </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP57">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -4632,8 +4806,11 @@
       <c r="AL58" s="19">
         <v>1.5624499999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP58">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -4689,8 +4866,11 @@
       <c r="AL59" s="19">
         <v>1.21675</v>
       </c>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP59">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -4746,8 +4926,11 @@
       <c r="AL60" s="19">
         <v>1.38689</v>
       </c>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP60">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -4803,8 +4986,11 @@
       <c r="AL61" s="19">
         <v>1.44164</v>
       </c>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP61">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -4860,8 +5046,11 @@
       <c r="AL62" s="19">
         <v>1.6823399999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP62">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -4917,8 +5106,11 @@
       <c r="AL63" s="19">
         <v>1.9527600000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP63">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -4974,8 +5166,11 @@
       <c r="AL64" s="19">
         <v>1.86185</v>
       </c>
-    </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -5031,8 +5226,11 @@
       <c r="AL65" s="19">
         <v>1.9722</v>
       </c>
-    </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP65">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -5088,8 +5286,11 @@
       <c r="AL66" s="19">
         <v>1.9079200000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP66">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -5145,8 +5346,11 @@
       <c r="AL67" s="19">
         <v>1.64751</v>
       </c>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP67">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -5202,8 +5406,11 @@
       <c r="AL68" s="19">
         <v>1.74715</v>
       </c>
-    </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP68">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -5259,8 +5466,11 @@
       <c r="AL69" s="19">
         <v>2.0683099999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP69">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -5316,8 +5526,11 @@
       <c r="AL70" s="19">
         <v>2.19259</v>
       </c>
-    </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -5373,8 +5586,11 @@
       <c r="AL71" s="19">
         <v>2.77847</v>
       </c>
-    </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -5430,8 +5646,11 @@
       <c r="AL72" s="19">
         <v>3.0539200000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP72">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -5487,8 +5706,11 @@
       <c r="AL73" s="19">
         <v>3.0716999999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP73">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -5544,8 +5766,11 @@
       <c r="AL74" s="19">
         <v>2.3593099999999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP74">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -5601,8 +5826,11 @@
       <c r="AL75" s="19">
         <v>2.11775</v>
       </c>
-    </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP75">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -5658,8 +5886,11 @@
       <c r="AL76" s="19">
         <v>1.33535</v>
       </c>
-    </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP76">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -5715,8 +5946,11 @@
       <c r="AL77" s="19">
         <v>1.2253099999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP77">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -5772,8 +6006,11 @@
       <c r="AL78" s="19">
         <v>1.8286199999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP78">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -5829,8 +6066,11 @@
       <c r="AL79" s="19">
         <v>1.61896</v>
       </c>
-    </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -5886,8 +6126,11 @@
       <c r="AL80" s="19">
         <v>1.80932</v>
       </c>
-    </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP80">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -5943,8 +6186,11 @@
       <c r="AL81" s="19">
         <v>1.17205</v>
       </c>
-    </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP81">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -6000,8 +6246,11 @@
       <c r="AL82" s="19">
         <v>-2.8841100000000002</v>
       </c>
-    </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP82">
+        <v>-6.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -6057,8 +6306,11 @@
       <c r="AL83" s="19">
         <v>-14.138159999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP83">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -6114,8 +6366,11 @@
       <c r="AL84" s="19">
         <v>-3.9012099999999998</v>
       </c>
-    </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP84">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -6171,8 +6426,11 @@
       <c r="AL85" s="19">
         <v>-4.0156599999999996</v>
       </c>
-    </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP85">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -6228,8 +6486,11 @@
       <c r="AL86" s="19">
         <v>-0.20594000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP86">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -6285,8 +6546,11 @@
       <c r="AL87" s="19">
         <v>14.84553</v>
       </c>
-    </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP87">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -6342,8 +6606,11 @@
       <c r="AL88" s="19">
         <v>4.5759699999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP88">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -6399,8 +6666,11 @@
       <c r="AL89" s="19">
         <v>5.2162199999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP89">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -6456,8 +6726,11 @@
       <c r="AL90" s="19">
         <v>5.4382200000000003</v>
       </c>
-    </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP90">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -6513,8 +6786,11 @@
       <c r="AL91" s="19">
         <v>4.1063900000000002</v>
       </c>
-    </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP91">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -6570,8 +6846,11 @@
       <c r="AL92" s="19">
         <v>2.4637600000000002</v>
       </c>
-    </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP92">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -6627,8 +6906,11 @@
       <c r="AL93" s="19">
         <v>1.89344</v>
       </c>
-    </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP93">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -6680,8 +6962,11 @@
       <c r="AL94" s="19">
         <v>1.31589</v>
       </c>
-    </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP94">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -6733,8 +7018,11 @@
       <c r="AL95" s="19">
         <v>0.63360000000000005</v>
       </c>
-    </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP95">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -6783,8 +7071,11 @@
       <c r="AL96" s="19">
         <v>0.10224999999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP96">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -6822,8 +7113,11 @@
       <c r="AL97" s="19">
         <v>5.0990000000000001E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP97">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
       <c r="D98" s="1"/>
       <c r="J98" s="20"/>
       <c r="AG98" s="19">
@@ -6832,57 +7126,60 @@
       <c r="AL98" s="19">
         <v>0.34694000000000003</v>
       </c>
-    </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP98">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
       <c r="D99" s="1"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
       <c r="D100" s="1"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
       <c r="D101" s="1"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
       <c r="D102" s="1"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
       <c r="D103" s="1"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
       <c r="D104" s="1"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
       <c r="D105" s="1"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
       <c r="D106" s="1"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
       <c r="D107" s="1"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
       <c r="D108" s="1"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
       <c r="J112" s="20"/>
     </row>
     <row r="113" spans="10:10" x14ac:dyDescent="0.25">

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="878" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DBBE580-08A7-4930-8363-1FA40519283D}"/>
+  <xr:revisionPtr revIDLastSave="882" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A075F889-8DD6-484C-B79D-1719A5084480}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nøgletal" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>Generel government net lending/borrowing for EU</t>
+  </si>
+  <si>
+    <t>China gdp year ago</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +440,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -459,7 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -490,6 +498,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -933,35 +942,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN289"/>
+  <dimension ref="A1:AP289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="AR10" sqref="AR10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
-    <col min="5" max="5" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" customWidth="1"/>
+    <col min="5" max="5" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.36328125" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="84.83203125" customWidth="1"/>
+    <col min="11" max="11" width="84.81640625" customWidth="1"/>
     <col min="12" max="12" width="79" customWidth="1"/>
-    <col min="13" max="13" width="49.6640625" customWidth="1"/>
+    <col min="13" max="13" width="49.6328125" customWidth="1"/>
     <col min="14" max="14" width="79" customWidth="1"/>
-    <col min="15" max="15" width="140.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.6640625" customWidth="1"/>
+    <col min="15" max="15" width="140.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.6328125" customWidth="1"/>
+    <col min="33" max="33" width="24.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1028,8 +1038,11 @@
       </c>
       <c r="AM1" s="21"/>
       <c r="AN1" s="21"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP1" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1095,8 +1108,11 @@
       </c>
       <c r="AM2" s="21"/>
       <c r="AN2" s="21"/>
-    </row>
-    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP2" s="22">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1161,8 +1177,11 @@
       </c>
       <c r="AM3" s="21"/>
       <c r="AN3" s="21"/>
-    </row>
-    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP3" s="22">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1227,8 +1246,11 @@
       </c>
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
-    </row>
-    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP4" s="22">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1293,8 +1315,11 @@
       </c>
       <c r="AM5" s="21"/>
       <c r="AN5" s="21"/>
-    </row>
-    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP5" s="22">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1359,8 +1384,11 @@
       </c>
       <c r="AM6" s="21"/>
       <c r="AN6" s="21"/>
-    </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP6" s="22">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1425,8 +1453,11 @@
       </c>
       <c r="AM7" s="21"/>
       <c r="AN7" s="21"/>
-    </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP7" s="22">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1491,8 +1522,11 @@
       </c>
       <c r="AM8" s="21"/>
       <c r="AN8" s="21"/>
-    </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP8" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1557,8 +1591,11 @@
       </c>
       <c r="AM9" s="21"/>
       <c r="AN9" s="21"/>
-    </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP9" s="22">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1623,8 +1660,11 @@
       </c>
       <c r="AM10" s="21"/>
       <c r="AN10" s="21"/>
-    </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP10" s="22">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1681,7 +1721,6 @@
         <v>2.7</v>
       </c>
       <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
       <c r="AJ11" s="21"/>
       <c r="AK11" s="21"/>
       <c r="AL11" s="21">
@@ -1689,8 +1728,11 @@
       </c>
       <c r="AM11" s="21"/>
       <c r="AN11" s="21"/>
-    </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP11" s="22">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1755,8 +1797,11 @@
       </c>
       <c r="AM12" s="21"/>
       <c r="AN12" s="21"/>
-    </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP12" s="22">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1821,8 +1866,11 @@
       </c>
       <c r="AM13" s="21"/>
       <c r="AN13" s="21"/>
-    </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP13" s="22">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1887,8 +1935,11 @@
       </c>
       <c r="AM14" s="21"/>
       <c r="AN14" s="21"/>
-    </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP14" s="22">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -1953,8 +2004,11 @@
       </c>
       <c r="AM15" s="21"/>
       <c r="AN15" s="21"/>
-    </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP15" s="22">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -2019,8 +2073,11 @@
       </c>
       <c r="AM16" s="21"/>
       <c r="AN16" s="21"/>
-    </row>
-    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP16" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -2085,8 +2142,11 @@
       </c>
       <c r="AM17" s="21"/>
       <c r="AN17" s="21"/>
-    </row>
-    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP17" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -2151,8 +2211,11 @@
       </c>
       <c r="AM18" s="21"/>
       <c r="AN18" s="21"/>
-    </row>
-    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP18" s="22">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -2217,8 +2280,11 @@
       </c>
       <c r="AM19" s="21"/>
       <c r="AN19" s="21"/>
-    </row>
-    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP19" s="22">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -2283,8 +2349,11 @@
       </c>
       <c r="AM20" s="21"/>
       <c r="AN20" s="21"/>
-    </row>
-    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP20" s="22">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -2349,8 +2418,11 @@
       </c>
       <c r="AM21" s="21"/>
       <c r="AN21" s="21"/>
-    </row>
-    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP21" s="22">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -2415,8 +2487,11 @@
       </c>
       <c r="AM22" s="21"/>
       <c r="AN22" s="21"/>
-    </row>
-    <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP22" s="22">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -2481,8 +2556,11 @@
       </c>
       <c r="AM23" s="21"/>
       <c r="AN23" s="21"/>
-    </row>
-    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP23" s="22">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -2547,8 +2625,11 @@
       </c>
       <c r="AM24" s="21"/>
       <c r="AN24" s="21"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP24" s="22">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -2610,8 +2691,11 @@
       </c>
       <c r="AM25" s="21"/>
       <c r="AN25" s="21"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP25" s="22">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -2673,8 +2757,11 @@
       </c>
       <c r="AM26" s="21"/>
       <c r="AN26" s="21"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP26" s="22">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -2736,8 +2823,11 @@
       </c>
       <c r="AM27" s="21"/>
       <c r="AN27" s="21"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP27" s="22">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -2799,8 +2889,11 @@
       </c>
       <c r="AM28" s="21"/>
       <c r="AN28" s="21"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP28" s="22">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -2862,8 +2955,11 @@
       </c>
       <c r="AM29" s="21"/>
       <c r="AN29" s="21"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP29" s="22">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -2925,8 +3021,11 @@
       </c>
       <c r="AM30" s="21"/>
       <c r="AN30" s="21"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP30" s="22">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -2988,8 +3087,11 @@
       </c>
       <c r="AM31" s="21"/>
       <c r="AN31" s="21"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP31" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -3051,8 +3153,11 @@
       </c>
       <c r="AM32" s="21"/>
       <c r="AN32" s="21"/>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP32" s="22">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -3114,8 +3219,11 @@
       </c>
       <c r="AM33" s="21"/>
       <c r="AN33" s="21"/>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP33" s="22">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -3177,8 +3285,11 @@
       </c>
       <c r="AM34" s="21"/>
       <c r="AN34" s="21"/>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP34" s="22">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -3240,8 +3351,11 @@
       </c>
       <c r="AM35" s="21"/>
       <c r="AN35" s="21"/>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP35" s="22">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -3303,8 +3417,11 @@
       </c>
       <c r="AM36" s="21"/>
       <c r="AN36" s="21"/>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP36" s="22">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -3366,8 +3483,11 @@
       </c>
       <c r="AM37" s="21"/>
       <c r="AN37" s="21"/>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP37" s="22">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -3429,8 +3549,11 @@
       </c>
       <c r="AM38" s="21"/>
       <c r="AN38" s="21"/>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP38" s="22">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -3492,8 +3615,11 @@
       </c>
       <c r="AM39" s="21"/>
       <c r="AN39" s="21"/>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP39" s="22">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -3555,8 +3681,11 @@
       </c>
       <c r="AM40" s="21"/>
       <c r="AN40" s="21"/>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP40" s="22">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -3618,8 +3747,11 @@
       </c>
       <c r="AM41" s="21"/>
       <c r="AN41" s="21"/>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP41" s="22">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -3681,8 +3813,11 @@
       </c>
       <c r="AM42" s="21"/>
       <c r="AN42" s="21"/>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP42" s="22">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -3744,8 +3879,11 @@
       </c>
       <c r="AM43" s="21"/>
       <c r="AN43" s="21"/>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP43" s="22">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -3807,8 +3945,11 @@
       </c>
       <c r="AM44" s="21"/>
       <c r="AN44" s="21"/>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP44" s="22">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -3870,8 +4011,11 @@
       </c>
       <c r="AM45" s="21"/>
       <c r="AN45" s="21"/>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP45" s="22">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -3933,8 +4077,11 @@
       </c>
       <c r="AM46" s="21"/>
       <c r="AN46" s="21"/>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP46" s="22">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -3996,8 +4143,11 @@
       </c>
       <c r="AM47" s="21"/>
       <c r="AN47" s="21"/>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP47" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -4059,8 +4209,11 @@
       </c>
       <c r="AM48" s="21"/>
       <c r="AN48" s="21"/>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP48" s="22">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -4122,8 +4275,11 @@
       </c>
       <c r="AM49" s="21"/>
       <c r="AN49" s="21"/>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP49" s="22">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -4185,8 +4341,11 @@
       </c>
       <c r="AM50" s="21"/>
       <c r="AN50" s="21"/>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP50" s="22">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -4248,8 +4407,11 @@
       </c>
       <c r="AM51" s="21"/>
       <c r="AN51" s="21"/>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP51" s="22">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -4311,8 +4473,11 @@
       </c>
       <c r="AM52" s="21"/>
       <c r="AN52" s="21"/>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP52" s="22">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -4374,8 +4539,11 @@
       </c>
       <c r="AM53" s="21"/>
       <c r="AN53" s="21"/>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP53" s="22">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -4437,8 +4605,11 @@
       </c>
       <c r="AM54" s="21"/>
       <c r="AN54" s="21"/>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP54" s="22">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -4500,8 +4671,11 @@
       </c>
       <c r="AM55" s="21"/>
       <c r="AN55" s="21"/>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP55" s="22">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -4563,8 +4737,11 @@
       </c>
       <c r="AM56" s="21"/>
       <c r="AN56" s="21"/>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP56" s="22">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -4626,8 +4803,11 @@
       </c>
       <c r="AM57" s="21"/>
       <c r="AN57" s="21"/>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP57" s="22">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -4689,8 +4869,11 @@
       </c>
       <c r="AM58" s="21"/>
       <c r="AN58" s="21"/>
-    </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP58" s="22">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -4752,8 +4935,11 @@
       </c>
       <c r="AM59" s="21"/>
       <c r="AN59" s="21"/>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP59" s="22">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -4815,8 +5001,11 @@
       </c>
       <c r="AM60" s="21"/>
       <c r="AN60" s="21"/>
-    </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP60" s="22">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -4878,8 +5067,11 @@
       </c>
       <c r="AM61" s="21"/>
       <c r="AN61" s="21"/>
-    </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP61" s="22">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -4941,8 +5133,11 @@
       </c>
       <c r="AM62" s="21"/>
       <c r="AN62" s="21"/>
-    </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP62" s="22">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -5004,8 +5199,11 @@
       </c>
       <c r="AM63" s="21"/>
       <c r="AN63" s="21"/>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP63" s="22">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -5067,8 +5265,11 @@
       </c>
       <c r="AM64" s="21"/>
       <c r="AN64" s="21"/>
-    </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP64" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -5130,8 +5331,11 @@
       </c>
       <c r="AM65" s="21"/>
       <c r="AN65" s="21"/>
-    </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP65" s="22">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -5193,8 +5397,11 @@
       </c>
       <c r="AM66" s="21"/>
       <c r="AN66" s="21"/>
-    </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP66" s="22">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -5256,8 +5463,11 @@
       </c>
       <c r="AM67" s="21"/>
       <c r="AN67" s="21"/>
-    </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP67" s="22">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -5319,8 +5529,11 @@
       </c>
       <c r="AM68" s="21"/>
       <c r="AN68" s="21"/>
-    </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP68" s="22">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -5382,8 +5595,11 @@
       </c>
       <c r="AM69" s="21"/>
       <c r="AN69" s="21"/>
-    </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP69" s="22">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -5445,8 +5661,11 @@
       </c>
       <c r="AM70" s="21"/>
       <c r="AN70" s="21"/>
-    </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP70" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -5508,8 +5727,11 @@
       </c>
       <c r="AM71" s="21"/>
       <c r="AN71" s="21"/>
-    </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP71" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -5571,8 +5793,11 @@
       </c>
       <c r="AM72" s="21"/>
       <c r="AN72" s="21"/>
-    </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP72" s="22">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -5634,8 +5859,11 @@
       </c>
       <c r="AM73" s="21"/>
       <c r="AN73" s="21"/>
-    </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP73" s="22">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -5697,8 +5925,11 @@
       </c>
       <c r="AM74" s="21"/>
       <c r="AN74" s="21"/>
-    </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP74" s="22">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -5760,8 +5991,11 @@
       </c>
       <c r="AM75" s="21"/>
       <c r="AN75" s="21"/>
-    </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP75" s="22">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -5823,8 +6057,11 @@
       </c>
       <c r="AM76" s="21"/>
       <c r="AN76" s="21"/>
-    </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP76" s="22">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -5886,8 +6123,11 @@
       </c>
       <c r="AM77" s="21"/>
       <c r="AN77" s="21"/>
-    </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP77" s="22">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -5949,8 +6189,11 @@
       </c>
       <c r="AM78" s="21"/>
       <c r="AN78" s="21"/>
-    </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP78" s="22">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -6012,8 +6255,11 @@
       </c>
       <c r="AM79" s="21"/>
       <c r="AN79" s="21"/>
-    </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP79" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -6075,8 +6321,11 @@
       </c>
       <c r="AM80" s="21"/>
       <c r="AN80" s="21"/>
-    </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP80" s="22">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -6138,8 +6387,11 @@
       </c>
       <c r="AM81" s="21"/>
       <c r="AN81" s="21"/>
-    </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP81" s="22">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -6201,8 +6453,11 @@
       </c>
       <c r="AM82" s="21"/>
       <c r="AN82" s="21"/>
-    </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP82" s="22">
+        <v>-6.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -6264,8 +6519,11 @@
       </c>
       <c r="AM83" s="21"/>
       <c r="AN83" s="21"/>
-    </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP83" s="22">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -6327,8 +6585,11 @@
       </c>
       <c r="AM84" s="21"/>
       <c r="AN84" s="21"/>
-    </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP84" s="22">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -6390,8 +6651,11 @@
       </c>
       <c r="AM85" s="21"/>
       <c r="AN85" s="21"/>
-    </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP85" s="22">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -6453,8 +6717,11 @@
       </c>
       <c r="AM86" s="21"/>
       <c r="AN86" s="21"/>
-    </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP86" s="22">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -6516,8 +6783,11 @@
       </c>
       <c r="AM87" s="21"/>
       <c r="AN87" s="21"/>
-    </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP87" s="22">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -6579,8 +6849,11 @@
       </c>
       <c r="AM88" s="21"/>
       <c r="AN88" s="21"/>
-    </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP88" s="22">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -6642,8 +6915,11 @@
       </c>
       <c r="AM89" s="21"/>
       <c r="AN89" s="21"/>
-    </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP89" s="22">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -6705,8 +6981,11 @@
       </c>
       <c r="AM90" s="21"/>
       <c r="AN90" s="21"/>
-    </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP90" s="22">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -6768,8 +7047,11 @@
       </c>
       <c r="AM91" s="21"/>
       <c r="AN91" s="21"/>
-    </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP91" s="22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -6831,8 +7113,11 @@
       </c>
       <c r="AM92" s="21"/>
       <c r="AN92" s="21"/>
-    </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP92" s="22">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -6894,8 +7179,11 @@
       </c>
       <c r="AM93" s="21"/>
       <c r="AN93" s="21"/>
-    </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP93" s="22">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -6953,8 +7241,11 @@
       </c>
       <c r="AM94" s="21"/>
       <c r="AN94" s="21"/>
-    </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP94" s="22">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -7012,8 +7303,11 @@
       </c>
       <c r="AM95" s="21"/>
       <c r="AN95" s="21"/>
-    </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP95" s="22">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -7068,8 +7362,11 @@
       </c>
       <c r="AM96" s="21"/>
       <c r="AN96" s="21"/>
-    </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP96" s="22">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -7113,8 +7410,11 @@
       </c>
       <c r="AM97" s="21"/>
       <c r="AN97" s="21"/>
-    </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP97" s="22">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D98" s="1"/>
       <c r="I98" s="19"/>
       <c r="AG98" s="21">
@@ -7129,593 +7429,788 @@
       </c>
       <c r="AM98" s="21"/>
       <c r="AN98" s="21"/>
-    </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP98" s="22">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D99" s="1"/>
       <c r="I99" s="19"/>
-    </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP99" s="22"/>
+    </row>
+    <row r="100" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D100" s="1"/>
       <c r="I100" s="19"/>
-    </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP100" s="22"/>
+    </row>
+    <row r="101" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D101" s="1"/>
       <c r="I101" s="19"/>
-    </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP101" s="22"/>
+    </row>
+    <row r="102" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D102" s="1"/>
       <c r="I102" s="19"/>
-    </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP102" s="22"/>
+    </row>
+    <row r="103" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D103" s="1"/>
       <c r="I103" s="19"/>
-    </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP103" s="22"/>
+    </row>
+    <row r="104" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D104" s="1"/>
       <c r="I104" s="19"/>
-    </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP104" s="22"/>
+    </row>
+    <row r="105" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D105" s="1"/>
       <c r="I105" s="19"/>
-    </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP105" s="22"/>
+    </row>
+    <row r="106" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D106" s="1"/>
       <c r="I106" s="19"/>
-    </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP106" s="22"/>
+    </row>
+    <row r="107" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D107" s="1"/>
       <c r="I107" s="19"/>
-    </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP107" s="22"/>
+    </row>
+    <row r="108" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D108" s="1"/>
       <c r="I108" s="19"/>
-    </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP108" s="22"/>
+    </row>
+    <row r="109" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I109" s="19"/>
-    </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP109" s="22"/>
+    </row>
+    <row r="110" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I110" s="19"/>
-    </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP110" s="22"/>
+    </row>
+    <row r="111" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I111" s="19"/>
-    </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP111" s="22"/>
+    </row>
+    <row r="112" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I112" s="19"/>
-    </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP112" s="22"/>
+    </row>
+    <row r="113" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I113" s="19"/>
-    </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP113" s="22"/>
+    </row>
+    <row r="114" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I114" s="19"/>
-    </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP114" s="22"/>
+    </row>
+    <row r="115" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I115" s="19"/>
-    </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP115" s="22"/>
+    </row>
+    <row r="116" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I116" s="19"/>
-    </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP116" s="22"/>
+    </row>
+    <row r="117" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I117" s="19"/>
-    </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP117" s="22"/>
+    </row>
+    <row r="118" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I118" s="19"/>
-    </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP118" s="22"/>
+    </row>
+    <row r="119" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I119" s="19"/>
-    </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP119" s="22"/>
+    </row>
+    <row r="120" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I120" s="19"/>
-    </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP120" s="22"/>
+    </row>
+    <row r="121" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I121" s="19"/>
-    </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP121" s="22"/>
+    </row>
+    <row r="122" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I122" s="19"/>
-    </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP122" s="22"/>
+    </row>
+    <row r="123" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I123" s="19"/>
-    </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP123" s="22"/>
+    </row>
+    <row r="124" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I124" s="19"/>
-    </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP124" s="22"/>
+    </row>
+    <row r="125" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I125" s="19"/>
-    </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP125" s="22"/>
+    </row>
+    <row r="126" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I126" s="19"/>
-    </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP126" s="22"/>
+    </row>
+    <row r="127" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I127" s="19"/>
-    </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP127" s="22"/>
+    </row>
+    <row r="128" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I128" s="19"/>
-    </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP128" s="22"/>
+    </row>
+    <row r="129" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I129" s="19"/>
-    </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP129" s="22"/>
+    </row>
+    <row r="130" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I130" s="19"/>
-    </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP130" s="22"/>
+    </row>
+    <row r="131" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I131" s="19"/>
-    </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP131" s="22"/>
+    </row>
+    <row r="132" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I132" s="19"/>
-    </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP132" s="22"/>
+    </row>
+    <row r="133" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I133" s="19"/>
-    </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP133" s="22"/>
+    </row>
+    <row r="134" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I134" s="19"/>
-    </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP134" s="22"/>
+    </row>
+    <row r="135" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I135" s="19"/>
-    </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP135" s="22"/>
+    </row>
+    <row r="136" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I136" s="19"/>
-    </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP136" s="22"/>
+    </row>
+    <row r="137" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I137" s="19"/>
-    </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP137" s="22"/>
+    </row>
+    <row r="138" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I138" s="19"/>
-    </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP138" s="22"/>
+    </row>
+    <row r="139" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I139" s="19"/>
-    </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP139" s="22"/>
+    </row>
+    <row r="140" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I140" s="19"/>
-    </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP140" s="22"/>
+    </row>
+    <row r="141" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I141" s="19"/>
-    </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP141" s="22"/>
+    </row>
+    <row r="142" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I142" s="19"/>
-    </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP142" s="22"/>
+    </row>
+    <row r="143" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I143" s="19"/>
-    </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP143" s="22"/>
+    </row>
+    <row r="144" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I144" s="19"/>
-    </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP144" s="22"/>
+    </row>
+    <row r="145" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I145" s="19"/>
-    </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP145" s="22"/>
+    </row>
+    <row r="146" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I146" s="19"/>
-    </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP146" s="22"/>
+    </row>
+    <row r="147" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I147" s="19"/>
-    </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP147" s="22"/>
+    </row>
+    <row r="148" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I148" s="19"/>
-    </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP148" s="22"/>
+    </row>
+    <row r="149" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I149" s="19"/>
-    </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP149" s="22"/>
+    </row>
+    <row r="150" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I150" s="19"/>
-    </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP150" s="22"/>
+    </row>
+    <row r="151" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I151" s="19"/>
-    </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP151" s="22"/>
+    </row>
+    <row r="152" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I152" s="19"/>
-    </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP152" s="22"/>
+    </row>
+    <row r="153" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I153" s="19"/>
-    </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP153" s="22"/>
+    </row>
+    <row r="154" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I154" s="19"/>
-    </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP154" s="22"/>
+    </row>
+    <row r="155" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I155" s="19"/>
-    </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP155" s="22"/>
+    </row>
+    <row r="156" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I156" s="19"/>
-    </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP156" s="22"/>
+    </row>
+    <row r="157" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I157" s="19"/>
-    </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP157" s="22"/>
+    </row>
+    <row r="158" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I158" s="19"/>
-    </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP158" s="22"/>
+    </row>
+    <row r="159" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I159" s="19"/>
-    </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP159" s="22"/>
+    </row>
+    <row r="160" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I160" s="19"/>
-    </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP160" s="22"/>
+    </row>
+    <row r="161" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I161" s="19"/>
-    </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP161" s="22"/>
+    </row>
+    <row r="162" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I162" s="19"/>
-    </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP162" s="22"/>
+    </row>
+    <row r="163" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I163" s="19"/>
-    </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP163" s="22"/>
+    </row>
+    <row r="164" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I164" s="19"/>
-    </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP164" s="22"/>
+    </row>
+    <row r="165" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I165" s="19"/>
-    </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP165" s="22"/>
+    </row>
+    <row r="166" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I166" s="19"/>
-    </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP166" s="22"/>
+    </row>
+    <row r="167" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I167" s="19"/>
-    </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP167" s="22"/>
+    </row>
+    <row r="168" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I168" s="19"/>
-    </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP168" s="22"/>
+    </row>
+    <row r="169" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I169" s="19"/>
-    </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP169" s="22"/>
+    </row>
+    <row r="170" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I170" s="19"/>
-    </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP170" s="22"/>
+    </row>
+    <row r="171" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I171" s="19"/>
-    </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP171" s="22"/>
+    </row>
+    <row r="172" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I172" s="19"/>
-    </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP172" s="22"/>
+    </row>
+    <row r="173" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I173" s="19"/>
-    </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP173" s="22"/>
+    </row>
+    <row r="174" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I174" s="19"/>
-    </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP174" s="22"/>
+    </row>
+    <row r="175" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I175" s="19"/>
-    </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP175" s="22"/>
+    </row>
+    <row r="176" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I176" s="19"/>
-    </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP176" s="22"/>
+    </row>
+    <row r="177" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I177" s="19"/>
-    </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP177" s="22"/>
+    </row>
+    <row r="178" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I178" s="19"/>
-    </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP178" s="22"/>
+    </row>
+    <row r="179" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I179" s="19"/>
-    </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP179" s="22"/>
+    </row>
+    <row r="180" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I180" s="19"/>
-    </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP180" s="22"/>
+    </row>
+    <row r="181" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I181" s="19"/>
-    </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP181" s="22"/>
+    </row>
+    <row r="182" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I182" s="19"/>
-    </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP182" s="22"/>
+    </row>
+    <row r="183" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I183" s="19"/>
-    </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP183" s="22"/>
+    </row>
+    <row r="184" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I184" s="19"/>
-    </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP184" s="22"/>
+    </row>
+    <row r="185" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I185" s="19"/>
-    </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP185" s="22"/>
+    </row>
+    <row r="186" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I186" s="19"/>
-    </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP186" s="22"/>
+    </row>
+    <row r="187" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I187" s="19"/>
-    </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP187" s="22"/>
+    </row>
+    <row r="188" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I188" s="19"/>
-    </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP188" s="22"/>
+    </row>
+    <row r="189" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I189" s="19"/>
-    </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP189" s="22"/>
+    </row>
+    <row r="190" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I190" s="19"/>
-    </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP190" s="22"/>
+    </row>
+    <row r="191" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I191" s="19"/>
-    </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP191" s="22"/>
+    </row>
+    <row r="192" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I192" s="19"/>
-    </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP192" s="22"/>
+    </row>
+    <row r="193" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I193" s="19"/>
-    </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP193" s="22"/>
+    </row>
+    <row r="194" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I194" s="19"/>
-    </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP194" s="22"/>
+    </row>
+    <row r="195" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I195" s="19"/>
-    </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP195" s="22"/>
+    </row>
+    <row r="196" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I196" s="19"/>
-    </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP196" s="22"/>
+    </row>
+    <row r="197" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I197" s="19"/>
-    </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP197" s="22"/>
+    </row>
+    <row r="198" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I198" s="19"/>
-    </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP198" s="22"/>
+    </row>
+    <row r="199" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I199" s="19"/>
-    </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP199" s="22"/>
+    </row>
+    <row r="200" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I200" s="19"/>
-    </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP200" s="22"/>
+    </row>
+    <row r="201" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I201" s="19"/>
-    </row>
-    <row r="202" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP201" s="22"/>
+    </row>
+    <row r="202" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I202" s="19"/>
-    </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP202" s="22"/>
+    </row>
+    <row r="203" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I203" s="19"/>
-    </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP203" s="22"/>
+    </row>
+    <row r="204" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I204" s="19"/>
-    </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP204" s="22"/>
+    </row>
+    <row r="205" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I205" s="19"/>
-    </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP205" s="22"/>
+    </row>
+    <row r="206" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I206" s="19"/>
-    </row>
-    <row r="207" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP206" s="22"/>
+    </row>
+    <row r="207" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I207" s="19"/>
-    </row>
-    <row r="208" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP207" s="22"/>
+    </row>
+    <row r="208" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I208" s="19"/>
-    </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP208" s="22"/>
+    </row>
+    <row r="209" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I209" s="19"/>
-    </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP209" s="22"/>
+    </row>
+    <row r="210" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I210" s="19"/>
-    </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP210" s="22"/>
+    </row>
+    <row r="211" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I211" s="19"/>
-    </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP211" s="22"/>
+    </row>
+    <row r="212" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I212" s="19"/>
-    </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP212" s="22"/>
+    </row>
+    <row r="213" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I213" s="19"/>
-    </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP213" s="22"/>
+    </row>
+    <row r="214" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I214" s="19"/>
-    </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP214" s="22"/>
+    </row>
+    <row r="215" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I215" s="19"/>
-    </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP215" s="22"/>
+    </row>
+    <row r="216" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I216" s="19"/>
-    </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP216" s="22"/>
+    </row>
+    <row r="217" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I217" s="19"/>
-    </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP217" s="22"/>
+    </row>
+    <row r="218" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I218" s="19"/>
-    </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP218" s="22"/>
+    </row>
+    <row r="219" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I219" s="19"/>
-    </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP219" s="22"/>
+    </row>
+    <row r="220" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I220" s="19"/>
-    </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP220" s="22"/>
+    </row>
+    <row r="221" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I221" s="19"/>
-    </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP221" s="22"/>
+    </row>
+    <row r="222" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I222" s="19"/>
-    </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP222" s="22"/>
+    </row>
+    <row r="223" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I223" s="19"/>
-    </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP223" s="22"/>
+    </row>
+    <row r="224" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I224" s="19"/>
-    </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP224" s="22"/>
+    </row>
+    <row r="225" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I225" s="19"/>
-    </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP225" s="22"/>
+    </row>
+    <row r="226" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I226" s="19"/>
-    </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP226" s="22"/>
+    </row>
+    <row r="227" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I227" s="19"/>
-    </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP227" s="22"/>
+    </row>
+    <row r="228" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I228" s="19"/>
-    </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP228" s="22"/>
+    </row>
+    <row r="229" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I229" s="19"/>
-    </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP229" s="22"/>
+    </row>
+    <row r="230" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I230" s="19"/>
-    </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP230" s="22"/>
+    </row>
+    <row r="231" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I231" s="19"/>
-    </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP231" s="22"/>
+    </row>
+    <row r="232" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I232" s="19"/>
-    </row>
-    <row r="233" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP232" s="22"/>
+    </row>
+    <row r="233" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I233" s="19"/>
-    </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP233" s="22"/>
+    </row>
+    <row r="234" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I234" s="19"/>
-    </row>
-    <row r="235" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP234" s="22"/>
+    </row>
+    <row r="235" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I235" s="19"/>
-    </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP235" s="22"/>
+    </row>
+    <row r="236" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I236" s="19"/>
-    </row>
-    <row r="237" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP236" s="22"/>
+    </row>
+    <row r="237" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I237" s="19"/>
-    </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP237" s="22"/>
+    </row>
+    <row r="238" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I238" s="19"/>
-    </row>
-    <row r="239" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP238" s="22"/>
+    </row>
+    <row r="239" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I239" s="19"/>
-    </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP239" s="22"/>
+    </row>
+    <row r="240" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I240" s="19"/>
-    </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP240" s="22"/>
+    </row>
+    <row r="241" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I241" s="19"/>
-    </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP241" s="22"/>
+    </row>
+    <row r="242" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I242" s="19"/>
-    </row>
-    <row r="243" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP242" s="22"/>
+    </row>
+    <row r="243" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I243" s="19"/>
-    </row>
-    <row r="244" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP243" s="22"/>
+    </row>
+    <row r="244" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I244" s="19"/>
-    </row>
-    <row r="245" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP244" s="22"/>
+    </row>
+    <row r="245" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I245" s="19"/>
-    </row>
-    <row r="246" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP245" s="22"/>
+    </row>
+    <row r="246" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I246" s="19"/>
-    </row>
-    <row r="247" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP246" s="22"/>
+    </row>
+    <row r="247" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I247" s="19"/>
-    </row>
-    <row r="248" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP247" s="22"/>
+    </row>
+    <row r="248" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I248" s="19"/>
-    </row>
-    <row r="249" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP248" s="22"/>
+    </row>
+    <row r="249" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I249" s="19"/>
-    </row>
-    <row r="250" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP249" s="22"/>
+    </row>
+    <row r="250" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I250" s="19"/>
-    </row>
-    <row r="251" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP250" s="22"/>
+    </row>
+    <row r="251" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I251" s="19"/>
-    </row>
-    <row r="252" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP251" s="22"/>
+    </row>
+    <row r="252" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I252" s="19"/>
-    </row>
-    <row r="253" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP252" s="22"/>
+    </row>
+    <row r="253" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I253" s="19"/>
-    </row>
-    <row r="254" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP253" s="22"/>
+    </row>
+    <row r="254" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I254" s="19"/>
-    </row>
-    <row r="255" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP254" s="22"/>
+    </row>
+    <row r="255" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I255" s="19"/>
-    </row>
-    <row r="256" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP255" s="22"/>
+    </row>
+    <row r="256" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I256" s="19"/>
-    </row>
-    <row r="257" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP256" s="22"/>
+    </row>
+    <row r="257" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I257" s="19"/>
-    </row>
-    <row r="258" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP257" s="22"/>
+    </row>
+    <row r="258" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I258" s="19"/>
-    </row>
-    <row r="259" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP258" s="22"/>
+    </row>
+    <row r="259" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I259" s="19"/>
-    </row>
-    <row r="260" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP259" s="22"/>
+    </row>
+    <row r="260" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I260" s="19"/>
-    </row>
-    <row r="261" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP260" s="22"/>
+    </row>
+    <row r="261" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I261" s="19"/>
-    </row>
-    <row r="262" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP261" s="22"/>
+    </row>
+    <row r="262" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I262" s="19"/>
-    </row>
-    <row r="263" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP262" s="22"/>
+    </row>
+    <row r="263" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I263" s="19"/>
-    </row>
-    <row r="264" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP263" s="22"/>
+    </row>
+    <row r="264" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I264" s="19"/>
-    </row>
-    <row r="265" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP264" s="22"/>
+    </row>
+    <row r="265" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I265" s="19"/>
-    </row>
-    <row r="266" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP265" s="22"/>
+    </row>
+    <row r="266" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I266" s="19"/>
-    </row>
-    <row r="267" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP266" s="22"/>
+    </row>
+    <row r="267" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I267" s="19"/>
-    </row>
-    <row r="268" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP267" s="22"/>
+    </row>
+    <row r="268" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I268" s="19"/>
-    </row>
-    <row r="269" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP268" s="22"/>
+    </row>
+    <row r="269" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I269" s="19"/>
-    </row>
-    <row r="270" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP269" s="22"/>
+    </row>
+    <row r="270" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I270" s="19"/>
-    </row>
-    <row r="271" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP270" s="22"/>
+    </row>
+    <row r="271" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I271" s="19"/>
-    </row>
-    <row r="272" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP271" s="22"/>
+    </row>
+    <row r="272" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I272" s="19"/>
-    </row>
-    <row r="273" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP272" s="22"/>
+    </row>
+    <row r="273" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I273" s="19"/>
-    </row>
-    <row r="274" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP273" s="22"/>
+    </row>
+    <row r="274" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I274" s="19"/>
-    </row>
-    <row r="275" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP274" s="22"/>
+    </row>
+    <row r="275" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I275" s="19"/>
-    </row>
-    <row r="276" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP275" s="22"/>
+    </row>
+    <row r="276" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I276" s="19"/>
-    </row>
-    <row r="277" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP276" s="22"/>
+    </row>
+    <row r="277" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I277" s="19"/>
-    </row>
-    <row r="278" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP277" s="22"/>
+    </row>
+    <row r="278" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I278" s="19"/>
-    </row>
-    <row r="279" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP278" s="22"/>
+    </row>
+    <row r="279" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I279" s="19"/>
-    </row>
-    <row r="280" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP279" s="22"/>
+    </row>
+    <row r="280" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I280" s="19"/>
-    </row>
-    <row r="281" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP280" s="22"/>
+    </row>
+    <row r="281" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I281" s="19"/>
-    </row>
-    <row r="282" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP281" s="22"/>
+    </row>
+    <row r="282" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I282" s="19"/>
-    </row>
-    <row r="283" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP282" s="22"/>
+    </row>
+    <row r="283" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I283" s="19"/>
-    </row>
-    <row r="284" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP283" s="22"/>
+    </row>
+    <row r="284" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I284" s="19"/>
-    </row>
-    <row r="285" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP284" s="22"/>
+    </row>
+    <row r="285" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I285" s="19"/>
-    </row>
-    <row r="286" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP285" s="22"/>
+    </row>
+    <row r="286" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I286" s="19"/>
-    </row>
-    <row r="287" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP286" s="22"/>
+    </row>
+    <row r="287" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I287" s="19"/>
-    </row>
-    <row r="288" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP287" s="22"/>
+    </row>
+    <row r="288" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I288" s="19"/>
-    </row>
-    <row r="289" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="AP288" s="22"/>
+    </row>
+    <row r="289" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I289" s="19"/>
+      <c r="AP289" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O1" r:id="rId1" location="0" xr:uid="{1A5DC839-B836-414D-90FB-DC92D012B683}"/>
+    <hyperlink ref="AP1" r:id="rId2" xr:uid="{EC6C6DB8-9A83-4DA7-BADC-3E9C7F04C7A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7729,17 +8224,17 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.83203125" customWidth="1"/>
-    <col min="13" max="13" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.81640625" customWidth="1"/>
+    <col min="13" max="13" width="45.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>20</v>
       </c>
@@ -7765,7 +8260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2:D24">TRANSPOSE(Y2:AU3)</f>
         <v>2001</v>
@@ -7871,7 +8366,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C3" t="str">
         <v>2002</v>
       </c>
@@ -7976,7 +8471,7 @@
         <v>44368658</v>
       </c>
     </row>
-    <row r="4" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C4" t="str">
         <v>2003</v>
       </c>
@@ -8006,7 +8501,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C5" t="str">
         <v>2004</v>
       </c>
@@ -8033,7 +8528,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="6" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C6" t="str">
         <v>2005</v>
       </c>
@@ -8060,7 +8555,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="7" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C7" t="str">
         <v>2006</v>
       </c>
@@ -8089,7 +8584,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C8" t="str">
         <v>2007</v>
       </c>
@@ -8110,7 +8605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C9" t="str">
         <v>2008</v>
       </c>
@@ -8134,7 +8629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C10" t="str">
         <v>2009</v>
       </c>
@@ -8148,7 +8643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C11" t="str">
         <v>2010</v>
       </c>
@@ -8162,7 +8657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C12" t="str">
         <v>2011</v>
       </c>
@@ -8179,7 +8674,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C13" t="str">
         <v>2012</v>
       </c>
@@ -8187,7 +8682,7 @@
         <v>41853628</v>
       </c>
     </row>
-    <row r="14" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C14" t="str">
         <v>2013</v>
       </c>
@@ -8195,7 +8690,7 @@
         <v>42212988</v>
       </c>
     </row>
-    <row r="15" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
         <v>2014</v>
       </c>
@@ -8203,7 +8698,7 @@
         <v>42458390</v>
       </c>
     </row>
-    <row r="16" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C16" t="str">
         <v>2015</v>
       </c>
@@ -8211,7 +8706,7 @@
         <v>42660629</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C17" t="str">
         <v>2016</v>
       </c>
@@ -8219,7 +8714,7 @@
         <v>43567225</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C18" t="str">
         <v>2017</v>
       </c>
@@ -8227,7 +8722,7 @@
         <v>43819028</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C19" t="str">
         <v>2018</v>
       </c>
@@ -8235,7 +8730,7 @@
         <v>43935038</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C20" t="str">
         <v>2019</v>
       </c>
@@ -8243,7 +8738,7 @@
         <v>44433744</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" t="str">
         <v>2020</v>
       </c>
@@ -8251,7 +8746,7 @@
         <v>43501190</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C22" t="str">
         <v>2021</v>
       </c>
@@ -8259,7 +8754,7 @@
         <v>43386527</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C23" t="str">
         <v>2022</v>
       </c>
@@ -8267,7 +8762,7 @@
         <v>44198105</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C24" t="str">
         <v>2023</v>
       </c>
@@ -8294,14 +8789,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2009</v>
       </c>
@@ -8309,92 +8804,92 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -8412,22 +8907,22 @@
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>92</v>
       </c>
@@ -8483,7 +8978,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C2" s="4">
         <v>36526</v>
       </c>
@@ -8523,7 +9018,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C3" s="4">
         <v>36892</v>
       </c>
@@ -8563,7 +9058,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C4" s="4">
         <v>37257</v>
       </c>
@@ -8603,7 +9098,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C5" s="4">
         <v>37622</v>
       </c>
@@ -8643,7 +9138,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C6" s="4">
         <v>37987</v>
       </c>
@@ -8683,7 +9178,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C7" s="4">
         <v>38353</v>
       </c>
@@ -8711,7 +9206,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C8" s="4">
         <v>38718</v>
       </c>
@@ -8739,7 +9234,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C9" s="4">
         <v>39083</v>
       </c>
@@ -8767,7 +9262,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C10" s="4">
         <v>39448</v>
       </c>
@@ -8795,7 +9290,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C11" s="4">
         <v>39814</v>
       </c>
@@ -8823,7 +9318,7 @@
         <v>-6.2</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C12" s="4">
         <v>40179</v>
       </c>
@@ -8851,7 +9346,7 @@
         <v>-6.3</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C13" s="4">
         <v>40544</v>
       </c>
@@ -8879,7 +9374,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C14" s="4">
         <v>40909</v>
       </c>
@@ -8907,7 +9402,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="4">
         <v>41275</v>
       </c>
@@ -8935,7 +9430,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C16" s="4">
         <v>41640</v>
       </c>
@@ -8963,7 +9458,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C17" s="4">
         <v>42005</v>
       </c>
@@ -8991,7 +9486,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C18" s="4">
         <v>42370</v>
       </c>
@@ -9019,7 +9514,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C19" s="4">
         <v>42736</v>
       </c>
@@ -9047,7 +9542,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C20" s="4">
         <v>43101</v>
       </c>
@@ -9075,7 +9570,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C21" s="4">
         <v>43466</v>
       </c>
@@ -9103,7 +9598,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C22" s="4">
         <v>43831</v>
       </c>
@@ -9131,7 +9626,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C23" s="4">
         <v>44197</v>
       </c>
@@ -9159,7 +9654,7 @@
         <v>-5.2</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C24" s="4">
         <v>44562</v>
       </c>
@@ -9187,7 +9682,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C25" s="4">
         <v>44927</v>
       </c>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="882" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A075F889-8DD6-484C-B79D-1719A5084480}"/>
+  <xr:revisionPtr revIDLastSave="886" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C6AC342-0778-4602-B4CD-0BA02E651CC4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nøgletal" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,9 @@
   <commentList>
     <comment ref="I2" authorId="0" shapeId="0" xr:uid="{4B42F164-681C-4A58-84D1-0574D84188C8}">
       <text>
-        <t xml:space="preserve">[Trådet kommentar]
-Din version af Excel lader dig læse denne trådede kommentar. Eventuelle ændringer vil dog blive fjernet, hvis filen åbnes i en nyere version af Excel. Få mere at vide: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
 How is your company developing in relation to the lack of new recruits and skilled workers? 
 </t>
       </text>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -386,9 +386,6 @@
   </si>
   <si>
     <t>Generel government net lending/borrowing for EU</t>
-  </si>
-  <si>
-    <t>China gdp year ago</t>
   </si>
 </sst>
 </file>
@@ -400,7 +397,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,11 +437,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -467,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -498,7 +490,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -942,36 +933,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP289"/>
+  <dimension ref="A1:AN289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="AR10" sqref="AR10"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" customWidth="1"/>
-    <col min="5" max="5" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.36328125" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="84.81640625" customWidth="1"/>
+    <col min="11" max="11" width="84.85546875" customWidth="1"/>
     <col min="12" max="12" width="79" customWidth="1"/>
-    <col min="13" max="13" width="49.6328125" customWidth="1"/>
+    <col min="13" max="13" width="49.7109375" customWidth="1"/>
     <col min="14" max="14" width="79" customWidth="1"/>
-    <col min="15" max="15" width="140.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.6328125" customWidth="1"/>
-    <col min="33" max="33" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="140.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.7109375" customWidth="1"/>
+    <col min="33" max="33" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1038,11 +1029,8 @@
       </c>
       <c r="AM1" s="21"/>
       <c r="AN1" s="21"/>
-      <c r="AP1" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1108,11 +1096,8 @@
       </c>
       <c r="AM2" s="21"/>
       <c r="AN2" s="21"/>
-      <c r="AP2" s="22">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:40" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1177,11 +1162,8 @@
       </c>
       <c r="AM3" s="21"/>
       <c r="AN3" s="21"/>
-      <c r="AP3" s="22">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:40" ht="15" customHeight="1">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1246,11 +1228,8 @@
       </c>
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
-      <c r="AP4" s="22">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:40" ht="15" customHeight="1">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1315,11 +1294,8 @@
       </c>
       <c r="AM5" s="21"/>
       <c r="AN5" s="21"/>
-      <c r="AP5" s="22">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:40" ht="15" customHeight="1">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1384,11 +1360,8 @@
       </c>
       <c r="AM6" s="21"/>
       <c r="AN6" s="21"/>
-      <c r="AP6" s="22">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:40" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1453,11 +1426,8 @@
       </c>
       <c r="AM7" s="21"/>
       <c r="AN7" s="21"/>
-      <c r="AP7" s="22">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:40" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1522,11 +1492,8 @@
       </c>
       <c r="AM8" s="21"/>
       <c r="AN8" s="21"/>
-      <c r="AP8" s="22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1591,11 +1558,8 @@
       </c>
       <c r="AM9" s="21"/>
       <c r="AN9" s="21"/>
-      <c r="AP9" s="22">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1660,11 +1624,8 @@
       </c>
       <c r="AM10" s="21"/>
       <c r="AN10" s="21"/>
-      <c r="AP10" s="22">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1728,11 +1689,8 @@
       </c>
       <c r="AM11" s="21"/>
       <c r="AN11" s="21"/>
-      <c r="AP11" s="22">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1797,11 +1755,8 @@
       </c>
       <c r="AM12" s="21"/>
       <c r="AN12" s="21"/>
-      <c r="AP12" s="22">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1866,11 +1821,8 @@
       </c>
       <c r="AM13" s="21"/>
       <c r="AN13" s="21"/>
-      <c r="AP13" s="22">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:40" ht="15" customHeight="1">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1935,11 +1887,8 @@
       </c>
       <c r="AM14" s="21"/>
       <c r="AN14" s="21"/>
-      <c r="AP14" s="22">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:40" ht="15" customHeight="1">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -2004,11 +1953,8 @@
       </c>
       <c r="AM15" s="21"/>
       <c r="AN15" s="21"/>
-      <c r="AP15" s="22">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:40" ht="15" customHeight="1">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -2073,11 +2019,8 @@
       </c>
       <c r="AM16" s="21"/>
       <c r="AN16" s="21"/>
-      <c r="AP16" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:40" ht="15" customHeight="1">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -2142,11 +2085,8 @@
       </c>
       <c r="AM17" s="21"/>
       <c r="AN17" s="21"/>
-      <c r="AP17" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:40" ht="15" customHeight="1">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -2211,11 +2151,8 @@
       </c>
       <c r="AM18" s="21"/>
       <c r="AN18" s="21"/>
-      <c r="AP18" s="22">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:40" ht="15" customHeight="1">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -2280,11 +2217,8 @@
       </c>
       <c r="AM19" s="21"/>
       <c r="AN19" s="21"/>
-      <c r="AP19" s="22">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:40" ht="15" customHeight="1">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -2349,11 +2283,8 @@
       </c>
       <c r="AM20" s="21"/>
       <c r="AN20" s="21"/>
-      <c r="AP20" s="22">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:40" ht="15" customHeight="1">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -2418,11 +2349,8 @@
       </c>
       <c r="AM21" s="21"/>
       <c r="AN21" s="21"/>
-      <c r="AP21" s="22">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:40" ht="15" customHeight="1">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -2487,11 +2415,8 @@
       </c>
       <c r="AM22" s="21"/>
       <c r="AN22" s="21"/>
-      <c r="AP22" s="22">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:40" ht="15" customHeight="1">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -2556,11 +2481,8 @@
       </c>
       <c r="AM23" s="21"/>
       <c r="AN23" s="21"/>
-      <c r="AP23" s="22">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:40" ht="15" customHeight="1">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -2625,11 +2547,8 @@
       </c>
       <c r="AM24" s="21"/>
       <c r="AN24" s="21"/>
-      <c r="AP24" s="22">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:40">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -2691,11 +2610,8 @@
       </c>
       <c r="AM25" s="21"/>
       <c r="AN25" s="21"/>
-      <c r="AP25" s="22">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:40">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -2757,11 +2673,8 @@
       </c>
       <c r="AM26" s="21"/>
       <c r="AN26" s="21"/>
-      <c r="AP26" s="22">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:40">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -2823,11 +2736,8 @@
       </c>
       <c r="AM27" s="21"/>
       <c r="AN27" s="21"/>
-      <c r="AP27" s="22">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:40">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -2889,11 +2799,8 @@
       </c>
       <c r="AM28" s="21"/>
       <c r="AN28" s="21"/>
-      <c r="AP28" s="22">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:40">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -2955,11 +2862,8 @@
       </c>
       <c r="AM29" s="21"/>
       <c r="AN29" s="21"/>
-      <c r="AP29" s="22">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:40">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -3021,11 +2925,8 @@
       </c>
       <c r="AM30" s="21"/>
       <c r="AN30" s="21"/>
-      <c r="AP30" s="22">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:40">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -3087,11 +2988,8 @@
       </c>
       <c r="AM31" s="21"/>
       <c r="AN31" s="21"/>
-      <c r="AP31" s="22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:40">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -3153,11 +3051,8 @@
       </c>
       <c r="AM32" s="21"/>
       <c r="AN32" s="21"/>
-      <c r="AP32" s="22">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:40">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -3219,11 +3114,8 @@
       </c>
       <c r="AM33" s="21"/>
       <c r="AN33" s="21"/>
-      <c r="AP33" s="22">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:40">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -3285,11 +3177,8 @@
       </c>
       <c r="AM34" s="21"/>
       <c r="AN34" s="21"/>
-      <c r="AP34" s="22">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:40">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -3351,11 +3240,8 @@
       </c>
       <c r="AM35" s="21"/>
       <c r="AN35" s="21"/>
-      <c r="AP35" s="22">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:40">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -3417,11 +3303,8 @@
       </c>
       <c r="AM36" s="21"/>
       <c r="AN36" s="21"/>
-      <c r="AP36" s="22">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:40">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -3483,11 +3366,8 @@
       </c>
       <c r="AM37" s="21"/>
       <c r="AN37" s="21"/>
-      <c r="AP37" s="22">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:40">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -3549,11 +3429,8 @@
       </c>
       <c r="AM38" s="21"/>
       <c r="AN38" s="21"/>
-      <c r="AP38" s="22">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:40">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -3615,11 +3492,8 @@
       </c>
       <c r="AM39" s="21"/>
       <c r="AN39" s="21"/>
-      <c r="AP39" s="22">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="40" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:40">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -3681,11 +3555,8 @@
       </c>
       <c r="AM40" s="21"/>
       <c r="AN40" s="21"/>
-      <c r="AP40" s="22">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:40">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -3747,11 +3618,8 @@
       </c>
       <c r="AM41" s="21"/>
       <c r="AN41" s="21"/>
-      <c r="AP41" s="22">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:40">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -3813,11 +3681,8 @@
       </c>
       <c r="AM42" s="21"/>
       <c r="AN42" s="21"/>
-      <c r="AP42" s="22">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:40">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -3879,11 +3744,8 @@
       </c>
       <c r="AM43" s="21"/>
       <c r="AN43" s="21"/>
-      <c r="AP43" s="22">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:40">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -3945,11 +3807,8 @@
       </c>
       <c r="AM44" s="21"/>
       <c r="AN44" s="21"/>
-      <c r="AP44" s="22">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:40">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -4011,11 +3870,8 @@
       </c>
       <c r="AM45" s="21"/>
       <c r="AN45" s="21"/>
-      <c r="AP45" s="22">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:40">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -4077,11 +3933,8 @@
       </c>
       <c r="AM46" s="21"/>
       <c r="AN46" s="21"/>
-      <c r="AP46" s="22">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:40">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -4143,11 +3996,8 @@
       </c>
       <c r="AM47" s="21"/>
       <c r="AN47" s="21"/>
-      <c r="AP47" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:40">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -4209,11 +4059,8 @@
       </c>
       <c r="AM48" s="21"/>
       <c r="AN48" s="21"/>
-      <c r="AP48" s="22">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:40">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -4275,11 +4122,8 @@
       </c>
       <c r="AM49" s="21"/>
       <c r="AN49" s="21"/>
-      <c r="AP49" s="22">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="50" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:40">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -4341,11 +4185,8 @@
       </c>
       <c r="AM50" s="21"/>
       <c r="AN50" s="21"/>
-      <c r="AP50" s="22">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:40">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -4407,11 +4248,8 @@
       </c>
       <c r="AM51" s="21"/>
       <c r="AN51" s="21"/>
-      <c r="AP51" s="22">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:40">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -4473,11 +4311,8 @@
       </c>
       <c r="AM52" s="21"/>
       <c r="AN52" s="21"/>
-      <c r="AP52" s="22">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:40">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -4539,11 +4374,8 @@
       </c>
       <c r="AM53" s="21"/>
       <c r="AN53" s="21"/>
-      <c r="AP53" s="22">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:40">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -4605,11 +4437,8 @@
       </c>
       <c r="AM54" s="21"/>
       <c r="AN54" s="21"/>
-      <c r="AP54" s="22">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:40">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -4671,11 +4500,8 @@
       </c>
       <c r="AM55" s="21"/>
       <c r="AN55" s="21"/>
-      <c r="AP55" s="22">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:40">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -4737,11 +4563,8 @@
       </c>
       <c r="AM56" s="21"/>
       <c r="AN56" s="21"/>
-      <c r="AP56" s="22">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:40">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -4803,11 +4626,8 @@
       </c>
       <c r="AM57" s="21"/>
       <c r="AN57" s="21"/>
-      <c r="AP57" s="22">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:40">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -4869,11 +4689,8 @@
       </c>
       <c r="AM58" s="21"/>
       <c r="AN58" s="21"/>
-      <c r="AP58" s="22">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:40">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -4935,11 +4752,8 @@
       </c>
       <c r="AM59" s="21"/>
       <c r="AN59" s="21"/>
-      <c r="AP59" s="22">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:40">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -5001,11 +4815,8 @@
       </c>
       <c r="AM60" s="21"/>
       <c r="AN60" s="21"/>
-      <c r="AP60" s="22">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:40">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -5067,11 +4878,8 @@
       </c>
       <c r="AM61" s="21"/>
       <c r="AN61" s="21"/>
-      <c r="AP61" s="22">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:40">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -5133,11 +4941,8 @@
       </c>
       <c r="AM62" s="21"/>
       <c r="AN62" s="21"/>
-      <c r="AP62" s="22">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:40">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -5199,11 +5004,8 @@
       </c>
       <c r="AM63" s="21"/>
       <c r="AN63" s="21"/>
-      <c r="AP63" s="22">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:40">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -5265,11 +5067,8 @@
       </c>
       <c r="AM64" s="21"/>
       <c r="AN64" s="21"/>
-      <c r="AP64" s="22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:40">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -5331,11 +5130,8 @@
       </c>
       <c r="AM65" s="21"/>
       <c r="AN65" s="21"/>
-      <c r="AP65" s="22">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:40">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -5397,11 +5193,8 @@
       </c>
       <c r="AM66" s="21"/>
       <c r="AN66" s="21"/>
-      <c r="AP66" s="22">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:40">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -5463,11 +5256,8 @@
       </c>
       <c r="AM67" s="21"/>
       <c r="AN67" s="21"/>
-      <c r="AP67" s="22">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:40">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -5529,11 +5319,8 @@
       </c>
       <c r="AM68" s="21"/>
       <c r="AN68" s="21"/>
-      <c r="AP68" s="22">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:40">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -5595,11 +5382,8 @@
       </c>
       <c r="AM69" s="21"/>
       <c r="AN69" s="21"/>
-      <c r="AP69" s="22">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:40">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -5661,11 +5445,8 @@
       </c>
       <c r="AM70" s="21"/>
       <c r="AN70" s="21"/>
-      <c r="AP70" s="22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:40">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -5727,11 +5508,8 @@
       </c>
       <c r="AM71" s="21"/>
       <c r="AN71" s="21"/>
-      <c r="AP71" s="22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:40">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -5793,11 +5571,8 @@
       </c>
       <c r="AM72" s="21"/>
       <c r="AN72" s="21"/>
-      <c r="AP72" s="22">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:40">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -5859,11 +5634,8 @@
       </c>
       <c r="AM73" s="21"/>
       <c r="AN73" s="21"/>
-      <c r="AP73" s="22">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:40">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -5925,11 +5697,8 @@
       </c>
       <c r="AM74" s="21"/>
       <c r="AN74" s="21"/>
-      <c r="AP74" s="22">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:40">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -5991,11 +5760,8 @@
       </c>
       <c r="AM75" s="21"/>
       <c r="AN75" s="21"/>
-      <c r="AP75" s="22">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:40">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -6057,11 +5823,8 @@
       </c>
       <c r="AM76" s="21"/>
       <c r="AN76" s="21"/>
-      <c r="AP76" s="22">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:40">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -6123,11 +5886,8 @@
       </c>
       <c r="AM77" s="21"/>
       <c r="AN77" s="21"/>
-      <c r="AP77" s="22">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:40">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -6189,11 +5949,8 @@
       </c>
       <c r="AM78" s="21"/>
       <c r="AN78" s="21"/>
-      <c r="AP78" s="22">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:40">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -6255,11 +6012,8 @@
       </c>
       <c r="AM79" s="21"/>
       <c r="AN79" s="21"/>
-      <c r="AP79" s="22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:40">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -6321,11 +6075,8 @@
       </c>
       <c r="AM80" s="21"/>
       <c r="AN80" s="21"/>
-      <c r="AP80" s="22">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:40">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -6387,11 +6138,8 @@
       </c>
       <c r="AM81" s="21"/>
       <c r="AN81" s="21"/>
-      <c r="AP81" s="22">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:40">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -6453,11 +6201,8 @@
       </c>
       <c r="AM82" s="21"/>
       <c r="AN82" s="21"/>
-      <c r="AP82" s="22">
-        <v>-6.9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:40">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -6519,11 +6264,8 @@
       </c>
       <c r="AM83" s="21"/>
       <c r="AN83" s="21"/>
-      <c r="AP83" s="22">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:40">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -6585,11 +6327,8 @@
       </c>
       <c r="AM84" s="21"/>
       <c r="AN84" s="21"/>
-      <c r="AP84" s="22">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:40">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -6651,11 +6390,8 @@
       </c>
       <c r="AM85" s="21"/>
       <c r="AN85" s="21"/>
-      <c r="AP85" s="22">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:40">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -6717,11 +6453,8 @@
       </c>
       <c r="AM86" s="21"/>
       <c r="AN86" s="21"/>
-      <c r="AP86" s="22">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:40">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -6783,11 +6516,8 @@
       </c>
       <c r="AM87" s="21"/>
       <c r="AN87" s="21"/>
-      <c r="AP87" s="22">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="88" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:40">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -6849,11 +6579,8 @@
       </c>
       <c r="AM88" s="21"/>
       <c r="AN88" s="21"/>
-      <c r="AP88" s="22">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:40">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -6915,11 +6642,8 @@
       </c>
       <c r="AM89" s="21"/>
       <c r="AN89" s="21"/>
-      <c r="AP89" s="22">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:40">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -6981,11 +6705,8 @@
       </c>
       <c r="AM90" s="21"/>
       <c r="AN90" s="21"/>
-      <c r="AP90" s="22">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:40">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -7047,11 +6768,8 @@
       </c>
       <c r="AM91" s="21"/>
       <c r="AN91" s="21"/>
-      <c r="AP91" s="22">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:40">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -7113,11 +6831,8 @@
       </c>
       <c r="AM92" s="21"/>
       <c r="AN92" s="21"/>
-      <c r="AP92" s="22">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:40">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -7179,11 +6894,8 @@
       </c>
       <c r="AM93" s="21"/>
       <c r="AN93" s="21"/>
-      <c r="AP93" s="22">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:40">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -7241,11 +6953,8 @@
       </c>
       <c r="AM94" s="21"/>
       <c r="AN94" s="21"/>
-      <c r="AP94" s="22">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:40">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -7303,11 +7012,8 @@
       </c>
       <c r="AM95" s="21"/>
       <c r="AN95" s="21"/>
-      <c r="AP95" s="22">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:40">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -7362,11 +7068,8 @@
       </c>
       <c r="AM96" s="21"/>
       <c r="AN96" s="21"/>
-      <c r="AP96" s="22">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="97" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:40">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -7410,11 +7113,8 @@
       </c>
       <c r="AM97" s="21"/>
       <c r="AN97" s="21"/>
-      <c r="AP97" s="22">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:40">
       <c r="D98" s="1"/>
       <c r="I98" s="19"/>
       <c r="AG98" s="21">
@@ -7429,788 +7129,594 @@
       </c>
       <c r="AM98" s="21"/>
       <c r="AN98" s="21"/>
-      <c r="AP98" s="22">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:40">
       <c r="D99" s="1"/>
       <c r="I99" s="19"/>
-      <c r="AP99" s="22"/>
-    </row>
-    <row r="100" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:40">
       <c r="D100" s="1"/>
       <c r="I100" s="19"/>
-      <c r="AP100" s="22"/>
-    </row>
-    <row r="101" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:40">
       <c r="D101" s="1"/>
       <c r="I101" s="19"/>
-      <c r="AP101" s="22"/>
-    </row>
-    <row r="102" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:40">
       <c r="D102" s="1"/>
       <c r="I102" s="19"/>
-      <c r="AP102" s="22"/>
-    </row>
-    <row r="103" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:40">
       <c r="D103" s="1"/>
       <c r="I103" s="19"/>
-      <c r="AP103" s="22"/>
-    </row>
-    <row r="104" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:40">
       <c r="D104" s="1"/>
       <c r="I104" s="19"/>
-      <c r="AP104" s="22"/>
-    </row>
-    <row r="105" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:40">
       <c r="D105" s="1"/>
       <c r="I105" s="19"/>
-      <c r="AP105" s="22"/>
-    </row>
-    <row r="106" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:40">
       <c r="D106" s="1"/>
       <c r="I106" s="19"/>
-      <c r="AP106" s="22"/>
-    </row>
-    <row r="107" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:40">
       <c r="D107" s="1"/>
       <c r="I107" s="19"/>
-      <c r="AP107" s="22"/>
-    </row>
-    <row r="108" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:40">
       <c r="D108" s="1"/>
       <c r="I108" s="19"/>
-      <c r="AP108" s="22"/>
-    </row>
-    <row r="109" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:40">
       <c r="I109" s="19"/>
-      <c r="AP109" s="22"/>
-    </row>
-    <row r="110" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:40">
       <c r="I110" s="19"/>
-      <c r="AP110" s="22"/>
-    </row>
-    <row r="111" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:40">
       <c r="I111" s="19"/>
-      <c r="AP111" s="22"/>
-    </row>
-    <row r="112" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:40">
       <c r="I112" s="19"/>
-      <c r="AP112" s="22"/>
-    </row>
-    <row r="113" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="9:9">
       <c r="I113" s="19"/>
-      <c r="AP113" s="22"/>
-    </row>
-    <row r="114" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="9:9">
       <c r="I114" s="19"/>
-      <c r="AP114" s="22"/>
-    </row>
-    <row r="115" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="9:9">
       <c r="I115" s="19"/>
-      <c r="AP115" s="22"/>
-    </row>
-    <row r="116" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="9:9">
       <c r="I116" s="19"/>
-      <c r="AP116" s="22"/>
-    </row>
-    <row r="117" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="9:9">
       <c r="I117" s="19"/>
-      <c r="AP117" s="22"/>
-    </row>
-    <row r="118" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="9:9">
       <c r="I118" s="19"/>
-      <c r="AP118" s="22"/>
-    </row>
-    <row r="119" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="9:9">
       <c r="I119" s="19"/>
-      <c r="AP119" s="22"/>
-    </row>
-    <row r="120" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="9:9">
       <c r="I120" s="19"/>
-      <c r="AP120" s="22"/>
-    </row>
-    <row r="121" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="9:9">
       <c r="I121" s="19"/>
-      <c r="AP121" s="22"/>
-    </row>
-    <row r="122" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="9:9">
       <c r="I122" s="19"/>
-      <c r="AP122" s="22"/>
-    </row>
-    <row r="123" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="9:9">
       <c r="I123" s="19"/>
-      <c r="AP123" s="22"/>
-    </row>
-    <row r="124" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="9:9">
       <c r="I124" s="19"/>
-      <c r="AP124" s="22"/>
-    </row>
-    <row r="125" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="9:9">
       <c r="I125" s="19"/>
-      <c r="AP125" s="22"/>
-    </row>
-    <row r="126" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="9:9">
       <c r="I126" s="19"/>
-      <c r="AP126" s="22"/>
-    </row>
-    <row r="127" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="9:9">
       <c r="I127" s="19"/>
-      <c r="AP127" s="22"/>
-    </row>
-    <row r="128" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="9:9">
       <c r="I128" s="19"/>
-      <c r="AP128" s="22"/>
-    </row>
-    <row r="129" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="9:9">
       <c r="I129" s="19"/>
-      <c r="AP129" s="22"/>
-    </row>
-    <row r="130" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="9:9">
       <c r="I130" s="19"/>
-      <c r="AP130" s="22"/>
-    </row>
-    <row r="131" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="9:9">
       <c r="I131" s="19"/>
-      <c r="AP131" s="22"/>
-    </row>
-    <row r="132" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="9:9">
       <c r="I132" s="19"/>
-      <c r="AP132" s="22"/>
-    </row>
-    <row r="133" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="9:9">
       <c r="I133" s="19"/>
-      <c r="AP133" s="22"/>
-    </row>
-    <row r="134" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="9:9">
       <c r="I134" s="19"/>
-      <c r="AP134" s="22"/>
-    </row>
-    <row r="135" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="9:9">
       <c r="I135" s="19"/>
-      <c r="AP135" s="22"/>
-    </row>
-    <row r="136" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="9:9">
       <c r="I136" s="19"/>
-      <c r="AP136" s="22"/>
-    </row>
-    <row r="137" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="9:9">
       <c r="I137" s="19"/>
-      <c r="AP137" s="22"/>
-    </row>
-    <row r="138" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="9:9">
       <c r="I138" s="19"/>
-      <c r="AP138" s="22"/>
-    </row>
-    <row r="139" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="9:9">
       <c r="I139" s="19"/>
-      <c r="AP139" s="22"/>
-    </row>
-    <row r="140" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="9:9">
       <c r="I140" s="19"/>
-      <c r="AP140" s="22"/>
-    </row>
-    <row r="141" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="9:9">
       <c r="I141" s="19"/>
-      <c r="AP141" s="22"/>
-    </row>
-    <row r="142" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="9:9">
       <c r="I142" s="19"/>
-      <c r="AP142" s="22"/>
-    </row>
-    <row r="143" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="9:9">
       <c r="I143" s="19"/>
-      <c r="AP143" s="22"/>
-    </row>
-    <row r="144" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="9:9">
       <c r="I144" s="19"/>
-      <c r="AP144" s="22"/>
-    </row>
-    <row r="145" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="9:9">
       <c r="I145" s="19"/>
-      <c r="AP145" s="22"/>
-    </row>
-    <row r="146" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="9:9">
       <c r="I146" s="19"/>
-      <c r="AP146" s="22"/>
-    </row>
-    <row r="147" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="9:9">
       <c r="I147" s="19"/>
-      <c r="AP147" s="22"/>
-    </row>
-    <row r="148" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="9:9">
       <c r="I148" s="19"/>
-      <c r="AP148" s="22"/>
-    </row>
-    <row r="149" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="9:9">
       <c r="I149" s="19"/>
-      <c r="AP149" s="22"/>
-    </row>
-    <row r="150" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="9:9">
       <c r="I150" s="19"/>
-      <c r="AP150" s="22"/>
-    </row>
-    <row r="151" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="9:9">
       <c r="I151" s="19"/>
-      <c r="AP151" s="22"/>
-    </row>
-    <row r="152" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="9:9">
       <c r="I152" s="19"/>
-      <c r="AP152" s="22"/>
-    </row>
-    <row r="153" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="9:9">
       <c r="I153" s="19"/>
-      <c r="AP153" s="22"/>
-    </row>
-    <row r="154" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="9:9">
       <c r="I154" s="19"/>
-      <c r="AP154" s="22"/>
-    </row>
-    <row r="155" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="9:9">
       <c r="I155" s="19"/>
-      <c r="AP155" s="22"/>
-    </row>
-    <row r="156" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="9:9">
       <c r="I156" s="19"/>
-      <c r="AP156" s="22"/>
-    </row>
-    <row r="157" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="9:9">
       <c r="I157" s="19"/>
-      <c r="AP157" s="22"/>
-    </row>
-    <row r="158" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="9:9">
       <c r="I158" s="19"/>
-      <c r="AP158" s="22"/>
-    </row>
-    <row r="159" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="9:9">
       <c r="I159" s="19"/>
-      <c r="AP159" s="22"/>
-    </row>
-    <row r="160" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="9:9">
       <c r="I160" s="19"/>
-      <c r="AP160" s="22"/>
-    </row>
-    <row r="161" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="9:9">
       <c r="I161" s="19"/>
-      <c r="AP161" s="22"/>
-    </row>
-    <row r="162" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="9:9">
       <c r="I162" s="19"/>
-      <c r="AP162" s="22"/>
-    </row>
-    <row r="163" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="9:9">
       <c r="I163" s="19"/>
-      <c r="AP163" s="22"/>
-    </row>
-    <row r="164" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="9:9">
       <c r="I164" s="19"/>
-      <c r="AP164" s="22"/>
-    </row>
-    <row r="165" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="9:9">
       <c r="I165" s="19"/>
-      <c r="AP165" s="22"/>
-    </row>
-    <row r="166" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="9:9">
       <c r="I166" s="19"/>
-      <c r="AP166" s="22"/>
-    </row>
-    <row r="167" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="9:9">
       <c r="I167" s="19"/>
-      <c r="AP167" s="22"/>
-    </row>
-    <row r="168" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="9:9">
       <c r="I168" s="19"/>
-      <c r="AP168" s="22"/>
-    </row>
-    <row r="169" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="9:9">
       <c r="I169" s="19"/>
-      <c r="AP169" s="22"/>
-    </row>
-    <row r="170" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="9:9">
       <c r="I170" s="19"/>
-      <c r="AP170" s="22"/>
-    </row>
-    <row r="171" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="9:9">
       <c r="I171" s="19"/>
-      <c r="AP171" s="22"/>
-    </row>
-    <row r="172" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="9:9">
       <c r="I172" s="19"/>
-      <c r="AP172" s="22"/>
-    </row>
-    <row r="173" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="9:9">
       <c r="I173" s="19"/>
-      <c r="AP173" s="22"/>
-    </row>
-    <row r="174" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="9:9">
       <c r="I174" s="19"/>
-      <c r="AP174" s="22"/>
-    </row>
-    <row r="175" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="9:9">
       <c r="I175" s="19"/>
-      <c r="AP175" s="22"/>
-    </row>
-    <row r="176" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="9:9">
       <c r="I176" s="19"/>
-      <c r="AP176" s="22"/>
-    </row>
-    <row r="177" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="9:9">
       <c r="I177" s="19"/>
-      <c r="AP177" s="22"/>
-    </row>
-    <row r="178" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="9:9">
       <c r="I178" s="19"/>
-      <c r="AP178" s="22"/>
-    </row>
-    <row r="179" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="9:9">
       <c r="I179" s="19"/>
-      <c r="AP179" s="22"/>
-    </row>
-    <row r="180" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="9:9">
       <c r="I180" s="19"/>
-      <c r="AP180" s="22"/>
-    </row>
-    <row r="181" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="9:9">
       <c r="I181" s="19"/>
-      <c r="AP181" s="22"/>
-    </row>
-    <row r="182" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="9:9">
       <c r="I182" s="19"/>
-      <c r="AP182" s="22"/>
-    </row>
-    <row r="183" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="9:9">
       <c r="I183" s="19"/>
-      <c r="AP183" s="22"/>
-    </row>
-    <row r="184" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="9:9">
       <c r="I184" s="19"/>
-      <c r="AP184" s="22"/>
-    </row>
-    <row r="185" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="9:9">
       <c r="I185" s="19"/>
-      <c r="AP185" s="22"/>
-    </row>
-    <row r="186" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="9:9">
       <c r="I186" s="19"/>
-      <c r="AP186" s="22"/>
-    </row>
-    <row r="187" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="9:9">
       <c r="I187" s="19"/>
-      <c r="AP187" s="22"/>
-    </row>
-    <row r="188" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="9:9">
       <c r="I188" s="19"/>
-      <c r="AP188" s="22"/>
-    </row>
-    <row r="189" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="9:9">
       <c r="I189" s="19"/>
-      <c r="AP189" s="22"/>
-    </row>
-    <row r="190" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="9:9">
       <c r="I190" s="19"/>
-      <c r="AP190" s="22"/>
-    </row>
-    <row r="191" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="9:9">
       <c r="I191" s="19"/>
-      <c r="AP191" s="22"/>
-    </row>
-    <row r="192" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="9:9">
       <c r="I192" s="19"/>
-      <c r="AP192" s="22"/>
-    </row>
-    <row r="193" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="9:9">
       <c r="I193" s="19"/>
-      <c r="AP193" s="22"/>
-    </row>
-    <row r="194" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="9:9">
       <c r="I194" s="19"/>
-      <c r="AP194" s="22"/>
-    </row>
-    <row r="195" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="9:9">
       <c r="I195" s="19"/>
-      <c r="AP195" s="22"/>
-    </row>
-    <row r="196" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="9:9">
       <c r="I196" s="19"/>
-      <c r="AP196" s="22"/>
-    </row>
-    <row r="197" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="9:9">
       <c r="I197" s="19"/>
-      <c r="AP197" s="22"/>
-    </row>
-    <row r="198" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="9:9">
       <c r="I198" s="19"/>
-      <c r="AP198" s="22"/>
-    </row>
-    <row r="199" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="9:9">
       <c r="I199" s="19"/>
-      <c r="AP199" s="22"/>
-    </row>
-    <row r="200" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="9:9">
       <c r="I200" s="19"/>
-      <c r="AP200" s="22"/>
-    </row>
-    <row r="201" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="9:9">
       <c r="I201" s="19"/>
-      <c r="AP201" s="22"/>
-    </row>
-    <row r="202" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="9:9">
       <c r="I202" s="19"/>
-      <c r="AP202" s="22"/>
-    </row>
-    <row r="203" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="9:9">
       <c r="I203" s="19"/>
-      <c r="AP203" s="22"/>
-    </row>
-    <row r="204" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="9:9">
       <c r="I204" s="19"/>
-      <c r="AP204" s="22"/>
-    </row>
-    <row r="205" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="9:9">
       <c r="I205" s="19"/>
-      <c r="AP205" s="22"/>
-    </row>
-    <row r="206" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="206" spans="9:9">
       <c r="I206" s="19"/>
-      <c r="AP206" s="22"/>
-    </row>
-    <row r="207" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="9:9">
       <c r="I207" s="19"/>
-      <c r="AP207" s="22"/>
-    </row>
-    <row r="208" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="208" spans="9:9">
       <c r="I208" s="19"/>
-      <c r="AP208" s="22"/>
-    </row>
-    <row r="209" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="209" spans="9:9">
       <c r="I209" s="19"/>
-      <c r="AP209" s="22"/>
-    </row>
-    <row r="210" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="9:9">
       <c r="I210" s="19"/>
-      <c r="AP210" s="22"/>
-    </row>
-    <row r="211" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="9:9">
       <c r="I211" s="19"/>
-      <c r="AP211" s="22"/>
-    </row>
-    <row r="212" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="212" spans="9:9">
       <c r="I212" s="19"/>
-      <c r="AP212" s="22"/>
-    </row>
-    <row r="213" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="213" spans="9:9">
       <c r="I213" s="19"/>
-      <c r="AP213" s="22"/>
-    </row>
-    <row r="214" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="9:9">
       <c r="I214" s="19"/>
-      <c r="AP214" s="22"/>
-    </row>
-    <row r="215" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="215" spans="9:9">
       <c r="I215" s="19"/>
-      <c r="AP215" s="22"/>
-    </row>
-    <row r="216" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="216" spans="9:9">
       <c r="I216" s="19"/>
-      <c r="AP216" s="22"/>
-    </row>
-    <row r="217" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="217" spans="9:9">
       <c r="I217" s="19"/>
-      <c r="AP217" s="22"/>
-    </row>
-    <row r="218" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="218" spans="9:9">
       <c r="I218" s="19"/>
-      <c r="AP218" s="22"/>
-    </row>
-    <row r="219" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="219" spans="9:9">
       <c r="I219" s="19"/>
-      <c r="AP219" s="22"/>
-    </row>
-    <row r="220" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="220" spans="9:9">
       <c r="I220" s="19"/>
-      <c r="AP220" s="22"/>
-    </row>
-    <row r="221" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="9:9">
       <c r="I221" s="19"/>
-      <c r="AP221" s="22"/>
-    </row>
-    <row r="222" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="222" spans="9:9">
       <c r="I222" s="19"/>
-      <c r="AP222" s="22"/>
-    </row>
-    <row r="223" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="223" spans="9:9">
       <c r="I223" s="19"/>
-      <c r="AP223" s="22"/>
-    </row>
-    <row r="224" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="9:9">
       <c r="I224" s="19"/>
-      <c r="AP224" s="22"/>
-    </row>
-    <row r="225" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="225" spans="9:9">
       <c r="I225" s="19"/>
-      <c r="AP225" s="22"/>
-    </row>
-    <row r="226" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="226" spans="9:9">
       <c r="I226" s="19"/>
-      <c r="AP226" s="22"/>
-    </row>
-    <row r="227" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="227" spans="9:9">
       <c r="I227" s="19"/>
-      <c r="AP227" s="22"/>
-    </row>
-    <row r="228" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="228" spans="9:9">
       <c r="I228" s="19"/>
-      <c r="AP228" s="22"/>
-    </row>
-    <row r="229" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="229" spans="9:9">
       <c r="I229" s="19"/>
-      <c r="AP229" s="22"/>
-    </row>
-    <row r="230" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="230" spans="9:9">
       <c r="I230" s="19"/>
-      <c r="AP230" s="22"/>
-    </row>
-    <row r="231" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="231" spans="9:9">
       <c r="I231" s="19"/>
-      <c r="AP231" s="22"/>
-    </row>
-    <row r="232" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="232" spans="9:9">
       <c r="I232" s="19"/>
-      <c r="AP232" s="22"/>
-    </row>
-    <row r="233" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="233" spans="9:9">
       <c r="I233" s="19"/>
-      <c r="AP233" s="22"/>
-    </row>
-    <row r="234" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="234" spans="9:9">
       <c r="I234" s="19"/>
-      <c r="AP234" s="22"/>
-    </row>
-    <row r="235" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="235" spans="9:9">
       <c r="I235" s="19"/>
-      <c r="AP235" s="22"/>
-    </row>
-    <row r="236" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="236" spans="9:9">
       <c r="I236" s="19"/>
-      <c r="AP236" s="22"/>
-    </row>
-    <row r="237" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="237" spans="9:9">
       <c r="I237" s="19"/>
-      <c r="AP237" s="22"/>
-    </row>
-    <row r="238" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="238" spans="9:9">
       <c r="I238" s="19"/>
-      <c r="AP238" s="22"/>
-    </row>
-    <row r="239" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="239" spans="9:9">
       <c r="I239" s="19"/>
-      <c r="AP239" s="22"/>
-    </row>
-    <row r="240" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="240" spans="9:9">
       <c r="I240" s="19"/>
-      <c r="AP240" s="22"/>
-    </row>
-    <row r="241" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="241" spans="9:9">
       <c r="I241" s="19"/>
-      <c r="AP241" s="22"/>
-    </row>
-    <row r="242" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="242" spans="9:9">
       <c r="I242" s="19"/>
-      <c r="AP242" s="22"/>
-    </row>
-    <row r="243" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="243" spans="9:9">
       <c r="I243" s="19"/>
-      <c r="AP243" s="22"/>
-    </row>
-    <row r="244" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="244" spans="9:9">
       <c r="I244" s="19"/>
-      <c r="AP244" s="22"/>
-    </row>
-    <row r="245" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="245" spans="9:9">
       <c r="I245" s="19"/>
-      <c r="AP245" s="22"/>
-    </row>
-    <row r="246" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="246" spans="9:9">
       <c r="I246" s="19"/>
-      <c r="AP246" s="22"/>
-    </row>
-    <row r="247" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="247" spans="9:9">
       <c r="I247" s="19"/>
-      <c r="AP247" s="22"/>
-    </row>
-    <row r="248" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="248" spans="9:9">
       <c r="I248" s="19"/>
-      <c r="AP248" s="22"/>
-    </row>
-    <row r="249" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="249" spans="9:9">
       <c r="I249" s="19"/>
-      <c r="AP249" s="22"/>
-    </row>
-    <row r="250" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="250" spans="9:9">
       <c r="I250" s="19"/>
-      <c r="AP250" s="22"/>
-    </row>
-    <row r="251" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="251" spans="9:9">
       <c r="I251" s="19"/>
-      <c r="AP251" s="22"/>
-    </row>
-    <row r="252" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="252" spans="9:9">
       <c r="I252" s="19"/>
-      <c r="AP252" s="22"/>
-    </row>
-    <row r="253" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="253" spans="9:9">
       <c r="I253" s="19"/>
-      <c r="AP253" s="22"/>
-    </row>
-    <row r="254" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="254" spans="9:9">
       <c r="I254" s="19"/>
-      <c r="AP254" s="22"/>
-    </row>
-    <row r="255" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="255" spans="9:9">
       <c r="I255" s="19"/>
-      <c r="AP255" s="22"/>
-    </row>
-    <row r="256" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="256" spans="9:9">
       <c r="I256" s="19"/>
-      <c r="AP256" s="22"/>
-    </row>
-    <row r="257" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="257" spans="9:9">
       <c r="I257" s="19"/>
-      <c r="AP257" s="22"/>
-    </row>
-    <row r="258" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="258" spans="9:9">
       <c r="I258" s="19"/>
-      <c r="AP258" s="22"/>
-    </row>
-    <row r="259" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="259" spans="9:9">
       <c r="I259" s="19"/>
-      <c r="AP259" s="22"/>
-    </row>
-    <row r="260" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="260" spans="9:9">
       <c r="I260" s="19"/>
-      <c r="AP260" s="22"/>
-    </row>
-    <row r="261" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="261" spans="9:9">
       <c r="I261" s="19"/>
-      <c r="AP261" s="22"/>
-    </row>
-    <row r="262" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="262" spans="9:9">
       <c r="I262" s="19"/>
-      <c r="AP262" s="22"/>
-    </row>
-    <row r="263" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="263" spans="9:9">
       <c r="I263" s="19"/>
-      <c r="AP263" s="22"/>
-    </row>
-    <row r="264" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="264" spans="9:9">
       <c r="I264" s="19"/>
-      <c r="AP264" s="22"/>
-    </row>
-    <row r="265" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="265" spans="9:9">
       <c r="I265" s="19"/>
-      <c r="AP265" s="22"/>
-    </row>
-    <row r="266" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="266" spans="9:9">
       <c r="I266" s="19"/>
-      <c r="AP266" s="22"/>
-    </row>
-    <row r="267" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="267" spans="9:9">
       <c r="I267" s="19"/>
-      <c r="AP267" s="22"/>
-    </row>
-    <row r="268" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="268" spans="9:9">
       <c r="I268" s="19"/>
-      <c r="AP268" s="22"/>
-    </row>
-    <row r="269" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="269" spans="9:9">
       <c r="I269" s="19"/>
-      <c r="AP269" s="22"/>
-    </row>
-    <row r="270" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="270" spans="9:9">
       <c r="I270" s="19"/>
-      <c r="AP270" s="22"/>
-    </row>
-    <row r="271" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="271" spans="9:9">
       <c r="I271" s="19"/>
-      <c r="AP271" s="22"/>
-    </row>
-    <row r="272" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="272" spans="9:9">
       <c r="I272" s="19"/>
-      <c r="AP272" s="22"/>
-    </row>
-    <row r="273" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="273" spans="9:9">
       <c r="I273" s="19"/>
-      <c r="AP273" s="22"/>
-    </row>
-    <row r="274" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="274" spans="9:9">
       <c r="I274" s="19"/>
-      <c r="AP274" s="22"/>
-    </row>
-    <row r="275" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="275" spans="9:9">
       <c r="I275" s="19"/>
-      <c r="AP275" s="22"/>
-    </row>
-    <row r="276" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="276" spans="9:9">
       <c r="I276" s="19"/>
-      <c r="AP276" s="22"/>
-    </row>
-    <row r="277" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="277" spans="9:9">
       <c r="I277" s="19"/>
-      <c r="AP277" s="22"/>
-    </row>
-    <row r="278" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="278" spans="9:9">
       <c r="I278" s="19"/>
-      <c r="AP278" s="22"/>
-    </row>
-    <row r="279" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="279" spans="9:9">
       <c r="I279" s="19"/>
-      <c r="AP279" s="22"/>
-    </row>
-    <row r="280" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="280" spans="9:9">
       <c r="I280" s="19"/>
-      <c r="AP280" s="22"/>
-    </row>
-    <row r="281" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="281" spans="9:9">
       <c r="I281" s="19"/>
-      <c r="AP281" s="22"/>
-    </row>
-    <row r="282" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="282" spans="9:9">
       <c r="I282" s="19"/>
-      <c r="AP282" s="22"/>
-    </row>
-    <row r="283" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="283" spans="9:9">
       <c r="I283" s="19"/>
-      <c r="AP283" s="22"/>
-    </row>
-    <row r="284" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="284" spans="9:9">
       <c r="I284" s="19"/>
-      <c r="AP284" s="22"/>
-    </row>
-    <row r="285" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="285" spans="9:9">
       <c r="I285" s="19"/>
-      <c r="AP285" s="22"/>
-    </row>
-    <row r="286" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="286" spans="9:9">
       <c r="I286" s="19"/>
-      <c r="AP286" s="22"/>
-    </row>
-    <row r="287" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="287" spans="9:9">
       <c r="I287" s="19"/>
-      <c r="AP287" s="22"/>
-    </row>
-    <row r="288" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="288" spans="9:9">
       <c r="I288" s="19"/>
-      <c r="AP288" s="22"/>
-    </row>
-    <row r="289" spans="9:42" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="289" spans="9:9">
       <c r="I289" s="19"/>
-      <c r="AP289" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O1" r:id="rId1" location="0" xr:uid="{1A5DC839-B836-414D-90FB-DC92D012B683}"/>
-    <hyperlink ref="AP1" r:id="rId2" xr:uid="{EC6C6DB8-9A83-4DA7-BADC-3E9C7F04C7A9}"/>
+    <hyperlink ref="AP1" r:id="rId2" display="China gdp year ago" xr:uid="{EC6C6DB8-9A83-4DA7-BADC-3E9C7F04C7A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8224,17 +7730,17 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.81640625" customWidth="1"/>
-    <col min="13" max="13" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.85546875" customWidth="1"/>
+    <col min="13" max="13" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:47">
       <c r="C1" t="s">
         <v>20</v>
       </c>
@@ -8260,7 +7766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:47">
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2:D24">TRANSPOSE(Y2:AU3)</f>
         <v>2001</v>
@@ -8366,7 +7872,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:47">
       <c r="C3" t="str">
         <v>2002</v>
       </c>
@@ -8471,7 +7977,7 @@
         <v>44368658</v>
       </c>
     </row>
-    <row r="4" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:47">
       <c r="C4" t="str">
         <v>2003</v>
       </c>
@@ -8501,7 +8007,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:47">
       <c r="C5" t="str">
         <v>2004</v>
       </c>
@@ -8528,7 +8034,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="6" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:47">
       <c r="C6" t="str">
         <v>2005</v>
       </c>
@@ -8555,7 +8061,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="7" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:47">
       <c r="C7" t="str">
         <v>2006</v>
       </c>
@@ -8584,7 +8090,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:47">
       <c r="C8" t="str">
         <v>2007</v>
       </c>
@@ -8605,7 +8111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:47">
       <c r="C9" t="str">
         <v>2008</v>
       </c>
@@ -8629,7 +8135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:47">
       <c r="C10" t="str">
         <v>2009</v>
       </c>
@@ -8643,7 +8149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:47">
       <c r="C11" t="str">
         <v>2010</v>
       </c>
@@ -8657,7 +8163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:47">
       <c r="C12" t="str">
         <v>2011</v>
       </c>
@@ -8674,7 +8180,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:47">
       <c r="C13" t="str">
         <v>2012</v>
       </c>
@@ -8682,7 +8188,7 @@
         <v>41853628</v>
       </c>
     </row>
-    <row r="14" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:47">
       <c r="C14" t="str">
         <v>2013</v>
       </c>
@@ -8690,7 +8196,7 @@
         <v>42212988</v>
       </c>
     </row>
-    <row r="15" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:47">
       <c r="C15" t="str">
         <v>2014</v>
       </c>
@@ -8698,7 +8204,7 @@
         <v>42458390</v>
       </c>
     </row>
-    <row r="16" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:47">
       <c r="C16" t="str">
         <v>2015</v>
       </c>
@@ -8706,7 +8212,7 @@
         <v>42660629</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:4">
       <c r="C17" t="str">
         <v>2016</v>
       </c>
@@ -8714,7 +8220,7 @@
         <v>43567225</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:4">
       <c r="C18" t="str">
         <v>2017</v>
       </c>
@@ -8722,7 +8228,7 @@
         <v>43819028</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:4">
       <c r="C19" t="str">
         <v>2018</v>
       </c>
@@ -8730,7 +8236,7 @@
         <v>43935038</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:4">
       <c r="C20" t="str">
         <v>2019</v>
       </c>
@@ -8738,7 +8244,7 @@
         <v>44433744</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:4">
       <c r="C21" t="str">
         <v>2020</v>
       </c>
@@ -8746,7 +8252,7 @@
         <v>43501190</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:4">
       <c r="C22" t="str">
         <v>2021</v>
       </c>
@@ -8754,7 +8260,7 @@
         <v>43386527</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:4">
       <c r="C23" t="str">
         <v>2022</v>
       </c>
@@ -8762,7 +8268,7 @@
         <v>44198105</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:4">
       <c r="C24" t="str">
         <v>2023</v>
       </c>
@@ -8789,14 +8295,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2009</v>
       </c>
@@ -8804,92 +8310,92 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -8907,22 +8413,22 @@
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:19">
       <c r="B1" t="s">
         <v>92</v>
       </c>
@@ -8978,7 +8484,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19">
       <c r="C2" s="4">
         <v>36526</v>
       </c>
@@ -9018,7 +8524,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19">
       <c r="C3" s="4">
         <v>36892</v>
       </c>
@@ -9058,7 +8564,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19">
       <c r="C4" s="4">
         <v>37257</v>
       </c>
@@ -9098,7 +8604,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19">
       <c r="C5" s="4">
         <v>37622</v>
       </c>
@@ -9138,7 +8644,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19">
       <c r="C6" s="4">
         <v>37987</v>
       </c>
@@ -9178,7 +8684,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19">
       <c r="C7" s="4">
         <v>38353</v>
       </c>
@@ -9206,7 +8712,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19">
       <c r="C8" s="4">
         <v>38718</v>
       </c>
@@ -9234,7 +8740,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19">
       <c r="C9" s="4">
         <v>39083</v>
       </c>
@@ -9262,7 +8768,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19">
       <c r="C10" s="4">
         <v>39448</v>
       </c>
@@ -9290,7 +8796,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19">
       <c r="C11" s="4">
         <v>39814</v>
       </c>
@@ -9318,7 +8824,7 @@
         <v>-6.2</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19">
       <c r="C12" s="4">
         <v>40179</v>
       </c>
@@ -9346,7 +8852,7 @@
         <v>-6.3</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19">
       <c r="C13" s="4">
         <v>40544</v>
       </c>
@@ -9374,7 +8880,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19">
       <c r="C14" s="4">
         <v>40909</v>
       </c>
@@ -9402,7 +8908,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19">
       <c r="C15" s="4">
         <v>41275</v>
       </c>
@@ -9430,7 +8936,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19">
       <c r="C16" s="4">
         <v>41640</v>
       </c>
@@ -9458,7 +8964,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:19">
       <c r="C17" s="4">
         <v>42005</v>
       </c>
@@ -9486,7 +8992,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:19">
       <c r="C18" s="4">
         <v>42370</v>
       </c>
@@ -9514,7 +9020,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:19">
       <c r="C19" s="4">
         <v>42736</v>
       </c>
@@ -9542,7 +9048,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:19">
       <c r="C20" s="4">
         <v>43101</v>
       </c>
@@ -9570,7 +9076,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:19">
       <c r="C21" s="4">
         <v>43466</v>
       </c>
@@ -9598,7 +9104,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:19">
       <c r="C22" s="4">
         <v>43831</v>
       </c>
@@ -9626,7 +9132,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:19">
       <c r="C23" s="4">
         <v>44197</v>
       </c>
@@ -9654,7 +9160,7 @@
         <v>-5.2</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:19">
       <c r="C24" s="4">
         <v>44562</v>
       </c>
@@ -9682,7 +9188,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:19">
       <c r="C25" s="4">
         <v>44927</v>
       </c>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="886" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C6AC342-0778-4602-B4CD-0BA02E651CC4}"/>
+  <xr:revisionPtr revIDLastSave="891" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C76B4E5A-2880-4ED6-9A57-9B6AFA26E72B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nøgletal" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,9 @@
   <commentList>
     <comment ref="I2" authorId="0" shapeId="0" xr:uid="{4B42F164-681C-4A58-84D1-0574D84188C8}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Trådet kommentar]
+Din version af Excel lader dig læse denne trådede kommentar. Eventuelle ændringer vil dog blive fjernet, hvis filen åbnes i en nyere version af Excel. Få mere at vide: https://go.microsoft.com/fwlink/?linkid=870924
+Kommentar:
 How is your company developing in relation to the lack of new recruits and skilled workers? 
 </t>
       </text>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>Generel government net lending/borrowing for EU</t>
+  </si>
+  <si>
+    <t>China gdp year ago</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +440,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -459,7 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -490,6 +498,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -933,36 +942,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN289"/>
+  <dimension ref="A1:AP289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="AQ3" sqref="AQ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" customWidth="1"/>
+    <col min="5" max="5" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.26953125" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="84.85546875" customWidth="1"/>
+    <col min="11" max="11" width="84.81640625" customWidth="1"/>
     <col min="12" max="12" width="79" customWidth="1"/>
-    <col min="13" max="13" width="49.7109375" customWidth="1"/>
+    <col min="13" max="13" width="49.7265625" customWidth="1"/>
     <col min="14" max="14" width="79" customWidth="1"/>
-    <col min="15" max="15" width="140.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.7109375" customWidth="1"/>
-    <col min="33" max="33" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="140.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.7265625" customWidth="1"/>
+    <col min="33" max="33" width="23.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1">
+    <row r="1" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,8 +1038,11 @@
       </c>
       <c r="AM1" s="21"/>
       <c r="AN1" s="21"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1">
+      <c r="AP1" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1096,8 +1108,11 @@
       </c>
       <c r="AM2" s="21"/>
       <c r="AN2" s="21"/>
-    </row>
-    <row r="3" spans="1:40" ht="15" customHeight="1">
+      <c r="AP2" s="22">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1162,8 +1177,11 @@
       </c>
       <c r="AM3" s="21"/>
       <c r="AN3" s="21"/>
-    </row>
-    <row r="4" spans="1:40" ht="15" customHeight="1">
+      <c r="AP3" s="22">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1228,8 +1246,11 @@
       </c>
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
-    </row>
-    <row r="5" spans="1:40" ht="15" customHeight="1">
+      <c r="AP4" s="22">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1294,8 +1315,11 @@
       </c>
       <c r="AM5" s="21"/>
       <c r="AN5" s="21"/>
-    </row>
-    <row r="6" spans="1:40" ht="15" customHeight="1">
+      <c r="AP5" s="22">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1360,8 +1384,11 @@
       </c>
       <c r="AM6" s="21"/>
       <c r="AN6" s="21"/>
-    </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1">
+      <c r="AP6" s="22">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1426,8 +1453,11 @@
       </c>
       <c r="AM7" s="21"/>
       <c r="AN7" s="21"/>
-    </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1">
+      <c r="AP7" s="22">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1492,8 +1522,11 @@
       </c>
       <c r="AM8" s="21"/>
       <c r="AN8" s="21"/>
-    </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1">
+      <c r="AP8" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1558,8 +1591,11 @@
       </c>
       <c r="AM9" s="21"/>
       <c r="AN9" s="21"/>
-    </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1">
+      <c r="AP9" s="22">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1624,8 +1660,11 @@
       </c>
       <c r="AM10" s="21"/>
       <c r="AN10" s="21"/>
-    </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1">
+      <c r="AP10" s="22">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1689,8 +1728,11 @@
       </c>
       <c r="AM11" s="21"/>
       <c r="AN11" s="21"/>
-    </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1">
+      <c r="AP11" s="22">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1755,8 +1797,11 @@
       </c>
       <c r="AM12" s="21"/>
       <c r="AN12" s="21"/>
-    </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1">
+      <c r="AP12" s="22">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1821,8 +1866,11 @@
       </c>
       <c r="AM13" s="21"/>
       <c r="AN13" s="21"/>
-    </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1">
+      <c r="AP13" s="22">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1887,8 +1935,11 @@
       </c>
       <c r="AM14" s="21"/>
       <c r="AN14" s="21"/>
-    </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1">
+      <c r="AP14" s="22">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -1953,8 +2004,11 @@
       </c>
       <c r="AM15" s="21"/>
       <c r="AN15" s="21"/>
-    </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1">
+      <c r="AP15" s="22">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -2019,8 +2073,11 @@
       </c>
       <c r="AM16" s="21"/>
       <c r="AN16" s="21"/>
-    </row>
-    <row r="17" spans="1:40" ht="15" customHeight="1">
+      <c r="AP16" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -2085,8 +2142,11 @@
       </c>
       <c r="AM17" s="21"/>
       <c r="AN17" s="21"/>
-    </row>
-    <row r="18" spans="1:40" ht="15" customHeight="1">
+      <c r="AP17" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -2151,8 +2211,11 @@
       </c>
       <c r="AM18" s="21"/>
       <c r="AN18" s="21"/>
-    </row>
-    <row r="19" spans="1:40" ht="15" customHeight="1">
+      <c r="AP18" s="22">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -2217,8 +2280,11 @@
       </c>
       <c r="AM19" s="21"/>
       <c r="AN19" s="21"/>
-    </row>
-    <row r="20" spans="1:40" ht="15" customHeight="1">
+      <c r="AP19" s="22">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -2283,8 +2349,11 @@
       </c>
       <c r="AM20" s="21"/>
       <c r="AN20" s="21"/>
-    </row>
-    <row r="21" spans="1:40" ht="15" customHeight="1">
+      <c r="AP20" s="22">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -2349,8 +2418,11 @@
       </c>
       <c r="AM21" s="21"/>
       <c r="AN21" s="21"/>
-    </row>
-    <row r="22" spans="1:40" ht="15" customHeight="1">
+      <c r="AP21" s="22">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
@@ -2415,8 +2487,11 @@
       </c>
       <c r="AM22" s="21"/>
       <c r="AN22" s="21"/>
-    </row>
-    <row r="23" spans="1:40" ht="15" customHeight="1">
+      <c r="AP22" s="22">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
@@ -2481,8 +2556,11 @@
       </c>
       <c r="AM23" s="21"/>
       <c r="AN23" s="21"/>
-    </row>
-    <row r="24" spans="1:40" ht="15" customHeight="1">
+      <c r="AP23" s="22">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
@@ -2547,8 +2625,11 @@
       </c>
       <c r="AM24" s="21"/>
       <c r="AN24" s="21"/>
-    </row>
-    <row r="25" spans="1:40">
+      <c r="AP24" s="22">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
@@ -2610,8 +2691,11 @@
       </c>
       <c r="AM25" s="21"/>
       <c r="AN25" s="21"/>
-    </row>
-    <row r="26" spans="1:40">
+      <c r="AP25" s="22">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
@@ -2673,8 +2757,11 @@
       </c>
       <c r="AM26" s="21"/>
       <c r="AN26" s="21"/>
-    </row>
-    <row r="27" spans="1:40">
+      <c r="AP26" s="22">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
@@ -2736,8 +2823,11 @@
       </c>
       <c r="AM27" s="21"/>
       <c r="AN27" s="21"/>
-    </row>
-    <row r="28" spans="1:40">
+      <c r="AP27" s="22">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
@@ -2799,8 +2889,11 @@
       </c>
       <c r="AM28" s="21"/>
       <c r="AN28" s="21"/>
-    </row>
-    <row r="29" spans="1:40">
+      <c r="AP28" s="22">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
@@ -2862,8 +2955,11 @@
       </c>
       <c r="AM29" s="21"/>
       <c r="AN29" s="21"/>
-    </row>
-    <row r="30" spans="1:40">
+      <c r="AP29" s="22">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
@@ -2925,8 +3021,11 @@
       </c>
       <c r="AM30" s="21"/>
       <c r="AN30" s="21"/>
-    </row>
-    <row r="31" spans="1:40">
+      <c r="AP30" s="22">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
@@ -2988,8 +3087,11 @@
       </c>
       <c r="AM31" s="21"/>
       <c r="AN31" s="21"/>
-    </row>
-    <row r="32" spans="1:40">
+      <c r="AP31" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
@@ -3051,8 +3153,11 @@
       </c>
       <c r="AM32" s="21"/>
       <c r="AN32" s="21"/>
-    </row>
-    <row r="33" spans="1:40">
+      <c r="AP32" s="22">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
@@ -3114,8 +3219,11 @@
       </c>
       <c r="AM33" s="21"/>
       <c r="AN33" s="21"/>
-    </row>
-    <row r="34" spans="1:40">
+      <c r="AP33" s="22">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
@@ -3177,8 +3285,11 @@
       </c>
       <c r="AM34" s="21"/>
       <c r="AN34" s="21"/>
-    </row>
-    <row r="35" spans="1:40">
+      <c r="AP34" s="22">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
@@ -3240,8 +3351,11 @@
       </c>
       <c r="AM35" s="21"/>
       <c r="AN35" s="21"/>
-    </row>
-    <row r="36" spans="1:40">
+      <c r="AP35" s="22">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
@@ -3303,8 +3417,11 @@
       </c>
       <c r="AM36" s="21"/>
       <c r="AN36" s="21"/>
-    </row>
-    <row r="37" spans="1:40">
+      <c r="AP36" s="22">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -3366,8 +3483,11 @@
       </c>
       <c r="AM37" s="21"/>
       <c r="AN37" s="21"/>
-    </row>
-    <row r="38" spans="1:40">
+      <c r="AP37" s="22">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
@@ -3429,8 +3549,11 @@
       </c>
       <c r="AM38" s="21"/>
       <c r="AN38" s="21"/>
-    </row>
-    <row r="39" spans="1:40">
+      <c r="AP38" s="22">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
@@ -3492,8 +3615,11 @@
       </c>
       <c r="AM39" s="21"/>
       <c r="AN39" s="21"/>
-    </row>
-    <row r="40" spans="1:40">
+      <c r="AP39" s="22">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
@@ -3555,8 +3681,11 @@
       </c>
       <c r="AM40" s="21"/>
       <c r="AN40" s="21"/>
-    </row>
-    <row r="41" spans="1:40">
+      <c r="AP40" s="22">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
@@ -3618,8 +3747,11 @@
       </c>
       <c r="AM41" s="21"/>
       <c r="AN41" s="21"/>
-    </row>
-    <row r="42" spans="1:40">
+      <c r="AP41" s="22">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
@@ -3681,8 +3813,11 @@
       </c>
       <c r="AM42" s="21"/>
       <c r="AN42" s="21"/>
-    </row>
-    <row r="43" spans="1:40">
+      <c r="AP42" s="22">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
@@ -3744,8 +3879,11 @@
       </c>
       <c r="AM43" s="21"/>
       <c r="AN43" s="21"/>
-    </row>
-    <row r="44" spans="1:40">
+      <c r="AP43" s="22">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -3807,8 +3945,11 @@
       </c>
       <c r="AM44" s="21"/>
       <c r="AN44" s="21"/>
-    </row>
-    <row r="45" spans="1:40">
+      <c r="AP44" s="22">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
@@ -3870,8 +4011,11 @@
       </c>
       <c r="AM45" s="21"/>
       <c r="AN45" s="21"/>
-    </row>
-    <row r="46" spans="1:40">
+      <c r="AP45" s="22">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
@@ -3933,8 +4077,11 @@
       </c>
       <c r="AM46" s="21"/>
       <c r="AN46" s="21"/>
-    </row>
-    <row r="47" spans="1:40">
+      <c r="AP46" s="22">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
@@ -3996,8 +4143,11 @@
       </c>
       <c r="AM47" s="21"/>
       <c r="AN47" s="21"/>
-    </row>
-    <row r="48" spans="1:40">
+      <c r="AP47" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
@@ -4059,8 +4209,11 @@
       </c>
       <c r="AM48" s="21"/>
       <c r="AN48" s="21"/>
-    </row>
-    <row r="49" spans="1:40">
+      <c r="AP48" s="22">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
@@ -4122,8 +4275,11 @@
       </c>
       <c r="AM49" s="21"/>
       <c r="AN49" s="21"/>
-    </row>
-    <row r="50" spans="1:40">
+      <c r="AP49" s="22">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -4185,8 +4341,11 @@
       </c>
       <c r="AM50" s="21"/>
       <c r="AN50" s="21"/>
-    </row>
-    <row r="51" spans="1:40">
+      <c r="AP50" s="22">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -4248,8 +4407,11 @@
       </c>
       <c r="AM51" s="21"/>
       <c r="AN51" s="21"/>
-    </row>
-    <row r="52" spans="1:40">
+      <c r="AP51" s="22">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
@@ -4311,8 +4473,11 @@
       </c>
       <c r="AM52" s="21"/>
       <c r="AN52" s="21"/>
-    </row>
-    <row r="53" spans="1:40">
+      <c r="AP52" s="22">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
@@ -4374,8 +4539,11 @@
       </c>
       <c r="AM53" s="21"/>
       <c r="AN53" s="21"/>
-    </row>
-    <row r="54" spans="1:40">
+      <c r="AP53" s="22">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
@@ -4437,8 +4605,11 @@
       </c>
       <c r="AM54" s="21"/>
       <c r="AN54" s="21"/>
-    </row>
-    <row r="55" spans="1:40">
+      <c r="AP54" s="22">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
@@ -4500,8 +4671,11 @@
       </c>
       <c r="AM55" s="21"/>
       <c r="AN55" s="21"/>
-    </row>
-    <row r="56" spans="1:40">
+      <c r="AP55" s="22">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -4563,8 +4737,11 @@
       </c>
       <c r="AM56" s="21"/>
       <c r="AN56" s="21"/>
-    </row>
-    <row r="57" spans="1:40">
+      <c r="AP56" s="22">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
@@ -4626,8 +4803,11 @@
       </c>
       <c r="AM57" s="21"/>
       <c r="AN57" s="21"/>
-    </row>
-    <row r="58" spans="1:40">
+      <c r="AP57" s="22">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
@@ -4689,8 +4869,11 @@
       </c>
       <c r="AM58" s="21"/>
       <c r="AN58" s="21"/>
-    </row>
-    <row r="59" spans="1:40">
+      <c r="AP58" s="22">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
@@ -4752,8 +4935,11 @@
       </c>
       <c r="AM59" s="21"/>
       <c r="AN59" s="21"/>
-    </row>
-    <row r="60" spans="1:40">
+      <c r="AP59" s="22">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
@@ -4815,8 +5001,11 @@
       </c>
       <c r="AM60" s="21"/>
       <c r="AN60" s="21"/>
-    </row>
-    <row r="61" spans="1:40">
+      <c r="AP60" s="22">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
@@ -4878,8 +5067,11 @@
       </c>
       <c r="AM61" s="21"/>
       <c r="AN61" s="21"/>
-    </row>
-    <row r="62" spans="1:40">
+      <c r="AP61" s="22">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -4941,8 +5133,11 @@
       </c>
       <c r="AM62" s="21"/>
       <c r="AN62" s="21"/>
-    </row>
-    <row r="63" spans="1:40">
+      <c r="AP62" s="22">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
@@ -5004,8 +5199,11 @@
       </c>
       <c r="AM63" s="21"/>
       <c r="AN63" s="21"/>
-    </row>
-    <row r="64" spans="1:40">
+      <c r="AP63" s="22">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -5067,8 +5265,11 @@
       </c>
       <c r="AM64" s="21"/>
       <c r="AN64" s="21"/>
-    </row>
-    <row r="65" spans="1:40">
+      <c r="AP64" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
@@ -5130,8 +5331,11 @@
       </c>
       <c r="AM65" s="21"/>
       <c r="AN65" s="21"/>
-    </row>
-    <row r="66" spans="1:40">
+      <c r="AP65" s="22">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -5193,8 +5397,11 @@
       </c>
       <c r="AM66" s="21"/>
       <c r="AN66" s="21"/>
-    </row>
-    <row r="67" spans="1:40">
+      <c r="AP66" s="22">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
@@ -5256,8 +5463,11 @@
       </c>
       <c r="AM67" s="21"/>
       <c r="AN67" s="21"/>
-    </row>
-    <row r="68" spans="1:40">
+      <c r="AP67" s="22">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -5319,8 +5529,11 @@
       </c>
       <c r="AM68" s="21"/>
       <c r="AN68" s="21"/>
-    </row>
-    <row r="69" spans="1:40">
+      <c r="AP68" s="22">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
@@ -5382,8 +5595,11 @@
       </c>
       <c r="AM69" s="21"/>
       <c r="AN69" s="21"/>
-    </row>
-    <row r="70" spans="1:40">
+      <c r="AP69" s="22">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
@@ -5445,8 +5661,11 @@
       </c>
       <c r="AM70" s="21"/>
       <c r="AN70" s="21"/>
-    </row>
-    <row r="71" spans="1:40">
+      <c r="AP70" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
@@ -5508,8 +5727,11 @@
       </c>
       <c r="AM71" s="21"/>
       <c r="AN71" s="21"/>
-    </row>
-    <row r="72" spans="1:40">
+      <c r="AP71" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
@@ -5571,8 +5793,11 @@
       </c>
       <c r="AM72" s="21"/>
       <c r="AN72" s="21"/>
-    </row>
-    <row r="73" spans="1:40">
+      <c r="AP72" s="22">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
@@ -5634,8 +5859,11 @@
       </c>
       <c r="AM73" s="21"/>
       <c r="AN73" s="21"/>
-    </row>
-    <row r="74" spans="1:40">
+      <c r="AP73" s="22">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -5697,8 +5925,11 @@
       </c>
       <c r="AM74" s="21"/>
       <c r="AN74" s="21"/>
-    </row>
-    <row r="75" spans="1:40">
+      <c r="AP74" s="22">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
@@ -5760,8 +5991,11 @@
       </c>
       <c r="AM75" s="21"/>
       <c r="AN75" s="21"/>
-    </row>
-    <row r="76" spans="1:40">
+      <c r="AP75" s="22">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
@@ -5823,8 +6057,11 @@
       </c>
       <c r="AM76" s="21"/>
       <c r="AN76" s="21"/>
-    </row>
-    <row r="77" spans="1:40">
+      <c r="AP76" s="22">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
@@ -5886,8 +6123,11 @@
       </c>
       <c r="AM77" s="21"/>
       <c r="AN77" s="21"/>
-    </row>
-    <row r="78" spans="1:40">
+      <c r="AP77" s="22">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
@@ -5949,8 +6189,11 @@
       </c>
       <c r="AM78" s="21"/>
       <c r="AN78" s="21"/>
-    </row>
-    <row r="79" spans="1:40">
+      <c r="AP78" s="22">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
@@ -6012,8 +6255,11 @@
       </c>
       <c r="AM79" s="21"/>
       <c r="AN79" s="21"/>
-    </row>
-    <row r="80" spans="1:40">
+      <c r="AP79" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -6075,8 +6321,11 @@
       </c>
       <c r="AM80" s="21"/>
       <c r="AN80" s="21"/>
-    </row>
-    <row r="81" spans="1:40">
+      <c r="AP80" s="22">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
@@ -6138,8 +6387,11 @@
       </c>
       <c r="AM81" s="21"/>
       <c r="AN81" s="21"/>
-    </row>
-    <row r="82" spans="1:40">
+      <c r="AP81" s="22">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
@@ -6201,8 +6453,11 @@
       </c>
       <c r="AM82" s="21"/>
       <c r="AN82" s="21"/>
-    </row>
-    <row r="83" spans="1:40">
+      <c r="AP82" s="22">
+        <v>-6.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
@@ -6264,8 +6519,11 @@
       </c>
       <c r="AM83" s="21"/>
       <c r="AN83" s="21"/>
-    </row>
-    <row r="84" spans="1:40">
+      <c r="AP83" s="22">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
@@ -6327,8 +6585,11 @@
       </c>
       <c r="AM84" s="21"/>
       <c r="AN84" s="21"/>
-    </row>
-    <row r="85" spans="1:40">
+      <c r="AP84" s="22">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -6390,8 +6651,11 @@
       </c>
       <c r="AM85" s="21"/>
       <c r="AN85" s="21"/>
-    </row>
-    <row r="86" spans="1:40">
+      <c r="AP85" s="22">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
@@ -6453,8 +6717,11 @@
       </c>
       <c r="AM86" s="21"/>
       <c r="AN86" s="21"/>
-    </row>
-    <row r="87" spans="1:40">
+      <c r="AP86" s="22">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
@@ -6516,8 +6783,11 @@
       </c>
       <c r="AM87" s="21"/>
       <c r="AN87" s="21"/>
-    </row>
-    <row r="88" spans="1:40">
+      <c r="AP87" s="22">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
@@ -6579,8 +6849,11 @@
       </c>
       <c r="AM88" s="21"/>
       <c r="AN88" s="21"/>
-    </row>
-    <row r="89" spans="1:40">
+      <c r="AP88" s="22">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
@@ -6642,8 +6915,11 @@
       </c>
       <c r="AM89" s="21"/>
       <c r="AN89" s="21"/>
-    </row>
-    <row r="90" spans="1:40">
+      <c r="AP89" s="22">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
@@ -6705,8 +6981,11 @@
       </c>
       <c r="AM90" s="21"/>
       <c r="AN90" s="21"/>
-    </row>
-    <row r="91" spans="1:40">
+      <c r="AP90" s="22">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
@@ -6768,8 +7047,11 @@
       </c>
       <c r="AM91" s="21"/>
       <c r="AN91" s="21"/>
-    </row>
-    <row r="92" spans="1:40">
+      <c r="AP91" s="22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -6831,8 +7113,11 @@
       </c>
       <c r="AM92" s="21"/>
       <c r="AN92" s="21"/>
-    </row>
-    <row r="93" spans="1:40">
+      <c r="AP92" s="22">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
@@ -6894,8 +7179,11 @@
       </c>
       <c r="AM93" s="21"/>
       <c r="AN93" s="21"/>
-    </row>
-    <row r="94" spans="1:40">
+      <c r="AP93" s="22">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
@@ -6953,8 +7241,11 @@
       </c>
       <c r="AM94" s="21"/>
       <c r="AN94" s="21"/>
-    </row>
-    <row r="95" spans="1:40">
+      <c r="AP94" s="22">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
@@ -7012,8 +7303,11 @@
       </c>
       <c r="AM95" s="21"/>
       <c r="AN95" s="21"/>
-    </row>
-    <row r="96" spans="1:40">
+      <c r="AP95" s="22">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
@@ -7068,8 +7362,11 @@
       </c>
       <c r="AM96" s="21"/>
       <c r="AN96" s="21"/>
-    </row>
-    <row r="97" spans="1:40">
+      <c r="AP96" s="22">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
@@ -7113,8 +7410,11 @@
       </c>
       <c r="AM97" s="21"/>
       <c r="AN97" s="21"/>
-    </row>
-    <row r="98" spans="1:40">
+      <c r="AP97" s="22">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D98" s="1"/>
       <c r="I98" s="19"/>
       <c r="AG98" s="21">
@@ -7129,594 +7429,596 @@
       </c>
       <c r="AM98" s="21"/>
       <c r="AN98" s="21"/>
-    </row>
-    <row r="99" spans="1:40">
+      <c r="AP98" s="22">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D99" s="1"/>
       <c r="I99" s="19"/>
     </row>
-    <row r="100" spans="1:40">
+    <row r="100" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D100" s="1"/>
       <c r="I100" s="19"/>
     </row>
-    <row r="101" spans="1:40">
+    <row r="101" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D101" s="1"/>
       <c r="I101" s="19"/>
     </row>
-    <row r="102" spans="1:40">
+    <row r="102" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D102" s="1"/>
       <c r="I102" s="19"/>
     </row>
-    <row r="103" spans="1:40">
+    <row r="103" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D103" s="1"/>
       <c r="I103" s="19"/>
     </row>
-    <row r="104" spans="1:40">
+    <row r="104" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D104" s="1"/>
       <c r="I104" s="19"/>
     </row>
-    <row r="105" spans="1:40">
+    <row r="105" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D105" s="1"/>
       <c r="I105" s="19"/>
     </row>
-    <row r="106" spans="1:40">
+    <row r="106" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D106" s="1"/>
       <c r="I106" s="19"/>
     </row>
-    <row r="107" spans="1:40">
+    <row r="107" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D107" s="1"/>
       <c r="I107" s="19"/>
     </row>
-    <row r="108" spans="1:40">
+    <row r="108" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D108" s="1"/>
       <c r="I108" s="19"/>
     </row>
-    <row r="109" spans="1:40">
+    <row r="109" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I109" s="19"/>
     </row>
-    <row r="110" spans="1:40">
+    <row r="110" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I110" s="19"/>
     </row>
-    <row r="111" spans="1:40">
+    <row r="111" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I111" s="19"/>
     </row>
-    <row r="112" spans="1:40">
+    <row r="112" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I112" s="19"/>
     </row>
-    <row r="113" spans="9:9">
+    <row r="113" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I113" s="19"/>
     </row>
-    <row r="114" spans="9:9">
+    <row r="114" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I114" s="19"/>
     </row>
-    <row r="115" spans="9:9">
+    <row r="115" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I115" s="19"/>
     </row>
-    <row r="116" spans="9:9">
+    <row r="116" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="9:9">
+    <row r="117" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="9:9">
+    <row r="118" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="9:9">
+    <row r="119" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I119" s="19"/>
     </row>
-    <row r="120" spans="9:9">
+    <row r="120" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I120" s="19"/>
     </row>
-    <row r="121" spans="9:9">
+    <row r="121" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I121" s="19"/>
     </row>
-    <row r="122" spans="9:9">
+    <row r="122" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I122" s="19"/>
     </row>
-    <row r="123" spans="9:9">
+    <row r="123" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I123" s="19"/>
     </row>
-    <row r="124" spans="9:9">
+    <row r="124" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I124" s="19"/>
     </row>
-    <row r="125" spans="9:9">
+    <row r="125" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I125" s="19"/>
     </row>
-    <row r="126" spans="9:9">
+    <row r="126" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I126" s="19"/>
     </row>
-    <row r="127" spans="9:9">
+    <row r="127" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I127" s="19"/>
     </row>
-    <row r="128" spans="9:9">
+    <row r="128" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I128" s="19"/>
     </row>
-    <row r="129" spans="9:9">
+    <row r="129" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I129" s="19"/>
     </row>
-    <row r="130" spans="9:9">
+    <row r="130" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I130" s="19"/>
     </row>
-    <row r="131" spans="9:9">
+    <row r="131" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I131" s="19"/>
     </row>
-    <row r="132" spans="9:9">
+    <row r="132" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I132" s="19"/>
     </row>
-    <row r="133" spans="9:9">
+    <row r="133" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I133" s="19"/>
     </row>
-    <row r="134" spans="9:9">
+    <row r="134" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I134" s="19"/>
     </row>
-    <row r="135" spans="9:9">
+    <row r="135" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I135" s="19"/>
     </row>
-    <row r="136" spans="9:9">
+    <row r="136" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I136" s="19"/>
     </row>
-    <row r="137" spans="9:9">
+    <row r="137" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I137" s="19"/>
     </row>
-    <row r="138" spans="9:9">
+    <row r="138" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I138" s="19"/>
     </row>
-    <row r="139" spans="9:9">
+    <row r="139" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I139" s="19"/>
     </row>
-    <row r="140" spans="9:9">
+    <row r="140" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I140" s="19"/>
     </row>
-    <row r="141" spans="9:9">
+    <row r="141" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I141" s="19"/>
     </row>
-    <row r="142" spans="9:9">
+    <row r="142" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I142" s="19"/>
     </row>
-    <row r="143" spans="9:9">
+    <row r="143" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I143" s="19"/>
     </row>
-    <row r="144" spans="9:9">
+    <row r="144" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I144" s="19"/>
     </row>
-    <row r="145" spans="9:9">
+    <row r="145" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I145" s="19"/>
     </row>
-    <row r="146" spans="9:9">
+    <row r="146" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I146" s="19"/>
     </row>
-    <row r="147" spans="9:9">
+    <row r="147" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I147" s="19"/>
     </row>
-    <row r="148" spans="9:9">
+    <row r="148" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I148" s="19"/>
     </row>
-    <row r="149" spans="9:9">
+    <row r="149" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I149" s="19"/>
     </row>
-    <row r="150" spans="9:9">
+    <row r="150" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I150" s="19"/>
     </row>
-    <row r="151" spans="9:9">
+    <row r="151" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I151" s="19"/>
     </row>
-    <row r="152" spans="9:9">
+    <row r="152" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I152" s="19"/>
     </row>
-    <row r="153" spans="9:9">
+    <row r="153" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I153" s="19"/>
     </row>
-    <row r="154" spans="9:9">
+    <row r="154" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I154" s="19"/>
     </row>
-    <row r="155" spans="9:9">
+    <row r="155" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I155" s="19"/>
     </row>
-    <row r="156" spans="9:9">
+    <row r="156" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I156" s="19"/>
     </row>
-    <row r="157" spans="9:9">
+    <row r="157" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I157" s="19"/>
     </row>
-    <row r="158" spans="9:9">
+    <row r="158" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I158" s="19"/>
     </row>
-    <row r="159" spans="9:9">
+    <row r="159" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I159" s="19"/>
     </row>
-    <row r="160" spans="9:9">
+    <row r="160" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I160" s="19"/>
     </row>
-    <row r="161" spans="9:9">
+    <row r="161" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I161" s="19"/>
     </row>
-    <row r="162" spans="9:9">
+    <row r="162" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I162" s="19"/>
     </row>
-    <row r="163" spans="9:9">
+    <row r="163" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I163" s="19"/>
     </row>
-    <row r="164" spans="9:9">
+    <row r="164" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I164" s="19"/>
     </row>
-    <row r="165" spans="9:9">
+    <row r="165" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I165" s="19"/>
     </row>
-    <row r="166" spans="9:9">
+    <row r="166" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I166" s="19"/>
     </row>
-    <row r="167" spans="9:9">
+    <row r="167" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I167" s="19"/>
     </row>
-    <row r="168" spans="9:9">
+    <row r="168" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I168" s="19"/>
     </row>
-    <row r="169" spans="9:9">
+    <row r="169" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I169" s="19"/>
     </row>
-    <row r="170" spans="9:9">
+    <row r="170" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I170" s="19"/>
     </row>
-    <row r="171" spans="9:9">
+    <row r="171" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I171" s="19"/>
     </row>
-    <row r="172" spans="9:9">
+    <row r="172" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I172" s="19"/>
     </row>
-    <row r="173" spans="9:9">
+    <row r="173" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I173" s="19"/>
     </row>
-    <row r="174" spans="9:9">
+    <row r="174" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I174" s="19"/>
     </row>
-    <row r="175" spans="9:9">
+    <row r="175" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I175" s="19"/>
     </row>
-    <row r="176" spans="9:9">
+    <row r="176" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I176" s="19"/>
     </row>
-    <row r="177" spans="9:9">
+    <row r="177" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I177" s="19"/>
     </row>
-    <row r="178" spans="9:9">
+    <row r="178" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I178" s="19"/>
     </row>
-    <row r="179" spans="9:9">
+    <row r="179" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I179" s="19"/>
     </row>
-    <row r="180" spans="9:9">
+    <row r="180" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I180" s="19"/>
     </row>
-    <row r="181" spans="9:9">
+    <row r="181" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I181" s="19"/>
     </row>
-    <row r="182" spans="9:9">
+    <row r="182" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I182" s="19"/>
     </row>
-    <row r="183" spans="9:9">
+    <row r="183" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I183" s="19"/>
     </row>
-    <row r="184" spans="9:9">
+    <row r="184" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I184" s="19"/>
     </row>
-    <row r="185" spans="9:9">
+    <row r="185" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I185" s="19"/>
     </row>
-    <row r="186" spans="9:9">
+    <row r="186" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I186" s="19"/>
     </row>
-    <row r="187" spans="9:9">
+    <row r="187" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I187" s="19"/>
     </row>
-    <row r="188" spans="9:9">
+    <row r="188" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I188" s="19"/>
     </row>
-    <row r="189" spans="9:9">
+    <row r="189" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I189" s="19"/>
     </row>
-    <row r="190" spans="9:9">
+    <row r="190" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I190" s="19"/>
     </row>
-    <row r="191" spans="9:9">
+    <row r="191" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I191" s="19"/>
     </row>
-    <row r="192" spans="9:9">
+    <row r="192" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I192" s="19"/>
     </row>
-    <row r="193" spans="9:9">
+    <row r="193" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I193" s="19"/>
     </row>
-    <row r="194" spans="9:9">
+    <row r="194" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I194" s="19"/>
     </row>
-    <row r="195" spans="9:9">
+    <row r="195" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I195" s="19"/>
     </row>
-    <row r="196" spans="9:9">
+    <row r="196" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I196" s="19"/>
     </row>
-    <row r="197" spans="9:9">
+    <row r="197" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I197" s="19"/>
     </row>
-    <row r="198" spans="9:9">
+    <row r="198" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I198" s="19"/>
     </row>
-    <row r="199" spans="9:9">
+    <row r="199" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I199" s="19"/>
     </row>
-    <row r="200" spans="9:9">
+    <row r="200" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I200" s="19"/>
     </row>
-    <row r="201" spans="9:9">
+    <row r="201" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I201" s="19"/>
     </row>
-    <row r="202" spans="9:9">
+    <row r="202" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I202" s="19"/>
     </row>
-    <row r="203" spans="9:9">
+    <row r="203" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I203" s="19"/>
     </row>
-    <row r="204" spans="9:9">
+    <row r="204" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I204" s="19"/>
     </row>
-    <row r="205" spans="9:9">
+    <row r="205" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I205" s="19"/>
     </row>
-    <row r="206" spans="9:9">
+    <row r="206" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I206" s="19"/>
     </row>
-    <row r="207" spans="9:9">
+    <row r="207" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I207" s="19"/>
     </row>
-    <row r="208" spans="9:9">
+    <row r="208" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I208" s="19"/>
     </row>
-    <row r="209" spans="9:9">
+    <row r="209" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I209" s="19"/>
     </row>
-    <row r="210" spans="9:9">
+    <row r="210" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I210" s="19"/>
     </row>
-    <row r="211" spans="9:9">
+    <row r="211" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I211" s="19"/>
     </row>
-    <row r="212" spans="9:9">
+    <row r="212" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I212" s="19"/>
     </row>
-    <row r="213" spans="9:9">
+    <row r="213" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I213" s="19"/>
     </row>
-    <row r="214" spans="9:9">
+    <row r="214" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I214" s="19"/>
     </row>
-    <row r="215" spans="9:9">
+    <row r="215" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I215" s="19"/>
     </row>
-    <row r="216" spans="9:9">
+    <row r="216" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I216" s="19"/>
     </row>
-    <row r="217" spans="9:9">
+    <row r="217" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I217" s="19"/>
     </row>
-    <row r="218" spans="9:9">
+    <row r="218" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I218" s="19"/>
     </row>
-    <row r="219" spans="9:9">
+    <row r="219" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I219" s="19"/>
     </row>
-    <row r="220" spans="9:9">
+    <row r="220" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I220" s="19"/>
     </row>
-    <row r="221" spans="9:9">
+    <row r="221" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I221" s="19"/>
     </row>
-    <row r="222" spans="9:9">
+    <row r="222" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I222" s="19"/>
     </row>
-    <row r="223" spans="9:9">
+    <row r="223" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I223" s="19"/>
     </row>
-    <row r="224" spans="9:9">
+    <row r="224" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I224" s="19"/>
     </row>
-    <row r="225" spans="9:9">
+    <row r="225" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I225" s="19"/>
     </row>
-    <row r="226" spans="9:9">
+    <row r="226" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I226" s="19"/>
     </row>
-    <row r="227" spans="9:9">
+    <row r="227" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I227" s="19"/>
     </row>
-    <row r="228" spans="9:9">
+    <row r="228" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I228" s="19"/>
     </row>
-    <row r="229" spans="9:9">
+    <row r="229" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I229" s="19"/>
     </row>
-    <row r="230" spans="9:9">
+    <row r="230" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I230" s="19"/>
     </row>
-    <row r="231" spans="9:9">
+    <row r="231" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I231" s="19"/>
     </row>
-    <row r="232" spans="9:9">
+    <row r="232" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I232" s="19"/>
     </row>
-    <row r="233" spans="9:9">
+    <row r="233" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I233" s="19"/>
     </row>
-    <row r="234" spans="9:9">
+    <row r="234" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I234" s="19"/>
     </row>
-    <row r="235" spans="9:9">
+    <row r="235" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I235" s="19"/>
     </row>
-    <row r="236" spans="9:9">
+    <row r="236" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I236" s="19"/>
     </row>
-    <row r="237" spans="9:9">
+    <row r="237" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I237" s="19"/>
     </row>
-    <row r="238" spans="9:9">
+    <row r="238" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I238" s="19"/>
     </row>
-    <row r="239" spans="9:9">
+    <row r="239" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I239" s="19"/>
     </row>
-    <row r="240" spans="9:9">
+    <row r="240" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I240" s="19"/>
     </row>
-    <row r="241" spans="9:9">
+    <row r="241" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I241" s="19"/>
     </row>
-    <row r="242" spans="9:9">
+    <row r="242" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I242" s="19"/>
     </row>
-    <row r="243" spans="9:9">
+    <row r="243" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I243" s="19"/>
     </row>
-    <row r="244" spans="9:9">
+    <row r="244" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I244" s="19"/>
     </row>
-    <row r="245" spans="9:9">
+    <row r="245" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I245" s="19"/>
     </row>
-    <row r="246" spans="9:9">
+    <row r="246" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I246" s="19"/>
     </row>
-    <row r="247" spans="9:9">
+    <row r="247" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I247" s="19"/>
     </row>
-    <row r="248" spans="9:9">
+    <row r="248" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I248" s="19"/>
     </row>
-    <row r="249" spans="9:9">
+    <row r="249" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I249" s="19"/>
     </row>
-    <row r="250" spans="9:9">
+    <row r="250" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I250" s="19"/>
     </row>
-    <row r="251" spans="9:9">
+    <row r="251" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I251" s="19"/>
     </row>
-    <row r="252" spans="9:9">
+    <row r="252" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I252" s="19"/>
     </row>
-    <row r="253" spans="9:9">
+    <row r="253" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I253" s="19"/>
     </row>
-    <row r="254" spans="9:9">
+    <row r="254" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I254" s="19"/>
     </row>
-    <row r="255" spans="9:9">
+    <row r="255" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I255" s="19"/>
     </row>
-    <row r="256" spans="9:9">
+    <row r="256" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I256" s="19"/>
     </row>
-    <row r="257" spans="9:9">
+    <row r="257" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I257" s="19"/>
     </row>
-    <row r="258" spans="9:9">
+    <row r="258" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I258" s="19"/>
     </row>
-    <row r="259" spans="9:9">
+    <row r="259" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I259" s="19"/>
     </row>
-    <row r="260" spans="9:9">
+    <row r="260" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I260" s="19"/>
     </row>
-    <row r="261" spans="9:9">
+    <row r="261" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I261" s="19"/>
     </row>
-    <row r="262" spans="9:9">
+    <row r="262" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I262" s="19"/>
     </row>
-    <row r="263" spans="9:9">
+    <row r="263" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I263" s="19"/>
     </row>
-    <row r="264" spans="9:9">
+    <row r="264" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I264" s="19"/>
     </row>
-    <row r="265" spans="9:9">
+    <row r="265" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I265" s="19"/>
     </row>
-    <row r="266" spans="9:9">
+    <row r="266" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I266" s="19"/>
     </row>
-    <row r="267" spans="9:9">
+    <row r="267" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I267" s="19"/>
     </row>
-    <row r="268" spans="9:9">
+    <row r="268" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I268" s="19"/>
     </row>
-    <row r="269" spans="9:9">
+    <row r="269" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I269" s="19"/>
     </row>
-    <row r="270" spans="9:9">
+    <row r="270" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I270" s="19"/>
     </row>
-    <row r="271" spans="9:9">
+    <row r="271" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I271" s="19"/>
     </row>
-    <row r="272" spans="9:9">
+    <row r="272" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I272" s="19"/>
     </row>
-    <row r="273" spans="9:9">
+    <row r="273" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I273" s="19"/>
     </row>
-    <row r="274" spans="9:9">
+    <row r="274" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I274" s="19"/>
     </row>
-    <row r="275" spans="9:9">
+    <row r="275" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I275" s="19"/>
     </row>
-    <row r="276" spans="9:9">
+    <row r="276" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I276" s="19"/>
     </row>
-    <row r="277" spans="9:9">
+    <row r="277" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I277" s="19"/>
     </row>
-    <row r="278" spans="9:9">
+    <row r="278" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I278" s="19"/>
     </row>
-    <row r="279" spans="9:9">
+    <row r="279" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I279" s="19"/>
     </row>
-    <row r="280" spans="9:9">
+    <row r="280" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I280" s="19"/>
     </row>
-    <row r="281" spans="9:9">
+    <row r="281" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I281" s="19"/>
     </row>
-    <row r="282" spans="9:9">
+    <row r="282" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I282" s="19"/>
     </row>
-    <row r="283" spans="9:9">
+    <row r="283" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I283" s="19"/>
     </row>
-    <row r="284" spans="9:9">
+    <row r="284" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I284" s="19"/>
     </row>
-    <row r="285" spans="9:9">
+    <row r="285" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I285" s="19"/>
     </row>
-    <row r="286" spans="9:9">
+    <row r="286" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I286" s="19"/>
     </row>
-    <row r="287" spans="9:9">
+    <row r="287" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I287" s="19"/>
     </row>
-    <row r="288" spans="9:9">
+    <row r="288" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I288" s="19"/>
     </row>
-    <row r="289" spans="9:9">
+    <row r="289" spans="9:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I289" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O1" r:id="rId1" location="0" xr:uid="{1A5DC839-B836-414D-90FB-DC92D012B683}"/>
-    <hyperlink ref="AP1" r:id="rId2" display="China gdp year ago" xr:uid="{EC6C6DB8-9A83-4DA7-BADC-3E9C7F04C7A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7730,17 +8032,17 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.85546875" customWidth="1"/>
-    <col min="13" max="13" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.81640625" customWidth="1"/>
+    <col min="13" max="13" width="45.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:47">
+    <row r="1" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>20</v>
       </c>
@@ -7766,7 +8068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="3:47">
+    <row r="2" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2:D24">TRANSPOSE(Y2:AU3)</f>
         <v>2001</v>
@@ -7872,7 +8174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="3:47">
+    <row r="3" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C3" t="str">
         <v>2002</v>
       </c>
@@ -7977,7 +8279,7 @@
         <v>44368658</v>
       </c>
     </row>
-    <row r="4" spans="3:47">
+    <row r="4" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C4" t="str">
         <v>2003</v>
       </c>
@@ -8007,7 +8309,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="3:47">
+    <row r="5" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C5" t="str">
         <v>2004</v>
       </c>
@@ -8034,7 +8336,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="6" spans="3:47">
+    <row r="6" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C6" t="str">
         <v>2005</v>
       </c>
@@ -8061,7 +8363,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="7" spans="3:47">
+    <row r="7" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C7" t="str">
         <v>2006</v>
       </c>
@@ -8090,7 +8392,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="3:47">
+    <row r="8" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C8" t="str">
         <v>2007</v>
       </c>
@@ -8111,7 +8413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:47">
+    <row r="9" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C9" t="str">
         <v>2008</v>
       </c>
@@ -8135,7 +8437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:47">
+    <row r="10" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C10" t="str">
         <v>2009</v>
       </c>
@@ -8149,7 +8451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:47">
+    <row r="11" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C11" t="str">
         <v>2010</v>
       </c>
@@ -8163,7 +8465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="3:47">
+    <row r="12" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C12" t="str">
         <v>2011</v>
       </c>
@@ -8180,7 +8482,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="3:47">
+    <row r="13" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C13" t="str">
         <v>2012</v>
       </c>
@@ -8188,7 +8490,7 @@
         <v>41853628</v>
       </c>
     </row>
-    <row r="14" spans="3:47">
+    <row r="14" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C14" t="str">
         <v>2013</v>
       </c>
@@ -8196,7 +8498,7 @@
         <v>42212988</v>
       </c>
     </row>
-    <row r="15" spans="3:47">
+    <row r="15" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
         <v>2014</v>
       </c>
@@ -8204,7 +8506,7 @@
         <v>42458390</v>
       </c>
     </row>
-    <row r="16" spans="3:47">
+    <row r="16" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C16" t="str">
         <v>2015</v>
       </c>
@@ -8212,7 +8514,7 @@
         <v>42660629</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C17" t="str">
         <v>2016</v>
       </c>
@@ -8220,7 +8522,7 @@
         <v>43567225</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C18" t="str">
         <v>2017</v>
       </c>
@@ -8228,7 +8530,7 @@
         <v>43819028</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C19" t="str">
         <v>2018</v>
       </c>
@@ -8236,7 +8538,7 @@
         <v>43935038</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C20" t="str">
         <v>2019</v>
       </c>
@@ -8244,7 +8546,7 @@
         <v>44433744</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" t="str">
         <v>2020</v>
       </c>
@@ -8252,7 +8554,7 @@
         <v>43501190</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C22" t="str">
         <v>2021</v>
       </c>
@@ -8260,7 +8562,7 @@
         <v>43386527</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C23" t="str">
         <v>2022</v>
       </c>
@@ -8268,7 +8570,7 @@
         <v>44198105</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C24" t="str">
         <v>2023</v>
       </c>
@@ -8295,14 +8597,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2009</v>
       </c>
@@ -8310,92 +8612,92 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -8413,22 +8715,22 @@
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>92</v>
       </c>
@@ -8484,7 +8786,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C2" s="4">
         <v>36526</v>
       </c>
@@ -8524,7 +8826,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="3" spans="2:19">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C3" s="4">
         <v>36892</v>
       </c>
@@ -8564,7 +8866,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C4" s="4">
         <v>37257</v>
       </c>
@@ -8604,7 +8906,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C5" s="4">
         <v>37622</v>
       </c>
@@ -8644,7 +8946,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C6" s="4">
         <v>37987</v>
       </c>
@@ -8684,7 +8986,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C7" s="4">
         <v>38353</v>
       </c>
@@ -8712,7 +9014,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C8" s="4">
         <v>38718</v>
       </c>
@@ -8740,7 +9042,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="9" spans="2:19">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C9" s="4">
         <v>39083</v>
       </c>
@@ -8768,7 +9070,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="10" spans="2:19">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C10" s="4">
         <v>39448</v>
       </c>
@@ -8796,7 +9098,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:19">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C11" s="4">
         <v>39814</v>
       </c>
@@ -8824,7 +9126,7 @@
         <v>-6.2</v>
       </c>
     </row>
-    <row r="12" spans="2:19">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C12" s="4">
         <v>40179</v>
       </c>
@@ -8852,7 +9154,7 @@
         <v>-6.3</v>
       </c>
     </row>
-    <row r="13" spans="2:19">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C13" s="4">
         <v>40544</v>
       </c>
@@ -8880,7 +9182,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C14" s="4">
         <v>40909</v>
       </c>
@@ -8908,7 +9210,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="4">
         <v>41275</v>
       </c>
@@ -8936,7 +9238,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C16" s="4">
         <v>41640</v>
       </c>
@@ -8964,7 +9266,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="17" spans="3:19">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C17" s="4">
         <v>42005</v>
       </c>
@@ -8992,7 +9294,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="3:19">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C18" s="4">
         <v>42370</v>
       </c>
@@ -9020,7 +9322,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="19" spans="3:19">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C19" s="4">
         <v>42736</v>
       </c>
@@ -9048,7 +9350,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="20" spans="3:19">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C20" s="4">
         <v>43101</v>
       </c>
@@ -9076,7 +9378,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="21" spans="3:19">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C21" s="4">
         <v>43466</v>
       </c>
@@ -9104,7 +9406,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="22" spans="3:19">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C22" s="4">
         <v>43831</v>
       </c>
@@ -9132,7 +9434,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="23" spans="3:19">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C23" s="4">
         <v>44197</v>
       </c>
@@ -9160,7 +9462,7 @@
         <v>-5.2</v>
       </c>
     </row>
-    <row r="24" spans="3:19">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C24" s="4">
         <v>44562</v>
       </c>
@@ -9188,7 +9490,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="25" spans="3:19">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C25" s="4">
         <v>44927</v>
       </c>

--- a/Makroøkonomisk projekt.xlsx
+++ b/Makroøkonomisk projekt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/projekteksamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="891" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C76B4E5A-2880-4ED6-9A57-9B6AFA26E72B}"/>
+  <xr:revisionPtr revIDLastSave="894" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7089E7C1-26B0-4A55-9512-D06C14FA6C79}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nøgletal" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,9 @@
   <commentList>
     <comment ref="I2" authorId="0" shapeId="0" xr:uid="{4B42F164-681C-4A58-84D1-0574D84188C8}">
       <text>
-        <t xml:space="preserve">[Trådet kommentar]
-Din version af Excel lader dig læse denne trådede kommentar. Eventuelle ændringer vil dog blive fjernet, hvis filen åbnes i en nyere version af Excel. Få mere at vide: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
 How is your company developing in relation to the lack of new recruits and skilled workers? 
 </t>
       </text>
@@ -97,7 +97,7 @@
     <t>unemp</t>
   </si>
   <si>
-    <t>HPI: growth same period previous year</t>
+    <t>HCIP: growth same period previous year</t>
   </si>
   <si>
     <t>Interest Rate (10-year Goverment Bond Yields)</t>
@@ -148,6 +148,9 @@
     <t>New eurozone gdp year ago</t>
   </si>
   <si>
+    <t>China gdp year ago</t>
+  </si>
+  <si>
     <t>Year</t>
   </si>
   <si>
@@ -386,9 +389,6 @@
   </si>
   <si>
     <t>Generel government net lending/borrowing for EU</t>
-  </si>
-  <si>
-    <t>China gdp year ago</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +445,11 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -467,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -499,6 +504,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -944,34 +950,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="AQ3" sqref="AQ3"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" customWidth="1"/>
-    <col min="5" max="5" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.26953125" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="84.81640625" customWidth="1"/>
+    <col min="11" max="11" width="84.85546875" customWidth="1"/>
     <col min="12" max="12" width="79" customWidth="1"/>
-    <col min="13" max="13" width="49.7265625" customWidth="1"/>
+    <col min="13" max="13" width="49.7109375" customWidth="1"/>
     <col min="14" max="14" width="79" customWidth="1"/>
-    <col min="15" max="15" width="140.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.7265625" customWidth="1"/>
-    <col min="33" max="33" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="140.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.7109375" customWidth="1"/>
+    <col min="33" max="33" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1039,10 +1045,10 @@
       <c r="AM1" s="21"/>
       <c r="AN1" s="21"/>
       <c r="AP1" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="15" customHeight="1">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -1052,8 +1058,8 @@
       <c r="C2" s="1">
         <v>10.1</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.3</v>
+      <c r="D2" s="23">
+        <v>1.6</v>
       </c>
       <c r="E2" s="8">
         <v>5.4603795719999999</v>
@@ -1112,7 +1118,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
@@ -1122,8 +1128,8 @@
       <c r="C3" s="1">
         <v>9.5</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.2</v>
+      <c r="D3" s="23">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E3" s="8">
         <v>5.2650336700000002</v>
@@ -1181,7 +1187,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" ht="15" customHeight="1">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
@@ -1191,8 +1197,8 @@
       <c r="C4" s="1">
         <v>9.5</v>
       </c>
-      <c r="D4" s="1">
-        <v>-0.1</v>
+      <c r="D4" s="23">
+        <v>1.3</v>
       </c>
       <c r="E4" s="8">
         <v>5.2466528639999996</v>
@@ -1250,7 +1256,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" ht="15" customHeight="1">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
@@ -1260,8 +1266,8 @@
       <c r="C5" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.3</v>
+      <c r="D5" s="23">
+        <v>1.7</v>
       </c>
       <c r="E5" s="8">
         <v>5.0837685119999998</v>
@@ -1319,7 +1325,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" ht="15" customHeight="1">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
@@ -1329,8 +1335,8 @@
       <c r="C6" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.5</v>
+      <c r="D6" s="23">
+        <v>1.6</v>
       </c>
       <c r="E6" s="8">
         <v>4.7494696970000003</v>
@@ -1388,7 +1394,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
@@ -1398,8 +1404,8 @@
       <c r="C7" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
+      <c r="D7" s="23">
+        <v>2.5</v>
       </c>
       <c r="E7" s="8">
         <v>4.9582376400000001</v>
@@ -1457,7 +1463,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -1467,8 +1473,8 @@
       <c r="C8" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D8" s="1">
-        <v>1.3</v>
+      <c r="D8" s="23">
+        <v>2</v>
       </c>
       <c r="E8" s="8">
         <v>4.8842740449999997</v>
@@ -1526,7 +1532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" ht="15" customHeight="1">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
@@ -1536,8 +1542,8 @@
       <c r="C9" s="1">
         <v>9.6</v>
       </c>
-      <c r="D9" s="1">
-        <v>1.4</v>
+      <c r="D9" s="23">
+        <v>1.5</v>
       </c>
       <c r="E9" s="8">
         <v>4.5943916140000001</v>
@@ -1595,7 +1601,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" ht="15" customHeight="1">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
@@ -1605,8 +1611,8 @@
       <c r="C10" s="1">
         <v>9.6</v>
       </c>
-      <c r="D10" s="1">
-        <v>1.7</v>
+      <c r="D10" s="23">
+        <v>1.9</v>
       </c>
       <c r="E10" s="8">
         <v>4.9810757580000002</v>
@@ -1664,7 +1670,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
@@ -1674,8 +1680,8 @@
       <c r="C11" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D11" s="1">
-        <v>1.5</v>
+      <c r="D11" s="23">
+        <v>1.2</v>
       </c>
       <c r="E11" s="8">
         <v>5.1134884559999998</v>
@@ -1732,7 +1738,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42" ht="15" customHeight="1">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
@@ -1742,8 +1748,8 @@
       <c r="C12" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D12" s="1">
-        <v>1.3</v>
+      <c r="D12" s="23">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E12" s="8">
         <v>4.6140582849999996</v>
@@ -1801,7 +1807,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" ht="15" customHeight="1">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
@@ -1811,8 +1817,8 @@
       <c r="C13" s="1">
         <v>10.1</v>
       </c>
-      <c r="D13" s="1">
-        <v>1.1000000000000001</v>
+      <c r="D13" s="23">
+        <v>1.2</v>
       </c>
       <c r="E13" s="8">
         <v>4.4256958820000003</v>
@@ -1870,7 +1876,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" ht="15" customHeight="1">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1880,8 +1886,8 @@
       <c r="C14" s="1">
         <v>10.5</v>
       </c>
-      <c r="D14" s="1">
-        <v>0.6</v>
+      <c r="D14" s="23">
+        <v>1.2</v>
       </c>
       <c r="E14" s="8">
         <v>4.0451587299999998</v>
@@ -1939,7 +1945,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" ht="15" customHeight="1">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
@@ -1949,8 +1955,8 @@
       <c r="C15" s="1">
         <v>10.6</v>
       </c>
-      <c r="D15" s="1">
-        <v>0.7</v>
+      <c r="D15" s="23">
+        <v>0.9</v>
       </c>
       <c r="E15" s="8">
         <v>3.8596349210000001</v>
@@ -2008,7 +2014,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" ht="15" customHeight="1">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
@@ -2018,8 +2024,8 @@
       <c r="C16" s="1">
         <v>10.5</v>
       </c>
-      <c r="D16" s="1">
-        <v>0.6</v>
+      <c r="D16" s="23">
+        <v>1</v>
       </c>
       <c r="E16" s="8">
         <v>4.0913241109999996</v>
@@ -2077,7 +2083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" ht="15" customHeight="1">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
@@ -2087,8 +2093,8 @@
       <c r="C17" s="1">
         <v>10.5</v>
       </c>
-      <c r="D17" s="1">
-        <v>0.7</v>
+      <c r="D17" s="23">
+        <v>1.2</v>
       </c>
       <c r="E17" s="8">
         <v>4.2884523269999999</v>
@@ -2146,7 +2152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42" ht="15" customHeight="1">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
@@ -2156,8 +2162,8 @@
       <c r="C18" s="1">
         <v>10.3</v>
       </c>
-      <c r="D18" s="1">
-        <v>1.4</v>
+      <c r="D18" s="23">
+        <v>1</v>
       </c>
       <c r="E18" s="8">
         <v>4.0648102140000004</v>
@@ -2215,7 +2221,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" ht="15" customHeight="1">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
@@ -2225,8 +2231,8 @@
       <c r="C19" s="1">
         <v>10.5</v>
       </c>
-      <c r="D19" s="1">
-        <v>1.6</v>
+      <c r="D19" s="23">
+        <v>1.9</v>
       </c>
       <c r="E19" s="8">
         <v>4.2210202020000001</v>
@@ -2284,7 +2290,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42" ht="15" customHeight="1">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
@@ -2294,8 +2300,8 @@
       <c r="C20" s="1">
         <v>10.6</v>
       </c>
-      <c r="D20" s="1">
-        <v>1.5</v>
+      <c r="D20" s="23">
+        <v>2</v>
       </c>
       <c r="E20" s="8">
         <v>4.1112121210000003</v>
@@ -2353,7 +2359,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" ht="15" customHeight="1">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
@@ -2363,8 +2369,8 @@
       <c r="C21" s="1">
         <v>10.8</v>
       </c>
-      <c r="D21" s="1">
-      